--- a/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
+++ b/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/fhir-mCODE-ig/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/fhir-mCODE-ig/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{76BC195B-3344-0B4D-B0AF-DED7421CB70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C302ACCF-AE2D-FD4A-8843-0825934F3C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="47820" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6426" uniqueCount="2551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6427" uniqueCount="2552">
   <si>
     <t>Description</t>
   </si>
@@ -6827,9 +6827,6 @@
   </si>
   <si>
     <t>Frontal sinus structure (body structure)</t>
-  </si>
-  <si>
-    <t>Ventricular systole, function (observable entity)</t>
   </si>
   <si>
     <t>Structure of suprasellar region (body structure)</t>
@@ -7728,14 +7725,27 @@
       <t xml:space="preserve"> lateral axillary lymph nodes</t>
     </r>
   </si>
+  <si>
+    <t>Space of ventricular system of brain (body structure)</t>
+  </si>
+  <si>
+    <t>Ventricular System of the Brain</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8090,133 +8100,120 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -8224,223 +8221,237 @@
     <xf numFmtId="1" fontId="13" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8793,8 +8804,8 @@
   <dimension ref="A1:U963"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I733" sqref="I733"/>
+      <pane ySplit="1" topLeftCell="A606" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I622" sqref="I622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8842,23 +8853,23 @@
         <v>737</v>
       </c>
       <c r="K1" s="137" t="s">
+        <v>2519</v>
+      </c>
+      <c r="L1" s="134" t="s">
         <v>2520</v>
       </c>
-      <c r="L1" s="134" t="s">
-        <v>2521</v>
-      </c>
       <c r="M1" s="103" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="N1" s="135" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="O1" s="136" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="75"/>
       <c r="B2" s="19" t="s">
         <v>701</v>
@@ -8899,7 +8910,7 @@
       <c r="O2" s="26"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
       <c r="B3" s="27" t="s">
         <v>701</v>
@@ -8940,7 +8951,7 @@
       <c r="O3" s="26"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="75"/>
       <c r="B4" s="19" t="s">
         <v>701</v>
@@ -8981,7 +8992,7 @@
       <c r="O4" s="26"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="75"/>
       <c r="B5" s="19" t="s">
         <v>701</v>
@@ -9022,7 +9033,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9067,7 +9078,7 @@
       <c r="O6" s="26"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9112,7 +9123,7 @@
       <c r="O7" s="26"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="75"/>
       <c r="B8" s="19" t="s">
         <v>701</v>
@@ -9153,7 +9164,7 @@
       <c r="O8" s="26"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="75"/>
       <c r="B9" s="19" t="s">
         <v>701</v>
@@ -9194,7 +9205,7 @@
       <c r="O9" s="26"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9239,7 +9250,7 @@
       <c r="O10" s="26"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9284,7 +9295,7 @@
       <c r="O11" s="26"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" ht="68" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="2" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9324,14 +9335,14 @@
         <v>2039</v>
       </c>
       <c r="N12" s="159" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9372,11 +9383,11 @@
       </c>
       <c r="N13" s="160"/>
       <c r="O13" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9421,7 +9432,7 @@
       <c r="O14" s="26"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9466,7 +9477,7 @@
       <c r="O15" s="26"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9514,7 +9525,7 @@
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9554,7 +9565,7 @@
       <c r="O17" s="26"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9597,7 +9608,7 @@
       <c r="O18" s="26"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9640,7 +9651,7 @@
       <c r="O19" s="26"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9664,7 +9675,7 @@
         <v>1977</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>392</v>
@@ -9676,14 +9687,14 @@
         <v>74200005</v>
       </c>
       <c r="L20" s="76" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="37"/>
       <c r="O20" s="26"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9719,14 +9730,14 @@
         <v>55601007</v>
       </c>
       <c r="L21" s="76" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="37"/>
       <c r="O21" s="26"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9769,7 +9780,7 @@
       <c r="O22" s="26"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9812,7 +9823,7 @@
       <c r="O23" s="26"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9848,7 +9859,7 @@
         <v>113269004</v>
       </c>
       <c r="L24" s="76" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="M24" s="15" t="s">
         <v>2004</v>
@@ -9857,7 +9868,7 @@
       <c r="O24" s="26"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9893,7 +9904,7 @@
         <v>113269004</v>
       </c>
       <c r="L25" s="76" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="M25" s="15" t="s">
         <v>2040</v>
@@ -9902,7 +9913,7 @@
       <c r="O25" s="26"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9938,7 +9949,7 @@
         <v>90024005</v>
       </c>
       <c r="L26" s="76" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="M26" s="15" t="s">
         <v>2004</v>
@@ -9947,7 +9958,7 @@
       <c r="O26" s="26"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="75" t="s">
         <v>2006</v>
       </c>
@@ -9983,7 +9994,7 @@
         <v>90024005</v>
       </c>
       <c r="L27" s="76" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="M27" s="15" t="s">
         <v>2040</v>
@@ -9992,7 +10003,7 @@
       <c r="O27" s="26"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="75" t="s">
         <v>2006</v>
       </c>
@@ -10028,7 +10039,7 @@
         <v>73634005</v>
       </c>
       <c r="L28" s="106" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="M28" s="15" t="s">
         <v>2004</v>
@@ -10037,7 +10048,7 @@
       <c r="O28" s="26"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="75" t="s">
         <v>2006</v>
       </c>
@@ -10073,7 +10084,7 @@
         <v>73634005</v>
       </c>
       <c r="L29" s="76" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="M29" s="15" t="s">
         <v>2040</v>
@@ -10082,7 +10093,7 @@
       <c r="O29" s="26"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="75"/>
       <c r="B30" s="27" t="s">
         <v>701</v>
@@ -10123,7 +10134,7 @@
       <c r="O30" s="26"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="75" t="s">
         <v>2006</v>
       </c>
@@ -10159,14 +10170,14 @@
         <v>33795007</v>
       </c>
       <c r="L31" s="76" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="37"/>
       <c r="O31" s="26"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="75" t="s">
         <v>2006</v>
       </c>
@@ -10202,14 +10213,14 @@
         <v>42258001</v>
       </c>
       <c r="L32" s="76" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="16"/>
       <c r="O32" s="26"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="75"/>
       <c r="B33" s="27" t="s">
         <v>701</v>
@@ -10250,7 +10261,7 @@
       <c r="O33" s="26"/>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="75"/>
       <c r="B34" s="27" t="s">
         <v>701</v>
@@ -10291,7 +10302,7 @@
       <c r="O34" s="26"/>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="75" t="s">
         <v>2006</v>
       </c>
@@ -10336,7 +10347,7 @@
       <c r="O35" s="26"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="75" t="s">
         <v>2006</v>
       </c>
@@ -10381,7 +10392,7 @@
       <c r="O36" s="26"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="75"/>
       <c r="B37" s="27" t="s">
         <v>701</v>
@@ -10422,7 +10433,7 @@
       <c r="O37" s="26"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="75" t="s">
         <v>2006</v>
       </c>
@@ -10467,7 +10478,7 @@
       <c r="O38" s="26"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="75" t="s">
         <v>2006</v>
       </c>
@@ -10512,7 +10523,7 @@
       <c r="O39" s="26"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="97" t="s">
         <v>2006</v>
       </c>
@@ -10557,7 +10568,7 @@
       <c r="O40" s="26"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="97" t="s">
         <v>2006</v>
       </c>
@@ -10602,7 +10613,7 @@
       <c r="O41" s="26"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="75"/>
       <c r="B42" s="27" t="s">
         <v>701</v>
@@ -10643,7 +10654,7 @@
       <c r="O42" s="26"/>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="75" t="s">
         <v>2006</v>
       </c>
@@ -10684,7 +10695,7 @@
       <c r="O43" s="26"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="75" t="s">
         <v>2006</v>
       </c>
@@ -10725,7 +10736,7 @@
       <c r="O44" s="26"/>
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="75"/>
       <c r="B45" s="27" t="s">
         <v>701</v>
@@ -10766,7 +10777,7 @@
       <c r="O45" s="26"/>
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="75"/>
       <c r="B46" s="27" t="s">
         <v>701</v>
@@ -10807,7 +10818,7 @@
       <c r="O46" s="26"/>
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="75"/>
       <c r="B47" s="27" t="s">
         <v>701</v>
@@ -10848,7 +10859,7 @@
       <c r="O47" s="26"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="75" t="s">
         <v>2006</v>
       </c>
@@ -10893,7 +10904,7 @@
       <c r="O48" s="26"/>
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="75" t="s">
         <v>2006</v>
       </c>
@@ -10938,7 +10949,7 @@
       <c r="O49" s="26"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="75"/>
       <c r="B50" s="19" t="s">
         <v>701</v>
@@ -10979,7 +10990,7 @@
       <c r="O50" s="26"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="75" t="s">
         <v>2006</v>
       </c>
@@ -11024,7 +11035,7 @@
       <c r="O51" s="26"/>
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="75" t="s">
         <v>2006</v>
       </c>
@@ -11099,7 +11110,7 @@
         <v>339648008</v>
       </c>
       <c r="L53" s="76" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="16"/>
@@ -11135,14 +11146,14 @@
         <v>705336001</v>
       </c>
       <c r="L54" s="110" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="16"/>
       <c r="O54" s="26"/>
       <c r="P54" s="4"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="75"/>
       <c r="B55" s="19" t="s">
         <v>701</v>
@@ -11183,7 +11194,7 @@
       <c r="O55" s="26"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="75"/>
       <c r="B56" s="19" t="s">
         <v>701</v>
@@ -11222,7 +11233,7 @@
       <c r="O56" s="26"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="75"/>
       <c r="B57" s="19" t="s">
         <v>701</v>
@@ -11294,7 +11305,7 @@
       <c r="O58" s="26"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="75"/>
       <c r="B59" s="19" t="s">
         <v>701</v>
@@ -11392,7 +11403,7 @@
         <v>462629001</v>
       </c>
       <c r="L61" s="76" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="M61" s="15"/>
       <c r="N61" s="37"/>
@@ -11432,7 +11443,7 @@
       <c r="O62" s="26"/>
       <c r="P62" s="4"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="75"/>
       <c r="B63" s="27" t="s">
         <v>701</v>
@@ -11471,7 +11482,7 @@
       <c r="O63" s="26"/>
       <c r="P63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="75"/>
       <c r="B64" s="27" t="s">
         <v>701</v>
@@ -11512,7 +11523,7 @@
       <c r="O64" s="26"/>
       <c r="P64" s="4"/>
     </row>
-    <row r="65" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="75"/>
       <c r="B65" s="27" t="s">
         <v>701</v>
@@ -11553,7 +11564,7 @@
       <c r="O65" s="26"/>
       <c r="P65" s="4"/>
     </row>
-    <row r="66" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="75"/>
       <c r="B66" s="27" t="s">
         <v>701</v>
@@ -11594,7 +11605,7 @@
       <c r="O66" s="26"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="75"/>
       <c r="B67" s="19" t="s">
         <v>701</v>
@@ -11635,7 +11646,7 @@
       <c r="O67" s="26"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="75" t="s">
         <v>2006</v>
       </c>
@@ -11680,7 +11691,7 @@
       <c r="O68" s="26"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="75" t="s">
         <v>2006</v>
       </c>
@@ -11725,7 +11736,7 @@
       <c r="O69" s="26"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="75"/>
       <c r="B70" s="19" t="s">
         <v>701</v>
@@ -11766,7 +11777,7 @@
       <c r="O70" s="26"/>
       <c r="P70" s="4"/>
     </row>
-    <row r="71" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="75" t="s">
         <v>2006</v>
       </c>
@@ -11811,7 +11822,7 @@
       <c r="O71" s="26"/>
       <c r="P71" s="4"/>
     </row>
-    <row r="72" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="75" t="s">
         <v>2006</v>
       </c>
@@ -11856,7 +11867,7 @@
       <c r="O72" s="26"/>
       <c r="P72" s="4"/>
     </row>
-    <row r="73" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="75" t="s">
         <v>2006</v>
       </c>
@@ -11901,7 +11912,7 @@
       <c r="O73" s="26"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="75" t="s">
         <v>2006</v>
       </c>
@@ -11946,7 +11957,7 @@
       <c r="O74" s="26"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="75"/>
       <c r="B75" s="19" t="s">
         <v>701</v>
@@ -11987,7 +11998,7 @@
       <c r="O75" s="26"/>
       <c r="P75" s="4"/>
     </row>
-    <row r="76" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12032,7 +12043,7 @@
       <c r="O76" s="26"/>
       <c r="P76" s="4"/>
     </row>
-    <row r="77" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12077,7 +12088,7 @@
       <c r="O77" s="26"/>
       <c r="P77" s="4"/>
     </row>
-    <row r="78" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="75"/>
       <c r="B78" s="19" t="s">
         <v>701</v>
@@ -12118,7 +12129,7 @@
       <c r="O78" s="26"/>
       <c r="P78" s="4"/>
     </row>
-    <row r="79" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="75"/>
       <c r="B79" s="19" t="s">
         <v>1464</v>
@@ -12159,7 +12170,7 @@
       <c r="O79" s="26"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12204,7 +12215,7 @@
       <c r="O80" s="26"/>
       <c r="P80" s="4"/>
     </row>
-    <row r="81" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12249,7 +12260,7 @@
       <c r="O81" s="26"/>
       <c r="P81" s="4"/>
     </row>
-    <row r="82" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="75"/>
       <c r="B82" s="19" t="s">
         <v>701</v>
@@ -12290,7 +12301,7 @@
       <c r="O82" s="26"/>
       <c r="P82" s="4"/>
     </row>
-    <row r="83" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12335,7 +12346,7 @@
       <c r="O83" s="26"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12380,7 +12391,7 @@
       <c r="O84" s="26"/>
       <c r="P84" s="4"/>
     </row>
-    <row r="85" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="75"/>
       <c r="B85" s="19" t="s">
         <v>701</v>
@@ -12421,7 +12432,7 @@
       <c r="O85" s="26"/>
       <c r="P85" s="4"/>
     </row>
-    <row r="86" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="75"/>
       <c r="B86" s="19" t="s">
         <v>701</v>
@@ -12462,7 +12473,7 @@
       <c r="O86" s="26"/>
       <c r="P86" s="4"/>
     </row>
-    <row r="87" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12507,7 +12518,7 @@
       <c r="O87" s="26"/>
       <c r="P87" s="4"/>
     </row>
-    <row r="88" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12552,7 +12563,7 @@
       <c r="O88" s="26"/>
       <c r="P88" s="4"/>
     </row>
-    <row r="89" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="75"/>
       <c r="B89" s="19" t="s">
         <v>701</v>
@@ -12593,7 +12604,7 @@
       <c r="O89" s="26"/>
       <c r="P89" s="4"/>
     </row>
-    <row r="90" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12638,7 +12649,7 @@
       <c r="O90" s="26"/>
       <c r="P90" s="4"/>
     </row>
-    <row r="91" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12683,7 +12694,7 @@
       <c r="O91" s="26"/>
       <c r="P91" s="4"/>
     </row>
-    <row r="92" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="75"/>
       <c r="B92" s="19" t="s">
         <v>701</v>
@@ -12724,7 +12735,7 @@
       <c r="O92" s="26"/>
       <c r="P92" s="4"/>
     </row>
-    <row r="93" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12769,7 +12780,7 @@
       <c r="O93" s="26"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12814,7 +12825,7 @@
       <c r="O94" s="26"/>
       <c r="P94" s="4"/>
     </row>
-    <row r="95" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="75"/>
       <c r="B95" s="19" t="s">
         <v>701</v>
@@ -12855,7 +12866,7 @@
       <c r="O95" s="26"/>
       <c r="P95" s="4"/>
     </row>
-    <row r="96" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="75"/>
       <c r="B96" s="19" t="s">
         <v>701</v>
@@ -12896,7 +12907,7 @@
       <c r="O96" s="26"/>
       <c r="P96" s="4"/>
     </row>
-    <row r="97" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12941,7 +12952,7 @@
       <c r="O97" s="26"/>
       <c r="P97" s="4"/>
     </row>
-    <row r="98" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="75" t="s">
         <v>2006</v>
       </c>
@@ -12986,7 +12997,7 @@
       <c r="O98" s="26"/>
       <c r="P98" s="4"/>
     </row>
-    <row r="99" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="75" t="s">
         <v>2006</v>
       </c>
@@ -13031,7 +13042,7 @@
       <c r="O99" s="26"/>
       <c r="P99" s="4"/>
     </row>
-    <row r="100" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="75" t="s">
         <v>2006</v>
       </c>
@@ -13076,7 +13087,7 @@
       <c r="O100" s="26"/>
       <c r="P100" s="4"/>
     </row>
-    <row r="101" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="75"/>
       <c r="B101" s="19" t="s">
         <v>701</v>
@@ -13117,7 +13128,7 @@
       <c r="O101" s="26"/>
       <c r="P101" s="4"/>
     </row>
-    <row r="102" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="75"/>
       <c r="B102" s="19" t="s">
         <v>701</v>
@@ -13158,7 +13169,7 @@
       <c r="O102" s="26"/>
       <c r="P102" s="4"/>
     </row>
-    <row r="103" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="75"/>
       <c r="B103" s="19" t="s">
         <v>701</v>
@@ -13190,7 +13201,7 @@
         <v>5798000</v>
       </c>
       <c r="L103" s="76" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="M103" s="15"/>
       <c r="N103" s="16"/>
@@ -13230,7 +13241,7 @@
       <c r="O104" s="26"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="75"/>
       <c r="B105" s="19" t="s">
         <v>701</v>
@@ -13267,7 +13278,7 @@
       <c r="O105" s="26"/>
       <c r="P105" s="4"/>
     </row>
-    <row r="106" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="75"/>
       <c r="B106" s="19" t="s">
         <v>701</v>
@@ -13308,7 +13319,7 @@
       <c r="O106" s="26"/>
       <c r="P106" s="4"/>
     </row>
-    <row r="107" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="75"/>
       <c r="B107" s="19" t="s">
         <v>701</v>
@@ -13347,7 +13358,7 @@
       <c r="O107" s="26"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="75" t="s">
         <v>2006</v>
       </c>
@@ -13392,7 +13403,7 @@
       <c r="O108" s="26"/>
       <c r="P108" s="4"/>
     </row>
-    <row r="109" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="75" t="s">
         <v>2006</v>
       </c>
@@ -13437,7 +13448,7 @@
       <c r="O109" s="26"/>
       <c r="P109" s="4"/>
     </row>
-    <row r="110" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="75"/>
       <c r="B110" s="19" t="s">
         <v>701</v>
@@ -13478,7 +13489,7 @@
       <c r="O110" s="26"/>
       <c r="P110" s="4"/>
     </row>
-    <row r="111" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="75"/>
       <c r="B111" s="19" t="s">
         <v>701</v>
@@ -13551,7 +13562,7 @@
       <c r="L112" s="111"/>
       <c r="M112" s="15"/>
       <c r="N112" s="161" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="O112" s="26"/>
       <c r="P112" s="4"/>
@@ -13626,7 +13637,7 @@
       <c r="O114" s="26"/>
       <c r="P114" s="4"/>
     </row>
-    <row r="115" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="75"/>
       <c r="B115" s="19" t="s">
         <v>701</v>
@@ -13667,7 +13678,7 @@
       <c r="O115" s="26"/>
       <c r="P115" s="4"/>
     </row>
-    <row r="116" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="75"/>
       <c r="B116" s="19" t="s">
         <v>701</v>
@@ -13702,7 +13713,7 @@
         <v>2223</v>
       </c>
       <c r="M116" s="49" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="N116" s="37"/>
       <c r="O116" s="50"/>
@@ -13778,7 +13789,7 @@
       <c r="O118" s="50"/>
       <c r="P118" s="4"/>
     </row>
-    <row r="119" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="75"/>
       <c r="B119" s="19" t="s">
         <v>701</v>
@@ -13813,13 +13824,13 @@
         <v>2223</v>
       </c>
       <c r="M119" s="49" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="N119" s="37"/>
       <c r="O119" s="50"/>
       <c r="P119" s="4"/>
     </row>
-    <row r="120" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="75" t="s">
         <v>2006</v>
       </c>
@@ -13853,7 +13864,7 @@
         <v>76752008</v>
       </c>
       <c r="L120" s="106" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="M120" s="15" t="s">
         <v>2039</v>
@@ -13862,7 +13873,7 @@
       <c r="O120" s="26"/>
       <c r="P120" s="4"/>
     </row>
-    <row r="121" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="75" t="s">
         <v>2006</v>
       </c>
@@ -13896,7 +13907,7 @@
         <v>76752008</v>
       </c>
       <c r="L121" s="76" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="M121" s="15" t="s">
         <v>2040</v>
@@ -13905,7 +13916,7 @@
       <c r="O121" s="26"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="75" t="s">
         <v>2006</v>
       </c>
@@ -13939,7 +13950,7 @@
         <v>76752008</v>
       </c>
       <c r="L122" s="76" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="M122" s="15" t="s">
         <v>2201</v>
@@ -13948,7 +13959,7 @@
       <c r="O122" s="26"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="75"/>
       <c r="B123" s="19" t="s">
         <v>701</v>
@@ -13989,7 +14000,7 @@
       <c r="O123" s="26"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="75" t="s">
         <v>2006</v>
       </c>
@@ -14034,7 +14045,7 @@
       <c r="O124" s="26"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="75"/>
       <c r="B125" s="19" t="s">
         <v>701</v>
@@ -14075,7 +14086,7 @@
       <c r="O125" s="26"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="75" t="s">
         <v>2006</v>
       </c>
@@ -14118,7 +14129,7 @@
       <c r="O126" s="26"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="75" t="s">
         <v>2006</v>
       </c>
@@ -14161,7 +14172,7 @@
       <c r="O127" s="26"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="97" t="s">
         <v>2006</v>
       </c>
@@ -14202,7 +14213,7 @@
       <c r="O128" s="26"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="75" t="s">
         <v>2006</v>
       </c>
@@ -14247,7 +14258,7 @@
       <c r="O129" s="26"/>
       <c r="P129" s="4"/>
     </row>
-    <row r="130" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="75"/>
       <c r="B130" s="27" t="s">
         <v>701</v>
@@ -14288,7 +14299,7 @@
       <c r="O130" s="26"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="75"/>
       <c r="B131" s="19" t="s">
         <v>701</v>
@@ -14327,7 +14338,7 @@
       <c r="O131" s="26"/>
       <c r="P131" s="4"/>
     </row>
-    <row r="132" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="75"/>
       <c r="B132" s="19" t="s">
         <v>701</v>
@@ -14359,14 +14370,14 @@
         <v>38848004</v>
       </c>
       <c r="L132" s="76" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="M132" s="15"/>
       <c r="N132" s="16"/>
       <c r="O132" s="26"/>
       <c r="P132" s="4"/>
     </row>
-    <row r="133" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="75"/>
       <c r="B133" s="19" t="s">
         <v>701</v>
@@ -14407,7 +14418,7 @@
       <c r="O133" s="26"/>
       <c r="P133" s="4"/>
     </row>
-    <row r="134" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="75"/>
       <c r="B134" s="19" t="s">
         <v>701</v>
@@ -14446,7 +14457,7 @@
       <c r="O134" s="26"/>
       <c r="P134" s="4"/>
     </row>
-    <row r="135" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="75"/>
       <c r="B135" s="19" t="s">
         <v>701</v>
@@ -14487,7 +14498,7 @@
       <c r="O135" s="26"/>
       <c r="P135" s="4"/>
     </row>
-    <row r="136" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="75"/>
       <c r="B136" s="19" t="s">
         <v>701</v>
@@ -14528,7 +14539,7 @@
       <c r="O136" s="26"/>
       <c r="P136" s="4"/>
     </row>
-    <row r="137" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="75"/>
       <c r="B137" s="19" t="s">
         <v>701</v>
@@ -14567,7 +14578,7 @@
       <c r="O137" s="26"/>
       <c r="P137" s="4"/>
     </row>
-    <row r="138" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="75"/>
       <c r="B138" s="19" t="s">
         <v>701</v>
@@ -14608,7 +14619,7 @@
       <c r="O138" s="26"/>
       <c r="P138" s="4"/>
     </row>
-    <row r="139" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="75"/>
       <c r="B139" s="27" t="s">
         <v>701</v>
@@ -14649,7 +14660,7 @@
       <c r="O139" s="26"/>
       <c r="P139" s="4"/>
     </row>
-    <row r="140" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="75" t="s">
         <v>2006</v>
       </c>
@@ -14692,7 +14703,7 @@
       <c r="O140" s="26"/>
       <c r="P140" s="4"/>
     </row>
-    <row r="141" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="75" t="s">
         <v>2006</v>
       </c>
@@ -14735,7 +14746,7 @@
       <c r="O141" s="26"/>
       <c r="P141" s="4"/>
     </row>
-    <row r="142" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="75"/>
       <c r="B142" s="27" t="s">
         <v>701</v>
@@ -14774,7 +14785,7 @@
       <c r="O142" s="26"/>
       <c r="P142" s="4"/>
     </row>
-    <row r="143" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="75"/>
       <c r="B143" s="19" t="s">
         <v>701</v>
@@ -14813,7 +14824,7 @@
       <c r="O143" s="26"/>
       <c r="P143" s="4"/>
     </row>
-    <row r="144" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="75" t="s">
         <v>2006</v>
       </c>
@@ -14856,7 +14867,7 @@
       <c r="O144" s="26"/>
       <c r="P144" s="4"/>
     </row>
-    <row r="145" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="75" t="s">
         <v>2006</v>
       </c>
@@ -14899,7 +14910,7 @@
       <c r="O145" s="26"/>
       <c r="P145" s="4"/>
     </row>
-    <row r="146" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="75"/>
       <c r="B146" s="27" t="s">
         <v>701</v>
@@ -14938,7 +14949,7 @@
       <c r="O146" s="26"/>
       <c r="P146" s="4"/>
     </row>
-    <row r="147" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="75"/>
       <c r="B147" s="19" t="s">
         <v>701</v>
@@ -14968,14 +14979,14 @@
         <v>60075002</v>
       </c>
       <c r="L147" s="76" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="M147" s="15"/>
       <c r="N147" s="16"/>
       <c r="O147" s="26"/>
       <c r="P147" s="4"/>
     </row>
-    <row r="148" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15020,7 +15031,7 @@
       <c r="O148" s="26"/>
       <c r="P148" s="4"/>
     </row>
-    <row r="149" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15065,7 +15076,7 @@
       <c r="O149" s="26"/>
       <c r="P149" s="4"/>
     </row>
-    <row r="150" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="75"/>
       <c r="B150" s="19" t="s">
         <v>701</v>
@@ -15106,7 +15117,7 @@
       <c r="O150" s="26"/>
       <c r="P150" s="4"/>
     </row>
-    <row r="151" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15151,7 +15162,7 @@
       <c r="O151" s="26"/>
       <c r="P151" s="4"/>
     </row>
-    <row r="152" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15196,7 +15207,7 @@
       <c r="O152" s="26"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A153" s="75"/>
       <c r="B153" s="19" t="s">
         <v>701</v>
@@ -15237,7 +15248,7 @@
       <c r="O153" s="26"/>
       <c r="P153" s="4"/>
     </row>
-    <row r="154" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15282,7 +15293,7 @@
       <c r="O154" s="26"/>
       <c r="P154" s="4"/>
     </row>
-    <row r="155" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15327,7 +15338,7 @@
       <c r="O155" s="26"/>
       <c r="P155" s="4"/>
     </row>
-    <row r="156" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="75"/>
       <c r="B156" s="19" t="s">
         <v>701</v>
@@ -15368,7 +15379,7 @@
       <c r="O156" s="26"/>
       <c r="P156" s="4"/>
     </row>
-    <row r="157" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15413,7 +15424,7 @@
       <c r="O157" s="26"/>
       <c r="P157" s="4"/>
     </row>
-    <row r="158" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15458,7 +15469,7 @@
       <c r="O158" s="26"/>
       <c r="P158" s="4"/>
     </row>
-    <row r="159" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="75"/>
       <c r="B159" s="19" t="s">
         <v>701</v>
@@ -15499,7 +15510,7 @@
       <c r="O159" s="26"/>
       <c r="P159" s="4"/>
     </row>
-    <row r="160" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15544,7 +15555,7 @@
       <c r="O160" s="26"/>
       <c r="P160" s="4"/>
     </row>
-    <row r="161" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15589,7 +15600,7 @@
       <c r="O161" s="26"/>
       <c r="P161" s="4"/>
     </row>
-    <row r="162" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="75"/>
       <c r="B162" s="19" t="s">
         <v>701</v>
@@ -15630,7 +15641,7 @@
       <c r="O162" s="26"/>
       <c r="P162" s="4"/>
     </row>
-    <row r="163" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A163" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15675,7 +15686,7 @@
       <c r="O163" s="26"/>
       <c r="P163" s="4"/>
     </row>
-    <row r="164" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A164" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15720,7 +15731,7 @@
       <c r="O164" s="26"/>
       <c r="P164" s="4"/>
     </row>
-    <row r="165" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A165" s="75"/>
       <c r="B165" s="19" t="s">
         <v>701</v>
@@ -15761,7 +15772,7 @@
       <c r="O165" s="26"/>
       <c r="P165" s="4"/>
     </row>
-    <row r="166" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A166" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15806,7 +15817,7 @@
       <c r="O166" s="26"/>
       <c r="P166" s="4"/>
     </row>
-    <row r="167" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15851,7 +15862,7 @@
       <c r="O167" s="26"/>
       <c r="P167" s="4"/>
     </row>
-    <row r="168" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="75"/>
       <c r="B168" s="19" t="s">
         <v>701</v>
@@ -15892,7 +15903,7 @@
       <c r="O168" s="26"/>
       <c r="P168" s="4"/>
     </row>
-    <row r="169" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15937,7 +15948,7 @@
       <c r="O169" s="26"/>
       <c r="P169" s="4"/>
     </row>
-    <row r="170" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" s="75" t="s">
         <v>2006</v>
       </c>
@@ -15982,7 +15993,7 @@
       <c r="O170" s="26"/>
       <c r="P170" s="4"/>
     </row>
-    <row r="171" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="75"/>
       <c r="B171" s="19" t="s">
         <v>701</v>
@@ -16023,7 +16034,7 @@
       <c r="O171" s="26"/>
       <c r="P171" s="4"/>
     </row>
-    <row r="172" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="75" t="s">
         <v>2006</v>
       </c>
@@ -16068,7 +16079,7 @@
       <c r="O172" s="26"/>
       <c r="P172" s="4"/>
     </row>
-    <row r="173" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A173" s="75" t="s">
         <v>2006</v>
       </c>
@@ -16113,7 +16124,7 @@
       <c r="O173" s="26"/>
       <c r="P173" s="4"/>
     </row>
-    <row r="174" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="75"/>
       <c r="B174" s="19" t="s">
         <v>701</v>
@@ -16154,7 +16165,7 @@
       <c r="O174" s="26"/>
       <c r="P174" s="4"/>
     </row>
-    <row r="175" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="75" t="s">
         <v>2006</v>
       </c>
@@ -16197,7 +16208,7 @@
       <c r="O175" s="26"/>
       <c r="P175" s="4"/>
     </row>
-    <row r="176" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="75" t="s">
         <v>2006</v>
       </c>
@@ -16240,7 +16251,7 @@
       <c r="O176" s="26"/>
       <c r="P176" s="4"/>
     </row>
-    <row r="177" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="75"/>
       <c r="B177" s="19" t="s">
         <v>701</v>
@@ -16281,7 +16292,7 @@
       <c r="O177" s="26"/>
       <c r="P177" s="4"/>
     </row>
-    <row r="178" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" s="75"/>
       <c r="B178" s="19" t="s">
         <v>701</v>
@@ -16322,7 +16333,7 @@
       <c r="O178" s="26"/>
       <c r="P178" s="4"/>
     </row>
-    <row r="179" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" s="75"/>
       <c r="B179" s="19" t="s">
         <v>701</v>
@@ -16363,7 +16374,7 @@
       <c r="O179" s="26"/>
       <c r="P179" s="4"/>
     </row>
-    <row r="180" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="75"/>
       <c r="B180" s="19" t="s">
         <v>701</v>
@@ -16404,7 +16415,7 @@
       <c r="O180" s="26"/>
       <c r="P180" s="4"/>
     </row>
-    <row r="181" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A181" s="75"/>
       <c r="B181" s="19" t="s">
         <v>701</v>
@@ -16445,7 +16456,7 @@
       <c r="O181" s="26"/>
       <c r="P181" s="4"/>
     </row>
-    <row r="182" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="75"/>
       <c r="B182" s="19" t="s">
         <v>701</v>
@@ -16486,7 +16497,7 @@
       <c r="O182" s="26"/>
       <c r="P182" s="4"/>
     </row>
-    <row r="183" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="75"/>
       <c r="B183" s="19" t="s">
         <v>701</v>
@@ -16527,7 +16538,7 @@
       <c r="O183" s="26"/>
       <c r="P183" s="4"/>
     </row>
-    <row r="184" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="75" t="s">
         <v>2006</v>
       </c>
@@ -16572,7 +16583,7 @@
       <c r="O184" s="26"/>
       <c r="P184" s="4"/>
     </row>
-    <row r="185" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="75" t="s">
         <v>2006</v>
       </c>
@@ -16617,7 +16628,7 @@
       <c r="O185" s="26"/>
       <c r="P185" s="4"/>
     </row>
-    <row r="186" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="75"/>
       <c r="B186" s="27" t="s">
         <v>701</v>
@@ -16658,7 +16669,7 @@
       <c r="O186" s="26"/>
       <c r="P186" s="4"/>
     </row>
-    <row r="187" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="75"/>
       <c r="B187" s="19" t="s">
         <v>701</v>
@@ -16699,7 +16710,7 @@
       <c r="O187" s="26"/>
       <c r="P187" s="4"/>
     </row>
-    <row r="188" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A188" s="75"/>
       <c r="B188" s="19" t="s">
         <v>701</v>
@@ -16773,7 +16784,7 @@
       <c r="O189" s="26"/>
       <c r="P189" s="4"/>
     </row>
-    <row r="190" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="75"/>
       <c r="B190" s="27" t="s">
         <v>701</v>
@@ -16805,14 +16816,14 @@
         <v>28231008</v>
       </c>
       <c r="L190" s="76" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="M190" s="15"/>
       <c r="N190" s="16"/>
       <c r="O190" s="26"/>
       <c r="P190" s="4"/>
     </row>
-    <row r="191" spans="1:16" s="2" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" s="2" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="75"/>
       <c r="B191" s="27" t="s">
         <v>701</v>
@@ -16844,14 +16855,14 @@
         <v>71934003</v>
       </c>
       <c r="L191" s="76" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="M191" s="15"/>
       <c r="N191" s="16"/>
       <c r="O191" s="26"/>
       <c r="P191" s="4"/>
     </row>
-    <row r="192" spans="1:16" s="2" customFormat="1" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="75"/>
       <c r="B192" s="27" t="s">
         <v>701</v>
@@ -16885,7 +16896,7 @@
         <v>13561001</v>
       </c>
       <c r="L192" s="76" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="M192" s="15"/>
       <c r="N192" s="16"/>
@@ -16962,7 +16973,7 @@
       <c r="O194" s="26"/>
       <c r="P194" s="4"/>
     </row>
-    <row r="195" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17005,7 +17016,7 @@
       <c r="O195" s="26"/>
       <c r="P195" s="4"/>
     </row>
-    <row r="196" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17050,7 +17061,7 @@
       <c r="O196" s="26"/>
       <c r="P196" s="4"/>
     </row>
-    <row r="197" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17095,7 +17106,7 @@
       <c r="O197" s="26"/>
       <c r="P197" s="4"/>
     </row>
-    <row r="198" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17140,7 +17151,7 @@
       <c r="O198" s="26"/>
       <c r="P198" s="4"/>
     </row>
-    <row r="199" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17185,7 +17196,7 @@
       <c r="O199" s="26"/>
       <c r="P199" s="4"/>
     </row>
-    <row r="200" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17230,7 +17241,7 @@
       <c r="O200" s="26"/>
       <c r="P200" s="4"/>
     </row>
-    <row r="201" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17275,7 +17286,7 @@
       <c r="O201" s="26"/>
       <c r="P201" s="4"/>
     </row>
-    <row r="202" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17320,7 +17331,7 @@
       <c r="O202" s="26"/>
       <c r="P202" s="4"/>
     </row>
-    <row r="203" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17365,7 +17376,7 @@
       <c r="O203" s="26"/>
       <c r="P203" s="4"/>
     </row>
-    <row r="204" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="75"/>
       <c r="B204" s="27" t="s">
         <v>701</v>
@@ -17397,14 +17408,14 @@
         <v>111002</v>
       </c>
       <c r="L204" s="76" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="M204" s="15"/>
       <c r="N204" s="16"/>
       <c r="O204" s="26"/>
       <c r="P204" s="4"/>
     </row>
-    <row r="205" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="75"/>
       <c r="B205" s="27" t="s">
         <v>701</v>
@@ -17443,7 +17454,7 @@
       <c r="O205" s="26"/>
       <c r="P205" s="4"/>
     </row>
-    <row r="206" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17486,7 +17497,7 @@
       <c r="O206" s="26"/>
       <c r="P206" s="4"/>
     </row>
-    <row r="207" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17529,7 +17540,7 @@
       <c r="O207" s="26"/>
       <c r="P207" s="4"/>
     </row>
-    <row r="208" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="75"/>
       <c r="B208" s="19" t="s">
         <v>701</v>
@@ -17568,7 +17579,7 @@
       <c r="O208" s="26"/>
       <c r="P208" s="4"/>
     </row>
-    <row r="209" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A209" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17611,7 +17622,7 @@
       <c r="O209" s="26"/>
       <c r="P209" s="4"/>
     </row>
-    <row r="210" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17654,7 +17665,7 @@
       <c r="O210" s="26"/>
       <c r="P210" s="4"/>
     </row>
-    <row r="211" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17695,7 +17706,7 @@
       <c r="O211" s="26"/>
       <c r="P211" s="4"/>
     </row>
-    <row r="212" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="75"/>
       <c r="B212" s="27" t="s">
         <v>701</v>
@@ -17729,7 +17740,7 @@
         <v>88481005</v>
       </c>
       <c r="L212" s="76" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="M212" s="15"/>
       <c r="N212" s="16"/>
@@ -17769,7 +17780,7 @@
       <c r="O213" s="26"/>
       <c r="P213" s="4"/>
     </row>
-    <row r="214" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="75"/>
       <c r="B214" s="27" t="s">
         <v>701</v>
@@ -17803,14 +17814,14 @@
         <v>385296007</v>
       </c>
       <c r="L214" s="76" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="M214" s="15"/>
       <c r="N214" s="16"/>
       <c r="O214" s="26"/>
       <c r="P214" s="4"/>
     </row>
-    <row r="215" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17855,7 +17866,7 @@
       <c r="O215" s="26"/>
       <c r="P215" s="4"/>
     </row>
-    <row r="216" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17900,7 +17911,7 @@
       <c r="O216" s="26"/>
       <c r="P216" s="4"/>
     </row>
-    <row r="217" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="75"/>
       <c r="B217" s="27" t="s">
         <v>701</v>
@@ -17934,14 +17945,14 @@
         <v>9875009</v>
       </c>
       <c r="L217" s="76" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="M217" s="15"/>
       <c r="N217" s="16"/>
       <c r="O217" s="26"/>
       <c r="P217" s="4"/>
     </row>
-    <row r="218" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="75" t="s">
         <v>2006</v>
       </c>
@@ -17986,7 +17997,7 @@
       <c r="O218" s="26"/>
       <c r="P218" s="4"/>
     </row>
-    <row r="219" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="75" t="s">
         <v>2006</v>
       </c>
@@ -18031,7 +18042,7 @@
       <c r="O219" s="26"/>
       <c r="P219" s="4"/>
     </row>
-    <row r="220" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="75"/>
       <c r="B220" s="27" t="s">
         <v>701</v>
@@ -18065,14 +18076,14 @@
         <v>69748006</v>
       </c>
       <c r="L220" s="76" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="M220" s="15"/>
       <c r="N220" s="16"/>
       <c r="O220" s="26"/>
       <c r="P220" s="4"/>
     </row>
-    <row r="221" spans="1:16" s="2" customFormat="1" ht="68" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" s="2" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="75" t="s">
         <v>2006</v>
       </c>
@@ -18110,14 +18121,14 @@
         <v>2039</v>
       </c>
       <c r="N221" s="161" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="O221" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P221" s="4"/>
     </row>
-    <row r="222" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="75" t="s">
         <v>2006</v>
       </c>
@@ -18156,11 +18167,11 @@
       </c>
       <c r="N222" s="162"/>
       <c r="O222" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P222" s="4"/>
     </row>
-    <row r="223" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="75" t="s">
         <v>2006</v>
       </c>
@@ -18196,7 +18207,7 @@
         <v>24136001</v>
       </c>
       <c r="L223" s="76" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="M223" s="15" t="s">
         <v>2039</v>
@@ -18205,7 +18216,7 @@
       <c r="O223" s="26"/>
       <c r="P223" s="4"/>
     </row>
-    <row r="224" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="75" t="s">
         <v>2006</v>
       </c>
@@ -18241,7 +18252,7 @@
         <v>24136001</v>
       </c>
       <c r="L224" s="76" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="M224" s="15" t="s">
         <v>2040</v>
@@ -18250,7 +18261,7 @@
       <c r="O224" s="26"/>
       <c r="P224" s="4"/>
     </row>
-    <row r="225" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="75"/>
       <c r="B225" s="19" t="s">
         <v>701</v>
@@ -18291,7 +18302,7 @@
       <c r="O225" s="26"/>
       <c r="P225" s="4"/>
     </row>
-    <row r="226" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="75" t="s">
         <v>2006</v>
       </c>
@@ -18318,7 +18329,7 @@
         <v>816</v>
       </c>
       <c r="I226" s="24" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="J226" s="25">
         <v>24475</v>
@@ -18336,7 +18347,7 @@
       <c r="O226" s="26"/>
       <c r="P226" s="4"/>
     </row>
-    <row r="227" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="75"/>
       <c r="B227" s="19" t="s">
         <v>701</v>
@@ -18377,7 +18388,7 @@
       <c r="O227" s="26"/>
       <c r="P227" s="4"/>
     </row>
-    <row r="228" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="75" t="s">
         <v>2006</v>
       </c>
@@ -18422,7 +18433,7 @@
       <c r="O228" s="26"/>
       <c r="P228" s="4"/>
     </row>
-    <row r="229" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="75" t="s">
         <v>2006</v>
       </c>
@@ -18467,7 +18478,7 @@
       <c r="O229" s="26"/>
       <c r="P229" s="4"/>
     </row>
-    <row r="230" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="75" t="s">
         <v>2006</v>
       </c>
@@ -18512,7 +18523,7 @@
       <c r="O230" s="26"/>
       <c r="P230" s="4"/>
     </row>
-    <row r="231" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="75" t="s">
         <v>2006</v>
       </c>
@@ -18557,7 +18568,7 @@
       <c r="O231" s="26"/>
       <c r="P231" s="4"/>
     </row>
-    <row r="232" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="75" t="s">
         <v>2006</v>
       </c>
@@ -18602,7 +18613,7 @@
       <c r="O232" s="26"/>
       <c r="P232" s="4"/>
     </row>
-    <row r="233" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="75"/>
       <c r="B233" s="19" t="s">
         <v>701</v>
@@ -18645,7 +18656,7 @@
       <c r="O233" s="26"/>
       <c r="P233" s="4"/>
     </row>
-    <row r="234" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="75"/>
       <c r="B234" s="19" t="s">
         <v>701</v>
@@ -18686,7 +18697,7 @@
       <c r="O234" s="26"/>
       <c r="P234" s="4"/>
     </row>
-    <row r="235" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="75" t="s">
         <v>2006</v>
       </c>
@@ -18731,7 +18742,7 @@
       <c r="O235" s="26"/>
       <c r="P235" s="4"/>
     </row>
-    <row r="236" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="75" t="s">
         <v>2006</v>
       </c>
@@ -18806,14 +18817,14 @@
         <v>73368009</v>
       </c>
       <c r="L237" s="76" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="M237" s="15"/>
       <c r="N237" s="16"/>
       <c r="O237" s="26"/>
       <c r="P237" s="4"/>
     </row>
-    <row r="238" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="75"/>
       <c r="B238" s="27" t="s">
         <v>701</v>
@@ -18845,14 +18856,14 @@
         <v>1307006</v>
       </c>
       <c r="L238" s="76" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="M238" s="15"/>
       <c r="N238" s="16"/>
       <c r="O238" s="26"/>
       <c r="P238" s="4"/>
     </row>
-    <row r="239" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A239" s="75"/>
       <c r="B239" s="27" t="s">
         <v>701</v>
@@ -18882,14 +18893,14 @@
         <v>3711007</v>
       </c>
       <c r="L239" s="106" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="M239" s="15"/>
       <c r="N239" s="16"/>
       <c r="O239" s="26"/>
       <c r="P239" s="4"/>
     </row>
-    <row r="240" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A240" s="75"/>
       <c r="B240" s="27" t="s">
         <v>701</v>
@@ -18919,7 +18930,7 @@
         <v>3711007</v>
       </c>
       <c r="L240" s="106" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="M240" s="15" t="s">
         <v>2188</v>
@@ -18928,7 +18939,7 @@
       <c r="O240" s="26"/>
       <c r="P240" s="4"/>
     </row>
-    <row r="241" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="75"/>
       <c r="B241" s="27" t="s">
         <v>701</v>
@@ -18962,14 +18973,14 @@
         <v>90228003</v>
       </c>
       <c r="L241" s="76" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="M241" s="15"/>
       <c r="N241" s="16"/>
       <c r="O241" s="26"/>
       <c r="P241" s="4"/>
     </row>
-    <row r="242" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="75"/>
       <c r="B242" s="27" t="s">
         <v>701</v>
@@ -19008,7 +19019,7 @@
       <c r="O242" s="26"/>
       <c r="P242" s="4"/>
     </row>
-    <row r="243" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="75" t="s">
         <v>2006</v>
       </c>
@@ -19053,7 +19064,7 @@
       <c r="O243" s="26"/>
       <c r="P243" s="4"/>
     </row>
-    <row r="244" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="75" t="s">
         <v>2006</v>
       </c>
@@ -19098,7 +19109,7 @@
       <c r="O244" s="26"/>
       <c r="P244" s="4"/>
     </row>
-    <row r="245" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="75"/>
       <c r="B245" s="27" t="s">
         <v>701</v>
@@ -19130,14 +19141,14 @@
         <v>80891009</v>
       </c>
       <c r="L245" s="76" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="M245" s="15"/>
       <c r="N245" s="16"/>
       <c r="O245" s="26"/>
       <c r="P245" s="4"/>
     </row>
-    <row r="246" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="75" t="s">
         <v>2006</v>
       </c>
@@ -19173,7 +19184,7 @@
         <v>13561001</v>
       </c>
       <c r="L246" s="76" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="M246" s="15" t="s">
         <v>2039</v>
@@ -19182,7 +19193,7 @@
       <c r="O246" s="26"/>
       <c r="P246" s="4"/>
     </row>
-    <row r="247" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="75" t="s">
         <v>2006</v>
       </c>
@@ -19218,7 +19229,7 @@
         <v>13561001</v>
       </c>
       <c r="L247" s="76" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="M247" s="15" t="s">
         <v>2040</v>
@@ -19227,7 +19238,7 @@
       <c r="O247" s="26"/>
       <c r="P247" s="4"/>
     </row>
-    <row r="248" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="97" t="s">
         <v>2006</v>
       </c>
@@ -19268,7 +19279,7 @@
       <c r="O248" s="26"/>
       <c r="P248" s="4"/>
     </row>
-    <row r="249" spans="1:16" s="2" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="75" t="s">
         <v>2006</v>
       </c>
@@ -19304,7 +19315,7 @@
         <v>88481005</v>
       </c>
       <c r="L249" s="76" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="M249" s="15" t="s">
         <v>2039</v>
@@ -19313,7 +19324,7 @@
       <c r="O249" s="26"/>
       <c r="P249" s="4"/>
     </row>
-    <row r="250" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="75" t="s">
         <v>2006</v>
       </c>
@@ -19349,7 +19360,7 @@
         <v>88481005</v>
       </c>
       <c r="L250" s="76" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="M250" s="15" t="s">
         <v>2040</v>
@@ -19358,7 +19369,7 @@
       <c r="O250" s="26"/>
       <c r="P250" s="4"/>
     </row>
-    <row r="251" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="75"/>
       <c r="B251" s="27" t="s">
         <v>701</v>
@@ -19399,7 +19410,7 @@
       <c r="O251" s="26"/>
       <c r="P251" s="4"/>
     </row>
-    <row r="252" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A252" s="75" t="s">
         <v>2006</v>
       </c>
@@ -19435,7 +19446,7 @@
         <v>385296007</v>
       </c>
       <c r="L252" s="76" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="M252" s="15" t="s">
         <v>2039</v>
@@ -19444,7 +19455,7 @@
       <c r="O252" s="26"/>
       <c r="P252" s="4"/>
     </row>
-    <row r="253" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A253" s="75" t="s">
         <v>2006</v>
       </c>
@@ -19480,7 +19491,7 @@
         <v>385296007</v>
       </c>
       <c r="L253" s="76" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="M253" s="15" t="s">
         <v>2040</v>
@@ -19489,7 +19500,7 @@
       <c r="O253" s="26"/>
       <c r="P253" s="4"/>
     </row>
-    <row r="254" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="75"/>
       <c r="B254" s="27" t="s">
         <v>701</v>
@@ -19530,7 +19541,7 @@
       <c r="O254" s="26"/>
       <c r="P254" s="4"/>
     </row>
-    <row r="255" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="75"/>
       <c r="B255" s="27" t="s">
         <v>701</v>
@@ -19562,14 +19573,14 @@
         <v>34516001</v>
       </c>
       <c r="L255" s="76" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="M255" s="15"/>
       <c r="N255" s="16"/>
       <c r="O255" s="26"/>
       <c r="P255" s="4"/>
     </row>
-    <row r="256" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="75"/>
       <c r="B256" s="19" t="s">
         <v>701</v>
@@ -19603,14 +19614,14 @@
         <v>21306003</v>
       </c>
       <c r="L256" s="76" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="M256" s="15"/>
       <c r="N256" s="16"/>
       <c r="O256" s="26"/>
       <c r="P256" s="4"/>
     </row>
-    <row r="257" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="75"/>
       <c r="B257" s="19" t="s">
         <v>701</v>
@@ -19640,14 +19651,14 @@
         <v>90228003</v>
       </c>
       <c r="L257" s="76" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="M257" s="15"/>
       <c r="N257" s="16"/>
       <c r="O257" s="26"/>
       <c r="P257" s="4"/>
     </row>
-    <row r="258" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="75"/>
       <c r="B258" s="27" t="s">
         <v>701</v>
@@ -19679,14 +19690,14 @@
         <v>16953009</v>
       </c>
       <c r="L258" s="76" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="M258" s="15"/>
       <c r="N258" s="16"/>
       <c r="O258" s="26"/>
       <c r="P258" s="4"/>
     </row>
-    <row r="259" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="75"/>
       <c r="B259" s="19" t="s">
         <v>701</v>
@@ -19720,14 +19731,14 @@
         <v>85537004</v>
       </c>
       <c r="L259" s="76" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="M259" s="15"/>
       <c r="N259" s="16"/>
       <c r="O259" s="26"/>
       <c r="P259" s="4"/>
     </row>
-    <row r="260" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="75" t="s">
         <v>2006</v>
       </c>
@@ -19757,7 +19768,7 @@
         <v>711190000</v>
       </c>
       <c r="L260" s="76" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M260" s="15" t="s">
         <v>2039</v>
@@ -19766,7 +19777,7 @@
       <c r="O260" s="26"/>
       <c r="P260" s="4"/>
     </row>
-    <row r="261" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="75" t="s">
         <v>2006</v>
       </c>
@@ -19796,7 +19807,7 @@
         <v>711190000</v>
       </c>
       <c r="L261" s="76" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M261" s="15" t="s">
         <v>2040</v>
@@ -19835,16 +19846,16 @@
         <v>228791009</v>
       </c>
       <c r="L262" s="111" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="M262" s="15"/>
       <c r="N262" s="37"/>
       <c r="O262" s="35" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="P262" s="4"/>
     </row>
-    <row r="263" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="75"/>
       <c r="B263" s="27" t="s">
         <v>701</v>
@@ -19874,18 +19885,18 @@
         <v>39352004</v>
       </c>
       <c r="L263" s="76" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="M263" s="12" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="N263" s="16"/>
       <c r="O263" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P263" s="4"/>
     </row>
-    <row r="264" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A264" s="75"/>
       <c r="B264" s="27" t="s">
         <v>701</v>
@@ -19919,14 +19930,14 @@
         <v>53620006</v>
       </c>
       <c r="L264" s="76" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="M264" s="15"/>
       <c r="N264" s="16"/>
       <c r="O264" s="26"/>
       <c r="P264" s="4"/>
     </row>
-    <row r="265" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="75" t="s">
         <v>2006</v>
       </c>
@@ -19969,7 +19980,7 @@
       <c r="O265" s="26"/>
       <c r="P265" s="4"/>
     </row>
-    <row r="266" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="75" t="s">
         <v>2006</v>
       </c>
@@ -20012,7 +20023,7 @@
       <c r="O266" s="26"/>
       <c r="P266" s="4"/>
     </row>
-    <row r="267" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A267" s="75"/>
       <c r="B267" s="19" t="s">
         <v>701</v>
@@ -20046,7 +20057,7 @@
         <v>50403003</v>
       </c>
       <c r="L267" s="76" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="M267" s="15" t="s">
         <v>2201</v>
@@ -20055,7 +20066,7 @@
       <c r="O267" s="26"/>
       <c r="P267" s="4"/>
     </row>
-    <row r="268" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A268" s="75"/>
       <c r="B268" s="19" t="s">
         <v>701</v>
@@ -20089,7 +20100,7 @@
         <v>74033008</v>
       </c>
       <c r="L268" s="76" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="M268" s="15" t="s">
         <v>2201</v>
@@ -20098,7 +20109,7 @@
       <c r="O268" s="26"/>
       <c r="P268" s="4"/>
     </row>
-    <row r="269" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="75" t="s">
         <v>2006</v>
       </c>
@@ -20143,7 +20154,7 @@
       <c r="O269" s="26"/>
       <c r="P269" s="4"/>
     </row>
-    <row r="270" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="75" t="s">
         <v>2006</v>
       </c>
@@ -20188,7 +20199,7 @@
       <c r="O270" s="26"/>
       <c r="P270" s="4"/>
     </row>
-    <row r="271" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="75" t="s">
         <v>2006</v>
       </c>
@@ -20233,7 +20244,7 @@
       <c r="O271" s="26"/>
       <c r="P271" s="4"/>
     </row>
-    <row r="272" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="75" t="s">
         <v>2006</v>
       </c>
@@ -20278,7 +20289,7 @@
       <c r="O272" s="26"/>
       <c r="P272" s="4"/>
     </row>
-    <row r="273" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="75"/>
       <c r="B273" s="19" t="s">
         <v>701</v>
@@ -20312,7 +20323,7 @@
         <v>64033007</v>
       </c>
       <c r="L273" s="76" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="M273" s="15" t="s">
         <v>2201</v>
@@ -20420,7 +20431,7 @@
       <c r="O276" s="26"/>
       <c r="P276" s="4"/>
     </row>
-    <row r="277" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="75"/>
       <c r="B277" s="19" t="s">
         <v>701</v>
@@ -20452,14 +20463,14 @@
         <v>72696002</v>
       </c>
       <c r="L277" s="76" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="M277" s="15"/>
       <c r="N277" s="16"/>
       <c r="O277" s="26"/>
       <c r="P277" s="4"/>
     </row>
-    <row r="278" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" s="2" customFormat="1" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="75"/>
       <c r="B278" s="27" t="s">
         <v>818</v>
@@ -20487,18 +20498,18 @@
       <c r="J278" s="33"/>
       <c r="K278" s="145"/>
       <c r="L278" s="111" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="M278" s="15"/>
       <c r="N278" s="16" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="O278" s="35" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="P278" s="4"/>
     </row>
-    <row r="279" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="75"/>
       <c r="B279" s="19" t="s">
         <v>701</v>
@@ -20532,16 +20543,16 @@
         <v>54066008</v>
       </c>
       <c r="L279" s="76" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="M279" s="49" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="N279" s="16"/>
       <c r="O279" s="26"/>
       <c r="P279" s="4"/>
     </row>
-    <row r="280" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="75"/>
       <c r="B280" s="19" t="s">
         <v>701</v>
@@ -20573,14 +20584,14 @@
         <v>4596009</v>
       </c>
       <c r="L280" s="76" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="M280" s="15"/>
       <c r="N280" s="16"/>
       <c r="O280" s="26"/>
       <c r="P280" s="4"/>
     </row>
-    <row r="281" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="75"/>
       <c r="B281" s="19" t="s">
         <v>701</v>
@@ -20612,14 +20623,14 @@
         <v>86483002</v>
       </c>
       <c r="L281" s="76" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="M281" s="15"/>
       <c r="N281" s="16"/>
       <c r="O281" s="26"/>
       <c r="P281" s="4"/>
     </row>
-    <row r="282" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="75" t="s">
         <v>2006</v>
       </c>
@@ -20653,7 +20664,7 @@
         <v>16953009</v>
       </c>
       <c r="L282" s="76" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="M282" s="15" t="s">
         <v>2039</v>
@@ -20662,7 +20673,7 @@
       <c r="O282" s="26"/>
       <c r="P282" s="4"/>
     </row>
-    <row r="283" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="75" t="s">
         <v>2006</v>
       </c>
@@ -20696,7 +20707,7 @@
         <v>16953009</v>
       </c>
       <c r="L283" s="76" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="M283" s="15" t="s">
         <v>2040</v>
@@ -20705,7 +20716,7 @@
       <c r="O283" s="26"/>
       <c r="P283" s="4"/>
     </row>
-    <row r="284" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="75"/>
       <c r="B284" s="19" t="s">
         <v>701</v>
@@ -20739,14 +20750,14 @@
         <v>78076003</v>
       </c>
       <c r="L284" s="76" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="M284" s="15"/>
       <c r="N284" s="16"/>
       <c r="O284" s="26"/>
       <c r="P284" s="4"/>
     </row>
-    <row r="285" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="75" t="s">
         <v>2006</v>
       </c>
@@ -20782,7 +20793,7 @@
         <v>85537004</v>
       </c>
       <c r="L285" s="76" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="M285" s="15" t="s">
         <v>2039</v>
@@ -20791,7 +20802,7 @@
       <c r="O285" s="26"/>
       <c r="P285" s="4"/>
     </row>
-    <row r="286" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A286" s="75" t="s">
         <v>2006</v>
       </c>
@@ -20827,7 +20838,7 @@
         <v>85537004</v>
       </c>
       <c r="L286" s="76" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="M286" s="15" t="s">
         <v>2040</v>
@@ -20836,7 +20847,7 @@
       <c r="O286" s="26"/>
       <c r="P286" s="4"/>
     </row>
-    <row r="287" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="75"/>
       <c r="B287" s="19" t="s">
         <v>701</v>
@@ -20870,14 +20881,14 @@
         <v>6544009</v>
       </c>
       <c r="L287" s="76" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="M287" s="15"/>
       <c r="N287" s="16"/>
       <c r="O287" s="26"/>
       <c r="P287" s="4"/>
     </row>
-    <row r="288" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="75"/>
       <c r="B288" s="19" t="s">
         <v>701</v>
@@ -20909,14 +20920,14 @@
         <v>81083006</v>
       </c>
       <c r="L288" s="106" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="M288" s="15"/>
       <c r="N288" s="16"/>
       <c r="O288" s="26"/>
       <c r="P288" s="4"/>
     </row>
-    <row r="289" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A289" s="75" t="s">
         <v>2006</v>
       </c>
@@ -20952,7 +20963,7 @@
         <v>53620006</v>
       </c>
       <c r="L289" s="76" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="M289" s="15" t="s">
         <v>2039</v>
@@ -20961,7 +20972,7 @@
       <c r="O289" s="26"/>
       <c r="P289" s="4"/>
     </row>
-    <row r="290" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A290" s="75" t="s">
         <v>2006</v>
       </c>
@@ -20997,7 +21008,7 @@
         <v>53620006</v>
       </c>
       <c r="L290" s="76" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="M290" s="15" t="s">
         <v>2040</v>
@@ -21006,7 +21017,7 @@
       <c r="O290" s="26"/>
       <c r="P290" s="4"/>
     </row>
-    <row r="291" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="75"/>
       <c r="B291" s="19" t="s">
         <v>701</v>
@@ -21038,14 +21049,14 @@
         <v>10200004</v>
       </c>
       <c r="L291" s="76" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="M291" s="15"/>
       <c r="N291" s="16"/>
       <c r="O291" s="26"/>
       <c r="P291" s="4"/>
     </row>
-    <row r="292" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="75" t="s">
         <v>2006</v>
       </c>
@@ -21081,7 +21092,7 @@
         <v>50403003</v>
       </c>
       <c r="L292" s="76" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="M292" s="15" t="s">
         <v>2039</v>
@@ -21090,7 +21101,7 @@
       <c r="O292" s="26"/>
       <c r="P292" s="4"/>
     </row>
-    <row r="293" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="75" t="s">
         <v>2006</v>
       </c>
@@ -21126,7 +21137,7 @@
         <v>50403003</v>
       </c>
       <c r="L293" s="76" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="M293" s="15" t="s">
         <v>2040</v>
@@ -21135,7 +21146,7 @@
       <c r="O293" s="26"/>
       <c r="P293" s="4"/>
     </row>
-    <row r="294" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="75" t="s">
         <v>2006</v>
       </c>
@@ -21171,7 +21182,7 @@
         <v>74033008</v>
       </c>
       <c r="L294" s="76" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="M294" s="15" t="s">
         <v>2039</v>
@@ -21180,7 +21191,7 @@
       <c r="O294" s="26"/>
       <c r="P294" s="4"/>
     </row>
-    <row r="295" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="75" t="s">
         <v>2006</v>
       </c>
@@ -21216,7 +21227,7 @@
         <v>74033008</v>
       </c>
       <c r="L295" s="76" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="M295" s="15" t="s">
         <v>2040</v>
@@ -21225,7 +21236,7 @@
       <c r="O295" s="26"/>
       <c r="P295" s="4"/>
     </row>
-    <row r="296" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="75"/>
       <c r="B296" s="19" t="s">
         <v>701</v>
@@ -21266,7 +21277,7 @@
       <c r="O296" s="26"/>
       <c r="P296" s="4"/>
     </row>
-    <row r="297" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="75" t="s">
         <v>2006</v>
       </c>
@@ -21302,7 +21313,7 @@
         <v>64033007</v>
       </c>
       <c r="L297" s="76" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="M297" s="15" t="s">
         <v>2039</v>
@@ -21344,7 +21355,7 @@
       <c r="O298" s="26"/>
       <c r="P298" s="4"/>
     </row>
-    <row r="299" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" s="75" t="s">
         <v>2006</v>
       </c>
@@ -21380,7 +21391,7 @@
         <v>25990002</v>
       </c>
       <c r="L299" s="76" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="M299" s="15" t="s">
         <v>2039</v>
@@ -21389,7 +21400,7 @@
       <c r="O299" s="26"/>
       <c r="P299" s="4"/>
     </row>
-    <row r="300" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" s="75" t="s">
         <v>2006</v>
       </c>
@@ -21425,7 +21436,7 @@
         <v>25990002</v>
       </c>
       <c r="L300" s="76" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="M300" s="15" t="s">
         <v>2040</v>
@@ -21434,7 +21445,7 @@
       <c r="O300" s="26"/>
       <c r="P300" s="4"/>
     </row>
-    <row r="301" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" s="75" t="s">
         <v>2006</v>
       </c>
@@ -21470,7 +21481,7 @@
         <v>64033007</v>
       </c>
       <c r="L301" s="76" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="M301" s="15" t="s">
         <v>2040</v>
@@ -21545,7 +21556,7 @@
       <c r="O303" s="26"/>
       <c r="P303" s="4"/>
     </row>
-    <row r="304" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="75"/>
       <c r="B304" s="19" t="s">
         <v>701</v>
@@ -21586,7 +21597,7 @@
       <c r="O304" s="26"/>
       <c r="P304" s="4"/>
     </row>
-    <row r="305" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="75"/>
       <c r="B305" s="19" t="s">
         <v>701</v>
@@ -21627,7 +21638,7 @@
       <c r="O305" s="26"/>
       <c r="P305" s="4"/>
     </row>
-    <row r="306" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" s="75" t="s">
         <v>2006</v>
       </c>
@@ -21661,7 +21672,7 @@
         <v>72696002</v>
       </c>
       <c r="L306" s="76" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="M306" s="15" t="s">
         <v>2039</v>
@@ -21670,7 +21681,7 @@
       <c r="O306" s="26"/>
       <c r="P306" s="4"/>
     </row>
-    <row r="307" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="75" t="s">
         <v>2006</v>
       </c>
@@ -21704,7 +21715,7 @@
         <v>72696002</v>
       </c>
       <c r="L307" s="76" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="M307" s="15" t="s">
         <v>2040</v>
@@ -21713,7 +21724,7 @@
       <c r="O307" s="26"/>
       <c r="P307" s="4"/>
     </row>
-    <row r="308" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="75"/>
       <c r="B308" s="19" t="s">
         <v>701</v>
@@ -21754,7 +21765,7 @@
       <c r="O308" s="26"/>
       <c r="P308" s="4"/>
     </row>
-    <row r="309" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="75"/>
       <c r="B309" s="19" t="s">
         <v>701</v>
@@ -21786,14 +21797,14 @@
         <v>72410000</v>
       </c>
       <c r="L309" s="76" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="M309" s="15"/>
       <c r="N309" s="16"/>
       <c r="O309" s="26"/>
       <c r="P309" s="4"/>
     </row>
-    <row r="310" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="75"/>
       <c r="B310" s="19" t="s">
         <v>701</v>
@@ -21825,14 +21836,14 @@
         <v>71616004</v>
       </c>
       <c r="L310" s="76" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="M310" s="15"/>
       <c r="N310" s="16"/>
       <c r="O310" s="26"/>
       <c r="P310" s="4"/>
     </row>
-    <row r="311" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" s="2" customFormat="1" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="75"/>
       <c r="B311" s="19" t="s">
         <v>1346</v>
@@ -21860,14 +21871,14 @@
       <c r="L311" s="111"/>
       <c r="M311" s="15"/>
       <c r="N311" s="37" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="O311" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P311" s="4"/>
     </row>
-    <row r="312" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A312" s="75"/>
       <c r="B312" s="19" t="s">
         <v>701</v>
@@ -21901,14 +21912,14 @@
         <v>4866005</v>
       </c>
       <c r="L312" s="76" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="M312" s="15"/>
       <c r="N312" s="16"/>
       <c r="O312" s="26"/>
       <c r="P312" s="4"/>
     </row>
-    <row r="313" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="75" t="s">
         <v>2006</v>
       </c>
@@ -21944,7 +21955,7 @@
         <v>78076003</v>
       </c>
       <c r="L313" s="76" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="M313" s="15" t="s">
         <v>2039</v>
@@ -21953,7 +21964,7 @@
       <c r="O313" s="26"/>
       <c r="P313" s="4"/>
     </row>
-    <row r="314" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="75" t="s">
         <v>2006</v>
       </c>
@@ -21989,7 +22000,7 @@
         <v>78076003</v>
       </c>
       <c r="L314" s="76" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="M314" s="15" t="s">
         <v>2040</v>
@@ -21998,7 +22009,7 @@
       <c r="O314" s="26"/>
       <c r="P314" s="4"/>
     </row>
-    <row r="315" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="75"/>
       <c r="B315" s="19" t="s">
         <v>701</v>
@@ -22032,14 +22043,14 @@
         <v>79368004</v>
       </c>
       <c r="L315" s="76" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="M315" s="15"/>
       <c r="N315" s="16"/>
       <c r="O315" s="26"/>
       <c r="P315" s="4"/>
     </row>
-    <row r="316" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" s="75"/>
       <c r="B316" s="19" t="s">
         <v>701</v>
@@ -22073,7 +22084,7 @@
         <v>52927003</v>
       </c>
       <c r="L316" s="76" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="M316" s="11" t="s">
         <v>2040</v>
@@ -22082,7 +22093,7 @@
       <c r="O316" s="26"/>
       <c r="P316" s="4"/>
     </row>
-    <row r="317" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" s="75"/>
       <c r="B317" s="27" t="s">
         <v>701</v>
@@ -22116,7 +22127,7 @@
         <v>71836000</v>
       </c>
       <c r="L317" s="76" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="M317" s="15"/>
       <c r="N317" s="16"/>
@@ -22187,7 +22198,7 @@
       <c r="O319" s="26"/>
       <c r="P319" s="4"/>
     </row>
-    <row r="320" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="75"/>
       <c r="B320" s="19" t="s">
         <v>701</v>
@@ -22226,7 +22237,7 @@
       <c r="O320" s="26"/>
       <c r="P320" s="4"/>
     </row>
-    <row r="321" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A321" s="75"/>
       <c r="B321" s="19" t="s">
         <v>701</v>
@@ -22267,7 +22278,7 @@
       <c r="O321" s="26"/>
       <c r="P321" s="4"/>
     </row>
-    <row r="322" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A322" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22312,7 +22323,7 @@
       <c r="O322" s="26"/>
       <c r="P322" s="4"/>
     </row>
-    <row r="323" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A323" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22357,7 +22368,7 @@
       <c r="O323" s="26"/>
       <c r="P323" s="4"/>
     </row>
-    <row r="324" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A324" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22396,13 +22407,13 @@
         <v>2025</v>
       </c>
       <c r="M324" s="15" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="N324" s="16"/>
       <c r="O324" s="26"/>
       <c r="P324" s="4"/>
     </row>
-    <row r="325" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A325" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22429,7 +22440,7 @@
         <v>948</v>
       </c>
       <c r="I325" s="24" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="J325" s="25">
         <v>73262</v>
@@ -22441,13 +22452,13 @@
         <v>2025</v>
       </c>
       <c r="M325" s="15" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N325" s="16"/>
       <c r="O325" s="26"/>
       <c r="P325" s="4"/>
     </row>
-    <row r="326" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A326" s="75"/>
       <c r="B326" s="19" t="s">
         <v>701</v>
@@ -22488,7 +22499,7 @@
       <c r="O326" s="26"/>
       <c r="P326" s="4"/>
     </row>
-    <row r="327" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A327" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22531,7 +22542,7 @@
       <c r="O327" s="26"/>
       <c r="P327" s="4"/>
     </row>
-    <row r="328" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A328" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22570,13 +22581,13 @@
         <v>2067</v>
       </c>
       <c r="M328" s="15" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="N328" s="37"/>
       <c r="O328" s="26"/>
       <c r="P328" s="4"/>
     </row>
-    <row r="329" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A329" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22615,13 +22626,13 @@
         <v>2067</v>
       </c>
       <c r="M329" s="15" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="N329" s="37"/>
       <c r="O329" s="26"/>
       <c r="P329" s="4"/>
     </row>
-    <row r="330" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A330" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22660,13 +22671,13 @@
         <v>2067</v>
       </c>
       <c r="M330" s="15" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="N330" s="37"/>
       <c r="O330" s="26"/>
       <c r="P330" s="4"/>
     </row>
-    <row r="331" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A331" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22705,13 +22716,13 @@
         <v>2067</v>
       </c>
       <c r="M331" s="15" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="N331" s="37"/>
       <c r="O331" s="26"/>
       <c r="P331" s="4"/>
     </row>
-    <row r="332" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A332" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22750,13 +22761,13 @@
         <v>2067</v>
       </c>
       <c r="M332" s="15" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="N332" s="37"/>
       <c r="O332" s="26"/>
       <c r="P332" s="4"/>
     </row>
-    <row r="333" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A333" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22795,13 +22806,13 @@
         <v>2067</v>
       </c>
       <c r="M333" s="15" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="N333" s="37"/>
       <c r="O333" s="26"/>
       <c r="P333" s="4"/>
     </row>
-    <row r="334" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A334" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22846,7 +22857,7 @@
       <c r="O334" s="26"/>
       <c r="P334" s="4"/>
     </row>
-    <row r="335" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A335" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22891,7 +22902,7 @@
       <c r="O335" s="26"/>
       <c r="P335" s="4"/>
     </row>
-    <row r="336" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A336" s="75"/>
       <c r="B336" s="19" t="s">
         <v>701</v>
@@ -22916,7 +22927,7 @@
         <v>940</v>
       </c>
       <c r="I336" s="55" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="J336" s="25">
         <v>233458</v>
@@ -22932,7 +22943,7 @@
       <c r="O336" s="26"/>
       <c r="P336" s="4"/>
     </row>
-    <row r="337" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A337" s="75" t="s">
         <v>2006</v>
       </c>
@@ -22977,7 +22988,7 @@
       <c r="O337" s="26"/>
       <c r="P337" s="4"/>
     </row>
-    <row r="338" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A338" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23022,7 +23033,7 @@
       <c r="O338" s="26"/>
       <c r="P338" s="4"/>
     </row>
-    <row r="339" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A339" s="75"/>
       <c r="B339" s="19" t="s">
         <v>701</v>
@@ -23063,7 +23074,7 @@
       <c r="O339" s="26"/>
       <c r="P339" s="4"/>
     </row>
-    <row r="340" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A340" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23108,7 +23119,7 @@
       <c r="O340" s="26"/>
       <c r="P340" s="4"/>
     </row>
-    <row r="341" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A341" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23153,7 +23164,7 @@
       <c r="O341" s="26"/>
       <c r="P341" s="4"/>
     </row>
-    <row r="342" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A342" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23198,7 +23209,7 @@
       <c r="O342" s="26"/>
       <c r="P342" s="4"/>
     </row>
-    <row r="343" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A343" s="75"/>
       <c r="B343" s="19" t="s">
         <v>701</v>
@@ -23239,7 +23250,7 @@
       <c r="O343" s="26"/>
       <c r="P343" s="4"/>
     </row>
-    <row r="344" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A344" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23282,7 +23293,7 @@
       <c r="O344" s="26"/>
       <c r="P344" s="4"/>
     </row>
-    <row r="345" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A345" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23325,7 +23336,7 @@
       <c r="O345" s="26"/>
       <c r="P345" s="4"/>
     </row>
-    <row r="346" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A346" s="75"/>
       <c r="B346" s="19" t="s">
         <v>701</v>
@@ -23364,7 +23375,7 @@
       <c r="O346" s="26"/>
       <c r="P346" s="4"/>
     </row>
-    <row r="347" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A347" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23407,7 +23418,7 @@
       <c r="O347" s="26"/>
       <c r="P347" s="4"/>
     </row>
-    <row r="348" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A348" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23450,7 +23461,7 @@
       <c r="O348" s="26"/>
       <c r="P348" s="4"/>
     </row>
-    <row r="349" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A349" s="75"/>
       <c r="B349" s="19" t="s">
         <v>701</v>
@@ -23489,7 +23500,7 @@
       <c r="O349" s="26"/>
       <c r="P349" s="4"/>
     </row>
-    <row r="350" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A350" s="75"/>
       <c r="B350" s="19" t="s">
         <v>701</v>
@@ -23528,7 +23539,7 @@
       <c r="O350" s="26"/>
       <c r="P350" s="4"/>
     </row>
-    <row r="351" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A351" s="75"/>
       <c r="B351" s="19" t="s">
         <v>701</v>
@@ -23565,7 +23576,7 @@
       <c r="O351" s="26"/>
       <c r="P351" s="4"/>
     </row>
-    <row r="352" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A352" s="75"/>
       <c r="B352" s="19" t="s">
         <v>701</v>
@@ -23602,7 +23613,7 @@
       <c r="O352" s="26"/>
       <c r="P352" s="4"/>
     </row>
-    <row r="353" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A353" s="75"/>
       <c r="B353" s="19" t="s">
         <v>701</v>
@@ -23639,7 +23650,7 @@
       <c r="O353" s="26"/>
       <c r="P353" s="4"/>
     </row>
-    <row r="354" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A354" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23682,7 +23693,7 @@
       <c r="O354" s="26"/>
       <c r="P354" s="4"/>
     </row>
-    <row r="355" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A355" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23725,7 +23736,7 @@
       <c r="O355" s="26"/>
       <c r="P355" s="4"/>
     </row>
-    <row r="356" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A356" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23759,7 +23770,7 @@
         <v>245299000</v>
       </c>
       <c r="L356" s="76" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="M356" s="15" t="s">
         <v>2039</v>
@@ -23768,7 +23779,7 @@
       <c r="O356" s="26"/>
       <c r="P356" s="4"/>
     </row>
-    <row r="357" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A357" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23802,7 +23813,7 @@
         <v>245299000</v>
       </c>
       <c r="L357" s="76" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="M357" s="15" t="s">
         <v>2040</v>
@@ -23811,7 +23822,7 @@
       <c r="O357" s="26"/>
       <c r="P357" s="4"/>
     </row>
-    <row r="358" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A358" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23845,14 +23856,14 @@
         <v>84219008</v>
       </c>
       <c r="L358" s="76" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="M358" s="15"/>
       <c r="N358" s="16"/>
       <c r="O358" s="26"/>
       <c r="P358" s="4"/>
     </row>
-    <row r="359" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23895,7 +23906,7 @@
       <c r="O359" s="26"/>
       <c r="P359" s="4"/>
     </row>
-    <row r="360" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="75" t="s">
         <v>2006</v>
       </c>
@@ -23938,7 +23949,7 @@
       <c r="O360" s="26"/>
       <c r="P360" s="4"/>
     </row>
-    <row r="361" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A361" s="75"/>
       <c r="B361" s="19" t="s">
         <v>701</v>
@@ -23979,7 +23990,7 @@
       <c r="O361" s="26"/>
       <c r="P361" s="4"/>
     </row>
-    <row r="362" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A362" s="75"/>
       <c r="B362" s="19" t="s">
         <v>701</v>
@@ -24018,7 +24029,7 @@
       <c r="O362" s="26"/>
       <c r="P362" s="4"/>
     </row>
-    <row r="363" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A363" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24043,7 +24054,7 @@
         <v>911</v>
       </c>
       <c r="I363" s="24" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="J363" s="25">
         <v>236341</v>
@@ -24061,7 +24072,7 @@
       <c r="O363" s="26"/>
       <c r="P363" s="4"/>
     </row>
-    <row r="364" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A364" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24086,7 +24097,7 @@
         <v>910</v>
       </c>
       <c r="I364" s="24" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="J364" s="25">
         <v>236339</v>
@@ -24104,7 +24115,7 @@
       <c r="O364" s="26"/>
       <c r="P364" s="4"/>
     </row>
-    <row r="365" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A365" s="75"/>
       <c r="B365" s="19" t="s">
         <v>701</v>
@@ -24143,7 +24154,7 @@
       <c r="O365" s="26"/>
       <c r="P365" s="4"/>
     </row>
-    <row r="366" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24186,7 +24197,7 @@
       <c r="O366" s="26"/>
       <c r="P366" s="4"/>
     </row>
-    <row r="367" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A367" s="75"/>
       <c r="B367" s="19" t="s">
         <v>701</v>
@@ -24218,18 +24229,18 @@
         <v>127938006</v>
       </c>
       <c r="L367" s="16" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="M367" s="116"/>
       <c r="N367" s="37" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="O367" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P367" s="4"/>
     </row>
-    <row r="368" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A368" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24263,7 +24274,7 @@
         <v>245299000</v>
       </c>
       <c r="L368" s="76" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="M368" s="15" t="s">
         <v>2040</v>
@@ -24272,7 +24283,7 @@
       <c r="O368" s="26"/>
       <c r="P368" s="4"/>
     </row>
-    <row r="369" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A369" s="75"/>
       <c r="B369" s="19" t="s">
         <v>701</v>
@@ -24311,7 +24322,7 @@
       <c r="O369" s="26"/>
       <c r="P369" s="4"/>
     </row>
-    <row r="370" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="75"/>
       <c r="B370" s="19" t="s">
         <v>701</v>
@@ -24346,12 +24357,12 @@
         <v>2050</v>
       </c>
       <c r="M370" s="15" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="N370" s="16"/>
       <c r="O370" s="26"/>
     </row>
-    <row r="371" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24396,7 +24407,7 @@
       <c r="O371" s="64"/>
       <c r="P371" s="4"/>
     </row>
-    <row r="372" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24441,7 +24452,7 @@
       <c r="O372" s="65"/>
       <c r="P372" s="4"/>
     </row>
-    <row r="373" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24486,7 +24497,7 @@
       <c r="O373" s="65"/>
       <c r="P373" s="4"/>
     </row>
-    <row r="374" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24531,7 +24542,7 @@
       <c r="O374" s="65"/>
       <c r="P374" s="4"/>
     </row>
-    <row r="375" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24570,13 +24581,13 @@
         <v>2050</v>
       </c>
       <c r="M375" s="15" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="N375" s="117"/>
       <c r="O375" s="65"/>
       <c r="P375" s="4"/>
     </row>
-    <row r="376" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24615,13 +24626,13 @@
         <v>2050</v>
       </c>
       <c r="M376" s="15" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="N376" s="118"/>
       <c r="O376" s="65"/>
       <c r="P376" s="4"/>
     </row>
-    <row r="377" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24660,13 +24671,13 @@
         <v>2050</v>
       </c>
       <c r="M377" s="15" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="N377" s="118"/>
       <c r="O377" s="65"/>
       <c r="P377" s="4"/>
     </row>
-    <row r="378" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24705,13 +24716,13 @@
         <v>2050</v>
       </c>
       <c r="M378" s="15" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="N378" s="118"/>
       <c r="O378" s="65"/>
       <c r="P378" s="4"/>
     </row>
-    <row r="379" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24750,13 +24761,13 @@
         <v>2050</v>
       </c>
       <c r="M379" s="15" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="N379" s="118"/>
       <c r="O379" s="65"/>
       <c r="P379" s="4"/>
     </row>
-    <row r="380" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24795,13 +24806,13 @@
         <v>2050</v>
       </c>
       <c r="M380" s="15" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="N380" s="118"/>
       <c r="O380" s="65"/>
       <c r="P380" s="4"/>
     </row>
-    <row r="381" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24840,13 +24851,13 @@
         <v>2050</v>
       </c>
       <c r="M381" s="15" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="N381" s="118"/>
       <c r="O381" s="65"/>
       <c r="P381" s="4"/>
     </row>
-    <row r="382" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24885,13 +24896,13 @@
         <v>2050</v>
       </c>
       <c r="M382" s="15" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="N382" s="118"/>
       <c r="O382" s="65"/>
       <c r="P382" s="4"/>
     </row>
-    <row r="383" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24930,13 +24941,13 @@
         <v>2050</v>
       </c>
       <c r="M383" s="15" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="N383" s="118"/>
       <c r="O383" s="65"/>
       <c r="P383" s="4"/>
     </row>
-    <row r="384" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="75" t="s">
         <v>2006</v>
       </c>
@@ -24975,13 +24986,13 @@
         <v>2050</v>
       </c>
       <c r="M384" s="15" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="N384" s="118"/>
       <c r="O384" s="65"/>
       <c r="P384" s="4"/>
     </row>
-    <row r="385" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25020,13 +25031,13 @@
         <v>2050</v>
       </c>
       <c r="M385" s="15" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="N385" s="118"/>
       <c r="O385" s="65"/>
       <c r="P385" s="4"/>
     </row>
-    <row r="386" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25065,13 +25076,13 @@
         <v>2050</v>
       </c>
       <c r="M386" s="15" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="N386" s="118"/>
       <c r="O386" s="65"/>
       <c r="P386" s="4"/>
     </row>
-    <row r="387" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25110,13 +25121,13 @@
         <v>2050</v>
       </c>
       <c r="M387" s="15" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="N387" s="118"/>
       <c r="O387" s="65"/>
       <c r="P387" s="4"/>
     </row>
-    <row r="388" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25155,13 +25166,13 @@
         <v>2050</v>
       </c>
       <c r="M388" s="15" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="N388" s="118"/>
       <c r="O388" s="65"/>
       <c r="P388" s="4"/>
     </row>
-    <row r="389" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25198,13 +25209,13 @@
         <v>2050</v>
       </c>
       <c r="M389" s="15" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="N389" s="118"/>
       <c r="O389" s="65"/>
       <c r="P389" s="4"/>
     </row>
-    <row r="390" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25241,13 +25252,13 @@
         <v>2050</v>
       </c>
       <c r="M390" s="15" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="N390" s="118"/>
       <c r="O390" s="65"/>
       <c r="P390" s="4"/>
     </row>
-    <row r="391" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25286,13 +25297,13 @@
         <v>2050</v>
       </c>
       <c r="M391" s="15" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="N391" s="118"/>
       <c r="O391" s="65"/>
       <c r="P391" s="4"/>
     </row>
-    <row r="392" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A392" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25331,13 +25342,13 @@
         <v>2050</v>
       </c>
       <c r="M392" s="15" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="N392" s="118"/>
       <c r="O392" s="65"/>
       <c r="P392" s="4"/>
     </row>
-    <row r="393" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A393" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25376,13 +25387,13 @@
         <v>2050</v>
       </c>
       <c r="M393" s="15" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="N393" s="118"/>
       <c r="O393" s="65"/>
       <c r="P393" s="4"/>
     </row>
-    <row r="394" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A394" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25421,13 +25432,13 @@
         <v>2050</v>
       </c>
       <c r="M394" s="15" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="N394" s="118"/>
       <c r="O394" s="65"/>
       <c r="P394" s="4"/>
     </row>
-    <row r="395" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A395" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25464,13 +25475,13 @@
         <v>2050</v>
       </c>
       <c r="M395" s="15" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="N395" s="118"/>
       <c r="O395" s="65"/>
       <c r="P395" s="4"/>
     </row>
-    <row r="396" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A396" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25507,13 +25518,13 @@
         <v>2050</v>
       </c>
       <c r="M396" s="15" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="N396" s="118"/>
       <c r="O396" s="65"/>
       <c r="P396" s="4"/>
     </row>
-    <row r="397" spans="1:16" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25534,7 +25545,7 @@
         <v>14</v>
       </c>
       <c r="G397" s="20" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="H397" s="66"/>
       <c r="I397" s="67"/>
@@ -25546,13 +25557,13 @@
         <v>2050</v>
       </c>
       <c r="M397" s="15" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="N397" s="118"/>
       <c r="O397" s="26"/>
       <c r="P397" s="4"/>
     </row>
-    <row r="398" spans="1:16" s="2" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25573,7 +25584,7 @@
         <v>14</v>
       </c>
       <c r="G398" s="20" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="H398" s="66"/>
       <c r="I398" s="67"/>
@@ -25585,15 +25596,15 @@
         <v>2050</v>
       </c>
       <c r="M398" s="15" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="N398" s="118"/>
       <c r="O398" s="69" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="P398" s="4"/>
     </row>
-    <row r="399" spans="1:16" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25611,7 +25622,7 @@
       </c>
       <c r="F399" s="21"/>
       <c r="G399" s="20" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="H399" s="61"/>
       <c r="I399" s="62"/>
@@ -25623,13 +25634,13 @@
         <v>2050</v>
       </c>
       <c r="M399" s="15" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="N399" s="118"/>
       <c r="O399" s="69"/>
       <c r="P399" s="4"/>
     </row>
-    <row r="400" spans="1:16" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25647,7 +25658,7 @@
       </c>
       <c r="F400" s="21"/>
       <c r="G400" s="20" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="H400" s="61"/>
       <c r="I400" s="62"/>
@@ -25659,13 +25670,13 @@
         <v>2050</v>
       </c>
       <c r="M400" s="15" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="N400" s="118"/>
       <c r="O400" s="69"/>
       <c r="P400" s="4"/>
     </row>
-    <row r="401" spans="1:16" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25683,7 +25694,7 @@
       </c>
       <c r="F401" s="21"/>
       <c r="G401" s="20" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="H401" s="61"/>
       <c r="I401" s="62"/>
@@ -25695,13 +25706,13 @@
         <v>2050</v>
       </c>
       <c r="M401" s="15" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="N401" s="118"/>
       <c r="O401" s="69"/>
       <c r="P401" s="4"/>
     </row>
-    <row r="402" spans="1:16" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25719,7 +25730,7 @@
       </c>
       <c r="F402" s="21"/>
       <c r="G402" s="20" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="H402" s="61"/>
       <c r="I402" s="62"/>
@@ -25731,13 +25742,13 @@
         <v>2050</v>
       </c>
       <c r="M402" s="15" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="N402" s="118"/>
       <c r="O402" s="69"/>
       <c r="P402" s="4"/>
     </row>
-    <row r="403" spans="1:16" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25755,7 +25766,7 @@
       </c>
       <c r="F403" s="21"/>
       <c r="G403" s="20" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="H403" s="61"/>
       <c r="I403" s="62"/>
@@ -25767,13 +25778,13 @@
         <v>2050</v>
       </c>
       <c r="M403" s="15" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="N403" s="118"/>
       <c r="O403" s="69"/>
       <c r="P403" s="4"/>
     </row>
-    <row r="404" spans="1:16" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25791,7 +25802,7 @@
       </c>
       <c r="F404" s="21"/>
       <c r="G404" s="20" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="H404" s="61"/>
       <c r="I404" s="62"/>
@@ -25803,13 +25814,13 @@
         <v>2050</v>
       </c>
       <c r="M404" s="15" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="N404" s="118"/>
       <c r="O404" s="69"/>
       <c r="P404" s="4"/>
     </row>
-    <row r="405" spans="1:16" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25827,7 +25838,7 @@
       </c>
       <c r="F405" s="21"/>
       <c r="G405" s="20" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="H405" s="61"/>
       <c r="I405" s="62"/>
@@ -25839,13 +25850,13 @@
         <v>2050</v>
       </c>
       <c r="M405" s="15" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="N405" s="118"/>
       <c r="O405" s="69"/>
       <c r="P405" s="4"/>
     </row>
-    <row r="406" spans="1:16" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25863,7 +25874,7 @@
       </c>
       <c r="F406" s="21"/>
       <c r="G406" s="20" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="H406" s="61"/>
       <c r="I406" s="62"/>
@@ -25875,13 +25886,13 @@
         <v>2050</v>
       </c>
       <c r="M406" s="15" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="N406" s="118"/>
       <c r="O406" s="69"/>
       <c r="P406" s="4"/>
     </row>
-    <row r="407" spans="1:16" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25899,7 +25910,7 @@
       </c>
       <c r="F407" s="21"/>
       <c r="G407" s="20" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="H407" s="61"/>
       <c r="I407" s="62"/>
@@ -25911,13 +25922,13 @@
         <v>2050</v>
       </c>
       <c r="M407" s="15" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="N407" s="118"/>
       <c r="O407" s="69"/>
       <c r="P407" s="4"/>
     </row>
-    <row r="408" spans="1:16" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25935,7 +25946,7 @@
       </c>
       <c r="F408" s="21"/>
       <c r="G408" s="20" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="H408" s="61"/>
       <c r="I408" s="62"/>
@@ -25947,13 +25958,13 @@
         <v>2050</v>
       </c>
       <c r="M408" s="15" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="N408" s="119"/>
       <c r="O408" s="69"/>
       <c r="P408" s="4"/>
     </row>
-    <row r="409" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A409" s="75" t="s">
         <v>2006</v>
       </c>
@@ -25996,7 +26007,7 @@
       <c r="O409" s="70"/>
       <c r="P409" s="4"/>
     </row>
-    <row r="410" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A410" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26039,7 +26050,7 @@
       <c r="O410" s="26"/>
       <c r="P410" s="4"/>
     </row>
-    <row r="411" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A411" s="75"/>
       <c r="B411" s="19" t="s">
         <v>701</v>
@@ -26078,7 +26089,7 @@
       <c r="O411" s="26"/>
       <c r="P411" s="4"/>
     </row>
-    <row r="412" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A412" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26121,7 +26132,7 @@
       <c r="O412" s="26"/>
       <c r="P412" s="4"/>
     </row>
-    <row r="413" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A413" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26164,7 +26175,7 @@
       <c r="O413" s="26"/>
       <c r="P413" s="4"/>
     </row>
-    <row r="414" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A414" s="75"/>
       <c r="B414" s="19" t="s">
         <v>701</v>
@@ -26203,7 +26214,7 @@
       <c r="O414" s="26"/>
       <c r="P414" s="4"/>
     </row>
-    <row r="415" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A415" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26246,7 +26257,7 @@
       <c r="O415" s="26"/>
       <c r="P415" s="4"/>
     </row>
-    <row r="416" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A416" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26289,7 +26300,7 @@
       <c r="O416" s="26"/>
       <c r="P416" s="4"/>
     </row>
-    <row r="417" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A417" s="75"/>
       <c r="B417" s="27" t="s">
         <v>701</v>
@@ -26328,7 +26339,7 @@
       <c r="O417" s="26"/>
       <c r="P417" s="4"/>
     </row>
-    <row r="418" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A418" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26369,7 +26380,7 @@
       <c r="O418" s="26"/>
       <c r="P418" s="4"/>
     </row>
-    <row r="419" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A419" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26410,7 +26421,7 @@
       <c r="O419" s="26"/>
       <c r="P419" s="4"/>
     </row>
-    <row r="420" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A420" s="75"/>
       <c r="B420" s="27" t="s">
         <v>701</v>
@@ -26447,7 +26458,7 @@
       <c r="O420" s="26"/>
       <c r="P420" s="4"/>
     </row>
-    <row r="421" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A421" s="75"/>
       <c r="B421" s="27" t="s">
         <v>701</v>
@@ -26488,7 +26499,7 @@
       <c r="O421" s="26"/>
       <c r="P421" s="4"/>
     </row>
-    <row r="422" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A422" s="75"/>
       <c r="B422" s="27" t="s">
         <v>701</v>
@@ -26522,7 +26533,7 @@
         <v>45206002</v>
       </c>
       <c r="L422" s="76" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="M422" s="15"/>
       <c r="N422" s="16"/>
@@ -26560,10 +26571,10 @@
         <v>234280</v>
       </c>
       <c r="K423" s="138" t="s">
+        <v>2523</v>
+      </c>
+      <c r="L423" s="76" t="s">
         <v>2524</v>
-      </c>
-      <c r="L423" s="76" t="s">
-        <v>2525</v>
       </c>
       <c r="M423" s="15" t="s">
         <v>2039</v>
@@ -26603,10 +26614,10 @@
         <v>234280</v>
       </c>
       <c r="K424" s="138" t="s">
+        <v>2523</v>
+      </c>
+      <c r="L424" s="76" t="s">
         <v>2524</v>
-      </c>
-      <c r="L424" s="76" t="s">
-        <v>2525</v>
       </c>
       <c r="M424" s="15" t="s">
         <v>2040</v>
@@ -26615,7 +26626,7 @@
       <c r="O424" s="50"/>
       <c r="P424" s="4"/>
     </row>
-    <row r="425" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A425" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26658,7 +26669,7 @@
       <c r="O425" s="26"/>
       <c r="P425" s="4"/>
     </row>
-    <row r="426" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A426" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26701,7 +26712,7 @@
       <c r="O426" s="26"/>
       <c r="P426" s="4"/>
     </row>
-    <row r="427" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A427" s="75"/>
       <c r="B427" s="27" t="s">
         <v>701</v>
@@ -26740,7 +26751,7 @@
       <c r="O427" s="26"/>
       <c r="P427" s="4"/>
     </row>
-    <row r="428" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A428" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26783,7 +26794,7 @@
       <c r="O428" s="26"/>
       <c r="P428" s="4"/>
     </row>
-    <row r="429" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A429" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26828,7 +26839,7 @@
       <c r="O429" s="26"/>
       <c r="P429" s="4"/>
     </row>
-    <row r="430" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A430" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26873,7 +26884,7 @@
       <c r="O430" s="26"/>
       <c r="P430" s="4"/>
     </row>
-    <row r="431" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A431" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26907,18 +26918,18 @@
         <v>4719002</v>
       </c>
       <c r="L431" s="75" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="M431" s="15" t="s">
+        <v>2527</v>
+      </c>
+      <c r="N431" s="16" t="s">
         <v>2528</v>
-      </c>
-      <c r="N431" s="16" t="s">
-        <v>2529</v>
       </c>
       <c r="O431" s="26"/>
       <c r="P431" s="4"/>
     </row>
-    <row r="432" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A432" s="75" t="s">
         <v>2006</v>
       </c>
@@ -26952,18 +26963,18 @@
         <v>4719002</v>
       </c>
       <c r="L432" s="75" t="s">
+        <v>2525</v>
+      </c>
+      <c r="M432" s="15" t="s">
         <v>2526</v>
       </c>
-      <c r="M432" s="15" t="s">
-        <v>2527</v>
-      </c>
       <c r="N432" s="16" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="O432" s="26"/>
       <c r="P432" s="4"/>
     </row>
-    <row r="433" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A433" s="75"/>
       <c r="B433" s="27" t="s">
         <v>701</v>
@@ -26995,18 +27006,18 @@
         <v>4719002</v>
       </c>
       <c r="L433" s="75" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="M433" s="15" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="N433" s="16" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="O433" s="26"/>
       <c r="P433" s="4"/>
     </row>
-    <row r="434" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A434" s="75"/>
       <c r="B434" s="27" t="s">
         <v>701</v>
@@ -27045,7 +27056,7 @@
       <c r="O434" s="26"/>
       <c r="P434" s="4"/>
     </row>
-    <row r="435" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A435" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27088,7 +27099,7 @@
       <c r="O435" s="26"/>
       <c r="P435" s="4"/>
     </row>
-    <row r="436" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A436" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27131,7 +27142,7 @@
       <c r="O436" s="26"/>
       <c r="P436" s="4"/>
     </row>
-    <row r="437" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A437" s="75"/>
       <c r="B437" s="27" t="s">
         <v>701</v>
@@ -27161,14 +27172,14 @@
         <v>84782009</v>
       </c>
       <c r="L437" s="76" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="M437" s="15"/>
       <c r="N437" s="16"/>
       <c r="O437" s="26"/>
       <c r="P437" s="4"/>
     </row>
-    <row r="438" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A438" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27213,7 +27224,7 @@
       <c r="O438" s="26"/>
       <c r="P438" s="4"/>
     </row>
-    <row r="439" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27258,7 +27269,7 @@
       <c r="O439" s="26"/>
       <c r="P439" s="4"/>
     </row>
-    <row r="440" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A440" s="75"/>
       <c r="B440" s="27" t="s">
         <v>701</v>
@@ -27290,14 +27301,14 @@
         <v>40958000</v>
       </c>
       <c r="L440" s="76" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="M440" s="15"/>
       <c r="N440" s="16"/>
       <c r="O440" s="26"/>
       <c r="P440" s="4"/>
     </row>
-    <row r="441" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A441" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27342,7 +27353,7 @@
       <c r="O441" s="26"/>
       <c r="P441" s="4"/>
     </row>
-    <row r="442" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A442" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27387,7 +27398,7 @@
       <c r="O442" s="26"/>
       <c r="P442" s="4"/>
     </row>
-    <row r="443" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A443" s="75"/>
       <c r="B443" s="27" t="s">
         <v>701</v>
@@ -27421,14 +27432,14 @@
         <v>244453006</v>
       </c>
       <c r="L443" s="76" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="M443" s="15"/>
       <c r="N443" s="16"/>
       <c r="O443" s="26"/>
       <c r="P443" s="4"/>
     </row>
-    <row r="444" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A444" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27473,7 +27484,7 @@
       <c r="O444" s="26"/>
       <c r="P444" s="4"/>
     </row>
-    <row r="445" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A445" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27518,7 +27529,7 @@
       <c r="O445" s="26"/>
       <c r="P445" s="4"/>
     </row>
-    <row r="446" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A446" s="75"/>
       <c r="B446" s="27" t="s">
         <v>701</v>
@@ -27552,14 +27563,14 @@
         <v>18234004</v>
       </c>
       <c r="L446" s="76" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="M446" s="15"/>
       <c r="N446" s="16"/>
       <c r="O446" s="26"/>
       <c r="P446" s="4"/>
     </row>
-    <row r="447" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A447" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27604,7 +27615,7 @@
       <c r="O447" s="26"/>
       <c r="P447" s="4"/>
     </row>
-    <row r="448" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A448" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27649,7 +27660,7 @@
       <c r="O448" s="26"/>
       <c r="P448" s="4"/>
     </row>
-    <row r="449" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A449" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27692,7 +27703,7 @@
       <c r="O449" s="26"/>
       <c r="P449" s="4"/>
     </row>
-    <row r="450" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A450" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27735,7 +27746,7 @@
       <c r="O450" s="26"/>
       <c r="P450" s="4"/>
     </row>
-    <row r="451" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A451" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27778,7 +27789,7 @@
       <c r="O451" s="26"/>
       <c r="P451" s="4"/>
     </row>
-    <row r="452" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A452" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27821,7 +27832,7 @@
       <c r="O452" s="26"/>
       <c r="P452" s="4"/>
     </row>
-    <row r="453" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A453" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27864,7 +27875,7 @@
       <c r="O453" s="26"/>
       <c r="P453" s="4"/>
     </row>
-    <row r="454" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A454" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27907,7 +27918,7 @@
       <c r="O454" s="26"/>
       <c r="P454" s="4"/>
     </row>
-    <row r="455" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A455" s="75" t="s">
         <v>2006</v>
       </c>
@@ -27950,7 +27961,7 @@
       <c r="O455" s="26"/>
       <c r="P455" s="4"/>
     </row>
-    <row r="456" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A456" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28123,7 +28134,7 @@
       <c r="O460" s="26"/>
       <c r="P460" s="4"/>
     </row>
-    <row r="461" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A461" s="75"/>
       <c r="B461" s="19" t="s">
         <v>701</v>
@@ -28164,7 +28175,7 @@
       <c r="O461" s="26"/>
       <c r="P461" s="4"/>
     </row>
-    <row r="462" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A462" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28207,7 +28218,7 @@
       <c r="O462" s="26"/>
       <c r="P462" s="4"/>
     </row>
-    <row r="463" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A463" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28278,14 +28289,14 @@
         <v>285315005</v>
       </c>
       <c r="L464" s="76" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="M464" s="15"/>
       <c r="N464" s="16"/>
       <c r="O464" s="26"/>
       <c r="P464" s="4"/>
     </row>
-    <row r="465" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A465" s="75"/>
       <c r="B465" s="19" t="s">
         <v>701</v>
@@ -28326,7 +28337,7 @@
       <c r="O465" s="26"/>
       <c r="P465" s="4"/>
     </row>
-    <row r="466" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A466" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28369,7 +28380,7 @@
       <c r="O466" s="26"/>
       <c r="P466" s="4"/>
     </row>
-    <row r="467" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A467" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28414,7 +28425,7 @@
       <c r="O467" s="26"/>
       <c r="P467" s="4"/>
     </row>
-    <row r="468" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A468" s="75"/>
       <c r="B468" s="27" t="s">
         <v>701</v>
@@ -28448,7 +28459,7 @@
         <v>363654007</v>
       </c>
       <c r="L468" s="76" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="M468" s="15" t="s">
         <v>2039</v>
@@ -28457,7 +28468,7 @@
       <c r="O468" s="26"/>
       <c r="P468" s="4"/>
     </row>
-    <row r="469" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A469" s="75"/>
       <c r="B469" s="27" t="s">
         <v>701</v>
@@ -28491,7 +28502,7 @@
         <v>363654007</v>
       </c>
       <c r="L469" s="76" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="M469" s="15" t="s">
         <v>2040</v>
@@ -28500,7 +28511,7 @@
       <c r="O469" s="26"/>
       <c r="P469" s="4"/>
     </row>
-    <row r="470" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A470" s="75"/>
       <c r="B470" s="27" t="s">
         <v>701</v>
@@ -28534,14 +28545,14 @@
         <v>31389004</v>
       </c>
       <c r="L470" s="76" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="M470" s="15"/>
       <c r="N470" s="37"/>
       <c r="O470" s="26"/>
       <c r="P470" s="4"/>
     </row>
-    <row r="471" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A471" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28577,7 +28588,7 @@
         <v>4866005</v>
       </c>
       <c r="L471" s="76" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="M471" s="15" t="s">
         <v>2086</v>
@@ -28586,7 +28597,7 @@
       <c r="O471" s="26"/>
       <c r="P471" s="4"/>
     </row>
-    <row r="472" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A472" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28622,7 +28633,7 @@
         <v>4866005</v>
       </c>
       <c r="L472" s="76" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="M472" s="15" t="s">
         <v>2189</v>
@@ -28631,7 +28642,7 @@
       <c r="O472" s="26"/>
       <c r="P472" s="4"/>
     </row>
-    <row r="473" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A473" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28667,7 +28678,7 @@
         <v>4866005</v>
       </c>
       <c r="L473" s="76" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="M473" s="15" t="s">
         <v>2087</v>
@@ -28676,7 +28687,7 @@
       <c r="O473" s="26"/>
       <c r="P473" s="4"/>
     </row>
-    <row r="474" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A474" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28712,7 +28723,7 @@
         <v>52410001</v>
       </c>
       <c r="L474" s="76" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="M474" s="15" t="s">
         <v>2039</v>
@@ -28721,7 +28732,7 @@
       <c r="O474" s="26"/>
       <c r="P474" s="4"/>
     </row>
-    <row r="475" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A475" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28757,7 +28768,7 @@
         <v>52410001</v>
       </c>
       <c r="L475" s="76" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="M475" s="15" t="s">
         <v>2040</v>
@@ -28766,7 +28777,7 @@
       <c r="O475" s="26"/>
       <c r="P475" s="4"/>
     </row>
-    <row r="476" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A476" s="75"/>
       <c r="B476" s="27" t="s">
         <v>701</v>
@@ -28798,7 +28809,7 @@
         <v>15497006</v>
       </c>
       <c r="L476" s="76" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="M476" s="15" t="s">
         <v>2125</v>
@@ -28807,7 +28818,7 @@
       <c r="O476" s="26"/>
       <c r="P476" s="4"/>
     </row>
-    <row r="477" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A477" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28843,14 +28854,14 @@
         <v>79368004</v>
       </c>
       <c r="L477" s="76" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="M477" s="15"/>
       <c r="N477" s="16"/>
       <c r="O477" s="26"/>
       <c r="P477" s="4"/>
     </row>
-    <row r="478" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A478" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28886,14 +28897,14 @@
         <v>79368004</v>
       </c>
       <c r="L478" s="76" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="M478" s="15"/>
       <c r="N478" s="16"/>
       <c r="O478" s="26"/>
       <c r="P478" s="4"/>
     </row>
-    <row r="479" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A479" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28929,7 +28940,7 @@
         <v>18252004</v>
       </c>
       <c r="L479" s="76" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="M479" s="15" t="s">
         <v>2039</v>
@@ -28938,7 +28949,7 @@
       <c r="O479" s="26"/>
       <c r="P479" s="4"/>
     </row>
-    <row r="480" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A480" s="75" t="s">
         <v>2006</v>
       </c>
@@ -28974,7 +28985,7 @@
         <v>18252004</v>
       </c>
       <c r="L480" s="76" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="M480" s="15" t="s">
         <v>2040</v>
@@ -28983,7 +28994,7 @@
       <c r="O480" s="26"/>
       <c r="P480" s="4"/>
     </row>
-    <row r="481" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A481" s="75" t="s">
         <v>2006</v>
       </c>
@@ -29017,7 +29028,7 @@
         <v>18252004</v>
       </c>
       <c r="L481" s="76" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="M481" s="15" t="s">
         <v>2039</v>
@@ -29026,7 +29037,7 @@
       <c r="O481" s="26"/>
       <c r="P481" s="4"/>
     </row>
-    <row r="482" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A482" s="75" t="s">
         <v>2006</v>
       </c>
@@ -29060,7 +29071,7 @@
         <v>76738006</v>
       </c>
       <c r="L482" s="76" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="M482" s="15" t="s">
         <v>2040</v>
@@ -29069,7 +29080,7 @@
       <c r="O482" s="26"/>
       <c r="P482" s="4"/>
     </row>
-    <row r="483" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A483" s="75" t="s">
         <v>2006</v>
       </c>
@@ -29105,7 +29116,7 @@
         <v>22823000</v>
       </c>
       <c r="L483" s="76" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="M483" s="9" t="s">
         <v>2039</v>
@@ -29114,7 +29125,7 @@
       <c r="O483" s="26"/>
       <c r="P483" s="4"/>
     </row>
-    <row r="484" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A484" s="75" t="s">
         <v>2006</v>
       </c>
@@ -29150,7 +29161,7 @@
         <v>22823000</v>
       </c>
       <c r="L484" s="76" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="M484" s="10" t="s">
         <v>2040</v>
@@ -29159,7 +29170,7 @@
       <c r="O484" s="26"/>
       <c r="P484" s="4"/>
     </row>
-    <row r="485" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A485" s="75" t="s">
         <v>2006</v>
       </c>
@@ -29195,7 +29206,7 @@
         <v>52927003</v>
       </c>
       <c r="L485" s="15" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="M485" s="9" t="s">
         <v>2039</v>
@@ -29204,7 +29215,7 @@
       <c r="O485" s="26"/>
       <c r="P485" s="4"/>
     </row>
-    <row r="486" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A486" s="75"/>
       <c r="B486" s="27" t="s">
         <v>701</v>
@@ -29238,14 +29249,14 @@
         <v>49460000</v>
       </c>
       <c r="L486" s="76" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="M486" s="71"/>
       <c r="N486" s="16"/>
       <c r="O486" s="26"/>
       <c r="P486" s="4"/>
     </row>
-    <row r="487" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A487" s="75" t="s">
         <v>2006</v>
       </c>
@@ -29281,16 +29292,16 @@
         <v>46607005</v>
       </c>
       <c r="L487" s="76" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="M487" s="9" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="N487" s="16"/>
       <c r="O487" s="26"/>
       <c r="P487" s="4"/>
     </row>
-    <row r="488" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A488" s="75" t="s">
         <v>2006</v>
       </c>
@@ -29326,16 +29337,16 @@
         <v>46607005</v>
       </c>
       <c r="L488" s="76" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="M488" s="10" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="N488" s="16"/>
       <c r="O488" s="26"/>
       <c r="P488" s="4"/>
     </row>
-    <row r="489" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A489" s="75"/>
       <c r="B489" s="27" t="s">
         <v>701</v>
@@ -29369,14 +29380,14 @@
         <v>15776009</v>
       </c>
       <c r="L489" s="76" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="M489" s="15"/>
       <c r="N489" s="16"/>
       <c r="O489" s="26"/>
       <c r="P489" s="4"/>
     </row>
-    <row r="490" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A490" s="75"/>
       <c r="B490" s="27" t="s">
         <v>701</v>
@@ -29410,14 +29421,14 @@
         <v>64163001</v>
       </c>
       <c r="L490" s="76" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="M490" s="15"/>
       <c r="N490" s="16"/>
       <c r="O490" s="26"/>
       <c r="P490" s="4"/>
     </row>
-    <row r="491" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A491" s="75"/>
       <c r="B491" s="27" t="s">
         <v>701</v>
@@ -29451,14 +29462,14 @@
         <v>73239005</v>
       </c>
       <c r="L491" s="76" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="M491" s="15"/>
       <c r="N491" s="16"/>
       <c r="O491" s="26"/>
       <c r="P491" s="4"/>
     </row>
-    <row r="492" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A492" s="75"/>
       <c r="B492" s="27" t="s">
         <v>701</v>
@@ -29490,14 +29501,14 @@
         <v>45682005</v>
       </c>
       <c r="L492" s="76" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="M492" s="15"/>
       <c r="N492" s="16"/>
       <c r="O492" s="26"/>
       <c r="P492" s="4"/>
     </row>
-    <row r="493" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A493" s="75"/>
       <c r="B493" s="27" t="s">
         <v>701</v>
@@ -29531,7 +29542,7 @@
         <v>45289007</v>
       </c>
       <c r="L493" s="76" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="M493" s="15" t="s">
         <v>2201</v>
@@ -29610,7 +29621,7 @@
       <c r="O495" s="26"/>
       <c r="P495" s="4"/>
     </row>
-    <row r="496" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A496" s="75"/>
       <c r="B496" s="27" t="s">
         <v>701</v>
@@ -29642,14 +29653,14 @@
         <v>52737000</v>
       </c>
       <c r="L496" s="76" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="M496" s="15"/>
       <c r="N496" s="16"/>
       <c r="O496" s="26"/>
       <c r="P496" s="4"/>
     </row>
-    <row r="497" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A497" s="75" t="s">
         <v>2006</v>
       </c>
@@ -29676,7 +29687,7 @@
         <v>1580</v>
       </c>
       <c r="I497" s="32" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="J497" s="33">
         <v>50878</v>
@@ -29685,7 +29696,7 @@
         <v>18234004</v>
       </c>
       <c r="L497" s="76" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="M497" s="15" t="s">
         <v>2039</v>
@@ -29867,7 +29878,7 @@
       <c r="O502" s="26"/>
       <c r="P502" s="4"/>
     </row>
-    <row r="503" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A503" s="75" t="s">
         <v>2006</v>
       </c>
@@ -29894,7 +29905,7 @@
         <v>1556</v>
       </c>
       <c r="I503" s="32" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="J503" s="33">
         <v>50875</v>
@@ -29903,7 +29914,7 @@
         <v>18234004</v>
       </c>
       <c r="L503" s="76" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="M503" s="15" t="s">
         <v>2039</v>
@@ -29912,7 +29923,7 @@
       <c r="O503" s="26"/>
       <c r="P503" s="4"/>
     </row>
-    <row r="504" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A504" s="75"/>
       <c r="B504" s="27" t="s">
         <v>701</v>
@@ -29944,7 +29955,7 @@
         <v>18911002</v>
       </c>
       <c r="L504" s="76" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="M504" s="15" t="s">
         <v>2040</v>
@@ -29953,7 +29964,7 @@
       <c r="O504" s="26"/>
       <c r="P504" s="4"/>
     </row>
-    <row r="505" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A505" s="75"/>
       <c r="B505" s="19" t="s">
         <v>701</v>
@@ -29987,14 +29998,14 @@
         <v>76848001</v>
       </c>
       <c r="L505" s="76" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="M505" s="15"/>
       <c r="N505" s="16"/>
       <c r="O505" s="26"/>
       <c r="P505" s="4"/>
     </row>
-    <row r="506" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A506" s="75"/>
       <c r="B506" s="19" t="s">
         <v>701</v>
@@ -30026,14 +30037,14 @@
         <v>38864007</v>
       </c>
       <c r="L506" s="76" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="M506" s="15"/>
       <c r="N506" s="16"/>
       <c r="O506" s="26"/>
       <c r="P506" s="4"/>
     </row>
-    <row r="507" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A507" s="75"/>
       <c r="B507" s="19" t="s">
         <v>701</v>
@@ -30067,14 +30078,14 @@
         <v>118762006</v>
       </c>
       <c r="L507" s="76" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="M507" s="15"/>
       <c r="N507" s="16"/>
       <c r="O507" s="26"/>
       <c r="P507" s="4"/>
     </row>
-    <row r="508" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A508" s="75" t="s">
         <v>2006</v>
       </c>
@@ -30108,7 +30119,7 @@
         <v>15497006</v>
       </c>
       <c r="L508" s="76" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="M508" s="15" t="s">
         <v>2039</v>
@@ -30117,7 +30128,7 @@
       <c r="O508" s="26"/>
       <c r="P508" s="4"/>
     </row>
-    <row r="509" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A509" s="75" t="s">
         <v>2006</v>
       </c>
@@ -30151,7 +30162,7 @@
         <v>15497006</v>
       </c>
       <c r="L509" s="76" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="M509" s="15" t="s">
         <v>2040</v>
@@ -30190,14 +30201,14 @@
         <v>14106009</v>
       </c>
       <c r="L510" s="76" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="M510" s="15"/>
       <c r="N510" s="16"/>
       <c r="O510" s="26"/>
       <c r="P510" s="4"/>
     </row>
-    <row r="511" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A511" s="75"/>
       <c r="B511" s="19" t="s">
         <v>701</v>
@@ -30231,14 +30242,14 @@
         <v>54066008</v>
       </c>
       <c r="L511" s="76" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="M511" s="15"/>
       <c r="N511" s="16"/>
       <c r="O511" s="26"/>
       <c r="P511" s="4"/>
     </row>
-    <row r="512" spans="1:16" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="75"/>
       <c r="B512" s="27" t="s">
         <v>1477</v>
@@ -30268,14 +30279,14 @@
         <v>110822002</v>
       </c>
       <c r="L512" s="76" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="M512" s="15"/>
       <c r="N512" s="37"/>
       <c r="O512" s="26"/>
       <c r="P512" s="13"/>
     </row>
-    <row r="513" spans="1:16" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:16" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="75"/>
       <c r="B513" s="19" t="s">
         <v>701</v>
@@ -30309,14 +30320,14 @@
         <v>45793000</v>
       </c>
       <c r="L513" s="76" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="M513" s="15"/>
       <c r="N513" s="16"/>
       <c r="O513" s="26"/>
       <c r="P513" s="4"/>
     </row>
-    <row r="514" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A514" s="75"/>
       <c r="B514" s="19" t="s">
         <v>701</v>
@@ -30350,14 +30361,14 @@
         <v>56329008</v>
       </c>
       <c r="L514" s="76" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="M514" s="15"/>
       <c r="N514" s="16"/>
       <c r="O514" s="26"/>
       <c r="P514" s="4"/>
     </row>
-    <row r="515" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A515" s="75"/>
       <c r="B515" s="19" t="s">
         <v>701</v>
@@ -30398,7 +30409,7 @@
       <c r="O515" s="26"/>
       <c r="P515" s="4"/>
     </row>
-    <row r="516" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A516" s="75"/>
       <c r="B516" s="19" t="s">
         <v>701</v>
@@ -30432,14 +30443,14 @@
         <v>41216001</v>
       </c>
       <c r="L516" s="76" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="M516" s="15"/>
       <c r="N516" s="16"/>
       <c r="O516" s="26"/>
       <c r="P516" s="4"/>
     </row>
-    <row r="517" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A517" s="75" t="s">
         <v>2006</v>
       </c>
@@ -30475,7 +30486,7 @@
         <v>45289007</v>
       </c>
       <c r="L517" s="76" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="M517" s="15" t="s">
         <v>2039</v>
@@ -30484,7 +30495,7 @@
       <c r="O517" s="26"/>
       <c r="P517" s="4"/>
     </row>
-    <row r="518" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A518" s="75" t="s">
         <v>2006</v>
       </c>
@@ -30520,7 +30531,7 @@
         <v>45289007</v>
       </c>
       <c r="L518" s="76" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="M518" s="15" t="s">
         <v>2040</v>
@@ -30529,7 +30540,7 @@
       <c r="O518" s="26"/>
       <c r="P518" s="4"/>
     </row>
-    <row r="519" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A519" s="75"/>
       <c r="B519" s="27" t="s">
         <v>701</v>
@@ -30561,18 +30572,18 @@
         <v>37446007</v>
       </c>
       <c r="L519" s="112" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="M519" s="15"/>
       <c r="N519" s="16" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="O519" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P519" s="4"/>
     </row>
-    <row r="520" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A520" s="75"/>
       <c r="B520" s="27" t="s">
         <v>701</v>
@@ -30602,14 +30613,14 @@
         <v>53350007</v>
       </c>
       <c r="L520" s="76" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="M520" s="15"/>
       <c r="N520" s="16"/>
       <c r="O520" s="26"/>
       <c r="P520" s="4"/>
     </row>
-    <row r="521" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A521" s="75"/>
       <c r="B521" s="19" t="s">
         <v>701</v>
@@ -30643,7 +30654,7 @@
         <v>88938001</v>
       </c>
       <c r="L521" s="76" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="M521" s="15" t="s">
         <v>2039</v>
@@ -30652,7 +30663,7 @@
       <c r="O521" s="26"/>
       <c r="P521" s="4"/>
     </row>
-    <row r="522" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A522" s="75"/>
       <c r="B522" s="19" t="s">
         <v>701</v>
@@ -30686,7 +30697,7 @@
         <v>88938001</v>
       </c>
       <c r="L522" s="76" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="M522" s="15" t="s">
         <v>2040</v>
@@ -30695,7 +30706,7 @@
       <c r="O522" s="26"/>
       <c r="P522" s="4"/>
     </row>
-    <row r="523" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A523" s="75"/>
       <c r="B523" s="19" t="s">
         <v>701</v>
@@ -30729,7 +30740,7 @@
         <v>85002005</v>
       </c>
       <c r="L523" s="76" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="M523" s="15" t="s">
         <v>2039</v>
@@ -30738,7 +30749,7 @@
       <c r="O523" s="26"/>
       <c r="P523" s="4"/>
     </row>
-    <row r="524" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A524" s="75"/>
       <c r="B524" s="19" t="s">
         <v>701</v>
@@ -30772,7 +30783,7 @@
         <v>85002005</v>
       </c>
       <c r="L524" s="76" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="M524" s="15" t="s">
         <v>2040</v>
@@ -30781,7 +30792,7 @@
       <c r="O524" s="26"/>
       <c r="P524" s="4"/>
     </row>
-    <row r="525" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A525" s="75"/>
       <c r="B525" s="19" t="s">
         <v>701</v>
@@ -30813,14 +30824,14 @@
         <v>511000202101</v>
       </c>
       <c r="L525" s="76" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="M525" s="15"/>
       <c r="N525" s="16"/>
       <c r="O525" s="26"/>
       <c r="P525" s="4"/>
     </row>
-    <row r="526" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A526" s="75"/>
       <c r="B526" s="19" t="s">
         <v>701</v>
@@ -30852,14 +30863,14 @@
         <v>34402009</v>
       </c>
       <c r="L526" s="76" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="M526" s="15"/>
       <c r="N526" s="16"/>
       <c r="O526" s="26"/>
       <c r="P526" s="4"/>
     </row>
-    <row r="527" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A527" s="75"/>
       <c r="B527" s="19" t="s">
         <v>701</v>
@@ -30893,7 +30904,7 @@
         <v>62397004</v>
       </c>
       <c r="L527" s="76" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="M527" s="15"/>
       <c r="N527" s="16"/>
@@ -30935,7 +30946,7 @@
       <c r="O528" s="26"/>
       <c r="P528" s="4"/>
     </row>
-    <row r="529" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="75"/>
       <c r="B529" s="27" t="s">
         <v>701</v>
@@ -30965,7 +30976,7 @@
         <v>41695006</v>
       </c>
       <c r="L529" s="76" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="M529" s="15"/>
       <c r="N529" s="16"/>
@@ -31038,7 +31049,7 @@
       <c r="O531" s="26"/>
       <c r="P531" s="4"/>
     </row>
-    <row r="532" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A532" s="75" t="s">
         <v>2006</v>
       </c>
@@ -31083,7 +31094,7 @@
       <c r="O532" s="26"/>
       <c r="P532" s="4"/>
     </row>
-    <row r="533" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A533" s="75" t="s">
         <v>2006</v>
       </c>
@@ -31128,7 +31139,7 @@
       <c r="O533" s="26"/>
       <c r="P533" s="4"/>
     </row>
-    <row r="534" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A534" s="75" t="s">
         <v>2006</v>
       </c>
@@ -31173,7 +31184,7 @@
       <c r="O534" s="26"/>
       <c r="P534" s="4"/>
     </row>
-    <row r="535" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A535" s="75" t="s">
         <v>2006</v>
       </c>
@@ -31218,7 +31229,7 @@
       <c r="O535" s="26"/>
       <c r="P535" s="4"/>
     </row>
-    <row r="536" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A536" s="75"/>
       <c r="B536" s="19" t="s">
         <v>701</v>
@@ -31248,14 +31259,14 @@
         <v>12402003</v>
       </c>
       <c r="L536" s="76" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="M536" s="15"/>
       <c r="N536" s="16"/>
       <c r="O536" s="26"/>
       <c r="P536" s="4"/>
     </row>
-    <row r="537" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:16" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A537" s="75"/>
       <c r="B537" s="19" t="s">
         <v>701</v>
@@ -31283,14 +31294,14 @@
       <c r="L537" s="112"/>
       <c r="M537" s="15"/>
       <c r="N537" s="16" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="O537" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P537" s="4"/>
     </row>
-    <row r="538" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A538" s="75"/>
       <c r="B538" s="19" t="s">
         <v>701</v>
@@ -31322,14 +31333,14 @@
         <v>20233005</v>
       </c>
       <c r="L538" s="76" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="M538" s="15"/>
       <c r="N538" s="16"/>
       <c r="O538" s="26"/>
       <c r="P538" s="4"/>
     </row>
-    <row r="539" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A539" s="75"/>
       <c r="B539" s="19" t="s">
         <v>701</v>
@@ -31361,14 +31372,14 @@
         <v>64739004</v>
       </c>
       <c r="L539" s="76" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="M539" s="15"/>
       <c r="N539" s="16"/>
       <c r="O539" s="26"/>
       <c r="P539" s="4"/>
     </row>
-    <row r="540" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A540" s="75"/>
       <c r="B540" s="19" t="s">
         <v>701</v>
@@ -31398,7 +31409,7 @@
         <v>64739004</v>
       </c>
       <c r="L540" s="76" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="M540" s="15" t="s">
         <v>2214</v>
@@ -31407,7 +31418,7 @@
       <c r="O540" s="26"/>
       <c r="P540" s="4"/>
     </row>
-    <row r="541" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A541" s="75"/>
       <c r="B541" s="19" t="s">
         <v>701</v>
@@ -31437,7 +31448,7 @@
         <v>64739004</v>
       </c>
       <c r="L541" s="76" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="M541" s="15" t="s">
         <v>2215</v>
@@ -31446,7 +31457,7 @@
       <c r="O541" s="26"/>
       <c r="P541" s="4"/>
     </row>
-    <row r="542" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A542" s="75"/>
       <c r="B542" s="19" t="s">
         <v>701</v>
@@ -31480,7 +31491,7 @@
         <v>54215007</v>
       </c>
       <c r="L542" s="76" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="M542" s="15"/>
       <c r="N542" s="16"/>
@@ -31520,7 +31531,7 @@
       <c r="O543" s="26"/>
       <c r="P543" s="4"/>
     </row>
-    <row r="544" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A544" s="75"/>
       <c r="B544" s="19" t="s">
         <v>701</v>
@@ -31561,7 +31572,7 @@
       <c r="O544" s="26"/>
       <c r="P544" s="4"/>
     </row>
-    <row r="545" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:16" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A545" s="75" t="s">
         <v>2006</v>
       </c>
@@ -31603,14 +31614,14 @@
         <v>2039</v>
       </c>
       <c r="N545" s="16" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="O545" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P545" s="4"/>
     </row>
-    <row r="546" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:16" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A546" s="75" t="s">
         <v>2006</v>
       </c>
@@ -31652,14 +31663,14 @@
         <v>2040</v>
       </c>
       <c r="N546" s="16" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="O546" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P546" s="4"/>
     </row>
-    <row r="547" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A547" s="75" t="s">
         <v>2006</v>
       </c>
@@ -31704,7 +31715,7 @@
       <c r="O547" s="26"/>
       <c r="P547" s="4"/>
     </row>
-    <row r="548" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A548" s="75" t="s">
         <v>2006</v>
       </c>
@@ -31749,7 +31760,7 @@
       <c r="O548" s="26"/>
       <c r="P548" s="4"/>
     </row>
-    <row r="549" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A549" s="75"/>
       <c r="B549" s="19" t="s">
         <v>701</v>
@@ -31790,7 +31801,7 @@
       <c r="O549" s="26"/>
       <c r="P549" s="4"/>
     </row>
-    <row r="550" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A550" s="75"/>
       <c r="B550" s="19" t="s">
         <v>701</v>
@@ -31824,14 +31835,14 @@
         <v>15924003</v>
       </c>
       <c r="L550" s="76" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="M550" s="15"/>
       <c r="N550" s="16"/>
       <c r="O550" s="26"/>
       <c r="P550" s="4"/>
     </row>
-    <row r="551" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A551" s="75" t="s">
         <v>2006</v>
       </c>
@@ -31867,7 +31878,7 @@
         <v>5665001</v>
       </c>
       <c r="L551" s="76" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="M551" s="15" t="s">
         <v>2039</v>
@@ -31944,7 +31955,7 @@
       <c r="O553" s="26"/>
       <c r="P553" s="4"/>
     </row>
-    <row r="554" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A554" s="75" t="s">
         <v>2006</v>
       </c>
@@ -31980,7 +31991,7 @@
         <v>5665001</v>
       </c>
       <c r="L554" s="76" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="M554" s="15" t="s">
         <v>2040</v>
@@ -31989,7 +32000,7 @@
       <c r="O554" s="26"/>
       <c r="P554" s="4"/>
     </row>
-    <row r="555" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A555" s="75" t="s">
         <v>2006</v>
       </c>
@@ -32025,7 +32036,7 @@
         <v>5665001</v>
       </c>
       <c r="L555" s="76" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="M555" s="15" t="s">
         <v>2125</v>
@@ -32034,7 +32045,7 @@
       <c r="O555" s="26"/>
       <c r="P555" s="4"/>
     </row>
-    <row r="556" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A556" s="75"/>
       <c r="B556" s="19" t="s">
         <v>701</v>
@@ -32075,7 +32086,7 @@
       <c r="O556" s="26"/>
       <c r="P556" s="4"/>
     </row>
-    <row r="557" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A557" s="75" t="s">
         <v>2006</v>
       </c>
@@ -32120,7 +32131,7 @@
       <c r="O557" s="26"/>
       <c r="P557" s="4"/>
     </row>
-    <row r="558" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A558" s="75" t="s">
         <v>2006</v>
       </c>
@@ -32165,7 +32176,7 @@
       <c r="O558" s="26"/>
       <c r="P558" s="4"/>
     </row>
-    <row r="559" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A559" s="75" t="s">
         <v>2006</v>
       </c>
@@ -32210,7 +32221,7 @@
       <c r="O559" s="26"/>
       <c r="P559" s="4"/>
     </row>
-    <row r="560" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A560" s="75" t="s">
         <v>2006</v>
       </c>
@@ -32255,7 +32266,7 @@
       <c r="O560" s="26"/>
       <c r="P560" s="4"/>
     </row>
-    <row r="561" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A561" s="75" t="s">
         <v>2006</v>
       </c>
@@ -32300,7 +32311,7 @@
       <c r="O561" s="26"/>
       <c r="P561" s="4"/>
     </row>
-    <row r="562" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A562" s="75" t="s">
         <v>2006</v>
       </c>
@@ -32345,7 +32356,7 @@
       <c r="O562" s="26"/>
       <c r="P562" s="4"/>
     </row>
-    <row r="563" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A563" s="75" t="s">
         <v>2006</v>
       </c>
@@ -32390,7 +32401,7 @@
       <c r="O563" s="26"/>
       <c r="P563" s="4"/>
     </row>
-    <row r="564" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A564" s="75" t="s">
         <v>2006</v>
       </c>
@@ -32435,7 +32446,7 @@
       <c r="O564" s="26"/>
       <c r="P564" s="4"/>
     </row>
-    <row r="565" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A565" s="124" t="s">
         <v>2006</v>
       </c>
@@ -32480,7 +32491,7 @@
       <c r="O565" s="26"/>
       <c r="P565" s="4"/>
     </row>
-    <row r="566" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A566" s="124" t="s">
         <v>2006</v>
       </c>
@@ -32525,7 +32536,7 @@
       <c r="O566" s="26"/>
       <c r="P566" s="4"/>
     </row>
-    <row r="567" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A567" s="124" t="s">
         <v>2006</v>
       </c>
@@ -32570,7 +32581,7 @@
       <c r="O567" s="26"/>
       <c r="P567" s="4"/>
     </row>
-    <row r="568" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A568" s="124" t="s">
         <v>2006</v>
       </c>
@@ -32615,7 +32626,7 @@
       <c r="O568" s="26"/>
       <c r="P568" s="4"/>
     </row>
-    <row r="569" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A569" s="124" t="s">
         <v>2006</v>
       </c>
@@ -32660,7 +32671,7 @@
       <c r="O569" s="26"/>
       <c r="P569" s="4"/>
     </row>
-    <row r="570" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A570" s="124" t="s">
         <v>2006</v>
       </c>
@@ -32705,7 +32716,7 @@
       <c r="O570" s="26"/>
       <c r="P570" s="4"/>
     </row>
-    <row r="571" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A571" s="124" t="s">
         <v>2006</v>
       </c>
@@ -32750,7 +32761,7 @@
       <c r="O571" s="26"/>
       <c r="P571" s="4"/>
     </row>
-    <row r="572" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A572" s="124" t="s">
         <v>2006</v>
       </c>
@@ -32795,7 +32806,7 @@
       <c r="O572" s="26"/>
       <c r="P572" s="4"/>
     </row>
-    <row r="573" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A573" s="124" t="s">
         <v>2006</v>
       </c>
@@ -32840,7 +32851,7 @@
       <c r="O573" s="26"/>
       <c r="P573" s="4"/>
     </row>
-    <row r="574" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A574" s="124" t="s">
         <v>2006</v>
       </c>
@@ -32885,7 +32896,7 @@
       <c r="O574" s="26"/>
       <c r="P574" s="4"/>
     </row>
-    <row r="575" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A575" s="124" t="s">
         <v>2006</v>
       </c>
@@ -32930,7 +32941,7 @@
       <c r="O575" s="26"/>
       <c r="P575" s="4"/>
     </row>
-    <row r="576" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A576" s="124" t="s">
         <v>2006</v>
       </c>
@@ -32975,7 +32986,7 @@
       <c r="O576" s="26"/>
       <c r="P576" s="4"/>
     </row>
-    <row r="577" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A577" s="124" t="s">
         <v>2006</v>
       </c>
@@ -33020,7 +33031,7 @@
       <c r="O577" s="26"/>
       <c r="P577" s="4"/>
     </row>
-    <row r="578" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A578" s="124" t="s">
         <v>2006</v>
       </c>
@@ -33065,7 +33076,7 @@
       <c r="O578" s="26"/>
       <c r="P578" s="4"/>
     </row>
-    <row r="579" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A579" s="124" t="s">
         <v>2006</v>
       </c>
@@ -33110,7 +33121,7 @@
       <c r="O579" s="26"/>
       <c r="P579" s="4"/>
     </row>
-    <row r="580" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A580" s="124" t="s">
         <v>2006</v>
       </c>
@@ -33155,7 +33166,7 @@
       <c r="O580" s="26"/>
       <c r="P580" s="4"/>
     </row>
-    <row r="581" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A581" s="75"/>
       <c r="B581" s="19" t="s">
         <v>701</v>
@@ -33187,7 +33198,7 @@
         <v>39937001</v>
       </c>
       <c r="L581" s="76" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M581" s="15"/>
       <c r="N581" s="16"/>
@@ -33227,7 +33238,7 @@
         <v>8534</v>
       </c>
       <c r="K582" s="139" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="L582" s="76" t="s">
         <v>2139</v>
@@ -33272,7 +33283,7 @@
         <v>8533</v>
       </c>
       <c r="K583" s="139" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="L583" s="76" t="s">
         <v>2139</v>
@@ -33284,7 +33295,7 @@
       <c r="O583" s="26"/>
       <c r="P583" s="4"/>
     </row>
-    <row r="584" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A584" s="75"/>
       <c r="B584" s="19" t="s">
         <v>701</v>
@@ -33314,14 +33325,14 @@
         <v>48014002</v>
       </c>
       <c r="L584" s="76" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="M584" s="15"/>
       <c r="N584" s="16"/>
       <c r="O584" s="26"/>
       <c r="P584" s="4"/>
     </row>
-    <row r="585" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A585" s="125" t="s">
         <v>2006</v>
       </c>
@@ -33366,7 +33377,7 @@
       <c r="O585" s="26"/>
       <c r="P585" s="4"/>
     </row>
-    <row r="586" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A586" s="125" t="s">
         <v>2006</v>
       </c>
@@ -33411,7 +33422,7 @@
       <c r="O586" s="26"/>
       <c r="P586" s="4"/>
     </row>
-    <row r="587" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="75"/>
       <c r="B587" s="19" t="s">
         <v>701</v>
@@ -33439,14 +33450,14 @@
         <v>75093004</v>
       </c>
       <c r="L587" s="76" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="M587" s="15"/>
       <c r="N587" s="16"/>
       <c r="O587" s="26"/>
       <c r="P587" s="4"/>
     </row>
-    <row r="588" spans="1:16" s="2" customFormat="1" ht="68" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:16" s="2" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="75"/>
       <c r="B588" s="19" t="s">
         <v>701</v>
@@ -33477,7 +33488,7 @@
       <c r="M588" s="15"/>
       <c r="N588" s="85"/>
       <c r="O588" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P588" s="4"/>
     </row>
@@ -33510,10 +33521,10 @@
       </c>
       <c r="J589" s="25"/>
       <c r="K589" s="138" t="s">
+        <v>2534</v>
+      </c>
+      <c r="L589" s="76" t="s">
         <v>2535</v>
-      </c>
-      <c r="L589" s="76" t="s">
-        <v>2536</v>
       </c>
       <c r="M589" s="15"/>
       <c r="N589" s="86"/>
@@ -33545,17 +33556,17 @@
       <c r="I590" s="32"/>
       <c r="J590" s="33"/>
       <c r="K590" s="138" t="s">
+        <v>2536</v>
+      </c>
+      <c r="L590" s="76" t="s">
         <v>2537</v>
-      </c>
-      <c r="L590" s="76" t="s">
-        <v>2538</v>
       </c>
       <c r="M590" s="15"/>
       <c r="N590" s="86"/>
       <c r="O590" s="26"/>
       <c r="P590" s="4"/>
     </row>
-    <row r="591" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A591" s="75"/>
       <c r="B591" s="19" t="s">
         <v>701</v>
@@ -33587,7 +33598,7 @@
         <v>789564000</v>
       </c>
       <c r="L591" s="76" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="M591" s="15"/>
       <c r="N591" s="86"/>
@@ -33623,17 +33634,17 @@
       </c>
       <c r="J592" s="25"/>
       <c r="K592" s="138" t="s">
+        <v>2538</v>
+      </c>
+      <c r="L592" s="76" t="s">
         <v>2539</v>
-      </c>
-      <c r="L592" s="76" t="s">
-        <v>2540</v>
       </c>
       <c r="M592" s="15"/>
       <c r="N592" s="86"/>
       <c r="O592" s="26"/>
       <c r="P592" s="4"/>
     </row>
-    <row r="593" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A593" s="75"/>
       <c r="B593" s="19" t="s">
         <v>701</v>
@@ -33667,7 +33678,7 @@
         <v>77621008</v>
       </c>
       <c r="L593" s="124" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="M593" s="15" t="s">
         <v>2039</v>
@@ -33676,7 +33687,7 @@
       <c r="O593" s="26"/>
       <c r="P593" s="4"/>
     </row>
-    <row r="594" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A594" s="75"/>
       <c r="B594" s="19" t="s">
         <v>701</v>
@@ -33710,7 +33721,7 @@
         <v>77621008</v>
       </c>
       <c r="L594" s="124" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="M594" s="15" t="s">
         <v>2040</v>
@@ -33719,7 +33730,7 @@
       <c r="O594" s="26"/>
       <c r="P594" s="4"/>
     </row>
-    <row r="595" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A595" s="75" t="s">
         <v>2006</v>
       </c>
@@ -33764,7 +33775,7 @@
       <c r="O595" s="26"/>
       <c r="P595" s="4"/>
     </row>
-    <row r="596" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A596" s="75" t="s">
         <v>2006</v>
       </c>
@@ -33809,7 +33820,7 @@
       <c r="O596" s="26"/>
       <c r="P596" s="4"/>
     </row>
-    <row r="597" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A597" s="75"/>
       <c r="B597" s="27" t="s">
         <v>701</v>
@@ -33843,14 +33854,14 @@
         <v>41178004</v>
       </c>
       <c r="L597" s="76" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="M597" s="15"/>
       <c r="N597" s="16"/>
       <c r="O597" s="26"/>
       <c r="P597" s="4"/>
     </row>
-    <row r="598" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A598" s="75" t="s">
         <v>2006</v>
       </c>
@@ -33886,7 +33897,7 @@
         <v>15924003</v>
       </c>
       <c r="L598" s="76" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="M598" s="15" t="s">
         <v>2039</v>
@@ -33895,7 +33906,7 @@
       <c r="O598" s="26"/>
       <c r="P598" s="4"/>
     </row>
-    <row r="599" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A599" s="75" t="s">
         <v>2006</v>
       </c>
@@ -33931,7 +33942,7 @@
         <v>15924003</v>
       </c>
       <c r="L599" s="76" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="M599" s="15" t="s">
         <v>2040</v>
@@ -33940,7 +33951,7 @@
       <c r="O599" s="26"/>
       <c r="P599" s="4"/>
     </row>
-    <row r="600" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A600" s="75"/>
       <c r="B600" s="19" t="s">
         <v>701</v>
@@ -33974,14 +33985,14 @@
         <v>61853006</v>
       </c>
       <c r="L600" s="76" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="M600" s="15"/>
       <c r="N600" s="16"/>
       <c r="O600" s="26"/>
       <c r="P600" s="4"/>
     </row>
-    <row r="601" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A601" s="75" t="s">
         <v>2006</v>
       </c>
@@ -34017,16 +34028,16 @@
         <v>24999009</v>
       </c>
       <c r="L601" s="76" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="M601" s="15" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="N601" s="75"/>
       <c r="O601" s="26"/>
       <c r="P601" s="4"/>
     </row>
-    <row r="602" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A602" s="75" t="s">
         <v>2006</v>
       </c>
@@ -34062,7 +34073,7 @@
         <v>24999009</v>
       </c>
       <c r="L602" s="76" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="M602" s="15" t="s">
         <v>2040</v>
@@ -34071,7 +34082,7 @@
       <c r="O602" s="26"/>
       <c r="P602" s="4"/>
     </row>
-    <row r="603" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A603" s="75"/>
       <c r="B603" s="19" t="s">
         <v>701</v>
@@ -34105,14 +34116,14 @@
         <v>2748008</v>
       </c>
       <c r="L603" s="76" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="M603" s="15"/>
       <c r="N603" s="16"/>
       <c r="O603" s="26"/>
       <c r="P603" s="4"/>
     </row>
-    <row r="604" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A604" s="75"/>
       <c r="B604" s="19" t="s">
         <v>701</v>
@@ -34146,14 +34157,14 @@
         <v>54785003</v>
       </c>
       <c r="L604" s="76" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="M604" s="15"/>
       <c r="N604" s="16"/>
       <c r="O604" s="26"/>
       <c r="P604" s="4"/>
     </row>
-    <row r="605" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A605" s="75"/>
       <c r="B605" s="19" t="s">
         <v>701</v>
@@ -34187,14 +34198,14 @@
         <v>60051002</v>
       </c>
       <c r="L605" s="76" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="M605" s="15"/>
       <c r="N605" s="16"/>
       <c r="O605" s="26"/>
       <c r="P605" s="4"/>
     </row>
-    <row r="606" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A606" s="75"/>
       <c r="B606" s="19" t="s">
         <v>701</v>
@@ -34235,7 +34246,7 @@
       <c r="O606" s="26"/>
       <c r="P606" s="4"/>
     </row>
-    <row r="607" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A607" s="75"/>
       <c r="B607" s="19" t="s">
         <v>701</v>
@@ -34269,14 +34280,14 @@
         <v>11478001</v>
       </c>
       <c r="L607" s="76" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="M607" s="15"/>
       <c r="N607" s="16"/>
       <c r="O607" s="26"/>
       <c r="P607" s="4"/>
     </row>
-    <row r="608" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A608" s="75"/>
       <c r="B608" s="19" t="s">
         <v>701</v>
@@ -34310,14 +34321,14 @@
         <v>50800009</v>
       </c>
       <c r="L608" s="76" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="M608" s="15"/>
       <c r="N608" s="16"/>
       <c r="O608" s="26"/>
       <c r="P608" s="4"/>
     </row>
-    <row r="609" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A609" s="75"/>
       <c r="B609" s="19" t="s">
         <v>701</v>
@@ -34349,14 +34360,14 @@
         <v>25270003</v>
       </c>
       <c r="L609" s="76" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="M609" s="15"/>
       <c r="N609" s="16"/>
       <c r="O609" s="26"/>
       <c r="P609" s="4"/>
     </row>
-    <row r="610" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A610" s="75" t="s">
         <v>2006</v>
       </c>
@@ -34390,7 +34401,7 @@
         <v>789564000</v>
       </c>
       <c r="L610" s="76" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="M610" s="15" t="s">
         <v>2039</v>
@@ -34399,7 +34410,7 @@
       <c r="O610" s="26"/>
       <c r="P610" s="4"/>
     </row>
-    <row r="611" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A611" s="75" t="s">
         <v>2006</v>
       </c>
@@ -34433,16 +34444,16 @@
         <v>789564000</v>
       </c>
       <c r="L611" s="76" t="s">
+        <v>2389</v>
+      </c>
+      <c r="M611" s="15" t="s">
         <v>2390</v>
-      </c>
-      <c r="M611" s="15" t="s">
-        <v>2391</v>
       </c>
       <c r="N611" s="16"/>
       <c r="O611" s="26"/>
       <c r="P611" s="4"/>
     </row>
-    <row r="612" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A612" s="75"/>
       <c r="B612" s="19" t="s">
         <v>701</v>
@@ -34476,14 +34487,14 @@
         <v>22718006</v>
       </c>
       <c r="L612" s="76" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="M612" s="15"/>
       <c r="N612" s="16"/>
       <c r="O612" s="26"/>
       <c r="P612" s="4"/>
     </row>
-    <row r="613" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A613" s="75"/>
       <c r="B613" s="19" t="s">
         <v>701</v>
@@ -34515,7 +34526,7 @@
         <v>69695003</v>
       </c>
       <c r="L613" s="76" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M613" s="15"/>
       <c r="N613" s="16"/>
@@ -34553,10 +34564,10 @@
       </c>
       <c r="J614" s="25"/>
       <c r="K614" s="138" t="s">
+        <v>2538</v>
+      </c>
+      <c r="L614" s="76" t="s">
         <v>2539</v>
-      </c>
-      <c r="L614" s="76" t="s">
-        <v>2540</v>
       </c>
       <c r="M614" s="15" t="s">
         <v>2039</v>
@@ -34596,10 +34607,10 @@
       </c>
       <c r="J615" s="25"/>
       <c r="K615" s="138" t="s">
+        <v>2538</v>
+      </c>
+      <c r="L615" s="76" t="s">
         <v>2539</v>
-      </c>
-      <c r="L615" s="76" t="s">
-        <v>2540</v>
       </c>
       <c r="M615" s="15" t="s">
         <v>2040</v>
@@ -34608,7 +34619,7 @@
       <c r="O615" s="26"/>
       <c r="P615" s="4"/>
     </row>
-    <row r="616" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A616" s="75"/>
       <c r="B616" s="27" t="s">
         <v>701</v>
@@ -34638,14 +34649,14 @@
         <v>75415000</v>
       </c>
       <c r="L616" s="76" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="M616" s="15"/>
       <c r="N616" s="16"/>
       <c r="O616" s="26"/>
       <c r="P616" s="4"/>
     </row>
-    <row r="617" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A617" s="75"/>
       <c r="B617" s="27" t="s">
         <v>701</v>
@@ -34671,14 +34682,14 @@
         <v>182323001</v>
       </c>
       <c r="L617" s="76" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="M617" s="15"/>
       <c r="N617" s="37"/>
       <c r="O617" s="26"/>
       <c r="P617" s="4"/>
     </row>
-    <row r="618" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" s="75"/>
       <c r="B618" s="19" t="s">
         <v>701</v>
@@ -34703,17 +34714,17 @@
       <c r="I618" s="88"/>
       <c r="J618" s="20"/>
       <c r="K618" s="138" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="L618" s="76" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M618" s="15"/>
       <c r="N618" s="16"/>
       <c r="O618" s="26"/>
       <c r="P618" s="4"/>
     </row>
-    <row r="619" spans="1:16" s="2" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:16" s="2" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="75"/>
       <c r="B619" s="27" t="s">
         <v>701</v>
@@ -34735,15 +34746,17 @@
       <c r="H619" s="31" t="s">
         <v>1890</v>
       </c>
-      <c r="I619" s="48"/>
+      <c r="I619" s="48" t="s">
+        <v>2551</v>
+      </c>
       <c r="J619" s="21">
         <v>242787</v>
       </c>
       <c r="K619" s="138">
         <v>8997002</v>
       </c>
-      <c r="L619" s="76" t="s">
-        <v>2264</v>
+      <c r="L619" s="164" t="s">
+        <v>2550</v>
       </c>
       <c r="M619" s="15"/>
       <c r="N619" s="16"/>
@@ -34820,7 +34833,7 @@
       <c r="O621" s="26"/>
       <c r="P621" s="4"/>
     </row>
-    <row r="622" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" s="75"/>
       <c r="B622" s="27" t="s">
         <v>701</v>
@@ -34850,14 +34863,14 @@
         <v>13024002</v>
       </c>
       <c r="L622" s="76" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="M622" s="15"/>
       <c r="N622" s="16"/>
       <c r="O622" s="26"/>
       <c r="P622" s="4"/>
     </row>
-    <row r="623" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A623" s="75"/>
       <c r="B623" s="27" t="s">
         <v>701</v>
@@ -34887,14 +34900,14 @@
         <v>70567001</v>
       </c>
       <c r="L623" s="76" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="M623" s="15"/>
       <c r="N623" s="16"/>
       <c r="O623" s="26"/>
       <c r="P623" s="4"/>
     </row>
-    <row r="624" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A624" s="75"/>
       <c r="B624" s="19" t="s">
         <v>701</v>
@@ -34928,7 +34941,7 @@
         <v>40689003</v>
       </c>
       <c r="L624" s="76" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="M624" s="15" t="s">
         <v>2201</v>
@@ -35007,7 +35020,7 @@
       <c r="O626" s="26"/>
       <c r="P626" s="4"/>
     </row>
-    <row r="627" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:16" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A627" s="75"/>
       <c r="B627" s="19" t="s">
         <v>701</v>
@@ -35039,18 +35052,18 @@
         <v>37554007</v>
       </c>
       <c r="L627" s="112" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="M627" s="15"/>
       <c r="N627" s="37" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="O627" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P627" s="4"/>
     </row>
-    <row r="628" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A628" s="75"/>
       <c r="B628" s="19" t="s">
         <v>701</v>
@@ -35084,14 +35097,14 @@
         <v>1732005</v>
       </c>
       <c r="L628" s="76" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="M628" s="15"/>
       <c r="N628" s="16"/>
       <c r="O628" s="26"/>
       <c r="P628" s="4"/>
     </row>
-    <row r="629" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A629" s="75"/>
       <c r="B629" s="19" t="s">
         <v>701</v>
@@ -35132,7 +35145,7 @@
       <c r="O629" s="26"/>
       <c r="P629" s="4"/>
     </row>
-    <row r="630" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A630" s="75"/>
       <c r="B630" s="19" t="s">
         <v>701</v>
@@ -35173,7 +35186,7 @@
       <c r="O630" s="26"/>
       <c r="P630" s="4"/>
     </row>
-    <row r="631" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A631" s="75"/>
       <c r="B631" s="19" t="s">
         <v>701</v>
@@ -35207,14 +35220,14 @@
         <v>21974007</v>
       </c>
       <c r="L631" s="76" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="M631" s="15"/>
       <c r="N631" s="16"/>
       <c r="O631" s="26"/>
       <c r="P631" s="4"/>
     </row>
-    <row r="632" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A632" s="75"/>
       <c r="B632" s="27" t="s">
         <v>701</v>
@@ -35244,16 +35257,16 @@
         <v>181226008</v>
       </c>
       <c r="L632" s="76" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="M632" s="15"/>
       <c r="N632" s="16"/>
       <c r="O632" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P632" s="4"/>
     </row>
-    <row r="633" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A633" s="75" t="s">
         <v>2006</v>
       </c>
@@ -35289,14 +35302,14 @@
         <v>22718006</v>
       </c>
       <c r="L633" s="76" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="M633" s="15"/>
       <c r="N633" s="16"/>
       <c r="O633" s="26"/>
       <c r="P633" s="4"/>
     </row>
-    <row r="634" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A634" s="75" t="s">
         <v>2006</v>
       </c>
@@ -35332,14 +35345,14 @@
         <v>22718006</v>
       </c>
       <c r="L634" s="76" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="M634" s="15"/>
       <c r="N634" s="16"/>
       <c r="O634" s="26"/>
       <c r="P634" s="4"/>
     </row>
-    <row r="635" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A635" s="75"/>
       <c r="B635" s="27" t="s">
         <v>701</v>
@@ -35371,7 +35384,7 @@
         <v>47975008</v>
       </c>
       <c r="L635" s="76" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="M635" s="15"/>
       <c r="N635" s="16"/>
@@ -35411,7 +35424,7 @@
       <c r="O636" s="26"/>
       <c r="P636" s="4"/>
     </row>
-    <row r="637" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A637" s="75"/>
       <c r="B637" s="27" t="s">
         <v>701</v>
@@ -35443,16 +35456,16 @@
         <v>21974007</v>
       </c>
       <c r="L637" s="76" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="M637" s="15" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="N637" s="37"/>
       <c r="O637" s="26"/>
       <c r="P637" s="4"/>
     </row>
-    <row r="638" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A638" s="75"/>
       <c r="B638" s="27" t="s">
         <v>701</v>
@@ -35484,16 +35497,16 @@
         <v>21974007</v>
       </c>
       <c r="L638" s="76" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="M638" s="15" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="N638" s="37"/>
       <c r="O638" s="26"/>
       <c r="P638" s="4"/>
     </row>
-    <row r="639" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A639" s="75"/>
       <c r="B639" s="19" t="s">
         <v>701</v>
@@ -35527,14 +35540,14 @@
         <v>44567001</v>
       </c>
       <c r="L639" s="76" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="M639" s="15"/>
       <c r="N639" s="16"/>
       <c r="O639" s="26"/>
       <c r="P639" s="4"/>
     </row>
-    <row r="640" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A640" s="75"/>
       <c r="B640" s="19" t="s">
         <v>701</v>
@@ -35566,7 +35579,7 @@
         <v>44567001</v>
       </c>
       <c r="L640" s="76" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="M640" s="15" t="s">
         <v>2188</v>
@@ -35575,7 +35588,7 @@
       <c r="O640" s="26"/>
       <c r="P640" s="4"/>
     </row>
-    <row r="641" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A641" s="75"/>
       <c r="B641" s="19" t="s">
         <v>701</v>
@@ -35606,18 +35619,18 @@
         <v>245860003</v>
       </c>
       <c r="L641" s="112" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="M641" s="15"/>
       <c r="N641" s="16" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="O641" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P641" s="4"/>
     </row>
-    <row r="642" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A642" s="75"/>
       <c r="B642" s="19" t="s">
         <v>701</v>
@@ -35650,7 +35663,7 @@
         <v>87953007</v>
       </c>
       <c r="L642" s="76" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="M642" s="15" t="s">
         <v>2201</v>
@@ -35659,7 +35672,7 @@
       <c r="O642" s="26"/>
       <c r="P642" s="4"/>
     </row>
-    <row r="643" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A643" s="75"/>
       <c r="B643" s="19" t="s">
         <v>701</v>
@@ -35693,14 +35706,14 @@
         <v>13648007</v>
       </c>
       <c r="L643" s="76" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="M643" s="15"/>
       <c r="N643" s="16"/>
       <c r="O643" s="26"/>
       <c r="P643" s="4"/>
     </row>
-    <row r="644" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A644" s="75"/>
       <c r="B644" s="19" t="s">
         <v>701</v>
@@ -35732,14 +35745,14 @@
         <v>71553001</v>
       </c>
       <c r="L644" s="76" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="M644" s="15"/>
       <c r="N644" s="16"/>
       <c r="O644" s="26"/>
       <c r="P644" s="4"/>
     </row>
-    <row r="645" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A645" s="75" t="s">
         <v>2006</v>
       </c>
@@ -35775,7 +35788,7 @@
         <v>40689003</v>
       </c>
       <c r="L645" s="76" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="M645" s="15" t="s">
         <v>2039</v>
@@ -35784,7 +35797,7 @@
       <c r="O645" s="26"/>
       <c r="P645" s="4"/>
     </row>
-    <row r="646" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A646" s="75" t="s">
         <v>2006</v>
       </c>
@@ -35820,7 +35833,7 @@
         <v>40689003</v>
       </c>
       <c r="L646" s="76" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="M646" s="15" t="s">
         <v>2040</v>
@@ -35829,7 +35842,7 @@
       <c r="O646" s="26"/>
       <c r="P646" s="4"/>
     </row>
-    <row r="647" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A647" s="75"/>
       <c r="B647" s="19" t="s">
         <v>701</v>
@@ -35863,14 +35876,14 @@
         <v>35039007</v>
       </c>
       <c r="L647" s="76" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="M647" s="15"/>
       <c r="N647" s="16"/>
       <c r="O647" s="26"/>
       <c r="P647" s="4"/>
     </row>
-    <row r="648" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A648" s="75"/>
       <c r="B648" s="19" t="s">
         <v>701</v>
@@ -35904,14 +35917,14 @@
         <v>72107004</v>
       </c>
       <c r="L648" s="76" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="M648" s="15"/>
       <c r="N648" s="16"/>
       <c r="O648" s="26"/>
       <c r="P648" s="4"/>
     </row>
-    <row r="649" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A649" s="75"/>
       <c r="B649" s="19" t="s">
         <v>701</v>
@@ -35945,7 +35958,7 @@
         <v>8887007</v>
       </c>
       <c r="L649" s="76" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="M649" s="15" t="s">
         <v>2039</v>
@@ -35954,7 +35967,7 @@
       <c r="O649" s="26"/>
       <c r="P649" s="4"/>
     </row>
-    <row r="650" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A650" s="75"/>
       <c r="B650" s="19" t="s">
         <v>701</v>
@@ -35988,7 +36001,7 @@
         <v>8887007</v>
       </c>
       <c r="L650" s="76" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="M650" s="15" t="s">
         <v>2040</v>
@@ -35997,7 +36010,7 @@
       <c r="O650" s="26"/>
       <c r="P650" s="4"/>
     </row>
-    <row r="651" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A651" s="75"/>
       <c r="B651" s="19" t="s">
         <v>701</v>
@@ -36031,7 +36044,7 @@
         <v>63507001</v>
       </c>
       <c r="L651" s="76" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="M651" s="15" t="s">
         <v>2039</v>
@@ -36040,7 +36053,7 @@
       <c r="O651" s="26"/>
       <c r="P651" s="4"/>
     </row>
-    <row r="652" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A652" s="75" t="s">
         <v>2006</v>
       </c>
@@ -36072,7 +36085,7 @@
         <v>47975008</v>
       </c>
       <c r="L652" s="76" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="M652" s="15" t="s">
         <v>2039</v>
@@ -36081,7 +36094,7 @@
       <c r="O652" s="26"/>
       <c r="P652" s="4"/>
     </row>
-    <row r="653" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A653" s="75" t="s">
         <v>2006</v>
       </c>
@@ -36113,7 +36126,7 @@
         <v>47975008</v>
       </c>
       <c r="L653" s="76" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="M653" s="15" t="s">
         <v>2040</v>
@@ -36122,7 +36135,7 @@
       <c r="O653" s="26"/>
       <c r="P653" s="4"/>
     </row>
-    <row r="654" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A654" s="75"/>
       <c r="B654" s="19" t="s">
         <v>701</v>
@@ -36156,7 +36169,7 @@
         <v>63507001</v>
       </c>
       <c r="L654" s="76" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="M654" s="15" t="s">
         <v>2040</v>
@@ -36165,7 +36178,7 @@
       <c r="O654" s="26"/>
       <c r="P654" s="4"/>
     </row>
-    <row r="655" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A655" s="75"/>
       <c r="B655" s="19" t="s">
         <v>701</v>
@@ -36199,7 +36212,7 @@
         <v>40300007</v>
       </c>
       <c r="L655" s="76" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="M655" s="15" t="s">
         <v>2039</v>
@@ -36208,7 +36221,7 @@
       <c r="O655" s="26"/>
       <c r="P655" s="4"/>
     </row>
-    <row r="656" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A656" s="75" t="s">
         <v>2006</v>
       </c>
@@ -36242,16 +36255,16 @@
         <v>21974007</v>
       </c>
       <c r="L656" s="76" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="M656" s="15" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="N656" s="37"/>
       <c r="O656" s="26"/>
       <c r="P656" s="4"/>
     </row>
-    <row r="657" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A657" s="75" t="s">
         <v>2006</v>
       </c>
@@ -36285,14 +36298,14 @@
         <v>75573002</v>
       </c>
       <c r="L657" s="76" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="M657" s="15"/>
       <c r="N657" s="16"/>
       <c r="O657" s="26"/>
       <c r="P657" s="4"/>
     </row>
-    <row r="658" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A658" s="75"/>
       <c r="B658" s="19" t="s">
         <v>701</v>
@@ -36326,7 +36339,7 @@
         <v>40300007</v>
       </c>
       <c r="L658" s="76" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="M658" s="15" t="s">
         <v>2040</v>
@@ -36335,7 +36348,7 @@
       <c r="O658" s="26"/>
       <c r="P658" s="4"/>
     </row>
-    <row r="659" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A659" s="75"/>
       <c r="B659" s="19" t="s">
         <v>701</v>
@@ -36369,7 +36382,7 @@
         <v>46027005</v>
       </c>
       <c r="L659" s="76" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="M659" s="15" t="s">
         <v>2040</v>
@@ -36408,14 +36421,14 @@
         <v>1162492000</v>
       </c>
       <c r="L660" s="76" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="M660" s="15"/>
       <c r="N660" s="16"/>
       <c r="O660" s="26"/>
       <c r="P660" s="4"/>
     </row>
-    <row r="661" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A661" s="75" t="s">
         <v>2006</v>
       </c>
@@ -36451,7 +36464,7 @@
         <v>87953007</v>
       </c>
       <c r="L661" s="76" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="M661" s="15" t="s">
         <v>2039</v>
@@ -36460,7 +36473,7 @@
       <c r="O661" s="26"/>
       <c r="P661" s="4"/>
     </row>
-    <row r="662" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A662" s="75" t="s">
         <v>2006</v>
       </c>
@@ -36496,7 +36509,7 @@
         <v>87953007</v>
       </c>
       <c r="L662" s="76" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="M662" s="15" t="s">
         <v>2040</v>
@@ -36505,7 +36518,7 @@
       <c r="O662" s="26"/>
       <c r="P662" s="4"/>
     </row>
-    <row r="663" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A663" s="75"/>
       <c r="B663" s="19" t="s">
         <v>701</v>
@@ -36539,7 +36552,7 @@
         <v>46027005</v>
       </c>
       <c r="L663" s="76" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="M663" s="15" t="s">
         <v>2039</v>
@@ -36548,7 +36561,7 @@
       <c r="O663" s="26"/>
       <c r="P663" s="4"/>
     </row>
-    <row r="664" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A664" s="75"/>
       <c r="B664" s="19" t="s">
         <v>701</v>
@@ -36573,7 +36586,7 @@
         <v>1517</v>
       </c>
       <c r="I664" s="24" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="J664" s="25">
         <v>13112</v>
@@ -36582,7 +36595,7 @@
         <v>71585003</v>
       </c>
       <c r="L664" s="75" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="M664" s="15" t="s">
         <v>2039</v>
@@ -36591,7 +36604,7 @@
       <c r="O664" s="26"/>
       <c r="P664" s="4"/>
     </row>
-    <row r="665" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A665" s="75"/>
       <c r="B665" s="19" t="s">
         <v>701</v>
@@ -36616,7 +36629,7 @@
         <v>1519</v>
       </c>
       <c r="I665" s="24" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="J665" s="25">
         <v>13111</v>
@@ -36625,7 +36638,7 @@
         <v>71585003</v>
       </c>
       <c r="L665" s="75" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="M665" s="15" t="s">
         <v>2040</v>
@@ -36634,7 +36647,7 @@
       <c r="O665" s="26"/>
       <c r="P665" s="4"/>
     </row>
-    <row r="666" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A666" s="75"/>
       <c r="B666" s="19" t="s">
         <v>701</v>
@@ -36668,7 +36681,7 @@
         <v>12123001</v>
       </c>
       <c r="L666" s="76" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="M666" s="15" t="s">
         <v>2039</v>
@@ -36677,7 +36690,7 @@
       <c r="O666" s="26"/>
       <c r="P666" s="4"/>
     </row>
-    <row r="667" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A667" s="75"/>
       <c r="B667" s="19" t="s">
         <v>701</v>
@@ -36711,7 +36724,7 @@
         <v>12123001</v>
       </c>
       <c r="L667" s="76" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="M667" s="15" t="s">
         <v>2040</v>
@@ -36720,7 +36733,7 @@
       <c r="O667" s="26"/>
       <c r="P667" s="4"/>
     </row>
-    <row r="668" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A668" s="75"/>
       <c r="B668" s="19" t="s">
         <v>701</v>
@@ -36754,14 +36767,14 @@
         <v>32764006</v>
       </c>
       <c r="L668" s="76" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="M668" s="15"/>
       <c r="N668" s="16"/>
       <c r="O668" s="26"/>
       <c r="P668" s="4"/>
     </row>
-    <row r="669" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A669" s="75"/>
       <c r="B669" s="19" t="s">
         <v>701</v>
@@ -36795,14 +36808,14 @@
         <v>430757002</v>
       </c>
       <c r="L669" s="76" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="M669" s="15"/>
       <c r="N669" s="16"/>
       <c r="O669" s="26"/>
       <c r="P669" s="4"/>
     </row>
-    <row r="670" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A670" s="75"/>
       <c r="B670" s="19" t="s">
         <v>701</v>
@@ -36836,14 +36849,14 @@
         <v>9454009</v>
       </c>
       <c r="L670" s="76" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="M670" s="15"/>
       <c r="N670" s="16"/>
       <c r="O670" s="26"/>
       <c r="P670" s="4"/>
     </row>
-    <row r="671" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A671" s="75"/>
       <c r="B671" s="19" t="s">
         <v>701</v>
@@ -36877,7 +36890,7 @@
         <v>35532006</v>
       </c>
       <c r="L671" s="76" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="M671" s="15" t="s">
         <v>2086</v>
@@ -36886,7 +36899,7 @@
       <c r="O671" s="26"/>
       <c r="P671" s="4"/>
     </row>
-    <row r="672" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A672" s="75"/>
       <c r="B672" s="19" t="s">
         <v>701</v>
@@ -36920,7 +36933,7 @@
         <v>35532006</v>
       </c>
       <c r="L672" s="76" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="M672" s="15" t="s">
         <v>2087</v>
@@ -36929,7 +36942,7 @@
       <c r="O672" s="26"/>
       <c r="P672" s="4"/>
     </row>
-    <row r="673" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A673" s="75"/>
       <c r="B673" s="19" t="s">
         <v>701</v>
@@ -36963,14 +36976,14 @@
         <v>76784001</v>
       </c>
       <c r="L673" s="76" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="M673" s="15"/>
       <c r="N673" s="16"/>
       <c r="O673" s="26"/>
       <c r="P673" s="4"/>
     </row>
-    <row r="674" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A674" s="75"/>
       <c r="B674" s="19" t="s">
         <v>701</v>
@@ -37000,14 +37013,14 @@
         <v>279894000</v>
       </c>
       <c r="L674" s="76" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="M674" s="15"/>
       <c r="N674" s="37"/>
       <c r="O674" s="26"/>
       <c r="P674" s="4"/>
     </row>
-    <row r="675" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A675" s="75"/>
       <c r="B675" s="19" t="s">
         <v>701</v>
@@ -37039,14 +37052,14 @@
         <v>438074005</v>
       </c>
       <c r="L675" s="76" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="M675" s="15"/>
       <c r="N675" s="37"/>
       <c r="O675" s="26"/>
       <c r="P675" s="4"/>
     </row>
-    <row r="676" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A676" s="75"/>
       <c r="B676" s="27" t="s">
         <v>701</v>
@@ -37076,18 +37089,18 @@
         <v>17401000</v>
       </c>
       <c r="L676" s="112" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="M676" s="15"/>
       <c r="N676" s="16" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="O676" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P676" s="4"/>
     </row>
-    <row r="677" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A677" s="75"/>
       <c r="B677" s="19" t="s">
         <v>701</v>
@@ -37126,7 +37139,7 @@
       <c r="O677" s="26"/>
       <c r="P677" s="4"/>
     </row>
-    <row r="678" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A678" s="75"/>
       <c r="B678" s="27" t="s">
         <v>701</v>
@@ -37160,14 +37173,14 @@
         <v>91134007</v>
       </c>
       <c r="L678" s="76" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="M678" s="15"/>
       <c r="N678" s="16"/>
       <c r="O678" s="26"/>
       <c r="P678" s="4"/>
     </row>
-    <row r="679" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A679" s="75"/>
       <c r="B679" s="27" t="s">
         <v>701</v>
@@ -37199,14 +37212,14 @@
         <v>39057004</v>
       </c>
       <c r="L679" s="76" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="M679" s="15"/>
       <c r="N679" s="16"/>
       <c r="O679" s="26"/>
       <c r="P679" s="4"/>
     </row>
-    <row r="680" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A680" s="75"/>
       <c r="B680" s="27" t="s">
         <v>701</v>
@@ -37240,14 +37253,14 @@
         <v>46030003</v>
       </c>
       <c r="L680" s="76" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="M680" s="15"/>
       <c r="N680" s="16"/>
       <c r="O680" s="26"/>
       <c r="P680" s="4"/>
     </row>
-    <row r="681" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A681" s="75"/>
       <c r="B681" s="19" t="s">
         <v>701</v>
@@ -37281,14 +37294,14 @@
         <v>21814001</v>
       </c>
       <c r="L681" s="76" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="M681" s="15"/>
       <c r="N681" s="16"/>
       <c r="O681" s="26"/>
       <c r="P681" s="4"/>
     </row>
-    <row r="682" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A682" s="75"/>
       <c r="B682" s="19" t="s">
         <v>701</v>
@@ -37322,7 +37335,7 @@
         <v>21814001</v>
       </c>
       <c r="L682" s="76" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="M682" s="15" t="s">
         <v>2039</v>
@@ -37331,7 +37344,7 @@
       <c r="O682" s="26"/>
       <c r="P682" s="4"/>
     </row>
-    <row r="683" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A683" s="75"/>
       <c r="B683" s="19" t="s">
         <v>701</v>
@@ -37365,7 +37378,7 @@
         <v>21814001</v>
       </c>
       <c r="L683" s="76" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="M683" s="15" t="s">
         <v>2040</v>
@@ -37374,7 +37387,7 @@
       <c r="O683" s="26"/>
       <c r="P683" s="4"/>
     </row>
-    <row r="684" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A684" s="75" t="s">
         <v>2006</v>
       </c>
@@ -37410,7 +37423,7 @@
         <v>9454009</v>
       </c>
       <c r="L684" s="76" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="M684" s="15" t="s">
         <v>2039</v>
@@ -37419,7 +37432,7 @@
       <c r="O684" s="26"/>
       <c r="P684" s="4"/>
     </row>
-    <row r="685" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A685" s="75" t="s">
         <v>2006</v>
       </c>
@@ -37455,7 +37468,7 @@
         <v>9454009</v>
       </c>
       <c r="L685" s="76" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="M685" s="15" t="s">
         <v>2040</v>
@@ -37464,7 +37477,7 @@
       <c r="O685" s="26"/>
       <c r="P685" s="4"/>
     </row>
-    <row r="686" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A686" s="75"/>
       <c r="B686" s="19" t="s">
         <v>701</v>
@@ -37496,7 +37509,7 @@
         <v>46105003</v>
       </c>
       <c r="L686" s="76" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="M686" s="15" t="s">
         <v>2125</v>
@@ -37505,7 +37518,7 @@
       <c r="O686" s="26"/>
       <c r="P686" s="4"/>
     </row>
-    <row r="687" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A687" s="75"/>
       <c r="B687" s="19" t="s">
         <v>701</v>
@@ -37539,14 +37552,14 @@
         <v>45292006</v>
       </c>
       <c r="L687" s="76" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="M687" s="15"/>
       <c r="N687" s="16"/>
       <c r="O687" s="26"/>
       <c r="P687" s="4"/>
     </row>
-    <row r="688" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A688" s="75"/>
       <c r="B688" s="27" t="s">
         <v>701</v>
@@ -37580,14 +37593,14 @@
         <v>263355003</v>
       </c>
       <c r="L688" s="76" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="M688" s="15"/>
       <c r="N688" s="16"/>
       <c r="O688" s="26"/>
       <c r="P688" s="4"/>
     </row>
-    <row r="689" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:16" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A689" s="75"/>
       <c r="B689" s="19" t="s">
         <v>701</v>
@@ -37619,14 +37632,14 @@
       <c r="L689" s="112"/>
       <c r="M689" s="15"/>
       <c r="N689" s="16" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="O689" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P689" s="4"/>
     </row>
-    <row r="690" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A690" s="75"/>
       <c r="B690" s="19" t="s">
         <v>701</v>
@@ -37658,16 +37671,16 @@
         <v>14016003</v>
       </c>
       <c r="L690" s="76" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="M690" s="15" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="N690" s="37"/>
       <c r="O690" s="26"/>
       <c r="P690" s="4"/>
     </row>
-    <row r="691" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A691" s="75"/>
       <c r="B691" s="19" t="s">
         <v>701</v>
@@ -37701,14 +37714,14 @@
         <v>52940008</v>
       </c>
       <c r="L691" s="126" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="M691" s="15"/>
       <c r="N691" s="16"/>
       <c r="O691" s="26"/>
       <c r="P691" s="4"/>
     </row>
-    <row r="692" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A692" s="75"/>
       <c r="B692" s="27" t="s">
         <v>701</v>
@@ -37738,18 +37751,18 @@
         <v>15328005</v>
       </c>
       <c r="L692" s="112" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="M692" s="15"/>
       <c r="N692" s="16" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="O692" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P692" s="4"/>
     </row>
-    <row r="693" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A693" s="75"/>
       <c r="B693" s="27" t="s">
         <v>701</v>
@@ -37790,7 +37803,7 @@
       <c r="O693" s="26"/>
       <c r="P693" s="4"/>
     </row>
-    <row r="694" spans="1:16" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:16" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A694" s="75"/>
       <c r="B694" s="19" t="s">
         <v>701</v>
@@ -37824,14 +37837,14 @@
         <v>1172006</v>
       </c>
       <c r="L694" s="76" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="M694" s="15"/>
       <c r="N694" s="37"/>
       <c r="O694" s="26"/>
       <c r="P694" s="4"/>
     </row>
-    <row r="695" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A695" s="75"/>
       <c r="B695" s="27" t="s">
         <v>701</v>
@@ -37861,14 +37874,14 @@
         <v>79654002</v>
       </c>
       <c r="L695" s="76" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="M695" s="15"/>
       <c r="N695" s="37"/>
       <c r="O695" s="26"/>
       <c r="P695" s="4"/>
     </row>
-    <row r="696" spans="1:16" s="2" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:16" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A696" s="75"/>
       <c r="B696" s="19" t="s">
         <v>701</v>
@@ -37898,7 +37911,7 @@
         <v>123037004</v>
       </c>
       <c r="L696" s="76" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="M696" s="12" t="s">
         <v>2192</v>
@@ -37907,7 +37920,7 @@
       <c r="O696" s="26"/>
       <c r="P696" s="4"/>
     </row>
-    <row r="697" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A697" s="75"/>
       <c r="B697" s="19" t="s">
         <v>701</v>
@@ -37946,7 +37959,7 @@
       <c r="O697" s="26"/>
       <c r="P697" s="4"/>
     </row>
-    <row r="698" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A698" s="75"/>
       <c r="B698" s="19" t="s">
         <v>701</v>
@@ -37987,7 +38000,7 @@
       <c r="O698" s="26"/>
       <c r="P698" s="4"/>
     </row>
-    <row r="699" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A699" s="75"/>
       <c r="B699" s="19" t="s">
         <v>701</v>
@@ -38028,7 +38041,7 @@
       <c r="O699" s="26"/>
       <c r="P699" s="4"/>
     </row>
-    <row r="700" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A700" s="75"/>
       <c r="B700" s="19" t="s">
         <v>701</v>
@@ -38069,7 +38082,7 @@
       <c r="O700" s="26"/>
       <c r="P700" s="4"/>
     </row>
-    <row r="701" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A701" s="75"/>
       <c r="B701" s="19" t="s">
         <v>701</v>
@@ -38110,7 +38123,7 @@
       <c r="O701" s="26"/>
       <c r="P701" s="4"/>
     </row>
-    <row r="702" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A702" s="75"/>
       <c r="B702" s="19" t="s">
         <v>701</v>
@@ -38151,7 +38164,7 @@
       <c r="O702" s="26"/>
       <c r="P702" s="4"/>
     </row>
-    <row r="703" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A703" s="75"/>
       <c r="B703" s="19" t="s">
         <v>701</v>
@@ -38192,7 +38205,7 @@
       <c r="O703" s="26"/>
       <c r="P703" s="4"/>
     </row>
-    <row r="704" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A704" s="75"/>
       <c r="B704" s="19" t="s">
         <v>701</v>
@@ -38233,7 +38246,7 @@
       <c r="O704" s="26"/>
       <c r="P704" s="4"/>
     </row>
-    <row r="705" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A705" s="75"/>
       <c r="B705" s="19" t="s">
         <v>701</v>
@@ -38274,7 +38287,7 @@
       <c r="O705" s="26"/>
       <c r="P705" s="4"/>
     </row>
-    <row r="706" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A706" s="75"/>
       <c r="B706" s="19" t="s">
         <v>701</v>
@@ -38315,7 +38328,7 @@
       <c r="O706" s="26"/>
       <c r="P706" s="4"/>
     </row>
-    <row r="707" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A707" s="75"/>
       <c r="B707" s="19" t="s">
         <v>701</v>
@@ -38356,7 +38369,7 @@
       <c r="O707" s="26"/>
       <c r="P707" s="4"/>
     </row>
-    <row r="708" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A708" s="75"/>
       <c r="B708" s="19" t="s">
         <v>701</v>
@@ -38397,7 +38410,7 @@
       <c r="O708" s="26"/>
       <c r="P708" s="4"/>
     </row>
-    <row r="709" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A709" s="75"/>
       <c r="B709" s="19" t="s">
         <v>701</v>
@@ -38438,7 +38451,7 @@
       <c r="O709" s="26"/>
       <c r="P709" s="4"/>
     </row>
-    <row r="710" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A710" s="75"/>
       <c r="B710" s="19" t="s">
         <v>701</v>
@@ -38479,7 +38492,7 @@
       <c r="O710" s="26"/>
       <c r="P710" s="4"/>
     </row>
-    <row r="711" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A711" s="75"/>
       <c r="B711" s="19" t="s">
         <v>701</v>
@@ -38520,7 +38533,7 @@
       <c r="O711" s="26"/>
       <c r="P711" s="4"/>
     </row>
-    <row r="712" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A712" s="75"/>
       <c r="B712" s="19" t="s">
         <v>701</v>
@@ -38561,7 +38574,7 @@
       <c r="O712" s="26"/>
       <c r="P712" s="4"/>
     </row>
-    <row r="713" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A713" s="75"/>
       <c r="B713" s="19" t="s">
         <v>701</v>
@@ -38602,7 +38615,7 @@
       <c r="O713" s="26"/>
       <c r="P713" s="4"/>
     </row>
-    <row r="714" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A714" s="75"/>
       <c r="B714" s="19" t="s">
         <v>701</v>
@@ -38643,7 +38656,7 @@
       <c r="O714" s="26"/>
       <c r="P714" s="4"/>
     </row>
-    <row r="715" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A715" s="75"/>
       <c r="B715" s="19" t="s">
         <v>701</v>
@@ -38684,7 +38697,7 @@
       <c r="O715" s="26"/>
       <c r="P715" s="4"/>
     </row>
-    <row r="716" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A716" s="75"/>
       <c r="B716" s="19" t="s">
         <v>701</v>
@@ -38725,7 +38738,7 @@
       <c r="O716" s="26"/>
       <c r="P716" s="4"/>
     </row>
-    <row r="717" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A717" s="75"/>
       <c r="B717" s="19" t="s">
         <v>701</v>
@@ -38766,7 +38779,7 @@
       <c r="O717" s="26"/>
       <c r="P717" s="4"/>
     </row>
-    <row r="718" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A718" s="75"/>
       <c r="B718" s="19" t="s">
         <v>701</v>
@@ -38807,7 +38820,7 @@
       <c r="O718" s="26"/>
       <c r="P718" s="4"/>
     </row>
-    <row r="719" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A719" s="75"/>
       <c r="B719" s="19" t="s">
         <v>701</v>
@@ -38848,7 +38861,7 @@
       <c r="O719" s="26"/>
       <c r="P719" s="4"/>
     </row>
-    <row r="720" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A720" s="75"/>
       <c r="B720" s="19" t="s">
         <v>701</v>
@@ -38889,7 +38902,7 @@
       <c r="O720" s="26"/>
       <c r="P720" s="4"/>
     </row>
-    <row r="721" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A721" s="75"/>
       <c r="B721" s="19" t="s">
         <v>701</v>
@@ -38930,7 +38943,7 @@
       <c r="O721" s="26"/>
       <c r="P721" s="4"/>
     </row>
-    <row r="722" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A722" s="75"/>
       <c r="B722" s="19" t="s">
         <v>701</v>
@@ -38971,7 +38984,7 @@
       <c r="O722" s="26"/>
       <c r="P722" s="4"/>
     </row>
-    <row r="723" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A723" s="75"/>
       <c r="B723" s="19" t="s">
         <v>701</v>
@@ -39012,7 +39025,7 @@
       <c r="O723" s="26"/>
       <c r="P723" s="4"/>
     </row>
-    <row r="724" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A724" s="75"/>
       <c r="B724" s="19" t="s">
         <v>701</v>
@@ -39053,7 +39066,7 @@
       <c r="O724" s="26"/>
       <c r="P724" s="4"/>
     </row>
-    <row r="725" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A725" s="75"/>
       <c r="B725" s="19" t="s">
         <v>701</v>
@@ -39094,7 +39107,7 @@
       <c r="O725" s="26"/>
       <c r="P725" s="4"/>
     </row>
-    <row r="726" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A726" s="75"/>
       <c r="B726" s="19" t="s">
         <v>701</v>
@@ -39135,7 +39148,7 @@
       <c r="O726" s="26"/>
       <c r="P726" s="4"/>
     </row>
-    <row r="727" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A727" s="75"/>
       <c r="B727" s="19" t="s">
         <v>701</v>
@@ -39176,7 +39189,7 @@
       <c r="O727" s="26"/>
       <c r="P727" s="4"/>
     </row>
-    <row r="728" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A728" s="75"/>
       <c r="B728" s="19" t="s">
         <v>701</v>
@@ -39217,7 +39230,7 @@
       <c r="O728" s="26"/>
       <c r="P728" s="4"/>
     </row>
-    <row r="729" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A729" s="75"/>
       <c r="B729" s="19" t="s">
         <v>701</v>
@@ -39258,7 +39271,7 @@
       <c r="O729" s="26"/>
       <c r="P729" s="4"/>
     </row>
-    <row r="730" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A730" s="75"/>
       <c r="B730" s="19" t="s">
         <v>701</v>
@@ -39330,7 +39343,7 @@
         <v>2028</v>
       </c>
       <c r="K731" s="138" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="L731" s="76" t="s">
         <v>2183</v>
@@ -39340,7 +39353,7 @@
       <c r="O731" s="26"/>
       <c r="P731" s="4"/>
     </row>
-    <row r="732" spans="1:16" s="2" customFormat="1" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:16" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A732" s="75"/>
       <c r="B732" s="27" t="s">
         <v>701</v>
@@ -39380,10 +39393,10 @@
         <v>2184</v>
       </c>
       <c r="N732" s="16" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="O732" s="35" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="P732" s="4"/>
     </row>
@@ -39418,17 +39431,17 @@
         <v>56429</v>
       </c>
       <c r="K733" s="138" t="s">
+        <v>2530</v>
+      </c>
+      <c r="L733" s="76" t="s">
         <v>2531</v>
-      </c>
-      <c r="L733" s="76" t="s">
-        <v>2532</v>
       </c>
       <c r="M733" s="15"/>
       <c r="N733" s="16"/>
       <c r="O733" s="16"/>
       <c r="P733" s="4"/>
     </row>
-    <row r="734" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A734" s="75"/>
       <c r="B734" s="27" t="s">
         <v>701</v>
@@ -39462,14 +39475,14 @@
         <v>35763008</v>
       </c>
       <c r="L734" s="15" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="M734" s="15"/>
       <c r="N734" s="37"/>
       <c r="O734" s="91"/>
       <c r="P734" s="4"/>
     </row>
-    <row r="735" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A735" s="75" t="s">
         <v>2006</v>
       </c>
@@ -39501,7 +39514,7 @@
         <v>46105003</v>
       </c>
       <c r="L735" s="76" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="M735" s="15" t="s">
         <v>2039</v>
@@ -39510,7 +39523,7 @@
       <c r="O735" s="26"/>
       <c r="P735" s="4"/>
     </row>
-    <row r="736" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A736" s="75" t="s">
         <v>2006</v>
       </c>
@@ -39542,7 +39555,7 @@
         <v>46105003</v>
       </c>
       <c r="L736" s="76" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="M736" s="15" t="s">
         <v>2040</v>
@@ -39580,17 +39593,17 @@
         <v>2028</v>
       </c>
       <c r="K737" s="158" t="s">
+        <v>2523</v>
+      </c>
+      <c r="L737" s="127" t="s">
         <v>2524</v>
-      </c>
-      <c r="L737" s="127" t="s">
-        <v>2525</v>
       </c>
       <c r="M737" s="128"/>
       <c r="N737" s="16"/>
       <c r="O737" s="50"/>
       <c r="P737" s="5"/>
     </row>
-    <row r="738" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A738" s="75"/>
       <c r="B738" s="96" t="s">
         <v>701</v>
@@ -39631,7 +39644,7 @@
       <c r="O738" s="98"/>
       <c r="P738" s="1"/>
     </row>
-    <row r="739" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A739" s="75"/>
       <c r="B739" s="96" t="s">
         <v>701</v>
@@ -39665,14 +39678,14 @@
         <v>24999009</v>
       </c>
       <c r="L739" s="106" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="M739" s="97"/>
       <c r="N739" s="37"/>
       <c r="O739" s="91"/>
       <c r="P739" s="1"/>
     </row>
-    <row r="740" spans="1:16" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A740" s="75"/>
       <c r="B740" s="39" t="s">
         <v>701</v>
@@ -39702,7 +39715,7 @@
         <v>123037004</v>
       </c>
       <c r="L740" s="106" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="M740" s="97"/>
       <c r="N740" s="37"/>
@@ -43731,17 +43744,6 @@
         <filter val="Surgical"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="USCRS-33146"/>
-        <filter val="USCRS-33147"/>
-        <filter val="USCRS-33346"/>
-        <filter val="USCRS-33348"/>
-        <filter val="USCRS-33350"/>
-        <filter val="USCRS-33351"/>
-        <filter val="USCRS-33352"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A59:P740">
       <sortCondition sortBy="cellColor" ref="K1:K740" dxfId="0"/>
     </sortState>

--- a/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
+++ b/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/fhir-mCODE-ig/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C302ACCF-AE2D-FD4A-8843-0825934F3C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1FFE6C-6B0E-7A42-B0DE-CE3405DD5F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="47820" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6427" uniqueCount="2552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6426" uniqueCount="2551">
   <si>
     <t>Description</t>
   </si>
@@ -7517,12 +7517,6 @@
   </si>
   <si>
     <t>438074005 | Vaginal cuff (morphologic abnormality)</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Bone marrow structure (body structure)</t>
   </si>
   <si>
     <t>would want to double check with Chuck Mayo</t>
@@ -7730,6 +7724,9 @@
   </si>
   <si>
     <t>Ventricular System of the Brain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Structure of red bone marrow (body structure)</t>
   </si>
 </sst>
 </file>
@@ -8804,8 +8801,8 @@
   <dimension ref="A1:U963"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A606" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I622" sqref="I622"/>
+      <pane ySplit="1" topLeftCell="A678" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K690" sqref="K690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8853,19 +8850,19 @@
         <v>737</v>
       </c>
       <c r="K1" s="137" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="L1" s="134" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="N1" s="135" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="O1" s="136" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="P1" s="3"/>
     </row>
@@ -9675,7 +9672,7 @@
         <v>1977</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>392</v>
@@ -13562,7 +13559,7 @@
       <c r="L112" s="111"/>
       <c r="M112" s="15"/>
       <c r="N112" s="161" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="O112" s="26"/>
       <c r="P112" s="4"/>
@@ -18121,7 +18118,7 @@
         <v>2039</v>
       </c>
       <c r="N221" s="161" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="O221" s="35" t="s">
         <v>2468</v>
@@ -19846,12 +19843,12 @@
         <v>228791009</v>
       </c>
       <c r="L262" s="111" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="M262" s="15"/>
       <c r="N262" s="37"/>
       <c r="O262" s="35" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="P262" s="4"/>
     </row>
@@ -19885,7 +19882,7 @@
         <v>39352004</v>
       </c>
       <c r="L263" s="76" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="M263" s="12" t="s">
         <v>2465</v>
@@ -20498,14 +20495,14 @@
       <c r="J278" s="33"/>
       <c r="K278" s="145"/>
       <c r="L278" s="111" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="M278" s="15"/>
       <c r="N278" s="16" t="s">
         <v>2466</v>
       </c>
       <c r="O278" s="35" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="P278" s="4"/>
     </row>
@@ -20543,7 +20540,7 @@
         <v>54066008</v>
       </c>
       <c r="L279" s="76" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="M279" s="49" t="s">
         <v>2467</v>
@@ -22581,7 +22578,7 @@
         <v>2067</v>
       </c>
       <c r="M328" s="15" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="N328" s="37"/>
       <c r="O328" s="26"/>
@@ -22626,7 +22623,7 @@
         <v>2067</v>
       </c>
       <c r="M329" s="15" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="N329" s="37"/>
       <c r="O329" s="26"/>
@@ -22671,7 +22668,7 @@
         <v>2067</v>
       </c>
       <c r="M330" s="15" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="N330" s="37"/>
       <c r="O330" s="26"/>
@@ -22716,7 +22713,7 @@
         <v>2067</v>
       </c>
       <c r="M331" s="15" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="N331" s="37"/>
       <c r="O331" s="26"/>
@@ -22761,7 +22758,7 @@
         <v>2067</v>
       </c>
       <c r="M332" s="15" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="N332" s="37"/>
       <c r="O332" s="26"/>
@@ -22806,7 +22803,7 @@
         <v>2067</v>
       </c>
       <c r="M333" s="15" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="N333" s="37"/>
       <c r="O333" s="26"/>
@@ -22927,7 +22924,7 @@
         <v>940</v>
       </c>
       <c r="I336" s="55" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="J336" s="25">
         <v>233458</v>
@@ -24229,7 +24226,7 @@
         <v>127938006</v>
       </c>
       <c r="L367" s="16" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="M367" s="116"/>
       <c r="N367" s="37" t="s">
@@ -24357,7 +24354,7 @@
         <v>2050</v>
       </c>
       <c r="M370" s="15" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="N370" s="16"/>
       <c r="O370" s="26"/>
@@ -25600,7 +25597,7 @@
       </c>
       <c r="N398" s="118"/>
       <c r="O398" s="69" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="P398" s="4"/>
     </row>
@@ -26571,10 +26568,10 @@
         <v>234280</v>
       </c>
       <c r="K423" s="138" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="L423" s="76" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="M423" s="15" t="s">
         <v>2039</v>
@@ -26614,10 +26611,10 @@
         <v>234280</v>
       </c>
       <c r="K424" s="138" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="L424" s="76" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="M424" s="15" t="s">
         <v>2040</v>
@@ -26918,13 +26915,13 @@
         <v>4719002</v>
       </c>
       <c r="L431" s="75" t="s">
+        <v>2523</v>
+      </c>
+      <c r="M431" s="15" t="s">
         <v>2525</v>
       </c>
-      <c r="M431" s="15" t="s">
-        <v>2527</v>
-      </c>
       <c r="N431" s="16" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="O431" s="26"/>
       <c r="P431" s="4"/>
@@ -26963,13 +26960,13 @@
         <v>4719002</v>
       </c>
       <c r="L432" s="75" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="M432" s="15" t="s">
+        <v>2524</v>
+      </c>
+      <c r="N432" s="16" t="s">
         <v>2526</v>
-      </c>
-      <c r="N432" s="16" t="s">
-        <v>2528</v>
       </c>
       <c r="O432" s="26"/>
       <c r="P432" s="4"/>
@@ -27006,13 +27003,13 @@
         <v>4719002</v>
       </c>
       <c r="L433" s="75" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="M433" s="15" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="N433" s="16" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="O433" s="26"/>
       <c r="P433" s="4"/>
@@ -33238,7 +33235,7 @@
         <v>8534</v>
       </c>
       <c r="K582" s="139" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="L582" s="76" t="s">
         <v>2139</v>
@@ -33283,7 +33280,7 @@
         <v>8533</v>
       </c>
       <c r="K583" s="139" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="L583" s="76" t="s">
         <v>2139</v>
@@ -33450,7 +33447,7 @@
         <v>75093004</v>
       </c>
       <c r="L587" s="76" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="M587" s="15"/>
       <c r="N587" s="16"/>
@@ -33521,10 +33518,10 @@
       </c>
       <c r="J589" s="25"/>
       <c r="K589" s="138" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="L589" s="76" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="M589" s="15"/>
       <c r="N589" s="86"/>
@@ -33556,10 +33553,10 @@
       <c r="I590" s="32"/>
       <c r="J590" s="33"/>
       <c r="K590" s="138" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="L590" s="76" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="M590" s="15"/>
       <c r="N590" s="86"/>
@@ -33634,10 +33631,10 @@
       </c>
       <c r="J592" s="25"/>
       <c r="K592" s="138" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="L592" s="76" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="M592" s="15"/>
       <c r="N592" s="86"/>
@@ -33678,7 +33675,7 @@
         <v>77621008</v>
       </c>
       <c r="L593" s="124" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="M593" s="15" t="s">
         <v>2039</v>
@@ -33721,7 +33718,7 @@
         <v>77621008</v>
       </c>
       <c r="L594" s="124" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="M594" s="15" t="s">
         <v>2040</v>
@@ -34564,10 +34561,10 @@
       </c>
       <c r="J614" s="25"/>
       <c r="K614" s="138" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="L614" s="76" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="M614" s="15" t="s">
         <v>2039</v>
@@ -34607,10 +34604,10 @@
       </c>
       <c r="J615" s="25"/>
       <c r="K615" s="138" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="L615" s="76" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="M615" s="15" t="s">
         <v>2040</v>
@@ -34747,7 +34744,7 @@
         <v>1890</v>
       </c>
       <c r="I619" s="48" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="J619" s="21">
         <v>242787</v>
@@ -34756,7 +34753,7 @@
         <v>8997002</v>
       </c>
       <c r="L619" s="164" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="M619" s="15"/>
       <c r="N619" s="16"/>
@@ -35257,7 +35254,7 @@
         <v>181226008</v>
       </c>
       <c r="L632" s="76" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="M632" s="15"/>
       <c r="N632" s="16"/>
@@ -37089,11 +37086,11 @@
         <v>17401000</v>
       </c>
       <c r="L676" s="112" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="M676" s="15"/>
       <c r="N676" s="16" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="O676" s="35" t="s">
         <v>2468</v>
@@ -37632,7 +37629,7 @@
       <c r="L689" s="112"/>
       <c r="M689" s="15"/>
       <c r="N689" s="16" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="O689" s="35" t="s">
         <v>2468</v>
@@ -37668,14 +37665,12 @@
       </c>
       <c r="J690" s="25"/>
       <c r="K690" s="138">
-        <v>14016003</v>
-      </c>
-      <c r="L690" s="76" t="s">
-        <v>2495</v>
-      </c>
-      <c r="M690" s="15" t="s">
-        <v>2494</v>
-      </c>
+        <v>75330005</v>
+      </c>
+      <c r="L690" s="164" t="s">
+        <v>2550</v>
+      </c>
+      <c r="M690" s="15"/>
       <c r="N690" s="37"/>
       <c r="O690" s="26"/>
       <c r="P690" s="4"/>
@@ -37755,7 +37750,7 @@
       </c>
       <c r="M692" s="15"/>
       <c r="N692" s="16" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="O692" s="35" t="s">
         <v>2468</v>
@@ -37837,7 +37832,7 @@
         <v>1172006</v>
       </c>
       <c r="L694" s="76" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="M694" s="15"/>
       <c r="N694" s="37"/>
@@ -37874,7 +37869,7 @@
         <v>79654002</v>
       </c>
       <c r="L695" s="76" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="M695" s="15"/>
       <c r="N695" s="37"/>
@@ -37911,7 +37906,7 @@
         <v>123037004</v>
       </c>
       <c r="L696" s="76" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="M696" s="12" t="s">
         <v>2192</v>
@@ -39343,7 +39338,7 @@
         <v>2028</v>
       </c>
       <c r="K731" s="138" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="L731" s="76" t="s">
         <v>2183</v>
@@ -39393,7 +39388,7 @@
         <v>2184</v>
       </c>
       <c r="N732" s="16" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="O732" s="35" t="s">
         <v>2468</v>
@@ -39431,10 +39426,10 @@
         <v>56429</v>
       </c>
       <c r="K733" s="138" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="L733" s="76" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="M733" s="15"/>
       <c r="N733" s="16"/>
@@ -39475,7 +39470,7 @@
         <v>35763008</v>
       </c>
       <c r="L734" s="15" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="M734" s="15"/>
       <c r="N734" s="37"/>
@@ -39593,10 +39588,10 @@
         <v>2028</v>
       </c>
       <c r="K737" s="158" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="L737" s="127" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="M737" s="128"/>
       <c r="N737" s="16"/>
@@ -39678,7 +39673,7 @@
         <v>24999009</v>
       </c>
       <c r="L739" s="106" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="M739" s="97"/>
       <c r="N739" s="37"/>
@@ -39715,7 +39710,7 @@
         <v>123037004</v>
       </c>
       <c r="L740" s="106" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="M740" s="97"/>
       <c r="N740" s="37"/>

--- a/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
+++ b/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/fhir-mCODE-ig/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30505FCB-7A85-444B-870B-A30E1606546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75571E5A-2F3F-3142-9F75-3C3316C8C087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="500" windowWidth="56400" windowHeight="26080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2600" yWindow="500" windowWidth="56400" windowHeight="26080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapped TG263 Terms" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6470" uniqueCount="2566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6470" uniqueCount="2567">
   <si>
     <t>Description</t>
   </si>
@@ -7790,14 +7790,24 @@
   <si>
     <t>Structure of anterior descending branch of left coronary artery (body structure)</t>
   </si>
+  <si>
+    <t>USCRS-33446</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8186,99 +8196,92 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -8286,280 +8289,288 @@
     <xf numFmtId="1" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -8904,9 +8915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R903"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A664" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K682" sqref="K682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -16957,7 +16968,7 @@
         <v>697</v>
       </c>
       <c r="F202" s="14">
-        <f t="shared" ref="F202:F233" si="7">LEN(G202)</f>
+        <f t="shared" ref="F202:F231" si="7">LEN(G202)</f>
         <v>12</v>
       </c>
       <c r="G202" s="13" t="s">
@@ -30591,14 +30602,16 @@
         <v>1526</v>
       </c>
       <c r="J537" s="18"/>
-      <c r="K537" s="151" t="s">
-        <v>2488</v>
+      <c r="K537" s="151">
+        <v>1193554003</v>
       </c>
       <c r="L537" s="57" t="s">
         <v>2489</v>
       </c>
       <c r="M537" s="10"/>
-      <c r="N537" s="61"/>
+      <c r="N537" s="171" t="s">
+        <v>2488</v>
+      </c>
     </row>
     <row r="538" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A538" s="56"/>
@@ -35862,14 +35875,16 @@
       <c r="J673" s="26">
         <v>56429</v>
       </c>
-      <c r="K673" s="151" t="s">
-        <v>2483</v>
+      <c r="K673" s="172">
+        <v>1187337007</v>
       </c>
       <c r="L673" s="57" t="s">
         <v>2484</v>
       </c>
       <c r="M673" s="10"/>
-      <c r="N673" s="11"/>
+      <c r="N673" s="11" t="s">
+        <v>2483</v>
+      </c>
     </row>
     <row r="674" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A674" s="56"/>
@@ -36016,14 +36031,16 @@
       <c r="J677" s="67" t="s">
         <v>2026</v>
       </c>
-      <c r="K677" s="169" t="s">
-        <v>2478</v>
+      <c r="K677" s="169">
+        <v>1187336003</v>
       </c>
       <c r="L677" s="87" t="s">
         <v>2479</v>
       </c>
       <c r="M677" s="88"/>
-      <c r="N677" s="11"/>
+      <c r="N677" s="173" t="s">
+        <v>2566</v>
+      </c>
     </row>
     <row r="678" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A678" s="56"/>
@@ -39709,7 +39726,7 @@
   </sheetData>
   <autoFilter ref="A1:N680" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:N680">
-      <sortCondition sortBy="cellColor" ref="K1:K680" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="K1:K680" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40576,8 +40593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550FF5C6-E2A1-8B4F-8D1B-5639D9CE650F}">
   <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J40" sqref="J1:P1048576"/>
+    <sheetView topLeftCell="A33" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
+++ b/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/fhir-mCODE-ig/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75571E5A-2F3F-3142-9F75-3C3316C8C087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4024A384-F40D-034C-9664-6D8969EB3F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="500" windowWidth="56400" windowHeight="26080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7798,9 +7798,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8196,99 +8203,92 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -8296,274 +8296,284 @@
     <xf numFmtId="1" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8916,8 +8926,8 @@
   <dimension ref="A1:R903"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A664" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K682" sqref="K682"/>
+      <pane ySplit="1" topLeftCell="A525" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K536" sqref="K536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -30602,16 +30612,14 @@
         <v>1526</v>
       </c>
       <c r="J537" s="18"/>
-      <c r="K537" s="151">
-        <v>1193554003</v>
+      <c r="K537" s="174" t="s">
+        <v>2488</v>
       </c>
       <c r="L537" s="57" t="s">
         <v>2489</v>
       </c>
       <c r="M537" s="10"/>
-      <c r="N537" s="171" t="s">
-        <v>2488</v>
-      </c>
+      <c r="N537" s="173"/>
     </row>
     <row r="538" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A538" s="56"/>
@@ -35875,7 +35883,7 @@
       <c r="J673" s="26">
         <v>56429</v>
       </c>
-      <c r="K673" s="172">
+      <c r="K673" s="171">
         <v>1187337007</v>
       </c>
       <c r="L673" s="57" t="s">
@@ -36038,7 +36046,7 @@
         <v>2479</v>
       </c>
       <c r="M677" s="88"/>
-      <c r="N677" s="173" t="s">
+      <c r="N677" s="172" t="s">
         <v>2566</v>
       </c>
     </row>

--- a/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
+++ b/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/fhir-mCODE-ig/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75571E5A-2F3F-3142-9F75-3C3316C8C087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD81423-4397-5541-A370-A35C6D1A3883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="500" windowWidth="56400" windowHeight="26080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6470" uniqueCount="2567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6465" uniqueCount="2564">
   <si>
     <t>Description</t>
   </si>
@@ -7585,9 +7585,6 @@
   </si>
   <si>
     <t xml:space="preserve"> lateral axillary lymph nodes</t>
-  </si>
-  <si>
-    <t>USCRS-33146 - SNOMEDCT term pending</t>
   </si>
   <si>
     <t>Drop 10/26/21</t>
@@ -7699,12 +7696,6 @@
   </si>
   <si>
     <t>covered by retropharyngeal nodes</t>
-  </si>
-  <si>
-    <t>Need new code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there a code for conjunctiva of the eye?  </t>
   </si>
   <si>
     <t>https://uts.nlm.nih.gov/uts/umls/vocabulary/FMA/32846</t>
@@ -8198,7 +8189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8459,9 +8450,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -8470,9 +8458,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8564,6 +8549,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8916,8 +8910,8 @@
   <dimension ref="A1:R903"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A664" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K682" sqref="K682"/>
+      <pane ySplit="1" topLeftCell="A656" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L660" sqref="L660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8930,7 +8924,7 @@
     <col min="6" max="6" width="13.33203125" style="80" customWidth="1"/>
     <col min="7" max="9" width="15.33203125" style="80" customWidth="1"/>
     <col min="10" max="10" width="12" style="80" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="157" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="155" customWidth="1"/>
     <col min="12" max="12" width="49" style="90" customWidth="1"/>
     <col min="13" max="13" width="12.1640625" style="80" customWidth="1"/>
     <col min="14" max="14" width="54.33203125" style="29" customWidth="1"/>
@@ -8967,7 +8961,7 @@
       <c r="J1" s="73" t="s">
         <v>737</v>
       </c>
-      <c r="K1" s="150" t="s">
+      <c r="K1" s="148" t="s">
         <v>2474</v>
       </c>
       <c r="L1" s="94" t="s">
@@ -9010,7 +9004,7 @@
       <c r="J2" s="18">
         <v>3734</v>
       </c>
-      <c r="K2" s="151">
+      <c r="K2" s="149">
         <v>15825003</v>
       </c>
       <c r="L2" s="57" t="s">
@@ -9049,7 +9043,7 @@
       <c r="J3" s="26">
         <v>3736</v>
       </c>
-      <c r="K3" s="151">
+      <c r="K3" s="149">
         <v>54247002</v>
       </c>
       <c r="L3" s="57" t="s">
@@ -9088,7 +9082,7 @@
       <c r="J4" s="18">
         <v>3932</v>
       </c>
-      <c r="K4" s="152">
+      <c r="K4" s="150">
         <v>425444002</v>
       </c>
       <c r="L4" s="57" t="s">
@@ -9127,7 +9121,7 @@
       <c r="J5" s="18">
         <v>3939</v>
       </c>
-      <c r="K5" s="151">
+      <c r="K5" s="149">
         <v>69105007</v>
       </c>
       <c r="L5" s="57" t="s">
@@ -9168,7 +9162,7 @@
       <c r="J6" s="18">
         <v>4058</v>
       </c>
-      <c r="K6" s="151">
+      <c r="K6" s="149">
         <v>69105007</v>
       </c>
       <c r="L6" s="57" t="s">
@@ -9211,7 +9205,7 @@
       <c r="J7" s="18">
         <v>3941</v>
       </c>
-      <c r="K7" s="151">
+      <c r="K7" s="149">
         <v>69105007</v>
       </c>
       <c r="L7" s="57" t="s">
@@ -9252,7 +9246,7 @@
       <c r="J8" s="18">
         <v>50737</v>
       </c>
-      <c r="K8" s="153">
+      <c r="K8" s="151">
         <v>57850000</v>
       </c>
       <c r="L8" s="57" t="s">
@@ -9291,7 +9285,7 @@
       <c r="J9" s="18">
         <v>49893</v>
       </c>
-      <c r="K9" s="151">
+      <c r="K9" s="149">
         <v>41801008</v>
       </c>
       <c r="L9" s="57" t="s">
@@ -9332,7 +9326,7 @@
       <c r="J10" s="18">
         <v>50040</v>
       </c>
-      <c r="K10" s="151">
+      <c r="K10" s="149">
         <v>41801008</v>
       </c>
       <c r="L10" s="57" t="s">
@@ -9375,7 +9369,7 @@
       <c r="J11" s="18">
         <v>50039</v>
       </c>
-      <c r="K11" s="151">
+      <c r="K11" s="149">
         <v>41801008</v>
       </c>
       <c r="L11" s="57" t="s">
@@ -9418,7 +9412,7 @@
       <c r="J12" s="26">
         <v>70250</v>
       </c>
-      <c r="K12" s="151">
+      <c r="K12" s="149">
         <v>7657000</v>
       </c>
       <c r="L12" s="57" t="s">
@@ -9461,7 +9455,7 @@
       <c r="J13" s="26">
         <v>70249</v>
       </c>
-      <c r="K13" s="151">
+      <c r="K13" s="149">
         <v>7657000</v>
       </c>
       <c r="L13" s="57" t="s">
@@ -9502,7 +9496,7 @@
         <v>1963</v>
       </c>
       <c r="J14" s="28"/>
-      <c r="K14" s="154">
+      <c r="K14" s="152">
         <v>244314003</v>
       </c>
       <c r="L14" s="74" t="s">
@@ -9544,7 +9538,7 @@
         <v>1671</v>
       </c>
       <c r="J15" s="28"/>
-      <c r="K15" s="154">
+      <c r="K15" s="152">
         <v>244314003</v>
       </c>
       <c r="L15" s="74" t="s">
@@ -9587,7 +9581,7 @@
       <c r="J16" s="26">
         <v>49846</v>
       </c>
-      <c r="K16" s="151">
+      <c r="K16" s="149">
         <v>74200005</v>
       </c>
       <c r="L16" s="57" t="s">
@@ -9628,7 +9622,7 @@
       <c r="J17" s="26">
         <v>49849</v>
       </c>
-      <c r="K17" s="151">
+      <c r="K17" s="149">
         <v>55601007</v>
       </c>
       <c r="L17" s="57" t="s">
@@ -9667,7 +9661,7 @@
         <v>1651</v>
       </c>
       <c r="J18" s="26"/>
-      <c r="K18" s="153">
+      <c r="K18" s="151">
         <v>244327004</v>
       </c>
       <c r="L18" s="75" t="s">
@@ -9708,7 +9702,7 @@
         <v>1650</v>
       </c>
       <c r="J19" s="26"/>
-      <c r="K19" s="153">
+      <c r="K19" s="151">
         <v>244327004</v>
       </c>
       <c r="L19" s="75" t="s">
@@ -9751,7 +9745,7 @@
       <c r="J20" s="26">
         <v>18807</v>
       </c>
-      <c r="K20" s="151">
+      <c r="K20" s="149">
         <v>113269004</v>
       </c>
       <c r="L20" s="57" t="s">
@@ -9794,7 +9788,7 @@
       <c r="J21" s="26">
         <v>18806</v>
       </c>
-      <c r="K21" s="151">
+      <c r="K21" s="149">
         <v>113269004</v>
       </c>
       <c r="L21" s="57" t="s">
@@ -9837,7 +9831,7 @@
       <c r="J22" s="26">
         <v>18810</v>
       </c>
-      <c r="K22" s="151">
+      <c r="K22" s="149">
         <v>90024005</v>
       </c>
       <c r="L22" s="57" t="s">
@@ -9880,7 +9874,7 @@
       <c r="J23" s="26">
         <v>18809</v>
       </c>
-      <c r="K23" s="151">
+      <c r="K23" s="149">
         <v>90024005</v>
       </c>
       <c r="L23" s="57" t="s">
@@ -9923,7 +9917,7 @@
       <c r="J24" s="26">
         <v>14766</v>
       </c>
-      <c r="K24" s="153">
+      <c r="K24" s="151">
         <v>73634005</v>
       </c>
       <c r="L24" s="75" t="s">
@@ -9966,7 +9960,7 @@
       <c r="J25" s="26">
         <v>14765</v>
       </c>
-      <c r="K25" s="151">
+      <c r="K25" s="149">
         <v>73634005</v>
       </c>
       <c r="L25" s="57" t="s">
@@ -10007,11 +10001,11 @@
       <c r="J26" s="26">
         <v>3862</v>
       </c>
-      <c r="K26" s="155">
+      <c r="K26" s="153">
         <v>33795007</v>
       </c>
-      <c r="L26" s="149" t="s">
-        <v>2565</v>
+      <c r="L26" s="147" t="s">
+        <v>2562</v>
       </c>
       <c r="M26" s="10"/>
       <c r="N26" s="11"/>
@@ -10048,7 +10042,7 @@
       <c r="J27" s="26">
         <v>14750</v>
       </c>
-      <c r="K27" s="151">
+      <c r="K27" s="149">
         <v>33795007</v>
       </c>
       <c r="L27" s="57" t="s">
@@ -10089,7 +10083,7 @@
       <c r="J28" s="26">
         <v>14749</v>
       </c>
-      <c r="K28" s="151">
+      <c r="K28" s="149">
         <v>42258001</v>
       </c>
       <c r="L28" s="57" t="s">
@@ -10128,7 +10122,7 @@
       <c r="J29" s="26">
         <v>66326</v>
       </c>
-      <c r="K29" s="151">
+      <c r="K29" s="149">
         <v>81040000</v>
       </c>
       <c r="L29" s="57" t="s">
@@ -10167,7 +10161,7 @@
       <c r="J30" s="26">
         <v>3951</v>
       </c>
-      <c r="K30" s="151">
+      <c r="K30" s="149">
         <v>36765005</v>
       </c>
       <c r="L30" s="57" t="s">
@@ -10208,7 +10202,7 @@
       <c r="J31" s="26">
         <v>4694</v>
       </c>
-      <c r="K31" s="151">
+      <c r="K31" s="149">
         <v>36765005</v>
       </c>
       <c r="L31" s="57" t="s">
@@ -10251,7 +10245,7 @@
       <c r="J32" s="26">
         <v>3953</v>
       </c>
-      <c r="K32" s="151">
+      <c r="K32" s="149">
         <v>36765005</v>
       </c>
       <c r="L32" s="57" t="s">
@@ -10292,7 +10286,7 @@
       <c r="J33" s="26">
         <v>3956</v>
       </c>
-      <c r="K33" s="151">
+      <c r="K33" s="149">
         <v>85234005</v>
       </c>
       <c r="L33" s="57" t="s">
@@ -10333,7 +10327,7 @@
       <c r="J34" s="26">
         <v>4066</v>
       </c>
-      <c r="K34" s="151">
+      <c r="K34" s="149">
         <v>85234005</v>
       </c>
       <c r="L34" s="57" t="s">
@@ -10376,7 +10370,7 @@
       <c r="J35" s="26">
         <v>3958</v>
       </c>
-      <c r="K35" s="151">
+      <c r="K35" s="149">
         <v>85234005</v>
       </c>
       <c r="L35" s="57" t="s">
@@ -10419,7 +10413,7 @@
       <c r="J36" s="26">
         <v>16599</v>
       </c>
-      <c r="K36" s="151">
+      <c r="K36" s="149">
         <v>37783008</v>
       </c>
       <c r="L36" s="57" t="s">
@@ -10462,7 +10456,7 @@
       <c r="J37" s="26">
         <v>16598</v>
       </c>
-      <c r="K37" s="151">
+      <c r="K37" s="149">
         <v>37783008</v>
       </c>
       <c r="L37" s="57" t="s">
@@ -10503,7 +10497,7 @@
       <c r="J38" s="26">
         <v>16579</v>
       </c>
-      <c r="K38" s="151">
+      <c r="K38" s="149">
         <v>37783008</v>
       </c>
       <c r="L38" s="57" t="s">
@@ -10540,7 +10534,7 @@
         <v>1712</v>
       </c>
       <c r="J39" s="26"/>
-      <c r="K39" s="151">
+      <c r="K39" s="149">
         <v>89187006</v>
       </c>
       <c r="L39" s="57" t="s">
@@ -10579,7 +10573,7 @@
         <v>1710</v>
       </c>
       <c r="J40" s="26"/>
-      <c r="K40" s="151">
+      <c r="K40" s="149">
         <v>89187006</v>
       </c>
       <c r="L40" s="57" t="s">
@@ -10620,7 +10614,7 @@
       <c r="J41" s="26">
         <v>15711</v>
       </c>
-      <c r="K41" s="151">
+      <c r="K41" s="149">
         <v>123956007</v>
       </c>
       <c r="L41" s="57" t="s">
@@ -10659,7 +10653,7 @@
       <c r="J42" s="26">
         <v>14542</v>
       </c>
-      <c r="K42" s="151">
+      <c r="K42" s="149">
         <v>66754008</v>
       </c>
       <c r="L42" s="77" t="s">
@@ -10698,7 +10692,7 @@
       <c r="J43" s="26">
         <v>55109</v>
       </c>
-      <c r="K43" s="151">
+      <c r="K43" s="149">
         <v>77578007</v>
       </c>
       <c r="L43" s="78" t="s">
@@ -10739,7 +10733,7 @@
       <c r="J44" s="26">
         <v>55114</v>
       </c>
-      <c r="K44" s="151">
+      <c r="K44" s="149">
         <v>77578007</v>
       </c>
       <c r="L44" s="57" t="s">
@@ -10782,7 +10776,7 @@
       <c r="J45" s="33">
         <v>55113</v>
       </c>
-      <c r="K45" s="151">
+      <c r="K45" s="149">
         <v>77578007</v>
       </c>
       <c r="L45" s="57" t="s">
@@ -10823,7 +10817,7 @@
       <c r="J46" s="18">
         <v>7099</v>
       </c>
-      <c r="K46" s="155">
+      <c r="K46" s="153">
         <v>59652004</v>
       </c>
       <c r="L46" s="76" t="s">
@@ -10864,7 +10858,7 @@
       <c r="J47" s="18">
         <v>7097</v>
       </c>
-      <c r="K47" s="155">
+      <c r="K47" s="153">
         <v>59652004</v>
       </c>
       <c r="L47" s="76" t="s">
@@ -10907,7 +10901,7 @@
       <c r="J48" s="18">
         <v>7096</v>
       </c>
-      <c r="K48" s="155">
+      <c r="K48" s="153">
         <v>59652004</v>
       </c>
       <c r="L48" s="76" t="s">
@@ -10948,7 +10942,7 @@
       <c r="J51" s="18">
         <v>14667</v>
       </c>
-      <c r="K51" s="153">
+      <c r="K51" s="151">
         <v>79741001</v>
       </c>
       <c r="L51" s="75" t="s">
@@ -10985,7 +10979,7 @@
       <c r="J52" s="18">
         <v>15900</v>
       </c>
-      <c r="K52" s="151">
+      <c r="K52" s="149">
         <v>89837001</v>
       </c>
       <c r="L52" s="57" t="s">
@@ -11022,7 +11016,7 @@
       <c r="J53" s="18">
         <v>15902</v>
       </c>
-      <c r="K53" s="151">
+      <c r="K53" s="149">
         <v>393006</v>
       </c>
       <c r="L53" s="57" t="s">
@@ -11059,7 +11053,7 @@
       <c r="J54" s="22">
         <v>30317</v>
       </c>
-      <c r="K54" s="151">
+      <c r="K54" s="149">
         <v>119186007</v>
       </c>
       <c r="L54" s="57" t="s">
@@ -11098,7 +11092,7 @@
       <c r="J55" s="26">
         <v>52740</v>
       </c>
-      <c r="K55" s="151">
+      <c r="K55" s="149">
         <v>52374004</v>
       </c>
       <c r="L55" s="57" t="s">
@@ -11137,7 +11131,7 @@
       <c r="J56" s="26">
         <v>52734</v>
       </c>
-      <c r="K56" s="151">
+      <c r="K56" s="149">
         <v>74872008</v>
       </c>
       <c r="L56" s="57" t="s">
@@ -11176,7 +11170,7 @@
       <c r="J57" s="26">
         <v>52749</v>
       </c>
-      <c r="K57" s="151">
+      <c r="K57" s="149">
         <v>21387005</v>
       </c>
       <c r="L57" s="57" t="s">
@@ -11215,7 +11209,7 @@
       <c r="J58" s="18">
         <v>42832</v>
       </c>
-      <c r="K58" s="151">
+      <c r="K58" s="149">
         <v>22356005</v>
       </c>
       <c r="L58" s="57" t="s">
@@ -11256,7 +11250,7 @@
       <c r="J59" s="26">
         <v>16591</v>
       </c>
-      <c r="K59" s="151">
+      <c r="K59" s="149">
         <v>22356005</v>
       </c>
       <c r="L59" s="57" t="s">
@@ -11299,7 +11293,7 @@
       <c r="J60" s="26">
         <v>16590</v>
       </c>
-      <c r="K60" s="151">
+      <c r="K60" s="149">
         <v>22356005</v>
       </c>
       <c r="L60" s="57" t="s">
@@ -11340,7 +11334,7 @@
       <c r="J61" s="18">
         <v>52752</v>
       </c>
-      <c r="K61" s="151">
+      <c r="K61" s="149">
         <v>421793000</v>
       </c>
       <c r="L61" s="57" t="s">
@@ -11381,7 +11375,7 @@
       <c r="J62" s="18">
         <v>74051</v>
       </c>
-      <c r="K62" s="151">
+      <c r="K62" s="149">
         <v>421793000</v>
       </c>
       <c r="L62" s="57" t="s">
@@ -11424,7 +11418,7 @@
       <c r="J63" s="18">
         <v>74050</v>
       </c>
-      <c r="K63" s="151">
+      <c r="K63" s="149">
         <v>421793000</v>
       </c>
       <c r="L63" s="57" t="s">
@@ -11467,7 +11461,7 @@
       <c r="J64" s="18">
         <v>16594</v>
       </c>
-      <c r="K64" s="151">
+      <c r="K64" s="149">
         <v>85710004</v>
       </c>
       <c r="L64" s="57" t="s">
@@ -11510,7 +11504,7 @@
       <c r="J65" s="18">
         <v>16593</v>
       </c>
-      <c r="K65" s="151">
+      <c r="K65" s="149">
         <v>85710004</v>
       </c>
       <c r="L65" s="57" t="s">
@@ -11551,7 +11545,7 @@
       <c r="J66" s="18">
         <v>52741</v>
       </c>
-      <c r="K66" s="151">
+      <c r="K66" s="149">
         <v>6229007</v>
       </c>
       <c r="L66" s="57" t="s">
@@ -11592,7 +11586,7 @@
       <c r="J67" s="18">
         <v>53646</v>
       </c>
-      <c r="K67" s="151">
+      <c r="K67" s="149">
         <v>6229007</v>
       </c>
       <c r="L67" s="57" t="s">
@@ -11635,7 +11629,7 @@
       <c r="J68" s="18">
         <v>53645</v>
       </c>
-      <c r="K68" s="151">
+      <c r="K68" s="149">
         <v>6229007</v>
       </c>
       <c r="L68" s="57" t="s">
@@ -11676,7 +11670,7 @@
       <c r="J69" s="14">
         <v>52748</v>
       </c>
-      <c r="K69" s="151">
+      <c r="K69" s="149">
         <v>91609006</v>
       </c>
       <c r="L69" s="57" t="s">
@@ -11715,7 +11709,7 @@
       <c r="J70" s="14">
         <v>52872</v>
       </c>
-      <c r="K70" s="151">
+      <c r="K70" s="149">
         <v>59066005</v>
       </c>
       <c r="L70" s="57" t="s">
@@ -11756,7 +11750,7 @@
       <c r="J71" s="14">
         <v>52874</v>
       </c>
-      <c r="K71" s="151">
+      <c r="K71" s="149">
         <v>59066005</v>
       </c>
       <c r="L71" s="57" t="s">
@@ -11799,7 +11793,7 @@
       <c r="J72" s="14">
         <v>52873</v>
       </c>
-      <c r="K72" s="151">
+      <c r="K72" s="149">
         <v>59066005</v>
       </c>
       <c r="L72" s="57" t="s">
@@ -11840,7 +11834,7 @@
       <c r="J73" s="18">
         <v>52745</v>
       </c>
-      <c r="K73" s="151">
+      <c r="K73" s="149">
         <v>74386004</v>
       </c>
       <c r="L73" s="57" t="s">
@@ -11881,7 +11875,7 @@
       <c r="J74" s="18">
         <v>53648</v>
       </c>
-      <c r="K74" s="151">
+      <c r="K74" s="149">
         <v>74386004</v>
       </c>
       <c r="L74" s="57" t="s">
@@ -11924,7 +11918,7 @@
       <c r="J75" s="18">
         <v>53647</v>
       </c>
-      <c r="K75" s="151">
+      <c r="K75" s="149">
         <v>74386004</v>
       </c>
       <c r="L75" s="57" t="s">
@@ -11965,7 +11959,7 @@
       <c r="J76" s="18">
         <v>52735</v>
       </c>
-      <c r="K76" s="151">
+      <c r="K76" s="149">
         <v>31640002</v>
       </c>
       <c r="L76" s="57" t="s">
@@ -12004,7 +11998,7 @@
       <c r="J77" s="18">
         <v>52746</v>
       </c>
-      <c r="K77" s="151">
+      <c r="K77" s="149">
         <v>51283005</v>
       </c>
       <c r="L77" s="57" t="s">
@@ -12045,7 +12039,7 @@
       <c r="J78" s="18">
         <v>53656</v>
       </c>
-      <c r="K78" s="151">
+      <c r="K78" s="149">
         <v>51283005</v>
       </c>
       <c r="L78" s="57" t="s">
@@ -12088,7 +12082,7 @@
       <c r="J79" s="18">
         <v>53655</v>
       </c>
-      <c r="K79" s="151">
+      <c r="K79" s="149">
         <v>51283005</v>
       </c>
       <c r="L79" s="57" t="s">
@@ -12129,7 +12123,7 @@
       <c r="J80" s="18">
         <v>9613</v>
       </c>
-      <c r="K80" s="151">
+      <c r="K80" s="149">
         <v>24924006</v>
       </c>
       <c r="L80" s="57" t="s">
@@ -12170,7 +12164,7 @@
       <c r="J81" s="18">
         <v>52789</v>
       </c>
-      <c r="K81" s="151">
+      <c r="K81" s="149">
         <v>24924006</v>
       </c>
       <c r="L81" s="57" t="s">
@@ -12213,7 +12207,7 @@
       <c r="J82" s="18">
         <v>52788</v>
       </c>
-      <c r="K82" s="151">
+      <c r="K82" s="149">
         <v>24924006</v>
       </c>
       <c r="L82" s="57" t="s">
@@ -12254,7 +12248,7 @@
       <c r="J83" s="18">
         <v>16580</v>
       </c>
-      <c r="K83" s="151">
+      <c r="K83" s="149">
         <v>118645006</v>
       </c>
       <c r="L83" s="57" t="s">
@@ -12295,7 +12289,7 @@
       <c r="J84" s="18">
         <v>20227</v>
       </c>
-      <c r="K84" s="151">
+      <c r="K84" s="149">
         <v>118645006</v>
       </c>
       <c r="L84" s="57" t="s">
@@ -12338,7 +12332,7 @@
       <c r="J85" s="18">
         <v>20226</v>
       </c>
-      <c r="K85" s="151">
+      <c r="K85" s="149">
         <v>118645006</v>
       </c>
       <c r="L85" s="57" t="s">
@@ -12379,7 +12373,7 @@
       <c r="J86" s="18">
         <v>52736</v>
       </c>
-      <c r="K86" s="151">
+      <c r="K86" s="149">
         <v>73117003</v>
       </c>
       <c r="L86" s="57" t="s">
@@ -12418,7 +12412,7 @@
       <c r="J87" s="18">
         <v>52737</v>
       </c>
-      <c r="K87" s="151">
+      <c r="K87" s="149">
         <v>60911003</v>
       </c>
       <c r="L87" s="57" t="s">
@@ -12459,7 +12453,7 @@
       <c r="J88" s="18">
         <v>52739</v>
       </c>
-      <c r="K88" s="151">
+      <c r="K88" s="149">
         <v>60911003</v>
       </c>
       <c r="L88" s="57" t="s">
@@ -12502,7 +12496,7 @@
       <c r="J89" s="18">
         <v>52738</v>
       </c>
-      <c r="K89" s="151">
+      <c r="K89" s="149">
         <v>60911003</v>
       </c>
       <c r="L89" s="57" t="s">
@@ -12545,7 +12539,7 @@
       <c r="J90" s="18">
         <v>52893</v>
       </c>
-      <c r="K90" s="151">
+      <c r="K90" s="149">
         <v>13881006</v>
       </c>
       <c r="L90" s="57" t="s">
@@ -12588,7 +12582,7 @@
       <c r="J91" s="18">
         <v>52892</v>
       </c>
-      <c r="K91" s="151">
+      <c r="K91" s="149">
         <v>13881006</v>
       </c>
       <c r="L91" s="57" t="s">
@@ -12629,7 +12623,7 @@
       <c r="J92" s="18">
         <v>52747</v>
       </c>
-      <c r="K92" s="151">
+      <c r="K92" s="149">
         <v>13881006</v>
       </c>
       <c r="L92" s="57" t="s">
@@ -12668,7 +12662,7 @@
       <c r="J93" s="18">
         <v>9608</v>
       </c>
-      <c r="K93" s="151">
+      <c r="K93" s="149">
         <v>14016003</v>
       </c>
       <c r="L93" s="57" t="s">
@@ -12705,7 +12699,7 @@
       <c r="J94" s="18">
         <v>13295</v>
       </c>
-      <c r="K94" s="151">
+      <c r="K94" s="149">
         <v>5798000</v>
       </c>
       <c r="L94" s="57" t="s">
@@ -12740,7 +12734,7 @@
       <c r="J96" s="18">
         <v>7199</v>
       </c>
-      <c r="K96" s="151">
+      <c r="K96" s="149">
         <v>113276009</v>
       </c>
       <c r="L96" s="57" t="s">
@@ -12779,7 +12773,7 @@
       <c r="J97" s="18">
         <v>7201</v>
       </c>
-      <c r="K97" s="151">
+      <c r="K97" s="149">
         <v>14742008</v>
       </c>
       <c r="L97" s="57" t="s">
@@ -12816,7 +12810,7 @@
       <c r="J98" s="18">
         <v>7200</v>
       </c>
-      <c r="K98" s="151">
+      <c r="K98" s="149">
         <v>30315005</v>
       </c>
       <c r="L98" s="57" t="s">
@@ -12857,7 +12851,7 @@
       <c r="J99" s="18">
         <v>45245</v>
       </c>
-      <c r="K99" s="151">
+      <c r="K99" s="149">
         <v>36582005</v>
       </c>
       <c r="L99" s="57" t="s">
@@ -12900,7 +12894,7 @@
       <c r="J100" s="18">
         <v>45244</v>
       </c>
-      <c r="K100" s="151">
+      <c r="K100" s="149">
         <v>36582005</v>
       </c>
       <c r="L100" s="57" t="s">
@@ -12941,7 +12935,7 @@
       <c r="J101" s="18">
         <v>5906</v>
       </c>
-      <c r="K101" s="151">
+      <c r="K101" s="149">
         <v>36582005</v>
       </c>
       <c r="L101" s="57" t="s">
@@ -12949,7 +12943,7 @@
       </c>
       <c r="M101" s="10"/>
       <c r="N101" s="128" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="1" customFormat="1" ht="17">
@@ -12982,7 +12976,7 @@
       <c r="J102" s="18">
         <v>50801</v>
       </c>
-      <c r="K102" s="151">
+      <c r="K102" s="149">
         <v>12738006</v>
       </c>
       <c r="L102" s="57" t="s">
@@ -13021,7 +13015,7 @@
       <c r="J103" s="18">
         <v>79876</v>
       </c>
-      <c r="K103" s="151">
+      <c r="K103" s="149">
         <v>15926001</v>
       </c>
       <c r="L103" s="57" t="s">
@@ -13058,7 +13052,7 @@
         <v>1433</v>
       </c>
       <c r="J104" s="26"/>
-      <c r="K104" s="156">
+      <c r="K104" s="154">
         <v>15926001</v>
       </c>
       <c r="L104" s="79" t="s">
@@ -13097,7 +13091,7 @@
         <v>1436</v>
       </c>
       <c r="J106" s="26"/>
-      <c r="K106" s="156">
+      <c r="K106" s="154">
         <v>15926001</v>
       </c>
       <c r="L106" s="79" t="s">
@@ -13138,7 +13132,7 @@
       <c r="J107" s="18">
         <v>321497</v>
       </c>
-      <c r="K107" s="153">
+      <c r="K107" s="151">
         <v>76752008</v>
       </c>
       <c r="L107" s="75" t="s">
@@ -13179,7 +13173,7 @@
       <c r="J108" s="18">
         <v>321496</v>
       </c>
-      <c r="K108" s="151">
+      <c r="K108" s="149">
         <v>76752008</v>
       </c>
       <c r="L108" s="57" t="s">
@@ -13220,7 +13214,7 @@
       <c r="J109" s="18">
         <v>268893</v>
       </c>
-      <c r="K109" s="151">
+      <c r="K109" s="149">
         <v>76752008</v>
       </c>
       <c r="L109" s="57" t="s">
@@ -13261,7 +13255,7 @@
       <c r="J110" s="18">
         <v>26660</v>
       </c>
-      <c r="K110" s="151">
+      <c r="K110" s="149">
         <v>955009</v>
       </c>
       <c r="L110" s="57" t="s">
@@ -13302,7 +13296,7 @@
       <c r="J111" s="18">
         <v>26662</v>
       </c>
-      <c r="K111" s="151">
+      <c r="K111" s="149">
         <v>955009</v>
       </c>
       <c r="L111" s="57" t="s">
@@ -13343,7 +13337,7 @@
       <c r="J112" s="18">
         <v>7405</v>
       </c>
-      <c r="K112" s="151">
+      <c r="K112" s="149">
         <v>102297006</v>
       </c>
       <c r="L112" s="57" t="s">
@@ -13384,7 +13378,7 @@
       <c r="J113" s="18">
         <v>7396</v>
       </c>
-      <c r="K113" s="151">
+      <c r="K113" s="149">
         <v>102297006</v>
       </c>
       <c r="L113" s="57" t="s">
@@ -13425,7 +13419,7 @@
       <c r="J114" s="18">
         <v>7395</v>
       </c>
-      <c r="K114" s="151">
+      <c r="K114" s="149">
         <v>102297006</v>
       </c>
       <c r="L114" s="57" t="s">
@@ -13466,7 +13460,7 @@
       <c r="J115" s="18">
         <v>26661</v>
       </c>
-      <c r="K115" s="151">
+      <c r="K115" s="149">
         <v>955009</v>
       </c>
       <c r="L115" s="57" t="s">
@@ -13507,7 +13501,7 @@
       <c r="J116" s="26">
         <v>15703</v>
       </c>
-      <c r="K116" s="151">
+      <c r="K116" s="149">
         <v>34381000</v>
       </c>
       <c r="L116" s="57" t="s">
@@ -13544,7 +13538,7 @@
       <c r="J117" s="18">
         <v>7465</v>
       </c>
-      <c r="K117" s="151">
+      <c r="K117" s="149">
         <v>28700002</v>
       </c>
       <c r="L117" s="57" t="s">
@@ -13581,7 +13575,7 @@
       <c r="J118" s="18">
         <v>7206</v>
       </c>
-      <c r="K118" s="151">
+      <c r="K118" s="149">
         <v>38848004</v>
       </c>
       <c r="L118" s="57" t="s">
@@ -13620,7 +13614,7 @@
       <c r="J119" s="18">
         <v>52590</v>
       </c>
-      <c r="K119" s="151">
+      <c r="K119" s="149">
         <v>7173007</v>
       </c>
       <c r="L119" s="57" t="s">
@@ -13657,7 +13651,7 @@
       <c r="J120" s="18">
         <v>75189</v>
       </c>
-      <c r="K120" s="151">
+      <c r="K120" s="149">
         <v>9284003</v>
       </c>
       <c r="L120" s="57" t="s">
@@ -13696,7 +13690,7 @@
       <c r="J121" s="18">
         <v>54378</v>
       </c>
-      <c r="K121" s="151">
+      <c r="K121" s="149">
         <v>279549004</v>
       </c>
       <c r="L121" s="57" t="s">
@@ -13735,7 +13729,7 @@
       <c r="J122" s="18">
         <v>20292</v>
       </c>
-      <c r="K122" s="151">
+      <c r="K122" s="149">
         <v>74262004</v>
       </c>
       <c r="L122" s="57" t="s">
@@ -13772,7 +13766,7 @@
       <c r="J123" s="18">
         <v>14541</v>
       </c>
-      <c r="K123" s="151">
+      <c r="K123" s="149">
         <v>32713005</v>
       </c>
       <c r="L123" s="57" t="s">
@@ -13811,7 +13805,7 @@
       <c r="J124" s="18">
         <v>67944</v>
       </c>
-      <c r="K124" s="151">
+      <c r="K124" s="149">
         <v>113305005</v>
       </c>
       <c r="L124" s="57" t="s">
@@ -13850,7 +13844,7 @@
       <c r="J125" s="26">
         <v>62000</v>
       </c>
-      <c r="K125" s="151">
+      <c r="K125" s="149">
         <v>83678007</v>
       </c>
       <c r="L125" s="57" t="s">
@@ -13889,7 +13883,7 @@
       <c r="J126" s="26">
         <v>61819</v>
       </c>
-      <c r="K126" s="151">
+      <c r="K126" s="149">
         <v>83678007</v>
       </c>
       <c r="L126" s="57" t="s">
@@ -13930,7 +13924,7 @@
       <c r="J127" s="26">
         <v>67292</v>
       </c>
-      <c r="K127" s="151">
+      <c r="K127" s="149">
         <v>83678007</v>
       </c>
       <c r="L127" s="57" t="s">
@@ -13969,7 +13963,7 @@
       <c r="J128" s="26">
         <v>17740</v>
       </c>
-      <c r="K128" s="151">
+      <c r="K128" s="149">
         <v>71252005</v>
       </c>
       <c r="L128" s="57" t="s">
@@ -14006,7 +14000,7 @@
       <c r="J129" s="18">
         <v>50060</v>
       </c>
-      <c r="K129" s="151">
+      <c r="K129" s="149">
         <v>78904004</v>
       </c>
       <c r="L129" s="57" t="s">
@@ -14045,7 +14039,7 @@
       <c r="J130" s="18">
         <v>25559</v>
       </c>
-      <c r="K130" s="151">
+      <c r="K130" s="149">
         <v>78904004</v>
       </c>
       <c r="L130" s="57" t="s">
@@ -14086,7 +14080,7 @@
       <c r="J131" s="18">
         <v>25558</v>
       </c>
-      <c r="K131" s="151">
+      <c r="K131" s="149">
         <v>78904004</v>
       </c>
       <c r="L131" s="57" t="s">
@@ -14125,7 +14119,7 @@
       <c r="J132" s="22">
         <v>83719</v>
       </c>
-      <c r="K132" s="151">
+      <c r="K132" s="149">
         <v>369387006</v>
       </c>
       <c r="L132" s="57" t="s">
@@ -14160,7 +14154,7 @@
         <v>450</v>
       </c>
       <c r="J133" s="18"/>
-      <c r="K133" s="151">
+      <c r="K133" s="149">
         <v>60075002</v>
       </c>
       <c r="L133" s="57" t="s">
@@ -14201,7 +14195,7 @@
       <c r="J134" s="18">
         <v>13323</v>
       </c>
-      <c r="K134" s="151">
+      <c r="K134" s="149">
         <v>51299004</v>
       </c>
       <c r="L134" s="57" t="s">
@@ -14244,7 +14238,7 @@
       <c r="J135" s="18">
         <v>13322</v>
       </c>
-      <c r="K135" s="151">
+      <c r="K135" s="149">
         <v>51299004</v>
       </c>
       <c r="L135" s="57" t="s">
@@ -14285,7 +14279,7 @@
       <c r="J136" s="18">
         <v>50864</v>
       </c>
-      <c r="K136" s="151">
+      <c r="K136" s="149">
         <v>56193007</v>
       </c>
       <c r="L136" s="57" t="s">
@@ -14326,7 +14320,7 @@
       <c r="J137" s="18">
         <v>50880</v>
       </c>
-      <c r="K137" s="151">
+      <c r="K137" s="149">
         <v>56193007</v>
       </c>
       <c r="L137" s="57" t="s">
@@ -14369,7 +14363,7 @@
       <c r="J138" s="18">
         <v>50879</v>
       </c>
-      <c r="K138" s="151">
+      <c r="K138" s="149">
         <v>56193007</v>
       </c>
       <c r="L138" s="57" t="s">
@@ -14410,7 +14404,7 @@
       <c r="J139" s="18">
         <v>50870</v>
       </c>
-      <c r="K139" s="151">
+      <c r="K139" s="149">
         <v>21161002</v>
       </c>
       <c r="L139" s="57" t="s">
@@ -14451,7 +14445,7 @@
       <c r="J140" s="18">
         <v>50892</v>
       </c>
-      <c r="K140" s="151">
+      <c r="K140" s="149">
         <v>21161002</v>
       </c>
       <c r="L140" s="57" t="s">
@@ -14494,7 +14488,7 @@
       <c r="J141" s="18">
         <v>50870</v>
       </c>
-      <c r="K141" s="151">
+      <c r="K141" s="149">
         <v>21161002</v>
       </c>
       <c r="L141" s="57" t="s">
@@ -14535,7 +14529,7 @@
       <c r="J142" s="18">
         <v>50866</v>
       </c>
-      <c r="K142" s="151">
+      <c r="K142" s="149">
         <v>27612005</v>
       </c>
       <c r="L142" s="57" t="s">
@@ -14576,7 +14570,7 @@
       <c r="J143" s="18">
         <v>50885</v>
       </c>
-      <c r="K143" s="151">
+      <c r="K143" s="149">
         <v>27612005</v>
       </c>
       <c r="L143" s="57" t="s">
@@ -14619,7 +14613,7 @@
       <c r="J144" s="18">
         <v>50884</v>
       </c>
-      <c r="K144" s="151">
+      <c r="K144" s="149">
         <v>27612005</v>
       </c>
       <c r="L144" s="57" t="s">
@@ -14660,7 +14654,7 @@
       <c r="J145" s="18">
         <v>50867</v>
       </c>
-      <c r="K145" s="151">
+      <c r="K145" s="149">
         <v>80622005</v>
       </c>
       <c r="L145" s="57" t="s">
@@ -14701,7 +14695,7 @@
       <c r="J146" s="18">
         <v>50887</v>
       </c>
-      <c r="K146" s="151">
+      <c r="K146" s="149">
         <v>80622005</v>
       </c>
       <c r="L146" s="57" t="s">
@@ -14744,7 +14738,7 @@
       <c r="J147" s="18">
         <v>50886</v>
       </c>
-      <c r="K147" s="151">
+      <c r="K147" s="149">
         <v>80622005</v>
       </c>
       <c r="L147" s="57" t="s">
@@ -14785,7 +14779,7 @@
       <c r="J148" s="18">
         <v>50868</v>
       </c>
-      <c r="K148" s="151">
+      <c r="K148" s="149">
         <v>56052001</v>
       </c>
       <c r="L148" s="57" t="s">
@@ -14826,7 +14820,7 @@
       <c r="J149" s="18">
         <v>50889</v>
       </c>
-      <c r="K149" s="151">
+      <c r="K149" s="149">
         <v>56052001</v>
       </c>
       <c r="L149" s="57" t="s">
@@ -14869,7 +14863,7 @@
       <c r="J150" s="18">
         <v>50888</v>
       </c>
-      <c r="K150" s="151">
+      <c r="K150" s="149">
         <v>56052001</v>
       </c>
       <c r="L150" s="57" t="s">
@@ -14910,7 +14904,7 @@
       <c r="J151" s="18">
         <v>50869</v>
       </c>
-      <c r="K151" s="151">
+      <c r="K151" s="149">
         <v>8598002</v>
       </c>
       <c r="L151" s="57" t="s">
@@ -14951,7 +14945,7 @@
       <c r="J152" s="18">
         <v>50891</v>
       </c>
-      <c r="K152" s="151">
+      <c r="K152" s="149">
         <v>8598002</v>
       </c>
       <c r="L152" s="57" t="s">
@@ -14994,7 +14988,7 @@
       <c r="J153" s="18">
         <v>50890</v>
       </c>
-      <c r="K153" s="151">
+      <c r="K153" s="149">
         <v>8598002</v>
       </c>
       <c r="L153" s="57" t="s">
@@ -15035,7 +15029,7 @@
       <c r="J154" s="18">
         <v>6720</v>
       </c>
-      <c r="K154" s="151">
+      <c r="K154" s="149">
         <v>15119000</v>
       </c>
       <c r="L154" s="57" t="s">
@@ -15076,7 +15070,7 @@
       <c r="J155" s="18">
         <v>50899</v>
       </c>
-      <c r="K155" s="151">
+      <c r="K155" s="149">
         <v>15119000</v>
       </c>
       <c r="L155" s="57" t="s">
@@ -15119,7 +15113,7 @@
       <c r="J156" s="18">
         <v>50897</v>
       </c>
-      <c r="K156" s="151">
+      <c r="K156" s="149">
         <v>15119000</v>
       </c>
       <c r="L156" s="57" t="s">
@@ -15160,7 +15154,7 @@
       <c r="J157" s="18">
         <v>50871</v>
       </c>
-      <c r="K157" s="151">
+      <c r="K157" s="149">
         <v>37899009</v>
       </c>
       <c r="L157" s="57" t="s">
@@ -15201,7 +15195,7 @@
       <c r="J158" s="18">
         <v>50903</v>
       </c>
-      <c r="K158" s="151">
+      <c r="K158" s="149">
         <v>37899009</v>
       </c>
       <c r="L158" s="57" t="s">
@@ -15244,7 +15238,7 @@
       <c r="J159" s="18">
         <v>50901</v>
       </c>
-      <c r="K159" s="151">
+      <c r="K159" s="149">
         <v>37899009</v>
       </c>
       <c r="L159" s="57" t="s">
@@ -15285,7 +15279,7 @@
       <c r="J160" s="18">
         <v>60201</v>
       </c>
-      <c r="K160" s="151">
+      <c r="K160" s="149">
         <v>80169004</v>
       </c>
       <c r="L160" s="57" t="s">
@@ -15326,7 +15320,7 @@
       <c r="J161" s="18">
         <v>60203</v>
       </c>
-      <c r="K161" s="151">
+      <c r="K161" s="149">
         <v>80169004</v>
       </c>
       <c r="L161" s="57" t="s">
@@ -15367,7 +15361,7 @@
       <c r="J162" s="18">
         <v>60202</v>
       </c>
-      <c r="K162" s="151">
+      <c r="K162" s="149">
         <v>80169004</v>
       </c>
       <c r="L162" s="57" t="s">
@@ -15406,7 +15400,7 @@
       <c r="J163" s="18">
         <v>14543</v>
       </c>
-      <c r="K163" s="151">
+      <c r="K163" s="149">
         <v>71854001</v>
       </c>
       <c r="L163" s="57" t="s">
@@ -15445,7 +15439,7 @@
       <c r="J164" s="18">
         <v>14545</v>
       </c>
-      <c r="K164" s="151">
+      <c r="K164" s="149">
         <v>9040008</v>
       </c>
       <c r="L164" s="57" t="s">
@@ -15484,7 +15478,7 @@
       <c r="J165" s="18">
         <v>14547</v>
       </c>
-      <c r="K165" s="151">
+      <c r="K165" s="149">
         <v>32622004</v>
       </c>
       <c r="L165" s="57" t="s">
@@ -15521,7 +15515,7 @@
       <c r="J166" s="18">
         <v>268861</v>
       </c>
-      <c r="K166" s="151">
+      <c r="K166" s="149">
         <v>81745001</v>
       </c>
       <c r="L166" s="57" t="s">
@@ -15562,7 +15556,7 @@
       <c r="J167" s="18">
         <v>14548</v>
       </c>
-      <c r="K167" s="151">
+      <c r="K167" s="149">
         <v>60184004</v>
       </c>
       <c r="L167" s="57" t="s">
@@ -15601,7 +15595,7 @@
       <c r="J168" s="18">
         <v>14546</v>
       </c>
-      <c r="K168" s="151">
+      <c r="K168" s="149">
         <v>485005</v>
       </c>
       <c r="L168" s="57" t="s">
@@ -15640,7 +15634,7 @@
       <c r="J169" s="18">
         <v>58238</v>
       </c>
-      <c r="K169" s="157">
+      <c r="K169" s="155">
         <v>28726007</v>
       </c>
       <c r="L169" s="80" t="s">
@@ -15681,7 +15675,7 @@
       <c r="J170" s="18">
         <v>58240</v>
       </c>
-      <c r="K170" s="157">
+      <c r="K170" s="155">
         <v>28726007</v>
       </c>
       <c r="L170" s="80" t="s">
@@ -15724,7 +15718,7 @@
       <c r="J171" s="18">
         <v>58239</v>
       </c>
-      <c r="K171" s="157">
+      <c r="K171" s="155">
         <v>28726007</v>
       </c>
       <c r="L171" s="80" t="s">
@@ -15765,7 +15759,7 @@
       <c r="J172" s="26">
         <v>52890</v>
       </c>
-      <c r="K172" s="151">
+      <c r="K172" s="149">
         <v>36743005</v>
       </c>
       <c r="L172" s="57" t="s">
@@ -15804,7 +15798,7 @@
       <c r="J173" s="18">
         <v>9615</v>
       </c>
-      <c r="K173" s="151">
+      <c r="K173" s="149">
         <v>8600008</v>
       </c>
       <c r="L173" s="57" t="s">
@@ -15843,7 +15837,7 @@
       <c r="J174" s="18">
         <v>46661</v>
       </c>
-      <c r="K174" s="151">
+      <c r="K174" s="149">
         <v>28276008</v>
       </c>
       <c r="L174" s="57" t="s">
@@ -15880,7 +15874,7 @@
       <c r="J175" s="26">
         <v>7202</v>
       </c>
-      <c r="K175" s="151">
+      <c r="K175" s="149">
         <v>28231008</v>
       </c>
       <c r="L175" s="57" t="s">
@@ -15917,7 +15911,7 @@
       <c r="J176" s="26">
         <v>45643</v>
       </c>
-      <c r="K176" s="151">
+      <c r="K176" s="149">
         <v>71934003</v>
       </c>
       <c r="L176" s="57" t="s">
@@ -15956,7 +15950,7 @@
       <c r="J177" s="26">
         <v>59101</v>
       </c>
-      <c r="K177" s="151">
+      <c r="K177" s="149">
         <v>13561001</v>
       </c>
       <c r="L177" s="57" t="s">
@@ -15997,7 +15991,7 @@
       <c r="J178" s="18">
         <v>53644</v>
       </c>
-      <c r="K178" s="151">
+      <c r="K178" s="149">
         <v>117590005</v>
       </c>
       <c r="L178" s="57" t="s">
@@ -16038,7 +16032,7 @@
       <c r="J179" s="18">
         <v>53643</v>
       </c>
-      <c r="K179" s="151">
+      <c r="K179" s="149">
         <v>117590005</v>
       </c>
       <c r="L179" s="57" t="s">
@@ -16081,7 +16075,7 @@
       <c r="J180" s="18">
         <v>52781</v>
       </c>
-      <c r="K180" s="151">
+      <c r="K180" s="149">
         <v>117590005</v>
       </c>
       <c r="L180" s="57" t="s">
@@ -16124,7 +16118,7 @@
       <c r="J181" s="18">
         <v>61021</v>
       </c>
-      <c r="K181" s="151">
+      <c r="K181" s="149">
         <v>117590005</v>
       </c>
       <c r="L181" s="57" t="s">
@@ -16167,7 +16161,7 @@
       <c r="J182" s="18">
         <v>61020</v>
       </c>
-      <c r="K182" s="151">
+      <c r="K182" s="149">
         <v>117590005</v>
       </c>
       <c r="L182" s="57" t="s">
@@ -16210,7 +16204,7 @@
       <c r="J183" s="18">
         <v>60909</v>
       </c>
-      <c r="K183" s="151">
+      <c r="K183" s="149">
         <v>117590005</v>
       </c>
       <c r="L183" s="57" t="s">
@@ -16253,7 +16247,7 @@
       <c r="J184" s="18">
         <v>56513</v>
       </c>
-      <c r="K184" s="151">
+      <c r="K184" s="149">
         <v>117590005</v>
       </c>
       <c r="L184" s="57" t="s">
@@ -16296,7 +16290,7 @@
       <c r="J185" s="18">
         <v>56515</v>
       </c>
-      <c r="K185" s="151">
+      <c r="K185" s="149">
         <v>117590005</v>
       </c>
       <c r="L185" s="57" t="s">
@@ -16339,7 +16333,7 @@
       <c r="J186" s="18">
         <v>56514</v>
       </c>
-      <c r="K186" s="151">
+      <c r="K186" s="149">
         <v>117590005</v>
       </c>
       <c r="L186" s="57" t="s">
@@ -16378,7 +16372,7 @@
       <c r="J187" s="26">
         <v>13890</v>
       </c>
-      <c r="K187" s="151">
+      <c r="K187" s="149">
         <v>111002</v>
       </c>
       <c r="L187" s="57" t="s">
@@ -16415,7 +16409,7 @@
       <c r="J188" s="26">
         <v>24901</v>
       </c>
-      <c r="K188" s="151">
+      <c r="K188" s="149">
         <v>127949000</v>
       </c>
       <c r="L188" s="57" t="s">
@@ -16454,7 +16448,7 @@
       <c r="J189" s="26">
         <v>24903</v>
       </c>
-      <c r="K189" s="151">
+      <c r="K189" s="149">
         <v>127949000</v>
       </c>
       <c r="L189" s="57" t="s">
@@ -16495,7 +16489,7 @@
       <c r="J190" s="26">
         <v>24902</v>
       </c>
-      <c r="K190" s="151">
+      <c r="K190" s="149">
         <v>127949000</v>
       </c>
       <c r="L190" s="57" t="s">
@@ -16534,7 +16528,7 @@
       <c r="J191" s="18">
         <v>7131</v>
       </c>
-      <c r="K191" s="151">
+      <c r="K191" s="149">
         <v>32849002</v>
       </c>
       <c r="L191" s="57" t="s">
@@ -16573,7 +16567,7 @@
       <c r="J192" s="18">
         <v>9397</v>
       </c>
-      <c r="K192" s="151">
+      <c r="K192" s="149">
         <v>32849002</v>
       </c>
       <c r="L192" s="57" t="s">
@@ -16614,7 +16608,7 @@
       <c r="J193" s="18">
         <v>9396</v>
       </c>
-      <c r="K193" s="151">
+      <c r="K193" s="149">
         <v>32849002</v>
       </c>
       <c r="L193" s="57" t="s">
@@ -16653,7 +16647,7 @@
         <v>1445</v>
       </c>
       <c r="J194" s="18"/>
-      <c r="K194" s="151">
+      <c r="K194" s="149">
         <v>32849002</v>
       </c>
       <c r="L194" s="57" t="s">
@@ -16694,7 +16688,7 @@
       <c r="J195" s="26">
         <v>320440</v>
       </c>
-      <c r="K195" s="151">
+      <c r="K195" s="149">
         <v>88481005</v>
       </c>
       <c r="L195" s="57" t="s">
@@ -16733,7 +16727,7 @@
       <c r="J196" s="26">
         <v>320442</v>
       </c>
-      <c r="K196" s="151">
+      <c r="K196" s="149">
         <v>385296007</v>
       </c>
       <c r="L196" s="57" t="s">
@@ -16774,7 +16768,7 @@
       <c r="J197" s="18">
         <v>12515</v>
       </c>
-      <c r="K197" s="151">
+      <c r="K197" s="149">
         <v>81745001</v>
       </c>
       <c r="L197" s="57" t="s">
@@ -16817,7 +16811,7 @@
       <c r="J198" s="18">
         <v>12514</v>
       </c>
-      <c r="K198" s="151">
+      <c r="K198" s="149">
         <v>81745001</v>
       </c>
       <c r="L198" s="57" t="s">
@@ -16858,7 +16852,7 @@
       <c r="J199" s="26">
         <v>9607</v>
       </c>
-      <c r="K199" s="151">
+      <c r="K199" s="149">
         <v>9875009</v>
       </c>
       <c r="L199" s="57" t="s">
@@ -16897,7 +16891,7 @@
       <c r="J200" s="26">
         <v>9603</v>
       </c>
-      <c r="K200" s="151">
+      <c r="K200" s="149">
         <v>69748006</v>
       </c>
       <c r="L200" s="57" t="s">
@@ -16938,7 +16932,7 @@
       <c r="J201" s="18">
         <v>32843</v>
       </c>
-      <c r="K201" s="158">
+      <c r="K201" s="156">
         <v>2812003</v>
       </c>
       <c r="L201" s="105" t="s">
@@ -16983,7 +16977,7 @@
       <c r="J202" s="18">
         <v>32842</v>
       </c>
-      <c r="K202" s="158">
+      <c r="K202" s="156">
         <v>2812003</v>
       </c>
       <c r="L202" s="105" t="s">
@@ -17028,7 +17022,7 @@
       <c r="J203" s="18">
         <v>35180</v>
       </c>
-      <c r="K203" s="151">
+      <c r="K203" s="149">
         <v>24136001</v>
       </c>
       <c r="L203" s="57" t="s">
@@ -17071,7 +17065,7 @@
       <c r="J204" s="18">
         <v>35179</v>
       </c>
-      <c r="K204" s="151">
+      <c r="K204" s="149">
         <v>24136001</v>
       </c>
       <c r="L204" s="57" t="s">
@@ -17112,7 +17106,7 @@
       <c r="J205" s="18">
         <v>24475</v>
       </c>
-      <c r="K205" s="151">
+      <c r="K205" s="149">
         <v>71341001</v>
       </c>
       <c r="L205" s="57" t="s">
@@ -17153,7 +17147,7 @@
       <c r="J206" s="18">
         <v>24475</v>
       </c>
-      <c r="K206" s="151">
+      <c r="K206" s="149">
         <v>71341001</v>
       </c>
       <c r="L206" s="57" t="s">
@@ -17194,7 +17188,7 @@
       <c r="J207" s="18">
         <v>42386</v>
       </c>
-      <c r="K207" s="151">
+      <c r="K207" s="149">
         <v>29627003</v>
       </c>
       <c r="L207" s="57" t="s">
@@ -17235,7 +17229,7 @@
       <c r="J208" s="18">
         <v>42386</v>
       </c>
-      <c r="K208" s="159">
+      <c r="K208" s="157">
         <v>29627003</v>
       </c>
       <c r="L208" s="121" t="s">
@@ -17245,7 +17239,7 @@
         <v>2038</v>
       </c>
       <c r="N208" s="128" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1" ht="17">
@@ -17280,7 +17274,7 @@
       <c r="J209" s="18">
         <v>42387</v>
       </c>
-      <c r="K209" s="151">
+      <c r="K209" s="149">
         <v>29627003</v>
       </c>
       <c r="L209" s="57" t="s">
@@ -17323,7 +17317,7 @@
       <c r="J210" s="18">
         <v>24474</v>
       </c>
-      <c r="K210" s="151">
+      <c r="K210" s="149">
         <v>71341001</v>
       </c>
       <c r="L210" s="57" t="s">
@@ -17366,7 +17360,7 @@
       <c r="J211" s="18">
         <v>32849</v>
       </c>
-      <c r="K211" s="151">
+      <c r="K211" s="149">
         <v>41111004</v>
       </c>
       <c r="L211" s="57" t="s">
@@ -17409,7 +17403,7 @@
       <c r="J212" s="18">
         <v>32848</v>
       </c>
-      <c r="K212" s="151">
+      <c r="K212" s="149">
         <v>41111004</v>
       </c>
       <c r="L212" s="57" t="s">
@@ -17450,7 +17444,7 @@
       <c r="J213" s="18">
         <v>9611</v>
       </c>
-      <c r="K213" s="151">
+      <c r="K213" s="149">
         <v>71341001</v>
       </c>
       <c r="L213" s="57" t="s">
@@ -17491,7 +17485,7 @@
       <c r="J214" s="18">
         <v>24479</v>
       </c>
-      <c r="K214" s="151">
+      <c r="K214" s="149">
         <v>87342007</v>
       </c>
       <c r="L214" s="57" t="s">
@@ -17532,7 +17526,7 @@
       <c r="J215" s="18">
         <v>24481</v>
       </c>
-      <c r="K215" s="151">
+      <c r="K215" s="149">
         <v>87342007</v>
       </c>
       <c r="L215" s="57" t="s">
@@ -17575,7 +17569,7 @@
       <c r="J216" s="18">
         <v>24480</v>
       </c>
-      <c r="K216" s="151">
+      <c r="K216" s="149">
         <v>87342007</v>
       </c>
       <c r="L216" s="57" t="s">
@@ -17614,7 +17608,7 @@
       <c r="J217" s="26">
         <v>55414</v>
       </c>
-      <c r="K217" s="151">
+      <c r="K217" s="149">
         <v>1307006</v>
       </c>
       <c r="L217" s="57" t="s">
@@ -17649,7 +17643,7 @@
         <v>1992</v>
       </c>
       <c r="J218" s="26"/>
-      <c r="K218" s="153">
+      <c r="K218" s="151">
         <v>3711007</v>
       </c>
       <c r="L218" s="75" t="s">
@@ -17684,7 +17678,7 @@
         <v>1450</v>
       </c>
       <c r="J219" s="26"/>
-      <c r="K219" s="153">
+      <c r="K219" s="151">
         <v>3711007</v>
       </c>
       <c r="L219" s="75" t="s">
@@ -17725,7 +17719,7 @@
       <c r="J220" s="26">
         <v>55023</v>
       </c>
-      <c r="K220" s="153">
+      <c r="K220" s="151">
         <v>90228003</v>
       </c>
       <c r="L220" s="57" t="s">
@@ -17762,15 +17756,15 @@
         <v>2011</v>
       </c>
       <c r="J221" s="26"/>
-      <c r="K221" s="151">
+      <c r="K221" s="149">
         <v>23451007</v>
       </c>
-      <c r="L221" s="143" t="s">
-        <v>2540</v>
+      <c r="L221" s="141" t="s">
+        <v>2537</v>
       </c>
       <c r="M221" s="10"/>
       <c r="N221" s="128" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="222" spans="1:14" s="1" customFormat="1" ht="34">
@@ -17805,11 +17799,11 @@
       <c r="J222" s="26">
         <v>15629</v>
       </c>
-      <c r="K222" s="151">
+      <c r="K222" s="149">
         <v>23451007</v>
       </c>
-      <c r="L222" s="143" t="s">
-        <v>2540</v>
+      <c r="L222" s="141" t="s">
+        <v>2537</v>
       </c>
       <c r="M222" s="10" t="s">
         <v>2037</v>
@@ -17848,11 +17842,11 @@
       <c r="J223" s="26">
         <v>15630</v>
       </c>
-      <c r="K223" s="151">
+      <c r="K223" s="149">
         <v>23451007</v>
       </c>
-      <c r="L223" s="143" t="s">
-        <v>2540</v>
+      <c r="L223" s="141" t="s">
+        <v>2537</v>
       </c>
       <c r="M223" s="10" t="s">
         <v>2038</v>
@@ -17887,7 +17881,7 @@
       <c r="J224" s="26">
         <v>7088</v>
       </c>
-      <c r="K224" s="151">
+      <c r="K224" s="149">
         <v>80891009</v>
       </c>
       <c r="L224" s="57" t="s">
@@ -17928,7 +17922,7 @@
       <c r="J225" s="26">
         <v>59103</v>
       </c>
-      <c r="K225" s="151">
+      <c r="K225" s="149">
         <v>13561001</v>
       </c>
       <c r="L225" s="57" t="s">
@@ -17971,7 +17965,7 @@
       <c r="J226" s="26">
         <v>59102</v>
       </c>
-      <c r="K226" s="151">
+      <c r="K226" s="149">
         <v>13561001</v>
       </c>
       <c r="L226" s="57" t="s">
@@ -18012,17 +18006,17 @@
         <v>1836</v>
       </c>
       <c r="J227" s="26"/>
-      <c r="K227" s="159">
+      <c r="K227" s="157">
         <v>372073000</v>
       </c>
       <c r="L227" s="121" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="M227" s="10" t="s">
         <v>2121</v>
       </c>
       <c r="N227" s="128" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="228" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -18057,7 +18051,7 @@
       <c r="J228" s="26">
         <v>59805</v>
       </c>
-      <c r="K228" s="151">
+      <c r="K228" s="149">
         <v>88481005</v>
       </c>
       <c r="L228" s="57" t="s">
@@ -18100,7 +18094,7 @@
       <c r="J229" s="26">
         <v>59804</v>
       </c>
-      <c r="K229" s="151">
+      <c r="K229" s="149">
         <v>88481005</v>
       </c>
       <c r="L229" s="57" t="s">
@@ -18141,7 +18135,7 @@
       <c r="J230" s="26">
         <v>275020</v>
       </c>
-      <c r="K230" s="151">
+      <c r="K230" s="149">
         <v>5366008</v>
       </c>
       <c r="L230" s="57" t="s">
@@ -18182,7 +18176,7 @@
       <c r="J231" s="26">
         <v>59803</v>
       </c>
-      <c r="K231" s="151">
+      <c r="K231" s="149">
         <v>385296007</v>
       </c>
       <c r="L231" s="57" t="s">
@@ -18225,7 +18219,7 @@
       <c r="J232" s="26">
         <v>59802</v>
       </c>
-      <c r="K232" s="151">
+      <c r="K232" s="149">
         <v>385296007</v>
       </c>
       <c r="L232" s="57" t="s">
@@ -18266,7 +18260,7 @@
       <c r="J233" s="26">
         <v>62008</v>
       </c>
-      <c r="K233" s="151">
+      <c r="K233" s="149">
         <v>67923007</v>
       </c>
       <c r="L233" s="57" t="s">
@@ -18303,7 +18297,7 @@
       <c r="J234" s="26">
         <v>7208</v>
       </c>
-      <c r="K234" s="151">
+      <c r="K234" s="149">
         <v>34516001</v>
       </c>
       <c r="L234" s="57" t="s">
@@ -18342,7 +18336,7 @@
       <c r="J235" s="18">
         <v>7207</v>
       </c>
-      <c r="K235" s="151">
+      <c r="K235" s="149">
         <v>21306003</v>
       </c>
       <c r="L235" s="57" t="s">
@@ -18377,7 +18371,7 @@
         <v>1456</v>
       </c>
       <c r="J236" s="18"/>
-      <c r="K236" s="151">
+      <c r="K236" s="149">
         <v>90228003</v>
       </c>
       <c r="L236" s="57" t="s">
@@ -18414,7 +18408,7 @@
       <c r="J237" s="26">
         <v>35289</v>
       </c>
-      <c r="K237" s="151">
+      <c r="K237" s="149">
         <v>16953009</v>
       </c>
       <c r="L237" s="57" t="s">
@@ -18453,7 +18447,7 @@
       <c r="J238" s="18">
         <v>25912</v>
       </c>
-      <c r="K238" s="151">
+      <c r="K238" s="149">
         <v>85537004</v>
       </c>
       <c r="L238" s="57" t="s">
@@ -18488,7 +18482,7 @@
       </c>
       <c r="I239" s="25"/>
       <c r="J239" s="26"/>
-      <c r="K239" s="151">
+      <c r="K239" s="149">
         <v>711190000</v>
       </c>
       <c r="L239" s="57" t="s">
@@ -18525,7 +18519,7 @@
       </c>
       <c r="I240" s="25"/>
       <c r="J240" s="26"/>
-      <c r="K240" s="151">
+      <c r="K240" s="149">
         <v>711190000</v>
       </c>
       <c r="L240" s="57" t="s">
@@ -18562,7 +18556,7 @@
       </c>
       <c r="I241" s="116"/>
       <c r="J241" s="117"/>
-      <c r="K241" s="160">
+      <c r="K241" s="158">
         <v>39352004</v>
       </c>
       <c r="L241" s="118" t="s">
@@ -18603,7 +18597,7 @@
       <c r="J242" s="26">
         <v>54832</v>
       </c>
-      <c r="K242" s="151">
+      <c r="K242" s="149">
         <v>53620006</v>
       </c>
       <c r="L242" s="57" t="s">
@@ -18642,7 +18636,7 @@
       <c r="J243" s="26">
         <v>61819</v>
       </c>
-      <c r="K243" s="151">
+      <c r="K243" s="149">
         <v>6566002</v>
       </c>
       <c r="L243" s="57" t="s">
@@ -18652,7 +18646,7 @@
         <v>2037</v>
       </c>
       <c r="N243" s="128" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="244" spans="1:14" s="1" customFormat="1" ht="34">
@@ -18685,7 +18679,7 @@
       <c r="J244" s="26">
         <v>67292</v>
       </c>
-      <c r="K244" s="151">
+      <c r="K244" s="149">
         <v>6566002</v>
       </c>
       <c r="L244" s="57" t="s">
@@ -18695,7 +18689,7 @@
         <v>2038</v>
       </c>
       <c r="N244" s="128" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="245" spans="1:14" s="1" customFormat="1" ht="34">
@@ -18728,7 +18722,7 @@
       <c r="J245" s="18">
         <v>15581</v>
       </c>
-      <c r="K245" s="151">
+      <c r="K245" s="149">
         <v>50403003</v>
       </c>
       <c r="L245" s="57" t="s">
@@ -18769,7 +18763,7 @@
       <c r="J246" s="18">
         <v>15610</v>
       </c>
-      <c r="K246" s="151">
+      <c r="K246" s="149">
         <v>74033008</v>
       </c>
       <c r="L246" s="57" t="s">
@@ -18812,7 +18806,7 @@
       <c r="J247" s="26">
         <v>275024</v>
       </c>
-      <c r="K247" s="151">
+      <c r="K247" s="149">
         <v>5366008</v>
       </c>
       <c r="L247" s="57" t="s">
@@ -18855,7 +18849,7 @@
       <c r="J248" s="26">
         <v>275022</v>
       </c>
-      <c r="K248" s="151">
+      <c r="K248" s="149">
         <v>5366008</v>
       </c>
       <c r="L248" s="57" t="s">
@@ -18898,7 +18892,7 @@
       <c r="J249" s="26">
         <v>23131</v>
       </c>
-      <c r="K249" s="151">
+      <c r="K249" s="149">
         <v>85050009</v>
       </c>
       <c r="L249" s="57" t="s">
@@ -18941,7 +18935,7 @@
       <c r="J250" s="26">
         <v>23130</v>
       </c>
-      <c r="K250" s="151">
+      <c r="K250" s="149">
         <v>85050009</v>
       </c>
       <c r="L250" s="57" t="s">
@@ -18982,7 +18976,7 @@
       <c r="J251" s="18">
         <v>264815</v>
       </c>
-      <c r="K251" s="151">
+      <c r="K251" s="149">
         <v>64033007</v>
       </c>
       <c r="L251" s="57" t="s">
@@ -19021,7 +19015,7 @@
       <c r="J252" s="18">
         <v>24974</v>
       </c>
-      <c r="K252" s="151">
+      <c r="K252" s="149">
         <v>72696002</v>
       </c>
       <c r="L252" s="57" t="s">
@@ -19060,15 +19054,15 @@
       <c r="J253" s="18">
         <v>54880</v>
       </c>
-      <c r="K253" s="151">
+      <c r="K253" s="149">
         <v>81502006</v>
       </c>
-      <c r="L253" s="142" t="s">
-        <v>2554</v>
+      <c r="L253" s="140" t="s">
+        <v>2551</v>
       </c>
       <c r="M253" s="103"/>
       <c r="N253" s="128" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="254" spans="1:14" s="1" customFormat="1" ht="17">
@@ -19099,7 +19093,7 @@
       <c r="J254" s="18">
         <v>55097</v>
       </c>
-      <c r="K254" s="151">
+      <c r="K254" s="149">
         <v>4596009</v>
       </c>
       <c r="L254" s="57" t="s">
@@ -19136,7 +19130,7 @@
       <c r="J255" s="18">
         <v>55476</v>
       </c>
-      <c r="K255" s="151">
+      <c r="K255" s="149">
         <v>86483002</v>
       </c>
       <c r="L255" s="57" t="s">
@@ -19175,7 +19169,7 @@
       <c r="J256" s="26">
         <v>35295</v>
       </c>
-      <c r="K256" s="151">
+      <c r="K256" s="149">
         <v>16953009</v>
       </c>
       <c r="L256" s="57" t="s">
@@ -19216,7 +19210,7 @@
       <c r="J257" s="26">
         <v>35294</v>
       </c>
-      <c r="K257" s="151">
+      <c r="K257" s="149">
         <v>16953009</v>
       </c>
       <c r="L257" s="57" t="s">
@@ -19257,7 +19251,7 @@
       <c r="J258" s="18">
         <v>58241</v>
       </c>
-      <c r="K258" s="151">
+      <c r="K258" s="149">
         <v>78076003</v>
       </c>
       <c r="L258" s="57" t="s">
@@ -19298,7 +19292,7 @@
       <c r="J259" s="18">
         <v>25929</v>
       </c>
-      <c r="K259" s="151">
+      <c r="K259" s="149">
         <v>85537004</v>
       </c>
       <c r="L259" s="57" t="s">
@@ -19341,7 +19335,7 @@
       <c r="J260" s="26">
         <v>25927</v>
       </c>
-      <c r="K260" s="151">
+      <c r="K260" s="149">
         <v>85537004</v>
       </c>
       <c r="L260" s="57" t="s">
@@ -19382,7 +19376,7 @@
       <c r="J261" s="18">
         <v>16520</v>
       </c>
-      <c r="K261" s="151">
+      <c r="K261" s="149">
         <v>6544009</v>
       </c>
       <c r="L261" s="57" t="s">
@@ -19419,7 +19413,7 @@
       <c r="J262" s="18">
         <v>59815</v>
       </c>
-      <c r="K262" s="151">
+      <c r="K262" s="149">
         <v>81083006</v>
       </c>
       <c r="L262" s="75" t="s">
@@ -19460,7 +19454,7 @@
       <c r="J263" s="26">
         <v>54834</v>
       </c>
-      <c r="K263" s="151">
+      <c r="K263" s="149">
         <v>53620006</v>
       </c>
       <c r="L263" s="57" t="s">
@@ -19503,7 +19497,7 @@
       <c r="J264" s="26">
         <v>54833</v>
       </c>
-      <c r="K264" s="151">
+      <c r="K264" s="149">
         <v>53620006</v>
       </c>
       <c r="L264" s="57" t="s">
@@ -19542,7 +19536,7 @@
       <c r="J265" s="18">
         <v>7197</v>
       </c>
-      <c r="K265" s="151">
+      <c r="K265" s="149">
         <v>10200004</v>
       </c>
       <c r="L265" s="57" t="s">
@@ -19583,7 +19577,7 @@
       <c r="J266" s="18">
         <v>15584</v>
       </c>
-      <c r="K266" s="151">
+      <c r="K266" s="149">
         <v>50403003</v>
       </c>
       <c r="L266" s="57" t="s">
@@ -19626,7 +19620,7 @@
       <c r="J267" s="18">
         <v>15583</v>
       </c>
-      <c r="K267" s="151">
+      <c r="K267" s="149">
         <v>50403003</v>
       </c>
       <c r="L267" s="57" t="s">
@@ -19669,7 +19663,7 @@
       <c r="J268" s="18">
         <v>15942</v>
       </c>
-      <c r="K268" s="151">
+      <c r="K268" s="149">
         <v>74033008</v>
       </c>
       <c r="L268" s="57" t="s">
@@ -19712,7 +19706,7 @@
       <c r="J269" s="18">
         <v>15941</v>
       </c>
-      <c r="K269" s="151">
+      <c r="K269" s="149">
         <v>74033008</v>
       </c>
       <c r="L269" s="57" t="s">
@@ -19753,7 +19747,7 @@
       <c r="J270" s="18">
         <v>61824</v>
       </c>
-      <c r="K270" s="151">
+      <c r="K270" s="149">
         <v>83251001</v>
       </c>
       <c r="L270" s="57" t="s">
@@ -19794,7 +19788,7 @@
       <c r="J271" s="18">
         <v>7205</v>
       </c>
-      <c r="K271" s="151">
+      <c r="K271" s="149">
         <v>64033007</v>
       </c>
       <c r="L271" s="57" t="s">
@@ -19837,7 +19831,7 @@
       <c r="J272" s="18">
         <v>15579</v>
       </c>
-      <c r="K272" s="151">
+      <c r="K272" s="149">
         <v>25990002</v>
       </c>
       <c r="L272" s="57" t="s">
@@ -19880,7 +19874,7 @@
       <c r="J273" s="18">
         <v>15578</v>
       </c>
-      <c r="K273" s="151">
+      <c r="K273" s="149">
         <v>25990002</v>
       </c>
       <c r="L273" s="57" t="s">
@@ -19923,7 +19917,7 @@
       <c r="J274" s="18">
         <v>7204</v>
       </c>
-      <c r="K274" s="151">
+      <c r="K274" s="149">
         <v>64033007</v>
       </c>
       <c r="L274" s="57" t="s">
@@ -19964,7 +19958,7 @@
       <c r="J275" s="18">
         <v>67325</v>
       </c>
-      <c r="K275" s="151">
+      <c r="K275" s="149">
         <v>31065004</v>
       </c>
       <c r="L275" s="57" t="s">
@@ -20003,7 +19997,7 @@
       <c r="J276" s="18">
         <v>61826</v>
       </c>
-      <c r="K276" s="151">
+      <c r="K276" s="149">
         <v>16630005</v>
       </c>
       <c r="L276" s="57" t="s">
@@ -20042,7 +20036,7 @@
       <c r="J277" s="18">
         <v>24978</v>
       </c>
-      <c r="K277" s="151">
+      <c r="K277" s="149">
         <v>72696002</v>
       </c>
       <c r="L277" s="57" t="s">
@@ -20083,7 +20077,7 @@
       <c r="J278" s="18">
         <v>24977</v>
       </c>
-      <c r="K278" s="151">
+      <c r="K278" s="149">
         <v>72696002</v>
       </c>
       <c r="L278" s="57" t="s">
@@ -20124,7 +20118,7 @@
       <c r="J279" s="18">
         <v>61825</v>
       </c>
-      <c r="K279" s="151">
+      <c r="K279" s="149">
         <v>78277001</v>
       </c>
       <c r="L279" s="57" t="s">
@@ -20161,7 +20155,7 @@
       <c r="J280" s="18">
         <v>9826</v>
       </c>
-      <c r="K280" s="151">
+      <c r="K280" s="149">
         <v>72410000</v>
       </c>
       <c r="L280" s="57" t="s">
@@ -20198,7 +20192,7 @@
       <c r="J281" s="18">
         <v>30316</v>
       </c>
-      <c r="K281" s="151">
+      <c r="K281" s="149">
         <v>71616004</v>
       </c>
       <c r="L281" s="57" t="s">
@@ -20237,7 +20231,7 @@
       <c r="J282" s="18">
         <v>46620</v>
       </c>
-      <c r="K282" s="151">
+      <c r="K282" s="149">
         <v>4866005</v>
       </c>
       <c r="L282" s="57" t="s">
@@ -20278,7 +20272,7 @@
       <c r="J283" s="18">
         <v>58243</v>
       </c>
-      <c r="K283" s="151">
+      <c r="K283" s="149">
         <v>78076003</v>
       </c>
       <c r="L283" s="57" t="s">
@@ -20321,7 +20315,7 @@
       <c r="J284" s="18">
         <v>58242</v>
       </c>
-      <c r="K284" s="151">
+      <c r="K284" s="149">
         <v>78076003</v>
       </c>
       <c r="L284" s="57" t="s">
@@ -20362,7 +20356,7 @@
       <c r="J285" s="18">
         <v>48996</v>
       </c>
-      <c r="K285" s="151">
+      <c r="K285" s="149">
         <v>79368004</v>
       </c>
       <c r="L285" s="57" t="s">
@@ -20401,7 +20395,7 @@
       <c r="J286" s="18">
         <v>49007</v>
       </c>
-      <c r="K286" s="151">
+      <c r="K286" s="149">
         <v>52927003</v>
       </c>
       <c r="L286" s="57" t="s">
@@ -20442,7 +20436,7 @@
       <c r="J287" s="26">
         <v>54878</v>
       </c>
-      <c r="K287" s="151">
+      <c r="K287" s="149">
         <v>71836000</v>
       </c>
       <c r="L287" s="57" t="s">
@@ -20479,7 +20473,7 @@
       <c r="J288" s="18">
         <v>5034</v>
       </c>
-      <c r="K288" s="152">
+      <c r="K288" s="150">
         <v>59441001</v>
       </c>
       <c r="L288" s="80" t="s">
@@ -20518,7 +20512,7 @@
       <c r="J289" s="18">
         <v>23394</v>
       </c>
-      <c r="K289" s="151">
+      <c r="K289" s="149">
         <v>16051009</v>
       </c>
       <c r="L289" s="76" t="s">
@@ -20559,7 +20553,7 @@
       <c r="J290" s="18">
         <v>73265</v>
       </c>
-      <c r="K290" s="151">
+      <c r="K290" s="149">
         <v>16051009</v>
       </c>
       <c r="L290" s="76" t="s">
@@ -20602,7 +20596,7 @@
       <c r="J291" s="18">
         <v>73264</v>
       </c>
-      <c r="K291" s="151">
+      <c r="K291" s="149">
         <v>16051009</v>
       </c>
       <c r="L291" s="76" t="s">
@@ -20645,7 +20639,7 @@
       <c r="J292" s="18">
         <v>73263</v>
       </c>
-      <c r="K292" s="151">
+      <c r="K292" s="149">
         <v>16051009</v>
       </c>
       <c r="L292" s="76" t="s">
@@ -20688,7 +20682,7 @@
       <c r="J293" s="18">
         <v>73262</v>
       </c>
-      <c r="K293" s="151">
+      <c r="K293" s="149">
         <v>16051009</v>
       </c>
       <c r="L293" s="76" t="s">
@@ -20729,7 +20723,7 @@
       <c r="J294" s="18">
         <v>233482</v>
       </c>
-      <c r="K294" s="151">
+      <c r="K294" s="149">
         <v>283001</v>
       </c>
       <c r="L294" s="76" t="s">
@@ -20768,7 +20762,7 @@
       <c r="J295" s="18">
         <v>73250</v>
       </c>
-      <c r="K295" s="152">
+      <c r="K295" s="150">
         <v>68171009</v>
       </c>
       <c r="L295" s="80" t="s">
@@ -20811,7 +20805,7 @@
       <c r="J296" s="18">
         <v>276001</v>
       </c>
-      <c r="K296" s="152">
+      <c r="K296" s="150">
         <v>68171009</v>
       </c>
       <c r="L296" s="57" t="s">
@@ -20854,7 +20848,7 @@
       <c r="J297" s="18">
         <v>275999</v>
       </c>
-      <c r="K297" s="151">
+      <c r="K297" s="149">
         <v>68171009</v>
       </c>
       <c r="L297" s="57" t="s">
@@ -20897,7 +20891,7 @@
       <c r="J298" s="18">
         <v>276005</v>
       </c>
-      <c r="K298" s="151">
+      <c r="K298" s="149">
         <v>68171009</v>
       </c>
       <c r="L298" s="57" t="s">
@@ -20940,7 +20934,7 @@
       <c r="J299" s="18">
         <v>276003</v>
       </c>
-      <c r="K299" s="151">
+      <c r="K299" s="149">
         <v>68171009</v>
       </c>
       <c r="L299" s="57" t="s">
@@ -20983,7 +20977,7 @@
       <c r="J300" s="18">
         <v>276009</v>
       </c>
-      <c r="K300" s="151">
+      <c r="K300" s="149">
         <v>68171009</v>
       </c>
       <c r="L300" s="57" t="s">
@@ -21026,7 +21020,7 @@
       <c r="J301" s="18">
         <v>276007</v>
       </c>
-      <c r="K301" s="151">
+      <c r="K301" s="149">
         <v>68171009</v>
       </c>
       <c r="L301" s="57" t="s">
@@ -21069,7 +21063,7 @@
       <c r="J302" s="18">
         <v>73256</v>
       </c>
-      <c r="K302" s="151">
+      <c r="K302" s="149">
         <v>33770006</v>
       </c>
       <c r="L302" s="76" t="s">
@@ -21112,7 +21106,7 @@
       <c r="J303" s="18">
         <v>73255</v>
       </c>
-      <c r="K303" s="151">
+      <c r="K303" s="149">
         <v>33770006</v>
       </c>
       <c r="L303" s="76" t="s">
@@ -21153,7 +21147,7 @@
       <c r="J304" s="18">
         <v>233458</v>
       </c>
-      <c r="K304" s="151">
+      <c r="K304" s="149">
         <v>33770006</v>
       </c>
       <c r="L304" s="76" t="s">
@@ -21194,7 +21188,7 @@
       <c r="J305" s="18">
         <v>73253</v>
       </c>
-      <c r="K305" s="151">
+      <c r="K305" s="149">
         <v>69691007</v>
       </c>
       <c r="L305" s="57" t="s">
@@ -21237,7 +21231,7 @@
       <c r="J306" s="18">
         <v>73252</v>
       </c>
-      <c r="K306" s="151">
+      <c r="K306" s="149">
         <v>69691007</v>
       </c>
       <c r="L306" s="57" t="s">
@@ -21278,7 +21272,7 @@
       <c r="J307" s="18">
         <v>233446</v>
       </c>
-      <c r="K307" s="152">
+      <c r="K307" s="150">
         <v>69691007</v>
       </c>
       <c r="L307" s="80" t="s">
@@ -21319,7 +21313,7 @@
       <c r="J308" s="18">
         <v>73249</v>
       </c>
-      <c r="K308" s="152">
+      <c r="K308" s="150">
         <v>68171009</v>
       </c>
       <c r="L308" s="80" t="s">
@@ -21362,7 +21356,7 @@
       <c r="J309" s="18">
         <v>73259</v>
       </c>
-      <c r="K309" s="151">
+      <c r="K309" s="149">
         <v>12196003</v>
       </c>
       <c r="L309" s="57" t="s">
@@ -21405,7 +21399,7 @@
       <c r="J310" s="18">
         <v>73258</v>
       </c>
-      <c r="K310" s="151">
+      <c r="K310" s="149">
         <v>12196003</v>
       </c>
       <c r="L310" s="57" t="s">
@@ -21446,7 +21440,7 @@
       <c r="J311" s="18">
         <v>233470</v>
       </c>
-      <c r="K311" s="152">
+      <c r="K311" s="150">
         <v>12196003</v>
       </c>
       <c r="L311" s="80" t="s">
@@ -21485,7 +21479,7 @@
       <c r="J312" s="18">
         <v>5946</v>
       </c>
-      <c r="K312" s="151">
+      <c r="K312" s="149">
         <v>196821008</v>
       </c>
       <c r="L312" s="57" t="s">
@@ -21526,7 +21520,7 @@
       <c r="J313" s="18">
         <v>5945</v>
       </c>
-      <c r="K313" s="151">
+      <c r="K313" s="149">
         <v>196821008</v>
       </c>
       <c r="L313" s="57" t="s">
@@ -21565,7 +21559,7 @@
       <c r="J314" s="18">
         <v>5944</v>
       </c>
-      <c r="K314" s="152">
+      <c r="K314" s="150">
         <v>196821008</v>
       </c>
       <c r="L314" s="80" t="s">
@@ -21604,7 +21598,7 @@
       <c r="J315" s="18">
         <v>5967</v>
       </c>
-      <c r="K315" s="152">
+      <c r="K315" s="150">
         <v>279816002</v>
       </c>
       <c r="L315" s="80" t="s">
@@ -21645,7 +21639,7 @@
       <c r="J316" s="18">
         <v>5966</v>
       </c>
-      <c r="K316" s="152">
+      <c r="K316" s="150">
         <v>279816002</v>
       </c>
       <c r="L316" s="80" t="s">
@@ -21684,7 +21678,7 @@
       <c r="J317" s="18">
         <v>5965</v>
       </c>
-      <c r="K317" s="152">
+      <c r="K317" s="150">
         <v>279816002</v>
       </c>
       <c r="L317" s="80" t="s">
@@ -21721,7 +21715,7 @@
       <c r="J318" s="18">
         <v>12773</v>
       </c>
-      <c r="K318" s="152">
+      <c r="K318" s="150">
         <v>196751009</v>
       </c>
       <c r="L318" s="80" t="s">
@@ -21756,7 +21750,7 @@
         <v>2039</v>
       </c>
       <c r="J319" s="43"/>
-      <c r="K319" s="152">
+      <c r="K319" s="150">
         <v>65349008</v>
       </c>
       <c r="L319" s="80" t="s">
@@ -21764,7 +21758,7 @@
       </c>
       <c r="M319" s="10"/>
       <c r="N319" s="133" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="320" spans="1:14" s="1" customFormat="1" ht="51">
@@ -21793,7 +21787,7 @@
         <v>2040</v>
       </c>
       <c r="J320" s="43"/>
-      <c r="K320" s="152">
+      <c r="K320" s="150">
         <v>245357003</v>
       </c>
       <c r="L320" s="80" t="s">
@@ -21801,7 +21795,7 @@
       </c>
       <c r="M320" s="10"/>
       <c r="N320" s="133" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="321" spans="1:14" s="1" customFormat="1" ht="51">
@@ -21830,7 +21824,7 @@
         <v>2041</v>
       </c>
       <c r="J321" s="43"/>
-      <c r="K321" s="157">
+      <c r="K321" s="155">
         <v>84219008</v>
       </c>
       <c r="L321" s="80" t="s">
@@ -21838,7 +21832,7 @@
       </c>
       <c r="M321" s="10"/>
       <c r="N321" s="133" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="322" spans="1:14" s="1" customFormat="1" ht="51">
@@ -21871,7 +21865,7 @@
       <c r="J322" s="18">
         <v>229177</v>
       </c>
-      <c r="K322" s="151">
+      <c r="K322" s="149">
         <v>65349008</v>
       </c>
       <c r="L322" s="57" t="s">
@@ -21912,7 +21906,7 @@
       <c r="J323" s="18">
         <v>229177</v>
       </c>
-      <c r="K323" s="151">
+      <c r="K323" s="149">
         <v>65349008</v>
       </c>
       <c r="L323" s="57" t="s">
@@ -21953,7 +21947,7 @@
       <c r="J324" s="18">
         <v>224275</v>
       </c>
-      <c r="K324" s="151">
+      <c r="K324" s="149">
         <v>245299000</v>
       </c>
       <c r="L324" s="57" t="s">
@@ -21994,13 +21988,13 @@
       <c r="J325" s="18">
         <v>224269</v>
       </c>
-      <c r="K325" s="159">
+      <c r="K325" s="157">
         <v>245295006</v>
       </c>
-      <c r="L325" s="143" t="s">
-        <v>2556</v>
-      </c>
-      <c r="M325" s="147" t="s">
+      <c r="L325" s="141" t="s">
+        <v>2553</v>
+      </c>
+      <c r="M325" s="145" t="s">
         <v>2453</v>
       </c>
       <c r="N325" s="131"/>
@@ -22035,17 +22029,17 @@
       <c r="J326" s="18">
         <v>224269</v>
       </c>
-      <c r="K326" s="159">
+      <c r="K326" s="157">
         <v>245295006</v>
       </c>
       <c r="L326" s="121" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="M326" s="10" t="s">
         <v>2038</v>
       </c>
       <c r="N326" s="128" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="327" spans="1:14" s="1" customFormat="1" ht="17">
@@ -22078,7 +22072,7 @@
       <c r="J327" s="18">
         <v>5934</v>
       </c>
-      <c r="K327" s="152">
+      <c r="K327" s="150">
         <v>245282001</v>
       </c>
       <c r="L327" s="80" t="s">
@@ -22088,7 +22082,7 @@
         <v>2037</v>
       </c>
       <c r="N327" s="128" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="328" spans="1:14" s="1" customFormat="1">
@@ -22117,11 +22111,11 @@
       <c r="H328" s="16" t="s">
         <v>1595</v>
       </c>
-      <c r="I328" s="135"/>
+      <c r="I328" s="134"/>
       <c r="J328" s="18">
         <v>5933</v>
       </c>
-      <c r="K328" s="152">
+      <c r="K328" s="150">
         <v>245282001</v>
       </c>
       <c r="L328" s="80" t="s">
@@ -22162,7 +22156,7 @@
       <c r="J329" s="18">
         <v>5849</v>
       </c>
-      <c r="K329" s="152">
+      <c r="K329" s="150">
         <v>245282001</v>
       </c>
       <c r="L329" s="80" t="s">
@@ -22199,7 +22193,7 @@
       <c r="J330" s="18">
         <v>236337</v>
       </c>
-      <c r="K330" s="152">
+      <c r="K330" s="150">
         <v>279763008</v>
       </c>
       <c r="L330" s="80" t="s">
@@ -22238,7 +22232,7 @@
       <c r="J331" s="18">
         <v>236341</v>
       </c>
-      <c r="K331" s="152">
+      <c r="K331" s="150">
         <v>279763008</v>
       </c>
       <c r="L331" s="80" t="s">
@@ -22279,7 +22273,7 @@
       <c r="J332" s="18">
         <v>236339</v>
       </c>
-      <c r="K332" s="152">
+      <c r="K332" s="150">
         <v>279763008</v>
       </c>
       <c r="L332" s="80" t="s">
@@ -22318,7 +22312,7 @@
       <c r="J333" s="18">
         <v>5932</v>
       </c>
-      <c r="K333" s="152">
+      <c r="K333" s="150">
         <v>64038003</v>
       </c>
       <c r="L333" s="80" t="s">
@@ -22357,7 +22351,7 @@
         <v>1592</v>
       </c>
       <c r="J334" s="18"/>
-      <c r="K334" s="151">
+      <c r="K334" s="149">
         <v>59441001</v>
       </c>
       <c r="L334" s="57" t="s">
@@ -22396,15 +22390,15 @@
       <c r="J335" s="18">
         <v>74033</v>
       </c>
-      <c r="K335" s="159">
+      <c r="K335" s="157">
         <v>127938006</v>
       </c>
-      <c r="L335" s="144" t="s">
+      <c r="L335" s="142" t="s">
         <v>2465</v>
       </c>
       <c r="M335" s="81"/>
       <c r="N335" s="129" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="336" spans="1:14" s="1" customFormat="1" ht="51">
@@ -22437,7 +22431,7 @@
       <c r="J336" s="18">
         <v>224275</v>
       </c>
-      <c r="K336" s="151">
+      <c r="K336" s="149">
         <v>245299000</v>
       </c>
       <c r="L336" s="57" t="s">
@@ -22476,7 +22470,7 @@
       <c r="J337" s="18">
         <v>12774</v>
       </c>
-      <c r="K337" s="152">
+      <c r="K337" s="150">
         <v>62683002</v>
       </c>
       <c r="L337" s="80" t="s">
@@ -22513,7 +22507,7 @@
         <v>2051</v>
       </c>
       <c r="J338" s="47"/>
-      <c r="K338" s="157">
+      <c r="K338" s="155">
         <v>81105003</v>
       </c>
       <c r="L338" s="80" t="s">
@@ -22556,7 +22550,7 @@
       <c r="J339" s="18">
         <v>235616</v>
       </c>
-      <c r="K339" s="157">
+      <c r="K339" s="155">
         <v>81105003</v>
       </c>
       <c r="L339" s="80" t="s">
@@ -22599,7 +22593,7 @@
       <c r="J340" s="18">
         <v>235614</v>
       </c>
-      <c r="K340" s="157">
+      <c r="K340" s="155">
         <v>81105003</v>
       </c>
       <c r="L340" s="80" t="s">
@@ -22642,7 +22636,7 @@
       <c r="J341" s="18">
         <v>232676</v>
       </c>
-      <c r="K341" s="157">
+      <c r="K341" s="155">
         <v>81105003</v>
       </c>
       <c r="L341" s="80" t="s">
@@ -22685,7 +22679,7 @@
       <c r="J342" s="18">
         <v>232673</v>
       </c>
-      <c r="K342" s="157">
+      <c r="K342" s="155">
         <v>81105003</v>
       </c>
       <c r="L342" s="80" t="s">
@@ -22728,7 +22722,7 @@
       <c r="J343" s="18">
         <v>265660</v>
       </c>
-      <c r="K343" s="157">
+      <c r="K343" s="155">
         <v>81105003</v>
       </c>
       <c r="L343" s="80" t="s">
@@ -22771,7 +22765,7 @@
       <c r="J344" s="18">
         <v>265658</v>
       </c>
-      <c r="K344" s="157">
+      <c r="K344" s="155">
         <v>81105003</v>
       </c>
       <c r="L344" s="80" t="s">
@@ -22814,17 +22808,17 @@
       <c r="J345" s="18">
         <v>241975</v>
       </c>
-      <c r="K345" s="157">
+      <c r="K345" s="155">
         <v>81105003</v>
       </c>
       <c r="L345" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M345" s="145" t="s">
-        <v>2543</v>
-      </c>
-      <c r="N345" s="136" t="s">
-        <v>2531</v>
+      <c r="M345" s="143" t="s">
+        <v>2540</v>
+      </c>
+      <c r="N345" s="135" t="s">
+        <v>2530</v>
       </c>
     </row>
     <row r="346" spans="1:14" s="1" customFormat="1" ht="34" customHeight="1">
@@ -22859,17 +22853,17 @@
       <c r="J346" s="18">
         <v>241973</v>
       </c>
-      <c r="K346" s="157">
+      <c r="K346" s="155">
         <v>81105003</v>
       </c>
       <c r="L346" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M346" s="145" t="s">
-        <v>2544</v>
-      </c>
-      <c r="N346" s="136" t="s">
-        <v>2531</v>
+      <c r="M346" s="143" t="s">
+        <v>2541</v>
+      </c>
+      <c r="N346" s="135" t="s">
+        <v>2530</v>
       </c>
     </row>
     <row r="347" spans="1:14" s="1" customFormat="1" ht="34" customHeight="1">
@@ -22904,17 +22898,17 @@
       <c r="J347" s="18">
         <v>241979</v>
       </c>
-      <c r="K347" s="157">
+      <c r="K347" s="155">
         <v>81105003</v>
       </c>
       <c r="L347" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M347" s="145" t="s">
-        <v>2545</v>
-      </c>
-      <c r="N347" s="136" t="s">
-        <v>2532</v>
+      <c r="M347" s="143" t="s">
+        <v>2542</v>
+      </c>
+      <c r="N347" s="135" t="s">
+        <v>2531</v>
       </c>
     </row>
     <row r="348" spans="1:14" s="1" customFormat="1" ht="34" customHeight="1">
@@ -22949,17 +22943,17 @@
       <c r="J348" s="18">
         <v>241977</v>
       </c>
-      <c r="K348" s="157">
+      <c r="K348" s="155">
         <v>81105003</v>
       </c>
       <c r="L348" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M348" s="145" t="s">
-        <v>2546</v>
-      </c>
-      <c r="N348" s="136" t="s">
-        <v>2532</v>
+      <c r="M348" s="143" t="s">
+        <v>2543</v>
+      </c>
+      <c r="N348" s="135" t="s">
+        <v>2531</v>
       </c>
     </row>
     <row r="349" spans="1:14" s="1" customFormat="1" ht="34" customHeight="1">
@@ -22994,7 +22988,7 @@
       <c r="J349" s="18">
         <v>241953</v>
       </c>
-      <c r="K349" s="157">
+      <c r="K349" s="155">
         <v>81105003</v>
       </c>
       <c r="L349" s="80" t="s">
@@ -23037,7 +23031,7 @@
       <c r="J350" s="18">
         <v>241951</v>
       </c>
-      <c r="K350" s="157">
+      <c r="K350" s="155">
         <v>81105003</v>
       </c>
       <c r="L350" s="80" t="s">
@@ -23080,7 +23074,7 @@
       <c r="J351" s="18">
         <v>241959</v>
       </c>
-      <c r="K351" s="157">
+      <c r="K351" s="155">
         <v>81105003</v>
       </c>
       <c r="L351" s="80" t="s">
@@ -23123,7 +23117,7 @@
       <c r="J352" s="18">
         <v>241957</v>
       </c>
-      <c r="K352" s="157">
+      <c r="K352" s="155">
         <v>81105003</v>
       </c>
       <c r="L352" s="80" t="s">
@@ -23166,7 +23160,7 @@
       <c r="J353" s="18">
         <v>241965</v>
       </c>
-      <c r="K353" s="157">
+      <c r="K353" s="155">
         <v>81105003</v>
       </c>
       <c r="L353" s="80" t="s">
@@ -23209,7 +23203,7 @@
       <c r="J354" s="18">
         <v>241963</v>
       </c>
-      <c r="K354" s="157">
+      <c r="K354" s="155">
         <v>81105003</v>
       </c>
       <c r="L354" s="80" t="s">
@@ -23252,7 +23246,7 @@
       <c r="J355" s="18">
         <v>265629</v>
       </c>
-      <c r="K355" s="157">
+      <c r="K355" s="155">
         <v>81105003</v>
       </c>
       <c r="L355" s="80" t="s">
@@ -23295,7 +23289,7 @@
       <c r="J356" s="18">
         <v>265626</v>
       </c>
-      <c r="K356" s="157">
+      <c r="K356" s="155">
         <v>81105003</v>
       </c>
       <c r="L356" s="80" t="s">
@@ -23336,7 +23330,7 @@
         <v>485</v>
       </c>
       <c r="J357" s="18"/>
-      <c r="K357" s="157">
+      <c r="K357" s="155">
         <v>81105003</v>
       </c>
       <c r="L357" s="80" t="s">
@@ -23377,7 +23371,7 @@
         <v>484</v>
       </c>
       <c r="J358" s="18"/>
-      <c r="K358" s="157">
+      <c r="K358" s="155">
         <v>81105003</v>
       </c>
       <c r="L358" s="80" t="s">
@@ -23420,7 +23414,7 @@
       <c r="J359" s="18">
         <v>232721</v>
       </c>
-      <c r="K359" s="157">
+      <c r="K359" s="155">
         <v>81105003</v>
       </c>
       <c r="L359" s="80" t="s">
@@ -23463,7 +23457,7 @@
       <c r="J360" s="18">
         <v>232719</v>
       </c>
-      <c r="K360" s="157">
+      <c r="K360" s="155">
         <v>81105003</v>
       </c>
       <c r="L360" s="80" t="s">
@@ -23506,7 +23500,7 @@
       <c r="J361" s="18">
         <v>241971</v>
       </c>
-      <c r="K361" s="157">
+      <c r="K361" s="155">
         <v>81105003</v>
       </c>
       <c r="L361" s="80" t="s">
@@ -23549,7 +23543,7 @@
       <c r="J362" s="18">
         <v>241969</v>
       </c>
-      <c r="K362" s="157">
+      <c r="K362" s="155">
         <v>81105003</v>
       </c>
       <c r="L362" s="80" t="s">
@@ -23590,7 +23584,7 @@
         <v>1970</v>
       </c>
       <c r="J363" s="18"/>
-      <c r="K363" s="157">
+      <c r="K363" s="155">
         <v>81105003</v>
       </c>
       <c r="L363" s="80" t="s">
@@ -23631,14 +23625,14 @@
         <v>479</v>
       </c>
       <c r="J364" s="18"/>
-      <c r="K364" s="157">
+      <c r="K364" s="155">
         <v>81105003</v>
       </c>
       <c r="L364" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M364" s="140" t="s">
-        <v>2547</v>
+      <c r="M364" s="138" t="s">
+        <v>2544</v>
       </c>
       <c r="N364" s="101"/>
     </row>
@@ -23668,14 +23662,14 @@
       <c r="H365" s="48"/>
       <c r="I365" s="49"/>
       <c r="J365" s="50"/>
-      <c r="K365" s="157">
+      <c r="K365" s="155">
         <v>81105003</v>
       </c>
       <c r="L365" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M365" s="140" t="s">
-        <v>2548</v>
+      <c r="M365" s="138" t="s">
+        <v>2545</v>
       </c>
       <c r="N365" s="101"/>
     </row>
@@ -23705,7 +23699,7 @@
       <c r="H366" s="48"/>
       <c r="I366" s="49"/>
       <c r="J366" s="50"/>
-      <c r="K366" s="157">
+      <c r="K366" s="155">
         <v>81105003</v>
       </c>
       <c r="L366" s="80" t="s">
@@ -23741,7 +23735,7 @@
       <c r="H367" s="45"/>
       <c r="I367" s="46"/>
       <c r="J367" s="50"/>
-      <c r="K367" s="157">
+      <c r="K367" s="155">
         <v>81105003</v>
       </c>
       <c r="L367" s="80" t="s">
@@ -23775,7 +23769,7 @@
       <c r="H368" s="45"/>
       <c r="I368" s="46"/>
       <c r="J368" s="50"/>
-      <c r="K368" s="157">
+      <c r="K368" s="155">
         <v>81105003</v>
       </c>
       <c r="L368" s="80" t="s">
@@ -23809,7 +23803,7 @@
       <c r="H369" s="45"/>
       <c r="I369" s="46"/>
       <c r="J369" s="50"/>
-      <c r="K369" s="157">
+      <c r="K369" s="155">
         <v>81105003</v>
       </c>
       <c r="L369" s="80" t="s">
@@ -23843,7 +23837,7 @@
       <c r="H370" s="45"/>
       <c r="I370" s="46"/>
       <c r="J370" s="50"/>
-      <c r="K370" s="157">
+      <c r="K370" s="155">
         <v>81105003</v>
       </c>
       <c r="L370" s="80" t="s">
@@ -23877,7 +23871,7 @@
       <c r="H371" s="45"/>
       <c r="I371" s="46"/>
       <c r="J371" s="50"/>
-      <c r="K371" s="157">
+      <c r="K371" s="155">
         <v>81105003</v>
       </c>
       <c r="L371" s="80" t="s">
@@ -23911,7 +23905,7 @@
       <c r="H372" s="45"/>
       <c r="I372" s="46"/>
       <c r="J372" s="50"/>
-      <c r="K372" s="157">
+      <c r="K372" s="155">
         <v>81105003</v>
       </c>
       <c r="L372" s="80" t="s">
@@ -23945,7 +23939,7 @@
       <c r="H373" s="45"/>
       <c r="I373" s="46"/>
       <c r="J373" s="50"/>
-      <c r="K373" s="157">
+      <c r="K373" s="155">
         <v>81105003</v>
       </c>
       <c r="L373" s="80" t="s">
@@ -23979,7 +23973,7 @@
       <c r="H374" s="45"/>
       <c r="I374" s="46"/>
       <c r="J374" s="50"/>
-      <c r="K374" s="157">
+      <c r="K374" s="155">
         <v>81105003</v>
       </c>
       <c r="L374" s="80" t="s">
@@ -24013,7 +24007,7 @@
       <c r="H375" s="45"/>
       <c r="I375" s="46"/>
       <c r="J375" s="50"/>
-      <c r="K375" s="157">
+      <c r="K375" s="155">
         <v>81105003</v>
       </c>
       <c r="L375" s="80" t="s">
@@ -24047,7 +24041,7 @@
       <c r="H376" s="45"/>
       <c r="I376" s="46"/>
       <c r="J376" s="50"/>
-      <c r="K376" s="157">
+      <c r="K376" s="155">
         <v>81105003</v>
       </c>
       <c r="L376" s="80" t="s">
@@ -24088,7 +24082,7 @@
       <c r="J377" s="18">
         <v>16676</v>
       </c>
-      <c r="K377" s="152">
+      <c r="K377" s="150">
         <v>36086000</v>
       </c>
       <c r="L377" s="80" t="s">
@@ -24129,7 +24123,7 @@
       <c r="J378" s="18">
         <v>16676</v>
       </c>
-      <c r="K378" s="152">
+      <c r="K378" s="150">
         <v>36086000</v>
       </c>
       <c r="L378" s="80" t="s">
@@ -24168,7 +24162,7 @@
       <c r="J379" s="18">
         <v>223899</v>
       </c>
-      <c r="K379" s="152">
+      <c r="K379" s="150">
         <v>35783009</v>
       </c>
       <c r="L379" s="80" t="s">
@@ -24207,7 +24201,7 @@
       <c r="J380" s="18">
         <v>232600</v>
       </c>
-      <c r="K380" s="151">
+      <c r="K380" s="149">
         <v>368550005</v>
       </c>
       <c r="L380" s="57" t="s">
@@ -24248,7 +24242,7 @@
       <c r="J381" s="18">
         <v>232598</v>
       </c>
-      <c r="K381" s="151">
+      <c r="K381" s="149">
         <v>368550005</v>
       </c>
       <c r="L381" s="57" t="s">
@@ -24287,7 +24281,7 @@
       <c r="J382" s="18">
         <v>44313</v>
       </c>
-      <c r="K382" s="152">
+      <c r="K382" s="150">
         <v>368550005</v>
       </c>
       <c r="L382" s="80" t="s">
@@ -24326,7 +24320,7 @@
       <c r="J383" s="18">
         <v>5934</v>
       </c>
-      <c r="K383" s="152">
+      <c r="K383" s="150">
         <v>82365008</v>
       </c>
       <c r="L383" s="80" t="s">
@@ -24367,7 +24361,7 @@
       <c r="J384" s="18">
         <v>5933</v>
       </c>
-      <c r="K384" s="152">
+      <c r="K384" s="150">
         <v>82365008</v>
       </c>
       <c r="L384" s="80" t="s">
@@ -24406,7 +24400,7 @@
       <c r="J385" s="26">
         <v>5849</v>
       </c>
-      <c r="K385" s="152">
+      <c r="K385" s="150">
         <v>82365008</v>
       </c>
       <c r="L385" s="80" t="s">
@@ -24443,7 +24437,7 @@
         <v>1756</v>
       </c>
       <c r="J386" s="26"/>
-      <c r="K386" s="157">
+      <c r="K386" s="155">
         <v>245294005</v>
       </c>
       <c r="L386" s="80" t="s">
@@ -24482,7 +24476,7 @@
         <v>1757</v>
       </c>
       <c r="J387" s="26"/>
-      <c r="K387" s="157">
+      <c r="K387" s="155">
         <v>245294005</v>
       </c>
       <c r="L387" s="80" t="s">
@@ -24519,7 +24513,7 @@
         <v>1753</v>
       </c>
       <c r="J388" s="26"/>
-      <c r="K388" s="157">
+      <c r="K388" s="155">
         <v>245294005</v>
       </c>
       <c r="L388" s="80" t="s">
@@ -24558,7 +24552,7 @@
       <c r="J389" s="26">
         <v>15758</v>
       </c>
-      <c r="K389" s="152">
+      <c r="K389" s="150">
         <v>245288002</v>
       </c>
       <c r="L389" s="57" t="s">
@@ -24597,7 +24591,7 @@
       <c r="J390" s="26">
         <v>46472</v>
       </c>
-      <c r="K390" s="151">
+      <c r="K390" s="149">
         <v>45206002</v>
       </c>
       <c r="L390" s="57" t="s">
@@ -24636,7 +24630,7 @@
       <c r="J391" s="26">
         <v>234280</v>
       </c>
-      <c r="K391" s="151" t="s">
+      <c r="K391" s="149" t="s">
         <v>2478</v>
       </c>
       <c r="L391" s="57" t="s">
@@ -24677,7 +24671,7 @@
       <c r="J392" s="26">
         <v>234280</v>
       </c>
-      <c r="K392" s="151" t="s">
+      <c r="K392" s="149" t="s">
         <v>2478</v>
       </c>
       <c r="L392" s="57" t="s">
@@ -24718,7 +24712,7 @@
       <c r="J393" s="26">
         <v>5970</v>
       </c>
-      <c r="K393" s="152">
+      <c r="K393" s="150">
         <v>196662004</v>
       </c>
       <c r="L393" s="80" t="s">
@@ -24759,7 +24753,7 @@
       <c r="J394" s="26">
         <v>5969</v>
       </c>
-      <c r="K394" s="152">
+      <c r="K394" s="150">
         <v>196662004</v>
       </c>
       <c r="L394" s="80" t="s">
@@ -24798,7 +24792,7 @@
       <c r="J395" s="26">
         <v>5968</v>
       </c>
-      <c r="K395" s="152">
+      <c r="K395" s="150">
         <v>196662004</v>
       </c>
       <c r="L395" s="80" t="s">
@@ -24837,7 +24831,7 @@
         <v>1593</v>
       </c>
       <c r="J396" s="26"/>
-      <c r="K396" s="161">
+      <c r="K396" s="159">
         <v>59441001</v>
       </c>
       <c r="L396" s="83" t="s">
@@ -24880,7 +24874,7 @@
       <c r="J397" s="26">
         <v>232719</v>
       </c>
-      <c r="K397" s="157">
+      <c r="K397" s="155">
         <v>76838003</v>
       </c>
       <c r="L397" s="80" t="s">
@@ -24923,7 +24917,7 @@
       <c r="J398" s="26">
         <v>232721</v>
       </c>
-      <c r="K398" s="157">
+      <c r="K398" s="155">
         <v>76838003</v>
       </c>
       <c r="L398" s="80" t="s">
@@ -24962,7 +24956,7 @@
       <c r="J399" s="26">
         <v>5950</v>
       </c>
-      <c r="K399" s="152">
+      <c r="K399" s="150">
         <v>245283006</v>
       </c>
       <c r="L399" s="80" t="s">
@@ -25001,7 +24995,7 @@
       <c r="J400" s="18">
         <v>5952</v>
       </c>
-      <c r="K400" s="152">
+      <c r="K400" s="150">
         <v>245283006</v>
       </c>
       <c r="L400" s="80" t="s">
@@ -25042,7 +25036,7 @@
       <c r="J401" s="18">
         <v>5951</v>
       </c>
-      <c r="K401" s="152">
+      <c r="K401" s="150">
         <v>245283006</v>
       </c>
       <c r="L401" s="80" t="s">
@@ -25079,7 +25073,7 @@
         <v>1693</v>
       </c>
       <c r="J402" s="26"/>
-      <c r="K402" s="151">
+      <c r="K402" s="149">
         <v>84782009</v>
       </c>
       <c r="L402" s="57" t="s">
@@ -25120,7 +25114,7 @@
       <c r="J403" s="18">
         <v>72970</v>
       </c>
-      <c r="K403" s="151">
+      <c r="K403" s="149">
         <v>83251001</v>
       </c>
       <c r="L403" s="57" t="s">
@@ -25163,7 +25157,7 @@
       <c r="J404" s="18">
         <v>72969</v>
       </c>
-      <c r="K404" s="151">
+      <c r="K404" s="149">
         <v>83251001</v>
       </c>
       <c r="L404" s="57" t="s">
@@ -25202,7 +25196,7 @@
       <c r="J405" s="26">
         <v>5981</v>
       </c>
-      <c r="K405" s="151">
+      <c r="K405" s="149">
         <v>40958000</v>
       </c>
       <c r="L405" s="57" t="s">
@@ -25243,7 +25237,7 @@
       <c r="J406" s="18">
         <v>72976</v>
       </c>
-      <c r="K406" s="151">
+      <c r="K406" s="149">
         <v>31065004</v>
       </c>
       <c r="L406" s="57" t="s">
@@ -25286,7 +25280,7 @@
       <c r="J407" s="18">
         <v>72975</v>
       </c>
-      <c r="K407" s="151">
+      <c r="K407" s="149">
         <v>31065004</v>
       </c>
       <c r="L407" s="57" t="s">
@@ -25327,7 +25321,7 @@
       <c r="J408" s="26">
         <v>62045</v>
       </c>
-      <c r="K408" s="151">
+      <c r="K408" s="149">
         <v>244453006</v>
       </c>
       <c r="L408" s="57" t="s">
@@ -25368,7 +25362,7 @@
       <c r="J409" s="18">
         <v>72974</v>
       </c>
-      <c r="K409" s="151">
+      <c r="K409" s="149">
         <v>16630005</v>
       </c>
       <c r="L409" s="57" t="s">
@@ -25411,7 +25405,7 @@
       <c r="J410" s="18">
         <v>72973</v>
       </c>
-      <c r="K410" s="151">
+      <c r="K410" s="149">
         <v>16630005</v>
       </c>
       <c r="L410" s="57" t="s">
@@ -25452,7 +25446,7 @@
       <c r="J411" s="26">
         <v>50863</v>
       </c>
-      <c r="K411" s="151">
+      <c r="K411" s="149">
         <v>18234004</v>
       </c>
       <c r="L411" s="57" t="s">
@@ -25493,7 +25487,7 @@
       <c r="J412" s="18">
         <v>72972</v>
       </c>
-      <c r="K412" s="151">
+      <c r="K412" s="149">
         <v>78277001</v>
       </c>
       <c r="L412" s="57" t="s">
@@ -25536,7 +25530,7 @@
       <c r="J413" s="18">
         <v>72971</v>
       </c>
-      <c r="K413" s="151">
+      <c r="K413" s="149">
         <v>78277001</v>
       </c>
       <c r="L413" s="57" t="s">
@@ -25577,7 +25571,7 @@
       <c r="J414" s="18">
         <v>7310</v>
       </c>
-      <c r="K414" s="151">
+      <c r="K414" s="149">
         <v>39607008</v>
       </c>
       <c r="L414" s="57" t="s">
@@ -25618,7 +25612,7 @@
       <c r="J415" s="18">
         <v>7371</v>
       </c>
-      <c r="K415" s="151">
+      <c r="K415" s="149">
         <v>31094006</v>
       </c>
       <c r="L415" s="57" t="s">
@@ -25659,7 +25653,7 @@
       <c r="J416" s="18">
         <v>7370</v>
       </c>
-      <c r="K416" s="151">
+      <c r="K416" s="149">
         <v>31094006</v>
       </c>
       <c r="L416" s="57" t="s">
@@ -25700,7 +25694,7 @@
       <c r="J417" s="18">
         <v>7309</v>
       </c>
-      <c r="K417" s="151">
+      <c r="K417" s="149">
         <v>31094006</v>
       </c>
       <c r="L417" s="57" t="s">
@@ -25741,7 +25735,7 @@
       <c r="J418" s="18">
         <v>7337</v>
       </c>
-      <c r="K418" s="151">
+      <c r="K418" s="149">
         <v>31094006</v>
       </c>
       <c r="L418" s="57" t="s">
@@ -25782,7 +25776,7 @@
       <c r="J419" s="18">
         <v>7383</v>
       </c>
-      <c r="K419" s="151">
+      <c r="K419" s="149">
         <v>31094006</v>
       </c>
       <c r="L419" s="57" t="s">
@@ -25823,7 +25817,7 @@
       <c r="J420" s="18">
         <v>7333</v>
       </c>
-      <c r="K420" s="151">
+      <c r="K420" s="149">
         <v>31094006</v>
       </c>
       <c r="L420" s="57" t="s">
@@ -25864,7 +25858,7 @@
       <c r="J421" s="18">
         <v>68877</v>
       </c>
-      <c r="K421" s="151">
+      <c r="K421" s="149">
         <v>39607008</v>
       </c>
       <c r="L421" s="57" t="s">
@@ -25905,7 +25899,7 @@
       <c r="J422" s="14">
         <v>52753</v>
       </c>
-      <c r="K422" s="151">
+      <c r="K422" s="149">
         <v>34080009</v>
       </c>
       <c r="L422" s="57" t="s">
@@ -25946,7 +25940,7 @@
       <c r="J423" s="14">
         <v>74053</v>
       </c>
-      <c r="K423" s="151">
+      <c r="K423" s="149">
         <v>34080009</v>
       </c>
       <c r="L423" s="57" t="s">
@@ -25987,7 +25981,7 @@
       <c r="J424" s="14">
         <v>74052</v>
       </c>
-      <c r="K424" s="151">
+      <c r="K424" s="149">
         <v>34080009</v>
       </c>
       <c r="L424" s="57" t="s">
@@ -26026,7 +26020,7 @@
       <c r="J425" s="18">
         <v>9711</v>
       </c>
-      <c r="K425" s="151">
+      <c r="K425" s="149">
         <v>70925003</v>
       </c>
       <c r="L425" s="57" t="s">
@@ -26067,7 +26061,7 @@
       <c r="J426" s="18">
         <v>53650</v>
       </c>
-      <c r="K426" s="151">
+      <c r="K426" s="149">
         <v>70925003</v>
       </c>
       <c r="L426" s="57" t="s">
@@ -26108,7 +26102,7 @@
       <c r="J427" s="18">
         <v>53649</v>
       </c>
-      <c r="K427" s="151">
+      <c r="K427" s="149">
         <v>70925003</v>
       </c>
       <c r="L427" s="57" t="s">
@@ -26149,7 +26143,7 @@
       <c r="J428" s="26">
         <v>54668</v>
       </c>
-      <c r="K428" s="151">
+      <c r="K428" s="149">
         <v>363654007</v>
       </c>
       <c r="L428" s="57" t="s">
@@ -26190,7 +26184,7 @@
       <c r="J429" s="26">
         <v>54667</v>
       </c>
-      <c r="K429" s="151">
+      <c r="K429" s="149">
         <v>363654007</v>
       </c>
       <c r="L429" s="57" t="s">
@@ -26231,7 +26225,7 @@
       <c r="J430" s="26">
         <v>54879</v>
       </c>
-      <c r="K430" s="151">
+      <c r="K430" s="149">
         <v>31389004</v>
       </c>
       <c r="L430" s="57" t="s">
@@ -26272,7 +26266,7 @@
       <c r="J431" s="18">
         <v>46623</v>
       </c>
-      <c r="K431" s="151">
+      <c r="K431" s="149">
         <v>4866005</v>
       </c>
       <c r="L431" s="57" t="s">
@@ -26315,7 +26309,7 @@
       <c r="J432" s="18">
         <v>46622</v>
       </c>
-      <c r="K432" s="151">
+      <c r="K432" s="149">
         <v>4866005</v>
       </c>
       <c r="L432" s="57" t="s">
@@ -26358,7 +26352,7 @@
       <c r="J433" s="18">
         <v>46621</v>
       </c>
-      <c r="K433" s="151">
+      <c r="K433" s="149">
         <v>4866005</v>
       </c>
       <c r="L433" s="57" t="s">
@@ -26401,7 +26395,7 @@
       <c r="J434" s="18">
         <v>46293</v>
       </c>
-      <c r="K434" s="151">
+      <c r="K434" s="149">
         <v>52410001</v>
       </c>
       <c r="L434" s="57" t="s">
@@ -26444,7 +26438,7 @@
       <c r="J435" s="18">
         <v>46292</v>
       </c>
-      <c r="K435" s="151">
+      <c r="K435" s="149">
         <v>52410001</v>
       </c>
       <c r="L435" s="57" t="s">
@@ -26483,7 +26477,7 @@
       <c r="J436" s="26">
         <v>7409</v>
       </c>
-      <c r="K436" s="151">
+      <c r="K436" s="149">
         <v>15497006</v>
       </c>
       <c r="L436" s="57" t="s">
@@ -26526,7 +26520,7 @@
       <c r="J437" s="18">
         <v>48998</v>
       </c>
-      <c r="K437" s="151">
+      <c r="K437" s="149">
         <v>79368004</v>
       </c>
       <c r="L437" s="57" t="s">
@@ -26567,7 +26561,7 @@
       <c r="J438" s="18">
         <v>48997</v>
       </c>
-      <c r="K438" s="151">
+      <c r="K438" s="149">
         <v>79368004</v>
       </c>
       <c r="L438" s="57" t="s">
@@ -26608,7 +26602,7 @@
       <c r="J439" s="18">
         <v>45740</v>
       </c>
-      <c r="K439" s="151">
+      <c r="K439" s="149">
         <v>18252004</v>
       </c>
       <c r="L439" s="57" t="s">
@@ -26651,7 +26645,7 @@
       <c r="J440" s="18">
         <v>45739</v>
       </c>
-      <c r="K440" s="151">
+      <c r="K440" s="149">
         <v>18252004</v>
       </c>
       <c r="L440" s="57" t="s">
@@ -26692,7 +26686,7 @@
         <v>603</v>
       </c>
       <c r="J441" s="18"/>
-      <c r="K441" s="159">
+      <c r="K441" s="157">
         <v>76738006</v>
       </c>
       <c r="L441" s="121" t="s">
@@ -26702,7 +26696,7 @@
         <v>2037</v>
       </c>
       <c r="N441" s="132" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="442" spans="1:14" s="1" customFormat="1" ht="34">
@@ -26735,7 +26729,7 @@
         <v>604</v>
       </c>
       <c r="J442" s="18"/>
-      <c r="K442" s="151">
+      <c r="K442" s="149">
         <v>76738006</v>
       </c>
       <c r="L442" s="57" t="s">
@@ -26778,7 +26772,7 @@
       <c r="J443" s="18">
         <v>13409</v>
       </c>
-      <c r="K443" s="151">
+      <c r="K443" s="149">
         <v>22823000</v>
       </c>
       <c r="L443" s="57" t="s">
@@ -26821,7 +26815,7 @@
       <c r="J444" s="18">
         <v>13408</v>
       </c>
-      <c r="K444" s="151">
+      <c r="K444" s="149">
         <v>22823000</v>
       </c>
       <c r="L444" s="57" t="s">
@@ -26864,7 +26858,7 @@
       <c r="J445" s="18">
         <v>49008</v>
       </c>
-      <c r="K445" s="152">
+      <c r="K445" s="150">
         <v>52927003</v>
       </c>
       <c r="L445" s="10" t="s">
@@ -26905,7 +26899,7 @@
       <c r="J446" s="26">
         <v>55021</v>
       </c>
-      <c r="K446" s="151">
+      <c r="K446" s="149">
         <v>49460000</v>
       </c>
       <c r="L446" s="57" t="s">
@@ -26946,7 +26940,7 @@
       <c r="J447" s="18">
         <v>54738</v>
       </c>
-      <c r="K447" s="151">
+      <c r="K447" s="149">
         <v>46607005</v>
       </c>
       <c r="L447" s="57" t="s">
@@ -26989,7 +26983,7 @@
       <c r="J448" s="18">
         <v>54737</v>
       </c>
-      <c r="K448" s="151">
+      <c r="K448" s="149">
         <v>46607005</v>
       </c>
       <c r="L448" s="57" t="s">
@@ -27030,7 +27024,7 @@
       <c r="J449" s="26">
         <v>7198</v>
       </c>
-      <c r="K449" s="151">
+      <c r="K449" s="149">
         <v>15776009</v>
       </c>
       <c r="L449" s="57" t="s">
@@ -27069,7 +27063,7 @@
       <c r="J450" s="26">
         <v>10468</v>
       </c>
-      <c r="K450" s="151">
+      <c r="K450" s="149">
         <v>64163001</v>
       </c>
       <c r="L450" s="57" t="s">
@@ -27108,7 +27102,7 @@
       <c r="J451" s="26">
         <v>14519</v>
       </c>
-      <c r="K451" s="151">
+      <c r="K451" s="149">
         <v>73239005</v>
       </c>
       <c r="L451" s="57" t="s">
@@ -27145,7 +27139,7 @@
       <c r="J452" s="26">
         <v>77061</v>
       </c>
-      <c r="K452" s="151">
+      <c r="K452" s="149">
         <v>45682005</v>
       </c>
       <c r="L452" s="57" t="s">
@@ -27184,7 +27178,7 @@
       <c r="J453" s="54">
         <v>320436</v>
       </c>
-      <c r="K453" s="151">
+      <c r="K453" s="149">
         <v>45289007</v>
       </c>
       <c r="L453" s="57" t="s">
@@ -27223,7 +27217,7 @@
       <c r="J454" s="26">
         <v>19614</v>
       </c>
-      <c r="K454" s="151">
+      <c r="K454" s="149">
         <v>52737000</v>
       </c>
       <c r="L454" s="57" t="s">
@@ -27264,7 +27258,7 @@
       <c r="J455" s="26">
         <v>50878</v>
       </c>
-      <c r="K455" s="151">
+      <c r="K455" s="149">
         <v>18234004</v>
       </c>
       <c r="L455" s="57" t="s">
@@ -27307,7 +27301,7 @@
       <c r="J456" s="26">
         <v>50875</v>
       </c>
-      <c r="K456" s="151">
+      <c r="K456" s="149">
         <v>18234004</v>
       </c>
       <c r="L456" s="57" t="s">
@@ -27346,7 +27340,7 @@
       <c r="J457" s="26">
         <v>9707</v>
       </c>
-      <c r="K457" s="151">
+      <c r="K457" s="149">
         <v>18911002</v>
       </c>
       <c r="L457" s="57" t="s">
@@ -27387,7 +27381,7 @@
       <c r="J458" s="18">
         <v>9869</v>
       </c>
-      <c r="K458" s="151">
+      <c r="K458" s="149">
         <v>76848001</v>
       </c>
       <c r="L458" s="57" t="s">
@@ -27424,7 +27418,7 @@
       <c r="J459" s="18">
         <v>9579</v>
       </c>
-      <c r="K459" s="151">
+      <c r="K459" s="149">
         <v>38864007</v>
       </c>
       <c r="L459" s="57" t="s">
@@ -27463,7 +27457,7 @@
       <c r="J460" s="18">
         <v>9908</v>
       </c>
-      <c r="K460" s="151">
+      <c r="K460" s="149">
         <v>118762006</v>
       </c>
       <c r="L460" s="57" t="s">
@@ -27502,7 +27496,7 @@
       <c r="J461" s="26">
         <v>7214</v>
       </c>
-      <c r="K461" s="151">
+      <c r="K461" s="149">
         <v>15497006</v>
       </c>
       <c r="L461" s="57" t="s">
@@ -27543,7 +27537,7 @@
       <c r="J462" s="26">
         <v>7213</v>
       </c>
-      <c r="K462" s="151">
+      <c r="K462" s="149">
         <v>15497006</v>
       </c>
       <c r="L462" s="57" t="s">
@@ -27580,7 +27574,7 @@
         <v>1348</v>
       </c>
       <c r="J463" s="55"/>
-      <c r="K463" s="151">
+      <c r="K463" s="149">
         <v>14106009</v>
       </c>
       <c r="L463" s="57" t="s">
@@ -27619,7 +27613,7 @@
       <c r="J464" s="18">
         <v>46688</v>
       </c>
-      <c r="K464" s="151">
+      <c r="K464" s="149">
         <v>54066008</v>
       </c>
       <c r="L464" s="57" t="s">
@@ -27650,11 +27644,11 @@
       <c r="H465" s="24" t="s">
         <v>1478</v>
       </c>
-      <c r="I465" s="137" t="s">
+      <c r="I465" s="136" t="s">
         <v>1503</v>
       </c>
       <c r="J465" s="26"/>
-      <c r="K465" s="151">
+      <c r="K465" s="149">
         <v>110822002</v>
       </c>
       <c r="L465" s="57" t="s">
@@ -27662,7 +27656,7 @@
       </c>
       <c r="M465" s="10"/>
       <c r="N465" s="131" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="466" spans="1:14" s="1" customFormat="1" ht="13.5" customHeight="1">
@@ -27695,7 +27689,7 @@
       <c r="J466" s="18">
         <v>62033</v>
       </c>
-      <c r="K466" s="151">
+      <c r="K466" s="149">
         <v>45793000</v>
       </c>
       <c r="L466" s="57" t="s">
@@ -27713,7 +27707,7 @@
         <v>650</v>
       </c>
       <c r="D467" s="13" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="E467" s="13" t="s">
         <v>698</v>
@@ -27734,7 +27728,7 @@
       <c r="J467" s="18">
         <v>13889</v>
       </c>
-      <c r="K467" s="151">
+      <c r="K467" s="149">
         <v>56329008</v>
       </c>
       <c r="L467" s="57" t="s">
@@ -27773,7 +27767,7 @@
       <c r="J468" s="26">
         <v>67943</v>
       </c>
-      <c r="K468" s="151">
+      <c r="K468" s="149">
         <v>49557009</v>
       </c>
       <c r="L468" s="57" t="s">
@@ -27781,7 +27775,7 @@
       </c>
       <c r="M468" s="10"/>
       <c r="N468" s="128" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="469" spans="1:14" s="1" customFormat="1" ht="17">
@@ -27814,7 +27808,7 @@
       <c r="J469" s="18">
         <v>9600</v>
       </c>
-      <c r="K469" s="151">
+      <c r="K469" s="149">
         <v>41216001</v>
       </c>
       <c r="L469" s="57" t="s">
@@ -27855,7 +27849,7 @@
       <c r="J470" s="26">
         <v>59798</v>
       </c>
-      <c r="K470" s="151">
+      <c r="K470" s="149">
         <v>45289007</v>
       </c>
       <c r="L470" s="57" t="s">
@@ -27898,7 +27892,7 @@
       <c r="J471" s="26">
         <v>59797</v>
       </c>
-      <c r="K471" s="151">
+      <c r="K471" s="149">
         <v>45289007</v>
       </c>
       <c r="L471" s="57" t="s">
@@ -27937,7 +27931,7 @@
         <v>1694</v>
       </c>
       <c r="J472" s="26"/>
-      <c r="K472" s="159">
+      <c r="K472" s="157">
         <v>1162492000</v>
       </c>
       <c r="L472" s="121" t="s">
@@ -27978,7 +27972,7 @@
       <c r="J473" s="18">
         <v>49017</v>
       </c>
-      <c r="K473" s="151">
+      <c r="K473" s="149">
         <v>88938001</v>
       </c>
       <c r="L473" s="57" t="s">
@@ -28019,7 +28013,7 @@
       <c r="J474" s="18">
         <v>49016</v>
       </c>
-      <c r="K474" s="151">
+      <c r="K474" s="149">
         <v>88938001</v>
       </c>
       <c r="L474" s="57" t="s">
@@ -28060,7 +28054,7 @@
       <c r="J475" s="18">
         <v>49013</v>
       </c>
-      <c r="K475" s="151">
+      <c r="K475" s="149">
         <v>85002005</v>
       </c>
       <c r="L475" s="57" t="s">
@@ -28101,7 +28095,7 @@
       <c r="J476" s="18">
         <v>49012</v>
       </c>
-      <c r="K476" s="151">
+      <c r="K476" s="149">
         <v>85002005</v>
       </c>
       <c r="L476" s="57" t="s">
@@ -28140,7 +28134,7 @@
       <c r="J477" s="18">
         <v>14626</v>
       </c>
-      <c r="K477" s="162">
+      <c r="K477" s="160">
         <v>511000202101</v>
       </c>
       <c r="L477" s="57" t="s">
@@ -28177,7 +28171,7 @@
       <c r="J478" s="18">
         <v>14544</v>
       </c>
-      <c r="K478" s="151">
+      <c r="K478" s="149">
         <v>34402009</v>
       </c>
       <c r="L478" s="57" t="s">
@@ -28216,7 +28210,7 @@
       <c r="J479" s="18">
         <v>5909</v>
       </c>
-      <c r="K479" s="151">
+      <c r="K479" s="149">
         <v>62397004</v>
       </c>
       <c r="L479" s="57" t="s">
@@ -28251,7 +28245,7 @@
       <c r="J480" s="26">
         <v>46494</v>
       </c>
-      <c r="K480" s="151">
+      <c r="K480" s="149">
         <v>41695006</v>
       </c>
       <c r="L480" s="57" t="s">
@@ -28292,7 +28286,7 @@
       <c r="J481" s="18">
         <v>52838</v>
       </c>
-      <c r="K481" s="151">
+      <c r="K481" s="149">
         <v>67183008</v>
       </c>
       <c r="L481" s="57" t="s">
@@ -28335,7 +28329,7 @@
       <c r="J482" s="18">
         <v>52840</v>
       </c>
-      <c r="K482" s="151">
+      <c r="K482" s="149">
         <v>67183008</v>
       </c>
       <c r="L482" s="57" t="s">
@@ -28378,7 +28372,7 @@
       <c r="J483" s="18">
         <v>52835</v>
       </c>
-      <c r="K483" s="151">
+      <c r="K483" s="149">
         <v>124002</v>
       </c>
       <c r="L483" s="57" t="s">
@@ -28421,7 +28415,7 @@
       <c r="J484" s="18">
         <v>52834</v>
       </c>
-      <c r="K484" s="151">
+      <c r="K484" s="149">
         <v>124002</v>
       </c>
       <c r="L484" s="57" t="s">
@@ -28458,7 +28452,7 @@
         <v>1601</v>
       </c>
       <c r="J485" s="58"/>
-      <c r="K485" s="151">
+      <c r="K485" s="149">
         <v>12402003</v>
       </c>
       <c r="L485" s="57" t="s">
@@ -28491,7 +28485,7 @@
       </c>
       <c r="I486" s="17"/>
       <c r="J486" s="18"/>
-      <c r="K486" s="159">
+      <c r="K486" s="157">
         <v>12402003</v>
       </c>
       <c r="L486" s="121" t="s">
@@ -28530,7 +28524,7 @@
       <c r="J487" s="18">
         <v>18252</v>
       </c>
-      <c r="K487" s="151">
+      <c r="K487" s="149">
         <v>20233005</v>
       </c>
       <c r="L487" s="57" t="s">
@@ -28567,7 +28561,7 @@
       <c r="J488" s="18">
         <v>19387</v>
       </c>
-      <c r="K488" s="151">
+      <c r="K488" s="149">
         <v>64739004</v>
       </c>
       <c r="L488" s="57" t="s">
@@ -28602,7 +28596,7 @@
         <v>1388</v>
       </c>
       <c r="J489" s="18"/>
-      <c r="K489" s="151">
+      <c r="K489" s="149">
         <v>64739004</v>
       </c>
       <c r="L489" s="57" t="s">
@@ -28639,7 +28633,7 @@
         <v>1966</v>
       </c>
       <c r="J490" s="18"/>
-      <c r="K490" s="151">
+      <c r="K490" s="149">
         <v>64739004</v>
       </c>
       <c r="L490" s="57" t="s">
@@ -28680,7 +28674,7 @@
       <c r="J491" s="59">
         <v>84115</v>
       </c>
-      <c r="K491" s="151">
+      <c r="K491" s="149">
         <v>54215007</v>
       </c>
       <c r="L491" s="57" t="s">
@@ -28719,7 +28713,7 @@
       <c r="J492" s="18">
         <v>16950</v>
       </c>
-      <c r="K492" s="151">
+      <c r="K492" s="149">
         <v>82561000</v>
       </c>
       <c r="L492" s="57" t="s">
@@ -28760,7 +28754,7 @@
       <c r="J493" s="18">
         <v>16597</v>
       </c>
-      <c r="K493" s="159">
+      <c r="K493" s="157">
         <v>82561000</v>
       </c>
       <c r="L493" s="121" t="s">
@@ -28803,7 +28797,7 @@
       <c r="J494" s="18">
         <v>16596</v>
       </c>
-      <c r="K494" s="163">
+      <c r="K494" s="161">
         <v>82561000</v>
       </c>
       <c r="L494" s="123" t="s">
@@ -28846,7 +28840,7 @@
       <c r="J495" s="18">
         <v>23465</v>
       </c>
-      <c r="K495" s="153">
+      <c r="K495" s="151">
         <v>62413002</v>
       </c>
       <c r="L495" s="75" t="s">
@@ -28889,7 +28883,7 @@
       <c r="J496" s="18">
         <v>23464</v>
       </c>
-      <c r="K496" s="153">
+      <c r="K496" s="151">
         <v>62413002</v>
       </c>
       <c r="L496" s="75" t="s">
@@ -28930,7 +28924,7 @@
       <c r="J497" s="18">
         <v>57417</v>
       </c>
-      <c r="K497" s="151">
+      <c r="K497" s="149">
         <v>55060009</v>
       </c>
       <c r="L497" s="57" t="s">
@@ -28969,7 +28963,7 @@
       <c r="J498" s="18">
         <v>57715</v>
       </c>
-      <c r="K498" s="151">
+      <c r="K498" s="149">
         <v>15924003</v>
       </c>
       <c r="L498" s="57" t="s">
@@ -29010,7 +29004,7 @@
       <c r="J499" s="18">
         <v>58303</v>
       </c>
-      <c r="K499" s="151">
+      <c r="K499" s="149">
         <v>5665001</v>
       </c>
       <c r="L499" s="57" t="s">
@@ -29053,7 +29047,7 @@
       <c r="J500" s="18">
         <v>58302</v>
       </c>
-      <c r="K500" s="151">
+      <c r="K500" s="149">
         <v>5665001</v>
       </c>
       <c r="L500" s="57" t="s">
@@ -29096,7 +29090,7 @@
       <c r="J501" s="18">
         <v>58301</v>
       </c>
-      <c r="K501" s="151">
+      <c r="K501" s="149">
         <v>5665001</v>
       </c>
       <c r="L501" s="121" t="s">
@@ -29106,7 +29100,7 @@
         <v>2121</v>
       </c>
       <c r="N501" s="132" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="502" spans="1:14" s="1" customFormat="1" ht="17">
@@ -29139,7 +29133,7 @@
       <c r="J502" s="18">
         <v>7574</v>
       </c>
-      <c r="K502" s="151">
+      <c r="K502" s="149">
         <v>113197003</v>
       </c>
       <c r="L502" s="57" t="s">
@@ -29180,7 +29174,7 @@
       <c r="J503" s="18">
         <v>7987</v>
       </c>
-      <c r="K503" s="151">
+      <c r="K503" s="149">
         <v>48535007</v>
       </c>
       <c r="L503" s="57" t="s">
@@ -29223,7 +29217,7 @@
       <c r="J504" s="18">
         <v>7857</v>
       </c>
-      <c r="K504" s="151">
+      <c r="K504" s="149">
         <v>48535007</v>
       </c>
       <c r="L504" s="57" t="s">
@@ -29266,7 +29260,7 @@
       <c r="J505" s="18">
         <v>8012</v>
       </c>
-      <c r="K505" s="151">
+      <c r="K505" s="149">
         <v>78247007</v>
       </c>
       <c r="L505" s="57" t="s">
@@ -29309,7 +29303,7 @@
       <c r="J506" s="18">
         <v>7882</v>
       </c>
-      <c r="K506" s="151">
+      <c r="K506" s="149">
         <v>78247007</v>
       </c>
       <c r="L506" s="57" t="s">
@@ -29352,7 +29346,7 @@
       <c r="J507" s="18">
         <v>8039</v>
       </c>
-      <c r="K507" s="151">
+      <c r="K507" s="149">
         <v>25888004</v>
       </c>
       <c r="L507" s="57" t="s">
@@ -29395,7 +29389,7 @@
       <c r="J508" s="18">
         <v>7909</v>
       </c>
-      <c r="K508" s="151">
+      <c r="K508" s="149">
         <v>25888004</v>
       </c>
       <c r="L508" s="57" t="s">
@@ -29438,7 +29432,7 @@
       <c r="J509" s="18">
         <v>8148</v>
       </c>
-      <c r="K509" s="151">
+      <c r="K509" s="149">
         <v>25523003</v>
       </c>
       <c r="L509" s="57" t="s">
@@ -29481,7 +29475,7 @@
       <c r="J510" s="18">
         <v>7957</v>
       </c>
-      <c r="K510" s="151">
+      <c r="K510" s="149">
         <v>25523003</v>
       </c>
       <c r="L510" s="57" t="s">
@@ -29524,7 +29518,7 @@
       <c r="J511" s="18">
         <v>8093</v>
       </c>
-      <c r="K511" s="157">
+      <c r="K511" s="155">
         <v>15339008</v>
       </c>
       <c r="L511" s="57" t="s">
@@ -29567,7 +29561,7 @@
       <c r="J512" s="18">
         <v>8066</v>
       </c>
-      <c r="K512" s="157">
+      <c r="K512" s="155">
         <v>15339008</v>
       </c>
       <c r="L512" s="57" t="s">
@@ -29610,7 +29604,7 @@
       <c r="J513" s="18">
         <v>8202</v>
       </c>
-      <c r="K513" s="157">
+      <c r="K513" s="155">
         <v>59558009</v>
       </c>
       <c r="L513" s="57" t="s">
@@ -29653,7 +29647,7 @@
       <c r="J514" s="18">
         <v>8175</v>
       </c>
-      <c r="K514" s="157">
+      <c r="K514" s="155">
         <v>59558009</v>
       </c>
       <c r="L514" s="57" t="s">
@@ -29696,7 +29690,7 @@
       <c r="J515" s="18">
         <v>8256</v>
       </c>
-      <c r="K515" s="157">
+      <c r="K515" s="155">
         <v>24915002</v>
       </c>
       <c r="L515" s="57" t="s">
@@ -29739,7 +29733,7 @@
       <c r="J516" s="18">
         <v>8229</v>
       </c>
-      <c r="K516" s="157">
+      <c r="K516" s="155">
         <v>24915002</v>
       </c>
       <c r="L516" s="57" t="s">
@@ -29782,7 +29776,7 @@
       <c r="J517" s="18">
         <v>8310</v>
       </c>
-      <c r="K517" s="157">
+      <c r="K517" s="155">
         <v>5953002</v>
       </c>
       <c r="L517" s="57" t="s">
@@ -29825,7 +29819,7 @@
       <c r="J518" s="18">
         <v>8283</v>
       </c>
-      <c r="K518" s="157">
+      <c r="K518" s="155">
         <v>5953002</v>
       </c>
       <c r="L518" s="57" t="s">
@@ -29868,7 +29862,7 @@
       <c r="J519" s="18">
         <v>8391</v>
       </c>
-      <c r="K519" s="157">
+      <c r="K519" s="155">
         <v>22565002</v>
       </c>
       <c r="L519" s="57" t="s">
@@ -29911,7 +29905,7 @@
       <c r="J520" s="18">
         <v>8364</v>
       </c>
-      <c r="K520" s="157">
+      <c r="K520" s="155">
         <v>22565002</v>
       </c>
       <c r="L520" s="57" t="s">
@@ -29954,7 +29948,7 @@
       <c r="J521" s="18">
         <v>8472</v>
       </c>
-      <c r="K521" s="157">
+      <c r="K521" s="155">
         <v>77644006</v>
       </c>
       <c r="L521" s="57" t="s">
@@ -29997,7 +29991,7 @@
       <c r="J522" s="18">
         <v>8445</v>
       </c>
-      <c r="K522" s="157">
+      <c r="K522" s="155">
         <v>77644006</v>
       </c>
       <c r="L522" s="57" t="s">
@@ -30040,7 +30034,7 @@
       <c r="J523" s="18">
         <v>8532</v>
       </c>
-      <c r="K523" s="157">
+      <c r="K523" s="155">
         <v>58830002</v>
       </c>
       <c r="L523" s="57" t="s">
@@ -30083,7 +30077,7 @@
       <c r="J524" s="18">
         <v>8531</v>
       </c>
-      <c r="K524" s="157">
+      <c r="K524" s="155">
         <v>58830002</v>
       </c>
       <c r="L524" s="57" t="s">
@@ -30126,7 +30120,7 @@
       <c r="J525" s="18">
         <v>8534</v>
       </c>
-      <c r="K525" s="157">
+      <c r="K525" s="155">
         <v>43993008</v>
       </c>
       <c r="L525" s="57" t="s">
@@ -30169,7 +30163,7 @@
       <c r="J526" s="18">
         <v>8533</v>
       </c>
-      <c r="K526" s="157">
+      <c r="K526" s="155">
         <v>43993008</v>
       </c>
       <c r="L526" s="57" t="s">
@@ -30208,7 +30202,7 @@
       <c r="J527" s="18">
         <v>7163</v>
       </c>
-      <c r="K527" s="151">
+      <c r="K527" s="149">
         <v>39937001</v>
       </c>
       <c r="L527" s="57" t="s">
@@ -30249,8 +30243,8 @@
       <c r="J528" s="18">
         <v>8534</v>
       </c>
-      <c r="K528" s="164" t="s">
-        <v>2562</v>
+      <c r="K528" s="162">
+        <v>1193560003</v>
       </c>
       <c r="L528" s="57" t="s">
         <v>2135</v>
@@ -30258,7 +30252,9 @@
       <c r="M528" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N528" s="11"/>
+      <c r="N528" s="174" t="s">
+        <v>2559</v>
+      </c>
     </row>
     <row r="529" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A529" s="84" t="s">
@@ -30292,8 +30288,8 @@
       <c r="J529" s="18">
         <v>8533</v>
       </c>
-      <c r="K529" s="164" t="s">
-        <v>2562</v>
+      <c r="K529" s="162">
+        <v>1193560003</v>
       </c>
       <c r="L529" s="57" t="s">
         <v>2135</v>
@@ -30301,11 +30297,11 @@
       <c r="M529" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N529" s="134" t="s">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="530" spans="1:14" s="1" customFormat="1" ht="17">
+      <c r="N529" s="174" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" s="1" customFormat="1">
       <c r="A530" s="56"/>
       <c r="B530" s="12" t="s">
         <v>701</v>
@@ -30331,16 +30327,14 @@
       <c r="J530" s="18">
         <v>20429</v>
       </c>
-      <c r="K530" s="151">
+      <c r="K530" s="149">
         <v>48014002</v>
       </c>
       <c r="L530" s="57" t="s">
         <v>2376</v>
       </c>
       <c r="M530" s="10"/>
-      <c r="N530" s="134" t="s">
-        <v>2509</v>
-      </c>
+      <c r="N530" s="174"/>
     </row>
     <row r="531" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A531" s="85" t="s">
@@ -30374,7 +30368,7 @@
       <c r="J531" s="18">
         <v>13396</v>
       </c>
-      <c r="K531" s="151">
+      <c r="K531" s="149">
         <v>79601000</v>
       </c>
       <c r="L531" s="57" t="s">
@@ -30417,7 +30411,7 @@
       <c r="J532" s="18">
         <v>13395</v>
       </c>
-      <c r="K532" s="151">
+      <c r="K532" s="149">
         <v>79601000</v>
       </c>
       <c r="L532" s="57" t="s">
@@ -30452,7 +30446,7 @@
       </c>
       <c r="I533" s="17"/>
       <c r="J533" s="18"/>
-      <c r="K533" s="157">
+      <c r="K533" s="155">
         <v>75093004</v>
       </c>
       <c r="L533" s="57" t="s">
@@ -30489,15 +30483,15 @@
         <v>1427</v>
       </c>
       <c r="J534" s="18"/>
-      <c r="K534" s="165" t="s">
-        <v>2563</v>
+      <c r="K534" s="163" t="s">
+        <v>2560</v>
       </c>
       <c r="L534" s="57" t="s">
         <v>2486</v>
       </c>
       <c r="M534" s="10"/>
       <c r="N534" s="124" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="535" spans="1:14" s="1" customFormat="1" ht="34">
@@ -30523,18 +30517,18 @@
         <v>1642</v>
       </c>
       <c r="I535" s="17" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="J535" s="26"/>
-      <c r="K535" s="165" t="s">
-        <v>2564</v>
+      <c r="K535" s="163" t="s">
+        <v>2561</v>
       </c>
       <c r="L535" s="57" t="s">
         <v>2487</v>
       </c>
       <c r="M535" s="10"/>
       <c r="N535" s="124" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="536" spans="1:14" s="1" customFormat="1" ht="34">
@@ -30565,7 +30559,7 @@
       <c r="J536" s="18">
         <v>286702</v>
       </c>
-      <c r="K536" s="151">
+      <c r="K536" s="149">
         <v>789564000</v>
       </c>
       <c r="L536" s="57" t="s">
@@ -30602,14 +30596,14 @@
         <v>1526</v>
       </c>
       <c r="J537" s="18"/>
-      <c r="K537" s="151">
+      <c r="K537" s="149">
         <v>1193554003</v>
       </c>
       <c r="L537" s="57" t="s">
         <v>2489</v>
       </c>
       <c r="M537" s="10"/>
-      <c r="N537" s="171" t="s">
+      <c r="N537" s="169" t="s">
         <v>2488</v>
       </c>
     </row>
@@ -30643,10 +30637,10 @@
       <c r="J538" s="18">
         <v>45797</v>
       </c>
-      <c r="K538" s="166">
+      <c r="K538" s="164">
         <v>76838003</v>
       </c>
-      <c r="L538" s="148" t="s">
+      <c r="L538" s="146" t="s">
         <v>2063</v>
       </c>
       <c r="M538" s="122" t="s">
@@ -30684,10 +30678,10 @@
       <c r="J539" s="18">
         <v>45796</v>
       </c>
-      <c r="K539" s="166">
+      <c r="K539" s="164">
         <v>76838003</v>
       </c>
-      <c r="L539" s="148" t="s">
+      <c r="L539" s="146" t="s">
         <v>2063</v>
       </c>
       <c r="M539" s="122" t="s">
@@ -30727,7 +30721,7 @@
       <c r="J540" s="18">
         <v>57419</v>
       </c>
-      <c r="K540" s="151">
+      <c r="K540" s="149">
         <v>55060009</v>
       </c>
       <c r="L540" s="57" t="s">
@@ -30770,7 +30764,7 @@
       <c r="J541" s="18">
         <v>57418</v>
       </c>
-      <c r="K541" s="151">
+      <c r="K541" s="149">
         <v>55060009</v>
       </c>
       <c r="L541" s="57" t="s">
@@ -30811,7 +30805,7 @@
       <c r="J542" s="26">
         <v>15710</v>
       </c>
-      <c r="K542" s="167">
+      <c r="K542" s="165">
         <v>41178004</v>
       </c>
       <c r="L542" s="57" t="s">
@@ -30852,7 +30846,7 @@
       <c r="J543" s="18">
         <v>57717</v>
       </c>
-      <c r="K543" s="151">
+      <c r="K543" s="149">
         <v>15924003</v>
       </c>
       <c r="L543" s="57" t="s">
@@ -30895,7 +30889,7 @@
       <c r="J544" s="18">
         <v>57716</v>
       </c>
-      <c r="K544" s="151">
+      <c r="K544" s="149">
         <v>15924003</v>
       </c>
       <c r="L544" s="57" t="s">
@@ -30936,7 +30930,7 @@
       <c r="J545" s="18">
         <v>9680</v>
       </c>
-      <c r="K545" s="151">
+      <c r="K545" s="149">
         <v>61853006</v>
       </c>
       <c r="L545" s="57" t="s">
@@ -30977,7 +30971,7 @@
       <c r="J546" s="18">
         <v>54708</v>
       </c>
-      <c r="K546" s="151">
+      <c r="K546" s="149">
         <v>24999009</v>
       </c>
       <c r="L546" s="57" t="s">
@@ -31020,7 +31014,7 @@
       <c r="J547" s="18">
         <v>54707</v>
       </c>
-      <c r="K547" s="151">
+      <c r="K547" s="149">
         <v>24999009</v>
       </c>
       <c r="L547" s="57" t="s">
@@ -31061,7 +31055,7 @@
       <c r="J548" s="18">
         <v>7647</v>
       </c>
-      <c r="K548" s="151">
+      <c r="K548" s="149">
         <v>2748008</v>
       </c>
       <c r="L548" s="57" t="s">
@@ -31100,7 +31094,7 @@
       <c r="J549" s="18">
         <v>71166</v>
       </c>
-      <c r="K549" s="151">
+      <c r="K549" s="149">
         <v>54785003</v>
       </c>
       <c r="L549" s="57" t="s">
@@ -31139,7 +31133,7 @@
       <c r="J550" s="18">
         <v>71168</v>
       </c>
-      <c r="K550" s="151">
+      <c r="K550" s="149">
         <v>60051002</v>
       </c>
       <c r="L550" s="57" t="s">
@@ -31178,7 +31172,7 @@
       <c r="J551" s="18">
         <v>46565</v>
       </c>
-      <c r="K551" s="151">
+      <c r="K551" s="149">
         <v>89546000</v>
       </c>
       <c r="L551" s="57" t="s">
@@ -31217,7 +31211,7 @@
       <c r="J552" s="18">
         <v>256623</v>
       </c>
-      <c r="K552" s="151">
+      <c r="K552" s="149">
         <v>11478001</v>
       </c>
       <c r="L552" s="57" t="s">
@@ -31256,7 +31250,7 @@
       <c r="J553" s="18">
         <v>71167</v>
       </c>
-      <c r="K553" s="151">
+      <c r="K553" s="149">
         <v>50800009</v>
       </c>
       <c r="L553" s="57" t="s">
@@ -31293,7 +31287,7 @@
       <c r="J554" s="18">
         <v>19617</v>
       </c>
-      <c r="K554" s="151">
+      <c r="K554" s="149">
         <v>25270003</v>
       </c>
       <c r="L554" s="57" t="s">
@@ -31332,7 +31326,7 @@
         <v>585</v>
       </c>
       <c r="J555" s="18"/>
-      <c r="K555" s="151">
+      <c r="K555" s="149">
         <v>789564000</v>
       </c>
       <c r="L555" s="57" t="s">
@@ -31342,7 +31336,7 @@
         <v>2037</v>
       </c>
       <c r="N555" s="128" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="556" spans="1:14" s="1" customFormat="1" ht="34">
@@ -31375,7 +31369,7 @@
         <v>586</v>
       </c>
       <c r="J556" s="18"/>
-      <c r="K556" s="151">
+      <c r="K556" s="149">
         <v>789564000</v>
       </c>
       <c r="L556" s="57" t="s">
@@ -31385,7 +31379,7 @@
         <v>2378</v>
       </c>
       <c r="N556" s="128" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="557" spans="1:14" s="1" customFormat="1" ht="17">
@@ -31418,7 +31412,7 @@
       <c r="J557" s="18">
         <v>52751</v>
       </c>
-      <c r="K557" s="151">
+      <c r="K557" s="149">
         <v>22718006</v>
       </c>
       <c r="L557" s="57" t="s">
@@ -31455,7 +31449,7 @@
       <c r="J558" s="18">
         <v>7148</v>
       </c>
-      <c r="K558" s="151">
+      <c r="K558" s="149">
         <v>69695003</v>
       </c>
       <c r="L558" s="57" t="s">
@@ -31494,8 +31488,8 @@
         <v>607</v>
       </c>
       <c r="J559" s="18"/>
-      <c r="K559" s="151" t="s">
-        <v>2488</v>
+      <c r="K559" s="172">
+        <v>1193554003</v>
       </c>
       <c r="L559" s="57" t="s">
         <v>2489</v>
@@ -31503,8 +31497,8 @@
       <c r="M559" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N559" s="138" t="s">
-        <v>2536</v>
+      <c r="N559" s="173" t="s">
+        <v>2488</v>
       </c>
     </row>
     <row r="560" spans="1:14" s="1" customFormat="1" ht="34">
@@ -31537,8 +31531,8 @@
         <v>607</v>
       </c>
       <c r="J560" s="18"/>
-      <c r="K560" s="151" t="s">
-        <v>2488</v>
+      <c r="K560" s="172">
+        <v>1193554003</v>
       </c>
       <c r="L560" s="57" t="s">
         <v>2489</v>
@@ -31546,8 +31540,8 @@
       <c r="M560" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N560" s="138" t="s">
-        <v>2536</v>
+      <c r="N560" s="173" t="s">
+        <v>2488</v>
       </c>
     </row>
     <row r="561" spans="1:14" s="1" customFormat="1" ht="34">
@@ -31576,7 +31570,7 @@
         <v>1853</v>
       </c>
       <c r="J561" s="26"/>
-      <c r="K561" s="151">
+      <c r="K561" s="149">
         <v>75415000</v>
       </c>
       <c r="L561" s="57" t="s">
@@ -31585,7 +31579,7 @@
       <c r="M561" s="10"/>
       <c r="N561" s="11"/>
     </row>
-    <row r="562" spans="1:14" s="1" customFormat="1" ht="17">
+    <row r="562" spans="1:14" s="1" customFormat="1">
       <c r="A562" s="56"/>
       <c r="B562" s="20" t="s">
         <v>701</v>
@@ -31600,23 +31594,21 @@
         <v>10</v>
       </c>
       <c r="G562" s="126" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="H562" s="24" t="s">
         <v>1873</v>
       </c>
       <c r="I562" s="37"/>
       <c r="J562" s="21"/>
-      <c r="K562" s="151">
+      <c r="K562" s="149">
         <v>67548002</v>
       </c>
       <c r="L562" s="57" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="M562" s="10"/>
-      <c r="N562" s="139" t="s">
-        <v>2537</v>
-      </c>
+      <c r="N562" s="137"/>
     </row>
     <row r="563" spans="1:14" s="1" customFormat="1">
       <c r="A563" s="56"/>
@@ -31633,21 +31625,21 @@
         <v>10</v>
       </c>
       <c r="G563" s="126" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="H563" s="24" t="s">
         <v>1873</v>
       </c>
       <c r="I563" s="37"/>
       <c r="J563" s="21"/>
-      <c r="K563" s="151">
+      <c r="K563" s="149">
         <v>13014005</v>
       </c>
-      <c r="L563" s="142" t="s">
-        <v>2561</v>
+      <c r="L563" s="140" t="s">
+        <v>2558</v>
       </c>
       <c r="M563" s="10"/>
-      <c r="N563" s="139"/>
+      <c r="N563" s="137"/>
     </row>
     <row r="564" spans="1:14" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A564" s="56"/>
@@ -31677,7 +31669,7 @@
       <c r="J564" s="14">
         <v>242787</v>
       </c>
-      <c r="K564" s="151">
+      <c r="K564" s="149">
         <v>8997002</v>
       </c>
       <c r="L564" s="100" t="s">
@@ -31712,7 +31704,7 @@
       <c r="J565" s="22">
         <v>9721</v>
       </c>
-      <c r="K565" s="151">
+      <c r="K565" s="149">
         <v>13024002</v>
       </c>
       <c r="L565" s="57" t="s">
@@ -31747,7 +31739,7 @@
       <c r="J566" s="22">
         <v>46900</v>
       </c>
-      <c r="K566" s="151">
+      <c r="K566" s="149">
         <v>70567001</v>
       </c>
       <c r="L566" s="57" t="s">
@@ -31786,7 +31778,7 @@
       <c r="J567" s="18">
         <v>7210</v>
       </c>
-      <c r="K567" s="151">
+      <c r="K567" s="149">
         <v>40689003</v>
       </c>
       <c r="L567" s="57" t="s">
@@ -31825,7 +31817,7 @@
       <c r="J570" s="18">
         <v>83720</v>
       </c>
-      <c r="K570" s="159">
+      <c r="K570" s="157">
         <v>37554007</v>
       </c>
       <c r="L570" s="121" t="s">
@@ -31864,7 +31856,7 @@
       <c r="J571" s="18">
         <v>5031</v>
       </c>
-      <c r="K571" s="151">
+      <c r="K571" s="149">
         <v>1732005</v>
       </c>
       <c r="L571" s="57" t="s">
@@ -31903,7 +31895,7 @@
       <c r="J572" s="18">
         <v>7196</v>
       </c>
-      <c r="K572" s="152">
+      <c r="K572" s="150">
         <v>78961009</v>
       </c>
       <c r="L572" s="80" t="s">
@@ -31942,7 +31934,7 @@
       <c r="J573" s="18">
         <v>15841</v>
       </c>
-      <c r="K573" s="152">
+      <c r="K573" s="150">
         <v>35378004</v>
       </c>
       <c r="L573" s="80" t="s">
@@ -31981,7 +31973,7 @@
       <c r="J574" s="18">
         <v>54640</v>
       </c>
-      <c r="K574" s="151">
+      <c r="K574" s="149">
         <v>21974007</v>
       </c>
       <c r="L574" s="57" t="s">
@@ -32016,7 +32008,7 @@
       </c>
       <c r="I575" s="63"/>
       <c r="J575" s="27"/>
-      <c r="K575" s="152">
+      <c r="K575" s="150">
         <v>181226008</v>
       </c>
       <c r="L575" s="57" t="s">
@@ -32057,7 +32049,7 @@
       <c r="J576" s="18">
         <v>74049</v>
       </c>
-      <c r="K576" s="151">
+      <c r="K576" s="149">
         <v>22718006</v>
       </c>
       <c r="L576" s="57" t="s">
@@ -32098,7 +32090,7 @@
       <c r="J577" s="18">
         <v>74048</v>
       </c>
-      <c r="K577" s="151">
+      <c r="K577" s="149">
         <v>22718006</v>
       </c>
       <c r="L577" s="57" t="s">
@@ -32135,7 +32127,7 @@
       <c r="J578" s="26">
         <v>54645</v>
       </c>
-      <c r="K578" s="151">
+      <c r="K578" s="149">
         <v>47975008</v>
       </c>
       <c r="L578" s="57" t="s">
@@ -32174,15 +32166,15 @@
       <c r="J579" s="26">
         <v>54644</v>
       </c>
-      <c r="K579" s="159">
+      <c r="K579" s="157">
         <v>61344008</v>
       </c>
-      <c r="L579" s="143" t="s">
-        <v>2550</v>
+      <c r="L579" s="141" t="s">
+        <v>2547</v>
       </c>
       <c r="M579" s="10"/>
       <c r="N579" s="131" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="580" spans="1:14" s="1" customFormat="1" ht="17">
@@ -32213,15 +32205,15 @@
       <c r="J580" s="26">
         <v>281502</v>
       </c>
-      <c r="K580" s="159">
+      <c r="K580" s="157">
         <v>61344008</v>
       </c>
-      <c r="L580" s="143" t="s">
-        <v>2550</v>
+      <c r="L580" s="141" t="s">
+        <v>2547</v>
       </c>
       <c r="M580" s="10"/>
       <c r="N580" s="131" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="581" spans="1:14" s="1" customFormat="1" ht="17">
@@ -32254,7 +32246,7 @@
       <c r="J581" s="18">
         <v>7394</v>
       </c>
-      <c r="K581" s="151">
+      <c r="K581" s="149">
         <v>44567001</v>
       </c>
       <c r="L581" s="57" t="s">
@@ -32291,7 +32283,7 @@
         <v>1509</v>
       </c>
       <c r="J582" s="18"/>
-      <c r="K582" s="151">
+      <c r="K582" s="149">
         <v>44567001</v>
       </c>
       <c r="L582" s="57" t="s">
@@ -32331,7 +32323,7 @@
       <c r="J583" s="18">
         <v>264814</v>
       </c>
-      <c r="K583" s="151">
+      <c r="K583" s="149">
         <v>87953007</v>
       </c>
       <c r="L583" s="57" t="s">
@@ -32372,7 +32364,7 @@
       <c r="J584" s="18">
         <v>19667</v>
       </c>
-      <c r="K584" s="151">
+      <c r="K584" s="149">
         <v>13648007</v>
       </c>
       <c r="L584" s="57" t="s">
@@ -32409,7 +32401,7 @@
         <v>1996</v>
       </c>
       <c r="J585" s="18"/>
-      <c r="K585" s="151">
+      <c r="K585" s="149">
         <v>71553001</v>
       </c>
       <c r="L585" s="57" t="s">
@@ -32450,7 +32442,7 @@
       <c r="J586" s="18">
         <v>7212</v>
       </c>
-      <c r="K586" s="151">
+      <c r="K586" s="149">
         <v>40689003</v>
       </c>
       <c r="L586" s="57" t="s">
@@ -32493,7 +32485,7 @@
       <c r="J587" s="18">
         <v>7211</v>
       </c>
-      <c r="K587" s="151">
+      <c r="K587" s="149">
         <v>40689003</v>
       </c>
       <c r="L587" s="57" t="s">
@@ -32534,7 +32526,7 @@
       <c r="J588" s="18">
         <v>17558</v>
       </c>
-      <c r="K588" s="151">
+      <c r="K588" s="149">
         <v>35039007</v>
       </c>
       <c r="L588" s="57" t="s">
@@ -32573,7 +32565,7 @@
       <c r="J589" s="18">
         <v>4838</v>
       </c>
-      <c r="K589" s="151">
+      <c r="K589" s="149">
         <v>72107004</v>
       </c>
       <c r="L589" s="57" t="s">
@@ -32612,7 +32604,7 @@
       <c r="J590" s="18">
         <v>4761</v>
       </c>
-      <c r="K590" s="151">
+      <c r="K590" s="149">
         <v>8887007</v>
       </c>
       <c r="L590" s="57" t="s">
@@ -32653,7 +32645,7 @@
       <c r="J591" s="18">
         <v>4751</v>
       </c>
-      <c r="K591" s="151">
+      <c r="K591" s="149">
         <v>8887007</v>
       </c>
       <c r="L591" s="57" t="s">
@@ -32694,7 +32686,7 @@
       <c r="J592" s="18">
         <v>18886</v>
       </c>
-      <c r="K592" s="151">
+      <c r="K592" s="149">
         <v>63507001</v>
       </c>
       <c r="L592" s="57" t="s">
@@ -32733,7 +32725,7 @@
       </c>
       <c r="I593" s="25"/>
       <c r="J593" s="26"/>
-      <c r="K593" s="151">
+      <c r="K593" s="149">
         <v>47975008</v>
       </c>
       <c r="L593" s="57" t="s">
@@ -32772,7 +32764,7 @@
       </c>
       <c r="I594" s="25"/>
       <c r="J594" s="26"/>
-      <c r="K594" s="151">
+      <c r="K594" s="149">
         <v>47975008</v>
       </c>
       <c r="L594" s="57" t="s">
@@ -32813,7 +32805,7 @@
       <c r="J595" s="18">
         <v>18885</v>
       </c>
-      <c r="K595" s="151">
+      <c r="K595" s="149">
         <v>63507001</v>
       </c>
       <c r="L595" s="57" t="s">
@@ -32854,7 +32846,7 @@
       <c r="J596" s="18">
         <v>18810</v>
       </c>
-      <c r="K596" s="151">
+      <c r="K596" s="149">
         <v>40300007</v>
       </c>
       <c r="L596" s="57" t="s">
@@ -32895,17 +32887,17 @@
       <c r="J597" s="26">
         <v>281500</v>
       </c>
-      <c r="K597" s="159">
+      <c r="K597" s="157">
         <v>61344008</v>
       </c>
-      <c r="L597" s="143" t="s">
-        <v>2550</v>
+      <c r="L597" s="141" t="s">
+        <v>2547</v>
       </c>
       <c r="M597" s="130" t="s">
         <v>2038</v>
       </c>
       <c r="N597" s="131" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="598" spans="1:14" s="1" customFormat="1">
@@ -32938,7 +32930,7 @@
       <c r="J598" s="26">
         <v>9609</v>
       </c>
-      <c r="K598" s="151">
+      <c r="K598" s="149">
         <v>75573002</v>
       </c>
       <c r="L598" s="57" t="s">
@@ -32977,7 +32969,7 @@
       <c r="J599" s="18">
         <v>18809</v>
       </c>
-      <c r="K599" s="151">
+      <c r="K599" s="149">
         <v>40300007</v>
       </c>
       <c r="L599" s="57" t="s">
@@ -33018,7 +33010,7 @@
       <c r="J600" s="18">
         <v>21387</v>
       </c>
-      <c r="K600" s="151">
+      <c r="K600" s="149">
         <v>46027005</v>
       </c>
       <c r="L600" s="57" t="s">
@@ -33055,7 +33047,7 @@
         <v>1603</v>
       </c>
       <c r="J601" s="18"/>
-      <c r="K601" s="151">
+      <c r="K601" s="149">
         <v>1162492000</v>
       </c>
       <c r="L601" s="57" t="s">
@@ -33096,7 +33088,7 @@
       <c r="J602" s="18">
         <v>17888</v>
       </c>
-      <c r="K602" s="151">
+      <c r="K602" s="149">
         <v>87953007</v>
       </c>
       <c r="L602" s="57" t="s">
@@ -33139,7 +33131,7 @@
       <c r="J603" s="18">
         <v>17887</v>
       </c>
-      <c r="K603" s="151">
+      <c r="K603" s="149">
         <v>87953007</v>
       </c>
       <c r="L603" s="57" t="s">
@@ -33180,7 +33172,7 @@
       <c r="J604" s="18">
         <v>21388</v>
       </c>
-      <c r="K604" s="151">
+      <c r="K604" s="149">
         <v>46027005</v>
       </c>
       <c r="L604" s="57" t="s">
@@ -33221,7 +33213,7 @@
       <c r="J605" s="18">
         <v>13112</v>
       </c>
-      <c r="K605" s="152">
+      <c r="K605" s="150">
         <v>71585003</v>
       </c>
       <c r="L605" s="56" t="s">
@@ -33262,7 +33254,7 @@
       <c r="J606" s="18">
         <v>13111</v>
       </c>
-      <c r="K606" s="152">
+      <c r="K606" s="150">
         <v>71585003</v>
       </c>
       <c r="L606" s="56" t="s">
@@ -33303,7 +33295,7 @@
       <c r="J607" s="18">
         <v>4754</v>
       </c>
-      <c r="K607" s="151">
+      <c r="K607" s="149">
         <v>12123001</v>
       </c>
       <c r="L607" s="57" t="s">
@@ -33344,7 +33336,7 @@
       <c r="J608" s="18">
         <v>4762</v>
       </c>
-      <c r="K608" s="151">
+      <c r="K608" s="149">
         <v>12123001</v>
       </c>
       <c r="L608" s="57" t="s">
@@ -33385,7 +33377,7 @@
       <c r="J609" s="18">
         <v>66645</v>
       </c>
-      <c r="K609" s="151">
+      <c r="K609" s="149">
         <v>32764006</v>
       </c>
       <c r="L609" s="57" t="s">
@@ -33424,7 +33416,7 @@
       <c r="J610" s="18">
         <v>66643</v>
       </c>
-      <c r="K610" s="151">
+      <c r="K610" s="149">
         <v>430757002</v>
       </c>
       <c r="L610" s="57" t="s">
@@ -33463,7 +33455,7 @@
       <c r="J611" s="18">
         <v>4725</v>
       </c>
-      <c r="K611" s="151">
+      <c r="K611" s="149">
         <v>9454009</v>
       </c>
       <c r="L611" s="57" t="s">
@@ -33502,7 +33494,7 @@
       <c r="J612" s="18">
         <v>10951</v>
       </c>
-      <c r="K612" s="151">
+      <c r="K612" s="149">
         <v>35532006</v>
       </c>
       <c r="L612" s="57" t="s">
@@ -33543,7 +33535,7 @@
       <c r="J613" s="18">
         <v>4720</v>
       </c>
-      <c r="K613" s="151">
+      <c r="K613" s="149">
         <v>35532006</v>
       </c>
       <c r="L613" s="57" t="s">
@@ -33584,7 +33576,7 @@
       <c r="J614" s="18">
         <v>19949</v>
       </c>
-      <c r="K614" s="151">
+      <c r="K614" s="149">
         <v>76784001</v>
       </c>
       <c r="L614" s="57" t="s">
@@ -33619,7 +33611,7 @@
       </c>
       <c r="I615" s="17"/>
       <c r="J615" s="18"/>
-      <c r="K615" s="151">
+      <c r="K615" s="149">
         <v>279894000</v>
       </c>
       <c r="L615" s="57" t="s">
@@ -33656,7 +33648,7 @@
         <v>1610</v>
       </c>
       <c r="J616" s="18"/>
-      <c r="K616" s="151">
+      <c r="K616" s="149">
         <v>438074005</v>
       </c>
       <c r="L616" s="57" t="s">
@@ -33691,7 +33683,7 @@
         <v>1632</v>
       </c>
       <c r="J617" s="26"/>
-      <c r="K617" s="166">
+      <c r="K617" s="164">
         <v>17401000</v>
       </c>
       <c r="L617" s="121" t="s">
@@ -33728,7 +33720,7 @@
         <v>1515</v>
       </c>
       <c r="J618" s="18"/>
-      <c r="K618" s="151">
+      <c r="K618" s="149">
         <v>63190004</v>
       </c>
       <c r="L618" s="57" t="s">
@@ -33767,7 +33759,7 @@
       <c r="J619" s="26">
         <v>7235</v>
       </c>
-      <c r="K619" s="151">
+      <c r="K619" s="149">
         <v>91134007</v>
       </c>
       <c r="L619" s="57" t="s">
@@ -33804,7 +33796,7 @@
       <c r="J620" s="26">
         <v>7246</v>
       </c>
-      <c r="K620" s="151">
+      <c r="K620" s="149">
         <v>39057004</v>
       </c>
       <c r="L620" s="57" t="s">
@@ -33843,7 +33835,7 @@
       <c r="J621" s="26">
         <v>7234</v>
       </c>
-      <c r="K621" s="151">
+      <c r="K621" s="149">
         <v>46030003</v>
       </c>
       <c r="L621" s="57" t="s">
@@ -33882,7 +33874,7 @@
       <c r="J622" s="18">
         <v>7100</v>
       </c>
-      <c r="K622" s="151">
+      <c r="K622" s="149">
         <v>21814001</v>
       </c>
       <c r="L622" s="57" t="s">
@@ -33921,7 +33913,7 @@
       <c r="J623" s="18">
         <v>7101</v>
       </c>
-      <c r="K623" s="151">
+      <c r="K623" s="149">
         <v>21814001</v>
       </c>
       <c r="L623" s="57" t="s">
@@ -33962,7 +33954,7 @@
       <c r="J624" s="18">
         <v>7098</v>
       </c>
-      <c r="K624" s="151">
+      <c r="K624" s="149">
         <v>21814001</v>
       </c>
       <c r="L624" s="57" t="s">
@@ -34005,7 +33997,7 @@
       <c r="J625" s="18">
         <v>4763</v>
       </c>
-      <c r="K625" s="151">
+      <c r="K625" s="149">
         <v>9454009</v>
       </c>
       <c r="L625" s="57" t="s">
@@ -34048,7 +34040,7 @@
       <c r="J626" s="18">
         <v>4755</v>
       </c>
-      <c r="K626" s="151">
+      <c r="K626" s="149">
         <v>9454009</v>
       </c>
       <c r="L626" s="57" t="s">
@@ -34087,7 +34079,7 @@
       <c r="J627" s="18">
         <v>323919</v>
       </c>
-      <c r="K627" s="151">
+      <c r="K627" s="149">
         <v>46105003</v>
       </c>
       <c r="L627" s="57" t="s">
@@ -34128,7 +34120,7 @@
       <c r="J628" s="18">
         <v>20462</v>
       </c>
-      <c r="K628" s="151">
+      <c r="K628" s="149">
         <v>45292006</v>
       </c>
       <c r="L628" s="57" t="s">
@@ -34167,7 +34159,7 @@
       <c r="J629" s="22">
         <v>19971</v>
       </c>
-      <c r="K629" s="151">
+      <c r="K629" s="149">
         <v>263355003</v>
       </c>
       <c r="L629" s="57" t="s">
@@ -34204,11 +34196,11 @@
       <c r="J630" s="18">
         <v>256135</v>
       </c>
-      <c r="K630" s="168">
+      <c r="K630" s="166">
         <v>38266002</v>
       </c>
       <c r="L630" s="121" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="M630" s="10"/>
       <c r="N630" s="11"/>
@@ -34241,7 +34233,7 @@
         <v>1506</v>
       </c>
       <c r="J631" s="18"/>
-      <c r="K631" s="151">
+      <c r="K631" s="149">
         <v>75330005</v>
       </c>
       <c r="L631" s="100" t="s">
@@ -34280,7 +34272,7 @@
       <c r="J632" s="18">
         <v>55099</v>
       </c>
-      <c r="K632" s="167">
+      <c r="K632" s="165">
         <v>52940008</v>
       </c>
       <c r="L632" s="86" t="s">
@@ -34315,7 +34307,7 @@
         <v>2232</v>
       </c>
       <c r="J633" s="21"/>
-      <c r="K633" s="159">
+      <c r="K633" s="157">
         <v>15328005</v>
       </c>
       <c r="L633" s="121" t="s">
@@ -34354,7 +34346,7 @@
       <c r="J634" s="26">
         <v>7236</v>
       </c>
-      <c r="K634" s="151">
+      <c r="K634" s="149">
         <v>34202007</v>
       </c>
       <c r="L634" s="77" t="s">
@@ -34393,7 +34385,7 @@
       <c r="J635" s="18">
         <v>24043</v>
       </c>
-      <c r="K635" s="151">
+      <c r="K635" s="149">
         <v>1172006</v>
       </c>
       <c r="L635" s="57" t="s">
@@ -34428,7 +34420,7 @@
         <v>1446</v>
       </c>
       <c r="J636" s="18"/>
-      <c r="K636" s="151">
+      <c r="K636" s="149">
         <v>123037004</v>
       </c>
       <c r="L636" s="57" t="s">
@@ -34467,7 +34459,7 @@
         <v>651</v>
       </c>
       <c r="J637" s="18"/>
-      <c r="K637" s="151">
+      <c r="K637" s="149">
         <v>3572006</v>
       </c>
       <c r="L637" s="57" t="s">
@@ -34506,7 +34498,7 @@
       <c r="J638" s="18">
         <v>72063</v>
       </c>
-      <c r="K638" s="151">
+      <c r="K638" s="149">
         <v>3572006</v>
       </c>
       <c r="L638" s="57" t="s">
@@ -34545,7 +34537,7 @@
       <c r="J639" s="18">
         <v>12519</v>
       </c>
-      <c r="K639" s="151">
+      <c r="K639" s="149">
         <v>14806007</v>
       </c>
       <c r="L639" s="57" t="s">
@@ -34584,7 +34576,7 @@
       <c r="J640" s="18">
         <v>12520</v>
       </c>
-      <c r="K640" s="151">
+      <c r="K640" s="149">
         <v>39976000</v>
       </c>
       <c r="L640" s="57" t="s">
@@ -34623,7 +34615,7 @@
       <c r="J641" s="18">
         <v>12521</v>
       </c>
-      <c r="K641" s="151">
+      <c r="K641" s="149">
         <v>91116008</v>
       </c>
       <c r="L641" s="57" t="s">
@@ -34662,7 +34654,7 @@
       <c r="J642" s="18">
         <v>12522</v>
       </c>
-      <c r="K642" s="151">
+      <c r="K642" s="149">
         <v>14705001</v>
       </c>
       <c r="L642" s="57" t="s">
@@ -34701,7 +34693,7 @@
       <c r="J643" s="18">
         <v>12523</v>
       </c>
-      <c r="K643" s="151">
+      <c r="K643" s="149">
         <v>67479001</v>
       </c>
       <c r="L643" s="57" t="s">
@@ -34740,7 +34732,7 @@
       <c r="J644" s="18">
         <v>12524</v>
       </c>
-      <c r="K644" s="151">
+      <c r="K644" s="149">
         <v>88298007</v>
       </c>
       <c r="L644" s="57" t="s">
@@ -34779,7 +34771,7 @@
       <c r="J645" s="18">
         <v>12525</v>
       </c>
-      <c r="K645" s="151">
+      <c r="K645" s="149">
         <v>16126006</v>
       </c>
       <c r="L645" s="57" t="s">
@@ -34818,7 +34810,7 @@
       <c r="J646" s="18">
         <v>72065</v>
       </c>
-      <c r="K646" s="151">
+      <c r="K646" s="149">
         <v>73903008</v>
       </c>
       <c r="L646" s="57" t="s">
@@ -34857,7 +34849,7 @@
       <c r="J647" s="18">
         <v>13072</v>
       </c>
-      <c r="K647" s="151">
+      <c r="K647" s="149">
         <v>61032001</v>
       </c>
       <c r="L647" s="57" t="s">
@@ -34896,7 +34888,7 @@
       <c r="J648" s="18">
         <v>13073</v>
       </c>
-      <c r="K648" s="151">
+      <c r="K648" s="149">
         <v>53983007</v>
       </c>
       <c r="L648" s="57" t="s">
@@ -34935,7 +34927,7 @@
       <c r="J649" s="18">
         <v>13074</v>
       </c>
-      <c r="K649" s="151">
+      <c r="K649" s="149">
         <v>55492004</v>
       </c>
       <c r="L649" s="57" t="s">
@@ -34974,7 +34966,7 @@
       <c r="J650" s="18">
         <v>13075</v>
       </c>
-      <c r="K650" s="151">
+      <c r="K650" s="149">
         <v>71996003</v>
       </c>
       <c r="L650" s="57" t="s">
@@ -35013,7 +35005,7 @@
       <c r="J651" s="18">
         <v>13076</v>
       </c>
-      <c r="K651" s="151">
+      <c r="K651" s="149">
         <v>21799000</v>
       </c>
       <c r="L651" s="57" t="s">
@@ -35052,7 +35044,7 @@
       <c r="J652" s="18">
         <v>12526</v>
       </c>
-      <c r="K652" s="151">
+      <c r="K652" s="149">
         <v>87141009</v>
       </c>
       <c r="L652" s="57" t="s">
@@ -35091,7 +35083,7 @@
       <c r="J653" s="18">
         <v>13077</v>
       </c>
-      <c r="K653" s="151">
+      <c r="K653" s="149">
         <v>65985001</v>
       </c>
       <c r="L653" s="57" t="s">
@@ -35130,7 +35122,7 @@
       <c r="J654" s="18">
         <v>13078</v>
       </c>
-      <c r="K654" s="151">
+      <c r="K654" s="149">
         <v>11808007</v>
       </c>
       <c r="L654" s="57" t="s">
@@ -35169,7 +35161,7 @@
       <c r="J655" s="18">
         <v>13079</v>
       </c>
-      <c r="K655" s="151">
+      <c r="K655" s="149">
         <v>49967005</v>
       </c>
       <c r="L655" s="57" t="s">
@@ -35208,7 +35200,7 @@
       <c r="J656" s="18">
         <v>13080</v>
       </c>
-      <c r="K656" s="151">
+      <c r="K656" s="149">
         <v>69950008</v>
       </c>
       <c r="L656" s="57" t="s">
@@ -35247,7 +35239,7 @@
       <c r="J657" s="18">
         <v>13081</v>
       </c>
-      <c r="K657" s="151">
+      <c r="K657" s="149">
         <v>21452006</v>
       </c>
       <c r="L657" s="57" t="s">
@@ -35286,7 +35278,7 @@
       <c r="J658" s="18">
         <v>9139</v>
       </c>
-      <c r="K658" s="151">
+      <c r="K658" s="149">
         <v>35769007</v>
       </c>
       <c r="L658" s="57" t="s">
@@ -35325,7 +35317,7 @@
       <c r="J659" s="18">
         <v>9165</v>
       </c>
-      <c r="K659" s="151">
+      <c r="K659" s="149">
         <v>56094003</v>
       </c>
       <c r="L659" s="57" t="s">
@@ -35364,7 +35356,7 @@
       <c r="J660" s="18">
         <v>9187</v>
       </c>
-      <c r="K660" s="151">
+      <c r="K660" s="149">
         <v>50060007</v>
       </c>
       <c r="L660" s="57" t="s">
@@ -35403,7 +35395,7 @@
       <c r="J661" s="18">
         <v>9209</v>
       </c>
-      <c r="K661" s="151">
+      <c r="K661" s="149">
         <v>73138009</v>
       </c>
       <c r="L661" s="57" t="s">
@@ -35442,7 +35434,7 @@
       <c r="J662" s="18">
         <v>9248</v>
       </c>
-      <c r="K662" s="151">
+      <c r="K662" s="149">
         <v>86197001</v>
       </c>
       <c r="L662" s="57" t="s">
@@ -35481,7 +35473,7 @@
       <c r="J663" s="18">
         <v>9922</v>
       </c>
-      <c r="K663" s="151">
+      <c r="K663" s="149">
         <v>6105006</v>
       </c>
       <c r="L663" s="57" t="s">
@@ -35520,7 +35512,7 @@
       <c r="J664" s="18">
         <v>9945</v>
       </c>
-      <c r="K664" s="151">
+      <c r="K664" s="149">
         <v>32430008</v>
       </c>
       <c r="L664" s="57" t="s">
@@ -35559,7 +35551,7 @@
       <c r="J665" s="18">
         <v>9968</v>
       </c>
-      <c r="K665" s="151">
+      <c r="K665" s="149">
         <v>71737002</v>
       </c>
       <c r="L665" s="57" t="s">
@@ -35598,7 +35590,7 @@
       <c r="J666" s="18">
         <v>9991</v>
       </c>
-      <c r="K666" s="151">
+      <c r="K666" s="149">
         <v>77435000</v>
       </c>
       <c r="L666" s="57" t="s">
@@ -35637,7 +35629,7 @@
       <c r="J667" s="18">
         <v>10014</v>
       </c>
-      <c r="K667" s="151">
+      <c r="K667" s="149">
         <v>33766003</v>
       </c>
       <c r="L667" s="57" t="s">
@@ -35676,7 +35668,7 @@
       <c r="J668" s="18">
         <v>10037</v>
       </c>
-      <c r="K668" s="151">
+      <c r="K668" s="149">
         <v>48405002</v>
       </c>
       <c r="L668" s="57" t="s">
@@ -35715,7 +35707,7 @@
       <c r="J669" s="18">
         <v>10059</v>
       </c>
-      <c r="K669" s="151">
+      <c r="K669" s="149">
         <v>52120002</v>
       </c>
       <c r="L669" s="57" t="s">
@@ -35754,7 +35746,7 @@
       <c r="J670" s="18">
         <v>10081</v>
       </c>
-      <c r="K670" s="151">
+      <c r="K670" s="149">
         <v>280849005</v>
       </c>
       <c r="L670" s="57" t="s">
@@ -35793,14 +35785,16 @@
       <c r="J671" s="18" t="s">
         <v>2026</v>
       </c>
-      <c r="K671" s="151" t="s">
-        <v>2485</v>
+      <c r="K671" s="172">
+        <v>1186895000</v>
       </c>
       <c r="L671" s="57" t="s">
         <v>2179</v>
       </c>
       <c r="M671" s="10"/>
-      <c r="N671" s="11"/>
+      <c r="N671" s="173" t="s">
+        <v>2485</v>
+      </c>
     </row>
     <row r="672" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A672" s="56"/>
@@ -35832,14 +35826,14 @@
       <c r="J672" s="26">
         <v>11945</v>
       </c>
-      <c r="K672" s="159">
+      <c r="K672" s="157">
         <v>3572006</v>
       </c>
       <c r="L672" s="121" t="s">
         <v>2145</v>
       </c>
-      <c r="M672" s="146" t="s">
-        <v>2549</v>
+      <c r="M672" s="144" t="s">
+        <v>2546</v>
       </c>
       <c r="N672" s="11" t="s">
         <v>2461</v>
@@ -35875,7 +35869,7 @@
       <c r="J673" s="26">
         <v>56429</v>
       </c>
-      <c r="K673" s="172">
+      <c r="K673" s="170">
         <v>1187337007</v>
       </c>
       <c r="L673" s="57" t="s">
@@ -35916,7 +35910,7 @@
       <c r="J674" s="26">
         <v>54368</v>
       </c>
-      <c r="K674" s="151">
+      <c r="K674" s="149">
         <v>35763008</v>
       </c>
       <c r="L674" s="10" t="s">
@@ -35953,7 +35947,7 @@
       <c r="J675" s="18">
         <v>55459</v>
       </c>
-      <c r="K675" s="151">
+      <c r="K675" s="149">
         <v>46105003</v>
       </c>
       <c r="L675" s="57" t="s">
@@ -35992,7 +35986,7 @@
       <c r="J676" s="18">
         <v>55458</v>
       </c>
-      <c r="K676" s="151">
+      <c r="K676" s="149">
         <v>46105003</v>
       </c>
       <c r="L676" s="57" t="s">
@@ -36031,15 +36025,15 @@
       <c r="J677" s="67" t="s">
         <v>2026</v>
       </c>
-      <c r="K677" s="169">
+      <c r="K677" s="167">
         <v>1187336003</v>
       </c>
       <c r="L677" s="87" t="s">
         <v>2479</v>
       </c>
       <c r="M677" s="88"/>
-      <c r="N677" s="173" t="s">
-        <v>2566</v>
+      <c r="N677" s="171" t="s">
+        <v>2563</v>
       </c>
     </row>
     <row r="678" spans="1:14" s="1" customFormat="1" ht="17">
@@ -36072,7 +36066,7 @@
       <c r="J678" s="59">
         <v>9710</v>
       </c>
-      <c r="K678" s="153">
+      <c r="K678" s="151">
         <v>87166008</v>
       </c>
       <c r="L678" s="75" t="s">
@@ -36111,7 +36105,7 @@
       <c r="J679" s="59">
         <v>54683</v>
       </c>
-      <c r="K679" s="153">
+      <c r="K679" s="151">
         <v>24999009</v>
       </c>
       <c r="L679" s="75" t="s">
@@ -36146,7 +36140,7 @@
         <v>1852</v>
       </c>
       <c r="J680" s="71"/>
-      <c r="K680" s="153">
+      <c r="K680" s="151">
         <v>123037004</v>
       </c>
       <c r="L680" s="75" t="s">
@@ -36166,7 +36160,7 @@
       <c r="H681" s="69"/>
       <c r="I681" s="72"/>
       <c r="J681" s="69"/>
-      <c r="K681" s="153"/>
+      <c r="K681" s="151"/>
       <c r="L681" s="75"/>
       <c r="M681" s="69"/>
       <c r="N681" s="89"/>
@@ -36182,7 +36176,7 @@
       <c r="H682" s="69"/>
       <c r="I682" s="72"/>
       <c r="J682" s="69"/>
-      <c r="K682" s="153"/>
+      <c r="K682" s="151"/>
       <c r="L682" s="56"/>
       <c r="M682" s="69"/>
       <c r="N682" s="89"/>
@@ -36198,7 +36192,7 @@
       <c r="H683" s="69"/>
       <c r="I683" s="72"/>
       <c r="J683" s="69"/>
-      <c r="K683" s="152"/>
+      <c r="K683" s="150"/>
       <c r="L683" s="75"/>
       <c r="M683" s="69"/>
       <c r="N683" s="89"/>
@@ -36214,7 +36208,7 @@
       <c r="H684" s="69"/>
       <c r="I684" s="72"/>
       <c r="J684" s="69"/>
-      <c r="K684" s="153"/>
+      <c r="K684" s="151"/>
       <c r="L684" s="75"/>
       <c r="M684" s="69"/>
       <c r="N684" s="89"/>
@@ -36230,7 +36224,7 @@
       <c r="H685" s="69"/>
       <c r="I685" s="72"/>
       <c r="J685" s="69"/>
-      <c r="K685" s="153"/>
+      <c r="K685" s="151"/>
       <c r="L685" s="75"/>
       <c r="M685" s="69"/>
       <c r="N685" s="89"/>
@@ -36246,7 +36240,7 @@
       <c r="H686" s="69"/>
       <c r="I686" s="72"/>
       <c r="J686" s="69"/>
-      <c r="K686" s="153"/>
+      <c r="K686" s="151"/>
       <c r="L686" s="75"/>
       <c r="M686" s="69"/>
       <c r="N686" s="89"/>
@@ -36262,7 +36256,7 @@
       <c r="H687" s="69"/>
       <c r="I687" s="72"/>
       <c r="J687" s="69"/>
-      <c r="K687" s="153"/>
+      <c r="K687" s="151"/>
       <c r="L687" s="75"/>
       <c r="M687" s="69"/>
       <c r="N687" s="89"/>
@@ -36278,7 +36272,7 @@
       <c r="H688" s="69"/>
       <c r="I688" s="72"/>
       <c r="J688" s="69"/>
-      <c r="K688" s="153"/>
+      <c r="K688" s="151"/>
       <c r="L688" s="75"/>
       <c r="M688" s="69"/>
       <c r="N688" s="89"/>
@@ -36294,7 +36288,7 @@
       <c r="H689" s="69"/>
       <c r="I689" s="72"/>
       <c r="J689" s="69"/>
-      <c r="K689" s="153"/>
+      <c r="K689" s="151"/>
       <c r="L689" s="75"/>
       <c r="M689" s="69"/>
       <c r="N689" s="89"/>
@@ -36310,7 +36304,7 @@
       <c r="H690" s="69"/>
       <c r="I690" s="72"/>
       <c r="J690" s="69"/>
-      <c r="K690" s="153"/>
+      <c r="K690" s="151"/>
       <c r="L690" s="75"/>
       <c r="M690" s="69"/>
       <c r="N690" s="89"/>
@@ -36326,7 +36320,7 @@
       <c r="H691" s="69"/>
       <c r="I691" s="72"/>
       <c r="J691" s="69"/>
-      <c r="K691" s="153"/>
+      <c r="K691" s="151"/>
       <c r="L691" s="75"/>
       <c r="M691" s="69"/>
       <c r="N691" s="89"/>
@@ -36342,7 +36336,7 @@
       <c r="H692" s="69"/>
       <c r="I692" s="72"/>
       <c r="J692" s="69"/>
-      <c r="K692" s="153"/>
+      <c r="K692" s="151"/>
       <c r="L692" s="75"/>
       <c r="M692" s="69"/>
       <c r="N692" s="89"/>
@@ -36358,7 +36352,7 @@
       <c r="H693" s="69"/>
       <c r="I693" s="72"/>
       <c r="J693" s="69"/>
-      <c r="K693" s="153"/>
+      <c r="K693" s="151"/>
       <c r="L693" s="75"/>
       <c r="M693" s="69"/>
       <c r="N693" s="89"/>
@@ -36374,7 +36368,7 @@
       <c r="H694" s="69"/>
       <c r="I694" s="72"/>
       <c r="J694" s="69"/>
-      <c r="K694" s="153"/>
+      <c r="K694" s="151"/>
       <c r="L694" s="75"/>
       <c r="M694" s="69"/>
       <c r="N694" s="89"/>
@@ -36390,7 +36384,7 @@
       <c r="H695" s="69"/>
       <c r="I695" s="72"/>
       <c r="J695" s="69"/>
-      <c r="K695" s="153"/>
+      <c r="K695" s="151"/>
       <c r="L695" s="75"/>
       <c r="M695" s="69"/>
       <c r="N695" s="89"/>
@@ -36406,7 +36400,7 @@
       <c r="H696" s="69"/>
       <c r="I696" s="72"/>
       <c r="J696" s="69"/>
-      <c r="K696" s="153"/>
+      <c r="K696" s="151"/>
       <c r="L696" s="75"/>
       <c r="M696" s="69"/>
       <c r="N696" s="89"/>
@@ -36422,7 +36416,7 @@
       <c r="H697" s="69"/>
       <c r="I697" s="72"/>
       <c r="J697" s="69"/>
-      <c r="K697" s="153"/>
+      <c r="K697" s="151"/>
       <c r="L697" s="75"/>
       <c r="M697" s="69"/>
       <c r="N697" s="89"/>
@@ -36438,7 +36432,7 @@
       <c r="H698" s="69"/>
       <c r="I698" s="72"/>
       <c r="J698" s="69"/>
-      <c r="K698" s="153"/>
+      <c r="K698" s="151"/>
       <c r="L698" s="75"/>
       <c r="M698" s="69"/>
       <c r="N698" s="89"/>
@@ -36454,7 +36448,7 @@
       <c r="H699" s="69"/>
       <c r="I699" s="72"/>
       <c r="J699" s="69"/>
-      <c r="K699" s="153"/>
+      <c r="K699" s="151"/>
       <c r="L699" s="75"/>
       <c r="M699" s="69"/>
       <c r="N699" s="89"/>
@@ -36470,7 +36464,7 @@
       <c r="H700" s="69"/>
       <c r="I700" s="72"/>
       <c r="J700" s="69"/>
-      <c r="K700" s="153"/>
+      <c r="K700" s="151"/>
       <c r="L700" s="75"/>
       <c r="M700" s="69"/>
       <c r="N700" s="89"/>
@@ -36486,7 +36480,7 @@
       <c r="H701" s="69"/>
       <c r="I701" s="72"/>
       <c r="J701" s="69"/>
-      <c r="K701" s="153"/>
+      <c r="K701" s="151"/>
       <c r="L701" s="75"/>
       <c r="M701" s="69"/>
       <c r="N701" s="89"/>
@@ -36502,7 +36496,7 @@
       <c r="H702" s="69"/>
       <c r="I702" s="72"/>
       <c r="J702" s="69"/>
-      <c r="K702" s="153"/>
+      <c r="K702" s="151"/>
       <c r="L702" s="75"/>
       <c r="M702" s="69"/>
       <c r="N702" s="89"/>
@@ -36518,7 +36512,7 @@
       <c r="H703" s="69"/>
       <c r="I703" s="72"/>
       <c r="J703" s="69"/>
-      <c r="K703" s="153"/>
+      <c r="K703" s="151"/>
       <c r="L703" s="75"/>
       <c r="M703" s="69"/>
       <c r="N703" s="89"/>
@@ -36534,7 +36528,7 @@
       <c r="H704" s="69"/>
       <c r="I704" s="72"/>
       <c r="J704" s="69"/>
-      <c r="K704" s="153"/>
+      <c r="K704" s="151"/>
       <c r="L704" s="75"/>
       <c r="M704" s="69"/>
       <c r="N704" s="89"/>
@@ -36550,7 +36544,7 @@
       <c r="H705" s="69"/>
       <c r="I705" s="72"/>
       <c r="J705" s="69"/>
-      <c r="K705" s="153"/>
+      <c r="K705" s="151"/>
       <c r="L705" s="75"/>
       <c r="M705" s="69"/>
       <c r="N705" s="89"/>
@@ -36566,7 +36560,7 @@
       <c r="H706" s="69"/>
       <c r="I706" s="72"/>
       <c r="J706" s="69"/>
-      <c r="K706" s="153"/>
+      <c r="K706" s="151"/>
       <c r="L706" s="75"/>
       <c r="M706" s="69"/>
       <c r="N706" s="89"/>
@@ -36582,7 +36576,7 @@
       <c r="H707" s="69"/>
       <c r="I707" s="72"/>
       <c r="J707" s="69"/>
-      <c r="K707" s="153"/>
+      <c r="K707" s="151"/>
       <c r="L707" s="75"/>
       <c r="M707" s="69"/>
       <c r="N707" s="89"/>
@@ -36598,7 +36592,7 @@
       <c r="H708" s="69"/>
       <c r="I708" s="72"/>
       <c r="J708" s="69"/>
-      <c r="K708" s="153"/>
+      <c r="K708" s="151"/>
       <c r="L708" s="75"/>
       <c r="M708" s="69"/>
       <c r="N708" s="89"/>
@@ -36614,7 +36608,7 @@
       <c r="H709" s="69"/>
       <c r="I709" s="72"/>
       <c r="J709" s="69"/>
-      <c r="K709" s="153"/>
+      <c r="K709" s="151"/>
       <c r="L709" s="75"/>
       <c r="M709" s="69"/>
       <c r="N709" s="89"/>
@@ -36630,7 +36624,7 @@
       <c r="H710" s="69"/>
       <c r="I710" s="72"/>
       <c r="J710" s="69"/>
-      <c r="K710" s="153"/>
+      <c r="K710" s="151"/>
       <c r="L710" s="75"/>
       <c r="M710" s="69"/>
       <c r="N710" s="89"/>
@@ -36646,7 +36640,7 @@
       <c r="H711" s="69"/>
       <c r="I711" s="72"/>
       <c r="J711" s="69"/>
-      <c r="K711" s="153"/>
+      <c r="K711" s="151"/>
       <c r="L711" s="75"/>
       <c r="M711" s="69"/>
       <c r="N711" s="89"/>
@@ -36662,7 +36656,7 @@
       <c r="H712" s="69"/>
       <c r="I712" s="72"/>
       <c r="J712" s="69"/>
-      <c r="K712" s="153"/>
+      <c r="K712" s="151"/>
       <c r="L712" s="75"/>
       <c r="M712" s="69"/>
       <c r="N712" s="89"/>
@@ -36678,7 +36672,7 @@
       <c r="H713" s="69"/>
       <c r="I713" s="72"/>
       <c r="J713" s="69"/>
-      <c r="K713" s="153"/>
+      <c r="K713" s="151"/>
       <c r="L713" s="75"/>
       <c r="M713" s="69"/>
       <c r="N713" s="89"/>
@@ -36694,7 +36688,7 @@
       <c r="H714" s="69"/>
       <c r="I714" s="72"/>
       <c r="J714" s="69"/>
-      <c r="K714" s="153"/>
+      <c r="K714" s="151"/>
       <c r="L714" s="75"/>
       <c r="M714" s="69"/>
       <c r="N714" s="89"/>
@@ -36710,7 +36704,7 @@
       <c r="H715" s="69"/>
       <c r="I715" s="72"/>
       <c r="J715" s="69"/>
-      <c r="K715" s="153"/>
+      <c r="K715" s="151"/>
       <c r="L715" s="75"/>
       <c r="M715" s="69"/>
       <c r="N715" s="89"/>
@@ -36726,7 +36720,7 @@
       <c r="H716" s="69"/>
       <c r="I716" s="72"/>
       <c r="J716" s="69"/>
-      <c r="K716" s="153"/>
+      <c r="K716" s="151"/>
       <c r="L716" s="75"/>
       <c r="M716" s="69"/>
       <c r="N716" s="89"/>
@@ -36742,7 +36736,7 @@
       <c r="H717" s="69"/>
       <c r="I717" s="72"/>
       <c r="J717" s="69"/>
-      <c r="K717" s="153"/>
+      <c r="K717" s="151"/>
       <c r="L717" s="75"/>
       <c r="M717" s="69"/>
       <c r="N717" s="89"/>
@@ -36758,7 +36752,7 @@
       <c r="H718" s="69"/>
       <c r="I718" s="72"/>
       <c r="J718" s="69"/>
-      <c r="K718" s="153"/>
+      <c r="K718" s="151"/>
       <c r="L718" s="75"/>
       <c r="M718" s="69"/>
       <c r="N718" s="89"/>
@@ -36774,7 +36768,7 @@
       <c r="H719" s="69"/>
       <c r="I719" s="72"/>
       <c r="J719" s="69"/>
-      <c r="K719" s="153"/>
+      <c r="K719" s="151"/>
       <c r="L719" s="75"/>
       <c r="M719" s="69"/>
       <c r="N719" s="89"/>
@@ -36790,7 +36784,7 @@
       <c r="H720" s="69"/>
       <c r="I720" s="72"/>
       <c r="J720" s="69"/>
-      <c r="K720" s="153"/>
+      <c r="K720" s="151"/>
       <c r="L720" s="75"/>
       <c r="M720" s="69"/>
       <c r="N720" s="89"/>
@@ -36806,7 +36800,7 @@
       <c r="H721" s="69"/>
       <c r="I721" s="72"/>
       <c r="J721" s="69"/>
-      <c r="K721" s="153"/>
+      <c r="K721" s="151"/>
       <c r="L721" s="75"/>
       <c r="M721" s="69"/>
       <c r="N721" s="89"/>
@@ -36822,7 +36816,7 @@
       <c r="H722" s="69"/>
       <c r="I722" s="72"/>
       <c r="J722" s="69"/>
-      <c r="K722" s="153"/>
+      <c r="K722" s="151"/>
       <c r="L722" s="75"/>
       <c r="M722" s="69"/>
       <c r="N722" s="89"/>
@@ -36838,7 +36832,7 @@
       <c r="H723" s="69"/>
       <c r="I723" s="72"/>
       <c r="J723" s="69"/>
-      <c r="K723" s="153"/>
+      <c r="K723" s="151"/>
       <c r="L723" s="75"/>
       <c r="M723" s="69"/>
       <c r="N723" s="89"/>
@@ -36854,7 +36848,7 @@
       <c r="H724" s="69"/>
       <c r="I724" s="72"/>
       <c r="J724" s="69"/>
-      <c r="K724" s="153"/>
+      <c r="K724" s="151"/>
       <c r="L724" s="75"/>
       <c r="M724" s="69"/>
       <c r="N724" s="89"/>
@@ -36870,7 +36864,7 @@
       <c r="H725" s="69"/>
       <c r="I725" s="72"/>
       <c r="J725" s="69"/>
-      <c r="K725" s="153"/>
+      <c r="K725" s="151"/>
       <c r="L725" s="75"/>
       <c r="M725" s="69"/>
       <c r="N725" s="89"/>
@@ -36886,7 +36880,7 @@
       <c r="H726" s="69"/>
       <c r="I726" s="72"/>
       <c r="J726" s="69"/>
-      <c r="K726" s="153"/>
+      <c r="K726" s="151"/>
       <c r="L726" s="75"/>
       <c r="M726" s="69"/>
       <c r="N726" s="89"/>
@@ -36902,7 +36896,7 @@
       <c r="H727" s="69"/>
       <c r="I727" s="72"/>
       <c r="J727" s="69"/>
-      <c r="K727" s="153"/>
+      <c r="K727" s="151"/>
       <c r="L727" s="75"/>
       <c r="M727" s="69"/>
       <c r="N727" s="89"/>
@@ -36918,7 +36912,7 @@
       <c r="H728" s="69"/>
       <c r="I728" s="72"/>
       <c r="J728" s="69"/>
-      <c r="K728" s="153"/>
+      <c r="K728" s="151"/>
       <c r="L728" s="75"/>
       <c r="M728" s="69"/>
       <c r="N728" s="89"/>
@@ -36934,7 +36928,7 @@
       <c r="H729" s="69"/>
       <c r="I729" s="72"/>
       <c r="J729" s="69"/>
-      <c r="K729" s="153"/>
+      <c r="K729" s="151"/>
       <c r="L729" s="75"/>
       <c r="M729" s="69"/>
       <c r="N729" s="89"/>
@@ -36950,7 +36944,7 @@
       <c r="H730" s="69"/>
       <c r="I730" s="72"/>
       <c r="J730" s="69"/>
-      <c r="K730" s="153"/>
+      <c r="K730" s="151"/>
       <c r="L730" s="75"/>
       <c r="M730" s="69"/>
       <c r="N730" s="89"/>
@@ -36966,7 +36960,7 @@
       <c r="H731" s="69"/>
       <c r="I731" s="72"/>
       <c r="J731" s="69"/>
-      <c r="K731" s="153"/>
+      <c r="K731" s="151"/>
       <c r="L731" s="75"/>
       <c r="M731" s="69"/>
       <c r="N731" s="89"/>
@@ -36982,7 +36976,7 @@
       <c r="H732" s="69"/>
       <c r="I732" s="72"/>
       <c r="J732" s="69"/>
-      <c r="K732" s="153"/>
+      <c r="K732" s="151"/>
       <c r="L732" s="75"/>
       <c r="M732" s="69"/>
       <c r="N732" s="89"/>
@@ -36998,7 +36992,7 @@
       <c r="H733" s="69"/>
       <c r="I733" s="72"/>
       <c r="J733" s="69"/>
-      <c r="K733" s="153"/>
+      <c r="K733" s="151"/>
       <c r="L733" s="75"/>
       <c r="M733" s="69"/>
       <c r="N733" s="89"/>
@@ -37014,7 +37008,7 @@
       <c r="H734" s="69"/>
       <c r="I734" s="72"/>
       <c r="J734" s="69"/>
-      <c r="K734" s="153"/>
+      <c r="K734" s="151"/>
       <c r="L734" s="75"/>
       <c r="M734" s="69"/>
       <c r="N734" s="89"/>
@@ -37030,7 +37024,7 @@
       <c r="H735" s="69"/>
       <c r="I735" s="72"/>
       <c r="J735" s="69"/>
-      <c r="K735" s="153"/>
+      <c r="K735" s="151"/>
       <c r="L735" s="75"/>
       <c r="M735" s="69"/>
       <c r="N735" s="89"/>
@@ -37046,7 +37040,7 @@
       <c r="H736" s="69"/>
       <c r="I736" s="72"/>
       <c r="J736" s="69"/>
-      <c r="K736" s="153"/>
+      <c r="K736" s="151"/>
       <c r="L736" s="75"/>
       <c r="M736" s="69"/>
       <c r="N736" s="89"/>
@@ -37062,7 +37056,7 @@
       <c r="H737" s="69"/>
       <c r="I737" s="72"/>
       <c r="J737" s="69"/>
-      <c r="K737" s="153"/>
+      <c r="K737" s="151"/>
       <c r="L737" s="75"/>
       <c r="M737" s="69"/>
       <c r="N737" s="89"/>
@@ -37078,7 +37072,7 @@
       <c r="H738" s="69"/>
       <c r="I738" s="72"/>
       <c r="J738" s="69"/>
-      <c r="K738" s="153"/>
+      <c r="K738" s="151"/>
       <c r="L738" s="75"/>
       <c r="M738" s="69"/>
       <c r="N738" s="89"/>
@@ -37094,7 +37088,7 @@
       <c r="H739" s="69"/>
       <c r="I739" s="72"/>
       <c r="J739" s="69"/>
-      <c r="K739" s="153"/>
+      <c r="K739" s="151"/>
       <c r="L739" s="75"/>
       <c r="M739" s="69"/>
       <c r="N739" s="89"/>
@@ -37110,7 +37104,7 @@
       <c r="H740" s="69"/>
       <c r="I740" s="72"/>
       <c r="J740" s="69"/>
-      <c r="K740" s="153"/>
+      <c r="K740" s="151"/>
       <c r="L740" s="75"/>
       <c r="M740" s="69"/>
       <c r="N740" s="89"/>
@@ -37126,7 +37120,7 @@
       <c r="H741" s="69"/>
       <c r="I741" s="72"/>
       <c r="J741" s="69"/>
-      <c r="K741" s="153"/>
+      <c r="K741" s="151"/>
       <c r="L741" s="75"/>
       <c r="M741" s="69"/>
       <c r="N741" s="89"/>
@@ -37142,7 +37136,7 @@
       <c r="H742" s="69"/>
       <c r="I742" s="72"/>
       <c r="J742" s="69"/>
-      <c r="K742" s="153"/>
+      <c r="K742" s="151"/>
       <c r="L742" s="75"/>
       <c r="M742" s="69"/>
       <c r="N742" s="89"/>
@@ -37158,7 +37152,7 @@
       <c r="H743" s="69"/>
       <c r="I743" s="72"/>
       <c r="J743" s="69"/>
-      <c r="K743" s="153"/>
+      <c r="K743" s="151"/>
       <c r="L743" s="75"/>
       <c r="M743" s="69"/>
       <c r="N743" s="89"/>
@@ -37174,7 +37168,7 @@
       <c r="H744" s="69"/>
       <c r="I744" s="72"/>
       <c r="J744" s="69"/>
-      <c r="K744" s="153"/>
+      <c r="K744" s="151"/>
       <c r="L744" s="75"/>
       <c r="M744" s="69"/>
       <c r="N744" s="89"/>
@@ -37190,7 +37184,7 @@
       <c r="H745" s="69"/>
       <c r="I745" s="72"/>
       <c r="J745" s="69"/>
-      <c r="K745" s="153"/>
+      <c r="K745" s="151"/>
       <c r="L745" s="75"/>
       <c r="M745" s="69"/>
       <c r="N745" s="89"/>
@@ -37206,7 +37200,7 @@
       <c r="H746" s="69"/>
       <c r="I746" s="72"/>
       <c r="J746" s="69"/>
-      <c r="K746" s="153"/>
+      <c r="K746" s="151"/>
       <c r="L746" s="75"/>
       <c r="M746" s="69"/>
       <c r="N746" s="89"/>
@@ -37222,7 +37216,7 @@
       <c r="H747" s="69"/>
       <c r="I747" s="72"/>
       <c r="J747" s="69"/>
-      <c r="K747" s="153"/>
+      <c r="K747" s="151"/>
       <c r="L747" s="75"/>
       <c r="M747" s="69"/>
       <c r="N747" s="89"/>
@@ -37238,7 +37232,7 @@
       <c r="H748" s="69"/>
       <c r="I748" s="72"/>
       <c r="J748" s="69"/>
-      <c r="K748" s="153"/>
+      <c r="K748" s="151"/>
       <c r="L748" s="75"/>
       <c r="M748" s="69"/>
       <c r="N748" s="89"/>
@@ -37254,7 +37248,7 @@
       <c r="H749" s="69"/>
       <c r="I749" s="72"/>
       <c r="J749" s="69"/>
-      <c r="K749" s="153"/>
+      <c r="K749" s="151"/>
       <c r="L749" s="75"/>
       <c r="M749" s="69"/>
       <c r="N749" s="89"/>
@@ -37270,7 +37264,7 @@
       <c r="H750" s="69"/>
       <c r="I750" s="72"/>
       <c r="J750" s="69"/>
-      <c r="K750" s="153"/>
+      <c r="K750" s="151"/>
       <c r="L750" s="75"/>
       <c r="M750" s="69"/>
       <c r="N750" s="89"/>
@@ -37286,7 +37280,7 @@
       <c r="H751" s="69"/>
       <c r="I751" s="72"/>
       <c r="J751" s="69"/>
-      <c r="K751" s="153"/>
+      <c r="K751" s="151"/>
       <c r="L751" s="75"/>
       <c r="M751" s="69"/>
       <c r="N751" s="89"/>
@@ -37302,7 +37296,7 @@
       <c r="H752" s="69"/>
       <c r="I752" s="72"/>
       <c r="J752" s="69"/>
-      <c r="K752" s="153"/>
+      <c r="K752" s="151"/>
       <c r="L752" s="75"/>
       <c r="M752" s="69"/>
       <c r="N752" s="89"/>
@@ -37318,7 +37312,7 @@
       <c r="H753" s="69"/>
       <c r="I753" s="72"/>
       <c r="J753" s="69"/>
-      <c r="K753" s="153"/>
+      <c r="K753" s="151"/>
       <c r="L753" s="75"/>
       <c r="M753" s="69"/>
       <c r="N753" s="89"/>
@@ -37334,7 +37328,7 @@
       <c r="H754" s="69"/>
       <c r="I754" s="72"/>
       <c r="J754" s="69"/>
-      <c r="K754" s="153"/>
+      <c r="K754" s="151"/>
       <c r="L754" s="75"/>
       <c r="M754" s="69"/>
       <c r="N754" s="89"/>
@@ -37350,7 +37344,7 @@
       <c r="H755" s="69"/>
       <c r="I755" s="72"/>
       <c r="J755" s="69"/>
-      <c r="K755" s="153"/>
+      <c r="K755" s="151"/>
       <c r="L755" s="75"/>
       <c r="M755" s="69"/>
       <c r="N755" s="89"/>
@@ -37366,7 +37360,7 @@
       <c r="H756" s="69"/>
       <c r="I756" s="72"/>
       <c r="J756" s="69"/>
-      <c r="K756" s="153"/>
+      <c r="K756" s="151"/>
       <c r="L756" s="75"/>
       <c r="M756" s="69"/>
       <c r="N756" s="89"/>
@@ -37382,7 +37376,7 @@
       <c r="H757" s="69"/>
       <c r="I757" s="72"/>
       <c r="J757" s="69"/>
-      <c r="K757" s="153"/>
+      <c r="K757" s="151"/>
       <c r="L757" s="75"/>
       <c r="M757" s="69"/>
       <c r="N757" s="89"/>
@@ -37398,7 +37392,7 @@
       <c r="H758" s="69"/>
       <c r="I758" s="72"/>
       <c r="J758" s="69"/>
-      <c r="K758" s="153"/>
+      <c r="K758" s="151"/>
       <c r="L758" s="75"/>
       <c r="M758" s="69"/>
       <c r="N758" s="89"/>
@@ -37414,7 +37408,7 @@
       <c r="H759" s="69"/>
       <c r="I759" s="72"/>
       <c r="J759" s="69"/>
-      <c r="K759" s="153"/>
+      <c r="K759" s="151"/>
       <c r="L759" s="75"/>
       <c r="M759" s="69"/>
       <c r="N759" s="89"/>
@@ -37430,7 +37424,7 @@
       <c r="H760" s="69"/>
       <c r="I760" s="72"/>
       <c r="J760" s="69"/>
-      <c r="K760" s="153"/>
+      <c r="K760" s="151"/>
       <c r="L760" s="75"/>
       <c r="M760" s="69"/>
       <c r="N760" s="89"/>
@@ -37446,7 +37440,7 @@
       <c r="H761" s="69"/>
       <c r="I761" s="72"/>
       <c r="J761" s="69"/>
-      <c r="K761" s="153"/>
+      <c r="K761" s="151"/>
       <c r="L761" s="75"/>
       <c r="M761" s="69"/>
       <c r="N761" s="89"/>
@@ -37462,7 +37456,7 @@
       <c r="H762" s="69"/>
       <c r="I762" s="72"/>
       <c r="J762" s="69"/>
-      <c r="K762" s="153"/>
+      <c r="K762" s="151"/>
       <c r="L762" s="75"/>
       <c r="M762" s="69"/>
       <c r="N762" s="89"/>
@@ -37478,7 +37472,7 @@
       <c r="H763" s="69"/>
       <c r="I763" s="72"/>
       <c r="J763" s="69"/>
-      <c r="K763" s="153"/>
+      <c r="K763" s="151"/>
       <c r="L763" s="75"/>
       <c r="M763" s="69"/>
       <c r="N763" s="89"/>
@@ -37494,7 +37488,7 @@
       <c r="H764" s="69"/>
       <c r="I764" s="72"/>
       <c r="J764" s="69"/>
-      <c r="K764" s="153"/>
+      <c r="K764" s="151"/>
       <c r="L764" s="75"/>
       <c r="M764" s="69"/>
       <c r="N764" s="89"/>
@@ -37510,7 +37504,7 @@
       <c r="H765" s="69"/>
       <c r="I765" s="72"/>
       <c r="J765" s="69"/>
-      <c r="K765" s="153"/>
+      <c r="K765" s="151"/>
       <c r="L765" s="75"/>
       <c r="M765" s="69"/>
       <c r="N765" s="89"/>
@@ -37526,7 +37520,7 @@
       <c r="H766" s="69"/>
       <c r="I766" s="72"/>
       <c r="J766" s="69"/>
-      <c r="K766" s="153"/>
+      <c r="K766" s="151"/>
       <c r="L766" s="75"/>
       <c r="M766" s="69"/>
       <c r="N766" s="89"/>
@@ -37542,7 +37536,7 @@
       <c r="H767" s="69"/>
       <c r="I767" s="72"/>
       <c r="J767" s="69"/>
-      <c r="K767" s="153"/>
+      <c r="K767" s="151"/>
       <c r="L767" s="75"/>
       <c r="M767" s="69"/>
       <c r="N767" s="89"/>
@@ -37558,7 +37552,7 @@
       <c r="H768" s="69"/>
       <c r="I768" s="72"/>
       <c r="J768" s="69"/>
-      <c r="K768" s="153"/>
+      <c r="K768" s="151"/>
       <c r="L768" s="75"/>
       <c r="M768" s="69"/>
       <c r="N768" s="89"/>
@@ -37574,7 +37568,7 @@
       <c r="H769" s="69"/>
       <c r="I769" s="72"/>
       <c r="J769" s="69"/>
-      <c r="K769" s="153"/>
+      <c r="K769" s="151"/>
       <c r="L769" s="75"/>
       <c r="M769" s="69"/>
       <c r="N769" s="89"/>
@@ -37590,7 +37584,7 @@
       <c r="H770" s="69"/>
       <c r="I770" s="72"/>
       <c r="J770" s="69"/>
-      <c r="K770" s="153"/>
+      <c r="K770" s="151"/>
       <c r="L770" s="75"/>
       <c r="M770" s="69"/>
       <c r="N770" s="89"/>
@@ -37606,7 +37600,7 @@
       <c r="H771" s="69"/>
       <c r="I771" s="72"/>
       <c r="J771" s="69"/>
-      <c r="K771" s="153"/>
+      <c r="K771" s="151"/>
       <c r="L771" s="75"/>
       <c r="M771" s="69"/>
       <c r="N771" s="89"/>
@@ -37622,7 +37616,7 @@
       <c r="H772" s="69"/>
       <c r="I772" s="72"/>
       <c r="J772" s="69"/>
-      <c r="K772" s="153"/>
+      <c r="K772" s="151"/>
       <c r="L772" s="75"/>
       <c r="M772" s="69"/>
       <c r="N772" s="89"/>
@@ -37638,7 +37632,7 @@
       <c r="H773" s="69"/>
       <c r="I773" s="72"/>
       <c r="J773" s="69"/>
-      <c r="K773" s="153"/>
+      <c r="K773" s="151"/>
       <c r="L773" s="75"/>
       <c r="M773" s="69"/>
       <c r="N773" s="89"/>
@@ -37654,7 +37648,7 @@
       <c r="H774" s="69"/>
       <c r="I774" s="72"/>
       <c r="J774" s="69"/>
-      <c r="K774" s="153"/>
+      <c r="K774" s="151"/>
       <c r="L774" s="75"/>
       <c r="M774" s="69"/>
       <c r="N774" s="89"/>
@@ -37670,7 +37664,7 @@
       <c r="H775" s="69"/>
       <c r="I775" s="72"/>
       <c r="J775" s="69"/>
-      <c r="K775" s="153"/>
+      <c r="K775" s="151"/>
       <c r="L775" s="75"/>
       <c r="M775" s="69"/>
       <c r="N775" s="89"/>
@@ -37686,7 +37680,7 @@
       <c r="H776" s="69"/>
       <c r="I776" s="72"/>
       <c r="J776" s="69"/>
-      <c r="K776" s="153"/>
+      <c r="K776" s="151"/>
       <c r="L776" s="75"/>
       <c r="M776" s="69"/>
       <c r="N776" s="89"/>
@@ -37702,7 +37696,7 @@
       <c r="H777" s="69"/>
       <c r="I777" s="72"/>
       <c r="J777" s="69"/>
-      <c r="K777" s="153"/>
+      <c r="K777" s="151"/>
       <c r="L777" s="75"/>
       <c r="M777" s="69"/>
       <c r="N777" s="89"/>
@@ -37718,7 +37712,7 @@
       <c r="H778" s="69"/>
       <c r="I778" s="72"/>
       <c r="J778" s="69"/>
-      <c r="K778" s="153"/>
+      <c r="K778" s="151"/>
       <c r="L778" s="75"/>
       <c r="M778" s="69"/>
       <c r="N778" s="89"/>
@@ -37734,7 +37728,7 @@
       <c r="H779" s="69"/>
       <c r="I779" s="72"/>
       <c r="J779" s="69"/>
-      <c r="K779" s="153"/>
+      <c r="K779" s="151"/>
       <c r="L779" s="75"/>
       <c r="M779" s="69"/>
       <c r="N779" s="89"/>
@@ -37750,7 +37744,7 @@
       <c r="H780" s="69"/>
       <c r="I780" s="72"/>
       <c r="J780" s="69"/>
-      <c r="K780" s="153"/>
+      <c r="K780" s="151"/>
       <c r="L780" s="75"/>
       <c r="M780" s="69"/>
       <c r="N780" s="89"/>
@@ -37766,7 +37760,7 @@
       <c r="H781" s="69"/>
       <c r="I781" s="72"/>
       <c r="J781" s="69"/>
-      <c r="K781" s="153"/>
+      <c r="K781" s="151"/>
       <c r="L781" s="75"/>
       <c r="M781" s="69"/>
       <c r="N781" s="89"/>
@@ -37782,7 +37776,7 @@
       <c r="H782" s="69"/>
       <c r="I782" s="72"/>
       <c r="J782" s="69"/>
-      <c r="K782" s="153"/>
+      <c r="K782" s="151"/>
       <c r="L782" s="75"/>
       <c r="M782" s="69"/>
       <c r="N782" s="89"/>
@@ -37798,7 +37792,7 @@
       <c r="H783" s="69"/>
       <c r="I783" s="72"/>
       <c r="J783" s="69"/>
-      <c r="K783" s="153"/>
+      <c r="K783" s="151"/>
       <c r="L783" s="75"/>
       <c r="M783" s="69"/>
       <c r="N783" s="89"/>
@@ -37814,7 +37808,7 @@
       <c r="H784" s="69"/>
       <c r="I784" s="72"/>
       <c r="J784" s="69"/>
-      <c r="K784" s="153"/>
+      <c r="K784" s="151"/>
       <c r="L784" s="75"/>
       <c r="M784" s="69"/>
       <c r="N784" s="89"/>
@@ -37830,7 +37824,7 @@
       <c r="H785" s="69"/>
       <c r="I785" s="72"/>
       <c r="J785" s="69"/>
-      <c r="K785" s="153"/>
+      <c r="K785" s="151"/>
       <c r="L785" s="75"/>
       <c r="M785" s="69"/>
       <c r="N785" s="89"/>
@@ -37846,7 +37840,7 @@
       <c r="H786" s="69"/>
       <c r="I786" s="72"/>
       <c r="J786" s="69"/>
-      <c r="K786" s="153"/>
+      <c r="K786" s="151"/>
       <c r="L786" s="75"/>
       <c r="M786" s="69"/>
       <c r="N786" s="89"/>
@@ -37862,7 +37856,7 @@
       <c r="H787" s="69"/>
       <c r="I787" s="72"/>
       <c r="J787" s="69"/>
-      <c r="K787" s="153"/>
+      <c r="K787" s="151"/>
       <c r="L787" s="75"/>
       <c r="M787" s="69"/>
       <c r="N787" s="89"/>
@@ -37878,7 +37872,7 @@
       <c r="H788" s="69"/>
       <c r="I788" s="72"/>
       <c r="J788" s="69"/>
-      <c r="K788" s="153"/>
+      <c r="K788" s="151"/>
       <c r="L788" s="75"/>
       <c r="M788" s="69"/>
       <c r="N788" s="89"/>
@@ -37894,7 +37888,7 @@
       <c r="H789" s="69"/>
       <c r="I789" s="72"/>
       <c r="J789" s="69"/>
-      <c r="K789" s="153"/>
+      <c r="K789" s="151"/>
       <c r="L789" s="75"/>
       <c r="M789" s="69"/>
       <c r="N789" s="89"/>
@@ -37910,7 +37904,7 @@
       <c r="H790" s="69"/>
       <c r="I790" s="72"/>
       <c r="J790" s="69"/>
-      <c r="K790" s="153"/>
+      <c r="K790" s="151"/>
       <c r="L790" s="75"/>
       <c r="M790" s="69"/>
       <c r="N790" s="89"/>
@@ -37926,7 +37920,7 @@
       <c r="H791" s="69"/>
       <c r="I791" s="72"/>
       <c r="J791" s="69"/>
-      <c r="K791" s="153"/>
+      <c r="K791" s="151"/>
       <c r="L791" s="75"/>
       <c r="M791" s="69"/>
       <c r="N791" s="89"/>
@@ -37942,7 +37936,7 @@
       <c r="H792" s="69"/>
       <c r="I792" s="72"/>
       <c r="J792" s="69"/>
-      <c r="K792" s="153"/>
+      <c r="K792" s="151"/>
       <c r="L792" s="75"/>
       <c r="M792" s="69"/>
       <c r="N792" s="89"/>
@@ -37958,7 +37952,7 @@
       <c r="H793" s="69"/>
       <c r="I793" s="72"/>
       <c r="J793" s="69"/>
-      <c r="K793" s="153"/>
+      <c r="K793" s="151"/>
       <c r="L793" s="75"/>
       <c r="M793" s="69"/>
       <c r="N793" s="89"/>
@@ -37974,7 +37968,7 @@
       <c r="H794" s="69"/>
       <c r="I794" s="72"/>
       <c r="J794" s="69"/>
-      <c r="K794" s="153"/>
+      <c r="K794" s="151"/>
       <c r="L794" s="75"/>
       <c r="M794" s="69"/>
       <c r="N794" s="89"/>
@@ -37990,7 +37984,7 @@
       <c r="H795" s="69"/>
       <c r="I795" s="72"/>
       <c r="J795" s="69"/>
-      <c r="K795" s="153"/>
+      <c r="K795" s="151"/>
       <c r="L795" s="75"/>
       <c r="M795" s="69"/>
       <c r="N795" s="89"/>
@@ -38006,7 +38000,7 @@
       <c r="H796" s="69"/>
       <c r="I796" s="72"/>
       <c r="J796" s="69"/>
-      <c r="K796" s="153"/>
+      <c r="K796" s="151"/>
       <c r="L796" s="75"/>
       <c r="M796" s="69"/>
       <c r="N796" s="89"/>
@@ -38022,7 +38016,7 @@
       <c r="H797" s="69"/>
       <c r="I797" s="72"/>
       <c r="J797" s="69"/>
-      <c r="K797" s="153"/>
+      <c r="K797" s="151"/>
       <c r="L797" s="75"/>
       <c r="M797" s="69"/>
       <c r="N797" s="89"/>
@@ -38038,7 +38032,7 @@
       <c r="H798" s="69"/>
       <c r="I798" s="72"/>
       <c r="J798" s="69"/>
-      <c r="K798" s="153"/>
+      <c r="K798" s="151"/>
       <c r="L798" s="75"/>
       <c r="M798" s="69"/>
       <c r="N798" s="89"/>
@@ -38054,7 +38048,7 @@
       <c r="H799" s="69"/>
       <c r="I799" s="72"/>
       <c r="J799" s="69"/>
-      <c r="K799" s="153"/>
+      <c r="K799" s="151"/>
       <c r="L799" s="75"/>
       <c r="M799" s="69"/>
       <c r="N799" s="89"/>
@@ -38070,7 +38064,7 @@
       <c r="H800" s="69"/>
       <c r="I800" s="72"/>
       <c r="J800" s="69"/>
-      <c r="K800" s="153"/>
+      <c r="K800" s="151"/>
       <c r="L800" s="75"/>
       <c r="M800" s="69"/>
       <c r="N800" s="89"/>
@@ -38086,7 +38080,7 @@
       <c r="H801" s="69"/>
       <c r="I801" s="72"/>
       <c r="J801" s="69"/>
-      <c r="K801" s="153"/>
+      <c r="K801" s="151"/>
       <c r="L801" s="75"/>
       <c r="M801" s="69"/>
       <c r="N801" s="89"/>
@@ -38102,7 +38096,7 @@
       <c r="H802" s="69"/>
       <c r="I802" s="72"/>
       <c r="J802" s="69"/>
-      <c r="K802" s="153"/>
+      <c r="K802" s="151"/>
       <c r="L802" s="75"/>
       <c r="M802" s="69"/>
       <c r="N802" s="89"/>
@@ -38118,7 +38112,7 @@
       <c r="H803" s="69"/>
       <c r="I803" s="72"/>
       <c r="J803" s="69"/>
-      <c r="K803" s="153"/>
+      <c r="K803" s="151"/>
       <c r="L803" s="75"/>
       <c r="M803" s="69"/>
       <c r="N803" s="89"/>
@@ -38134,7 +38128,7 @@
       <c r="H804" s="69"/>
       <c r="I804" s="72"/>
       <c r="J804" s="69"/>
-      <c r="K804" s="153"/>
+      <c r="K804" s="151"/>
       <c r="L804" s="75"/>
       <c r="M804" s="69"/>
       <c r="N804" s="89"/>
@@ -38150,7 +38144,7 @@
       <c r="H805" s="69"/>
       <c r="I805" s="72"/>
       <c r="J805" s="69"/>
-      <c r="K805" s="153"/>
+      <c r="K805" s="151"/>
       <c r="L805" s="75"/>
       <c r="M805" s="69"/>
       <c r="N805" s="89"/>
@@ -38166,7 +38160,7 @@
       <c r="H806" s="69"/>
       <c r="I806" s="72"/>
       <c r="J806" s="69"/>
-      <c r="K806" s="153"/>
+      <c r="K806" s="151"/>
       <c r="L806" s="75"/>
       <c r="M806" s="69"/>
       <c r="N806" s="89"/>
@@ -38182,7 +38176,7 @@
       <c r="H807" s="69"/>
       <c r="I807" s="72"/>
       <c r="J807" s="69"/>
-      <c r="K807" s="153"/>
+      <c r="K807" s="151"/>
       <c r="L807" s="75"/>
       <c r="M807" s="69"/>
       <c r="N807" s="89"/>
@@ -38198,7 +38192,7 @@
       <c r="H808" s="69"/>
       <c r="I808" s="72"/>
       <c r="J808" s="69"/>
-      <c r="K808" s="153"/>
+      <c r="K808" s="151"/>
       <c r="L808" s="75"/>
       <c r="M808" s="69"/>
       <c r="N808" s="89"/>
@@ -38214,7 +38208,7 @@
       <c r="H809" s="69"/>
       <c r="I809" s="72"/>
       <c r="J809" s="69"/>
-      <c r="K809" s="153"/>
+      <c r="K809" s="151"/>
       <c r="L809" s="75"/>
       <c r="M809" s="69"/>
       <c r="N809" s="89"/>
@@ -38230,7 +38224,7 @@
       <c r="H810" s="69"/>
       <c r="I810" s="72"/>
       <c r="J810" s="69"/>
-      <c r="K810" s="153"/>
+      <c r="K810" s="151"/>
       <c r="L810" s="75"/>
       <c r="M810" s="69"/>
       <c r="N810" s="89"/>
@@ -38246,7 +38240,7 @@
       <c r="H811" s="69"/>
       <c r="I811" s="72"/>
       <c r="J811" s="69"/>
-      <c r="K811" s="153"/>
+      <c r="K811" s="151"/>
       <c r="L811" s="75"/>
       <c r="M811" s="69"/>
       <c r="N811" s="89"/>
@@ -38262,7 +38256,7 @@
       <c r="H812" s="69"/>
       <c r="I812" s="72"/>
       <c r="J812" s="69"/>
-      <c r="K812" s="153"/>
+      <c r="K812" s="151"/>
       <c r="L812" s="75"/>
       <c r="M812" s="69"/>
       <c r="N812" s="89"/>
@@ -38278,7 +38272,7 @@
       <c r="H813" s="69"/>
       <c r="I813" s="72"/>
       <c r="J813" s="69"/>
-      <c r="K813" s="153"/>
+      <c r="K813" s="151"/>
       <c r="L813" s="75"/>
       <c r="M813" s="69"/>
       <c r="N813" s="89"/>
@@ -38294,7 +38288,7 @@
       <c r="H814" s="69"/>
       <c r="I814" s="72"/>
       <c r="J814" s="69"/>
-      <c r="K814" s="153"/>
+      <c r="K814" s="151"/>
       <c r="L814" s="75"/>
       <c r="M814" s="69"/>
       <c r="N814" s="89"/>
@@ -38310,7 +38304,7 @@
       <c r="H815" s="69"/>
       <c r="I815" s="72"/>
       <c r="J815" s="69"/>
-      <c r="K815" s="153"/>
+      <c r="K815" s="151"/>
       <c r="L815" s="75"/>
       <c r="M815" s="69"/>
       <c r="N815" s="89"/>
@@ -38326,7 +38320,7 @@
       <c r="H816" s="69"/>
       <c r="I816" s="72"/>
       <c r="J816" s="69"/>
-      <c r="K816" s="153"/>
+      <c r="K816" s="151"/>
       <c r="L816" s="75"/>
       <c r="M816" s="69"/>
       <c r="N816" s="89"/>
@@ -38342,7 +38336,7 @@
       <c r="H817" s="69"/>
       <c r="I817" s="72"/>
       <c r="J817" s="69"/>
-      <c r="K817" s="153"/>
+      <c r="K817" s="151"/>
       <c r="L817" s="75"/>
       <c r="M817" s="69"/>
       <c r="N817" s="89"/>
@@ -38358,7 +38352,7 @@
       <c r="H818" s="69"/>
       <c r="I818" s="72"/>
       <c r="J818" s="69"/>
-      <c r="K818" s="153"/>
+      <c r="K818" s="151"/>
       <c r="L818" s="75"/>
       <c r="M818" s="69"/>
       <c r="N818" s="89"/>
@@ -38374,7 +38368,7 @@
       <c r="H819" s="69"/>
       <c r="I819" s="72"/>
       <c r="J819" s="69"/>
-      <c r="K819" s="153"/>
+      <c r="K819" s="151"/>
       <c r="L819" s="75"/>
       <c r="M819" s="69"/>
       <c r="N819" s="89"/>
@@ -38390,7 +38384,7 @@
       <c r="H820" s="69"/>
       <c r="I820" s="72"/>
       <c r="J820" s="69"/>
-      <c r="K820" s="153"/>
+      <c r="K820" s="151"/>
       <c r="L820" s="75"/>
       <c r="M820" s="69"/>
       <c r="N820" s="89"/>
@@ -38406,7 +38400,7 @@
       <c r="H821" s="69"/>
       <c r="I821" s="72"/>
       <c r="J821" s="69"/>
-      <c r="K821" s="153"/>
+      <c r="K821" s="151"/>
       <c r="L821" s="75"/>
       <c r="M821" s="69"/>
       <c r="N821" s="89"/>
@@ -38422,7 +38416,7 @@
       <c r="H822" s="69"/>
       <c r="I822" s="72"/>
       <c r="J822" s="69"/>
-      <c r="K822" s="153"/>
+      <c r="K822" s="151"/>
       <c r="L822" s="75"/>
       <c r="M822" s="69"/>
       <c r="N822" s="89"/>
@@ -38438,7 +38432,7 @@
       <c r="H823" s="69"/>
       <c r="I823" s="72"/>
       <c r="J823" s="69"/>
-      <c r="K823" s="153"/>
+      <c r="K823" s="151"/>
       <c r="L823" s="75"/>
       <c r="M823" s="69"/>
       <c r="N823" s="89"/>
@@ -38454,7 +38448,7 @@
       <c r="H824" s="69"/>
       <c r="I824" s="72"/>
       <c r="J824" s="69"/>
-      <c r="K824" s="153"/>
+      <c r="K824" s="151"/>
       <c r="L824" s="75"/>
       <c r="M824" s="69"/>
       <c r="N824" s="89"/>
@@ -38470,7 +38464,7 @@
       <c r="H825" s="69"/>
       <c r="I825" s="72"/>
       <c r="J825" s="69"/>
-      <c r="K825" s="153"/>
+      <c r="K825" s="151"/>
       <c r="L825" s="75"/>
       <c r="M825" s="69"/>
       <c r="N825" s="89"/>
@@ -38486,7 +38480,7 @@
       <c r="H826" s="69"/>
       <c r="I826" s="72"/>
       <c r="J826" s="69"/>
-      <c r="K826" s="153"/>
+      <c r="K826" s="151"/>
       <c r="L826" s="75"/>
       <c r="M826" s="69"/>
       <c r="N826" s="89"/>
@@ -38502,7 +38496,7 @@
       <c r="H827" s="69"/>
       <c r="I827" s="72"/>
       <c r="J827" s="69"/>
-      <c r="K827" s="153"/>
+      <c r="K827" s="151"/>
       <c r="L827" s="75"/>
       <c r="M827" s="69"/>
       <c r="N827" s="89"/>
@@ -38518,7 +38512,7 @@
       <c r="H828" s="69"/>
       <c r="I828" s="72"/>
       <c r="J828" s="69"/>
-      <c r="K828" s="153"/>
+      <c r="K828" s="151"/>
       <c r="L828" s="75"/>
       <c r="M828" s="69"/>
       <c r="N828" s="89"/>
@@ -38534,7 +38528,7 @@
       <c r="H829" s="69"/>
       <c r="I829" s="72"/>
       <c r="J829" s="69"/>
-      <c r="K829" s="153"/>
+      <c r="K829" s="151"/>
       <c r="L829" s="75"/>
       <c r="M829" s="69"/>
       <c r="N829" s="89"/>
@@ -38550,7 +38544,7 @@
       <c r="H830" s="69"/>
       <c r="I830" s="72"/>
       <c r="J830" s="69"/>
-      <c r="K830" s="153"/>
+      <c r="K830" s="151"/>
       <c r="L830" s="75"/>
       <c r="M830" s="69"/>
       <c r="N830" s="89"/>
@@ -38566,7 +38560,7 @@
       <c r="H831" s="69"/>
       <c r="I831" s="72"/>
       <c r="J831" s="69"/>
-      <c r="K831" s="153"/>
+      <c r="K831" s="151"/>
       <c r="L831" s="75"/>
       <c r="M831" s="69"/>
       <c r="N831" s="89"/>
@@ -38582,7 +38576,7 @@
       <c r="H832" s="69"/>
       <c r="I832" s="72"/>
       <c r="J832" s="69"/>
-      <c r="K832" s="153"/>
+      <c r="K832" s="151"/>
       <c r="L832" s="75"/>
       <c r="M832" s="69"/>
       <c r="N832" s="89"/>
@@ -38598,7 +38592,7 @@
       <c r="H833" s="69"/>
       <c r="I833" s="72"/>
       <c r="J833" s="69"/>
-      <c r="K833" s="153"/>
+      <c r="K833" s="151"/>
       <c r="L833" s="75"/>
       <c r="M833" s="69"/>
       <c r="N833" s="89"/>
@@ -38614,7 +38608,7 @@
       <c r="H834" s="69"/>
       <c r="I834" s="72"/>
       <c r="J834" s="69"/>
-      <c r="K834" s="153"/>
+      <c r="K834" s="151"/>
       <c r="L834" s="75"/>
       <c r="M834" s="69"/>
       <c r="N834" s="89"/>
@@ -38630,7 +38624,7 @@
       <c r="H835" s="69"/>
       <c r="I835" s="72"/>
       <c r="J835" s="69"/>
-      <c r="K835" s="153"/>
+      <c r="K835" s="151"/>
       <c r="L835" s="75"/>
       <c r="M835" s="69"/>
       <c r="N835" s="89"/>
@@ -38646,7 +38640,7 @@
       <c r="H836" s="69"/>
       <c r="I836" s="72"/>
       <c r="J836" s="69"/>
-      <c r="K836" s="153"/>
+      <c r="K836" s="151"/>
       <c r="L836" s="75"/>
       <c r="M836" s="69"/>
       <c r="N836" s="89"/>
@@ -38662,7 +38656,7 @@
       <c r="H837" s="69"/>
       <c r="I837" s="72"/>
       <c r="J837" s="69"/>
-      <c r="K837" s="153"/>
+      <c r="K837" s="151"/>
       <c r="L837" s="75"/>
       <c r="M837" s="69"/>
       <c r="N837" s="89"/>
@@ -38678,7 +38672,7 @@
       <c r="H838" s="69"/>
       <c r="I838" s="72"/>
       <c r="J838" s="69"/>
-      <c r="K838" s="153"/>
+      <c r="K838" s="151"/>
       <c r="L838" s="75"/>
       <c r="M838" s="69"/>
       <c r="N838" s="89"/>
@@ -38694,7 +38688,7 @@
       <c r="H839" s="69"/>
       <c r="I839" s="72"/>
       <c r="J839" s="69"/>
-      <c r="K839" s="153"/>
+      <c r="K839" s="151"/>
       <c r="L839" s="75"/>
       <c r="M839" s="69"/>
       <c r="N839" s="89"/>
@@ -38710,7 +38704,7 @@
       <c r="H840" s="69"/>
       <c r="I840" s="72"/>
       <c r="J840" s="69"/>
-      <c r="K840" s="153"/>
+      <c r="K840" s="151"/>
       <c r="L840" s="75"/>
       <c r="M840" s="69"/>
       <c r="N840" s="89"/>
@@ -38726,7 +38720,7 @@
       <c r="H841" s="69"/>
       <c r="I841" s="72"/>
       <c r="J841" s="69"/>
-      <c r="K841" s="153"/>
+      <c r="K841" s="151"/>
       <c r="L841" s="75"/>
       <c r="M841" s="69"/>
       <c r="N841" s="89"/>
@@ -38742,7 +38736,7 @@
       <c r="H842" s="69"/>
       <c r="I842" s="72"/>
       <c r="J842" s="69"/>
-      <c r="K842" s="153"/>
+      <c r="K842" s="151"/>
       <c r="L842" s="75"/>
       <c r="M842" s="69"/>
       <c r="N842" s="89"/>
@@ -38758,7 +38752,7 @@
       <c r="H843" s="69"/>
       <c r="I843" s="72"/>
       <c r="J843" s="69"/>
-      <c r="K843" s="153"/>
+      <c r="K843" s="151"/>
       <c r="L843" s="75"/>
       <c r="M843" s="69"/>
       <c r="N843" s="89"/>
@@ -38774,7 +38768,7 @@
       <c r="H844" s="69"/>
       <c r="I844" s="72"/>
       <c r="J844" s="69"/>
-      <c r="K844" s="153"/>
+      <c r="K844" s="151"/>
       <c r="L844" s="75"/>
       <c r="M844" s="69"/>
       <c r="N844" s="89"/>
@@ -38790,7 +38784,7 @@
       <c r="H845" s="69"/>
       <c r="I845" s="72"/>
       <c r="J845" s="69"/>
-      <c r="K845" s="153"/>
+      <c r="K845" s="151"/>
       <c r="L845" s="75"/>
       <c r="M845" s="69"/>
       <c r="N845" s="89"/>
@@ -38806,7 +38800,7 @@
       <c r="H846" s="69"/>
       <c r="I846" s="72"/>
       <c r="J846" s="69"/>
-      <c r="K846" s="153"/>
+      <c r="K846" s="151"/>
       <c r="L846" s="75"/>
       <c r="M846" s="69"/>
       <c r="N846" s="89"/>
@@ -38822,7 +38816,7 @@
       <c r="H847" s="69"/>
       <c r="I847" s="72"/>
       <c r="J847" s="69"/>
-      <c r="K847" s="153"/>
+      <c r="K847" s="151"/>
       <c r="L847" s="75"/>
       <c r="M847" s="69"/>
       <c r="N847" s="89"/>
@@ -38838,7 +38832,7 @@
       <c r="H848" s="69"/>
       <c r="I848" s="72"/>
       <c r="J848" s="69"/>
-      <c r="K848" s="153"/>
+      <c r="K848" s="151"/>
       <c r="L848" s="75"/>
       <c r="M848" s="69"/>
       <c r="N848" s="89"/>
@@ -38854,7 +38848,7 @@
       <c r="H849" s="69"/>
       <c r="I849" s="72"/>
       <c r="J849" s="69"/>
-      <c r="K849" s="153"/>
+      <c r="K849" s="151"/>
       <c r="L849" s="75"/>
       <c r="M849" s="69"/>
       <c r="N849" s="89"/>
@@ -38870,7 +38864,7 @@
       <c r="H850" s="69"/>
       <c r="I850" s="72"/>
       <c r="J850" s="69"/>
-      <c r="K850" s="153"/>
+      <c r="K850" s="151"/>
       <c r="L850" s="75"/>
       <c r="M850" s="69"/>
       <c r="N850" s="89"/>
@@ -38886,7 +38880,7 @@
       <c r="H851" s="69"/>
       <c r="I851" s="72"/>
       <c r="J851" s="69"/>
-      <c r="K851" s="153"/>
+      <c r="K851" s="151"/>
       <c r="L851" s="75"/>
       <c r="M851" s="69"/>
       <c r="N851" s="89"/>
@@ -38902,7 +38896,7 @@
       <c r="H852" s="69"/>
       <c r="I852" s="72"/>
       <c r="J852" s="69"/>
-      <c r="K852" s="153"/>
+      <c r="K852" s="151"/>
       <c r="L852" s="75"/>
       <c r="M852" s="69"/>
       <c r="N852" s="89"/>
@@ -38918,7 +38912,7 @@
       <c r="H853" s="69"/>
       <c r="I853" s="72"/>
       <c r="J853" s="69"/>
-      <c r="K853" s="153"/>
+      <c r="K853" s="151"/>
       <c r="L853" s="75"/>
       <c r="M853" s="69"/>
       <c r="N853" s="89"/>
@@ -38934,7 +38928,7 @@
       <c r="H854" s="69"/>
       <c r="I854" s="72"/>
       <c r="J854" s="69"/>
-      <c r="K854" s="153"/>
+      <c r="K854" s="151"/>
       <c r="L854" s="75"/>
       <c r="M854" s="69"/>
       <c r="N854" s="89"/>
@@ -38950,7 +38944,7 @@
       <c r="H855" s="69"/>
       <c r="I855" s="72"/>
       <c r="J855" s="69"/>
-      <c r="K855" s="153"/>
+      <c r="K855" s="151"/>
       <c r="L855" s="75"/>
       <c r="M855" s="69"/>
       <c r="N855" s="89"/>
@@ -38966,7 +38960,7 @@
       <c r="H856" s="69"/>
       <c r="I856" s="72"/>
       <c r="J856" s="69"/>
-      <c r="K856" s="153"/>
+      <c r="K856" s="151"/>
       <c r="L856" s="75"/>
       <c r="M856" s="69"/>
       <c r="N856" s="89"/>
@@ -38982,7 +38976,7 @@
       <c r="H857" s="69"/>
       <c r="I857" s="72"/>
       <c r="J857" s="69"/>
-      <c r="K857" s="153"/>
+      <c r="K857" s="151"/>
       <c r="L857" s="75"/>
       <c r="M857" s="69"/>
       <c r="N857" s="89"/>
@@ -38998,7 +38992,7 @@
       <c r="H858" s="69"/>
       <c r="I858" s="72"/>
       <c r="J858" s="69"/>
-      <c r="K858" s="153"/>
+      <c r="K858" s="151"/>
       <c r="L858" s="75"/>
       <c r="M858" s="69"/>
       <c r="N858" s="89"/>
@@ -39014,7 +39008,7 @@
       <c r="H859" s="69"/>
       <c r="I859" s="72"/>
       <c r="J859" s="69"/>
-      <c r="K859" s="153"/>
+      <c r="K859" s="151"/>
       <c r="L859" s="75"/>
       <c r="M859" s="69"/>
       <c r="N859" s="89"/>
@@ -39030,7 +39024,7 @@
       <c r="H860" s="69"/>
       <c r="I860" s="72"/>
       <c r="J860" s="69"/>
-      <c r="K860" s="153"/>
+      <c r="K860" s="151"/>
       <c r="L860" s="75"/>
       <c r="M860" s="69"/>
       <c r="N860" s="89"/>
@@ -39046,7 +39040,7 @@
       <c r="H861" s="69"/>
       <c r="I861" s="72"/>
       <c r="J861" s="69"/>
-      <c r="K861" s="153"/>
+      <c r="K861" s="151"/>
       <c r="L861" s="75"/>
       <c r="M861" s="69"/>
       <c r="N861" s="89"/>
@@ -39062,7 +39056,7 @@
       <c r="H862" s="69"/>
       <c r="I862" s="72"/>
       <c r="J862" s="69"/>
-      <c r="K862" s="153"/>
+      <c r="K862" s="151"/>
       <c r="L862" s="75"/>
       <c r="M862" s="69"/>
       <c r="N862" s="89"/>
@@ -39078,7 +39072,7 @@
       <c r="H863" s="69"/>
       <c r="I863" s="72"/>
       <c r="J863" s="69"/>
-      <c r="K863" s="153"/>
+      <c r="K863" s="151"/>
       <c r="L863" s="75"/>
       <c r="M863" s="69"/>
       <c r="N863" s="89"/>
@@ -39094,7 +39088,7 @@
       <c r="H864" s="69"/>
       <c r="I864" s="72"/>
       <c r="J864" s="69"/>
-      <c r="K864" s="153"/>
+      <c r="K864" s="151"/>
       <c r="L864" s="75"/>
       <c r="M864" s="69"/>
       <c r="N864" s="89"/>
@@ -39110,7 +39104,7 @@
       <c r="H865" s="69"/>
       <c r="I865" s="72"/>
       <c r="J865" s="69"/>
-      <c r="K865" s="153"/>
+      <c r="K865" s="151"/>
       <c r="L865" s="75"/>
       <c r="M865" s="69"/>
       <c r="N865" s="89"/>
@@ -39126,7 +39120,7 @@
       <c r="H866" s="69"/>
       <c r="I866" s="72"/>
       <c r="J866" s="69"/>
-      <c r="K866" s="153"/>
+      <c r="K866" s="151"/>
       <c r="L866" s="75"/>
       <c r="M866" s="69"/>
       <c r="N866" s="89"/>
@@ -39142,7 +39136,7 @@
       <c r="H867" s="69"/>
       <c r="I867" s="72"/>
       <c r="J867" s="69"/>
-      <c r="K867" s="153"/>
+      <c r="K867" s="151"/>
       <c r="L867" s="75"/>
       <c r="M867" s="69"/>
       <c r="N867" s="89"/>
@@ -39158,7 +39152,7 @@
       <c r="H868" s="69"/>
       <c r="I868" s="72"/>
       <c r="J868" s="69"/>
-      <c r="K868" s="153"/>
+      <c r="K868" s="151"/>
       <c r="L868" s="75"/>
       <c r="M868" s="69"/>
       <c r="N868" s="89"/>
@@ -39174,7 +39168,7 @@
       <c r="H869" s="69"/>
       <c r="I869" s="72"/>
       <c r="J869" s="69"/>
-      <c r="K869" s="153"/>
+      <c r="K869" s="151"/>
       <c r="L869" s="75"/>
       <c r="M869" s="69"/>
       <c r="N869" s="89"/>
@@ -39190,7 +39184,7 @@
       <c r="H870" s="69"/>
       <c r="I870" s="72"/>
       <c r="J870" s="69"/>
-      <c r="K870" s="153"/>
+      <c r="K870" s="151"/>
       <c r="L870" s="75"/>
       <c r="M870" s="69"/>
       <c r="N870" s="89"/>
@@ -39206,7 +39200,7 @@
       <c r="H871" s="69"/>
       <c r="I871" s="72"/>
       <c r="J871" s="69"/>
-      <c r="K871" s="153"/>
+      <c r="K871" s="151"/>
       <c r="L871" s="75"/>
       <c r="M871" s="69"/>
       <c r="N871" s="89"/>
@@ -39222,7 +39216,7 @@
       <c r="H872" s="69"/>
       <c r="I872" s="72"/>
       <c r="J872" s="69"/>
-      <c r="K872" s="153"/>
+      <c r="K872" s="151"/>
       <c r="L872" s="75"/>
       <c r="M872" s="69"/>
       <c r="N872" s="89"/>
@@ -39238,7 +39232,7 @@
       <c r="H873" s="69"/>
       <c r="I873" s="72"/>
       <c r="J873" s="69"/>
-      <c r="K873" s="153"/>
+      <c r="K873" s="151"/>
       <c r="L873" s="75"/>
       <c r="M873" s="69"/>
       <c r="N873" s="89"/>
@@ -39254,7 +39248,7 @@
       <c r="H874" s="69"/>
       <c r="I874" s="72"/>
       <c r="J874" s="69"/>
-      <c r="K874" s="153"/>
+      <c r="K874" s="151"/>
       <c r="L874" s="75"/>
       <c r="M874" s="69"/>
       <c r="N874" s="89"/>
@@ -39270,7 +39264,7 @@
       <c r="H875" s="69"/>
       <c r="I875" s="72"/>
       <c r="J875" s="69"/>
-      <c r="K875" s="153"/>
+      <c r="K875" s="151"/>
       <c r="L875" s="75"/>
       <c r="M875" s="69"/>
       <c r="N875" s="89"/>
@@ -39286,7 +39280,7 @@
       <c r="H876" s="69"/>
       <c r="I876" s="72"/>
       <c r="J876" s="69"/>
-      <c r="K876" s="153"/>
+      <c r="K876" s="151"/>
       <c r="L876" s="75"/>
       <c r="M876" s="69"/>
       <c r="N876" s="89"/>
@@ -39302,7 +39296,7 @@
       <c r="H877" s="69"/>
       <c r="I877" s="72"/>
       <c r="J877" s="69"/>
-      <c r="K877" s="153"/>
+      <c r="K877" s="151"/>
       <c r="L877" s="75"/>
       <c r="M877" s="69"/>
       <c r="N877" s="89"/>
@@ -39318,7 +39312,7 @@
       <c r="H878" s="69"/>
       <c r="I878" s="72"/>
       <c r="J878" s="69"/>
-      <c r="K878" s="153"/>
+      <c r="K878" s="151"/>
       <c r="L878" s="75"/>
       <c r="M878" s="69"/>
       <c r="N878" s="89"/>
@@ -39334,7 +39328,7 @@
       <c r="H879" s="69"/>
       <c r="I879" s="72"/>
       <c r="J879" s="69"/>
-      <c r="K879" s="153"/>
+      <c r="K879" s="151"/>
       <c r="L879" s="75"/>
       <c r="M879" s="69"/>
       <c r="N879" s="89"/>
@@ -39350,7 +39344,7 @@
       <c r="H880" s="69"/>
       <c r="I880" s="72"/>
       <c r="J880" s="69"/>
-      <c r="K880" s="153"/>
+      <c r="K880" s="151"/>
       <c r="L880" s="75"/>
       <c r="M880" s="69"/>
       <c r="N880" s="89"/>
@@ -39366,7 +39360,7 @@
       <c r="H881" s="69"/>
       <c r="I881" s="72"/>
       <c r="J881" s="69"/>
-      <c r="K881" s="153"/>
+      <c r="K881" s="151"/>
       <c r="L881" s="75"/>
       <c r="M881" s="69"/>
       <c r="N881" s="89"/>
@@ -39382,7 +39376,7 @@
       <c r="H882" s="69"/>
       <c r="I882" s="72"/>
       <c r="J882" s="69"/>
-      <c r="K882" s="153"/>
+      <c r="K882" s="151"/>
       <c r="L882" s="75"/>
       <c r="M882" s="69"/>
       <c r="N882" s="89"/>
@@ -39398,7 +39392,7 @@
       <c r="H883" s="69"/>
       <c r="I883" s="72"/>
       <c r="J883" s="69"/>
-      <c r="K883" s="153"/>
+      <c r="K883" s="151"/>
       <c r="L883" s="75"/>
       <c r="M883" s="69"/>
       <c r="N883" s="89"/>
@@ -39414,7 +39408,7 @@
       <c r="H884" s="69"/>
       <c r="I884" s="72"/>
       <c r="J884" s="69"/>
-      <c r="K884" s="153"/>
+      <c r="K884" s="151"/>
       <c r="L884" s="75"/>
       <c r="M884" s="69"/>
       <c r="N884" s="89"/>
@@ -39430,7 +39424,7 @@
       <c r="H885" s="69"/>
       <c r="I885" s="72"/>
       <c r="J885" s="69"/>
-      <c r="K885" s="153"/>
+      <c r="K885" s="151"/>
       <c r="L885" s="75"/>
       <c r="M885" s="69"/>
       <c r="N885" s="89"/>
@@ -39446,7 +39440,7 @@
       <c r="H886" s="69"/>
       <c r="I886" s="72"/>
       <c r="J886" s="69"/>
-      <c r="K886" s="153"/>
+      <c r="K886" s="151"/>
       <c r="L886" s="75"/>
       <c r="M886" s="69"/>
       <c r="N886" s="89"/>
@@ -39462,7 +39456,7 @@
       <c r="H887" s="69"/>
       <c r="I887" s="72"/>
       <c r="J887" s="69"/>
-      <c r="K887" s="153"/>
+      <c r="K887" s="151"/>
       <c r="L887" s="75"/>
       <c r="M887" s="69"/>
       <c r="N887" s="89"/>
@@ -39478,7 +39472,7 @@
       <c r="H888" s="69"/>
       <c r="I888" s="72"/>
       <c r="J888" s="69"/>
-      <c r="K888" s="153"/>
+      <c r="K888" s="151"/>
       <c r="L888" s="75"/>
       <c r="M888" s="69"/>
       <c r="N888" s="89"/>
@@ -39494,7 +39488,7 @@
       <c r="H889" s="69"/>
       <c r="I889" s="72"/>
       <c r="J889" s="69"/>
-      <c r="K889" s="153"/>
+      <c r="K889" s="151"/>
       <c r="L889" s="75"/>
       <c r="M889" s="69"/>
       <c r="N889" s="89"/>
@@ -39510,7 +39504,7 @@
       <c r="H890" s="69"/>
       <c r="I890" s="72"/>
       <c r="J890" s="69"/>
-      <c r="K890" s="153"/>
+      <c r="K890" s="151"/>
       <c r="L890" s="75"/>
       <c r="M890" s="69"/>
       <c r="N890" s="89"/>
@@ -39526,7 +39520,7 @@
       <c r="H891" s="69"/>
       <c r="I891" s="72"/>
       <c r="J891" s="69"/>
-      <c r="K891" s="153"/>
+      <c r="K891" s="151"/>
       <c r="L891" s="75"/>
       <c r="M891" s="69"/>
       <c r="N891" s="89"/>
@@ -39542,7 +39536,7 @@
       <c r="H892" s="69"/>
       <c r="I892" s="72"/>
       <c r="J892" s="69"/>
-      <c r="K892" s="153"/>
+      <c r="K892" s="151"/>
       <c r="L892" s="75"/>
       <c r="M892" s="69"/>
       <c r="N892" s="89"/>
@@ -39558,7 +39552,7 @@
       <c r="H893" s="69"/>
       <c r="I893" s="72"/>
       <c r="J893" s="69"/>
-      <c r="K893" s="153"/>
+      <c r="K893" s="151"/>
       <c r="L893" s="75"/>
       <c r="M893" s="69"/>
       <c r="N893" s="89"/>
@@ -39574,7 +39568,7 @@
       <c r="H894" s="69"/>
       <c r="I894" s="72"/>
       <c r="J894" s="69"/>
-      <c r="K894" s="153"/>
+      <c r="K894" s="151"/>
       <c r="L894" s="75"/>
       <c r="M894" s="69"/>
       <c r="N894" s="89"/>
@@ -39590,7 +39584,7 @@
       <c r="H895" s="69"/>
       <c r="I895" s="72"/>
       <c r="J895" s="69"/>
-      <c r="K895" s="153"/>
+      <c r="K895" s="151"/>
       <c r="L895" s="75"/>
       <c r="M895" s="69"/>
       <c r="N895" s="89"/>
@@ -39606,7 +39600,7 @@
       <c r="H896" s="69"/>
       <c r="I896" s="72"/>
       <c r="J896" s="69"/>
-      <c r="K896" s="153"/>
+      <c r="K896" s="151"/>
       <c r="L896" s="75"/>
       <c r="M896" s="69"/>
       <c r="N896" s="89"/>
@@ -39622,7 +39616,7 @@
       <c r="H897" s="69"/>
       <c r="I897" s="72"/>
       <c r="J897" s="69"/>
-      <c r="K897" s="153"/>
+      <c r="K897" s="151"/>
       <c r="L897" s="75"/>
       <c r="M897" s="69"/>
       <c r="N897" s="89"/>
@@ -39638,7 +39632,7 @@
       <c r="H898" s="69"/>
       <c r="I898" s="72"/>
       <c r="J898" s="69"/>
-      <c r="K898" s="153"/>
+      <c r="K898" s="151"/>
       <c r="L898" s="75"/>
       <c r="M898" s="69"/>
       <c r="N898" s="89"/>
@@ -39654,7 +39648,7 @@
       <c r="H899" s="69"/>
       <c r="I899" s="72"/>
       <c r="J899" s="69"/>
-      <c r="K899" s="153"/>
+      <c r="K899" s="151"/>
       <c r="L899" s="75"/>
       <c r="M899" s="69"/>
       <c r="N899" s="89"/>
@@ -39670,7 +39664,7 @@
       <c r="H900" s="69"/>
       <c r="I900" s="72"/>
       <c r="J900" s="69"/>
-      <c r="K900" s="153"/>
+      <c r="K900" s="151"/>
       <c r="L900" s="75"/>
       <c r="M900" s="69"/>
       <c r="N900" s="89"/>
@@ -39686,7 +39680,7 @@
       <c r="H901" s="69"/>
       <c r="I901" s="72"/>
       <c r="J901" s="69"/>
-      <c r="K901" s="153"/>
+      <c r="K901" s="151"/>
       <c r="L901" s="75"/>
       <c r="M901" s="69"/>
       <c r="N901" s="89"/>
@@ -39702,7 +39696,7 @@
       <c r="H902" s="69"/>
       <c r="I902" s="72"/>
       <c r="J902" s="69"/>
-      <c r="K902" s="153"/>
+      <c r="K902" s="151"/>
       <c r="L902" s="75"/>
       <c r="M902" s="69"/>
       <c r="N902" s="89"/>
@@ -39718,7 +39712,7 @@
       <c r="H903" s="69"/>
       <c r="I903" s="72"/>
       <c r="J903" s="69"/>
-      <c r="K903" s="153"/>
+      <c r="K903" s="151"/>
       <c r="L903" s="75"/>
       <c r="M903" s="69"/>
       <c r="N903" s="89"/>
@@ -39834,7 +39828,7 @@
         <v>2037</v>
       </c>
       <c r="N2" s="104" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="O2" s="103"/>
     </row>
@@ -40193,7 +40187,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="98"/>
       <c r="L12" s="118" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="109" t="s">
@@ -40228,8 +40222,8 @@
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="142" t="s">
-        <v>2517</v>
+      <c r="L13" s="140" t="s">
+        <v>2516</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="109" t="s">
@@ -40267,7 +40261,7 @@
       <c r="L14" s="57"/>
       <c r="M14" s="10"/>
       <c r="N14" s="104" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="O14" s="103"/>
     </row>
@@ -40303,7 +40297,7 @@
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="104" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="O15" s="3"/>
     </row>
@@ -40336,11 +40330,11 @@
       <c r="J16" s="26"/>
       <c r="K16" s="98"/>
       <c r="L16" s="118" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="103" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="17">
@@ -40408,14 +40402,14 @@
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="98"/>
-      <c r="L18" s="142" t="s">
-        <v>2551</v>
+      <c r="L18" s="140" t="s">
+        <v>2548</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>2004</v>
       </c>
-      <c r="N18" s="140" t="s">
-        <v>2552</v>
+      <c r="N18" s="138" t="s">
+        <v>2549</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="17">
@@ -40449,14 +40443,14 @@
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="98"/>
-      <c r="L19" s="142" t="s">
-        <v>2551</v>
+      <c r="L19" s="140" t="s">
+        <v>2548</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N19" s="140" t="s">
-        <v>2552</v>
+      <c r="N19" s="138" t="s">
+        <v>2549</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="16">
@@ -40483,8 +40477,8 @@
       <c r="K20" s="98"/>
       <c r="L20" s="57"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="147" t="s">
-        <v>2557</v>
+      <c r="N20" s="145" t="s">
+        <v>2554</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -40523,17 +40517,17 @@
       <c r="J21" s="26">
         <v>32846</v>
       </c>
-      <c r="K21" s="170" t="s">
-        <v>2541</v>
-      </c>
-      <c r="L21" s="142" t="s">
-        <v>2542</v>
+      <c r="K21" s="168" t="s">
+        <v>2538</v>
+      </c>
+      <c r="L21" s="140" t="s">
+        <v>2539</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>2037</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" ht="17">
@@ -40568,17 +40562,17 @@
       <c r="J22" s="26">
         <v>32845</v>
       </c>
-      <c r="K22" s="170" t="s">
-        <v>2541</v>
-      </c>
-      <c r="L22" s="142" t="s">
-        <v>2542</v>
+      <c r="K22" s="168" t="s">
+        <v>2538</v>
+      </c>
+      <c r="L22" s="140" t="s">
+        <v>2539</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="O22" s="141" t="s">
-        <v>2539</v>
+      <c r="O22" s="139" t="s">
+        <v>2536</v>
       </c>
     </row>
   </sheetData>

--- a/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
+++ b/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/fhir-mCODE-ig/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD81423-4397-5541-A370-A35C6D1A3883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C35CE9-6CCE-CC43-8D50-0B5CB21889C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="500" windowWidth="56400" windowHeight="26080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7789,9 +7789,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8187,99 +8194,92 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -8287,277 +8287,287 @@
     <xf numFmtId="1" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8910,8 +8920,8 @@
   <dimension ref="A1:R903"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A656" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L660" sqref="L660"/>
+      <pane ySplit="1" topLeftCell="A654" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M657" sqref="M657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -24630,8 +24640,8 @@
       <c r="J391" s="26">
         <v>234280</v>
       </c>
-      <c r="K391" s="149" t="s">
-        <v>2478</v>
+      <c r="K391" s="149">
+        <v>1187336003</v>
       </c>
       <c r="L391" s="57" t="s">
         <v>2479</v>
@@ -24639,7 +24649,9 @@
       <c r="M391" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N391" s="11"/>
+      <c r="N391" s="175" t="s">
+        <v>2478</v>
+      </c>
     </row>
     <row r="392" spans="1:14" s="1" customFormat="1" ht="51">
       <c r="A392" s="56" t="s">
@@ -24671,8 +24683,8 @@
       <c r="J392" s="26">
         <v>234280</v>
       </c>
-      <c r="K392" s="149" t="s">
-        <v>2478</v>
+      <c r="K392" s="149">
+        <v>1187336003</v>
       </c>
       <c r="L392" s="57" t="s">
         <v>2479</v>
@@ -24680,7 +24692,9 @@
       <c r="M392" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N392" s="11"/>
+      <c r="N392" s="175" t="s">
+        <v>2478</v>
+      </c>
     </row>
     <row r="393" spans="1:14" s="1" customFormat="1" ht="51">
       <c r="A393" s="56" t="s">

--- a/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
+++ b/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/fhir-mCODE-ig/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD81423-4397-5541-A370-A35C6D1A3883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E6F44B-2528-4440-9079-8892F4E81078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="500" windowWidth="56400" windowHeight="26080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6465" uniqueCount="2564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6463" uniqueCount="2562">
   <si>
     <t>Description</t>
   </si>
@@ -7471,9 +7471,6 @@
   </si>
   <si>
     <t>Use Neck Levels  Qualifiers (I-X)</t>
-  </si>
-  <si>
-    <t>USCRS-33346</t>
   </si>
   <si>
     <t>Presacral lymph node group (body structure)</t>
@@ -7591,12 +7588,6 @@
   </si>
   <si>
     <t>Drop  10/26/21</t>
-  </si>
-  <si>
-    <t>Use Local code - TG263#small-bowel-space</t>
-  </si>
-  <si>
-    <t>Use local code - TG263#bowel-space.   Reopen discussion with SNOMEDCT for code based on potential space, just like Neck lymph node levels</t>
   </si>
   <si>
     <t>Space occupied by small bowel</t>
@@ -7773,25 +7764,35 @@
     <t>USCRS-33146</t>
   </si>
   <si>
-    <t>USCRS-33351</t>
-  </si>
-  <si>
-    <t>USCRS-33352</t>
-  </si>
-  <si>
     <t>Structure of anterior descending branch of left coronary artery (body structure)</t>
   </si>
   <si>
     <t>USCRS-33446</t>
+  </si>
+  <si>
+    <t>USCRS-34356</t>
+  </si>
+  <si>
+    <t>USCRS-34358</t>
+  </si>
+  <si>
+    <t>Resubmitted as observable entity July 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8187,99 +8188,92 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -8287,277 +8281,287 @@
     <xf numFmtId="1" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8910,8 +8914,8 @@
   <dimension ref="A1:R903"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A656" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L660" sqref="L660"/>
+      <pane ySplit="1" topLeftCell="A525" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N536" sqref="N536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8924,7 +8928,7 @@
     <col min="6" max="6" width="13.33203125" style="80" customWidth="1"/>
     <col min="7" max="9" width="15.33203125" style="80" customWidth="1"/>
     <col min="10" max="10" width="12" style="80" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="155" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="154" customWidth="1"/>
     <col min="12" max="12" width="49" style="90" customWidth="1"/>
     <col min="13" max="13" width="12.1640625" style="80" customWidth="1"/>
     <col min="14" max="14" width="54.33203125" style="29" customWidth="1"/>
@@ -8961,7 +8965,7 @@
       <c r="J1" s="73" t="s">
         <v>737</v>
       </c>
-      <c r="K1" s="148" t="s">
+      <c r="K1" s="147" t="s">
         <v>2474</v>
       </c>
       <c r="L1" s="94" t="s">
@@ -9004,7 +9008,7 @@
       <c r="J2" s="18">
         <v>3734</v>
       </c>
-      <c r="K2" s="149">
+      <c r="K2" s="148">
         <v>15825003</v>
       </c>
       <c r="L2" s="57" t="s">
@@ -9043,7 +9047,7 @@
       <c r="J3" s="26">
         <v>3736</v>
       </c>
-      <c r="K3" s="149">
+      <c r="K3" s="148">
         <v>54247002</v>
       </c>
       <c r="L3" s="57" t="s">
@@ -9082,7 +9086,7 @@
       <c r="J4" s="18">
         <v>3932</v>
       </c>
-      <c r="K4" s="150">
+      <c r="K4" s="149">
         <v>425444002</v>
       </c>
       <c r="L4" s="57" t="s">
@@ -9121,7 +9125,7 @@
       <c r="J5" s="18">
         <v>3939</v>
       </c>
-      <c r="K5" s="149">
+      <c r="K5" s="148">
         <v>69105007</v>
       </c>
       <c r="L5" s="57" t="s">
@@ -9162,7 +9166,7 @@
       <c r="J6" s="18">
         <v>4058</v>
       </c>
-      <c r="K6" s="149">
+      <c r="K6" s="148">
         <v>69105007</v>
       </c>
       <c r="L6" s="57" t="s">
@@ -9205,7 +9209,7 @@
       <c r="J7" s="18">
         <v>3941</v>
       </c>
-      <c r="K7" s="149">
+      <c r="K7" s="148">
         <v>69105007</v>
       </c>
       <c r="L7" s="57" t="s">
@@ -9246,7 +9250,7 @@
       <c r="J8" s="18">
         <v>50737</v>
       </c>
-      <c r="K8" s="151">
+      <c r="K8" s="150">
         <v>57850000</v>
       </c>
       <c r="L8" s="57" t="s">
@@ -9285,7 +9289,7 @@
       <c r="J9" s="18">
         <v>49893</v>
       </c>
-      <c r="K9" s="149">
+      <c r="K9" s="148">
         <v>41801008</v>
       </c>
       <c r="L9" s="57" t="s">
@@ -9326,7 +9330,7 @@
       <c r="J10" s="18">
         <v>50040</v>
       </c>
-      <c r="K10" s="149">
+      <c r="K10" s="148">
         <v>41801008</v>
       </c>
       <c r="L10" s="57" t="s">
@@ -9369,7 +9373,7 @@
       <c r="J11" s="18">
         <v>50039</v>
       </c>
-      <c r="K11" s="149">
+      <c r="K11" s="148">
         <v>41801008</v>
       </c>
       <c r="L11" s="57" t="s">
@@ -9412,7 +9416,7 @@
       <c r="J12" s="26">
         <v>70250</v>
       </c>
-      <c r="K12" s="149">
+      <c r="K12" s="148">
         <v>7657000</v>
       </c>
       <c r="L12" s="57" t="s">
@@ -9455,7 +9459,7 @@
       <c r="J13" s="26">
         <v>70249</v>
       </c>
-      <c r="K13" s="149">
+      <c r="K13" s="148">
         <v>7657000</v>
       </c>
       <c r="L13" s="57" t="s">
@@ -9496,7 +9500,7 @@
         <v>1963</v>
       </c>
       <c r="J14" s="28"/>
-      <c r="K14" s="152">
+      <c r="K14" s="151">
         <v>244314003</v>
       </c>
       <c r="L14" s="74" t="s">
@@ -9538,7 +9542,7 @@
         <v>1671</v>
       </c>
       <c r="J15" s="28"/>
-      <c r="K15" s="152">
+      <c r="K15" s="151">
         <v>244314003</v>
       </c>
       <c r="L15" s="74" t="s">
@@ -9573,7 +9577,7 @@
         <v>1977</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="I16" s="25" t="s">
         <v>392</v>
@@ -9581,7 +9585,7 @@
       <c r="J16" s="26">
         <v>49846</v>
       </c>
-      <c r="K16" s="149">
+      <c r="K16" s="148">
         <v>74200005</v>
       </c>
       <c r="L16" s="57" t="s">
@@ -9622,7 +9626,7 @@
       <c r="J17" s="26">
         <v>49849</v>
       </c>
-      <c r="K17" s="149">
+      <c r="K17" s="148">
         <v>55601007</v>
       </c>
       <c r="L17" s="57" t="s">
@@ -9661,7 +9665,7 @@
         <v>1651</v>
       </c>
       <c r="J18" s="26"/>
-      <c r="K18" s="151">
+      <c r="K18" s="150">
         <v>244327004</v>
       </c>
       <c r="L18" s="75" t="s">
@@ -9702,7 +9706,7 @@
         <v>1650</v>
       </c>
       <c r="J19" s="26"/>
-      <c r="K19" s="151">
+      <c r="K19" s="150">
         <v>244327004</v>
       </c>
       <c r="L19" s="75" t="s">
@@ -9745,7 +9749,7 @@
       <c r="J20" s="26">
         <v>18807</v>
       </c>
-      <c r="K20" s="149">
+      <c r="K20" s="148">
         <v>113269004</v>
       </c>
       <c r="L20" s="57" t="s">
@@ -9788,7 +9792,7 @@
       <c r="J21" s="26">
         <v>18806</v>
       </c>
-      <c r="K21" s="149">
+      <c r="K21" s="148">
         <v>113269004</v>
       </c>
       <c r="L21" s="57" t="s">
@@ -9831,7 +9835,7 @@
       <c r="J22" s="26">
         <v>18810</v>
       </c>
-      <c r="K22" s="149">
+      <c r="K22" s="148">
         <v>90024005</v>
       </c>
       <c r="L22" s="57" t="s">
@@ -9874,7 +9878,7 @@
       <c r="J23" s="26">
         <v>18809</v>
       </c>
-      <c r="K23" s="149">
+      <c r="K23" s="148">
         <v>90024005</v>
       </c>
       <c r="L23" s="57" t="s">
@@ -9917,7 +9921,7 @@
       <c r="J24" s="26">
         <v>14766</v>
       </c>
-      <c r="K24" s="151">
+      <c r="K24" s="150">
         <v>73634005</v>
       </c>
       <c r="L24" s="75" t="s">
@@ -9960,7 +9964,7 @@
       <c r="J25" s="26">
         <v>14765</v>
       </c>
-      <c r="K25" s="149">
+      <c r="K25" s="148">
         <v>73634005</v>
       </c>
       <c r="L25" s="57" t="s">
@@ -10001,11 +10005,11 @@
       <c r="J26" s="26">
         <v>3862</v>
       </c>
-      <c r="K26" s="153">
+      <c r="K26" s="152">
         <v>33795007</v>
       </c>
-      <c r="L26" s="147" t="s">
-        <v>2562</v>
+      <c r="L26" s="146" t="s">
+        <v>2557</v>
       </c>
       <c r="M26" s="10"/>
       <c r="N26" s="11"/>
@@ -10042,7 +10046,7 @@
       <c r="J27" s="26">
         <v>14750</v>
       </c>
-      <c r="K27" s="149">
+      <c r="K27" s="148">
         <v>33795007</v>
       </c>
       <c r="L27" s="57" t="s">
@@ -10083,7 +10087,7 @@
       <c r="J28" s="26">
         <v>14749</v>
       </c>
-      <c r="K28" s="149">
+      <c r="K28" s="148">
         <v>42258001</v>
       </c>
       <c r="L28" s="57" t="s">
@@ -10122,7 +10126,7 @@
       <c r="J29" s="26">
         <v>66326</v>
       </c>
-      <c r="K29" s="149">
+      <c r="K29" s="148">
         <v>81040000</v>
       </c>
       <c r="L29" s="57" t="s">
@@ -10161,7 +10165,7 @@
       <c r="J30" s="26">
         <v>3951</v>
       </c>
-      <c r="K30" s="149">
+      <c r="K30" s="148">
         <v>36765005</v>
       </c>
       <c r="L30" s="57" t="s">
@@ -10202,7 +10206,7 @@
       <c r="J31" s="26">
         <v>4694</v>
       </c>
-      <c r="K31" s="149">
+      <c r="K31" s="148">
         <v>36765005</v>
       </c>
       <c r="L31" s="57" t="s">
@@ -10245,7 +10249,7 @@
       <c r="J32" s="26">
         <v>3953</v>
       </c>
-      <c r="K32" s="149">
+      <c r="K32" s="148">
         <v>36765005</v>
       </c>
       <c r="L32" s="57" t="s">
@@ -10286,7 +10290,7 @@
       <c r="J33" s="26">
         <v>3956</v>
       </c>
-      <c r="K33" s="149">
+      <c r="K33" s="148">
         <v>85234005</v>
       </c>
       <c r="L33" s="57" t="s">
@@ -10327,7 +10331,7 @@
       <c r="J34" s="26">
         <v>4066</v>
       </c>
-      <c r="K34" s="149">
+      <c r="K34" s="148">
         <v>85234005</v>
       </c>
       <c r="L34" s="57" t="s">
@@ -10370,7 +10374,7 @@
       <c r="J35" s="26">
         <v>3958</v>
       </c>
-      <c r="K35" s="149">
+      <c r="K35" s="148">
         <v>85234005</v>
       </c>
       <c r="L35" s="57" t="s">
@@ -10413,7 +10417,7 @@
       <c r="J36" s="26">
         <v>16599</v>
       </c>
-      <c r="K36" s="149">
+      <c r="K36" s="148">
         <v>37783008</v>
       </c>
       <c r="L36" s="57" t="s">
@@ -10456,7 +10460,7 @@
       <c r="J37" s="26">
         <v>16598</v>
       </c>
-      <c r="K37" s="149">
+      <c r="K37" s="148">
         <v>37783008</v>
       </c>
       <c r="L37" s="57" t="s">
@@ -10497,7 +10501,7 @@
       <c r="J38" s="26">
         <v>16579</v>
       </c>
-      <c r="K38" s="149">
+      <c r="K38" s="148">
         <v>37783008</v>
       </c>
       <c r="L38" s="57" t="s">
@@ -10534,7 +10538,7 @@
         <v>1712</v>
       </c>
       <c r="J39" s="26"/>
-      <c r="K39" s="149">
+      <c r="K39" s="148">
         <v>89187006</v>
       </c>
       <c r="L39" s="57" t="s">
@@ -10573,7 +10577,7 @@
         <v>1710</v>
       </c>
       <c r="J40" s="26"/>
-      <c r="K40" s="149">
+      <c r="K40" s="148">
         <v>89187006</v>
       </c>
       <c r="L40" s="57" t="s">
@@ -10614,7 +10618,7 @@
       <c r="J41" s="26">
         <v>15711</v>
       </c>
-      <c r="K41" s="149">
+      <c r="K41" s="148">
         <v>123956007</v>
       </c>
       <c r="L41" s="57" t="s">
@@ -10653,7 +10657,7 @@
       <c r="J42" s="26">
         <v>14542</v>
       </c>
-      <c r="K42" s="149">
+      <c r="K42" s="148">
         <v>66754008</v>
       </c>
       <c r="L42" s="77" t="s">
@@ -10692,7 +10696,7 @@
       <c r="J43" s="26">
         <v>55109</v>
       </c>
-      <c r="K43" s="149">
+      <c r="K43" s="148">
         <v>77578007</v>
       </c>
       <c r="L43" s="78" t="s">
@@ -10733,7 +10737,7 @@
       <c r="J44" s="26">
         <v>55114</v>
       </c>
-      <c r="K44" s="149">
+      <c r="K44" s="148">
         <v>77578007</v>
       </c>
       <c r="L44" s="57" t="s">
@@ -10776,7 +10780,7 @@
       <c r="J45" s="33">
         <v>55113</v>
       </c>
-      <c r="K45" s="149">
+      <c r="K45" s="148">
         <v>77578007</v>
       </c>
       <c r="L45" s="57" t="s">
@@ -10817,7 +10821,7 @@
       <c r="J46" s="18">
         <v>7099</v>
       </c>
-      <c r="K46" s="153">
+      <c r="K46" s="152">
         <v>59652004</v>
       </c>
       <c r="L46" s="76" t="s">
@@ -10858,7 +10862,7 @@
       <c r="J47" s="18">
         <v>7097</v>
       </c>
-      <c r="K47" s="153">
+      <c r="K47" s="152">
         <v>59652004</v>
       </c>
       <c r="L47" s="76" t="s">
@@ -10901,7 +10905,7 @@
       <c r="J48" s="18">
         <v>7096</v>
       </c>
-      <c r="K48" s="153">
+      <c r="K48" s="152">
         <v>59652004</v>
       </c>
       <c r="L48" s="76" t="s">
@@ -10942,7 +10946,7 @@
       <c r="J51" s="18">
         <v>14667</v>
       </c>
-      <c r="K51" s="151">
+      <c r="K51" s="150">
         <v>79741001</v>
       </c>
       <c r="L51" s="75" t="s">
@@ -10979,7 +10983,7 @@
       <c r="J52" s="18">
         <v>15900</v>
       </c>
-      <c r="K52" s="149">
+      <c r="K52" s="148">
         <v>89837001</v>
       </c>
       <c r="L52" s="57" t="s">
@@ -11016,7 +11020,7 @@
       <c r="J53" s="18">
         <v>15902</v>
       </c>
-      <c r="K53" s="149">
+      <c r="K53" s="148">
         <v>393006</v>
       </c>
       <c r="L53" s="57" t="s">
@@ -11053,7 +11057,7 @@
       <c r="J54" s="22">
         <v>30317</v>
       </c>
-      <c r="K54" s="149">
+      <c r="K54" s="148">
         <v>119186007</v>
       </c>
       <c r="L54" s="57" t="s">
@@ -11092,7 +11096,7 @@
       <c r="J55" s="26">
         <v>52740</v>
       </c>
-      <c r="K55" s="149">
+      <c r="K55" s="148">
         <v>52374004</v>
       </c>
       <c r="L55" s="57" t="s">
@@ -11131,7 +11135,7 @@
       <c r="J56" s="26">
         <v>52734</v>
       </c>
-      <c r="K56" s="149">
+      <c r="K56" s="148">
         <v>74872008</v>
       </c>
       <c r="L56" s="57" t="s">
@@ -11170,7 +11174,7 @@
       <c r="J57" s="26">
         <v>52749</v>
       </c>
-      <c r="K57" s="149">
+      <c r="K57" s="148">
         <v>21387005</v>
       </c>
       <c r="L57" s="57" t="s">
@@ -11209,7 +11213,7 @@
       <c r="J58" s="18">
         <v>42832</v>
       </c>
-      <c r="K58" s="149">
+      <c r="K58" s="148">
         <v>22356005</v>
       </c>
       <c r="L58" s="57" t="s">
@@ -11250,7 +11254,7 @@
       <c r="J59" s="26">
         <v>16591</v>
       </c>
-      <c r="K59" s="149">
+      <c r="K59" s="148">
         <v>22356005</v>
       </c>
       <c r="L59" s="57" t="s">
@@ -11293,7 +11297,7 @@
       <c r="J60" s="26">
         <v>16590</v>
       </c>
-      <c r="K60" s="149">
+      <c r="K60" s="148">
         <v>22356005</v>
       </c>
       <c r="L60" s="57" t="s">
@@ -11334,7 +11338,7 @@
       <c r="J61" s="18">
         <v>52752</v>
       </c>
-      <c r="K61" s="149">
+      <c r="K61" s="148">
         <v>421793000</v>
       </c>
       <c r="L61" s="57" t="s">
@@ -11375,7 +11379,7 @@
       <c r="J62" s="18">
         <v>74051</v>
       </c>
-      <c r="K62" s="149">
+      <c r="K62" s="148">
         <v>421793000</v>
       </c>
       <c r="L62" s="57" t="s">
@@ -11418,7 +11422,7 @@
       <c r="J63" s="18">
         <v>74050</v>
       </c>
-      <c r="K63" s="149">
+      <c r="K63" s="148">
         <v>421793000</v>
       </c>
       <c r="L63" s="57" t="s">
@@ -11461,7 +11465,7 @@
       <c r="J64" s="18">
         <v>16594</v>
       </c>
-      <c r="K64" s="149">
+      <c r="K64" s="148">
         <v>85710004</v>
       </c>
       <c r="L64" s="57" t="s">
@@ -11504,7 +11508,7 @@
       <c r="J65" s="18">
         <v>16593</v>
       </c>
-      <c r="K65" s="149">
+      <c r="K65" s="148">
         <v>85710004</v>
       </c>
       <c r="L65" s="57" t="s">
@@ -11545,7 +11549,7 @@
       <c r="J66" s="18">
         <v>52741</v>
       </c>
-      <c r="K66" s="149">
+      <c r="K66" s="148">
         <v>6229007</v>
       </c>
       <c r="L66" s="57" t="s">
@@ -11586,7 +11590,7 @@
       <c r="J67" s="18">
         <v>53646</v>
       </c>
-      <c r="K67" s="149">
+      <c r="K67" s="148">
         <v>6229007</v>
       </c>
       <c r="L67" s="57" t="s">
@@ -11629,7 +11633,7 @@
       <c r="J68" s="18">
         <v>53645</v>
       </c>
-      <c r="K68" s="149">
+      <c r="K68" s="148">
         <v>6229007</v>
       </c>
       <c r="L68" s="57" t="s">
@@ -11670,7 +11674,7 @@
       <c r="J69" s="14">
         <v>52748</v>
       </c>
-      <c r="K69" s="149">
+      <c r="K69" s="148">
         <v>91609006</v>
       </c>
       <c r="L69" s="57" t="s">
@@ -11709,7 +11713,7 @@
       <c r="J70" s="14">
         <v>52872</v>
       </c>
-      <c r="K70" s="149">
+      <c r="K70" s="148">
         <v>59066005</v>
       </c>
       <c r="L70" s="57" t="s">
@@ -11750,7 +11754,7 @@
       <c r="J71" s="14">
         <v>52874</v>
       </c>
-      <c r="K71" s="149">
+      <c r="K71" s="148">
         <v>59066005</v>
       </c>
       <c r="L71" s="57" t="s">
@@ -11793,7 +11797,7 @@
       <c r="J72" s="14">
         <v>52873</v>
       </c>
-      <c r="K72" s="149">
+      <c r="K72" s="148">
         <v>59066005</v>
       </c>
       <c r="L72" s="57" t="s">
@@ -11834,7 +11838,7 @@
       <c r="J73" s="18">
         <v>52745</v>
       </c>
-      <c r="K73" s="149">
+      <c r="K73" s="148">
         <v>74386004</v>
       </c>
       <c r="L73" s="57" t="s">
@@ -11875,7 +11879,7 @@
       <c r="J74" s="18">
         <v>53648</v>
       </c>
-      <c r="K74" s="149">
+      <c r="K74" s="148">
         <v>74386004</v>
       </c>
       <c r="L74" s="57" t="s">
@@ -11918,7 +11922,7 @@
       <c r="J75" s="18">
         <v>53647</v>
       </c>
-      <c r="K75" s="149">
+      <c r="K75" s="148">
         <v>74386004</v>
       </c>
       <c r="L75" s="57" t="s">
@@ -11959,7 +11963,7 @@
       <c r="J76" s="18">
         <v>52735</v>
       </c>
-      <c r="K76" s="149">
+      <c r="K76" s="148">
         <v>31640002</v>
       </c>
       <c r="L76" s="57" t="s">
@@ -11998,7 +12002,7 @@
       <c r="J77" s="18">
         <v>52746</v>
       </c>
-      <c r="K77" s="149">
+      <c r="K77" s="148">
         <v>51283005</v>
       </c>
       <c r="L77" s="57" t="s">
@@ -12039,7 +12043,7 @@
       <c r="J78" s="18">
         <v>53656</v>
       </c>
-      <c r="K78" s="149">
+      <c r="K78" s="148">
         <v>51283005</v>
       </c>
       <c r="L78" s="57" t="s">
@@ -12082,7 +12086,7 @@
       <c r="J79" s="18">
         <v>53655</v>
       </c>
-      <c r="K79" s="149">
+      <c r="K79" s="148">
         <v>51283005</v>
       </c>
       <c r="L79" s="57" t="s">
@@ -12123,7 +12127,7 @@
       <c r="J80" s="18">
         <v>9613</v>
       </c>
-      <c r="K80" s="149">
+      <c r="K80" s="148">
         <v>24924006</v>
       </c>
       <c r="L80" s="57" t="s">
@@ -12164,7 +12168,7 @@
       <c r="J81" s="18">
         <v>52789</v>
       </c>
-      <c r="K81" s="149">
+      <c r="K81" s="148">
         <v>24924006</v>
       </c>
       <c r="L81" s="57" t="s">
@@ -12207,7 +12211,7 @@
       <c r="J82" s="18">
         <v>52788</v>
       </c>
-      <c r="K82" s="149">
+      <c r="K82" s="148">
         <v>24924006</v>
       </c>
       <c r="L82" s="57" t="s">
@@ -12248,7 +12252,7 @@
       <c r="J83" s="18">
         <v>16580</v>
       </c>
-      <c r="K83" s="149">
+      <c r="K83" s="148">
         <v>118645006</v>
       </c>
       <c r="L83" s="57" t="s">
@@ -12289,7 +12293,7 @@
       <c r="J84" s="18">
         <v>20227</v>
       </c>
-      <c r="K84" s="149">
+      <c r="K84" s="148">
         <v>118645006</v>
       </c>
       <c r="L84" s="57" t="s">
@@ -12332,7 +12336,7 @@
       <c r="J85" s="18">
         <v>20226</v>
       </c>
-      <c r="K85" s="149">
+      <c r="K85" s="148">
         <v>118645006</v>
       </c>
       <c r="L85" s="57" t="s">
@@ -12373,7 +12377,7 @@
       <c r="J86" s="18">
         <v>52736</v>
       </c>
-      <c r="K86" s="149">
+      <c r="K86" s="148">
         <v>73117003</v>
       </c>
       <c r="L86" s="57" t="s">
@@ -12412,7 +12416,7 @@
       <c r="J87" s="18">
         <v>52737</v>
       </c>
-      <c r="K87" s="149">
+      <c r="K87" s="148">
         <v>60911003</v>
       </c>
       <c r="L87" s="57" t="s">
@@ -12453,7 +12457,7 @@
       <c r="J88" s="18">
         <v>52739</v>
       </c>
-      <c r="K88" s="149">
+      <c r="K88" s="148">
         <v>60911003</v>
       </c>
       <c r="L88" s="57" t="s">
@@ -12496,7 +12500,7 @@
       <c r="J89" s="18">
         <v>52738</v>
       </c>
-      <c r="K89" s="149">
+      <c r="K89" s="148">
         <v>60911003</v>
       </c>
       <c r="L89" s="57" t="s">
@@ -12539,7 +12543,7 @@
       <c r="J90" s="18">
         <v>52893</v>
       </c>
-      <c r="K90" s="149">
+      <c r="K90" s="148">
         <v>13881006</v>
       </c>
       <c r="L90" s="57" t="s">
@@ -12582,7 +12586,7 @@
       <c r="J91" s="18">
         <v>52892</v>
       </c>
-      <c r="K91" s="149">
+      <c r="K91" s="148">
         <v>13881006</v>
       </c>
       <c r="L91" s="57" t="s">
@@ -12623,7 +12627,7 @@
       <c r="J92" s="18">
         <v>52747</v>
       </c>
-      <c r="K92" s="149">
+      <c r="K92" s="148">
         <v>13881006</v>
       </c>
       <c r="L92" s="57" t="s">
@@ -12662,7 +12666,7 @@
       <c r="J93" s="18">
         <v>9608</v>
       </c>
-      <c r="K93" s="149">
+      <c r="K93" s="148">
         <v>14016003</v>
       </c>
       <c r="L93" s="57" t="s">
@@ -12699,7 +12703,7 @@
       <c r="J94" s="18">
         <v>13295</v>
       </c>
-      <c r="K94" s="149">
+      <c r="K94" s="148">
         <v>5798000</v>
       </c>
       <c r="L94" s="57" t="s">
@@ -12734,7 +12738,7 @@
       <c r="J96" s="18">
         <v>7199</v>
       </c>
-      <c r="K96" s="149">
+      <c r="K96" s="148">
         <v>113276009</v>
       </c>
       <c r="L96" s="57" t="s">
@@ -12773,7 +12777,7 @@
       <c r="J97" s="18">
         <v>7201</v>
       </c>
-      <c r="K97" s="149">
+      <c r="K97" s="148">
         <v>14742008</v>
       </c>
       <c r="L97" s="57" t="s">
@@ -12810,7 +12814,7 @@
       <c r="J98" s="18">
         <v>7200</v>
       </c>
-      <c r="K98" s="149">
+      <c r="K98" s="148">
         <v>30315005</v>
       </c>
       <c r="L98" s="57" t="s">
@@ -12851,7 +12855,7 @@
       <c r="J99" s="18">
         <v>45245</v>
       </c>
-      <c r="K99" s="149">
+      <c r="K99" s="148">
         <v>36582005</v>
       </c>
       <c r="L99" s="57" t="s">
@@ -12894,7 +12898,7 @@
       <c r="J100" s="18">
         <v>45244</v>
       </c>
-      <c r="K100" s="149">
+      <c r="K100" s="148">
         <v>36582005</v>
       </c>
       <c r="L100" s="57" t="s">
@@ -12935,15 +12939,15 @@
       <c r="J101" s="18">
         <v>5906</v>
       </c>
-      <c r="K101" s="149">
+      <c r="K101" s="148">
         <v>36582005</v>
       </c>
       <c r="L101" s="57" t="s">
         <v>2216</v>
       </c>
       <c r="M101" s="10"/>
-      <c r="N101" s="128" t="s">
-        <v>2522</v>
+      <c r="N101" s="127" t="s">
+        <v>2519</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="1" customFormat="1" ht="17">
@@ -12976,7 +12980,7 @@
       <c r="J102" s="18">
         <v>50801</v>
       </c>
-      <c r="K102" s="149">
+      <c r="K102" s="148">
         <v>12738006</v>
       </c>
       <c r="L102" s="57" t="s">
@@ -13015,7 +13019,7 @@
       <c r="J103" s="18">
         <v>79876</v>
       </c>
-      <c r="K103" s="149">
+      <c r="K103" s="148">
         <v>15926001</v>
       </c>
       <c r="L103" s="57" t="s">
@@ -13052,7 +13056,7 @@
         <v>1433</v>
       </c>
       <c r="J104" s="26"/>
-      <c r="K104" s="154">
+      <c r="K104" s="153">
         <v>15926001</v>
       </c>
       <c r="L104" s="79" t="s">
@@ -13091,7 +13095,7 @@
         <v>1436</v>
       </c>
       <c r="J106" s="26"/>
-      <c r="K106" s="154">
+      <c r="K106" s="153">
         <v>15926001</v>
       </c>
       <c r="L106" s="79" t="s">
@@ -13132,7 +13136,7 @@
       <c r="J107" s="18">
         <v>321497</v>
       </c>
-      <c r="K107" s="151">
+      <c r="K107" s="150">
         <v>76752008</v>
       </c>
       <c r="L107" s="75" t="s">
@@ -13173,7 +13177,7 @@
       <c r="J108" s="18">
         <v>321496</v>
       </c>
-      <c r="K108" s="149">
+      <c r="K108" s="148">
         <v>76752008</v>
       </c>
       <c r="L108" s="57" t="s">
@@ -13214,7 +13218,7 @@
       <c r="J109" s="18">
         <v>268893</v>
       </c>
-      <c r="K109" s="149">
+      <c r="K109" s="148">
         <v>76752008</v>
       </c>
       <c r="L109" s="57" t="s">
@@ -13255,7 +13259,7 @@
       <c r="J110" s="18">
         <v>26660</v>
       </c>
-      <c r="K110" s="149">
+      <c r="K110" s="148">
         <v>955009</v>
       </c>
       <c r="L110" s="57" t="s">
@@ -13296,7 +13300,7 @@
       <c r="J111" s="18">
         <v>26662</v>
       </c>
-      <c r="K111" s="149">
+      <c r="K111" s="148">
         <v>955009</v>
       </c>
       <c r="L111" s="57" t="s">
@@ -13337,7 +13341,7 @@
       <c r="J112" s="18">
         <v>7405</v>
       </c>
-      <c r="K112" s="149">
+      <c r="K112" s="148">
         <v>102297006</v>
       </c>
       <c r="L112" s="57" t="s">
@@ -13378,7 +13382,7 @@
       <c r="J113" s="18">
         <v>7396</v>
       </c>
-      <c r="K113" s="149">
+      <c r="K113" s="148">
         <v>102297006</v>
       </c>
       <c r="L113" s="57" t="s">
@@ -13419,7 +13423,7 @@
       <c r="J114" s="18">
         <v>7395</v>
       </c>
-      <c r="K114" s="149">
+      <c r="K114" s="148">
         <v>102297006</v>
       </c>
       <c r="L114" s="57" t="s">
@@ -13460,7 +13464,7 @@
       <c r="J115" s="18">
         <v>26661</v>
       </c>
-      <c r="K115" s="149">
+      <c r="K115" s="148">
         <v>955009</v>
       </c>
       <c r="L115" s="57" t="s">
@@ -13501,7 +13505,7 @@
       <c r="J116" s="26">
         <v>15703</v>
       </c>
-      <c r="K116" s="149">
+      <c r="K116" s="148">
         <v>34381000</v>
       </c>
       <c r="L116" s="57" t="s">
@@ -13538,7 +13542,7 @@
       <c r="J117" s="18">
         <v>7465</v>
       </c>
-      <c r="K117" s="149">
+      <c r="K117" s="148">
         <v>28700002</v>
       </c>
       <c r="L117" s="57" t="s">
@@ -13575,7 +13579,7 @@
       <c r="J118" s="18">
         <v>7206</v>
       </c>
-      <c r="K118" s="149">
+      <c r="K118" s="148">
         <v>38848004</v>
       </c>
       <c r="L118" s="57" t="s">
@@ -13614,7 +13618,7 @@
       <c r="J119" s="18">
         <v>52590</v>
       </c>
-      <c r="K119" s="149">
+      <c r="K119" s="148">
         <v>7173007</v>
       </c>
       <c r="L119" s="57" t="s">
@@ -13651,7 +13655,7 @@
       <c r="J120" s="18">
         <v>75189</v>
       </c>
-      <c r="K120" s="149">
+      <c r="K120" s="148">
         <v>9284003</v>
       </c>
       <c r="L120" s="57" t="s">
@@ -13690,7 +13694,7 @@
       <c r="J121" s="18">
         <v>54378</v>
       </c>
-      <c r="K121" s="149">
+      <c r="K121" s="148">
         <v>279549004</v>
       </c>
       <c r="L121" s="57" t="s">
@@ -13729,7 +13733,7 @@
       <c r="J122" s="18">
         <v>20292</v>
       </c>
-      <c r="K122" s="149">
+      <c r="K122" s="148">
         <v>74262004</v>
       </c>
       <c r="L122" s="57" t="s">
@@ -13766,7 +13770,7 @@
       <c r="J123" s="18">
         <v>14541</v>
       </c>
-      <c r="K123" s="149">
+      <c r="K123" s="148">
         <v>32713005</v>
       </c>
       <c r="L123" s="57" t="s">
@@ -13805,7 +13809,7 @@
       <c r="J124" s="18">
         <v>67944</v>
       </c>
-      <c r="K124" s="149">
+      <c r="K124" s="148">
         <v>113305005</v>
       </c>
       <c r="L124" s="57" t="s">
@@ -13844,7 +13848,7 @@
       <c r="J125" s="26">
         <v>62000</v>
       </c>
-      <c r="K125" s="149">
+      <c r="K125" s="148">
         <v>83678007</v>
       </c>
       <c r="L125" s="57" t="s">
@@ -13883,7 +13887,7 @@
       <c r="J126" s="26">
         <v>61819</v>
       </c>
-      <c r="K126" s="149">
+      <c r="K126" s="148">
         <v>83678007</v>
       </c>
       <c r="L126" s="57" t="s">
@@ -13924,7 +13928,7 @@
       <c r="J127" s="26">
         <v>67292</v>
       </c>
-      <c r="K127" s="149">
+      <c r="K127" s="148">
         <v>83678007</v>
       </c>
       <c r="L127" s="57" t="s">
@@ -13963,7 +13967,7 @@
       <c r="J128" s="26">
         <v>17740</v>
       </c>
-      <c r="K128" s="149">
+      <c r="K128" s="148">
         <v>71252005</v>
       </c>
       <c r="L128" s="57" t="s">
@@ -14000,7 +14004,7 @@
       <c r="J129" s="18">
         <v>50060</v>
       </c>
-      <c r="K129" s="149">
+      <c r="K129" s="148">
         <v>78904004</v>
       </c>
       <c r="L129" s="57" t="s">
@@ -14039,7 +14043,7 @@
       <c r="J130" s="18">
         <v>25559</v>
       </c>
-      <c r="K130" s="149">
+      <c r="K130" s="148">
         <v>78904004</v>
       </c>
       <c r="L130" s="57" t="s">
@@ -14080,7 +14084,7 @@
       <c r="J131" s="18">
         <v>25558</v>
       </c>
-      <c r="K131" s="149">
+      <c r="K131" s="148">
         <v>78904004</v>
       </c>
       <c r="L131" s="57" t="s">
@@ -14119,7 +14123,7 @@
       <c r="J132" s="22">
         <v>83719</v>
       </c>
-      <c r="K132" s="149">
+      <c r="K132" s="148">
         <v>369387006</v>
       </c>
       <c r="L132" s="57" t="s">
@@ -14154,7 +14158,7 @@
         <v>450</v>
       </c>
       <c r="J133" s="18"/>
-      <c r="K133" s="149">
+      <c r="K133" s="148">
         <v>60075002</v>
       </c>
       <c r="L133" s="57" t="s">
@@ -14195,7 +14199,7 @@
       <c r="J134" s="18">
         <v>13323</v>
       </c>
-      <c r="K134" s="149">
+      <c r="K134" s="148">
         <v>51299004</v>
       </c>
       <c r="L134" s="57" t="s">
@@ -14238,7 +14242,7 @@
       <c r="J135" s="18">
         <v>13322</v>
       </c>
-      <c r="K135" s="149">
+      <c r="K135" s="148">
         <v>51299004</v>
       </c>
       <c r="L135" s="57" t="s">
@@ -14279,7 +14283,7 @@
       <c r="J136" s="18">
         <v>50864</v>
       </c>
-      <c r="K136" s="149">
+      <c r="K136" s="148">
         <v>56193007</v>
       </c>
       <c r="L136" s="57" t="s">
@@ -14320,7 +14324,7 @@
       <c r="J137" s="18">
         <v>50880</v>
       </c>
-      <c r="K137" s="149">
+      <c r="K137" s="148">
         <v>56193007</v>
       </c>
       <c r="L137" s="57" t="s">
@@ -14363,7 +14367,7 @@
       <c r="J138" s="18">
         <v>50879</v>
       </c>
-      <c r="K138" s="149">
+      <c r="K138" s="148">
         <v>56193007</v>
       </c>
       <c r="L138" s="57" t="s">
@@ -14404,7 +14408,7 @@
       <c r="J139" s="18">
         <v>50870</v>
       </c>
-      <c r="K139" s="149">
+      <c r="K139" s="148">
         <v>21161002</v>
       </c>
       <c r="L139" s="57" t="s">
@@ -14445,7 +14449,7 @@
       <c r="J140" s="18">
         <v>50892</v>
       </c>
-      <c r="K140" s="149">
+      <c r="K140" s="148">
         <v>21161002</v>
       </c>
       <c r="L140" s="57" t="s">
@@ -14488,7 +14492,7 @@
       <c r="J141" s="18">
         <v>50870</v>
       </c>
-      <c r="K141" s="149">
+      <c r="K141" s="148">
         <v>21161002</v>
       </c>
       <c r="L141" s="57" t="s">
@@ -14529,7 +14533,7 @@
       <c r="J142" s="18">
         <v>50866</v>
       </c>
-      <c r="K142" s="149">
+      <c r="K142" s="148">
         <v>27612005</v>
       </c>
       <c r="L142" s="57" t="s">
@@ -14570,7 +14574,7 @@
       <c r="J143" s="18">
         <v>50885</v>
       </c>
-      <c r="K143" s="149">
+      <c r="K143" s="148">
         <v>27612005</v>
       </c>
       <c r="L143" s="57" t="s">
@@ -14613,7 +14617,7 @@
       <c r="J144" s="18">
         <v>50884</v>
       </c>
-      <c r="K144" s="149">
+      <c r="K144" s="148">
         <v>27612005</v>
       </c>
       <c r="L144" s="57" t="s">
@@ -14654,7 +14658,7 @@
       <c r="J145" s="18">
         <v>50867</v>
       </c>
-      <c r="K145" s="149">
+      <c r="K145" s="148">
         <v>80622005</v>
       </c>
       <c r="L145" s="57" t="s">
@@ -14695,7 +14699,7 @@
       <c r="J146" s="18">
         <v>50887</v>
       </c>
-      <c r="K146" s="149">
+      <c r="K146" s="148">
         <v>80622005</v>
       </c>
       <c r="L146" s="57" t="s">
@@ -14738,7 +14742,7 @@
       <c r="J147" s="18">
         <v>50886</v>
       </c>
-      <c r="K147" s="149">
+      <c r="K147" s="148">
         <v>80622005</v>
       </c>
       <c r="L147" s="57" t="s">
@@ -14779,7 +14783,7 @@
       <c r="J148" s="18">
         <v>50868</v>
       </c>
-      <c r="K148" s="149">
+      <c r="K148" s="148">
         <v>56052001</v>
       </c>
       <c r="L148" s="57" t="s">
@@ -14820,7 +14824,7 @@
       <c r="J149" s="18">
         <v>50889</v>
       </c>
-      <c r="K149" s="149">
+      <c r="K149" s="148">
         <v>56052001</v>
       </c>
       <c r="L149" s="57" t="s">
@@ -14863,7 +14867,7 @@
       <c r="J150" s="18">
         <v>50888</v>
       </c>
-      <c r="K150" s="149">
+      <c r="K150" s="148">
         <v>56052001</v>
       </c>
       <c r="L150" s="57" t="s">
@@ -14904,7 +14908,7 @@
       <c r="J151" s="18">
         <v>50869</v>
       </c>
-      <c r="K151" s="149">
+      <c r="K151" s="148">
         <v>8598002</v>
       </c>
       <c r="L151" s="57" t="s">
@@ -14945,7 +14949,7 @@
       <c r="J152" s="18">
         <v>50891</v>
       </c>
-      <c r="K152" s="149">
+      <c r="K152" s="148">
         <v>8598002</v>
       </c>
       <c r="L152" s="57" t="s">
@@ -14988,7 +14992,7 @@
       <c r="J153" s="18">
         <v>50890</v>
       </c>
-      <c r="K153" s="149">
+      <c r="K153" s="148">
         <v>8598002</v>
       </c>
       <c r="L153" s="57" t="s">
@@ -15029,7 +15033,7 @@
       <c r="J154" s="18">
         <v>6720</v>
       </c>
-      <c r="K154" s="149">
+      <c r="K154" s="148">
         <v>15119000</v>
       </c>
       <c r="L154" s="57" t="s">
@@ -15070,7 +15074,7 @@
       <c r="J155" s="18">
         <v>50899</v>
       </c>
-      <c r="K155" s="149">
+      <c r="K155" s="148">
         <v>15119000</v>
       </c>
       <c r="L155" s="57" t="s">
@@ -15113,7 +15117,7 @@
       <c r="J156" s="18">
         <v>50897</v>
       </c>
-      <c r="K156" s="149">
+      <c r="K156" s="148">
         <v>15119000</v>
       </c>
       <c r="L156" s="57" t="s">
@@ -15154,7 +15158,7 @@
       <c r="J157" s="18">
         <v>50871</v>
       </c>
-      <c r="K157" s="149">
+      <c r="K157" s="148">
         <v>37899009</v>
       </c>
       <c r="L157" s="57" t="s">
@@ -15195,7 +15199,7 @@
       <c r="J158" s="18">
         <v>50903</v>
       </c>
-      <c r="K158" s="149">
+      <c r="K158" s="148">
         <v>37899009</v>
       </c>
       <c r="L158" s="57" t="s">
@@ -15238,7 +15242,7 @@
       <c r="J159" s="18">
         <v>50901</v>
       </c>
-      <c r="K159" s="149">
+      <c r="K159" s="148">
         <v>37899009</v>
       </c>
       <c r="L159" s="57" t="s">
@@ -15279,7 +15283,7 @@
       <c r="J160" s="18">
         <v>60201</v>
       </c>
-      <c r="K160" s="149">
+      <c r="K160" s="148">
         <v>80169004</v>
       </c>
       <c r="L160" s="57" t="s">
@@ -15320,7 +15324,7 @@
       <c r="J161" s="18">
         <v>60203</v>
       </c>
-      <c r="K161" s="149">
+      <c r="K161" s="148">
         <v>80169004</v>
       </c>
       <c r="L161" s="57" t="s">
@@ -15361,7 +15365,7 @@
       <c r="J162" s="18">
         <v>60202</v>
       </c>
-      <c r="K162" s="149">
+      <c r="K162" s="148">
         <v>80169004</v>
       </c>
       <c r="L162" s="57" t="s">
@@ -15400,7 +15404,7 @@
       <c r="J163" s="18">
         <v>14543</v>
       </c>
-      <c r="K163" s="149">
+      <c r="K163" s="148">
         <v>71854001</v>
       </c>
       <c r="L163" s="57" t="s">
@@ -15439,7 +15443,7 @@
       <c r="J164" s="18">
         <v>14545</v>
       </c>
-      <c r="K164" s="149">
+      <c r="K164" s="148">
         <v>9040008</v>
       </c>
       <c r="L164" s="57" t="s">
@@ -15478,7 +15482,7 @@
       <c r="J165" s="18">
         <v>14547</v>
       </c>
-      <c r="K165" s="149">
+      <c r="K165" s="148">
         <v>32622004</v>
       </c>
       <c r="L165" s="57" t="s">
@@ -15515,7 +15519,7 @@
       <c r="J166" s="18">
         <v>268861</v>
       </c>
-      <c r="K166" s="149">
+      <c r="K166" s="148">
         <v>81745001</v>
       </c>
       <c r="L166" s="57" t="s">
@@ -15556,7 +15560,7 @@
       <c r="J167" s="18">
         <v>14548</v>
       </c>
-      <c r="K167" s="149">
+      <c r="K167" s="148">
         <v>60184004</v>
       </c>
       <c r="L167" s="57" t="s">
@@ -15595,7 +15599,7 @@
       <c r="J168" s="18">
         <v>14546</v>
       </c>
-      <c r="K168" s="149">
+      <c r="K168" s="148">
         <v>485005</v>
       </c>
       <c r="L168" s="57" t="s">
@@ -15634,7 +15638,7 @@
       <c r="J169" s="18">
         <v>58238</v>
       </c>
-      <c r="K169" s="155">
+      <c r="K169" s="154">
         <v>28726007</v>
       </c>
       <c r="L169" s="80" t="s">
@@ -15675,7 +15679,7 @@
       <c r="J170" s="18">
         <v>58240</v>
       </c>
-      <c r="K170" s="155">
+      <c r="K170" s="154">
         <v>28726007</v>
       </c>
       <c r="L170" s="80" t="s">
@@ -15718,7 +15722,7 @@
       <c r="J171" s="18">
         <v>58239</v>
       </c>
-      <c r="K171" s="155">
+      <c r="K171" s="154">
         <v>28726007</v>
       </c>
       <c r="L171" s="80" t="s">
@@ -15759,7 +15763,7 @@
       <c r="J172" s="26">
         <v>52890</v>
       </c>
-      <c r="K172" s="149">
+      <c r="K172" s="148">
         <v>36743005</v>
       </c>
       <c r="L172" s="57" t="s">
@@ -15798,7 +15802,7 @@
       <c r="J173" s="18">
         <v>9615</v>
       </c>
-      <c r="K173" s="149">
+      <c r="K173" s="148">
         <v>8600008</v>
       </c>
       <c r="L173" s="57" t="s">
@@ -15837,7 +15841,7 @@
       <c r="J174" s="18">
         <v>46661</v>
       </c>
-      <c r="K174" s="149">
+      <c r="K174" s="148">
         <v>28276008</v>
       </c>
       <c r="L174" s="57" t="s">
@@ -15874,7 +15878,7 @@
       <c r="J175" s="26">
         <v>7202</v>
       </c>
-      <c r="K175" s="149">
+      <c r="K175" s="148">
         <v>28231008</v>
       </c>
       <c r="L175" s="57" t="s">
@@ -15911,7 +15915,7 @@
       <c r="J176" s="26">
         <v>45643</v>
       </c>
-      <c r="K176" s="149">
+      <c r="K176" s="148">
         <v>71934003</v>
       </c>
       <c r="L176" s="57" t="s">
@@ -15950,7 +15954,7 @@
       <c r="J177" s="26">
         <v>59101</v>
       </c>
-      <c r="K177" s="149">
+      <c r="K177" s="148">
         <v>13561001</v>
       </c>
       <c r="L177" s="57" t="s">
@@ -15991,7 +15995,7 @@
       <c r="J178" s="18">
         <v>53644</v>
       </c>
-      <c r="K178" s="149">
+      <c r="K178" s="148">
         <v>117590005</v>
       </c>
       <c r="L178" s="57" t="s">
@@ -16032,7 +16036,7 @@
       <c r="J179" s="18">
         <v>53643</v>
       </c>
-      <c r="K179" s="149">
+      <c r="K179" s="148">
         <v>117590005</v>
       </c>
       <c r="L179" s="57" t="s">
@@ -16075,7 +16079,7 @@
       <c r="J180" s="18">
         <v>52781</v>
       </c>
-      <c r="K180" s="149">
+      <c r="K180" s="148">
         <v>117590005</v>
       </c>
       <c r="L180" s="57" t="s">
@@ -16118,7 +16122,7 @@
       <c r="J181" s="18">
         <v>61021</v>
       </c>
-      <c r="K181" s="149">
+      <c r="K181" s="148">
         <v>117590005</v>
       </c>
       <c r="L181" s="57" t="s">
@@ -16161,7 +16165,7 @@
       <c r="J182" s="18">
         <v>61020</v>
       </c>
-      <c r="K182" s="149">
+      <c r="K182" s="148">
         <v>117590005</v>
       </c>
       <c r="L182" s="57" t="s">
@@ -16204,7 +16208,7 @@
       <c r="J183" s="18">
         <v>60909</v>
       </c>
-      <c r="K183" s="149">
+      <c r="K183" s="148">
         <v>117590005</v>
       </c>
       <c r="L183" s="57" t="s">
@@ -16247,7 +16251,7 @@
       <c r="J184" s="18">
         <v>56513</v>
       </c>
-      <c r="K184" s="149">
+      <c r="K184" s="148">
         <v>117590005</v>
       </c>
       <c r="L184" s="57" t="s">
@@ -16290,7 +16294,7 @@
       <c r="J185" s="18">
         <v>56515</v>
       </c>
-      <c r="K185" s="149">
+      <c r="K185" s="148">
         <v>117590005</v>
       </c>
       <c r="L185" s="57" t="s">
@@ -16333,7 +16337,7 @@
       <c r="J186" s="18">
         <v>56514</v>
       </c>
-      <c r="K186" s="149">
+      <c r="K186" s="148">
         <v>117590005</v>
       </c>
       <c r="L186" s="57" t="s">
@@ -16372,7 +16376,7 @@
       <c r="J187" s="26">
         <v>13890</v>
       </c>
-      <c r="K187" s="149">
+      <c r="K187" s="148">
         <v>111002</v>
       </c>
       <c r="L187" s="57" t="s">
@@ -16409,7 +16413,7 @@
       <c r="J188" s="26">
         <v>24901</v>
       </c>
-      <c r="K188" s="149">
+      <c r="K188" s="148">
         <v>127949000</v>
       </c>
       <c r="L188" s="57" t="s">
@@ -16448,7 +16452,7 @@
       <c r="J189" s="26">
         <v>24903</v>
       </c>
-      <c r="K189" s="149">
+      <c r="K189" s="148">
         <v>127949000</v>
       </c>
       <c r="L189" s="57" t="s">
@@ -16489,7 +16493,7 @@
       <c r="J190" s="26">
         <v>24902</v>
       </c>
-      <c r="K190" s="149">
+      <c r="K190" s="148">
         <v>127949000</v>
       </c>
       <c r="L190" s="57" t="s">
@@ -16528,7 +16532,7 @@
       <c r="J191" s="18">
         <v>7131</v>
       </c>
-      <c r="K191" s="149">
+      <c r="K191" s="148">
         <v>32849002</v>
       </c>
       <c r="L191" s="57" t="s">
@@ -16567,7 +16571,7 @@
       <c r="J192" s="18">
         <v>9397</v>
       </c>
-      <c r="K192" s="149">
+      <c r="K192" s="148">
         <v>32849002</v>
       </c>
       <c r="L192" s="57" t="s">
@@ -16608,7 +16612,7 @@
       <c r="J193" s="18">
         <v>9396</v>
       </c>
-      <c r="K193" s="149">
+      <c r="K193" s="148">
         <v>32849002</v>
       </c>
       <c r="L193" s="57" t="s">
@@ -16647,7 +16651,7 @@
         <v>1445</v>
       </c>
       <c r="J194" s="18"/>
-      <c r="K194" s="149">
+      <c r="K194" s="148">
         <v>32849002</v>
       </c>
       <c r="L194" s="57" t="s">
@@ -16688,7 +16692,7 @@
       <c r="J195" s="26">
         <v>320440</v>
       </c>
-      <c r="K195" s="149">
+      <c r="K195" s="148">
         <v>88481005</v>
       </c>
       <c r="L195" s="57" t="s">
@@ -16727,7 +16731,7 @@
       <c r="J196" s="26">
         <v>320442</v>
       </c>
-      <c r="K196" s="149">
+      <c r="K196" s="148">
         <v>385296007</v>
       </c>
       <c r="L196" s="57" t="s">
@@ -16768,7 +16772,7 @@
       <c r="J197" s="18">
         <v>12515</v>
       </c>
-      <c r="K197" s="149">
+      <c r="K197" s="148">
         <v>81745001</v>
       </c>
       <c r="L197" s="57" t="s">
@@ -16811,7 +16815,7 @@
       <c r="J198" s="18">
         <v>12514</v>
       </c>
-      <c r="K198" s="149">
+      <c r="K198" s="148">
         <v>81745001</v>
       </c>
       <c r="L198" s="57" t="s">
@@ -16852,7 +16856,7 @@
       <c r="J199" s="26">
         <v>9607</v>
       </c>
-      <c r="K199" s="149">
+      <c r="K199" s="148">
         <v>9875009</v>
       </c>
       <c r="L199" s="57" t="s">
@@ -16891,7 +16895,7 @@
       <c r="J200" s="26">
         <v>9603</v>
       </c>
-      <c r="K200" s="149">
+      <c r="K200" s="148">
         <v>69748006</v>
       </c>
       <c r="L200" s="57" t="s">
@@ -16926,23 +16930,23 @@
       <c r="H201" s="16" t="s">
         <v>824</v>
       </c>
-      <c r="I201" s="127" t="s">
+      <c r="I201" s="126" t="s">
         <v>458</v>
       </c>
       <c r="J201" s="18">
         <v>32843</v>
       </c>
-      <c r="K201" s="156">
+      <c r="K201" s="155">
         <v>2812003</v>
       </c>
       <c r="L201" s="105" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="M201" s="10" t="s">
         <v>2037</v>
       </c>
       <c r="N201" s="102" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="202" spans="1:14" s="1" customFormat="1" ht="34">
@@ -16971,23 +16975,23 @@
       <c r="H202" s="16" t="s">
         <v>826</v>
       </c>
-      <c r="I202" s="127" t="s">
+      <c r="I202" s="126" t="s">
         <v>459</v>
       </c>
       <c r="J202" s="18">
         <v>32842</v>
       </c>
-      <c r="K202" s="156">
+      <c r="K202" s="155">
         <v>2812003</v>
       </c>
       <c r="L202" s="105" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="M202" s="10" t="s">
         <v>2038</v>
       </c>
       <c r="N202" s="102" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="203" spans="1:14" s="1" customFormat="1" ht="34">
@@ -17022,7 +17026,7 @@
       <c r="J203" s="18">
         <v>35180</v>
       </c>
-      <c r="K203" s="149">
+      <c r="K203" s="148">
         <v>24136001</v>
       </c>
       <c r="L203" s="57" t="s">
@@ -17065,7 +17069,7 @@
       <c r="J204" s="18">
         <v>35179</v>
       </c>
-      <c r="K204" s="149">
+      <c r="K204" s="148">
         <v>24136001</v>
       </c>
       <c r="L204" s="57" t="s">
@@ -17106,7 +17110,7 @@
       <c r="J205" s="18">
         <v>24475</v>
       </c>
-      <c r="K205" s="149">
+      <c r="K205" s="148">
         <v>71341001</v>
       </c>
       <c r="L205" s="57" t="s">
@@ -17147,7 +17151,7 @@
       <c r="J206" s="18">
         <v>24475</v>
       </c>
-      <c r="K206" s="149">
+      <c r="K206" s="148">
         <v>71341001</v>
       </c>
       <c r="L206" s="57" t="s">
@@ -17188,7 +17192,7 @@
       <c r="J207" s="18">
         <v>42386</v>
       </c>
-      <c r="K207" s="149">
+      <c r="K207" s="148">
         <v>29627003</v>
       </c>
       <c r="L207" s="57" t="s">
@@ -17229,7 +17233,7 @@
       <c r="J208" s="18">
         <v>42386</v>
       </c>
-      <c r="K208" s="157">
+      <c r="K208" s="156">
         <v>29627003</v>
       </c>
       <c r="L208" s="121" t="s">
@@ -17238,8 +17242,8 @@
       <c r="M208" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N208" s="128" t="s">
-        <v>2524</v>
+      <c r="N208" s="127" t="s">
+        <v>2521</v>
       </c>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1" ht="17">
@@ -17274,7 +17278,7 @@
       <c r="J209" s="18">
         <v>42387</v>
       </c>
-      <c r="K209" s="149">
+      <c r="K209" s="148">
         <v>29627003</v>
       </c>
       <c r="L209" s="57" t="s">
@@ -17317,7 +17321,7 @@
       <c r="J210" s="18">
         <v>24474</v>
       </c>
-      <c r="K210" s="149">
+      <c r="K210" s="148">
         <v>71341001</v>
       </c>
       <c r="L210" s="57" t="s">
@@ -17360,7 +17364,7 @@
       <c r="J211" s="18">
         <v>32849</v>
       </c>
-      <c r="K211" s="149">
+      <c r="K211" s="148">
         <v>41111004</v>
       </c>
       <c r="L211" s="57" t="s">
@@ -17403,7 +17407,7 @@
       <c r="J212" s="18">
         <v>32848</v>
       </c>
-      <c r="K212" s="149">
+      <c r="K212" s="148">
         <v>41111004</v>
       </c>
       <c r="L212" s="57" t="s">
@@ -17444,7 +17448,7 @@
       <c r="J213" s="18">
         <v>9611</v>
       </c>
-      <c r="K213" s="149">
+      <c r="K213" s="148">
         <v>71341001</v>
       </c>
       <c r="L213" s="57" t="s">
@@ -17485,7 +17489,7 @@
       <c r="J214" s="18">
         <v>24479</v>
       </c>
-      <c r="K214" s="149">
+      <c r="K214" s="148">
         <v>87342007</v>
       </c>
       <c r="L214" s="57" t="s">
@@ -17526,7 +17530,7 @@
       <c r="J215" s="18">
         <v>24481</v>
       </c>
-      <c r="K215" s="149">
+      <c r="K215" s="148">
         <v>87342007</v>
       </c>
       <c r="L215" s="57" t="s">
@@ -17569,7 +17573,7 @@
       <c r="J216" s="18">
         <v>24480</v>
       </c>
-      <c r="K216" s="149">
+      <c r="K216" s="148">
         <v>87342007</v>
       </c>
       <c r="L216" s="57" t="s">
@@ -17608,7 +17612,7 @@
       <c r="J217" s="26">
         <v>55414</v>
       </c>
-      <c r="K217" s="149">
+      <c r="K217" s="148">
         <v>1307006</v>
       </c>
       <c r="L217" s="57" t="s">
@@ -17643,7 +17647,7 @@
         <v>1992</v>
       </c>
       <c r="J218" s="26"/>
-      <c r="K218" s="151">
+      <c r="K218" s="150">
         <v>3711007</v>
       </c>
       <c r="L218" s="75" t="s">
@@ -17678,7 +17682,7 @@
         <v>1450</v>
       </c>
       <c r="J219" s="26"/>
-      <c r="K219" s="151">
+      <c r="K219" s="150">
         <v>3711007</v>
       </c>
       <c r="L219" s="75" t="s">
@@ -17719,7 +17723,7 @@
       <c r="J220" s="26">
         <v>55023</v>
       </c>
-      <c r="K220" s="151">
+      <c r="K220" s="150">
         <v>90228003</v>
       </c>
       <c r="L220" s="57" t="s">
@@ -17756,15 +17760,15 @@
         <v>2011</v>
       </c>
       <c r="J221" s="26"/>
-      <c r="K221" s="149">
+      <c r="K221" s="148">
         <v>23451007</v>
       </c>
-      <c r="L221" s="141" t="s">
-        <v>2537</v>
+      <c r="L221" s="140" t="s">
+        <v>2534</v>
       </c>
       <c r="M221" s="10"/>
-      <c r="N221" s="128" t="s">
-        <v>2523</v>
+      <c r="N221" s="127" t="s">
+        <v>2520</v>
       </c>
     </row>
     <row r="222" spans="1:14" s="1" customFormat="1" ht="34">
@@ -17799,11 +17803,11 @@
       <c r="J222" s="26">
         <v>15629</v>
       </c>
-      <c r="K222" s="149">
+      <c r="K222" s="148">
         <v>23451007</v>
       </c>
-      <c r="L222" s="141" t="s">
-        <v>2537</v>
+      <c r="L222" s="140" t="s">
+        <v>2534</v>
       </c>
       <c r="M222" s="10" t="s">
         <v>2037</v>
@@ -17842,11 +17846,11 @@
       <c r="J223" s="26">
         <v>15630</v>
       </c>
-      <c r="K223" s="149">
+      <c r="K223" s="148">
         <v>23451007</v>
       </c>
-      <c r="L223" s="141" t="s">
-        <v>2537</v>
+      <c r="L223" s="140" t="s">
+        <v>2534</v>
       </c>
       <c r="M223" s="10" t="s">
         <v>2038</v>
@@ -17881,7 +17885,7 @@
       <c r="J224" s="26">
         <v>7088</v>
       </c>
-      <c r="K224" s="149">
+      <c r="K224" s="148">
         <v>80891009</v>
       </c>
       <c r="L224" s="57" t="s">
@@ -17922,7 +17926,7 @@
       <c r="J225" s="26">
         <v>59103</v>
       </c>
-      <c r="K225" s="149">
+      <c r="K225" s="148">
         <v>13561001</v>
       </c>
       <c r="L225" s="57" t="s">
@@ -17965,7 +17969,7 @@
       <c r="J226" s="26">
         <v>59102</v>
       </c>
-      <c r="K226" s="149">
+      <c r="K226" s="148">
         <v>13561001</v>
       </c>
       <c r="L226" s="57" t="s">
@@ -17996,27 +18000,27 @@
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="G227" s="126" t="s">
+      <c r="G227" s="125" t="s">
         <v>1831</v>
       </c>
       <c r="H227" s="24" t="s">
         <v>1831</v>
       </c>
-      <c r="I227" s="127" t="s">
+      <c r="I227" s="126" t="s">
         <v>1836</v>
       </c>
       <c r="J227" s="26"/>
-      <c r="K227" s="157">
+      <c r="K227" s="156">
         <v>372073000</v>
       </c>
       <c r="L227" s="121" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="M227" s="10" t="s">
         <v>2121</v>
       </c>
-      <c r="N227" s="128" t="s">
-        <v>2525</v>
+      <c r="N227" s="127" t="s">
+        <v>2522</v>
       </c>
     </row>
     <row r="228" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -18051,7 +18055,7 @@
       <c r="J228" s="26">
         <v>59805</v>
       </c>
-      <c r="K228" s="149">
+      <c r="K228" s="148">
         <v>88481005</v>
       </c>
       <c r="L228" s="57" t="s">
@@ -18094,7 +18098,7 @@
       <c r="J229" s="26">
         <v>59804</v>
       </c>
-      <c r="K229" s="149">
+      <c r="K229" s="148">
         <v>88481005</v>
       </c>
       <c r="L229" s="57" t="s">
@@ -18135,7 +18139,7 @@
       <c r="J230" s="26">
         <v>275020</v>
       </c>
-      <c r="K230" s="149">
+      <c r="K230" s="148">
         <v>5366008</v>
       </c>
       <c r="L230" s="57" t="s">
@@ -18176,7 +18180,7 @@
       <c r="J231" s="26">
         <v>59803</v>
       </c>
-      <c r="K231" s="149">
+      <c r="K231" s="148">
         <v>385296007</v>
       </c>
       <c r="L231" s="57" t="s">
@@ -18219,7 +18223,7 @@
       <c r="J232" s="26">
         <v>59802</v>
       </c>
-      <c r="K232" s="149">
+      <c r="K232" s="148">
         <v>385296007</v>
       </c>
       <c r="L232" s="57" t="s">
@@ -18260,7 +18264,7 @@
       <c r="J233" s="26">
         <v>62008</v>
       </c>
-      <c r="K233" s="149">
+      <c r="K233" s="148">
         <v>67923007</v>
       </c>
       <c r="L233" s="57" t="s">
@@ -18297,7 +18301,7 @@
       <c r="J234" s="26">
         <v>7208</v>
       </c>
-      <c r="K234" s="149">
+      <c r="K234" s="148">
         <v>34516001</v>
       </c>
       <c r="L234" s="57" t="s">
@@ -18336,7 +18340,7 @@
       <c r="J235" s="18">
         <v>7207</v>
       </c>
-      <c r="K235" s="149">
+      <c r="K235" s="148">
         <v>21306003</v>
       </c>
       <c r="L235" s="57" t="s">
@@ -18371,7 +18375,7 @@
         <v>1456</v>
       </c>
       <c r="J236" s="18"/>
-      <c r="K236" s="149">
+      <c r="K236" s="148">
         <v>90228003</v>
       </c>
       <c r="L236" s="57" t="s">
@@ -18408,7 +18412,7 @@
       <c r="J237" s="26">
         <v>35289</v>
       </c>
-      <c r="K237" s="149">
+      <c r="K237" s="148">
         <v>16953009</v>
       </c>
       <c r="L237" s="57" t="s">
@@ -18447,7 +18451,7 @@
       <c r="J238" s="18">
         <v>25912</v>
       </c>
-      <c r="K238" s="149">
+      <c r="K238" s="148">
         <v>85537004</v>
       </c>
       <c r="L238" s="57" t="s">
@@ -18482,7 +18486,7 @@
       </c>
       <c r="I239" s="25"/>
       <c r="J239" s="26"/>
-      <c r="K239" s="149">
+      <c r="K239" s="148">
         <v>711190000</v>
       </c>
       <c r="L239" s="57" t="s">
@@ -18519,7 +18523,7 @@
       </c>
       <c r="I240" s="25"/>
       <c r="J240" s="26"/>
-      <c r="K240" s="149">
+      <c r="K240" s="148">
         <v>711190000</v>
       </c>
       <c r="L240" s="57" t="s">
@@ -18556,7 +18560,7 @@
       </c>
       <c r="I241" s="116"/>
       <c r="J241" s="117"/>
-      <c r="K241" s="158">
+      <c r="K241" s="157">
         <v>39352004</v>
       </c>
       <c r="L241" s="118" t="s">
@@ -18597,7 +18601,7 @@
       <c r="J242" s="26">
         <v>54832</v>
       </c>
-      <c r="K242" s="149">
+      <c r="K242" s="148">
         <v>53620006</v>
       </c>
       <c r="L242" s="57" t="s">
@@ -18636,7 +18640,7 @@
       <c r="J243" s="26">
         <v>61819</v>
       </c>
-      <c r="K243" s="149">
+      <c r="K243" s="148">
         <v>6566002</v>
       </c>
       <c r="L243" s="57" t="s">
@@ -18645,8 +18649,8 @@
       <c r="M243" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N243" s="128" t="s">
-        <v>2525</v>
+      <c r="N243" s="127" t="s">
+        <v>2522</v>
       </c>
     </row>
     <row r="244" spans="1:14" s="1" customFormat="1" ht="34">
@@ -18679,7 +18683,7 @@
       <c r="J244" s="26">
         <v>67292</v>
       </c>
-      <c r="K244" s="149">
+      <c r="K244" s="148">
         <v>6566002</v>
       </c>
       <c r="L244" s="57" t="s">
@@ -18688,8 +18692,8 @@
       <c r="M244" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N244" s="128" t="s">
-        <v>2525</v>
+      <c r="N244" s="127" t="s">
+        <v>2522</v>
       </c>
     </row>
     <row r="245" spans="1:14" s="1" customFormat="1" ht="34">
@@ -18722,7 +18726,7 @@
       <c r="J245" s="18">
         <v>15581</v>
       </c>
-      <c r="K245" s="149">
+      <c r="K245" s="148">
         <v>50403003</v>
       </c>
       <c r="L245" s="57" t="s">
@@ -18763,7 +18767,7 @@
       <c r="J246" s="18">
         <v>15610</v>
       </c>
-      <c r="K246" s="149">
+      <c r="K246" s="148">
         <v>74033008</v>
       </c>
       <c r="L246" s="57" t="s">
@@ -18806,7 +18810,7 @@
       <c r="J247" s="26">
         <v>275024</v>
       </c>
-      <c r="K247" s="149">
+      <c r="K247" s="148">
         <v>5366008</v>
       </c>
       <c r="L247" s="57" t="s">
@@ -18849,7 +18853,7 @@
       <c r="J248" s="26">
         <v>275022</v>
       </c>
-      <c r="K248" s="149">
+      <c r="K248" s="148">
         <v>5366008</v>
       </c>
       <c r="L248" s="57" t="s">
@@ -18892,7 +18896,7 @@
       <c r="J249" s="26">
         <v>23131</v>
       </c>
-      <c r="K249" s="149">
+      <c r="K249" s="148">
         <v>85050009</v>
       </c>
       <c r="L249" s="57" t="s">
@@ -18935,7 +18939,7 @@
       <c r="J250" s="26">
         <v>23130</v>
       </c>
-      <c r="K250" s="149">
+      <c r="K250" s="148">
         <v>85050009</v>
       </c>
       <c r="L250" s="57" t="s">
@@ -18976,7 +18980,7 @@
       <c r="J251" s="18">
         <v>264815</v>
       </c>
-      <c r="K251" s="149">
+      <c r="K251" s="148">
         <v>64033007</v>
       </c>
       <c r="L251" s="57" t="s">
@@ -19015,7 +19019,7 @@
       <c r="J252" s="18">
         <v>24974</v>
       </c>
-      <c r="K252" s="149">
+      <c r="K252" s="148">
         <v>72696002</v>
       </c>
       <c r="L252" s="57" t="s">
@@ -19054,15 +19058,15 @@
       <c r="J253" s="18">
         <v>54880</v>
       </c>
-      <c r="K253" s="149">
+      <c r="K253" s="148">
         <v>81502006</v>
       </c>
-      <c r="L253" s="140" t="s">
-        <v>2551</v>
+      <c r="L253" s="139" t="s">
+        <v>2548</v>
       </c>
       <c r="M253" s="103"/>
-      <c r="N253" s="128" t="s">
-        <v>2552</v>
+      <c r="N253" s="127" t="s">
+        <v>2549</v>
       </c>
     </row>
     <row r="254" spans="1:14" s="1" customFormat="1" ht="17">
@@ -19093,7 +19097,7 @@
       <c r="J254" s="18">
         <v>55097</v>
       </c>
-      <c r="K254" s="149">
+      <c r="K254" s="148">
         <v>4596009</v>
       </c>
       <c r="L254" s="57" t="s">
@@ -19130,7 +19134,7 @@
       <c r="J255" s="18">
         <v>55476</v>
       </c>
-      <c r="K255" s="149">
+      <c r="K255" s="148">
         <v>86483002</v>
       </c>
       <c r="L255" s="57" t="s">
@@ -19169,7 +19173,7 @@
       <c r="J256" s="26">
         <v>35295</v>
       </c>
-      <c r="K256" s="149">
+      <c r="K256" s="148">
         <v>16953009</v>
       </c>
       <c r="L256" s="57" t="s">
@@ -19210,7 +19214,7 @@
       <c r="J257" s="26">
         <v>35294</v>
       </c>
-      <c r="K257" s="149">
+      <c r="K257" s="148">
         <v>16953009</v>
       </c>
       <c r="L257" s="57" t="s">
@@ -19251,7 +19255,7 @@
       <c r="J258" s="18">
         <v>58241</v>
       </c>
-      <c r="K258" s="149">
+      <c r="K258" s="148">
         <v>78076003</v>
       </c>
       <c r="L258" s="57" t="s">
@@ -19292,7 +19296,7 @@
       <c r="J259" s="18">
         <v>25929</v>
       </c>
-      <c r="K259" s="149">
+      <c r="K259" s="148">
         <v>85537004</v>
       </c>
       <c r="L259" s="57" t="s">
@@ -19335,7 +19339,7 @@
       <c r="J260" s="26">
         <v>25927</v>
       </c>
-      <c r="K260" s="149">
+      <c r="K260" s="148">
         <v>85537004</v>
       </c>
       <c r="L260" s="57" t="s">
@@ -19376,7 +19380,7 @@
       <c r="J261" s="18">
         <v>16520</v>
       </c>
-      <c r="K261" s="149">
+      <c r="K261" s="148">
         <v>6544009</v>
       </c>
       <c r="L261" s="57" t="s">
@@ -19413,7 +19417,7 @@
       <c r="J262" s="18">
         <v>59815</v>
       </c>
-      <c r="K262" s="149">
+      <c r="K262" s="148">
         <v>81083006</v>
       </c>
       <c r="L262" s="75" t="s">
@@ -19454,7 +19458,7 @@
       <c r="J263" s="26">
         <v>54834</v>
       </c>
-      <c r="K263" s="149">
+      <c r="K263" s="148">
         <v>53620006</v>
       </c>
       <c r="L263" s="57" t="s">
@@ -19497,7 +19501,7 @@
       <c r="J264" s="26">
         <v>54833</v>
       </c>
-      <c r="K264" s="149">
+      <c r="K264" s="148">
         <v>53620006</v>
       </c>
       <c r="L264" s="57" t="s">
@@ -19536,7 +19540,7 @@
       <c r="J265" s="18">
         <v>7197</v>
       </c>
-      <c r="K265" s="149">
+      <c r="K265" s="148">
         <v>10200004</v>
       </c>
       <c r="L265" s="57" t="s">
@@ -19577,7 +19581,7 @@
       <c r="J266" s="18">
         <v>15584</v>
       </c>
-      <c r="K266" s="149">
+      <c r="K266" s="148">
         <v>50403003</v>
       </c>
       <c r="L266" s="57" t="s">
@@ -19620,7 +19624,7 @@
       <c r="J267" s="18">
         <v>15583</v>
       </c>
-      <c r="K267" s="149">
+      <c r="K267" s="148">
         <v>50403003</v>
       </c>
       <c r="L267" s="57" t="s">
@@ -19663,7 +19667,7 @@
       <c r="J268" s="18">
         <v>15942</v>
       </c>
-      <c r="K268" s="149">
+      <c r="K268" s="148">
         <v>74033008</v>
       </c>
       <c r="L268" s="57" t="s">
@@ -19706,7 +19710,7 @@
       <c r="J269" s="18">
         <v>15941</v>
       </c>
-      <c r="K269" s="149">
+      <c r="K269" s="148">
         <v>74033008</v>
       </c>
       <c r="L269" s="57" t="s">
@@ -19747,7 +19751,7 @@
       <c r="J270" s="18">
         <v>61824</v>
       </c>
-      <c r="K270" s="149">
+      <c r="K270" s="148">
         <v>83251001</v>
       </c>
       <c r="L270" s="57" t="s">
@@ -19788,7 +19792,7 @@
       <c r="J271" s="18">
         <v>7205</v>
       </c>
-      <c r="K271" s="149">
+      <c r="K271" s="148">
         <v>64033007</v>
       </c>
       <c r="L271" s="57" t="s">
@@ -19831,7 +19835,7 @@
       <c r="J272" s="18">
         <v>15579</v>
       </c>
-      <c r="K272" s="149">
+      <c r="K272" s="148">
         <v>25990002</v>
       </c>
       <c r="L272" s="57" t="s">
@@ -19874,7 +19878,7 @@
       <c r="J273" s="18">
         <v>15578</v>
       </c>
-      <c r="K273" s="149">
+      <c r="K273" s="148">
         <v>25990002</v>
       </c>
       <c r="L273" s="57" t="s">
@@ -19917,7 +19921,7 @@
       <c r="J274" s="18">
         <v>7204</v>
       </c>
-      <c r="K274" s="149">
+      <c r="K274" s="148">
         <v>64033007</v>
       </c>
       <c r="L274" s="57" t="s">
@@ -19958,7 +19962,7 @@
       <c r="J275" s="18">
         <v>67325</v>
       </c>
-      <c r="K275" s="149">
+      <c r="K275" s="148">
         <v>31065004</v>
       </c>
       <c r="L275" s="57" t="s">
@@ -19997,7 +20001,7 @@
       <c r="J276" s="18">
         <v>61826</v>
       </c>
-      <c r="K276" s="149">
+      <c r="K276" s="148">
         <v>16630005</v>
       </c>
       <c r="L276" s="57" t="s">
@@ -20036,7 +20040,7 @@
       <c r="J277" s="18">
         <v>24978</v>
       </c>
-      <c r="K277" s="149">
+      <c r="K277" s="148">
         <v>72696002</v>
       </c>
       <c r="L277" s="57" t="s">
@@ -20077,7 +20081,7 @@
       <c r="J278" s="18">
         <v>24977</v>
       </c>
-      <c r="K278" s="149">
+      <c r="K278" s="148">
         <v>72696002</v>
       </c>
       <c r="L278" s="57" t="s">
@@ -20118,7 +20122,7 @@
       <c r="J279" s="18">
         <v>61825</v>
       </c>
-      <c r="K279" s="149">
+      <c r="K279" s="148">
         <v>78277001</v>
       </c>
       <c r="L279" s="57" t="s">
@@ -20155,7 +20159,7 @@
       <c r="J280" s="18">
         <v>9826</v>
       </c>
-      <c r="K280" s="149">
+      <c r="K280" s="148">
         <v>72410000</v>
       </c>
       <c r="L280" s="57" t="s">
@@ -20192,7 +20196,7 @@
       <c r="J281" s="18">
         <v>30316</v>
       </c>
-      <c r="K281" s="149">
+      <c r="K281" s="148">
         <v>71616004</v>
       </c>
       <c r="L281" s="57" t="s">
@@ -20231,7 +20235,7 @@
       <c r="J282" s="18">
         <v>46620</v>
       </c>
-      <c r="K282" s="149">
+      <c r="K282" s="148">
         <v>4866005</v>
       </c>
       <c r="L282" s="57" t="s">
@@ -20272,7 +20276,7 @@
       <c r="J283" s="18">
         <v>58243</v>
       </c>
-      <c r="K283" s="149">
+      <c r="K283" s="148">
         <v>78076003</v>
       </c>
       <c r="L283" s="57" t="s">
@@ -20315,7 +20319,7 @@
       <c r="J284" s="18">
         <v>58242</v>
       </c>
-      <c r="K284" s="149">
+      <c r="K284" s="148">
         <v>78076003</v>
       </c>
       <c r="L284" s="57" t="s">
@@ -20356,7 +20360,7 @@
       <c r="J285" s="18">
         <v>48996</v>
       </c>
-      <c r="K285" s="149">
+      <c r="K285" s="148">
         <v>79368004</v>
       </c>
       <c r="L285" s="57" t="s">
@@ -20395,7 +20399,7 @@
       <c r="J286" s="18">
         <v>49007</v>
       </c>
-      <c r="K286" s="149">
+      <c r="K286" s="148">
         <v>52927003</v>
       </c>
       <c r="L286" s="57" t="s">
@@ -20436,7 +20440,7 @@
       <c r="J287" s="26">
         <v>54878</v>
       </c>
-      <c r="K287" s="149">
+      <c r="K287" s="148">
         <v>71836000</v>
       </c>
       <c r="L287" s="57" t="s">
@@ -20473,7 +20477,7 @@
       <c r="J288" s="18">
         <v>5034</v>
       </c>
-      <c r="K288" s="150">
+      <c r="K288" s="149">
         <v>59441001</v>
       </c>
       <c r="L288" s="80" t="s">
@@ -20512,7 +20516,7 @@
       <c r="J289" s="18">
         <v>23394</v>
       </c>
-      <c r="K289" s="149">
+      <c r="K289" s="148">
         <v>16051009</v>
       </c>
       <c r="L289" s="76" t="s">
@@ -20553,7 +20557,7 @@
       <c r="J290" s="18">
         <v>73265</v>
       </c>
-      <c r="K290" s="149">
+      <c r="K290" s="148">
         <v>16051009</v>
       </c>
       <c r="L290" s="76" t="s">
@@ -20596,7 +20600,7 @@
       <c r="J291" s="18">
         <v>73264</v>
       </c>
-      <c r="K291" s="149">
+      <c r="K291" s="148">
         <v>16051009</v>
       </c>
       <c r="L291" s="76" t="s">
@@ -20639,7 +20643,7 @@
       <c r="J292" s="18">
         <v>73263</v>
       </c>
-      <c r="K292" s="149">
+      <c r="K292" s="148">
         <v>16051009</v>
       </c>
       <c r="L292" s="76" t="s">
@@ -20682,7 +20686,7 @@
       <c r="J293" s="18">
         <v>73262</v>
       </c>
-      <c r="K293" s="149">
+      <c r="K293" s="148">
         <v>16051009</v>
       </c>
       <c r="L293" s="76" t="s">
@@ -20723,7 +20727,7 @@
       <c r="J294" s="18">
         <v>233482</v>
       </c>
-      <c r="K294" s="149">
+      <c r="K294" s="148">
         <v>283001</v>
       </c>
       <c r="L294" s="76" t="s">
@@ -20762,7 +20766,7 @@
       <c r="J295" s="18">
         <v>73250</v>
       </c>
-      <c r="K295" s="150">
+      <c r="K295" s="149">
         <v>68171009</v>
       </c>
       <c r="L295" s="80" t="s">
@@ -20805,7 +20809,7 @@
       <c r="J296" s="18">
         <v>276001</v>
       </c>
-      <c r="K296" s="150">
+      <c r="K296" s="149">
         <v>68171009</v>
       </c>
       <c r="L296" s="57" t="s">
@@ -20848,7 +20852,7 @@
       <c r="J297" s="18">
         <v>275999</v>
       </c>
-      <c r="K297" s="149">
+      <c r="K297" s="148">
         <v>68171009</v>
       </c>
       <c r="L297" s="57" t="s">
@@ -20891,7 +20895,7 @@
       <c r="J298" s="18">
         <v>276005</v>
       </c>
-      <c r="K298" s="149">
+      <c r="K298" s="148">
         <v>68171009</v>
       </c>
       <c r="L298" s="57" t="s">
@@ -20934,7 +20938,7 @@
       <c r="J299" s="18">
         <v>276003</v>
       </c>
-      <c r="K299" s="149">
+      <c r="K299" s="148">
         <v>68171009</v>
       </c>
       <c r="L299" s="57" t="s">
@@ -20977,7 +20981,7 @@
       <c r="J300" s="18">
         <v>276009</v>
       </c>
-      <c r="K300" s="149">
+      <c r="K300" s="148">
         <v>68171009</v>
       </c>
       <c r="L300" s="57" t="s">
@@ -21020,7 +21024,7 @@
       <c r="J301" s="18">
         <v>276007</v>
       </c>
-      <c r="K301" s="149">
+      <c r="K301" s="148">
         <v>68171009</v>
       </c>
       <c r="L301" s="57" t="s">
@@ -21063,7 +21067,7 @@
       <c r="J302" s="18">
         <v>73256</v>
       </c>
-      <c r="K302" s="149">
+      <c r="K302" s="148">
         <v>33770006</v>
       </c>
       <c r="L302" s="76" t="s">
@@ -21106,7 +21110,7 @@
       <c r="J303" s="18">
         <v>73255</v>
       </c>
-      <c r="K303" s="149">
+      <c r="K303" s="148">
         <v>33770006</v>
       </c>
       <c r="L303" s="76" t="s">
@@ -21142,12 +21146,12 @@
         <v>940</v>
       </c>
       <c r="I304" s="25" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="J304" s="18">
         <v>233458</v>
       </c>
-      <c r="K304" s="149">
+      <c r="K304" s="148">
         <v>33770006</v>
       </c>
       <c r="L304" s="76" t="s">
@@ -21188,7 +21192,7 @@
       <c r="J305" s="18">
         <v>73253</v>
       </c>
-      <c r="K305" s="149">
+      <c r="K305" s="148">
         <v>69691007</v>
       </c>
       <c r="L305" s="57" t="s">
@@ -21231,7 +21235,7 @@
       <c r="J306" s="18">
         <v>73252</v>
       </c>
-      <c r="K306" s="149">
+      <c r="K306" s="148">
         <v>69691007</v>
       </c>
       <c r="L306" s="57" t="s">
@@ -21272,7 +21276,7 @@
       <c r="J307" s="18">
         <v>233446</v>
       </c>
-      <c r="K307" s="150">
+      <c r="K307" s="149">
         <v>69691007</v>
       </c>
       <c r="L307" s="80" t="s">
@@ -21313,7 +21317,7 @@
       <c r="J308" s="18">
         <v>73249</v>
       </c>
-      <c r="K308" s="150">
+      <c r="K308" s="149">
         <v>68171009</v>
       </c>
       <c r="L308" s="80" t="s">
@@ -21356,7 +21360,7 @@
       <c r="J309" s="18">
         <v>73259</v>
       </c>
-      <c r="K309" s="149">
+      <c r="K309" s="148">
         <v>12196003</v>
       </c>
       <c r="L309" s="57" t="s">
@@ -21399,7 +21403,7 @@
       <c r="J310" s="18">
         <v>73258</v>
       </c>
-      <c r="K310" s="149">
+      <c r="K310" s="148">
         <v>12196003</v>
       </c>
       <c r="L310" s="57" t="s">
@@ -21440,7 +21444,7 @@
       <c r="J311" s="18">
         <v>233470</v>
       </c>
-      <c r="K311" s="150">
+      <c r="K311" s="149">
         <v>12196003</v>
       </c>
       <c r="L311" s="80" t="s">
@@ -21479,7 +21483,7 @@
       <c r="J312" s="18">
         <v>5946</v>
       </c>
-      <c r="K312" s="149">
+      <c r="K312" s="148">
         <v>196821008</v>
       </c>
       <c r="L312" s="57" t="s">
@@ -21520,7 +21524,7 @@
       <c r="J313" s="18">
         <v>5945</v>
       </c>
-      <c r="K313" s="149">
+      <c r="K313" s="148">
         <v>196821008</v>
       </c>
       <c r="L313" s="57" t="s">
@@ -21559,7 +21563,7 @@
       <c r="J314" s="18">
         <v>5944</v>
       </c>
-      <c r="K314" s="150">
+      <c r="K314" s="149">
         <v>196821008</v>
       </c>
       <c r="L314" s="80" t="s">
@@ -21598,7 +21602,7 @@
       <c r="J315" s="18">
         <v>5967</v>
       </c>
-      <c r="K315" s="150">
+      <c r="K315" s="149">
         <v>279816002</v>
       </c>
       <c r="L315" s="80" t="s">
@@ -21639,7 +21643,7 @@
       <c r="J316" s="18">
         <v>5966</v>
       </c>
-      <c r="K316" s="150">
+      <c r="K316" s="149">
         <v>279816002</v>
       </c>
       <c r="L316" s="80" t="s">
@@ -21678,7 +21682,7 @@
       <c r="J317" s="18">
         <v>5965</v>
       </c>
-      <c r="K317" s="150">
+      <c r="K317" s="149">
         <v>279816002</v>
       </c>
       <c r="L317" s="80" t="s">
@@ -21715,7 +21719,7 @@
       <c r="J318" s="18">
         <v>12773</v>
       </c>
-      <c r="K318" s="150">
+      <c r="K318" s="149">
         <v>196751009</v>
       </c>
       <c r="L318" s="80" t="s">
@@ -21750,15 +21754,15 @@
         <v>2039</v>
       </c>
       <c r="J319" s="43"/>
-      <c r="K319" s="150">
+      <c r="K319" s="149">
         <v>65349008</v>
       </c>
       <c r="L319" s="80" t="s">
         <v>2042</v>
       </c>
       <c r="M319" s="10"/>
-      <c r="N319" s="133" t="s">
-        <v>2526</v>
+      <c r="N319" s="132" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="320" spans="1:14" s="1" customFormat="1" ht="51">
@@ -21787,15 +21791,15 @@
         <v>2040</v>
       </c>
       <c r="J320" s="43"/>
-      <c r="K320" s="150">
+      <c r="K320" s="149">
         <v>245357003</v>
       </c>
       <c r="L320" s="80" t="s">
         <v>2043</v>
       </c>
       <c r="M320" s="10"/>
-      <c r="N320" s="133" t="s">
-        <v>2526</v>
+      <c r="N320" s="132" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="321" spans="1:14" s="1" customFormat="1" ht="51">
@@ -21824,15 +21828,15 @@
         <v>2041</v>
       </c>
       <c r="J321" s="43"/>
-      <c r="K321" s="155">
+      <c r="K321" s="154">
         <v>84219008</v>
       </c>
       <c r="L321" s="80" t="s">
         <v>2036</v>
       </c>
       <c r="M321" s="10"/>
-      <c r="N321" s="133" t="s">
-        <v>2526</v>
+      <c r="N321" s="132" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="322" spans="1:14" s="1" customFormat="1" ht="51">
@@ -21865,7 +21869,7 @@
       <c r="J322" s="18">
         <v>229177</v>
       </c>
-      <c r="K322" s="149">
+      <c r="K322" s="148">
         <v>65349008</v>
       </c>
       <c r="L322" s="57" t="s">
@@ -21906,7 +21910,7 @@
       <c r="J323" s="18">
         <v>229177</v>
       </c>
-      <c r="K323" s="149">
+      <c r="K323" s="148">
         <v>65349008</v>
       </c>
       <c r="L323" s="57" t="s">
@@ -21947,7 +21951,7 @@
       <c r="J324" s="18">
         <v>224275</v>
       </c>
-      <c r="K324" s="149">
+      <c r="K324" s="148">
         <v>245299000</v>
       </c>
       <c r="L324" s="57" t="s">
@@ -21956,7 +21960,7 @@
       <c r="M324" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N324" s="131"/>
+      <c r="N324" s="130"/>
     </row>
     <row r="325" spans="1:14" s="1" customFormat="1" ht="51">
       <c r="A325" s="56" t="s">
@@ -21988,16 +21992,16 @@
       <c r="J325" s="18">
         <v>224269</v>
       </c>
-      <c r="K325" s="157">
+      <c r="K325" s="156">
         <v>245295006</v>
       </c>
-      <c r="L325" s="141" t="s">
-        <v>2553</v>
-      </c>
-      <c r="M325" s="145" t="s">
+      <c r="L325" s="140" t="s">
+        <v>2550</v>
+      </c>
+      <c r="M325" s="144" t="s">
         <v>2453</v>
       </c>
-      <c r="N325" s="131"/>
+      <c r="N325" s="130"/>
     </row>
     <row r="326" spans="1:14" s="1" customFormat="1" ht="51">
       <c r="A326" s="56" t="s">
@@ -22029,17 +22033,17 @@
       <c r="J326" s="18">
         <v>224269</v>
       </c>
-      <c r="K326" s="157">
+      <c r="K326" s="156">
         <v>245295006</v>
       </c>
       <c r="L326" s="121" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="M326" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N326" s="128" t="s">
-        <v>2527</v>
+      <c r="N326" s="127" t="s">
+        <v>2524</v>
       </c>
     </row>
     <row r="327" spans="1:14" s="1" customFormat="1" ht="17">
@@ -22068,11 +22072,11 @@
       <c r="H327" s="16" t="s">
         <v>1598</v>
       </c>
-      <c r="I327" s="127"/>
+      <c r="I327" s="126"/>
       <c r="J327" s="18">
         <v>5934</v>
       </c>
-      <c r="K327" s="150">
+      <c r="K327" s="149">
         <v>245282001</v>
       </c>
       <c r="L327" s="80" t="s">
@@ -22081,8 +22085,8 @@
       <c r="M327" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N327" s="128" t="s">
-        <v>2528</v>
+      <c r="N327" s="127" t="s">
+        <v>2525</v>
       </c>
     </row>
     <row r="328" spans="1:14" s="1" customFormat="1">
@@ -22111,11 +22115,11 @@
       <c r="H328" s="16" t="s">
         <v>1595</v>
       </c>
-      <c r="I328" s="134"/>
+      <c r="I328" s="133"/>
       <c r="J328" s="18">
         <v>5933</v>
       </c>
-      <c r="K328" s="150">
+      <c r="K328" s="149">
         <v>245282001</v>
       </c>
       <c r="L328" s="80" t="s">
@@ -22156,7 +22160,7 @@
       <c r="J329" s="18">
         <v>5849</v>
       </c>
-      <c r="K329" s="150">
+      <c r="K329" s="149">
         <v>245282001</v>
       </c>
       <c r="L329" s="80" t="s">
@@ -22193,7 +22197,7 @@
       <c r="J330" s="18">
         <v>236337</v>
       </c>
-      <c r="K330" s="150">
+      <c r="K330" s="149">
         <v>279763008</v>
       </c>
       <c r="L330" s="80" t="s">
@@ -22232,7 +22236,7 @@
       <c r="J331" s="18">
         <v>236341</v>
       </c>
-      <c r="K331" s="150">
+      <c r="K331" s="149">
         <v>279763008</v>
       </c>
       <c r="L331" s="80" t="s">
@@ -22273,7 +22277,7 @@
       <c r="J332" s="18">
         <v>236339</v>
       </c>
-      <c r="K332" s="150">
+      <c r="K332" s="149">
         <v>279763008</v>
       </c>
       <c r="L332" s="80" t="s">
@@ -22312,7 +22316,7 @@
       <c r="J333" s="18">
         <v>5932</v>
       </c>
-      <c r="K333" s="150">
+      <c r="K333" s="149">
         <v>64038003</v>
       </c>
       <c r="L333" s="80" t="s">
@@ -22351,7 +22355,7 @@
         <v>1592</v>
       </c>
       <c r="J334" s="18"/>
-      <c r="K334" s="149">
+      <c r="K334" s="148">
         <v>59441001</v>
       </c>
       <c r="L334" s="57" t="s">
@@ -22390,15 +22394,15 @@
       <c r="J335" s="18">
         <v>74033</v>
       </c>
-      <c r="K335" s="157">
+      <c r="K335" s="156">
         <v>127938006</v>
       </c>
-      <c r="L335" s="142" t="s">
+      <c r="L335" s="141" t="s">
         <v>2465</v>
       </c>
       <c r="M335" s="81"/>
-      <c r="N335" s="129" t="s">
-        <v>2529</v>
+      <c r="N335" s="128" t="s">
+        <v>2526</v>
       </c>
     </row>
     <row r="336" spans="1:14" s="1" customFormat="1" ht="51">
@@ -22431,7 +22435,7 @@
       <c r="J336" s="18">
         <v>224275</v>
       </c>
-      <c r="K336" s="149">
+      <c r="K336" s="148">
         <v>245299000</v>
       </c>
       <c r="L336" s="57" t="s">
@@ -22470,7 +22474,7 @@
       <c r="J337" s="18">
         <v>12774</v>
       </c>
-      <c r="K337" s="150">
+      <c r="K337" s="149">
         <v>62683002</v>
       </c>
       <c r="L337" s="80" t="s">
@@ -22507,7 +22511,7 @@
         <v>2051</v>
       </c>
       <c r="J338" s="47"/>
-      <c r="K338" s="155">
+      <c r="K338" s="154">
         <v>81105003</v>
       </c>
       <c r="L338" s="80" t="s">
@@ -22550,7 +22554,7 @@
       <c r="J339" s="18">
         <v>235616</v>
       </c>
-      <c r="K339" s="155">
+      <c r="K339" s="154">
         <v>81105003</v>
       </c>
       <c r="L339" s="80" t="s">
@@ -22593,7 +22597,7 @@
       <c r="J340" s="18">
         <v>235614</v>
       </c>
-      <c r="K340" s="155">
+      <c r="K340" s="154">
         <v>81105003</v>
       </c>
       <c r="L340" s="80" t="s">
@@ -22636,7 +22640,7 @@
       <c r="J341" s="18">
         <v>232676</v>
       </c>
-      <c r="K341" s="155">
+      <c r="K341" s="154">
         <v>81105003</v>
       </c>
       <c r="L341" s="80" t="s">
@@ -22679,7 +22683,7 @@
       <c r="J342" s="18">
         <v>232673</v>
       </c>
-      <c r="K342" s="155">
+      <c r="K342" s="154">
         <v>81105003</v>
       </c>
       <c r="L342" s="80" t="s">
@@ -22722,7 +22726,7 @@
       <c r="J343" s="18">
         <v>265660</v>
       </c>
-      <c r="K343" s="155">
+      <c r="K343" s="154">
         <v>81105003</v>
       </c>
       <c r="L343" s="80" t="s">
@@ -22765,7 +22769,7 @@
       <c r="J344" s="18">
         <v>265658</v>
       </c>
-      <c r="K344" s="155">
+      <c r="K344" s="154">
         <v>81105003</v>
       </c>
       <c r="L344" s="80" t="s">
@@ -22808,17 +22812,17 @@
       <c r="J345" s="18">
         <v>241975</v>
       </c>
-      <c r="K345" s="155">
+      <c r="K345" s="154">
         <v>81105003</v>
       </c>
       <c r="L345" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M345" s="143" t="s">
-        <v>2540</v>
-      </c>
-      <c r="N345" s="135" t="s">
-        <v>2530</v>
+      <c r="M345" s="142" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N345" s="134" t="s">
+        <v>2527</v>
       </c>
     </row>
     <row r="346" spans="1:14" s="1" customFormat="1" ht="34" customHeight="1">
@@ -22853,17 +22857,17 @@
       <c r="J346" s="18">
         <v>241973</v>
       </c>
-      <c r="K346" s="155">
+      <c r="K346" s="154">
         <v>81105003</v>
       </c>
       <c r="L346" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M346" s="143" t="s">
-        <v>2541</v>
-      </c>
-      <c r="N346" s="135" t="s">
-        <v>2530</v>
+      <c r="M346" s="142" t="s">
+        <v>2538</v>
+      </c>
+      <c r="N346" s="134" t="s">
+        <v>2527</v>
       </c>
     </row>
     <row r="347" spans="1:14" s="1" customFormat="1" ht="34" customHeight="1">
@@ -22898,17 +22902,17 @@
       <c r="J347" s="18">
         <v>241979</v>
       </c>
-      <c r="K347" s="155">
+      <c r="K347" s="154">
         <v>81105003</v>
       </c>
       <c r="L347" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M347" s="143" t="s">
-        <v>2542</v>
-      </c>
-      <c r="N347" s="135" t="s">
-        <v>2531</v>
+      <c r="M347" s="142" t="s">
+        <v>2539</v>
+      </c>
+      <c r="N347" s="134" t="s">
+        <v>2528</v>
       </c>
     </row>
     <row r="348" spans="1:14" s="1" customFormat="1" ht="34" customHeight="1">
@@ -22943,17 +22947,17 @@
       <c r="J348" s="18">
         <v>241977</v>
       </c>
-      <c r="K348" s="155">
+      <c r="K348" s="154">
         <v>81105003</v>
       </c>
       <c r="L348" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M348" s="143" t="s">
-        <v>2543</v>
-      </c>
-      <c r="N348" s="135" t="s">
-        <v>2531</v>
+      <c r="M348" s="142" t="s">
+        <v>2540</v>
+      </c>
+      <c r="N348" s="134" t="s">
+        <v>2528</v>
       </c>
     </row>
     <row r="349" spans="1:14" s="1" customFormat="1" ht="34" customHeight="1">
@@ -22988,7 +22992,7 @@
       <c r="J349" s="18">
         <v>241953</v>
       </c>
-      <c r="K349" s="155">
+      <c r="K349" s="154">
         <v>81105003</v>
       </c>
       <c r="L349" s="80" t="s">
@@ -23031,7 +23035,7 @@
       <c r="J350" s="18">
         <v>241951</v>
       </c>
-      <c r="K350" s="155">
+      <c r="K350" s="154">
         <v>81105003</v>
       </c>
       <c r="L350" s="80" t="s">
@@ -23074,7 +23078,7 @@
       <c r="J351" s="18">
         <v>241959</v>
       </c>
-      <c r="K351" s="155">
+      <c r="K351" s="154">
         <v>81105003</v>
       </c>
       <c r="L351" s="80" t="s">
@@ -23117,7 +23121,7 @@
       <c r="J352" s="18">
         <v>241957</v>
       </c>
-      <c r="K352" s="155">
+      <c r="K352" s="154">
         <v>81105003</v>
       </c>
       <c r="L352" s="80" t="s">
@@ -23160,7 +23164,7 @@
       <c r="J353" s="18">
         <v>241965</v>
       </c>
-      <c r="K353" s="155">
+      <c r="K353" s="154">
         <v>81105003</v>
       </c>
       <c r="L353" s="80" t="s">
@@ -23203,7 +23207,7 @@
       <c r="J354" s="18">
         <v>241963</v>
       </c>
-      <c r="K354" s="155">
+      <c r="K354" s="154">
         <v>81105003</v>
       </c>
       <c r="L354" s="80" t="s">
@@ -23246,7 +23250,7 @@
       <c r="J355" s="18">
         <v>265629</v>
       </c>
-      <c r="K355" s="155">
+      <c r="K355" s="154">
         <v>81105003</v>
       </c>
       <c r="L355" s="80" t="s">
@@ -23289,7 +23293,7 @@
       <c r="J356" s="18">
         <v>265626</v>
       </c>
-      <c r="K356" s="155">
+      <c r="K356" s="154">
         <v>81105003</v>
       </c>
       <c r="L356" s="80" t="s">
@@ -23330,7 +23334,7 @@
         <v>485</v>
       </c>
       <c r="J357" s="18"/>
-      <c r="K357" s="155">
+      <c r="K357" s="154">
         <v>81105003</v>
       </c>
       <c r="L357" s="80" t="s">
@@ -23371,7 +23375,7 @@
         <v>484</v>
       </c>
       <c r="J358" s="18"/>
-      <c r="K358" s="155">
+      <c r="K358" s="154">
         <v>81105003</v>
       </c>
       <c r="L358" s="80" t="s">
@@ -23414,7 +23418,7 @@
       <c r="J359" s="18">
         <v>232721</v>
       </c>
-      <c r="K359" s="155">
+      <c r="K359" s="154">
         <v>81105003</v>
       </c>
       <c r="L359" s="80" t="s">
@@ -23457,7 +23461,7 @@
       <c r="J360" s="18">
         <v>232719</v>
       </c>
-      <c r="K360" s="155">
+      <c r="K360" s="154">
         <v>81105003</v>
       </c>
       <c r="L360" s="80" t="s">
@@ -23500,7 +23504,7 @@
       <c r="J361" s="18">
         <v>241971</v>
       </c>
-      <c r="K361" s="155">
+      <c r="K361" s="154">
         <v>81105003</v>
       </c>
       <c r="L361" s="80" t="s">
@@ -23543,7 +23547,7 @@
       <c r="J362" s="18">
         <v>241969</v>
       </c>
-      <c r="K362" s="155">
+      <c r="K362" s="154">
         <v>81105003</v>
       </c>
       <c r="L362" s="80" t="s">
@@ -23584,7 +23588,7 @@
         <v>1970</v>
       </c>
       <c r="J363" s="18"/>
-      <c r="K363" s="155">
+      <c r="K363" s="154">
         <v>81105003</v>
       </c>
       <c r="L363" s="80" t="s">
@@ -23625,14 +23629,14 @@
         <v>479</v>
       </c>
       <c r="J364" s="18"/>
-      <c r="K364" s="155">
+      <c r="K364" s="154">
         <v>81105003</v>
       </c>
       <c r="L364" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M364" s="138" t="s">
-        <v>2544</v>
+      <c r="M364" s="137" t="s">
+        <v>2541</v>
       </c>
       <c r="N364" s="101"/>
     </row>
@@ -23662,14 +23666,14 @@
       <c r="H365" s="48"/>
       <c r="I365" s="49"/>
       <c r="J365" s="50"/>
-      <c r="K365" s="155">
+      <c r="K365" s="154">
         <v>81105003</v>
       </c>
       <c r="L365" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M365" s="138" t="s">
-        <v>2545</v>
+      <c r="M365" s="137" t="s">
+        <v>2542</v>
       </c>
       <c r="N365" s="101"/>
     </row>
@@ -23699,7 +23703,7 @@
       <c r="H366" s="48"/>
       <c r="I366" s="49"/>
       <c r="J366" s="50"/>
-      <c r="K366" s="155">
+      <c r="K366" s="154">
         <v>81105003</v>
       </c>
       <c r="L366" s="80" t="s">
@@ -23735,7 +23739,7 @@
       <c r="H367" s="45"/>
       <c r="I367" s="46"/>
       <c r="J367" s="50"/>
-      <c r="K367" s="155">
+      <c r="K367" s="154">
         <v>81105003</v>
       </c>
       <c r="L367" s="80" t="s">
@@ -23769,7 +23773,7 @@
       <c r="H368" s="45"/>
       <c r="I368" s="46"/>
       <c r="J368" s="50"/>
-      <c r="K368" s="155">
+      <c r="K368" s="154">
         <v>81105003</v>
       </c>
       <c r="L368" s="80" t="s">
@@ -23803,7 +23807,7 @@
       <c r="H369" s="45"/>
       <c r="I369" s="46"/>
       <c r="J369" s="50"/>
-      <c r="K369" s="155">
+      <c r="K369" s="154">
         <v>81105003</v>
       </c>
       <c r="L369" s="80" t="s">
@@ -23837,7 +23841,7 @@
       <c r="H370" s="45"/>
       <c r="I370" s="46"/>
       <c r="J370" s="50"/>
-      <c r="K370" s="155">
+      <c r="K370" s="154">
         <v>81105003</v>
       </c>
       <c r="L370" s="80" t="s">
@@ -23871,7 +23875,7 @@
       <c r="H371" s="45"/>
       <c r="I371" s="46"/>
       <c r="J371" s="50"/>
-      <c r="K371" s="155">
+      <c r="K371" s="154">
         <v>81105003</v>
       </c>
       <c r="L371" s="80" t="s">
@@ -23905,7 +23909,7 @@
       <c r="H372" s="45"/>
       <c r="I372" s="46"/>
       <c r="J372" s="50"/>
-      <c r="K372" s="155">
+      <c r="K372" s="154">
         <v>81105003</v>
       </c>
       <c r="L372" s="80" t="s">
@@ -23939,7 +23943,7 @@
       <c r="H373" s="45"/>
       <c r="I373" s="46"/>
       <c r="J373" s="50"/>
-      <c r="K373" s="155">
+      <c r="K373" s="154">
         <v>81105003</v>
       </c>
       <c r="L373" s="80" t="s">
@@ -23973,7 +23977,7 @@
       <c r="H374" s="45"/>
       <c r="I374" s="46"/>
       <c r="J374" s="50"/>
-      <c r="K374" s="155">
+      <c r="K374" s="154">
         <v>81105003</v>
       </c>
       <c r="L374" s="80" t="s">
@@ -24007,7 +24011,7 @@
       <c r="H375" s="45"/>
       <c r="I375" s="46"/>
       <c r="J375" s="50"/>
-      <c r="K375" s="155">
+      <c r="K375" s="154">
         <v>81105003</v>
       </c>
       <c r="L375" s="80" t="s">
@@ -24041,7 +24045,7 @@
       <c r="H376" s="45"/>
       <c r="I376" s="46"/>
       <c r="J376" s="50"/>
-      <c r="K376" s="155">
+      <c r="K376" s="154">
         <v>81105003</v>
       </c>
       <c r="L376" s="80" t="s">
@@ -24082,7 +24086,7 @@
       <c r="J377" s="18">
         <v>16676</v>
       </c>
-      <c r="K377" s="150">
+      <c r="K377" s="149">
         <v>36086000</v>
       </c>
       <c r="L377" s="80" t="s">
@@ -24123,7 +24127,7 @@
       <c r="J378" s="18">
         <v>16676</v>
       </c>
-      <c r="K378" s="150">
+      <c r="K378" s="149">
         <v>36086000</v>
       </c>
       <c r="L378" s="80" t="s">
@@ -24162,7 +24166,7 @@
       <c r="J379" s="18">
         <v>223899</v>
       </c>
-      <c r="K379" s="150">
+      <c r="K379" s="149">
         <v>35783009</v>
       </c>
       <c r="L379" s="80" t="s">
@@ -24201,7 +24205,7 @@
       <c r="J380" s="18">
         <v>232600</v>
       </c>
-      <c r="K380" s="149">
+      <c r="K380" s="148">
         <v>368550005</v>
       </c>
       <c r="L380" s="57" t="s">
@@ -24242,7 +24246,7 @@
       <c r="J381" s="18">
         <v>232598</v>
       </c>
-      <c r="K381" s="149">
+      <c r="K381" s="148">
         <v>368550005</v>
       </c>
       <c r="L381" s="57" t="s">
@@ -24281,7 +24285,7 @@
       <c r="J382" s="18">
         <v>44313</v>
       </c>
-      <c r="K382" s="150">
+      <c r="K382" s="149">
         <v>368550005</v>
       </c>
       <c r="L382" s="80" t="s">
@@ -24320,7 +24324,7 @@
       <c r="J383" s="18">
         <v>5934</v>
       </c>
-      <c r="K383" s="150">
+      <c r="K383" s="149">
         <v>82365008</v>
       </c>
       <c r="L383" s="80" t="s">
@@ -24361,7 +24365,7 @@
       <c r="J384" s="18">
         <v>5933</v>
       </c>
-      <c r="K384" s="150">
+      <c r="K384" s="149">
         <v>82365008</v>
       </c>
       <c r="L384" s="80" t="s">
@@ -24400,7 +24404,7 @@
       <c r="J385" s="26">
         <v>5849</v>
       </c>
-      <c r="K385" s="150">
+      <c r="K385" s="149">
         <v>82365008</v>
       </c>
       <c r="L385" s="80" t="s">
@@ -24437,7 +24441,7 @@
         <v>1756</v>
       </c>
       <c r="J386" s="26"/>
-      <c r="K386" s="155">
+      <c r="K386" s="154">
         <v>245294005</v>
       </c>
       <c r="L386" s="80" t="s">
@@ -24476,7 +24480,7 @@
         <v>1757</v>
       </c>
       <c r="J387" s="26"/>
-      <c r="K387" s="155">
+      <c r="K387" s="154">
         <v>245294005</v>
       </c>
       <c r="L387" s="80" t="s">
@@ -24513,7 +24517,7 @@
         <v>1753</v>
       </c>
       <c r="J388" s="26"/>
-      <c r="K388" s="155">
+      <c r="K388" s="154">
         <v>245294005</v>
       </c>
       <c r="L388" s="80" t="s">
@@ -24552,7 +24556,7 @@
       <c r="J389" s="26">
         <v>15758</v>
       </c>
-      <c r="K389" s="150">
+      <c r="K389" s="149">
         <v>245288002</v>
       </c>
       <c r="L389" s="57" t="s">
@@ -24591,7 +24595,7 @@
       <c r="J390" s="26">
         <v>46472</v>
       </c>
-      <c r="K390" s="149">
+      <c r="K390" s="148">
         <v>45206002</v>
       </c>
       <c r="L390" s="57" t="s">
@@ -24630,11 +24634,11 @@
       <c r="J391" s="26">
         <v>234280</v>
       </c>
-      <c r="K391" s="149" t="s">
+      <c r="K391" s="148">
+        <v>1187336003</v>
+      </c>
+      <c r="L391" s="57" t="s">
         <v>2478</v>
-      </c>
-      <c r="L391" s="57" t="s">
-        <v>2479</v>
       </c>
       <c r="M391" s="10" t="s">
         <v>2037</v>
@@ -24671,11 +24675,11 @@
       <c r="J392" s="26">
         <v>234280</v>
       </c>
-      <c r="K392" s="149" t="s">
+      <c r="K392" s="173">
+        <v>1187336003</v>
+      </c>
+      <c r="L392" s="57" t="s">
         <v>2478</v>
-      </c>
-      <c r="L392" s="57" t="s">
-        <v>2479</v>
       </c>
       <c r="M392" s="10" t="s">
         <v>2038</v>
@@ -24712,7 +24716,7 @@
       <c r="J393" s="26">
         <v>5970</v>
       </c>
-      <c r="K393" s="150">
+      <c r="K393" s="149">
         <v>196662004</v>
       </c>
       <c r="L393" s="80" t="s">
@@ -24753,7 +24757,7 @@
       <c r="J394" s="26">
         <v>5969</v>
       </c>
-      <c r="K394" s="150">
+      <c r="K394" s="149">
         <v>196662004</v>
       </c>
       <c r="L394" s="80" t="s">
@@ -24792,7 +24796,7 @@
       <c r="J395" s="26">
         <v>5968</v>
       </c>
-      <c r="K395" s="150">
+      <c r="K395" s="149">
         <v>196662004</v>
       </c>
       <c r="L395" s="80" t="s">
@@ -24831,7 +24835,7 @@
         <v>1593</v>
       </c>
       <c r="J396" s="26"/>
-      <c r="K396" s="159">
+      <c r="K396" s="158">
         <v>59441001</v>
       </c>
       <c r="L396" s="83" t="s">
@@ -24874,7 +24878,7 @@
       <c r="J397" s="26">
         <v>232719</v>
       </c>
-      <c r="K397" s="155">
+      <c r="K397" s="154">
         <v>76838003</v>
       </c>
       <c r="L397" s="80" t="s">
@@ -24917,7 +24921,7 @@
       <c r="J398" s="26">
         <v>232721</v>
       </c>
-      <c r="K398" s="155">
+      <c r="K398" s="154">
         <v>76838003</v>
       </c>
       <c r="L398" s="80" t="s">
@@ -24956,7 +24960,7 @@
       <c r="J399" s="26">
         <v>5950</v>
       </c>
-      <c r="K399" s="150">
+      <c r="K399" s="149">
         <v>245283006</v>
       </c>
       <c r="L399" s="80" t="s">
@@ -24995,7 +24999,7 @@
       <c r="J400" s="18">
         <v>5952</v>
       </c>
-      <c r="K400" s="150">
+      <c r="K400" s="149">
         <v>245283006</v>
       </c>
       <c r="L400" s="80" t="s">
@@ -25036,7 +25040,7 @@
       <c r="J401" s="18">
         <v>5951</v>
       </c>
-      <c r="K401" s="150">
+      <c r="K401" s="149">
         <v>245283006</v>
       </c>
       <c r="L401" s="80" t="s">
@@ -25073,7 +25077,7 @@
         <v>1693</v>
       </c>
       <c r="J402" s="26"/>
-      <c r="K402" s="149">
+      <c r="K402" s="148">
         <v>84782009</v>
       </c>
       <c r="L402" s="57" t="s">
@@ -25114,7 +25118,7 @@
       <c r="J403" s="18">
         <v>72970</v>
       </c>
-      <c r="K403" s="149">
+      <c r="K403" s="148">
         <v>83251001</v>
       </c>
       <c r="L403" s="57" t="s">
@@ -25157,7 +25161,7 @@
       <c r="J404" s="18">
         <v>72969</v>
       </c>
-      <c r="K404" s="149">
+      <c r="K404" s="148">
         <v>83251001</v>
       </c>
       <c r="L404" s="57" t="s">
@@ -25196,7 +25200,7 @@
       <c r="J405" s="26">
         <v>5981</v>
       </c>
-      <c r="K405" s="149">
+      <c r="K405" s="148">
         <v>40958000</v>
       </c>
       <c r="L405" s="57" t="s">
@@ -25237,7 +25241,7 @@
       <c r="J406" s="18">
         <v>72976</v>
       </c>
-      <c r="K406" s="149">
+      <c r="K406" s="148">
         <v>31065004</v>
       </c>
       <c r="L406" s="57" t="s">
@@ -25280,7 +25284,7 @@
       <c r="J407" s="18">
         <v>72975</v>
       </c>
-      <c r="K407" s="149">
+      <c r="K407" s="148">
         <v>31065004</v>
       </c>
       <c r="L407" s="57" t="s">
@@ -25321,7 +25325,7 @@
       <c r="J408" s="26">
         <v>62045</v>
       </c>
-      <c r="K408" s="149">
+      <c r="K408" s="148">
         <v>244453006</v>
       </c>
       <c r="L408" s="57" t="s">
@@ -25362,7 +25366,7 @@
       <c r="J409" s="18">
         <v>72974</v>
       </c>
-      <c r="K409" s="149">
+      <c r="K409" s="148">
         <v>16630005</v>
       </c>
       <c r="L409" s="57" t="s">
@@ -25405,7 +25409,7 @@
       <c r="J410" s="18">
         <v>72973</v>
       </c>
-      <c r="K410" s="149">
+      <c r="K410" s="148">
         <v>16630005</v>
       </c>
       <c r="L410" s="57" t="s">
@@ -25446,7 +25450,7 @@
       <c r="J411" s="26">
         <v>50863</v>
       </c>
-      <c r="K411" s="149">
+      <c r="K411" s="148">
         <v>18234004</v>
       </c>
       <c r="L411" s="57" t="s">
@@ -25487,7 +25491,7 @@
       <c r="J412" s="18">
         <v>72972</v>
       </c>
-      <c r="K412" s="149">
+      <c r="K412" s="148">
         <v>78277001</v>
       </c>
       <c r="L412" s="57" t="s">
@@ -25530,7 +25534,7 @@
       <c r="J413" s="18">
         <v>72971</v>
       </c>
-      <c r="K413" s="149">
+      <c r="K413" s="148">
         <v>78277001</v>
       </c>
       <c r="L413" s="57" t="s">
@@ -25571,7 +25575,7 @@
       <c r="J414" s="18">
         <v>7310</v>
       </c>
-      <c r="K414" s="149">
+      <c r="K414" s="148">
         <v>39607008</v>
       </c>
       <c r="L414" s="57" t="s">
@@ -25612,7 +25616,7 @@
       <c r="J415" s="18">
         <v>7371</v>
       </c>
-      <c r="K415" s="149">
+      <c r="K415" s="148">
         <v>31094006</v>
       </c>
       <c r="L415" s="57" t="s">
@@ -25653,7 +25657,7 @@
       <c r="J416" s="18">
         <v>7370</v>
       </c>
-      <c r="K416" s="149">
+      <c r="K416" s="148">
         <v>31094006</v>
       </c>
       <c r="L416" s="57" t="s">
@@ -25694,7 +25698,7 @@
       <c r="J417" s="18">
         <v>7309</v>
       </c>
-      <c r="K417" s="149">
+      <c r="K417" s="148">
         <v>31094006</v>
       </c>
       <c r="L417" s="57" t="s">
@@ -25735,7 +25739,7 @@
       <c r="J418" s="18">
         <v>7337</v>
       </c>
-      <c r="K418" s="149">
+      <c r="K418" s="148">
         <v>31094006</v>
       </c>
       <c r="L418" s="57" t="s">
@@ -25776,7 +25780,7 @@
       <c r="J419" s="18">
         <v>7383</v>
       </c>
-      <c r="K419" s="149">
+      <c r="K419" s="148">
         <v>31094006</v>
       </c>
       <c r="L419" s="57" t="s">
@@ -25817,7 +25821,7 @@
       <c r="J420" s="18">
         <v>7333</v>
       </c>
-      <c r="K420" s="149">
+      <c r="K420" s="148">
         <v>31094006</v>
       </c>
       <c r="L420" s="57" t="s">
@@ -25858,7 +25862,7 @@
       <c r="J421" s="18">
         <v>68877</v>
       </c>
-      <c r="K421" s="149">
+      <c r="K421" s="148">
         <v>39607008</v>
       </c>
       <c r="L421" s="57" t="s">
@@ -25899,7 +25903,7 @@
       <c r="J422" s="14">
         <v>52753</v>
       </c>
-      <c r="K422" s="149">
+      <c r="K422" s="148">
         <v>34080009</v>
       </c>
       <c r="L422" s="57" t="s">
@@ -25940,7 +25944,7 @@
       <c r="J423" s="14">
         <v>74053</v>
       </c>
-      <c r="K423" s="149">
+      <c r="K423" s="148">
         <v>34080009</v>
       </c>
       <c r="L423" s="57" t="s">
@@ -25981,7 +25985,7 @@
       <c r="J424" s="14">
         <v>74052</v>
       </c>
-      <c r="K424" s="149">
+      <c r="K424" s="148">
         <v>34080009</v>
       </c>
       <c r="L424" s="57" t="s">
@@ -26020,7 +26024,7 @@
       <c r="J425" s="18">
         <v>9711</v>
       </c>
-      <c r="K425" s="149">
+      <c r="K425" s="148">
         <v>70925003</v>
       </c>
       <c r="L425" s="57" t="s">
@@ -26061,7 +26065,7 @@
       <c r="J426" s="18">
         <v>53650</v>
       </c>
-      <c r="K426" s="149">
+      <c r="K426" s="148">
         <v>70925003</v>
       </c>
       <c r="L426" s="57" t="s">
@@ -26102,7 +26106,7 @@
       <c r="J427" s="18">
         <v>53649</v>
       </c>
-      <c r="K427" s="149">
+      <c r="K427" s="148">
         <v>70925003</v>
       </c>
       <c r="L427" s="57" t="s">
@@ -26143,7 +26147,7 @@
       <c r="J428" s="26">
         <v>54668</v>
       </c>
-      <c r="K428" s="149">
+      <c r="K428" s="148">
         <v>363654007</v>
       </c>
       <c r="L428" s="57" t="s">
@@ -26184,7 +26188,7 @@
       <c r="J429" s="26">
         <v>54667</v>
       </c>
-      <c r="K429" s="149">
+      <c r="K429" s="148">
         <v>363654007</v>
       </c>
       <c r="L429" s="57" t="s">
@@ -26225,7 +26229,7 @@
       <c r="J430" s="26">
         <v>54879</v>
       </c>
-      <c r="K430" s="149">
+      <c r="K430" s="148">
         <v>31389004</v>
       </c>
       <c r="L430" s="57" t="s">
@@ -26266,7 +26270,7 @@
       <c r="J431" s="18">
         <v>46623</v>
       </c>
-      <c r="K431" s="149">
+      <c r="K431" s="148">
         <v>4866005</v>
       </c>
       <c r="L431" s="57" t="s">
@@ -26309,7 +26313,7 @@
       <c r="J432" s="18">
         <v>46622</v>
       </c>
-      <c r="K432" s="149">
+      <c r="K432" s="148">
         <v>4866005</v>
       </c>
       <c r="L432" s="57" t="s">
@@ -26352,7 +26356,7 @@
       <c r="J433" s="18">
         <v>46621</v>
       </c>
-      <c r="K433" s="149">
+      <c r="K433" s="148">
         <v>4866005</v>
       </c>
       <c r="L433" s="57" t="s">
@@ -26395,7 +26399,7 @@
       <c r="J434" s="18">
         <v>46293</v>
       </c>
-      <c r="K434" s="149">
+      <c r="K434" s="148">
         <v>52410001</v>
       </c>
       <c r="L434" s="57" t="s">
@@ -26438,7 +26442,7 @@
       <c r="J435" s="18">
         <v>46292</v>
       </c>
-      <c r="K435" s="149">
+      <c r="K435" s="148">
         <v>52410001</v>
       </c>
       <c r="L435" s="57" t="s">
@@ -26477,7 +26481,7 @@
       <c r="J436" s="26">
         <v>7409</v>
       </c>
-      <c r="K436" s="149">
+      <c r="K436" s="148">
         <v>15497006</v>
       </c>
       <c r="L436" s="57" t="s">
@@ -26520,7 +26524,7 @@
       <c r="J437" s="18">
         <v>48998</v>
       </c>
-      <c r="K437" s="149">
+      <c r="K437" s="148">
         <v>79368004</v>
       </c>
       <c r="L437" s="57" t="s">
@@ -26561,7 +26565,7 @@
       <c r="J438" s="18">
         <v>48997</v>
       </c>
-      <c r="K438" s="149">
+      <c r="K438" s="148">
         <v>79368004</v>
       </c>
       <c r="L438" s="57" t="s">
@@ -26602,7 +26606,7 @@
       <c r="J439" s="18">
         <v>45740</v>
       </c>
-      <c r="K439" s="149">
+      <c r="K439" s="148">
         <v>18252004</v>
       </c>
       <c r="L439" s="57" t="s">
@@ -26645,7 +26649,7 @@
       <c r="J440" s="18">
         <v>45739</v>
       </c>
-      <c r="K440" s="149">
+      <c r="K440" s="148">
         <v>18252004</v>
       </c>
       <c r="L440" s="57" t="s">
@@ -26686,7 +26690,7 @@
         <v>603</v>
       </c>
       <c r="J441" s="18"/>
-      <c r="K441" s="157">
+      <c r="K441" s="156">
         <v>76738006</v>
       </c>
       <c r="L441" s="121" t="s">
@@ -26695,8 +26699,8 @@
       <c r="M441" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N441" s="132" t="s">
-        <v>2532</v>
+      <c r="N441" s="131" t="s">
+        <v>2529</v>
       </c>
     </row>
     <row r="442" spans="1:14" s="1" customFormat="1" ht="34">
@@ -26729,7 +26733,7 @@
         <v>604</v>
       </c>
       <c r="J442" s="18"/>
-      <c r="K442" s="149">
+      <c r="K442" s="148">
         <v>76738006</v>
       </c>
       <c r="L442" s="57" t="s">
@@ -26772,7 +26776,7 @@
       <c r="J443" s="18">
         <v>13409</v>
       </c>
-      <c r="K443" s="149">
+      <c r="K443" s="148">
         <v>22823000</v>
       </c>
       <c r="L443" s="57" t="s">
@@ -26815,7 +26819,7 @@
       <c r="J444" s="18">
         <v>13408</v>
       </c>
-      <c r="K444" s="149">
+      <c r="K444" s="148">
         <v>22823000</v>
       </c>
       <c r="L444" s="57" t="s">
@@ -26858,7 +26862,7 @@
       <c r="J445" s="18">
         <v>49008</v>
       </c>
-      <c r="K445" s="150">
+      <c r="K445" s="149">
         <v>52927003</v>
       </c>
       <c r="L445" s="10" t="s">
@@ -26899,7 +26903,7 @@
       <c r="J446" s="26">
         <v>55021</v>
       </c>
-      <c r="K446" s="149">
+      <c r="K446" s="148">
         <v>49460000</v>
       </c>
       <c r="L446" s="57" t="s">
@@ -26940,7 +26944,7 @@
       <c r="J447" s="18">
         <v>54738</v>
       </c>
-      <c r="K447" s="149">
+      <c r="K447" s="148">
         <v>46607005</v>
       </c>
       <c r="L447" s="57" t="s">
@@ -26983,7 +26987,7 @@
       <c r="J448" s="18">
         <v>54737</v>
       </c>
-      <c r="K448" s="149">
+      <c r="K448" s="148">
         <v>46607005</v>
       </c>
       <c r="L448" s="57" t="s">
@@ -27024,7 +27028,7 @@
       <c r="J449" s="26">
         <v>7198</v>
       </c>
-      <c r="K449" s="149">
+      <c r="K449" s="148">
         <v>15776009</v>
       </c>
       <c r="L449" s="57" t="s">
@@ -27063,7 +27067,7 @@
       <c r="J450" s="26">
         <v>10468</v>
       </c>
-      <c r="K450" s="149">
+      <c r="K450" s="148">
         <v>64163001</v>
       </c>
       <c r="L450" s="57" t="s">
@@ -27102,7 +27106,7 @@
       <c r="J451" s="26">
         <v>14519</v>
       </c>
-      <c r="K451" s="149">
+      <c r="K451" s="148">
         <v>73239005</v>
       </c>
       <c r="L451" s="57" t="s">
@@ -27139,7 +27143,7 @@
       <c r="J452" s="26">
         <v>77061</v>
       </c>
-      <c r="K452" s="149">
+      <c r="K452" s="148">
         <v>45682005</v>
       </c>
       <c r="L452" s="57" t="s">
@@ -27178,7 +27182,7 @@
       <c r="J453" s="54">
         <v>320436</v>
       </c>
-      <c r="K453" s="149">
+      <c r="K453" s="148">
         <v>45289007</v>
       </c>
       <c r="L453" s="57" t="s">
@@ -27217,7 +27221,7 @@
       <c r="J454" s="26">
         <v>19614</v>
       </c>
-      <c r="K454" s="149">
+      <c r="K454" s="148">
         <v>52737000</v>
       </c>
       <c r="L454" s="57" t="s">
@@ -27258,7 +27262,7 @@
       <c r="J455" s="26">
         <v>50878</v>
       </c>
-      <c r="K455" s="149">
+      <c r="K455" s="148">
         <v>18234004</v>
       </c>
       <c r="L455" s="57" t="s">
@@ -27301,7 +27305,7 @@
       <c r="J456" s="26">
         <v>50875</v>
       </c>
-      <c r="K456" s="149">
+      <c r="K456" s="148">
         <v>18234004</v>
       </c>
       <c r="L456" s="57" t="s">
@@ -27340,7 +27344,7 @@
       <c r="J457" s="26">
         <v>9707</v>
       </c>
-      <c r="K457" s="149">
+      <c r="K457" s="148">
         <v>18911002</v>
       </c>
       <c r="L457" s="57" t="s">
@@ -27381,7 +27385,7 @@
       <c r="J458" s="18">
         <v>9869</v>
       </c>
-      <c r="K458" s="149">
+      <c r="K458" s="148">
         <v>76848001</v>
       </c>
       <c r="L458" s="57" t="s">
@@ -27418,7 +27422,7 @@
       <c r="J459" s="18">
         <v>9579</v>
       </c>
-      <c r="K459" s="149">
+      <c r="K459" s="148">
         <v>38864007</v>
       </c>
       <c r="L459" s="57" t="s">
@@ -27457,7 +27461,7 @@
       <c r="J460" s="18">
         <v>9908</v>
       </c>
-      <c r="K460" s="149">
+      <c r="K460" s="148">
         <v>118762006</v>
       </c>
       <c r="L460" s="57" t="s">
@@ -27496,7 +27500,7 @@
       <c r="J461" s="26">
         <v>7214</v>
       </c>
-      <c r="K461" s="149">
+      <c r="K461" s="148">
         <v>15497006</v>
       </c>
       <c r="L461" s="57" t="s">
@@ -27537,7 +27541,7 @@
       <c r="J462" s="26">
         <v>7213</v>
       </c>
-      <c r="K462" s="149">
+      <c r="K462" s="148">
         <v>15497006</v>
       </c>
       <c r="L462" s="57" t="s">
@@ -27574,7 +27578,7 @@
         <v>1348</v>
       </c>
       <c r="J463" s="55"/>
-      <c r="K463" s="149">
+      <c r="K463" s="148">
         <v>14106009</v>
       </c>
       <c r="L463" s="57" t="s">
@@ -27613,7 +27617,7 @@
       <c r="J464" s="18">
         <v>46688</v>
       </c>
-      <c r="K464" s="149">
+      <c r="K464" s="148">
         <v>54066008</v>
       </c>
       <c r="L464" s="57" t="s">
@@ -27644,19 +27648,19 @@
       <c r="H465" s="24" t="s">
         <v>1478</v>
       </c>
-      <c r="I465" s="136" t="s">
+      <c r="I465" s="135" t="s">
         <v>1503</v>
       </c>
       <c r="J465" s="26"/>
-      <c r="K465" s="149">
+      <c r="K465" s="148">
         <v>110822002</v>
       </c>
       <c r="L465" s="57" t="s">
         <v>2452</v>
       </c>
       <c r="M465" s="10"/>
-      <c r="N465" s="131" t="s">
-        <v>2522</v>
+      <c r="N465" s="130" t="s">
+        <v>2519</v>
       </c>
     </row>
     <row r="466" spans="1:14" s="1" customFormat="1" ht="13.5" customHeight="1">
@@ -27689,7 +27693,7 @@
       <c r="J466" s="18">
         <v>62033</v>
       </c>
-      <c r="K466" s="149">
+      <c r="K466" s="148">
         <v>45793000</v>
       </c>
       <c r="L466" s="57" t="s">
@@ -27707,7 +27711,7 @@
         <v>650</v>
       </c>
       <c r="D467" s="13" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E467" s="13" t="s">
         <v>698</v>
@@ -27728,7 +27732,7 @@
       <c r="J467" s="18">
         <v>13889</v>
       </c>
-      <c r="K467" s="149">
+      <c r="K467" s="148">
         <v>56329008</v>
       </c>
       <c r="L467" s="57" t="s">
@@ -27767,15 +27771,15 @@
       <c r="J468" s="26">
         <v>67943</v>
       </c>
-      <c r="K468" s="149">
+      <c r="K468" s="148">
         <v>49557009</v>
       </c>
       <c r="L468" s="57" t="s">
         <v>2257</v>
       </c>
       <c r="M468" s="10"/>
-      <c r="N468" s="128" t="s">
-        <v>2519</v>
+      <c r="N468" s="127" t="s">
+        <v>2516</v>
       </c>
     </row>
     <row r="469" spans="1:14" s="1" customFormat="1" ht="17">
@@ -27808,7 +27812,7 @@
       <c r="J469" s="18">
         <v>9600</v>
       </c>
-      <c r="K469" s="149">
+      <c r="K469" s="148">
         <v>41216001</v>
       </c>
       <c r="L469" s="57" t="s">
@@ -27849,7 +27853,7 @@
       <c r="J470" s="26">
         <v>59798</v>
       </c>
-      <c r="K470" s="149">
+      <c r="K470" s="148">
         <v>45289007</v>
       </c>
       <c r="L470" s="57" t="s">
@@ -27892,7 +27896,7 @@
       <c r="J471" s="26">
         <v>59797</v>
       </c>
-      <c r="K471" s="149">
+      <c r="K471" s="148">
         <v>45289007</v>
       </c>
       <c r="L471" s="57" t="s">
@@ -27931,7 +27935,7 @@
         <v>1694</v>
       </c>
       <c r="J472" s="26"/>
-      <c r="K472" s="157">
+      <c r="K472" s="156">
         <v>1162492000</v>
       </c>
       <c r="L472" s="121" t="s">
@@ -27939,7 +27943,7 @@
       </c>
       <c r="M472" s="10"/>
       <c r="N472" s="119" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="473" spans="1:14" s="1" customFormat="1" ht="51">
@@ -27972,7 +27976,7 @@
       <c r="J473" s="18">
         <v>49017</v>
       </c>
-      <c r="K473" s="149">
+      <c r="K473" s="148">
         <v>88938001</v>
       </c>
       <c r="L473" s="57" t="s">
@@ -28013,7 +28017,7 @@
       <c r="J474" s="18">
         <v>49016</v>
       </c>
-      <c r="K474" s="149">
+      <c r="K474" s="148">
         <v>88938001</v>
       </c>
       <c r="L474" s="57" t="s">
@@ -28054,7 +28058,7 @@
       <c r="J475" s="18">
         <v>49013</v>
       </c>
-      <c r="K475" s="149">
+      <c r="K475" s="148">
         <v>85002005</v>
       </c>
       <c r="L475" s="57" t="s">
@@ -28095,7 +28099,7 @@
       <c r="J476" s="18">
         <v>49012</v>
       </c>
-      <c r="K476" s="149">
+      <c r="K476" s="148">
         <v>85002005</v>
       </c>
       <c r="L476" s="57" t="s">
@@ -28134,7 +28138,7 @@
       <c r="J477" s="18">
         <v>14626</v>
       </c>
-      <c r="K477" s="160">
+      <c r="K477" s="159">
         <v>511000202101</v>
       </c>
       <c r="L477" s="57" t="s">
@@ -28171,7 +28175,7 @@
       <c r="J478" s="18">
         <v>14544</v>
       </c>
-      <c r="K478" s="149">
+      <c r="K478" s="148">
         <v>34402009</v>
       </c>
       <c r="L478" s="57" t="s">
@@ -28210,7 +28214,7 @@
       <c r="J479" s="18">
         <v>5909</v>
       </c>
-      <c r="K479" s="149">
+      <c r="K479" s="148">
         <v>62397004</v>
       </c>
       <c r="L479" s="57" t="s">
@@ -28241,11 +28245,11 @@
       <c r="H480" s="24" t="s">
         <v>1609</v>
       </c>
-      <c r="I480" s="127"/>
+      <c r="I480" s="126"/>
       <c r="J480" s="26">
         <v>46494</v>
       </c>
-      <c r="K480" s="149">
+      <c r="K480" s="148">
         <v>41695006</v>
       </c>
       <c r="L480" s="57" t="s">
@@ -28286,7 +28290,7 @@
       <c r="J481" s="18">
         <v>52838</v>
       </c>
-      <c r="K481" s="149">
+      <c r="K481" s="148">
         <v>67183008</v>
       </c>
       <c r="L481" s="57" t="s">
@@ -28329,7 +28333,7 @@
       <c r="J482" s="18">
         <v>52840</v>
       </c>
-      <c r="K482" s="149">
+      <c r="K482" s="148">
         <v>67183008</v>
       </c>
       <c r="L482" s="57" t="s">
@@ -28372,7 +28376,7 @@
       <c r="J483" s="18">
         <v>52835</v>
       </c>
-      <c r="K483" s="149">
+      <c r="K483" s="148">
         <v>124002</v>
       </c>
       <c r="L483" s="57" t="s">
@@ -28415,7 +28419,7 @@
       <c r="J484" s="18">
         <v>52834</v>
       </c>
-      <c r="K484" s="149">
+      <c r="K484" s="148">
         <v>124002</v>
       </c>
       <c r="L484" s="57" t="s">
@@ -28452,7 +28456,7 @@
         <v>1601</v>
       </c>
       <c r="J485" s="58"/>
-      <c r="K485" s="149">
+      <c r="K485" s="148">
         <v>12402003</v>
       </c>
       <c r="L485" s="57" t="s">
@@ -28485,7 +28489,7 @@
       </c>
       <c r="I486" s="17"/>
       <c r="J486" s="18"/>
-      <c r="K486" s="157">
+      <c r="K486" s="156">
         <v>12402003</v>
       </c>
       <c r="L486" s="121" t="s">
@@ -28493,7 +28497,7 @@
       </c>
       <c r="M486" s="10"/>
       <c r="N486" s="119" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="487" spans="1:14" s="1" customFormat="1" ht="51">
@@ -28524,7 +28528,7 @@
       <c r="J487" s="18">
         <v>18252</v>
       </c>
-      <c r="K487" s="149">
+      <c r="K487" s="148">
         <v>20233005</v>
       </c>
       <c r="L487" s="57" t="s">
@@ -28561,7 +28565,7 @@
       <c r="J488" s="18">
         <v>19387</v>
       </c>
-      <c r="K488" s="149">
+      <c r="K488" s="148">
         <v>64739004</v>
       </c>
       <c r="L488" s="57" t="s">
@@ -28596,7 +28600,7 @@
         <v>1388</v>
       </c>
       <c r="J489" s="18"/>
-      <c r="K489" s="149">
+      <c r="K489" s="148">
         <v>64739004</v>
       </c>
       <c r="L489" s="57" t="s">
@@ -28633,7 +28637,7 @@
         <v>1966</v>
       </c>
       <c r="J490" s="18"/>
-      <c r="K490" s="149">
+      <c r="K490" s="148">
         <v>64739004</v>
       </c>
       <c r="L490" s="57" t="s">
@@ -28674,7 +28678,7 @@
       <c r="J491" s="59">
         <v>84115</v>
       </c>
-      <c r="K491" s="149">
+      <c r="K491" s="148">
         <v>54215007</v>
       </c>
       <c r="L491" s="57" t="s">
@@ -28713,7 +28717,7 @@
       <c r="J492" s="18">
         <v>16950</v>
       </c>
-      <c r="K492" s="149">
+      <c r="K492" s="148">
         <v>82561000</v>
       </c>
       <c r="L492" s="57" t="s">
@@ -28754,7 +28758,7 @@
       <c r="J493" s="18">
         <v>16597</v>
       </c>
-      <c r="K493" s="157">
+      <c r="K493" s="156">
         <v>82561000</v>
       </c>
       <c r="L493" s="121" t="s">
@@ -28797,7 +28801,7 @@
       <c r="J494" s="18">
         <v>16596</v>
       </c>
-      <c r="K494" s="161">
+      <c r="K494" s="160">
         <v>82561000</v>
       </c>
       <c r="L494" s="123" t="s">
@@ -28840,7 +28844,7 @@
       <c r="J495" s="18">
         <v>23465</v>
       </c>
-      <c r="K495" s="151">
+      <c r="K495" s="150">
         <v>62413002</v>
       </c>
       <c r="L495" s="75" t="s">
@@ -28883,7 +28887,7 @@
       <c r="J496" s="18">
         <v>23464</v>
       </c>
-      <c r="K496" s="151">
+      <c r="K496" s="150">
         <v>62413002</v>
       </c>
       <c r="L496" s="75" t="s">
@@ -28924,7 +28928,7 @@
       <c r="J497" s="18">
         <v>57417</v>
       </c>
-      <c r="K497" s="149">
+      <c r="K497" s="148">
         <v>55060009</v>
       </c>
       <c r="L497" s="57" t="s">
@@ -28963,7 +28967,7 @@
       <c r="J498" s="18">
         <v>57715</v>
       </c>
-      <c r="K498" s="149">
+      <c r="K498" s="148">
         <v>15924003</v>
       </c>
       <c r="L498" s="57" t="s">
@@ -29004,7 +29008,7 @@
       <c r="J499" s="18">
         <v>58303</v>
       </c>
-      <c r="K499" s="149">
+      <c r="K499" s="148">
         <v>5665001</v>
       </c>
       <c r="L499" s="57" t="s">
@@ -29047,7 +29051,7 @@
       <c r="J500" s="18">
         <v>58302</v>
       </c>
-      <c r="K500" s="149">
+      <c r="K500" s="148">
         <v>5665001</v>
       </c>
       <c r="L500" s="57" t="s">
@@ -29090,7 +29094,7 @@
       <c r="J501" s="18">
         <v>58301</v>
       </c>
-      <c r="K501" s="149">
+      <c r="K501" s="148">
         <v>5665001</v>
       </c>
       <c r="L501" s="121" t="s">
@@ -29099,8 +29103,8 @@
       <c r="M501" s="10" t="s">
         <v>2121</v>
       </c>
-      <c r="N501" s="132" t="s">
-        <v>2533</v>
+      <c r="N501" s="131" t="s">
+        <v>2530</v>
       </c>
     </row>
     <row r="502" spans="1:14" s="1" customFormat="1" ht="17">
@@ -29133,7 +29137,7 @@
       <c r="J502" s="18">
         <v>7574</v>
       </c>
-      <c r="K502" s="149">
+      <c r="K502" s="148">
         <v>113197003</v>
       </c>
       <c r="L502" s="57" t="s">
@@ -29174,7 +29178,7 @@
       <c r="J503" s="18">
         <v>7987</v>
       </c>
-      <c r="K503" s="149">
+      <c r="K503" s="148">
         <v>48535007</v>
       </c>
       <c r="L503" s="57" t="s">
@@ -29217,7 +29221,7 @@
       <c r="J504" s="18">
         <v>7857</v>
       </c>
-      <c r="K504" s="149">
+      <c r="K504" s="148">
         <v>48535007</v>
       </c>
       <c r="L504" s="57" t="s">
@@ -29260,7 +29264,7 @@
       <c r="J505" s="18">
         <v>8012</v>
       </c>
-      <c r="K505" s="149">
+      <c r="K505" s="148">
         <v>78247007</v>
       </c>
       <c r="L505" s="57" t="s">
@@ -29303,7 +29307,7 @@
       <c r="J506" s="18">
         <v>7882</v>
       </c>
-      <c r="K506" s="149">
+      <c r="K506" s="148">
         <v>78247007</v>
       </c>
       <c r="L506" s="57" t="s">
@@ -29346,7 +29350,7 @@
       <c r="J507" s="18">
         <v>8039</v>
       </c>
-      <c r="K507" s="149">
+      <c r="K507" s="148">
         <v>25888004</v>
       </c>
       <c r="L507" s="57" t="s">
@@ -29389,7 +29393,7 @@
       <c r="J508" s="18">
         <v>7909</v>
       </c>
-      <c r="K508" s="149">
+      <c r="K508" s="148">
         <v>25888004</v>
       </c>
       <c r="L508" s="57" t="s">
@@ -29432,7 +29436,7 @@
       <c r="J509" s="18">
         <v>8148</v>
       </c>
-      <c r="K509" s="149">
+      <c r="K509" s="148">
         <v>25523003</v>
       </c>
       <c r="L509" s="57" t="s">
@@ -29475,7 +29479,7 @@
       <c r="J510" s="18">
         <v>7957</v>
       </c>
-      <c r="K510" s="149">
+      <c r="K510" s="148">
         <v>25523003</v>
       </c>
       <c r="L510" s="57" t="s">
@@ -29518,7 +29522,7 @@
       <c r="J511" s="18">
         <v>8093</v>
       </c>
-      <c r="K511" s="155">
+      <c r="K511" s="154">
         <v>15339008</v>
       </c>
       <c r="L511" s="57" t="s">
@@ -29561,7 +29565,7 @@
       <c r="J512" s="18">
         <v>8066</v>
       </c>
-      <c r="K512" s="155">
+      <c r="K512" s="154">
         <v>15339008</v>
       </c>
       <c r="L512" s="57" t="s">
@@ -29604,7 +29608,7 @@
       <c r="J513" s="18">
         <v>8202</v>
       </c>
-      <c r="K513" s="155">
+      <c r="K513" s="154">
         <v>59558009</v>
       </c>
       <c r="L513" s="57" t="s">
@@ -29647,7 +29651,7 @@
       <c r="J514" s="18">
         <v>8175</v>
       </c>
-      <c r="K514" s="155">
+      <c r="K514" s="154">
         <v>59558009</v>
       </c>
       <c r="L514" s="57" t="s">
@@ -29690,7 +29694,7 @@
       <c r="J515" s="18">
         <v>8256</v>
       </c>
-      <c r="K515" s="155">
+      <c r="K515" s="154">
         <v>24915002</v>
       </c>
       <c r="L515" s="57" t="s">
@@ -29733,7 +29737,7 @@
       <c r="J516" s="18">
         <v>8229</v>
       </c>
-      <c r="K516" s="155">
+      <c r="K516" s="154">
         <v>24915002</v>
       </c>
       <c r="L516" s="57" t="s">
@@ -29776,7 +29780,7 @@
       <c r="J517" s="18">
         <v>8310</v>
       </c>
-      <c r="K517" s="155">
+      <c r="K517" s="154">
         <v>5953002</v>
       </c>
       <c r="L517" s="57" t="s">
@@ -29819,7 +29823,7 @@
       <c r="J518" s="18">
         <v>8283</v>
       </c>
-      <c r="K518" s="155">
+      <c r="K518" s="154">
         <v>5953002</v>
       </c>
       <c r="L518" s="57" t="s">
@@ -29862,7 +29866,7 @@
       <c r="J519" s="18">
         <v>8391</v>
       </c>
-      <c r="K519" s="155">
+      <c r="K519" s="154">
         <v>22565002</v>
       </c>
       <c r="L519" s="57" t="s">
@@ -29905,7 +29909,7 @@
       <c r="J520" s="18">
         <v>8364</v>
       </c>
-      <c r="K520" s="155">
+      <c r="K520" s="154">
         <v>22565002</v>
       </c>
       <c r="L520" s="57" t="s">
@@ -29948,7 +29952,7 @@
       <c r="J521" s="18">
         <v>8472</v>
       </c>
-      <c r="K521" s="155">
+      <c r="K521" s="154">
         <v>77644006</v>
       </c>
       <c r="L521" s="57" t="s">
@@ -29991,7 +29995,7 @@
       <c r="J522" s="18">
         <v>8445</v>
       </c>
-      <c r="K522" s="155">
+      <c r="K522" s="154">
         <v>77644006</v>
       </c>
       <c r="L522" s="57" t="s">
@@ -30034,7 +30038,7 @@
       <c r="J523" s="18">
         <v>8532</v>
       </c>
-      <c r="K523" s="155">
+      <c r="K523" s="154">
         <v>58830002</v>
       </c>
       <c r="L523" s="57" t="s">
@@ -30077,7 +30081,7 @@
       <c r="J524" s="18">
         <v>8531</v>
       </c>
-      <c r="K524" s="155">
+      <c r="K524" s="154">
         <v>58830002</v>
       </c>
       <c r="L524" s="57" t="s">
@@ -30120,7 +30124,7 @@
       <c r="J525" s="18">
         <v>8534</v>
       </c>
-      <c r="K525" s="155">
+      <c r="K525" s="154">
         <v>43993008</v>
       </c>
       <c r="L525" s="57" t="s">
@@ -30163,7 +30167,7 @@
       <c r="J526" s="18">
         <v>8533</v>
       </c>
-      <c r="K526" s="155">
+      <c r="K526" s="154">
         <v>43993008</v>
       </c>
       <c r="L526" s="57" t="s">
@@ -30202,7 +30206,7 @@
       <c r="J527" s="18">
         <v>7163</v>
       </c>
-      <c r="K527" s="149">
+      <c r="K527" s="148">
         <v>39937001</v>
       </c>
       <c r="L527" s="57" t="s">
@@ -30243,7 +30247,7 @@
       <c r="J528" s="18">
         <v>8534</v>
       </c>
-      <c r="K528" s="162">
+      <c r="K528" s="161">
         <v>1193560003</v>
       </c>
       <c r="L528" s="57" t="s">
@@ -30252,8 +30256,8 @@
       <c r="M528" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N528" s="174" t="s">
-        <v>2559</v>
+      <c r="N528" s="172" t="s">
+        <v>2556</v>
       </c>
     </row>
     <row r="529" spans="1:14" s="1" customFormat="1" ht="34">
@@ -30288,7 +30292,7 @@
       <c r="J529" s="18">
         <v>8533</v>
       </c>
-      <c r="K529" s="162">
+      <c r="K529" s="161">
         <v>1193560003</v>
       </c>
       <c r="L529" s="57" t="s">
@@ -30297,8 +30301,8 @@
       <c r="M529" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N529" s="174" t="s">
-        <v>2559</v>
+      <c r="N529" s="172" t="s">
+        <v>2556</v>
       </c>
     </row>
     <row r="530" spans="1:14" s="1" customFormat="1">
@@ -30327,14 +30331,14 @@
       <c r="J530" s="18">
         <v>20429</v>
       </c>
-      <c r="K530" s="149">
+      <c r="K530" s="148">
         <v>48014002</v>
       </c>
       <c r="L530" s="57" t="s">
         <v>2376</v>
       </c>
       <c r="M530" s="10"/>
-      <c r="N530" s="174"/>
+      <c r="N530" s="172"/>
     </row>
     <row r="531" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A531" s="85" t="s">
@@ -30368,7 +30372,7 @@
       <c r="J531" s="18">
         <v>13396</v>
       </c>
-      <c r="K531" s="149">
+      <c r="K531" s="148">
         <v>79601000</v>
       </c>
       <c r="L531" s="57" t="s">
@@ -30411,7 +30415,7 @@
       <c r="J532" s="18">
         <v>13395</v>
       </c>
-      <c r="K532" s="149">
+      <c r="K532" s="148">
         <v>79601000</v>
       </c>
       <c r="L532" s="57" t="s">
@@ -30446,16 +30450,16 @@
       </c>
       <c r="I533" s="17"/>
       <c r="J533" s="18"/>
-      <c r="K533" s="155">
+      <c r="K533" s="154">
         <v>75093004</v>
       </c>
       <c r="L533" s="57" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="M533" s="10"/>
       <c r="N533" s="11"/>
     </row>
-    <row r="534" spans="1:14" s="1" customFormat="1" ht="51">
+    <row r="534" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A534" s="56"/>
       <c r="B534" s="12" t="s">
         <v>701</v>
@@ -30483,15 +30487,15 @@
         <v>1427</v>
       </c>
       <c r="J534" s="18"/>
-      <c r="K534" s="163" t="s">
-        <v>2560</v>
+      <c r="K534" s="174" t="s">
+        <v>2559</v>
       </c>
       <c r="L534" s="57" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="M534" s="10"/>
-      <c r="N534" s="124" t="s">
-        <v>2512</v>
+      <c r="N534" s="175" t="s">
+        <v>2561</v>
       </c>
     </row>
     <row r="535" spans="1:14" s="1" customFormat="1" ht="34">
@@ -30517,18 +30521,18 @@
         <v>1642</v>
       </c>
       <c r="I535" s="17" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="J535" s="26"/>
-      <c r="K535" s="163" t="s">
+      <c r="K535" s="174" t="s">
+        <v>2560</v>
+      </c>
+      <c r="L535" s="57" t="s">
+        <v>2486</v>
+      </c>
+      <c r="M535" s="10"/>
+      <c r="N535" s="175" t="s">
         <v>2561</v>
-      </c>
-      <c r="L535" s="57" t="s">
-        <v>2487</v>
-      </c>
-      <c r="M535" s="10"/>
-      <c r="N535" s="124" t="s">
-        <v>2511</v>
       </c>
     </row>
     <row r="536" spans="1:14" s="1" customFormat="1" ht="34">
@@ -30559,7 +30563,7 @@
       <c r="J536" s="18">
         <v>286702</v>
       </c>
-      <c r="K536" s="149">
+      <c r="K536" s="148">
         <v>789564000</v>
       </c>
       <c r="L536" s="57" t="s">
@@ -30596,15 +30600,15 @@
         <v>1526</v>
       </c>
       <c r="J537" s="18"/>
-      <c r="K537" s="149">
+      <c r="K537" s="148">
         <v>1193554003</v>
       </c>
       <c r="L537" s="57" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="M537" s="10"/>
-      <c r="N537" s="169" t="s">
-        <v>2488</v>
+      <c r="N537" s="167" t="s">
+        <v>2487</v>
       </c>
     </row>
     <row r="538" spans="1:14" s="1" customFormat="1" ht="34">
@@ -30637,10 +30641,10 @@
       <c r="J538" s="18">
         <v>45797</v>
       </c>
-      <c r="K538" s="164">
+      <c r="K538" s="162">
         <v>76838003</v>
       </c>
-      <c r="L538" s="146" t="s">
+      <c r="L538" s="145" t="s">
         <v>2063</v>
       </c>
       <c r="M538" s="122" t="s">
@@ -30678,10 +30682,10 @@
       <c r="J539" s="18">
         <v>45796</v>
       </c>
-      <c r="K539" s="164">
+      <c r="K539" s="162">
         <v>76838003</v>
       </c>
-      <c r="L539" s="146" t="s">
+      <c r="L539" s="145" t="s">
         <v>2063</v>
       </c>
       <c r="M539" s="122" t="s">
@@ -30721,7 +30725,7 @@
       <c r="J540" s="18">
         <v>57419</v>
       </c>
-      <c r="K540" s="149">
+      <c r="K540" s="148">
         <v>55060009</v>
       </c>
       <c r="L540" s="57" t="s">
@@ -30764,7 +30768,7 @@
       <c r="J541" s="18">
         <v>57418</v>
       </c>
-      <c r="K541" s="149">
+      <c r="K541" s="148">
         <v>55060009</v>
       </c>
       <c r="L541" s="57" t="s">
@@ -30805,7 +30809,7 @@
       <c r="J542" s="26">
         <v>15710</v>
       </c>
-      <c r="K542" s="165">
+      <c r="K542" s="163">
         <v>41178004</v>
       </c>
       <c r="L542" s="57" t="s">
@@ -30846,7 +30850,7 @@
       <c r="J543" s="18">
         <v>57717</v>
       </c>
-      <c r="K543" s="149">
+      <c r="K543" s="148">
         <v>15924003</v>
       </c>
       <c r="L543" s="57" t="s">
@@ -30889,7 +30893,7 @@
       <c r="J544" s="18">
         <v>57716</v>
       </c>
-      <c r="K544" s="149">
+      <c r="K544" s="148">
         <v>15924003</v>
       </c>
       <c r="L544" s="57" t="s">
@@ -30930,7 +30934,7 @@
       <c r="J545" s="18">
         <v>9680</v>
       </c>
-      <c r="K545" s="149">
+      <c r="K545" s="148">
         <v>61853006</v>
       </c>
       <c r="L545" s="57" t="s">
@@ -30971,7 +30975,7 @@
       <c r="J546" s="18">
         <v>54708</v>
       </c>
-      <c r="K546" s="149">
+      <c r="K546" s="148">
         <v>24999009</v>
       </c>
       <c r="L546" s="57" t="s">
@@ -31014,7 +31018,7 @@
       <c r="J547" s="18">
         <v>54707</v>
       </c>
-      <c r="K547" s="149">
+      <c r="K547" s="148">
         <v>24999009</v>
       </c>
       <c r="L547" s="57" t="s">
@@ -31055,7 +31059,7 @@
       <c r="J548" s="18">
         <v>7647</v>
       </c>
-      <c r="K548" s="149">
+      <c r="K548" s="148">
         <v>2748008</v>
       </c>
       <c r="L548" s="57" t="s">
@@ -31094,7 +31098,7 @@
       <c r="J549" s="18">
         <v>71166</v>
       </c>
-      <c r="K549" s="149">
+      <c r="K549" s="148">
         <v>54785003</v>
       </c>
       <c r="L549" s="57" t="s">
@@ -31133,7 +31137,7 @@
       <c r="J550" s="18">
         <v>71168</v>
       </c>
-      <c r="K550" s="149">
+      <c r="K550" s="148">
         <v>60051002</v>
       </c>
       <c r="L550" s="57" t="s">
@@ -31172,7 +31176,7 @@
       <c r="J551" s="18">
         <v>46565</v>
       </c>
-      <c r="K551" s="149">
+      <c r="K551" s="148">
         <v>89546000</v>
       </c>
       <c r="L551" s="57" t="s">
@@ -31211,7 +31215,7 @@
       <c r="J552" s="18">
         <v>256623</v>
       </c>
-      <c r="K552" s="149">
+      <c r="K552" s="148">
         <v>11478001</v>
       </c>
       <c r="L552" s="57" t="s">
@@ -31250,7 +31254,7 @@
       <c r="J553" s="18">
         <v>71167</v>
       </c>
-      <c r="K553" s="149">
+      <c r="K553" s="148">
         <v>50800009</v>
       </c>
       <c r="L553" s="57" t="s">
@@ -31287,7 +31291,7 @@
       <c r="J554" s="18">
         <v>19617</v>
       </c>
-      <c r="K554" s="149">
+      <c r="K554" s="148">
         <v>25270003</v>
       </c>
       <c r="L554" s="57" t="s">
@@ -31326,7 +31330,7 @@
         <v>585</v>
       </c>
       <c r="J555" s="18"/>
-      <c r="K555" s="149">
+      <c r="K555" s="148">
         <v>789564000</v>
       </c>
       <c r="L555" s="57" t="s">
@@ -31335,8 +31339,8 @@
       <c r="M555" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N555" s="128" t="s">
-        <v>2534</v>
+      <c r="N555" s="127" t="s">
+        <v>2531</v>
       </c>
     </row>
     <row r="556" spans="1:14" s="1" customFormat="1" ht="34">
@@ -31369,7 +31373,7 @@
         <v>586</v>
       </c>
       <c r="J556" s="18"/>
-      <c r="K556" s="149">
+      <c r="K556" s="148">
         <v>789564000</v>
       </c>
       <c r="L556" s="57" t="s">
@@ -31378,8 +31382,8 @@
       <c r="M556" s="10" t="s">
         <v>2378</v>
       </c>
-      <c r="N556" s="128" t="s">
-        <v>2534</v>
+      <c r="N556" s="127" t="s">
+        <v>2531</v>
       </c>
     </row>
     <row r="557" spans="1:14" s="1" customFormat="1" ht="17">
@@ -31412,7 +31416,7 @@
       <c r="J557" s="18">
         <v>52751</v>
       </c>
-      <c r="K557" s="149">
+      <c r="K557" s="148">
         <v>22718006</v>
       </c>
       <c r="L557" s="57" t="s">
@@ -31449,7 +31453,7 @@
       <c r="J558" s="18">
         <v>7148</v>
       </c>
-      <c r="K558" s="149">
+      <c r="K558" s="148">
         <v>69695003</v>
       </c>
       <c r="L558" s="57" t="s">
@@ -31488,17 +31492,17 @@
         <v>607</v>
       </c>
       <c r="J559" s="18"/>
-      <c r="K559" s="172">
+      <c r="K559" s="170">
         <v>1193554003</v>
       </c>
       <c r="L559" s="57" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="M559" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N559" s="173" t="s">
-        <v>2488</v>
+      <c r="N559" s="171" t="s">
+        <v>2487</v>
       </c>
     </row>
     <row r="560" spans="1:14" s="1" customFormat="1" ht="34">
@@ -31531,17 +31535,17 @@
         <v>607</v>
       </c>
       <c r="J560" s="18"/>
-      <c r="K560" s="172">
+      <c r="K560" s="170">
         <v>1193554003</v>
       </c>
       <c r="L560" s="57" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="M560" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N560" s="173" t="s">
-        <v>2488</v>
+      <c r="N560" s="171" t="s">
+        <v>2487</v>
       </c>
     </row>
     <row r="561" spans="1:14" s="1" customFormat="1" ht="34">
@@ -31570,7 +31574,7 @@
         <v>1853</v>
       </c>
       <c r="J561" s="26"/>
-      <c r="K561" s="149">
+      <c r="K561" s="148">
         <v>75415000</v>
       </c>
       <c r="L561" s="57" t="s">
@@ -31593,22 +31597,22 @@
         <f t="shared" ref="F562:F563" si="17">LEN(G562)</f>
         <v>10</v>
       </c>
-      <c r="G562" s="126" t="s">
-        <v>2555</v>
+      <c r="G562" s="125" t="s">
+        <v>2552</v>
       </c>
       <c r="H562" s="24" t="s">
         <v>1873</v>
       </c>
       <c r="I562" s="37"/>
       <c r="J562" s="21"/>
-      <c r="K562" s="149">
+      <c r="K562" s="148">
         <v>67548002</v>
       </c>
       <c r="L562" s="57" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="M562" s="10"/>
-      <c r="N562" s="137"/>
+      <c r="N562" s="136"/>
     </row>
     <row r="563" spans="1:14" s="1" customFormat="1">
       <c r="A563" s="56"/>
@@ -31624,22 +31628,22 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="G563" s="126" t="s">
-        <v>2556</v>
+      <c r="G563" s="125" t="s">
+        <v>2553</v>
       </c>
       <c r="H563" s="24" t="s">
         <v>1873</v>
       </c>
       <c r="I563" s="37"/>
       <c r="J563" s="21"/>
-      <c r="K563" s="149">
+      <c r="K563" s="148">
         <v>13014005</v>
       </c>
-      <c r="L563" s="140" t="s">
-        <v>2558</v>
+      <c r="L563" s="139" t="s">
+        <v>2555</v>
       </c>
       <c r="M563" s="10"/>
-      <c r="N563" s="137"/>
+      <c r="N563" s="136"/>
     </row>
     <row r="564" spans="1:14" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A564" s="56"/>
@@ -31664,16 +31668,16 @@
         <v>1890</v>
       </c>
       <c r="I564" s="37" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="J564" s="14">
         <v>242787</v>
       </c>
-      <c r="K564" s="149">
+      <c r="K564" s="148">
         <v>8997002</v>
       </c>
       <c r="L564" s="100" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="M564" s="10"/>
       <c r="N564" s="11"/>
@@ -31704,7 +31708,7 @@
       <c r="J565" s="22">
         <v>9721</v>
       </c>
-      <c r="K565" s="149">
+      <c r="K565" s="148">
         <v>13024002</v>
       </c>
       <c r="L565" s="57" t="s">
@@ -31739,7 +31743,7 @@
       <c r="J566" s="22">
         <v>46900</v>
       </c>
-      <c r="K566" s="149">
+      <c r="K566" s="148">
         <v>70567001</v>
       </c>
       <c r="L566" s="57" t="s">
@@ -31778,7 +31782,7 @@
       <c r="J567" s="18">
         <v>7210</v>
       </c>
-      <c r="K567" s="149">
+      <c r="K567" s="148">
         <v>40689003</v>
       </c>
       <c r="L567" s="57" t="s">
@@ -31817,7 +31821,7 @@
       <c r="J570" s="18">
         <v>83720</v>
       </c>
-      <c r="K570" s="157">
+      <c r="K570" s="156">
         <v>37554007</v>
       </c>
       <c r="L570" s="121" t="s">
@@ -31856,7 +31860,7 @@
       <c r="J571" s="18">
         <v>5031</v>
       </c>
-      <c r="K571" s="149">
+      <c r="K571" s="148">
         <v>1732005</v>
       </c>
       <c r="L571" s="57" t="s">
@@ -31895,7 +31899,7 @@
       <c r="J572" s="18">
         <v>7196</v>
       </c>
-      <c r="K572" s="150">
+      <c r="K572" s="149">
         <v>78961009</v>
       </c>
       <c r="L572" s="80" t="s">
@@ -31934,7 +31938,7 @@
       <c r="J573" s="18">
         <v>15841</v>
       </c>
-      <c r="K573" s="150">
+      <c r="K573" s="149">
         <v>35378004</v>
       </c>
       <c r="L573" s="80" t="s">
@@ -31973,7 +31977,7 @@
       <c r="J574" s="18">
         <v>54640</v>
       </c>
-      <c r="K574" s="149">
+      <c r="K574" s="148">
         <v>21974007</v>
       </c>
       <c r="L574" s="57" t="s">
@@ -32008,11 +32012,11 @@
       </c>
       <c r="I575" s="63"/>
       <c r="J575" s="27"/>
-      <c r="K575" s="150">
+      <c r="K575" s="149">
         <v>181226008</v>
       </c>
       <c r="L575" s="57" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="M575" s="10"/>
       <c r="N575" s="11"/>
@@ -32049,7 +32053,7 @@
       <c r="J576" s="18">
         <v>74049</v>
       </c>
-      <c r="K576" s="149">
+      <c r="K576" s="148">
         <v>22718006</v>
       </c>
       <c r="L576" s="57" t="s">
@@ -32090,7 +32094,7 @@
       <c r="J577" s="18">
         <v>74048</v>
       </c>
-      <c r="K577" s="149">
+      <c r="K577" s="148">
         <v>22718006</v>
       </c>
       <c r="L577" s="57" t="s">
@@ -32127,15 +32131,15 @@
       <c r="J578" s="26">
         <v>54645</v>
       </c>
-      <c r="K578" s="149">
+      <c r="K578" s="148">
         <v>47975008</v>
       </c>
       <c r="L578" s="57" t="s">
         <v>2456</v>
       </c>
       <c r="M578" s="10"/>
-      <c r="N578" s="128" t="s">
-        <v>2503</v>
+      <c r="N578" s="127" t="s">
+        <v>2502</v>
       </c>
     </row>
     <row r="579" spans="1:14" s="1" customFormat="1" ht="17">
@@ -32166,15 +32170,15 @@
       <c r="J579" s="26">
         <v>54644</v>
       </c>
-      <c r="K579" s="157">
+      <c r="K579" s="156">
         <v>61344008</v>
       </c>
-      <c r="L579" s="141" t="s">
-        <v>2547</v>
+      <c r="L579" s="140" t="s">
+        <v>2544</v>
       </c>
       <c r="M579" s="10"/>
-      <c r="N579" s="131" t="s">
-        <v>2521</v>
+      <c r="N579" s="130" t="s">
+        <v>2518</v>
       </c>
     </row>
     <row r="580" spans="1:14" s="1" customFormat="1" ht="17">
@@ -32205,15 +32209,15 @@
       <c r="J580" s="26">
         <v>281502</v>
       </c>
-      <c r="K580" s="157">
+      <c r="K580" s="156">
         <v>61344008</v>
       </c>
-      <c r="L580" s="141" t="s">
-        <v>2547</v>
+      <c r="L580" s="140" t="s">
+        <v>2544</v>
       </c>
       <c r="M580" s="10"/>
-      <c r="N580" s="131" t="s">
-        <v>2521</v>
+      <c r="N580" s="130" t="s">
+        <v>2518</v>
       </c>
     </row>
     <row r="581" spans="1:14" s="1" customFormat="1" ht="17">
@@ -32246,14 +32250,14 @@
       <c r="J581" s="18">
         <v>7394</v>
       </c>
-      <c r="K581" s="149">
+      <c r="K581" s="148">
         <v>44567001</v>
       </c>
       <c r="L581" s="57" t="s">
         <v>2307</v>
       </c>
       <c r="M581" s="10"/>
-      <c r="N581" s="128"/>
+      <c r="N581" s="127"/>
     </row>
     <row r="582" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A582" s="56"/>
@@ -32283,7 +32287,7 @@
         <v>1509</v>
       </c>
       <c r="J582" s="18"/>
-      <c r="K582" s="149">
+      <c r="K582" s="148">
         <v>44567001</v>
       </c>
       <c r="L582" s="57" t="s">
@@ -32292,7 +32296,7 @@
       <c r="M582" s="10" t="s">
         <v>2183</v>
       </c>
-      <c r="N582" s="128"/>
+      <c r="N582" s="127"/>
     </row>
     <row r="583" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A583" s="56"/>
@@ -32323,7 +32327,7 @@
       <c r="J583" s="18">
         <v>264814</v>
       </c>
-      <c r="K583" s="149">
+      <c r="K583" s="148">
         <v>87953007</v>
       </c>
       <c r="L583" s="57" t="s">
@@ -32332,7 +32336,7 @@
       <c r="M583" s="10" t="s">
         <v>2196</v>
       </c>
-      <c r="N583" s="128"/>
+      <c r="N583" s="127"/>
     </row>
     <row r="584" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A584" s="56"/>
@@ -32364,14 +32368,14 @@
       <c r="J584" s="18">
         <v>19667</v>
       </c>
-      <c r="K584" s="149">
+      <c r="K584" s="148">
         <v>13648007</v>
       </c>
       <c r="L584" s="57" t="s">
         <v>2389</v>
       </c>
       <c r="M584" s="10"/>
-      <c r="N584" s="128"/>
+      <c r="N584" s="127"/>
     </row>
     <row r="585" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A585" s="56"/>
@@ -32401,14 +32405,14 @@
         <v>1996</v>
       </c>
       <c r="J585" s="18"/>
-      <c r="K585" s="149">
+      <c r="K585" s="148">
         <v>71553001</v>
       </c>
       <c r="L585" s="57" t="s">
         <v>2390</v>
       </c>
       <c r="M585" s="10"/>
-      <c r="N585" s="128"/>
+      <c r="N585" s="127"/>
     </row>
     <row r="586" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A586" s="56" t="s">
@@ -32442,7 +32446,7 @@
       <c r="J586" s="18">
         <v>7212</v>
       </c>
-      <c r="K586" s="149">
+      <c r="K586" s="148">
         <v>40689003</v>
       </c>
       <c r="L586" s="57" t="s">
@@ -32451,7 +32455,7 @@
       <c r="M586" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N586" s="128"/>
+      <c r="N586" s="127"/>
     </row>
     <row r="587" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A587" s="56" t="s">
@@ -32485,7 +32489,7 @@
       <c r="J587" s="18">
         <v>7211</v>
       </c>
-      <c r="K587" s="149">
+      <c r="K587" s="148">
         <v>40689003</v>
       </c>
       <c r="L587" s="57" t="s">
@@ -32494,7 +32498,7 @@
       <c r="M587" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N587" s="128"/>
+      <c r="N587" s="127"/>
     </row>
     <row r="588" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A588" s="56"/>
@@ -32526,14 +32530,14 @@
       <c r="J588" s="18">
         <v>17558</v>
       </c>
-      <c r="K588" s="149">
+      <c r="K588" s="148">
         <v>35039007</v>
       </c>
       <c r="L588" s="57" t="s">
         <v>2368</v>
       </c>
       <c r="M588" s="10"/>
-      <c r="N588" s="128"/>
+      <c r="N588" s="127"/>
     </row>
     <row r="589" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A589" s="56"/>
@@ -32565,14 +32569,14 @@
       <c r="J589" s="18">
         <v>4838</v>
       </c>
-      <c r="K589" s="149">
+      <c r="K589" s="148">
         <v>72107004</v>
       </c>
       <c r="L589" s="57" t="s">
         <v>2391</v>
       </c>
       <c r="M589" s="10"/>
-      <c r="N589" s="128"/>
+      <c r="N589" s="127"/>
     </row>
     <row r="590" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A590" s="56"/>
@@ -32604,7 +32608,7 @@
       <c r="J590" s="18">
         <v>4761</v>
       </c>
-      <c r="K590" s="149">
+      <c r="K590" s="148">
         <v>8887007</v>
       </c>
       <c r="L590" s="57" t="s">
@@ -32613,7 +32617,7 @@
       <c r="M590" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N590" s="128"/>
+      <c r="N590" s="127"/>
     </row>
     <row r="591" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A591" s="56"/>
@@ -32645,7 +32649,7 @@
       <c r="J591" s="18">
         <v>4751</v>
       </c>
-      <c r="K591" s="149">
+      <c r="K591" s="148">
         <v>8887007</v>
       </c>
       <c r="L591" s="57" t="s">
@@ -32654,7 +32658,7 @@
       <c r="M591" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N591" s="128"/>
+      <c r="N591" s="127"/>
     </row>
     <row r="592" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A592" s="56"/>
@@ -32686,7 +32690,7 @@
       <c r="J592" s="18">
         <v>18886</v>
       </c>
-      <c r="K592" s="149">
+      <c r="K592" s="148">
         <v>63507001</v>
       </c>
       <c r="L592" s="57" t="s">
@@ -32695,7 +32699,7 @@
       <c r="M592" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N592" s="128"/>
+      <c r="N592" s="127"/>
     </row>
     <row r="593" spans="1:14" s="1" customFormat="1">
       <c r="A593" s="56" t="s">
@@ -32725,7 +32729,7 @@
       </c>
       <c r="I593" s="25"/>
       <c r="J593" s="26"/>
-      <c r="K593" s="149">
+      <c r="K593" s="148">
         <v>47975008</v>
       </c>
       <c r="L593" s="57" t="s">
@@ -32734,7 +32738,7 @@
       <c r="M593" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N593" s="128"/>
+      <c r="N593" s="127"/>
     </row>
     <row r="594" spans="1:14" s="1" customFormat="1">
       <c r="A594" s="56" t="s">
@@ -32764,7 +32768,7 @@
       </c>
       <c r="I594" s="25"/>
       <c r="J594" s="26"/>
-      <c r="K594" s="149">
+      <c r="K594" s="148">
         <v>47975008</v>
       </c>
       <c r="L594" s="57" t="s">
@@ -32773,7 +32777,7 @@
       <c r="M594" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N594" s="128"/>
+      <c r="N594" s="127"/>
     </row>
     <row r="595" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A595" s="56"/>
@@ -32805,7 +32809,7 @@
       <c r="J595" s="18">
         <v>18885</v>
       </c>
-      <c r="K595" s="149">
+      <c r="K595" s="148">
         <v>63507001</v>
       </c>
       <c r="L595" s="57" t="s">
@@ -32814,7 +32818,7 @@
       <c r="M595" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N595" s="128"/>
+      <c r="N595" s="127"/>
     </row>
     <row r="596" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A596" s="56"/>
@@ -32846,7 +32850,7 @@
       <c r="J596" s="18">
         <v>18810</v>
       </c>
-      <c r="K596" s="149">
+      <c r="K596" s="148">
         <v>40300007</v>
       </c>
       <c r="L596" s="57" t="s">
@@ -32855,7 +32859,7 @@
       <c r="M596" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N596" s="128"/>
+      <c r="N596" s="127"/>
     </row>
     <row r="597" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A597" s="56" t="s">
@@ -32887,17 +32891,17 @@
       <c r="J597" s="26">
         <v>281500</v>
       </c>
-      <c r="K597" s="157">
+      <c r="K597" s="156">
         <v>61344008</v>
       </c>
-      <c r="L597" s="141" t="s">
-        <v>2547</v>
-      </c>
-      <c r="M597" s="130" t="s">
+      <c r="L597" s="140" t="s">
+        <v>2544</v>
+      </c>
+      <c r="M597" s="129" t="s">
         <v>2038</v>
       </c>
-      <c r="N597" s="131" t="s">
-        <v>2521</v>
+      <c r="N597" s="130" t="s">
+        <v>2518</v>
       </c>
     </row>
     <row r="598" spans="1:14" s="1" customFormat="1">
@@ -32930,14 +32934,14 @@
       <c r="J598" s="26">
         <v>9609</v>
       </c>
-      <c r="K598" s="149">
+      <c r="K598" s="148">
         <v>75573002</v>
       </c>
       <c r="L598" s="57" t="s">
         <v>2437</v>
       </c>
       <c r="M598" s="10"/>
-      <c r="N598" s="128"/>
+      <c r="N598" s="127"/>
     </row>
     <row r="599" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A599" s="56"/>
@@ -32969,7 +32973,7 @@
       <c r="J599" s="18">
         <v>18809</v>
       </c>
-      <c r="K599" s="149">
+      <c r="K599" s="148">
         <v>40300007</v>
       </c>
       <c r="L599" s="57" t="s">
@@ -32978,7 +32982,7 @@
       <c r="M599" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N599" s="128"/>
+      <c r="N599" s="127"/>
     </row>
     <row r="600" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A600" s="56"/>
@@ -33010,7 +33014,7 @@
       <c r="J600" s="18">
         <v>21387</v>
       </c>
-      <c r="K600" s="149">
+      <c r="K600" s="148">
         <v>46027005</v>
       </c>
       <c r="L600" s="57" t="s">
@@ -33047,7 +33051,7 @@
         <v>1603</v>
       </c>
       <c r="J601" s="18"/>
-      <c r="K601" s="149">
+      <c r="K601" s="148">
         <v>1162492000</v>
       </c>
       <c r="L601" s="57" t="s">
@@ -33088,7 +33092,7 @@
       <c r="J602" s="18">
         <v>17888</v>
       </c>
-      <c r="K602" s="149">
+      <c r="K602" s="148">
         <v>87953007</v>
       </c>
       <c r="L602" s="57" t="s">
@@ -33131,7 +33135,7 @@
       <c r="J603" s="18">
         <v>17887</v>
       </c>
-      <c r="K603" s="149">
+      <c r="K603" s="148">
         <v>87953007</v>
       </c>
       <c r="L603" s="57" t="s">
@@ -33172,7 +33176,7 @@
       <c r="J604" s="18">
         <v>21388</v>
       </c>
-      <c r="K604" s="149">
+      <c r="K604" s="148">
         <v>46027005</v>
       </c>
       <c r="L604" s="57" t="s">
@@ -33213,7 +33217,7 @@
       <c r="J605" s="18">
         <v>13112</v>
       </c>
-      <c r="K605" s="150">
+      <c r="K605" s="149">
         <v>71585003</v>
       </c>
       <c r="L605" s="56" t="s">
@@ -33254,7 +33258,7 @@
       <c r="J606" s="18">
         <v>13111</v>
       </c>
-      <c r="K606" s="150">
+      <c r="K606" s="149">
         <v>71585003</v>
       </c>
       <c r="L606" s="56" t="s">
@@ -33295,7 +33299,7 @@
       <c r="J607" s="18">
         <v>4754</v>
       </c>
-      <c r="K607" s="149">
+      <c r="K607" s="148">
         <v>12123001</v>
       </c>
       <c r="L607" s="57" t="s">
@@ -33336,7 +33340,7 @@
       <c r="J608" s="18">
         <v>4762</v>
       </c>
-      <c r="K608" s="149">
+      <c r="K608" s="148">
         <v>12123001</v>
       </c>
       <c r="L608" s="57" t="s">
@@ -33377,7 +33381,7 @@
       <c r="J609" s="18">
         <v>66645</v>
       </c>
-      <c r="K609" s="149">
+      <c r="K609" s="148">
         <v>32764006</v>
       </c>
       <c r="L609" s="57" t="s">
@@ -33416,7 +33420,7 @@
       <c r="J610" s="18">
         <v>66643</v>
       </c>
-      <c r="K610" s="149">
+      <c r="K610" s="148">
         <v>430757002</v>
       </c>
       <c r="L610" s="57" t="s">
@@ -33455,7 +33459,7 @@
       <c r="J611" s="18">
         <v>4725</v>
       </c>
-      <c r="K611" s="149">
+      <c r="K611" s="148">
         <v>9454009</v>
       </c>
       <c r="L611" s="57" t="s">
@@ -33494,7 +33498,7 @@
       <c r="J612" s="18">
         <v>10951</v>
       </c>
-      <c r="K612" s="149">
+      <c r="K612" s="148">
         <v>35532006</v>
       </c>
       <c r="L612" s="57" t="s">
@@ -33535,7 +33539,7 @@
       <c r="J613" s="18">
         <v>4720</v>
       </c>
-      <c r="K613" s="149">
+      <c r="K613" s="148">
         <v>35532006</v>
       </c>
       <c r="L613" s="57" t="s">
@@ -33576,7 +33580,7 @@
       <c r="J614" s="18">
         <v>19949</v>
       </c>
-      <c r="K614" s="149">
+      <c r="K614" s="148">
         <v>76784001</v>
       </c>
       <c r="L614" s="57" t="s">
@@ -33611,7 +33615,7 @@
       </c>
       <c r="I615" s="17"/>
       <c r="J615" s="18"/>
-      <c r="K615" s="149">
+      <c r="K615" s="148">
         <v>279894000</v>
       </c>
       <c r="L615" s="57" t="s">
@@ -33648,7 +33652,7 @@
         <v>1610</v>
       </c>
       <c r="J616" s="18"/>
-      <c r="K616" s="149">
+      <c r="K616" s="148">
         <v>438074005</v>
       </c>
       <c r="L616" s="57" t="s">
@@ -33683,11 +33687,11 @@
         <v>1632</v>
       </c>
       <c r="J617" s="26"/>
-      <c r="K617" s="164">
+      <c r="K617" s="162">
         <v>17401000</v>
       </c>
       <c r="L617" s="121" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="M617" s="10"/>
       <c r="N617" s="11"/>
@@ -33720,7 +33724,7 @@
         <v>1515</v>
       </c>
       <c r="J618" s="18"/>
-      <c r="K618" s="149">
+      <c r="K618" s="148">
         <v>63190004</v>
       </c>
       <c r="L618" s="57" t="s">
@@ -33759,7 +33763,7 @@
       <c r="J619" s="26">
         <v>7235</v>
       </c>
-      <c r="K619" s="149">
+      <c r="K619" s="148">
         <v>91134007</v>
       </c>
       <c r="L619" s="57" t="s">
@@ -33796,7 +33800,7 @@
       <c r="J620" s="26">
         <v>7246</v>
       </c>
-      <c r="K620" s="149">
+      <c r="K620" s="148">
         <v>39057004</v>
       </c>
       <c r="L620" s="57" t="s">
@@ -33835,7 +33839,7 @@
       <c r="J621" s="26">
         <v>7234</v>
       </c>
-      <c r="K621" s="149">
+      <c r="K621" s="148">
         <v>46030003</v>
       </c>
       <c r="L621" s="57" t="s">
@@ -33874,7 +33878,7 @@
       <c r="J622" s="18">
         <v>7100</v>
       </c>
-      <c r="K622" s="149">
+      <c r="K622" s="148">
         <v>21814001</v>
       </c>
       <c r="L622" s="57" t="s">
@@ -33913,7 +33917,7 @@
       <c r="J623" s="18">
         <v>7101</v>
       </c>
-      <c r="K623" s="149">
+      <c r="K623" s="148">
         <v>21814001</v>
       </c>
       <c r="L623" s="57" t="s">
@@ -33954,7 +33958,7 @@
       <c r="J624" s="18">
         <v>7098</v>
       </c>
-      <c r="K624" s="149">
+      <c r="K624" s="148">
         <v>21814001</v>
       </c>
       <c r="L624" s="57" t="s">
@@ -33997,7 +34001,7 @@
       <c r="J625" s="18">
         <v>4763</v>
       </c>
-      <c r="K625" s="149">
+      <c r="K625" s="148">
         <v>9454009</v>
       </c>
       <c r="L625" s="57" t="s">
@@ -34040,7 +34044,7 @@
       <c r="J626" s="18">
         <v>4755</v>
       </c>
-      <c r="K626" s="149">
+      <c r="K626" s="148">
         <v>9454009</v>
       </c>
       <c r="L626" s="57" t="s">
@@ -34079,7 +34083,7 @@
       <c r="J627" s="18">
         <v>323919</v>
       </c>
-      <c r="K627" s="149">
+      <c r="K627" s="148">
         <v>46105003</v>
       </c>
       <c r="L627" s="57" t="s">
@@ -34120,7 +34124,7 @@
       <c r="J628" s="18">
         <v>20462</v>
       </c>
-      <c r="K628" s="149">
+      <c r="K628" s="148">
         <v>45292006</v>
       </c>
       <c r="L628" s="57" t="s">
@@ -34159,7 +34163,7 @@
       <c r="J629" s="22">
         <v>19971</v>
       </c>
-      <c r="K629" s="149">
+      <c r="K629" s="148">
         <v>263355003</v>
       </c>
       <c r="L629" s="57" t="s">
@@ -34196,11 +34200,11 @@
       <c r="J630" s="18">
         <v>256135</v>
       </c>
-      <c r="K630" s="166">
+      <c r="K630" s="164">
         <v>38266002</v>
       </c>
       <c r="L630" s="121" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="M630" s="10"/>
       <c r="N630" s="11"/>
@@ -34233,11 +34237,11 @@
         <v>1506</v>
       </c>
       <c r="J631" s="18"/>
-      <c r="K631" s="149">
+      <c r="K631" s="148">
         <v>75330005</v>
       </c>
       <c r="L631" s="100" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="M631" s="10"/>
       <c r="N631" s="29"/>
@@ -34272,7 +34276,7 @@
       <c r="J632" s="18">
         <v>55099</v>
       </c>
-      <c r="K632" s="165">
+      <c r="K632" s="163">
         <v>52940008</v>
       </c>
       <c r="L632" s="86" t="s">
@@ -34307,7 +34311,7 @@
         <v>2232</v>
       </c>
       <c r="J633" s="21"/>
-      <c r="K633" s="157">
+      <c r="K633" s="156">
         <v>15328005</v>
       </c>
       <c r="L633" s="121" t="s">
@@ -34346,7 +34350,7 @@
       <c r="J634" s="26">
         <v>7236</v>
       </c>
-      <c r="K634" s="149">
+      <c r="K634" s="148">
         <v>34202007</v>
       </c>
       <c r="L634" s="77" t="s">
@@ -34385,7 +34389,7 @@
       <c r="J635" s="18">
         <v>24043</v>
       </c>
-      <c r="K635" s="149">
+      <c r="K635" s="148">
         <v>1172006</v>
       </c>
       <c r="L635" s="57" t="s">
@@ -34420,7 +34424,7 @@
         <v>1446</v>
       </c>
       <c r="J636" s="18"/>
-      <c r="K636" s="149">
+      <c r="K636" s="148">
         <v>123037004</v>
       </c>
       <c r="L636" s="57" t="s">
@@ -34459,7 +34463,7 @@
         <v>651</v>
       </c>
       <c r="J637" s="18"/>
-      <c r="K637" s="149">
+      <c r="K637" s="148">
         <v>3572006</v>
       </c>
       <c r="L637" s="57" t="s">
@@ -34498,7 +34502,7 @@
       <c r="J638" s="18">
         <v>72063</v>
       </c>
-      <c r="K638" s="149">
+      <c r="K638" s="148">
         <v>3572006</v>
       </c>
       <c r="L638" s="57" t="s">
@@ -34537,7 +34541,7 @@
       <c r="J639" s="18">
         <v>12519</v>
       </c>
-      <c r="K639" s="149">
+      <c r="K639" s="148">
         <v>14806007</v>
       </c>
       <c r="L639" s="57" t="s">
@@ -34576,7 +34580,7 @@
       <c r="J640" s="18">
         <v>12520</v>
       </c>
-      <c r="K640" s="149">
+      <c r="K640" s="148">
         <v>39976000</v>
       </c>
       <c r="L640" s="57" t="s">
@@ -34615,7 +34619,7 @@
       <c r="J641" s="18">
         <v>12521</v>
       </c>
-      <c r="K641" s="149">
+      <c r="K641" s="148">
         <v>91116008</v>
       </c>
       <c r="L641" s="57" t="s">
@@ -34654,7 +34658,7 @@
       <c r="J642" s="18">
         <v>12522</v>
       </c>
-      <c r="K642" s="149">
+      <c r="K642" s="148">
         <v>14705001</v>
       </c>
       <c r="L642" s="57" t="s">
@@ -34693,7 +34697,7 @@
       <c r="J643" s="18">
         <v>12523</v>
       </c>
-      <c r="K643" s="149">
+      <c r="K643" s="148">
         <v>67479001</v>
       </c>
       <c r="L643" s="57" t="s">
@@ -34732,7 +34736,7 @@
       <c r="J644" s="18">
         <v>12524</v>
       </c>
-      <c r="K644" s="149">
+      <c r="K644" s="148">
         <v>88298007</v>
       </c>
       <c r="L644" s="57" t="s">
@@ -34771,7 +34775,7 @@
       <c r="J645" s="18">
         <v>12525</v>
       </c>
-      <c r="K645" s="149">
+      <c r="K645" s="148">
         <v>16126006</v>
       </c>
       <c r="L645" s="57" t="s">
@@ -34810,7 +34814,7 @@
       <c r="J646" s="18">
         <v>72065</v>
       </c>
-      <c r="K646" s="149">
+      <c r="K646" s="148">
         <v>73903008</v>
       </c>
       <c r="L646" s="57" t="s">
@@ -34849,7 +34853,7 @@
       <c r="J647" s="18">
         <v>13072</v>
       </c>
-      <c r="K647" s="149">
+      <c r="K647" s="148">
         <v>61032001</v>
       </c>
       <c r="L647" s="57" t="s">
@@ -34888,7 +34892,7 @@
       <c r="J648" s="18">
         <v>13073</v>
       </c>
-      <c r="K648" s="149">
+      <c r="K648" s="148">
         <v>53983007</v>
       </c>
       <c r="L648" s="57" t="s">
@@ -34927,7 +34931,7 @@
       <c r="J649" s="18">
         <v>13074</v>
       </c>
-      <c r="K649" s="149">
+      <c r="K649" s="148">
         <v>55492004</v>
       </c>
       <c r="L649" s="57" t="s">
@@ -34966,7 +34970,7 @@
       <c r="J650" s="18">
         <v>13075</v>
       </c>
-      <c r="K650" s="149">
+      <c r="K650" s="148">
         <v>71996003</v>
       </c>
       <c r="L650" s="57" t="s">
@@ -35005,7 +35009,7 @@
       <c r="J651" s="18">
         <v>13076</v>
       </c>
-      <c r="K651" s="149">
+      <c r="K651" s="148">
         <v>21799000</v>
       </c>
       <c r="L651" s="57" t="s">
@@ -35044,7 +35048,7 @@
       <c r="J652" s="18">
         <v>12526</v>
       </c>
-      <c r="K652" s="149">
+      <c r="K652" s="148">
         <v>87141009</v>
       </c>
       <c r="L652" s="57" t="s">
@@ -35083,7 +35087,7 @@
       <c r="J653" s="18">
         <v>13077</v>
       </c>
-      <c r="K653" s="149">
+      <c r="K653" s="148">
         <v>65985001</v>
       </c>
       <c r="L653" s="57" t="s">
@@ -35122,7 +35126,7 @@
       <c r="J654" s="18">
         <v>13078</v>
       </c>
-      <c r="K654" s="149">
+      <c r="K654" s="148">
         <v>11808007</v>
       </c>
       <c r="L654" s="57" t="s">
@@ -35161,7 +35165,7 @@
       <c r="J655" s="18">
         <v>13079</v>
       </c>
-      <c r="K655" s="149">
+      <c r="K655" s="148">
         <v>49967005</v>
       </c>
       <c r="L655" s="57" t="s">
@@ -35200,7 +35204,7 @@
       <c r="J656" s="18">
         <v>13080</v>
       </c>
-      <c r="K656" s="149">
+      <c r="K656" s="148">
         <v>69950008</v>
       </c>
       <c r="L656" s="57" t="s">
@@ -35239,7 +35243,7 @@
       <c r="J657" s="18">
         <v>13081</v>
       </c>
-      <c r="K657" s="149">
+      <c r="K657" s="148">
         <v>21452006</v>
       </c>
       <c r="L657" s="57" t="s">
@@ -35278,7 +35282,7 @@
       <c r="J658" s="18">
         <v>9139</v>
       </c>
-      <c r="K658" s="149">
+      <c r="K658" s="148">
         <v>35769007</v>
       </c>
       <c r="L658" s="57" t="s">
@@ -35317,7 +35321,7 @@
       <c r="J659" s="18">
         <v>9165</v>
       </c>
-      <c r="K659" s="149">
+      <c r="K659" s="148">
         <v>56094003</v>
       </c>
       <c r="L659" s="57" t="s">
@@ -35356,7 +35360,7 @@
       <c r="J660" s="18">
         <v>9187</v>
       </c>
-      <c r="K660" s="149">
+      <c r="K660" s="148">
         <v>50060007</v>
       </c>
       <c r="L660" s="57" t="s">
@@ -35395,7 +35399,7 @@
       <c r="J661" s="18">
         <v>9209</v>
       </c>
-      <c r="K661" s="149">
+      <c r="K661" s="148">
         <v>73138009</v>
       </c>
       <c r="L661" s="57" t="s">
@@ -35434,7 +35438,7 @@
       <c r="J662" s="18">
         <v>9248</v>
       </c>
-      <c r="K662" s="149">
+      <c r="K662" s="148">
         <v>86197001</v>
       </c>
       <c r="L662" s="57" t="s">
@@ -35473,7 +35477,7 @@
       <c r="J663" s="18">
         <v>9922</v>
       </c>
-      <c r="K663" s="149">
+      <c r="K663" s="148">
         <v>6105006</v>
       </c>
       <c r="L663" s="57" t="s">
@@ -35512,7 +35516,7 @@
       <c r="J664" s="18">
         <v>9945</v>
       </c>
-      <c r="K664" s="149">
+      <c r="K664" s="148">
         <v>32430008</v>
       </c>
       <c r="L664" s="57" t="s">
@@ -35551,7 +35555,7 @@
       <c r="J665" s="18">
         <v>9968</v>
       </c>
-      <c r="K665" s="149">
+      <c r="K665" s="148">
         <v>71737002</v>
       </c>
       <c r="L665" s="57" t="s">
@@ -35590,7 +35594,7 @@
       <c r="J666" s="18">
         <v>9991</v>
       </c>
-      <c r="K666" s="149">
+      <c r="K666" s="148">
         <v>77435000</v>
       </c>
       <c r="L666" s="57" t="s">
@@ -35629,7 +35633,7 @@
       <c r="J667" s="18">
         <v>10014</v>
       </c>
-      <c r="K667" s="149">
+      <c r="K667" s="148">
         <v>33766003</v>
       </c>
       <c r="L667" s="57" t="s">
@@ -35668,7 +35672,7 @@
       <c r="J668" s="18">
         <v>10037</v>
       </c>
-      <c r="K668" s="149">
+      <c r="K668" s="148">
         <v>48405002</v>
       </c>
       <c r="L668" s="57" t="s">
@@ -35707,7 +35711,7 @@
       <c r="J669" s="18">
         <v>10059</v>
       </c>
-      <c r="K669" s="149">
+      <c r="K669" s="148">
         <v>52120002</v>
       </c>
       <c r="L669" s="57" t="s">
@@ -35746,7 +35750,7 @@
       <c r="J670" s="18">
         <v>10081</v>
       </c>
-      <c r="K670" s="149">
+      <c r="K670" s="148">
         <v>280849005</v>
       </c>
       <c r="L670" s="57" t="s">
@@ -35785,15 +35789,15 @@
       <c r="J671" s="18" t="s">
         <v>2026</v>
       </c>
-      <c r="K671" s="172">
+      <c r="K671" s="170">
         <v>1186895000</v>
       </c>
       <c r="L671" s="57" t="s">
         <v>2179</v>
       </c>
       <c r="M671" s="10"/>
-      <c r="N671" s="173" t="s">
-        <v>2485</v>
+      <c r="N671" s="171" t="s">
+        <v>2484</v>
       </c>
     </row>
     <row r="672" spans="1:14" s="1" customFormat="1" ht="34">
@@ -35826,14 +35830,14 @@
       <c r="J672" s="26">
         <v>11945</v>
       </c>
-      <c r="K672" s="157">
+      <c r="K672" s="156">
         <v>3572006</v>
       </c>
       <c r="L672" s="121" t="s">
         <v>2145</v>
       </c>
-      <c r="M672" s="144" t="s">
-        <v>2546</v>
+      <c r="M672" s="143" t="s">
+        <v>2543</v>
       </c>
       <c r="N672" s="11" t="s">
         <v>2461</v>
@@ -35869,15 +35873,15 @@
       <c r="J673" s="26">
         <v>56429</v>
       </c>
-      <c r="K673" s="170">
+      <c r="K673" s="168">
         <v>1187337007</v>
       </c>
       <c r="L673" s="57" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="M673" s="10"/>
       <c r="N673" s="11" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="674" spans="1:14" s="1" customFormat="1" ht="17">
@@ -35910,7 +35914,7 @@
       <c r="J674" s="26">
         <v>54368</v>
       </c>
-      <c r="K674" s="149">
+      <c r="K674" s="148">
         <v>35763008</v>
       </c>
       <c r="L674" s="10" t="s">
@@ -35947,7 +35951,7 @@
       <c r="J675" s="18">
         <v>55459</v>
       </c>
-      <c r="K675" s="149">
+      <c r="K675" s="148">
         <v>46105003</v>
       </c>
       <c r="L675" s="57" t="s">
@@ -35986,7 +35990,7 @@
       <c r="J676" s="18">
         <v>55458</v>
       </c>
-      <c r="K676" s="149">
+      <c r="K676" s="148">
         <v>46105003</v>
       </c>
       <c r="L676" s="57" t="s">
@@ -36025,15 +36029,15 @@
       <c r="J677" s="67" t="s">
         <v>2026</v>
       </c>
-      <c r="K677" s="167">
+      <c r="K677" s="165">
         <v>1187336003</v>
       </c>
       <c r="L677" s="87" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="M677" s="88"/>
-      <c r="N677" s="171" t="s">
-        <v>2563</v>
+      <c r="N677" s="169" t="s">
+        <v>2558</v>
       </c>
     </row>
     <row r="678" spans="1:14" s="1" customFormat="1" ht="17">
@@ -36066,7 +36070,7 @@
       <c r="J678" s="59">
         <v>9710</v>
       </c>
-      <c r="K678" s="151">
+      <c r="K678" s="150">
         <v>87166008</v>
       </c>
       <c r="L678" s="75" t="s">
@@ -36105,7 +36109,7 @@
       <c r="J679" s="59">
         <v>54683</v>
       </c>
-      <c r="K679" s="151">
+      <c r="K679" s="150">
         <v>24999009</v>
       </c>
       <c r="L679" s="75" t="s">
@@ -36140,7 +36144,7 @@
         <v>1852</v>
       </c>
       <c r="J680" s="71"/>
-      <c r="K680" s="151">
+      <c r="K680" s="150">
         <v>123037004</v>
       </c>
       <c r="L680" s="75" t="s">
@@ -36160,7 +36164,7 @@
       <c r="H681" s="69"/>
       <c r="I681" s="72"/>
       <c r="J681" s="69"/>
-      <c r="K681" s="151"/>
+      <c r="K681" s="150"/>
       <c r="L681" s="75"/>
       <c r="M681" s="69"/>
       <c r="N681" s="89"/>
@@ -36176,7 +36180,7 @@
       <c r="H682" s="69"/>
       <c r="I682" s="72"/>
       <c r="J682" s="69"/>
-      <c r="K682" s="151"/>
+      <c r="K682" s="150"/>
       <c r="L682" s="56"/>
       <c r="M682" s="69"/>
       <c r="N682" s="89"/>
@@ -36192,7 +36196,7 @@
       <c r="H683" s="69"/>
       <c r="I683" s="72"/>
       <c r="J683" s="69"/>
-      <c r="K683" s="150"/>
+      <c r="K683" s="149"/>
       <c r="L683" s="75"/>
       <c r="M683" s="69"/>
       <c r="N683" s="89"/>
@@ -36208,7 +36212,7 @@
       <c r="H684" s="69"/>
       <c r="I684" s="72"/>
       <c r="J684" s="69"/>
-      <c r="K684" s="151"/>
+      <c r="K684" s="150"/>
       <c r="L684" s="75"/>
       <c r="M684" s="69"/>
       <c r="N684" s="89"/>
@@ -36224,7 +36228,7 @@
       <c r="H685" s="69"/>
       <c r="I685" s="72"/>
       <c r="J685" s="69"/>
-      <c r="K685" s="151"/>
+      <c r="K685" s="150"/>
       <c r="L685" s="75"/>
       <c r="M685" s="69"/>
       <c r="N685" s="89"/>
@@ -36240,7 +36244,7 @@
       <c r="H686" s="69"/>
       <c r="I686" s="72"/>
       <c r="J686" s="69"/>
-      <c r="K686" s="151"/>
+      <c r="K686" s="150"/>
       <c r="L686" s="75"/>
       <c r="M686" s="69"/>
       <c r="N686" s="89"/>
@@ -36256,7 +36260,7 @@
       <c r="H687" s="69"/>
       <c r="I687" s="72"/>
       <c r="J687" s="69"/>
-      <c r="K687" s="151"/>
+      <c r="K687" s="150"/>
       <c r="L687" s="75"/>
       <c r="M687" s="69"/>
       <c r="N687" s="89"/>
@@ -36272,7 +36276,7 @@
       <c r="H688" s="69"/>
       <c r="I688" s="72"/>
       <c r="J688" s="69"/>
-      <c r="K688" s="151"/>
+      <c r="K688" s="150"/>
       <c r="L688" s="75"/>
       <c r="M688" s="69"/>
       <c r="N688" s="89"/>
@@ -36288,7 +36292,7 @@
       <c r="H689" s="69"/>
       <c r="I689" s="72"/>
       <c r="J689" s="69"/>
-      <c r="K689" s="151"/>
+      <c r="K689" s="150"/>
       <c r="L689" s="75"/>
       <c r="M689" s="69"/>
       <c r="N689" s="89"/>
@@ -36304,7 +36308,7 @@
       <c r="H690" s="69"/>
       <c r="I690" s="72"/>
       <c r="J690" s="69"/>
-      <c r="K690" s="151"/>
+      <c r="K690" s="150"/>
       <c r="L690" s="75"/>
       <c r="M690" s="69"/>
       <c r="N690" s="89"/>
@@ -36320,7 +36324,7 @@
       <c r="H691" s="69"/>
       <c r="I691" s="72"/>
       <c r="J691" s="69"/>
-      <c r="K691" s="151"/>
+      <c r="K691" s="150"/>
       <c r="L691" s="75"/>
       <c r="M691" s="69"/>
       <c r="N691" s="89"/>
@@ -36336,7 +36340,7 @@
       <c r="H692" s="69"/>
       <c r="I692" s="72"/>
       <c r="J692" s="69"/>
-      <c r="K692" s="151"/>
+      <c r="K692" s="150"/>
       <c r="L692" s="75"/>
       <c r="M692" s="69"/>
       <c r="N692" s="89"/>
@@ -36352,7 +36356,7 @@
       <c r="H693" s="69"/>
       <c r="I693" s="72"/>
       <c r="J693" s="69"/>
-      <c r="K693" s="151"/>
+      <c r="K693" s="150"/>
       <c r="L693" s="75"/>
       <c r="M693" s="69"/>
       <c r="N693" s="89"/>
@@ -36368,7 +36372,7 @@
       <c r="H694" s="69"/>
       <c r="I694" s="72"/>
       <c r="J694" s="69"/>
-      <c r="K694" s="151"/>
+      <c r="K694" s="150"/>
       <c r="L694" s="75"/>
       <c r="M694" s="69"/>
       <c r="N694" s="89"/>
@@ -36384,7 +36388,7 @@
       <c r="H695" s="69"/>
       <c r="I695" s="72"/>
       <c r="J695" s="69"/>
-      <c r="K695" s="151"/>
+      <c r="K695" s="150"/>
       <c r="L695" s="75"/>
       <c r="M695" s="69"/>
       <c r="N695" s="89"/>
@@ -36400,7 +36404,7 @@
       <c r="H696" s="69"/>
       <c r="I696" s="72"/>
       <c r="J696" s="69"/>
-      <c r="K696" s="151"/>
+      <c r="K696" s="150"/>
       <c r="L696" s="75"/>
       <c r="M696" s="69"/>
       <c r="N696" s="89"/>
@@ -36416,7 +36420,7 @@
       <c r="H697" s="69"/>
       <c r="I697" s="72"/>
       <c r="J697" s="69"/>
-      <c r="K697" s="151"/>
+      <c r="K697" s="150"/>
       <c r="L697" s="75"/>
       <c r="M697" s="69"/>
       <c r="N697" s="89"/>
@@ -36432,7 +36436,7 @@
       <c r="H698" s="69"/>
       <c r="I698" s="72"/>
       <c r="J698" s="69"/>
-      <c r="K698" s="151"/>
+      <c r="K698" s="150"/>
       <c r="L698" s="75"/>
       <c r="M698" s="69"/>
       <c r="N698" s="89"/>
@@ -36448,7 +36452,7 @@
       <c r="H699" s="69"/>
       <c r="I699" s="72"/>
       <c r="J699" s="69"/>
-      <c r="K699" s="151"/>
+      <c r="K699" s="150"/>
       <c r="L699" s="75"/>
       <c r="M699" s="69"/>
       <c r="N699" s="89"/>
@@ -36464,7 +36468,7 @@
       <c r="H700" s="69"/>
       <c r="I700" s="72"/>
       <c r="J700" s="69"/>
-      <c r="K700" s="151"/>
+      <c r="K700" s="150"/>
       <c r="L700" s="75"/>
       <c r="M700" s="69"/>
       <c r="N700" s="89"/>
@@ -36480,7 +36484,7 @@
       <c r="H701" s="69"/>
       <c r="I701" s="72"/>
       <c r="J701" s="69"/>
-      <c r="K701" s="151"/>
+      <c r="K701" s="150"/>
       <c r="L701" s="75"/>
       <c r="M701" s="69"/>
       <c r="N701" s="89"/>
@@ -36496,7 +36500,7 @@
       <c r="H702" s="69"/>
       <c r="I702" s="72"/>
       <c r="J702" s="69"/>
-      <c r="K702" s="151"/>
+      <c r="K702" s="150"/>
       <c r="L702" s="75"/>
       <c r="M702" s="69"/>
       <c r="N702" s="89"/>
@@ -36512,7 +36516,7 @@
       <c r="H703" s="69"/>
       <c r="I703" s="72"/>
       <c r="J703" s="69"/>
-      <c r="K703" s="151"/>
+      <c r="K703" s="150"/>
       <c r="L703" s="75"/>
       <c r="M703" s="69"/>
       <c r="N703" s="89"/>
@@ -36528,7 +36532,7 @@
       <c r="H704" s="69"/>
       <c r="I704" s="72"/>
       <c r="J704" s="69"/>
-      <c r="K704" s="151"/>
+      <c r="K704" s="150"/>
       <c r="L704" s="75"/>
       <c r="M704" s="69"/>
       <c r="N704" s="89"/>
@@ -36544,7 +36548,7 @@
       <c r="H705" s="69"/>
       <c r="I705" s="72"/>
       <c r="J705" s="69"/>
-      <c r="K705" s="151"/>
+      <c r="K705" s="150"/>
       <c r="L705" s="75"/>
       <c r="M705" s="69"/>
       <c r="N705" s="89"/>
@@ -36560,7 +36564,7 @@
       <c r="H706" s="69"/>
       <c r="I706" s="72"/>
       <c r="J706" s="69"/>
-      <c r="K706" s="151"/>
+      <c r="K706" s="150"/>
       <c r="L706" s="75"/>
       <c r="M706" s="69"/>
       <c r="N706" s="89"/>
@@ -36576,7 +36580,7 @@
       <c r="H707" s="69"/>
       <c r="I707" s="72"/>
       <c r="J707" s="69"/>
-      <c r="K707" s="151"/>
+      <c r="K707" s="150"/>
       <c r="L707" s="75"/>
       <c r="M707" s="69"/>
       <c r="N707" s="89"/>
@@ -36592,7 +36596,7 @@
       <c r="H708" s="69"/>
       <c r="I708" s="72"/>
       <c r="J708" s="69"/>
-      <c r="K708" s="151"/>
+      <c r="K708" s="150"/>
       <c r="L708" s="75"/>
       <c r="M708" s="69"/>
       <c r="N708" s="89"/>
@@ -36608,7 +36612,7 @@
       <c r="H709" s="69"/>
       <c r="I709" s="72"/>
       <c r="J709" s="69"/>
-      <c r="K709" s="151"/>
+      <c r="K709" s="150"/>
       <c r="L709" s="75"/>
       <c r="M709" s="69"/>
       <c r="N709" s="89"/>
@@ -36624,7 +36628,7 @@
       <c r="H710" s="69"/>
       <c r="I710" s="72"/>
       <c r="J710" s="69"/>
-      <c r="K710" s="151"/>
+      <c r="K710" s="150"/>
       <c r="L710" s="75"/>
       <c r="M710" s="69"/>
       <c r="N710" s="89"/>
@@ -36640,7 +36644,7 @@
       <c r="H711" s="69"/>
       <c r="I711" s="72"/>
       <c r="J711" s="69"/>
-      <c r="K711" s="151"/>
+      <c r="K711" s="150"/>
       <c r="L711" s="75"/>
       <c r="M711" s="69"/>
       <c r="N711" s="89"/>
@@ -36656,7 +36660,7 @@
       <c r="H712" s="69"/>
       <c r="I712" s="72"/>
       <c r="J712" s="69"/>
-      <c r="K712" s="151"/>
+      <c r="K712" s="150"/>
       <c r="L712" s="75"/>
       <c r="M712" s="69"/>
       <c r="N712" s="89"/>
@@ -36672,7 +36676,7 @@
       <c r="H713" s="69"/>
       <c r="I713" s="72"/>
       <c r="J713" s="69"/>
-      <c r="K713" s="151"/>
+      <c r="K713" s="150"/>
       <c r="L713" s="75"/>
       <c r="M713" s="69"/>
       <c r="N713" s="89"/>
@@ -36688,7 +36692,7 @@
       <c r="H714" s="69"/>
       <c r="I714" s="72"/>
       <c r="J714" s="69"/>
-      <c r="K714" s="151"/>
+      <c r="K714" s="150"/>
       <c r="L714" s="75"/>
       <c r="M714" s="69"/>
       <c r="N714" s="89"/>
@@ -36704,7 +36708,7 @@
       <c r="H715" s="69"/>
       <c r="I715" s="72"/>
       <c r="J715" s="69"/>
-      <c r="K715" s="151"/>
+      <c r="K715" s="150"/>
       <c r="L715" s="75"/>
       <c r="M715" s="69"/>
       <c r="N715" s="89"/>
@@ -36720,7 +36724,7 @@
       <c r="H716" s="69"/>
       <c r="I716" s="72"/>
       <c r="J716" s="69"/>
-      <c r="K716" s="151"/>
+      <c r="K716" s="150"/>
       <c r="L716" s="75"/>
       <c r="M716" s="69"/>
       <c r="N716" s="89"/>
@@ -36736,7 +36740,7 @@
       <c r="H717" s="69"/>
       <c r="I717" s="72"/>
       <c r="J717" s="69"/>
-      <c r="K717" s="151"/>
+      <c r="K717" s="150"/>
       <c r="L717" s="75"/>
       <c r="M717" s="69"/>
       <c r="N717" s="89"/>
@@ -36752,7 +36756,7 @@
       <c r="H718" s="69"/>
       <c r="I718" s="72"/>
       <c r="J718" s="69"/>
-      <c r="K718" s="151"/>
+      <c r="K718" s="150"/>
       <c r="L718" s="75"/>
       <c r="M718" s="69"/>
       <c r="N718" s="89"/>
@@ -36768,7 +36772,7 @@
       <c r="H719" s="69"/>
       <c r="I719" s="72"/>
       <c r="J719" s="69"/>
-      <c r="K719" s="151"/>
+      <c r="K719" s="150"/>
       <c r="L719" s="75"/>
       <c r="M719" s="69"/>
       <c r="N719" s="89"/>
@@ -36784,7 +36788,7 @@
       <c r="H720" s="69"/>
       <c r="I720" s="72"/>
       <c r="J720" s="69"/>
-      <c r="K720" s="151"/>
+      <c r="K720" s="150"/>
       <c r="L720" s="75"/>
       <c r="M720" s="69"/>
       <c r="N720" s="89"/>
@@ -36800,7 +36804,7 @@
       <c r="H721" s="69"/>
       <c r="I721" s="72"/>
       <c r="J721" s="69"/>
-      <c r="K721" s="151"/>
+      <c r="K721" s="150"/>
       <c r="L721" s="75"/>
       <c r="M721" s="69"/>
       <c r="N721" s="89"/>
@@ -36816,7 +36820,7 @@
       <c r="H722" s="69"/>
       <c r="I722" s="72"/>
       <c r="J722" s="69"/>
-      <c r="K722" s="151"/>
+      <c r="K722" s="150"/>
       <c r="L722" s="75"/>
       <c r="M722" s="69"/>
       <c r="N722" s="89"/>
@@ -36832,7 +36836,7 @@
       <c r="H723" s="69"/>
       <c r="I723" s="72"/>
       <c r="J723" s="69"/>
-      <c r="K723" s="151"/>
+      <c r="K723" s="150"/>
       <c r="L723" s="75"/>
       <c r="M723" s="69"/>
       <c r="N723" s="89"/>
@@ -36848,7 +36852,7 @@
       <c r="H724" s="69"/>
       <c r="I724" s="72"/>
       <c r="J724" s="69"/>
-      <c r="K724" s="151"/>
+      <c r="K724" s="150"/>
       <c r="L724" s="75"/>
       <c r="M724" s="69"/>
       <c r="N724" s="89"/>
@@ -36864,7 +36868,7 @@
       <c r="H725" s="69"/>
       <c r="I725" s="72"/>
       <c r="J725" s="69"/>
-      <c r="K725" s="151"/>
+      <c r="K725" s="150"/>
       <c r="L725" s="75"/>
       <c r="M725" s="69"/>
       <c r="N725" s="89"/>
@@ -36880,7 +36884,7 @@
       <c r="H726" s="69"/>
       <c r="I726" s="72"/>
       <c r="J726" s="69"/>
-      <c r="K726" s="151"/>
+      <c r="K726" s="150"/>
       <c r="L726" s="75"/>
       <c r="M726" s="69"/>
       <c r="N726" s="89"/>
@@ -36896,7 +36900,7 @@
       <c r="H727" s="69"/>
       <c r="I727" s="72"/>
       <c r="J727" s="69"/>
-      <c r="K727" s="151"/>
+      <c r="K727" s="150"/>
       <c r="L727" s="75"/>
       <c r="M727" s="69"/>
       <c r="N727" s="89"/>
@@ -36912,7 +36916,7 @@
       <c r="H728" s="69"/>
       <c r="I728" s="72"/>
       <c r="J728" s="69"/>
-      <c r="K728" s="151"/>
+      <c r="K728" s="150"/>
       <c r="L728" s="75"/>
       <c r="M728" s="69"/>
       <c r="N728" s="89"/>
@@ -36928,7 +36932,7 @@
       <c r="H729" s="69"/>
       <c r="I729" s="72"/>
       <c r="J729" s="69"/>
-      <c r="K729" s="151"/>
+      <c r="K729" s="150"/>
       <c r="L729" s="75"/>
       <c r="M729" s="69"/>
       <c r="N729" s="89"/>
@@ -36944,7 +36948,7 @@
       <c r="H730" s="69"/>
       <c r="I730" s="72"/>
       <c r="J730" s="69"/>
-      <c r="K730" s="151"/>
+      <c r="K730" s="150"/>
       <c r="L730" s="75"/>
       <c r="M730" s="69"/>
       <c r="N730" s="89"/>
@@ -36960,7 +36964,7 @@
       <c r="H731" s="69"/>
       <c r="I731" s="72"/>
       <c r="J731" s="69"/>
-      <c r="K731" s="151"/>
+      <c r="K731" s="150"/>
       <c r="L731" s="75"/>
       <c r="M731" s="69"/>
       <c r="N731" s="89"/>
@@ -36976,7 +36980,7 @@
       <c r="H732" s="69"/>
       <c r="I732" s="72"/>
       <c r="J732" s="69"/>
-      <c r="K732" s="151"/>
+      <c r="K732" s="150"/>
       <c r="L732" s="75"/>
       <c r="M732" s="69"/>
       <c r="N732" s="89"/>
@@ -36992,7 +36996,7 @@
       <c r="H733" s="69"/>
       <c r="I733" s="72"/>
       <c r="J733" s="69"/>
-      <c r="K733" s="151"/>
+      <c r="K733" s="150"/>
       <c r="L733" s="75"/>
       <c r="M733" s="69"/>
       <c r="N733" s="89"/>
@@ -37008,7 +37012,7 @@
       <c r="H734" s="69"/>
       <c r="I734" s="72"/>
       <c r="J734" s="69"/>
-      <c r="K734" s="151"/>
+      <c r="K734" s="150"/>
       <c r="L734" s="75"/>
       <c r="M734" s="69"/>
       <c r="N734" s="89"/>
@@ -37024,7 +37028,7 @@
       <c r="H735" s="69"/>
       <c r="I735" s="72"/>
       <c r="J735" s="69"/>
-      <c r="K735" s="151"/>
+      <c r="K735" s="150"/>
       <c r="L735" s="75"/>
       <c r="M735" s="69"/>
       <c r="N735" s="89"/>
@@ -37040,7 +37044,7 @@
       <c r="H736" s="69"/>
       <c r="I736" s="72"/>
       <c r="J736" s="69"/>
-      <c r="K736" s="151"/>
+      <c r="K736" s="150"/>
       <c r="L736" s="75"/>
       <c r="M736" s="69"/>
       <c r="N736" s="89"/>
@@ -37056,7 +37060,7 @@
       <c r="H737" s="69"/>
       <c r="I737" s="72"/>
       <c r="J737" s="69"/>
-      <c r="K737" s="151"/>
+      <c r="K737" s="150"/>
       <c r="L737" s="75"/>
       <c r="M737" s="69"/>
       <c r="N737" s="89"/>
@@ -37072,7 +37076,7 @@
       <c r="H738" s="69"/>
       <c r="I738" s="72"/>
       <c r="J738" s="69"/>
-      <c r="K738" s="151"/>
+      <c r="K738" s="150"/>
       <c r="L738" s="75"/>
       <c r="M738" s="69"/>
       <c r="N738" s="89"/>
@@ -37088,7 +37092,7 @@
       <c r="H739" s="69"/>
       <c r="I739" s="72"/>
       <c r="J739" s="69"/>
-      <c r="K739" s="151"/>
+      <c r="K739" s="150"/>
       <c r="L739" s="75"/>
       <c r="M739" s="69"/>
       <c r="N739" s="89"/>
@@ -37104,7 +37108,7 @@
       <c r="H740" s="69"/>
       <c r="I740" s="72"/>
       <c r="J740" s="69"/>
-      <c r="K740" s="151"/>
+      <c r="K740" s="150"/>
       <c r="L740" s="75"/>
       <c r="M740" s="69"/>
       <c r="N740" s="89"/>
@@ -37120,7 +37124,7 @@
       <c r="H741" s="69"/>
       <c r="I741" s="72"/>
       <c r="J741" s="69"/>
-      <c r="K741" s="151"/>
+      <c r="K741" s="150"/>
       <c r="L741" s="75"/>
       <c r="M741" s="69"/>
       <c r="N741" s="89"/>
@@ -37136,7 +37140,7 @@
       <c r="H742" s="69"/>
       <c r="I742" s="72"/>
       <c r="J742" s="69"/>
-      <c r="K742" s="151"/>
+      <c r="K742" s="150"/>
       <c r="L742" s="75"/>
       <c r="M742" s="69"/>
       <c r="N742" s="89"/>
@@ -37152,7 +37156,7 @@
       <c r="H743" s="69"/>
       <c r="I743" s="72"/>
       <c r="J743" s="69"/>
-      <c r="K743" s="151"/>
+      <c r="K743" s="150"/>
       <c r="L743" s="75"/>
       <c r="M743" s="69"/>
       <c r="N743" s="89"/>
@@ -37168,7 +37172,7 @@
       <c r="H744" s="69"/>
       <c r="I744" s="72"/>
       <c r="J744" s="69"/>
-      <c r="K744" s="151"/>
+      <c r="K744" s="150"/>
       <c r="L744" s="75"/>
       <c r="M744" s="69"/>
       <c r="N744" s="89"/>
@@ -37184,7 +37188,7 @@
       <c r="H745" s="69"/>
       <c r="I745" s="72"/>
       <c r="J745" s="69"/>
-      <c r="K745" s="151"/>
+      <c r="K745" s="150"/>
       <c r="L745" s="75"/>
       <c r="M745" s="69"/>
       <c r="N745" s="89"/>
@@ -37200,7 +37204,7 @@
       <c r="H746" s="69"/>
       <c r="I746" s="72"/>
       <c r="J746" s="69"/>
-      <c r="K746" s="151"/>
+      <c r="K746" s="150"/>
       <c r="L746" s="75"/>
       <c r="M746" s="69"/>
       <c r="N746" s="89"/>
@@ -37216,7 +37220,7 @@
       <c r="H747" s="69"/>
       <c r="I747" s="72"/>
       <c r="J747" s="69"/>
-      <c r="K747" s="151"/>
+      <c r="K747" s="150"/>
       <c r="L747" s="75"/>
       <c r="M747" s="69"/>
       <c r="N747" s="89"/>
@@ -37232,7 +37236,7 @@
       <c r="H748" s="69"/>
       <c r="I748" s="72"/>
       <c r="J748" s="69"/>
-      <c r="K748" s="151"/>
+      <c r="K748" s="150"/>
       <c r="L748" s="75"/>
       <c r="M748" s="69"/>
       <c r="N748" s="89"/>
@@ -37248,7 +37252,7 @@
       <c r="H749" s="69"/>
       <c r="I749" s="72"/>
       <c r="J749" s="69"/>
-      <c r="K749" s="151"/>
+      <c r="K749" s="150"/>
       <c r="L749" s="75"/>
       <c r="M749" s="69"/>
       <c r="N749" s="89"/>
@@ -37264,7 +37268,7 @@
       <c r="H750" s="69"/>
       <c r="I750" s="72"/>
       <c r="J750" s="69"/>
-      <c r="K750" s="151"/>
+      <c r="K750" s="150"/>
       <c r="L750" s="75"/>
       <c r="M750" s="69"/>
       <c r="N750" s="89"/>
@@ -37280,7 +37284,7 @@
       <c r="H751" s="69"/>
       <c r="I751" s="72"/>
       <c r="J751" s="69"/>
-      <c r="K751" s="151"/>
+      <c r="K751" s="150"/>
       <c r="L751" s="75"/>
       <c r="M751" s="69"/>
       <c r="N751" s="89"/>
@@ -37296,7 +37300,7 @@
       <c r="H752" s="69"/>
       <c r="I752" s="72"/>
       <c r="J752" s="69"/>
-      <c r="K752" s="151"/>
+      <c r="K752" s="150"/>
       <c r="L752" s="75"/>
       <c r="M752" s="69"/>
       <c r="N752" s="89"/>
@@ -37312,7 +37316,7 @@
       <c r="H753" s="69"/>
       <c r="I753" s="72"/>
       <c r="J753" s="69"/>
-      <c r="K753" s="151"/>
+      <c r="K753" s="150"/>
       <c r="L753" s="75"/>
       <c r="M753" s="69"/>
       <c r="N753" s="89"/>
@@ -37328,7 +37332,7 @@
       <c r="H754" s="69"/>
       <c r="I754" s="72"/>
       <c r="J754" s="69"/>
-      <c r="K754" s="151"/>
+      <c r="K754" s="150"/>
       <c r="L754" s="75"/>
       <c r="M754" s="69"/>
       <c r="N754" s="89"/>
@@ -37344,7 +37348,7 @@
       <c r="H755" s="69"/>
       <c r="I755" s="72"/>
       <c r="J755" s="69"/>
-      <c r="K755" s="151"/>
+      <c r="K755" s="150"/>
       <c r="L755" s="75"/>
       <c r="M755" s="69"/>
       <c r="N755" s="89"/>
@@ -37360,7 +37364,7 @@
       <c r="H756" s="69"/>
       <c r="I756" s="72"/>
       <c r="J756" s="69"/>
-      <c r="K756" s="151"/>
+      <c r="K756" s="150"/>
       <c r="L756" s="75"/>
       <c r="M756" s="69"/>
       <c r="N756" s="89"/>
@@ -37376,7 +37380,7 @@
       <c r="H757" s="69"/>
       <c r="I757" s="72"/>
       <c r="J757" s="69"/>
-      <c r="K757" s="151"/>
+      <c r="K757" s="150"/>
       <c r="L757" s="75"/>
       <c r="M757" s="69"/>
       <c r="N757" s="89"/>
@@ -37392,7 +37396,7 @@
       <c r="H758" s="69"/>
       <c r="I758" s="72"/>
       <c r="J758" s="69"/>
-      <c r="K758" s="151"/>
+      <c r="K758" s="150"/>
       <c r="L758" s="75"/>
       <c r="M758" s="69"/>
       <c r="N758" s="89"/>
@@ -37408,7 +37412,7 @@
       <c r="H759" s="69"/>
       <c r="I759" s="72"/>
       <c r="J759" s="69"/>
-      <c r="K759" s="151"/>
+      <c r="K759" s="150"/>
       <c r="L759" s="75"/>
       <c r="M759" s="69"/>
       <c r="N759" s="89"/>
@@ -37424,7 +37428,7 @@
       <c r="H760" s="69"/>
       <c r="I760" s="72"/>
       <c r="J760" s="69"/>
-      <c r="K760" s="151"/>
+      <c r="K760" s="150"/>
       <c r="L760" s="75"/>
       <c r="M760" s="69"/>
       <c r="N760" s="89"/>
@@ -37440,7 +37444,7 @@
       <c r="H761" s="69"/>
       <c r="I761" s="72"/>
       <c r="J761" s="69"/>
-      <c r="K761" s="151"/>
+      <c r="K761" s="150"/>
       <c r="L761" s="75"/>
       <c r="M761" s="69"/>
       <c r="N761" s="89"/>
@@ -37456,7 +37460,7 @@
       <c r="H762" s="69"/>
       <c r="I762" s="72"/>
       <c r="J762" s="69"/>
-      <c r="K762" s="151"/>
+      <c r="K762" s="150"/>
       <c r="L762" s="75"/>
       <c r="M762" s="69"/>
       <c r="N762" s="89"/>
@@ -37472,7 +37476,7 @@
       <c r="H763" s="69"/>
       <c r="I763" s="72"/>
       <c r="J763" s="69"/>
-      <c r="K763" s="151"/>
+      <c r="K763" s="150"/>
       <c r="L763" s="75"/>
       <c r="M763" s="69"/>
       <c r="N763" s="89"/>
@@ -37488,7 +37492,7 @@
       <c r="H764" s="69"/>
       <c r="I764" s="72"/>
       <c r="J764" s="69"/>
-      <c r="K764" s="151"/>
+      <c r="K764" s="150"/>
       <c r="L764" s="75"/>
       <c r="M764" s="69"/>
       <c r="N764" s="89"/>
@@ -37504,7 +37508,7 @@
       <c r="H765" s="69"/>
       <c r="I765" s="72"/>
       <c r="J765" s="69"/>
-      <c r="K765" s="151"/>
+      <c r="K765" s="150"/>
       <c r="L765" s="75"/>
       <c r="M765" s="69"/>
       <c r="N765" s="89"/>
@@ -37520,7 +37524,7 @@
       <c r="H766" s="69"/>
       <c r="I766" s="72"/>
       <c r="J766" s="69"/>
-      <c r="K766" s="151"/>
+      <c r="K766" s="150"/>
       <c r="L766" s="75"/>
       <c r="M766" s="69"/>
       <c r="N766" s="89"/>
@@ -37536,7 +37540,7 @@
       <c r="H767" s="69"/>
       <c r="I767" s="72"/>
       <c r="J767" s="69"/>
-      <c r="K767" s="151"/>
+      <c r="K767" s="150"/>
       <c r="L767" s="75"/>
       <c r="M767" s="69"/>
       <c r="N767" s="89"/>
@@ -37552,7 +37556,7 @@
       <c r="H768" s="69"/>
       <c r="I768" s="72"/>
       <c r="J768" s="69"/>
-      <c r="K768" s="151"/>
+      <c r="K768" s="150"/>
       <c r="L768" s="75"/>
       <c r="M768" s="69"/>
       <c r="N768" s="89"/>
@@ -37568,7 +37572,7 @@
       <c r="H769" s="69"/>
       <c r="I769" s="72"/>
       <c r="J769" s="69"/>
-      <c r="K769" s="151"/>
+      <c r="K769" s="150"/>
       <c r="L769" s="75"/>
       <c r="M769" s="69"/>
       <c r="N769" s="89"/>
@@ -37584,7 +37588,7 @@
       <c r="H770" s="69"/>
       <c r="I770" s="72"/>
       <c r="J770" s="69"/>
-      <c r="K770" s="151"/>
+      <c r="K770" s="150"/>
       <c r="L770" s="75"/>
       <c r="M770" s="69"/>
       <c r="N770" s="89"/>
@@ -37600,7 +37604,7 @@
       <c r="H771" s="69"/>
       <c r="I771" s="72"/>
       <c r="J771" s="69"/>
-      <c r="K771" s="151"/>
+      <c r="K771" s="150"/>
       <c r="L771" s="75"/>
       <c r="M771" s="69"/>
       <c r="N771" s="89"/>
@@ -37616,7 +37620,7 @@
       <c r="H772" s="69"/>
       <c r="I772" s="72"/>
       <c r="J772" s="69"/>
-      <c r="K772" s="151"/>
+      <c r="K772" s="150"/>
       <c r="L772" s="75"/>
       <c r="M772" s="69"/>
       <c r="N772" s="89"/>
@@ -37632,7 +37636,7 @@
       <c r="H773" s="69"/>
       <c r="I773" s="72"/>
       <c r="J773" s="69"/>
-      <c r="K773" s="151"/>
+      <c r="K773" s="150"/>
       <c r="L773" s="75"/>
       <c r="M773" s="69"/>
       <c r="N773" s="89"/>
@@ -37648,7 +37652,7 @@
       <c r="H774" s="69"/>
       <c r="I774" s="72"/>
       <c r="J774" s="69"/>
-      <c r="K774" s="151"/>
+      <c r="K774" s="150"/>
       <c r="L774" s="75"/>
       <c r="M774" s="69"/>
       <c r="N774" s="89"/>
@@ -37664,7 +37668,7 @@
       <c r="H775" s="69"/>
       <c r="I775" s="72"/>
       <c r="J775" s="69"/>
-      <c r="K775" s="151"/>
+      <c r="K775" s="150"/>
       <c r="L775" s="75"/>
       <c r="M775" s="69"/>
       <c r="N775" s="89"/>
@@ -37680,7 +37684,7 @@
       <c r="H776" s="69"/>
       <c r="I776" s="72"/>
       <c r="J776" s="69"/>
-      <c r="K776" s="151"/>
+      <c r="K776" s="150"/>
       <c r="L776" s="75"/>
       <c r="M776" s="69"/>
       <c r="N776" s="89"/>
@@ -37696,7 +37700,7 @@
       <c r="H777" s="69"/>
       <c r="I777" s="72"/>
       <c r="J777" s="69"/>
-      <c r="K777" s="151"/>
+      <c r="K777" s="150"/>
       <c r="L777" s="75"/>
       <c r="M777" s="69"/>
       <c r="N777" s="89"/>
@@ -37712,7 +37716,7 @@
       <c r="H778" s="69"/>
       <c r="I778" s="72"/>
       <c r="J778" s="69"/>
-      <c r="K778" s="151"/>
+      <c r="K778" s="150"/>
       <c r="L778" s="75"/>
       <c r="M778" s="69"/>
       <c r="N778" s="89"/>
@@ -37728,7 +37732,7 @@
       <c r="H779" s="69"/>
       <c r="I779" s="72"/>
       <c r="J779" s="69"/>
-      <c r="K779" s="151"/>
+      <c r="K779" s="150"/>
       <c r="L779" s="75"/>
       <c r="M779" s="69"/>
       <c r="N779" s="89"/>
@@ -37744,7 +37748,7 @@
       <c r="H780" s="69"/>
       <c r="I780" s="72"/>
       <c r="J780" s="69"/>
-      <c r="K780" s="151"/>
+      <c r="K780" s="150"/>
       <c r="L780" s="75"/>
       <c r="M780" s="69"/>
       <c r="N780" s="89"/>
@@ -37760,7 +37764,7 @@
       <c r="H781" s="69"/>
       <c r="I781" s="72"/>
       <c r="J781" s="69"/>
-      <c r="K781" s="151"/>
+      <c r="K781" s="150"/>
       <c r="L781" s="75"/>
       <c r="M781" s="69"/>
       <c r="N781" s="89"/>
@@ -37776,7 +37780,7 @@
       <c r="H782" s="69"/>
       <c r="I782" s="72"/>
       <c r="J782" s="69"/>
-      <c r="K782" s="151"/>
+      <c r="K782" s="150"/>
       <c r="L782" s="75"/>
       <c r="M782" s="69"/>
       <c r="N782" s="89"/>
@@ -37792,7 +37796,7 @@
       <c r="H783" s="69"/>
       <c r="I783" s="72"/>
       <c r="J783" s="69"/>
-      <c r="K783" s="151"/>
+      <c r="K783" s="150"/>
       <c r="L783" s="75"/>
       <c r="M783" s="69"/>
       <c r="N783" s="89"/>
@@ -37808,7 +37812,7 @@
       <c r="H784" s="69"/>
       <c r="I784" s="72"/>
       <c r="J784" s="69"/>
-      <c r="K784" s="151"/>
+      <c r="K784" s="150"/>
       <c r="L784" s="75"/>
       <c r="M784" s="69"/>
       <c r="N784" s="89"/>
@@ -37824,7 +37828,7 @@
       <c r="H785" s="69"/>
       <c r="I785" s="72"/>
       <c r="J785" s="69"/>
-      <c r="K785" s="151"/>
+      <c r="K785" s="150"/>
       <c r="L785" s="75"/>
       <c r="M785" s="69"/>
       <c r="N785" s="89"/>
@@ -37840,7 +37844,7 @@
       <c r="H786" s="69"/>
       <c r="I786" s="72"/>
       <c r="J786" s="69"/>
-      <c r="K786" s="151"/>
+      <c r="K786" s="150"/>
       <c r="L786" s="75"/>
       <c r="M786" s="69"/>
       <c r="N786" s="89"/>
@@ -37856,7 +37860,7 @@
       <c r="H787" s="69"/>
       <c r="I787" s="72"/>
       <c r="J787" s="69"/>
-      <c r="K787" s="151"/>
+      <c r="K787" s="150"/>
       <c r="L787" s="75"/>
       <c r="M787" s="69"/>
       <c r="N787" s="89"/>
@@ -37872,7 +37876,7 @@
       <c r="H788" s="69"/>
       <c r="I788" s="72"/>
       <c r="J788" s="69"/>
-      <c r="K788" s="151"/>
+      <c r="K788" s="150"/>
       <c r="L788" s="75"/>
       <c r="M788" s="69"/>
       <c r="N788" s="89"/>
@@ -37888,7 +37892,7 @@
       <c r="H789" s="69"/>
       <c r="I789" s="72"/>
       <c r="J789" s="69"/>
-      <c r="K789" s="151"/>
+      <c r="K789" s="150"/>
       <c r="L789" s="75"/>
       <c r="M789" s="69"/>
       <c r="N789" s="89"/>
@@ -37904,7 +37908,7 @@
       <c r="H790" s="69"/>
       <c r="I790" s="72"/>
       <c r="J790" s="69"/>
-      <c r="K790" s="151"/>
+      <c r="K790" s="150"/>
       <c r="L790" s="75"/>
       <c r="M790" s="69"/>
       <c r="N790" s="89"/>
@@ -37920,7 +37924,7 @@
       <c r="H791" s="69"/>
       <c r="I791" s="72"/>
       <c r="J791" s="69"/>
-      <c r="K791" s="151"/>
+      <c r="K791" s="150"/>
       <c r="L791" s="75"/>
       <c r="M791" s="69"/>
       <c r="N791" s="89"/>
@@ -37936,7 +37940,7 @@
       <c r="H792" s="69"/>
       <c r="I792" s="72"/>
       <c r="J792" s="69"/>
-      <c r="K792" s="151"/>
+      <c r="K792" s="150"/>
       <c r="L792" s="75"/>
       <c r="M792" s="69"/>
       <c r="N792" s="89"/>
@@ -37952,7 +37956,7 @@
       <c r="H793" s="69"/>
       <c r="I793" s="72"/>
       <c r="J793" s="69"/>
-      <c r="K793" s="151"/>
+      <c r="K793" s="150"/>
       <c r="L793" s="75"/>
       <c r="M793" s="69"/>
       <c r="N793" s="89"/>
@@ -37968,7 +37972,7 @@
       <c r="H794" s="69"/>
       <c r="I794" s="72"/>
       <c r="J794" s="69"/>
-      <c r="K794" s="151"/>
+      <c r="K794" s="150"/>
       <c r="L794" s="75"/>
       <c r="M794" s="69"/>
       <c r="N794" s="89"/>
@@ -37984,7 +37988,7 @@
       <c r="H795" s="69"/>
       <c r="I795" s="72"/>
       <c r="J795" s="69"/>
-      <c r="K795" s="151"/>
+      <c r="K795" s="150"/>
       <c r="L795" s="75"/>
       <c r="M795" s="69"/>
       <c r="N795" s="89"/>
@@ -38000,7 +38004,7 @@
       <c r="H796" s="69"/>
       <c r="I796" s="72"/>
       <c r="J796" s="69"/>
-      <c r="K796" s="151"/>
+      <c r="K796" s="150"/>
       <c r="L796" s="75"/>
       <c r="M796" s="69"/>
       <c r="N796" s="89"/>
@@ -38016,7 +38020,7 @@
       <c r="H797" s="69"/>
       <c r="I797" s="72"/>
       <c r="J797" s="69"/>
-      <c r="K797" s="151"/>
+      <c r="K797" s="150"/>
       <c r="L797" s="75"/>
       <c r="M797" s="69"/>
       <c r="N797" s="89"/>
@@ -38032,7 +38036,7 @@
       <c r="H798" s="69"/>
       <c r="I798" s="72"/>
       <c r="J798" s="69"/>
-      <c r="K798" s="151"/>
+      <c r="K798" s="150"/>
       <c r="L798" s="75"/>
       <c r="M798" s="69"/>
       <c r="N798" s="89"/>
@@ -38048,7 +38052,7 @@
       <c r="H799" s="69"/>
       <c r="I799" s="72"/>
       <c r="J799" s="69"/>
-      <c r="K799" s="151"/>
+      <c r="K799" s="150"/>
       <c r="L799" s="75"/>
       <c r="M799" s="69"/>
       <c r="N799" s="89"/>
@@ -38064,7 +38068,7 @@
       <c r="H800" s="69"/>
       <c r="I800" s="72"/>
       <c r="J800" s="69"/>
-      <c r="K800" s="151"/>
+      <c r="K800" s="150"/>
       <c r="L800" s="75"/>
       <c r="M800" s="69"/>
       <c r="N800" s="89"/>
@@ -38080,7 +38084,7 @@
       <c r="H801" s="69"/>
       <c r="I801" s="72"/>
       <c r="J801" s="69"/>
-      <c r="K801" s="151"/>
+      <c r="K801" s="150"/>
       <c r="L801" s="75"/>
       <c r="M801" s="69"/>
       <c r="N801" s="89"/>
@@ -38096,7 +38100,7 @@
       <c r="H802" s="69"/>
       <c r="I802" s="72"/>
       <c r="J802" s="69"/>
-      <c r="K802" s="151"/>
+      <c r="K802" s="150"/>
       <c r="L802" s="75"/>
       <c r="M802" s="69"/>
       <c r="N802" s="89"/>
@@ -38112,7 +38116,7 @@
       <c r="H803" s="69"/>
       <c r="I803" s="72"/>
       <c r="J803" s="69"/>
-      <c r="K803" s="151"/>
+      <c r="K803" s="150"/>
       <c r="L803" s="75"/>
       <c r="M803" s="69"/>
       <c r="N803" s="89"/>
@@ -38128,7 +38132,7 @@
       <c r="H804" s="69"/>
       <c r="I804" s="72"/>
       <c r="J804" s="69"/>
-      <c r="K804" s="151"/>
+      <c r="K804" s="150"/>
       <c r="L804" s="75"/>
       <c r="M804" s="69"/>
       <c r="N804" s="89"/>
@@ -38144,7 +38148,7 @@
       <c r="H805" s="69"/>
       <c r="I805" s="72"/>
       <c r="J805" s="69"/>
-      <c r="K805" s="151"/>
+      <c r="K805" s="150"/>
       <c r="L805" s="75"/>
       <c r="M805" s="69"/>
       <c r="N805" s="89"/>
@@ -38160,7 +38164,7 @@
       <c r="H806" s="69"/>
       <c r="I806" s="72"/>
       <c r="J806" s="69"/>
-      <c r="K806" s="151"/>
+      <c r="K806" s="150"/>
       <c r="L806" s="75"/>
       <c r="M806" s="69"/>
       <c r="N806" s="89"/>
@@ -38176,7 +38180,7 @@
       <c r="H807" s="69"/>
       <c r="I807" s="72"/>
       <c r="J807" s="69"/>
-      <c r="K807" s="151"/>
+      <c r="K807" s="150"/>
       <c r="L807" s="75"/>
       <c r="M807" s="69"/>
       <c r="N807" s="89"/>
@@ -38192,7 +38196,7 @@
       <c r="H808" s="69"/>
       <c r="I808" s="72"/>
       <c r="J808" s="69"/>
-      <c r="K808" s="151"/>
+      <c r="K808" s="150"/>
       <c r="L808" s="75"/>
       <c r="M808" s="69"/>
       <c r="N808" s="89"/>
@@ -38208,7 +38212,7 @@
       <c r="H809" s="69"/>
       <c r="I809" s="72"/>
       <c r="J809" s="69"/>
-      <c r="K809" s="151"/>
+      <c r="K809" s="150"/>
       <c r="L809" s="75"/>
       <c r="M809" s="69"/>
       <c r="N809" s="89"/>
@@ -38224,7 +38228,7 @@
       <c r="H810" s="69"/>
       <c r="I810" s="72"/>
       <c r="J810" s="69"/>
-      <c r="K810" s="151"/>
+      <c r="K810" s="150"/>
       <c r="L810" s="75"/>
       <c r="M810" s="69"/>
       <c r="N810" s="89"/>
@@ -38240,7 +38244,7 @@
       <c r="H811" s="69"/>
       <c r="I811" s="72"/>
       <c r="J811" s="69"/>
-      <c r="K811" s="151"/>
+      <c r="K811" s="150"/>
       <c r="L811" s="75"/>
       <c r="M811" s="69"/>
       <c r="N811" s="89"/>
@@ -38256,7 +38260,7 @@
       <c r="H812" s="69"/>
       <c r="I812" s="72"/>
       <c r="J812" s="69"/>
-      <c r="K812" s="151"/>
+      <c r="K812" s="150"/>
       <c r="L812" s="75"/>
       <c r="M812" s="69"/>
       <c r="N812" s="89"/>
@@ -38272,7 +38276,7 @@
       <c r="H813" s="69"/>
       <c r="I813" s="72"/>
       <c r="J813" s="69"/>
-      <c r="K813" s="151"/>
+      <c r="K813" s="150"/>
       <c r="L813" s="75"/>
       <c r="M813" s="69"/>
       <c r="N813" s="89"/>
@@ -38288,7 +38292,7 @@
       <c r="H814" s="69"/>
       <c r="I814" s="72"/>
       <c r="J814" s="69"/>
-      <c r="K814" s="151"/>
+      <c r="K814" s="150"/>
       <c r="L814" s="75"/>
       <c r="M814" s="69"/>
       <c r="N814" s="89"/>
@@ -38304,7 +38308,7 @@
       <c r="H815" s="69"/>
       <c r="I815" s="72"/>
       <c r="J815" s="69"/>
-      <c r="K815" s="151"/>
+      <c r="K815" s="150"/>
       <c r="L815" s="75"/>
       <c r="M815" s="69"/>
       <c r="N815" s="89"/>
@@ -38320,7 +38324,7 @@
       <c r="H816" s="69"/>
       <c r="I816" s="72"/>
       <c r="J816" s="69"/>
-      <c r="K816" s="151"/>
+      <c r="K816" s="150"/>
       <c r="L816" s="75"/>
       <c r="M816" s="69"/>
       <c r="N816" s="89"/>
@@ -38336,7 +38340,7 @@
       <c r="H817" s="69"/>
       <c r="I817" s="72"/>
       <c r="J817" s="69"/>
-      <c r="K817" s="151"/>
+      <c r="K817" s="150"/>
       <c r="L817" s="75"/>
       <c r="M817" s="69"/>
       <c r="N817" s="89"/>
@@ -38352,7 +38356,7 @@
       <c r="H818" s="69"/>
       <c r="I818" s="72"/>
       <c r="J818" s="69"/>
-      <c r="K818" s="151"/>
+      <c r="K818" s="150"/>
       <c r="L818" s="75"/>
       <c r="M818" s="69"/>
       <c r="N818" s="89"/>
@@ -38368,7 +38372,7 @@
       <c r="H819" s="69"/>
       <c r="I819" s="72"/>
       <c r="J819" s="69"/>
-      <c r="K819" s="151"/>
+      <c r="K819" s="150"/>
       <c r="L819" s="75"/>
       <c r="M819" s="69"/>
       <c r="N819" s="89"/>
@@ -38384,7 +38388,7 @@
       <c r="H820" s="69"/>
       <c r="I820" s="72"/>
       <c r="J820" s="69"/>
-      <c r="K820" s="151"/>
+      <c r="K820" s="150"/>
       <c r="L820" s="75"/>
       <c r="M820" s="69"/>
       <c r="N820" s="89"/>
@@ -38400,7 +38404,7 @@
       <c r="H821" s="69"/>
       <c r="I821" s="72"/>
       <c r="J821" s="69"/>
-      <c r="K821" s="151"/>
+      <c r="K821" s="150"/>
       <c r="L821" s="75"/>
       <c r="M821" s="69"/>
       <c r="N821" s="89"/>
@@ -38416,7 +38420,7 @@
       <c r="H822" s="69"/>
       <c r="I822" s="72"/>
       <c r="J822" s="69"/>
-      <c r="K822" s="151"/>
+      <c r="K822" s="150"/>
       <c r="L822" s="75"/>
       <c r="M822" s="69"/>
       <c r="N822" s="89"/>
@@ -38432,7 +38436,7 @@
       <c r="H823" s="69"/>
       <c r="I823" s="72"/>
       <c r="J823" s="69"/>
-      <c r="K823" s="151"/>
+      <c r="K823" s="150"/>
       <c r="L823" s="75"/>
       <c r="M823" s="69"/>
       <c r="N823" s="89"/>
@@ -38448,7 +38452,7 @@
       <c r="H824" s="69"/>
       <c r="I824" s="72"/>
       <c r="J824" s="69"/>
-      <c r="K824" s="151"/>
+      <c r="K824" s="150"/>
       <c r="L824" s="75"/>
       <c r="M824" s="69"/>
       <c r="N824" s="89"/>
@@ -38464,7 +38468,7 @@
       <c r="H825" s="69"/>
       <c r="I825" s="72"/>
       <c r="J825" s="69"/>
-      <c r="K825" s="151"/>
+      <c r="K825" s="150"/>
       <c r="L825" s="75"/>
       <c r="M825" s="69"/>
       <c r="N825" s="89"/>
@@ -38480,7 +38484,7 @@
       <c r="H826" s="69"/>
       <c r="I826" s="72"/>
       <c r="J826" s="69"/>
-      <c r="K826" s="151"/>
+      <c r="K826" s="150"/>
       <c r="L826" s="75"/>
       <c r="M826" s="69"/>
       <c r="N826" s="89"/>
@@ -38496,7 +38500,7 @@
       <c r="H827" s="69"/>
       <c r="I827" s="72"/>
       <c r="J827" s="69"/>
-      <c r="K827" s="151"/>
+      <c r="K827" s="150"/>
       <c r="L827" s="75"/>
       <c r="M827" s="69"/>
       <c r="N827" s="89"/>
@@ -38512,7 +38516,7 @@
       <c r="H828" s="69"/>
       <c r="I828" s="72"/>
       <c r="J828" s="69"/>
-      <c r="K828" s="151"/>
+      <c r="K828" s="150"/>
       <c r="L828" s="75"/>
       <c r="M828" s="69"/>
       <c r="N828" s="89"/>
@@ -38528,7 +38532,7 @@
       <c r="H829" s="69"/>
       <c r="I829" s="72"/>
       <c r="J829" s="69"/>
-      <c r="K829" s="151"/>
+      <c r="K829" s="150"/>
       <c r="L829" s="75"/>
       <c r="M829" s="69"/>
       <c r="N829" s="89"/>
@@ -38544,7 +38548,7 @@
       <c r="H830" s="69"/>
       <c r="I830" s="72"/>
       <c r="J830" s="69"/>
-      <c r="K830" s="151"/>
+      <c r="K830" s="150"/>
       <c r="L830" s="75"/>
       <c r="M830" s="69"/>
       <c r="N830" s="89"/>
@@ -38560,7 +38564,7 @@
       <c r="H831" s="69"/>
       <c r="I831" s="72"/>
       <c r="J831" s="69"/>
-      <c r="K831" s="151"/>
+      <c r="K831" s="150"/>
       <c r="L831" s="75"/>
       <c r="M831" s="69"/>
       <c r="N831" s="89"/>
@@ -38576,7 +38580,7 @@
       <c r="H832" s="69"/>
       <c r="I832" s="72"/>
       <c r="J832" s="69"/>
-      <c r="K832" s="151"/>
+      <c r="K832" s="150"/>
       <c r="L832" s="75"/>
       <c r="M832" s="69"/>
       <c r="N832" s="89"/>
@@ -38592,7 +38596,7 @@
       <c r="H833" s="69"/>
       <c r="I833" s="72"/>
       <c r="J833" s="69"/>
-      <c r="K833" s="151"/>
+      <c r="K833" s="150"/>
       <c r="L833" s="75"/>
       <c r="M833" s="69"/>
       <c r="N833" s="89"/>
@@ -38608,7 +38612,7 @@
       <c r="H834" s="69"/>
       <c r="I834" s="72"/>
       <c r="J834" s="69"/>
-      <c r="K834" s="151"/>
+      <c r="K834" s="150"/>
       <c r="L834" s="75"/>
       <c r="M834" s="69"/>
       <c r="N834" s="89"/>
@@ -38624,7 +38628,7 @@
       <c r="H835" s="69"/>
       <c r="I835" s="72"/>
       <c r="J835" s="69"/>
-      <c r="K835" s="151"/>
+      <c r="K835" s="150"/>
       <c r="L835" s="75"/>
       <c r="M835" s="69"/>
       <c r="N835" s="89"/>
@@ -38640,7 +38644,7 @@
       <c r="H836" s="69"/>
       <c r="I836" s="72"/>
       <c r="J836" s="69"/>
-      <c r="K836" s="151"/>
+      <c r="K836" s="150"/>
       <c r="L836" s="75"/>
       <c r="M836" s="69"/>
       <c r="N836" s="89"/>
@@ -38656,7 +38660,7 @@
       <c r="H837" s="69"/>
       <c r="I837" s="72"/>
       <c r="J837" s="69"/>
-      <c r="K837" s="151"/>
+      <c r="K837" s="150"/>
       <c r="L837" s="75"/>
       <c r="M837" s="69"/>
       <c r="N837" s="89"/>
@@ -38672,7 +38676,7 @@
       <c r="H838" s="69"/>
       <c r="I838" s="72"/>
       <c r="J838" s="69"/>
-      <c r="K838" s="151"/>
+      <c r="K838" s="150"/>
       <c r="L838" s="75"/>
       <c r="M838" s="69"/>
       <c r="N838" s="89"/>
@@ -38688,7 +38692,7 @@
       <c r="H839" s="69"/>
       <c r="I839" s="72"/>
       <c r="J839" s="69"/>
-      <c r="K839" s="151"/>
+      <c r="K839" s="150"/>
       <c r="L839" s="75"/>
       <c r="M839" s="69"/>
       <c r="N839" s="89"/>
@@ -38704,7 +38708,7 @@
       <c r="H840" s="69"/>
       <c r="I840" s="72"/>
       <c r="J840" s="69"/>
-      <c r="K840" s="151"/>
+      <c r="K840" s="150"/>
       <c r="L840" s="75"/>
       <c r="M840" s="69"/>
       <c r="N840" s="89"/>
@@ -38720,7 +38724,7 @@
       <c r="H841" s="69"/>
       <c r="I841" s="72"/>
       <c r="J841" s="69"/>
-      <c r="K841" s="151"/>
+      <c r="K841" s="150"/>
       <c r="L841" s="75"/>
       <c r="M841" s="69"/>
       <c r="N841" s="89"/>
@@ -38736,7 +38740,7 @@
       <c r="H842" s="69"/>
       <c r="I842" s="72"/>
       <c r="J842" s="69"/>
-      <c r="K842" s="151"/>
+      <c r="K842" s="150"/>
       <c r="L842" s="75"/>
       <c r="M842" s="69"/>
       <c r="N842" s="89"/>
@@ -38752,7 +38756,7 @@
       <c r="H843" s="69"/>
       <c r="I843" s="72"/>
       <c r="J843" s="69"/>
-      <c r="K843" s="151"/>
+      <c r="K843" s="150"/>
       <c r="L843" s="75"/>
       <c r="M843" s="69"/>
       <c r="N843" s="89"/>
@@ -38768,7 +38772,7 @@
       <c r="H844" s="69"/>
       <c r="I844" s="72"/>
       <c r="J844" s="69"/>
-      <c r="K844" s="151"/>
+      <c r="K844" s="150"/>
       <c r="L844" s="75"/>
       <c r="M844" s="69"/>
       <c r="N844" s="89"/>
@@ -38784,7 +38788,7 @@
       <c r="H845" s="69"/>
       <c r="I845" s="72"/>
       <c r="J845" s="69"/>
-      <c r="K845" s="151"/>
+      <c r="K845" s="150"/>
       <c r="L845" s="75"/>
       <c r="M845" s="69"/>
       <c r="N845" s="89"/>
@@ -38800,7 +38804,7 @@
       <c r="H846" s="69"/>
       <c r="I846" s="72"/>
       <c r="J846" s="69"/>
-      <c r="K846" s="151"/>
+      <c r="K846" s="150"/>
       <c r="L846" s="75"/>
       <c r="M846" s="69"/>
       <c r="N846" s="89"/>
@@ -38816,7 +38820,7 @@
       <c r="H847" s="69"/>
       <c r="I847" s="72"/>
       <c r="J847" s="69"/>
-      <c r="K847" s="151"/>
+      <c r="K847" s="150"/>
       <c r="L847" s="75"/>
       <c r="M847" s="69"/>
       <c r="N847" s="89"/>
@@ -38832,7 +38836,7 @@
       <c r="H848" s="69"/>
       <c r="I848" s="72"/>
       <c r="J848" s="69"/>
-      <c r="K848" s="151"/>
+      <c r="K848" s="150"/>
       <c r="L848" s="75"/>
       <c r="M848" s="69"/>
       <c r="N848" s="89"/>
@@ -38848,7 +38852,7 @@
       <c r="H849" s="69"/>
       <c r="I849" s="72"/>
       <c r="J849" s="69"/>
-      <c r="K849" s="151"/>
+      <c r="K849" s="150"/>
       <c r="L849" s="75"/>
       <c r="M849" s="69"/>
       <c r="N849" s="89"/>
@@ -38864,7 +38868,7 @@
       <c r="H850" s="69"/>
       <c r="I850" s="72"/>
       <c r="J850" s="69"/>
-      <c r="K850" s="151"/>
+      <c r="K850" s="150"/>
       <c r="L850" s="75"/>
       <c r="M850" s="69"/>
       <c r="N850" s="89"/>
@@ -38880,7 +38884,7 @@
       <c r="H851" s="69"/>
       <c r="I851" s="72"/>
       <c r="J851" s="69"/>
-      <c r="K851" s="151"/>
+      <c r="K851" s="150"/>
       <c r="L851" s="75"/>
       <c r="M851" s="69"/>
       <c r="N851" s="89"/>
@@ -38896,7 +38900,7 @@
       <c r="H852" s="69"/>
       <c r="I852" s="72"/>
       <c r="J852" s="69"/>
-      <c r="K852" s="151"/>
+      <c r="K852" s="150"/>
       <c r="L852" s="75"/>
       <c r="M852" s="69"/>
       <c r="N852" s="89"/>
@@ -38912,7 +38916,7 @@
       <c r="H853" s="69"/>
       <c r="I853" s="72"/>
       <c r="J853" s="69"/>
-      <c r="K853" s="151"/>
+      <c r="K853" s="150"/>
       <c r="L853" s="75"/>
       <c r="M853" s="69"/>
       <c r="N853" s="89"/>
@@ -38928,7 +38932,7 @@
       <c r="H854" s="69"/>
       <c r="I854" s="72"/>
       <c r="J854" s="69"/>
-      <c r="K854" s="151"/>
+      <c r="K854" s="150"/>
       <c r="L854" s="75"/>
       <c r="M854" s="69"/>
       <c r="N854" s="89"/>
@@ -38944,7 +38948,7 @@
       <c r="H855" s="69"/>
       <c r="I855" s="72"/>
       <c r="J855" s="69"/>
-      <c r="K855" s="151"/>
+      <c r="K855" s="150"/>
       <c r="L855" s="75"/>
       <c r="M855" s="69"/>
       <c r="N855" s="89"/>
@@ -38960,7 +38964,7 @@
       <c r="H856" s="69"/>
       <c r="I856" s="72"/>
       <c r="J856" s="69"/>
-      <c r="K856" s="151"/>
+      <c r="K856" s="150"/>
       <c r="L856" s="75"/>
       <c r="M856" s="69"/>
       <c r="N856" s="89"/>
@@ -38976,7 +38980,7 @@
       <c r="H857" s="69"/>
       <c r="I857" s="72"/>
       <c r="J857" s="69"/>
-      <c r="K857" s="151"/>
+      <c r="K857" s="150"/>
       <c r="L857" s="75"/>
       <c r="M857" s="69"/>
       <c r="N857" s="89"/>
@@ -38992,7 +38996,7 @@
       <c r="H858" s="69"/>
       <c r="I858" s="72"/>
       <c r="J858" s="69"/>
-      <c r="K858" s="151"/>
+      <c r="K858" s="150"/>
       <c r="L858" s="75"/>
       <c r="M858" s="69"/>
       <c r="N858" s="89"/>
@@ -39008,7 +39012,7 @@
       <c r="H859" s="69"/>
       <c r="I859" s="72"/>
       <c r="J859" s="69"/>
-      <c r="K859" s="151"/>
+      <c r="K859" s="150"/>
       <c r="L859" s="75"/>
       <c r="M859" s="69"/>
       <c r="N859" s="89"/>
@@ -39024,7 +39028,7 @@
       <c r="H860" s="69"/>
       <c r="I860" s="72"/>
       <c r="J860" s="69"/>
-      <c r="K860" s="151"/>
+      <c r="K860" s="150"/>
       <c r="L860" s="75"/>
       <c r="M860" s="69"/>
       <c r="N860" s="89"/>
@@ -39040,7 +39044,7 @@
       <c r="H861" s="69"/>
       <c r="I861" s="72"/>
       <c r="J861" s="69"/>
-      <c r="K861" s="151"/>
+      <c r="K861" s="150"/>
       <c r="L861" s="75"/>
       <c r="M861" s="69"/>
       <c r="N861" s="89"/>
@@ -39056,7 +39060,7 @@
       <c r="H862" s="69"/>
       <c r="I862" s="72"/>
       <c r="J862" s="69"/>
-      <c r="K862" s="151"/>
+      <c r="K862" s="150"/>
       <c r="L862" s="75"/>
       <c r="M862" s="69"/>
       <c r="N862" s="89"/>
@@ -39072,7 +39076,7 @@
       <c r="H863" s="69"/>
       <c r="I863" s="72"/>
       <c r="J863" s="69"/>
-      <c r="K863" s="151"/>
+      <c r="K863" s="150"/>
       <c r="L863" s="75"/>
       <c r="M863" s="69"/>
       <c r="N863" s="89"/>
@@ -39088,7 +39092,7 @@
       <c r="H864" s="69"/>
       <c r="I864" s="72"/>
       <c r="J864" s="69"/>
-      <c r="K864" s="151"/>
+      <c r="K864" s="150"/>
       <c r="L864" s="75"/>
       <c r="M864" s="69"/>
       <c r="N864" s="89"/>
@@ -39104,7 +39108,7 @@
       <c r="H865" s="69"/>
       <c r="I865" s="72"/>
       <c r="J865" s="69"/>
-      <c r="K865" s="151"/>
+      <c r="K865" s="150"/>
       <c r="L865" s="75"/>
       <c r="M865" s="69"/>
       <c r="N865" s="89"/>
@@ -39120,7 +39124,7 @@
       <c r="H866" s="69"/>
       <c r="I866" s="72"/>
       <c r="J866" s="69"/>
-      <c r="K866" s="151"/>
+      <c r="K866" s="150"/>
       <c r="L866" s="75"/>
       <c r="M866" s="69"/>
       <c r="N866" s="89"/>
@@ -39136,7 +39140,7 @@
       <c r="H867" s="69"/>
       <c r="I867" s="72"/>
       <c r="J867" s="69"/>
-      <c r="K867" s="151"/>
+      <c r="K867" s="150"/>
       <c r="L867" s="75"/>
       <c r="M867" s="69"/>
       <c r="N867" s="89"/>
@@ -39152,7 +39156,7 @@
       <c r="H868" s="69"/>
       <c r="I868" s="72"/>
       <c r="J868" s="69"/>
-      <c r="K868" s="151"/>
+      <c r="K868" s="150"/>
       <c r="L868" s="75"/>
       <c r="M868" s="69"/>
       <c r="N868" s="89"/>
@@ -39168,7 +39172,7 @@
       <c r="H869" s="69"/>
       <c r="I869" s="72"/>
       <c r="J869" s="69"/>
-      <c r="K869" s="151"/>
+      <c r="K869" s="150"/>
       <c r="L869" s="75"/>
       <c r="M869" s="69"/>
       <c r="N869" s="89"/>
@@ -39184,7 +39188,7 @@
       <c r="H870" s="69"/>
       <c r="I870" s="72"/>
       <c r="J870" s="69"/>
-      <c r="K870" s="151"/>
+      <c r="K870" s="150"/>
       <c r="L870" s="75"/>
       <c r="M870" s="69"/>
       <c r="N870" s="89"/>
@@ -39200,7 +39204,7 @@
       <c r="H871" s="69"/>
       <c r="I871" s="72"/>
       <c r="J871" s="69"/>
-      <c r="K871" s="151"/>
+      <c r="K871" s="150"/>
       <c r="L871" s="75"/>
       <c r="M871" s="69"/>
       <c r="N871" s="89"/>
@@ -39216,7 +39220,7 @@
       <c r="H872" s="69"/>
       <c r="I872" s="72"/>
       <c r="J872" s="69"/>
-      <c r="K872" s="151"/>
+      <c r="K872" s="150"/>
       <c r="L872" s="75"/>
       <c r="M872" s="69"/>
       <c r="N872" s="89"/>
@@ -39232,7 +39236,7 @@
       <c r="H873" s="69"/>
       <c r="I873" s="72"/>
       <c r="J873" s="69"/>
-      <c r="K873" s="151"/>
+      <c r="K873" s="150"/>
       <c r="L873" s="75"/>
       <c r="M873" s="69"/>
       <c r="N873" s="89"/>
@@ -39248,7 +39252,7 @@
       <c r="H874" s="69"/>
       <c r="I874" s="72"/>
       <c r="J874" s="69"/>
-      <c r="K874" s="151"/>
+      <c r="K874" s="150"/>
       <c r="L874" s="75"/>
       <c r="M874" s="69"/>
       <c r="N874" s="89"/>
@@ -39264,7 +39268,7 @@
       <c r="H875" s="69"/>
       <c r="I875" s="72"/>
       <c r="J875" s="69"/>
-      <c r="K875" s="151"/>
+      <c r="K875" s="150"/>
       <c r="L875" s="75"/>
       <c r="M875" s="69"/>
       <c r="N875" s="89"/>
@@ -39280,7 +39284,7 @@
       <c r="H876" s="69"/>
       <c r="I876" s="72"/>
       <c r="J876" s="69"/>
-      <c r="K876" s="151"/>
+      <c r="K876" s="150"/>
       <c r="L876" s="75"/>
       <c r="M876" s="69"/>
       <c r="N876" s="89"/>
@@ -39296,7 +39300,7 @@
       <c r="H877" s="69"/>
       <c r="I877" s="72"/>
       <c r="J877" s="69"/>
-      <c r="K877" s="151"/>
+      <c r="K877" s="150"/>
       <c r="L877" s="75"/>
       <c r="M877" s="69"/>
       <c r="N877" s="89"/>
@@ -39312,7 +39316,7 @@
       <c r="H878" s="69"/>
       <c r="I878" s="72"/>
       <c r="J878" s="69"/>
-      <c r="K878" s="151"/>
+      <c r="K878" s="150"/>
       <c r="L878" s="75"/>
       <c r="M878" s="69"/>
       <c r="N878" s="89"/>
@@ -39328,7 +39332,7 @@
       <c r="H879" s="69"/>
       <c r="I879" s="72"/>
       <c r="J879" s="69"/>
-      <c r="K879" s="151"/>
+      <c r="K879" s="150"/>
       <c r="L879" s="75"/>
       <c r="M879" s="69"/>
       <c r="N879" s="89"/>
@@ -39344,7 +39348,7 @@
       <c r="H880" s="69"/>
       <c r="I880" s="72"/>
       <c r="J880" s="69"/>
-      <c r="K880" s="151"/>
+      <c r="K880" s="150"/>
       <c r="L880" s="75"/>
       <c r="M880" s="69"/>
       <c r="N880" s="89"/>
@@ -39360,7 +39364,7 @@
       <c r="H881" s="69"/>
       <c r="I881" s="72"/>
       <c r="J881" s="69"/>
-      <c r="K881" s="151"/>
+      <c r="K881" s="150"/>
       <c r="L881" s="75"/>
       <c r="M881" s="69"/>
       <c r="N881" s="89"/>
@@ -39376,7 +39380,7 @@
       <c r="H882" s="69"/>
       <c r="I882" s="72"/>
       <c r="J882" s="69"/>
-      <c r="K882" s="151"/>
+      <c r="K882" s="150"/>
       <c r="L882" s="75"/>
       <c r="M882" s="69"/>
       <c r="N882" s="89"/>
@@ -39392,7 +39396,7 @@
       <c r="H883" s="69"/>
       <c r="I883" s="72"/>
       <c r="J883" s="69"/>
-      <c r="K883" s="151"/>
+      <c r="K883" s="150"/>
       <c r="L883" s="75"/>
       <c r="M883" s="69"/>
       <c r="N883" s="89"/>
@@ -39408,7 +39412,7 @@
       <c r="H884" s="69"/>
       <c r="I884" s="72"/>
       <c r="J884" s="69"/>
-      <c r="K884" s="151"/>
+      <c r="K884" s="150"/>
       <c r="L884" s="75"/>
       <c r="M884" s="69"/>
       <c r="N884" s="89"/>
@@ -39424,7 +39428,7 @@
       <c r="H885" s="69"/>
       <c r="I885" s="72"/>
       <c r="J885" s="69"/>
-      <c r="K885" s="151"/>
+      <c r="K885" s="150"/>
       <c r="L885" s="75"/>
       <c r="M885" s="69"/>
       <c r="N885" s="89"/>
@@ -39440,7 +39444,7 @@
       <c r="H886" s="69"/>
       <c r="I886" s="72"/>
       <c r="J886" s="69"/>
-      <c r="K886" s="151"/>
+      <c r="K886" s="150"/>
       <c r="L886" s="75"/>
       <c r="M886" s="69"/>
       <c r="N886" s="89"/>
@@ -39456,7 +39460,7 @@
       <c r="H887" s="69"/>
       <c r="I887" s="72"/>
       <c r="J887" s="69"/>
-      <c r="K887" s="151"/>
+      <c r="K887" s="150"/>
       <c r="L887" s="75"/>
       <c r="M887" s="69"/>
       <c r="N887" s="89"/>
@@ -39472,7 +39476,7 @@
       <c r="H888" s="69"/>
       <c r="I888" s="72"/>
       <c r="J888" s="69"/>
-      <c r="K888" s="151"/>
+      <c r="K888" s="150"/>
       <c r="L888" s="75"/>
       <c r="M888" s="69"/>
       <c r="N888" s="89"/>
@@ -39488,7 +39492,7 @@
       <c r="H889" s="69"/>
       <c r="I889" s="72"/>
       <c r="J889" s="69"/>
-      <c r="K889" s="151"/>
+      <c r="K889" s="150"/>
       <c r="L889" s="75"/>
       <c r="M889" s="69"/>
       <c r="N889" s="89"/>
@@ -39504,7 +39508,7 @@
       <c r="H890" s="69"/>
       <c r="I890" s="72"/>
       <c r="J890" s="69"/>
-      <c r="K890" s="151"/>
+      <c r="K890" s="150"/>
       <c r="L890" s="75"/>
       <c r="M890" s="69"/>
       <c r="N890" s="89"/>
@@ -39520,7 +39524,7 @@
       <c r="H891" s="69"/>
       <c r="I891" s="72"/>
       <c r="J891" s="69"/>
-      <c r="K891" s="151"/>
+      <c r="K891" s="150"/>
       <c r="L891" s="75"/>
       <c r="M891" s="69"/>
       <c r="N891" s="89"/>
@@ -39536,7 +39540,7 @@
       <c r="H892" s="69"/>
       <c r="I892" s="72"/>
       <c r="J892" s="69"/>
-      <c r="K892" s="151"/>
+      <c r="K892" s="150"/>
       <c r="L892" s="75"/>
       <c r="M892" s="69"/>
       <c r="N892" s="89"/>
@@ -39552,7 +39556,7 @@
       <c r="H893" s="69"/>
       <c r="I893" s="72"/>
       <c r="J893" s="69"/>
-      <c r="K893" s="151"/>
+      <c r="K893" s="150"/>
       <c r="L893" s="75"/>
       <c r="M893" s="69"/>
       <c r="N893" s="89"/>
@@ -39568,7 +39572,7 @@
       <c r="H894" s="69"/>
       <c r="I894" s="72"/>
       <c r="J894" s="69"/>
-      <c r="K894" s="151"/>
+      <c r="K894" s="150"/>
       <c r="L894" s="75"/>
       <c r="M894" s="69"/>
       <c r="N894" s="89"/>
@@ -39584,7 +39588,7 @@
       <c r="H895" s="69"/>
       <c r="I895" s="72"/>
       <c r="J895" s="69"/>
-      <c r="K895" s="151"/>
+      <c r="K895" s="150"/>
       <c r="L895" s="75"/>
       <c r="M895" s="69"/>
       <c r="N895" s="89"/>
@@ -39600,7 +39604,7 @@
       <c r="H896" s="69"/>
       <c r="I896" s="72"/>
       <c r="J896" s="69"/>
-      <c r="K896" s="151"/>
+      <c r="K896" s="150"/>
       <c r="L896" s="75"/>
       <c r="M896" s="69"/>
       <c r="N896" s="89"/>
@@ -39616,7 +39620,7 @@
       <c r="H897" s="69"/>
       <c r="I897" s="72"/>
       <c r="J897" s="69"/>
-      <c r="K897" s="151"/>
+      <c r="K897" s="150"/>
       <c r="L897" s="75"/>
       <c r="M897" s="69"/>
       <c r="N897" s="89"/>
@@ -39632,7 +39636,7 @@
       <c r="H898" s="69"/>
       <c r="I898" s="72"/>
       <c r="J898" s="69"/>
-      <c r="K898" s="151"/>
+      <c r="K898" s="150"/>
       <c r="L898" s="75"/>
       <c r="M898" s="69"/>
       <c r="N898" s="89"/>
@@ -39648,7 +39652,7 @@
       <c r="H899" s="69"/>
       <c r="I899" s="72"/>
       <c r="J899" s="69"/>
-      <c r="K899" s="151"/>
+      <c r="K899" s="150"/>
       <c r="L899" s="75"/>
       <c r="M899" s="69"/>
       <c r="N899" s="89"/>
@@ -39664,7 +39668,7 @@
       <c r="H900" s="69"/>
       <c r="I900" s="72"/>
       <c r="J900" s="69"/>
-      <c r="K900" s="151"/>
+      <c r="K900" s="150"/>
       <c r="L900" s="75"/>
       <c r="M900" s="69"/>
       <c r="N900" s="89"/>
@@ -39680,7 +39684,7 @@
       <c r="H901" s="69"/>
       <c r="I901" s="72"/>
       <c r="J901" s="69"/>
-      <c r="K901" s="151"/>
+      <c r="K901" s="150"/>
       <c r="L901" s="75"/>
       <c r="M901" s="69"/>
       <c r="N901" s="89"/>
@@ -39696,7 +39700,7 @@
       <c r="H902" s="69"/>
       <c r="I902" s="72"/>
       <c r="J902" s="69"/>
-      <c r="K902" s="151"/>
+      <c r="K902" s="150"/>
       <c r="L902" s="75"/>
       <c r="M902" s="69"/>
       <c r="N902" s="89"/>
@@ -39712,7 +39716,7 @@
       <c r="H903" s="69"/>
       <c r="I903" s="72"/>
       <c r="J903" s="69"/>
-      <c r="K903" s="151"/>
+      <c r="K903" s="150"/>
       <c r="L903" s="75"/>
       <c r="M903" s="69"/>
       <c r="N903" s="89"/>
@@ -39786,10 +39790,10 @@
         <v>2473</v>
       </c>
       <c r="N1" s="96" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="84" customHeight="1">
@@ -39828,7 +39832,7 @@
         <v>2037</v>
       </c>
       <c r="N2" s="104" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="O2" s="103"/>
     </row>
@@ -39868,7 +39872,7 @@
         <v>2038</v>
       </c>
       <c r="N3" s="104" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="O3" s="103"/>
     </row>
@@ -39902,7 +39906,7 @@
       <c r="L4" s="108"/>
       <c r="M4" s="10"/>
       <c r="N4" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O4" s="3"/>
     </row>
@@ -39935,7 +39939,7 @@
       <c r="L5" s="110"/>
       <c r="M5" s="10"/>
       <c r="N5" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O5" s="3"/>
     </row>
@@ -39967,7 +39971,7 @@
       <c r="L6" s="108"/>
       <c r="M6" s="10"/>
       <c r="N6" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O6" s="3"/>
     </row>
@@ -40001,7 +40005,7 @@
       <c r="L7" s="108"/>
       <c r="M7" s="10"/>
       <c r="N7" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O7" s="3"/>
     </row>
@@ -40033,7 +40037,7 @@
       <c r="L8" s="57"/>
       <c r="M8" s="10"/>
       <c r="N8" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O8" s="3"/>
     </row>
@@ -40068,14 +40072,14 @@
         <v>232604</v>
       </c>
       <c r="K9" s="99"/>
-      <c r="L9" s="125" t="s">
-        <v>2497</v>
+      <c r="L9" s="124" t="s">
+        <v>2496</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -40111,13 +40115,13 @@
       </c>
       <c r="K10" s="99"/>
       <c r="L10" s="56" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="N10" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -40151,13 +40155,13 @@
       </c>
       <c r="K11" s="99"/>
       <c r="L11" s="111" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="N11" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -40187,11 +40191,11 @@
       <c r="J12" s="21"/>
       <c r="K12" s="98"/>
       <c r="L12" s="118" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -40222,12 +40226,12 @@
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="140" t="s">
-        <v>2516</v>
+      <c r="L13" s="139" t="s">
+        <v>2513</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O13" s="3"/>
     </row>
@@ -40261,7 +40265,7 @@
       <c r="L14" s="57"/>
       <c r="M14" s="10"/>
       <c r="N14" s="104" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="O14" s="103"/>
     </row>
@@ -40297,7 +40301,7 @@
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="104" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="O15" s="3"/>
     </row>
@@ -40330,11 +40334,11 @@
       <c r="J16" s="26"/>
       <c r="K16" s="98"/>
       <c r="L16" s="118" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="103" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="17">
@@ -40365,7 +40369,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="98"/>
       <c r="L17" s="108" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="19"/>
@@ -40402,14 +40406,14 @@
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="98"/>
-      <c r="L18" s="140" t="s">
-        <v>2548</v>
+      <c r="L18" s="139" t="s">
+        <v>2545</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>2004</v>
       </c>
-      <c r="N18" s="138" t="s">
-        <v>2549</v>
+      <c r="N18" s="137" t="s">
+        <v>2546</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="17">
@@ -40443,14 +40447,14 @@
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="98"/>
-      <c r="L19" s="140" t="s">
-        <v>2548</v>
+      <c r="L19" s="139" t="s">
+        <v>2545</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N19" s="138" t="s">
-        <v>2549</v>
+      <c r="N19" s="137" t="s">
+        <v>2546</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="16">
@@ -40477,8 +40481,8 @@
       <c r="K20" s="98"/>
       <c r="L20" s="57"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="145" t="s">
-        <v>2554</v>
+      <c r="N20" s="144" t="s">
+        <v>2551</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -40517,17 +40521,17 @@
       <c r="J21" s="26">
         <v>32846</v>
       </c>
-      <c r="K21" s="168" t="s">
-        <v>2538</v>
-      </c>
-      <c r="L21" s="140" t="s">
-        <v>2539</v>
+      <c r="K21" s="166" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L21" s="139" t="s">
+        <v>2536</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>2037</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" ht="17">
@@ -40562,17 +40566,17 @@
       <c r="J22" s="26">
         <v>32845</v>
       </c>
-      <c r="K22" s="168" t="s">
-        <v>2538</v>
-      </c>
-      <c r="L22" s="140" t="s">
-        <v>2539</v>
+      <c r="K22" s="166" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L22" s="139" t="s">
+        <v>2536</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="O22" s="139" t="s">
-        <v>2536</v>
+      <c r="O22" s="138" t="s">
+        <v>2533</v>
       </c>
     </row>
   </sheetData>

--- a/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
+++ b/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/fhir-mCODE-ig/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C35CE9-6CCE-CC43-8D50-0B5CB21889C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E6F44B-2528-4440-9079-8892F4E81078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="500" windowWidth="56400" windowHeight="26080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6465" uniqueCount="2564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6463" uniqueCount="2562">
   <si>
     <t>Description</t>
   </si>
@@ -7471,9 +7471,6 @@
   </si>
   <si>
     <t>Use Neck Levels  Qualifiers (I-X)</t>
-  </si>
-  <si>
-    <t>USCRS-33346</t>
   </si>
   <si>
     <t>Presacral lymph node group (body structure)</t>
@@ -7591,12 +7588,6 @@
   </si>
   <si>
     <t>Drop  10/26/21</t>
-  </si>
-  <si>
-    <t>Use Local code - TG263#small-bowel-space</t>
-  </si>
-  <si>
-    <t>Use local code - TG263#bowel-space.   Reopen discussion with SNOMEDCT for code based on potential space, just like Neck lymph node levels</t>
   </si>
   <si>
     <t>Space occupied by small bowel</t>
@@ -7773,16 +7764,19 @@
     <t>USCRS-33146</t>
   </si>
   <si>
-    <t>USCRS-33351</t>
-  </si>
-  <si>
-    <t>USCRS-33352</t>
-  </si>
-  <si>
     <t>Structure of anterior descending branch of left coronary artery (body structure)</t>
   </si>
   <si>
     <t>USCRS-33446</t>
+  </si>
+  <si>
+    <t>USCRS-34356</t>
+  </si>
+  <si>
+    <t>USCRS-34358</t>
+  </si>
+  <si>
+    <t>Resubmitted as observable entity July 2022</t>
   </si>
 </sst>
 </file>
@@ -8435,9 +8429,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8530,9 +8521,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8567,7 +8555,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8920,8 +8914,8 @@
   <dimension ref="A1:R903"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A654" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M657" sqref="M657"/>
+      <pane ySplit="1" topLeftCell="A525" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N536" sqref="N536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8934,7 +8928,7 @@
     <col min="6" max="6" width="13.33203125" style="80" customWidth="1"/>
     <col min="7" max="9" width="15.33203125" style="80" customWidth="1"/>
     <col min="10" max="10" width="12" style="80" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="155" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="154" customWidth="1"/>
     <col min="12" max="12" width="49" style="90" customWidth="1"/>
     <col min="13" max="13" width="12.1640625" style="80" customWidth="1"/>
     <col min="14" max="14" width="54.33203125" style="29" customWidth="1"/>
@@ -8971,7 +8965,7 @@
       <c r="J1" s="73" t="s">
         <v>737</v>
       </c>
-      <c r="K1" s="148" t="s">
+      <c r="K1" s="147" t="s">
         <v>2474</v>
       </c>
       <c r="L1" s="94" t="s">
@@ -9014,7 +9008,7 @@
       <c r="J2" s="18">
         <v>3734</v>
       </c>
-      <c r="K2" s="149">
+      <c r="K2" s="148">
         <v>15825003</v>
       </c>
       <c r="L2" s="57" t="s">
@@ -9053,7 +9047,7 @@
       <c r="J3" s="26">
         <v>3736</v>
       </c>
-      <c r="K3" s="149">
+      <c r="K3" s="148">
         <v>54247002</v>
       </c>
       <c r="L3" s="57" t="s">
@@ -9092,7 +9086,7 @@
       <c r="J4" s="18">
         <v>3932</v>
       </c>
-      <c r="K4" s="150">
+      <c r="K4" s="149">
         <v>425444002</v>
       </c>
       <c r="L4" s="57" t="s">
@@ -9131,7 +9125,7 @@
       <c r="J5" s="18">
         <v>3939</v>
       </c>
-      <c r="K5" s="149">
+      <c r="K5" s="148">
         <v>69105007</v>
       </c>
       <c r="L5" s="57" t="s">
@@ -9172,7 +9166,7 @@
       <c r="J6" s="18">
         <v>4058</v>
       </c>
-      <c r="K6" s="149">
+      <c r="K6" s="148">
         <v>69105007</v>
       </c>
       <c r="L6" s="57" t="s">
@@ -9215,7 +9209,7 @@
       <c r="J7" s="18">
         <v>3941</v>
       </c>
-      <c r="K7" s="149">
+      <c r="K7" s="148">
         <v>69105007</v>
       </c>
       <c r="L7" s="57" t="s">
@@ -9256,7 +9250,7 @@
       <c r="J8" s="18">
         <v>50737</v>
       </c>
-      <c r="K8" s="151">
+      <c r="K8" s="150">
         <v>57850000</v>
       </c>
       <c r="L8" s="57" t="s">
@@ -9295,7 +9289,7 @@
       <c r="J9" s="18">
         <v>49893</v>
       </c>
-      <c r="K9" s="149">
+      <c r="K9" s="148">
         <v>41801008</v>
       </c>
       <c r="L9" s="57" t="s">
@@ -9336,7 +9330,7 @@
       <c r="J10" s="18">
         <v>50040</v>
       </c>
-      <c r="K10" s="149">
+      <c r="K10" s="148">
         <v>41801008</v>
       </c>
       <c r="L10" s="57" t="s">
@@ -9379,7 +9373,7 @@
       <c r="J11" s="18">
         <v>50039</v>
       </c>
-      <c r="K11" s="149">
+      <c r="K11" s="148">
         <v>41801008</v>
       </c>
       <c r="L11" s="57" t="s">
@@ -9422,7 +9416,7 @@
       <c r="J12" s="26">
         <v>70250</v>
       </c>
-      <c r="K12" s="149">
+      <c r="K12" s="148">
         <v>7657000</v>
       </c>
       <c r="L12" s="57" t="s">
@@ -9465,7 +9459,7 @@
       <c r="J13" s="26">
         <v>70249</v>
       </c>
-      <c r="K13" s="149">
+      <c r="K13" s="148">
         <v>7657000</v>
       </c>
       <c r="L13" s="57" t="s">
@@ -9506,7 +9500,7 @@
         <v>1963</v>
       </c>
       <c r="J14" s="28"/>
-      <c r="K14" s="152">
+      <c r="K14" s="151">
         <v>244314003</v>
       </c>
       <c r="L14" s="74" t="s">
@@ -9548,7 +9542,7 @@
         <v>1671</v>
       </c>
       <c r="J15" s="28"/>
-      <c r="K15" s="152">
+      <c r="K15" s="151">
         <v>244314003</v>
       </c>
       <c r="L15" s="74" t="s">
@@ -9583,7 +9577,7 @@
         <v>1977</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="I16" s="25" t="s">
         <v>392</v>
@@ -9591,7 +9585,7 @@
       <c r="J16" s="26">
         <v>49846</v>
       </c>
-      <c r="K16" s="149">
+      <c r="K16" s="148">
         <v>74200005</v>
       </c>
       <c r="L16" s="57" t="s">
@@ -9632,7 +9626,7 @@
       <c r="J17" s="26">
         <v>49849</v>
       </c>
-      <c r="K17" s="149">
+      <c r="K17" s="148">
         <v>55601007</v>
       </c>
       <c r="L17" s="57" t="s">
@@ -9671,7 +9665,7 @@
         <v>1651</v>
       </c>
       <c r="J18" s="26"/>
-      <c r="K18" s="151">
+      <c r="K18" s="150">
         <v>244327004</v>
       </c>
       <c r="L18" s="75" t="s">
@@ -9712,7 +9706,7 @@
         <v>1650</v>
       </c>
       <c r="J19" s="26"/>
-      <c r="K19" s="151">
+      <c r="K19" s="150">
         <v>244327004</v>
       </c>
       <c r="L19" s="75" t="s">
@@ -9755,7 +9749,7 @@
       <c r="J20" s="26">
         <v>18807</v>
       </c>
-      <c r="K20" s="149">
+      <c r="K20" s="148">
         <v>113269004</v>
       </c>
       <c r="L20" s="57" t="s">
@@ -9798,7 +9792,7 @@
       <c r="J21" s="26">
         <v>18806</v>
       </c>
-      <c r="K21" s="149">
+      <c r="K21" s="148">
         <v>113269004</v>
       </c>
       <c r="L21" s="57" t="s">
@@ -9841,7 +9835,7 @@
       <c r="J22" s="26">
         <v>18810</v>
       </c>
-      <c r="K22" s="149">
+      <c r="K22" s="148">
         <v>90024005</v>
       </c>
       <c r="L22" s="57" t="s">
@@ -9884,7 +9878,7 @@
       <c r="J23" s="26">
         <v>18809</v>
       </c>
-      <c r="K23" s="149">
+      <c r="K23" s="148">
         <v>90024005</v>
       </c>
       <c r="L23" s="57" t="s">
@@ -9927,7 +9921,7 @@
       <c r="J24" s="26">
         <v>14766</v>
       </c>
-      <c r="K24" s="151">
+      <c r="K24" s="150">
         <v>73634005</v>
       </c>
       <c r="L24" s="75" t="s">
@@ -9970,7 +9964,7 @@
       <c r="J25" s="26">
         <v>14765</v>
       </c>
-      <c r="K25" s="149">
+      <c r="K25" s="148">
         <v>73634005</v>
       </c>
       <c r="L25" s="57" t="s">
@@ -10011,11 +10005,11 @@
       <c r="J26" s="26">
         <v>3862</v>
       </c>
-      <c r="K26" s="153">
+      <c r="K26" s="152">
         <v>33795007</v>
       </c>
-      <c r="L26" s="147" t="s">
-        <v>2562</v>
+      <c r="L26" s="146" t="s">
+        <v>2557</v>
       </c>
       <c r="M26" s="10"/>
       <c r="N26" s="11"/>
@@ -10052,7 +10046,7 @@
       <c r="J27" s="26">
         <v>14750</v>
       </c>
-      <c r="K27" s="149">
+      <c r="K27" s="148">
         <v>33795007</v>
       </c>
       <c r="L27" s="57" t="s">
@@ -10093,7 +10087,7 @@
       <c r="J28" s="26">
         <v>14749</v>
       </c>
-      <c r="K28" s="149">
+      <c r="K28" s="148">
         <v>42258001</v>
       </c>
       <c r="L28" s="57" t="s">
@@ -10132,7 +10126,7 @@
       <c r="J29" s="26">
         <v>66326</v>
       </c>
-      <c r="K29" s="149">
+      <c r="K29" s="148">
         <v>81040000</v>
       </c>
       <c r="L29" s="57" t="s">
@@ -10171,7 +10165,7 @@
       <c r="J30" s="26">
         <v>3951</v>
       </c>
-      <c r="K30" s="149">
+      <c r="K30" s="148">
         <v>36765005</v>
       </c>
       <c r="L30" s="57" t="s">
@@ -10212,7 +10206,7 @@
       <c r="J31" s="26">
         <v>4694</v>
       </c>
-      <c r="K31" s="149">
+      <c r="K31" s="148">
         <v>36765005</v>
       </c>
       <c r="L31" s="57" t="s">
@@ -10255,7 +10249,7 @@
       <c r="J32" s="26">
         <v>3953</v>
       </c>
-      <c r="K32" s="149">
+      <c r="K32" s="148">
         <v>36765005</v>
       </c>
       <c r="L32" s="57" t="s">
@@ -10296,7 +10290,7 @@
       <c r="J33" s="26">
         <v>3956</v>
       </c>
-      <c r="K33" s="149">
+      <c r="K33" s="148">
         <v>85234005</v>
       </c>
       <c r="L33" s="57" t="s">
@@ -10337,7 +10331,7 @@
       <c r="J34" s="26">
         <v>4066</v>
       </c>
-      <c r="K34" s="149">
+      <c r="K34" s="148">
         <v>85234005</v>
       </c>
       <c r="L34" s="57" t="s">
@@ -10380,7 +10374,7 @@
       <c r="J35" s="26">
         <v>3958</v>
       </c>
-      <c r="K35" s="149">
+      <c r="K35" s="148">
         <v>85234005</v>
       </c>
       <c r="L35" s="57" t="s">
@@ -10423,7 +10417,7 @@
       <c r="J36" s="26">
         <v>16599</v>
       </c>
-      <c r="K36" s="149">
+      <c r="K36" s="148">
         <v>37783008</v>
       </c>
       <c r="L36" s="57" t="s">
@@ -10466,7 +10460,7 @@
       <c r="J37" s="26">
         <v>16598</v>
       </c>
-      <c r="K37" s="149">
+      <c r="K37" s="148">
         <v>37783008</v>
       </c>
       <c r="L37" s="57" t="s">
@@ -10507,7 +10501,7 @@
       <c r="J38" s="26">
         <v>16579</v>
       </c>
-      <c r="K38" s="149">
+      <c r="K38" s="148">
         <v>37783008</v>
       </c>
       <c r="L38" s="57" t="s">
@@ -10544,7 +10538,7 @@
         <v>1712</v>
       </c>
       <c r="J39" s="26"/>
-      <c r="K39" s="149">
+      <c r="K39" s="148">
         <v>89187006</v>
       </c>
       <c r="L39" s="57" t="s">
@@ -10583,7 +10577,7 @@
         <v>1710</v>
       </c>
       <c r="J40" s="26"/>
-      <c r="K40" s="149">
+      <c r="K40" s="148">
         <v>89187006</v>
       </c>
       <c r="L40" s="57" t="s">
@@ -10624,7 +10618,7 @@
       <c r="J41" s="26">
         <v>15711</v>
       </c>
-      <c r="K41" s="149">
+      <c r="K41" s="148">
         <v>123956007</v>
       </c>
       <c r="L41" s="57" t="s">
@@ -10663,7 +10657,7 @@
       <c r="J42" s="26">
         <v>14542</v>
       </c>
-      <c r="K42" s="149">
+      <c r="K42" s="148">
         <v>66754008</v>
       </c>
       <c r="L42" s="77" t="s">
@@ -10702,7 +10696,7 @@
       <c r="J43" s="26">
         <v>55109</v>
       </c>
-      <c r="K43" s="149">
+      <c r="K43" s="148">
         <v>77578007</v>
       </c>
       <c r="L43" s="78" t="s">
@@ -10743,7 +10737,7 @@
       <c r="J44" s="26">
         <v>55114</v>
       </c>
-      <c r="K44" s="149">
+      <c r="K44" s="148">
         <v>77578007</v>
       </c>
       <c r="L44" s="57" t="s">
@@ -10786,7 +10780,7 @@
       <c r="J45" s="33">
         <v>55113</v>
       </c>
-      <c r="K45" s="149">
+      <c r="K45" s="148">
         <v>77578007</v>
       </c>
       <c r="L45" s="57" t="s">
@@ -10827,7 +10821,7 @@
       <c r="J46" s="18">
         <v>7099</v>
       </c>
-      <c r="K46" s="153">
+      <c r="K46" s="152">
         <v>59652004</v>
       </c>
       <c r="L46" s="76" t="s">
@@ -10868,7 +10862,7 @@
       <c r="J47" s="18">
         <v>7097</v>
       </c>
-      <c r="K47" s="153">
+      <c r="K47" s="152">
         <v>59652004</v>
       </c>
       <c r="L47" s="76" t="s">
@@ -10911,7 +10905,7 @@
       <c r="J48" s="18">
         <v>7096</v>
       </c>
-      <c r="K48" s="153">
+      <c r="K48" s="152">
         <v>59652004</v>
       </c>
       <c r="L48" s="76" t="s">
@@ -10952,7 +10946,7 @@
       <c r="J51" s="18">
         <v>14667</v>
       </c>
-      <c r="K51" s="151">
+      <c r="K51" s="150">
         <v>79741001</v>
       </c>
       <c r="L51" s="75" t="s">
@@ -10989,7 +10983,7 @@
       <c r="J52" s="18">
         <v>15900</v>
       </c>
-      <c r="K52" s="149">
+      <c r="K52" s="148">
         <v>89837001</v>
       </c>
       <c r="L52" s="57" t="s">
@@ -11026,7 +11020,7 @@
       <c r="J53" s="18">
         <v>15902</v>
       </c>
-      <c r="K53" s="149">
+      <c r="K53" s="148">
         <v>393006</v>
       </c>
       <c r="L53" s="57" t="s">
@@ -11063,7 +11057,7 @@
       <c r="J54" s="22">
         <v>30317</v>
       </c>
-      <c r="K54" s="149">
+      <c r="K54" s="148">
         <v>119186007</v>
       </c>
       <c r="L54" s="57" t="s">
@@ -11102,7 +11096,7 @@
       <c r="J55" s="26">
         <v>52740</v>
       </c>
-      <c r="K55" s="149">
+      <c r="K55" s="148">
         <v>52374004</v>
       </c>
       <c r="L55" s="57" t="s">
@@ -11141,7 +11135,7 @@
       <c r="J56" s="26">
         <v>52734</v>
       </c>
-      <c r="K56" s="149">
+      <c r="K56" s="148">
         <v>74872008</v>
       </c>
       <c r="L56" s="57" t="s">
@@ -11180,7 +11174,7 @@
       <c r="J57" s="26">
         <v>52749</v>
       </c>
-      <c r="K57" s="149">
+      <c r="K57" s="148">
         <v>21387005</v>
       </c>
       <c r="L57" s="57" t="s">
@@ -11219,7 +11213,7 @@
       <c r="J58" s="18">
         <v>42832</v>
       </c>
-      <c r="K58" s="149">
+      <c r="K58" s="148">
         <v>22356005</v>
       </c>
       <c r="L58" s="57" t="s">
@@ -11260,7 +11254,7 @@
       <c r="J59" s="26">
         <v>16591</v>
       </c>
-      <c r="K59" s="149">
+      <c r="K59" s="148">
         <v>22356005</v>
       </c>
       <c r="L59" s="57" t="s">
@@ -11303,7 +11297,7 @@
       <c r="J60" s="26">
         <v>16590</v>
       </c>
-      <c r="K60" s="149">
+      <c r="K60" s="148">
         <v>22356005</v>
       </c>
       <c r="L60" s="57" t="s">
@@ -11344,7 +11338,7 @@
       <c r="J61" s="18">
         <v>52752</v>
       </c>
-      <c r="K61" s="149">
+      <c r="K61" s="148">
         <v>421793000</v>
       </c>
       <c r="L61" s="57" t="s">
@@ -11385,7 +11379,7 @@
       <c r="J62" s="18">
         <v>74051</v>
       </c>
-      <c r="K62" s="149">
+      <c r="K62" s="148">
         <v>421793000</v>
       </c>
       <c r="L62" s="57" t="s">
@@ -11428,7 +11422,7 @@
       <c r="J63" s="18">
         <v>74050</v>
       </c>
-      <c r="K63" s="149">
+      <c r="K63" s="148">
         <v>421793000</v>
       </c>
       <c r="L63" s="57" t="s">
@@ -11471,7 +11465,7 @@
       <c r="J64" s="18">
         <v>16594</v>
       </c>
-      <c r="K64" s="149">
+      <c r="K64" s="148">
         <v>85710004</v>
       </c>
       <c r="L64" s="57" t="s">
@@ -11514,7 +11508,7 @@
       <c r="J65" s="18">
         <v>16593</v>
       </c>
-      <c r="K65" s="149">
+      <c r="K65" s="148">
         <v>85710004</v>
       </c>
       <c r="L65" s="57" t="s">
@@ -11555,7 +11549,7 @@
       <c r="J66" s="18">
         <v>52741</v>
       </c>
-      <c r="K66" s="149">
+      <c r="K66" s="148">
         <v>6229007</v>
       </c>
       <c r="L66" s="57" t="s">
@@ -11596,7 +11590,7 @@
       <c r="J67" s="18">
         <v>53646</v>
       </c>
-      <c r="K67" s="149">
+      <c r="K67" s="148">
         <v>6229007</v>
       </c>
       <c r="L67" s="57" t="s">
@@ -11639,7 +11633,7 @@
       <c r="J68" s="18">
         <v>53645</v>
       </c>
-      <c r="K68" s="149">
+      <c r="K68" s="148">
         <v>6229007</v>
       </c>
       <c r="L68" s="57" t="s">
@@ -11680,7 +11674,7 @@
       <c r="J69" s="14">
         <v>52748</v>
       </c>
-      <c r="K69" s="149">
+      <c r="K69" s="148">
         <v>91609006</v>
       </c>
       <c r="L69" s="57" t="s">
@@ -11719,7 +11713,7 @@
       <c r="J70" s="14">
         <v>52872</v>
       </c>
-      <c r="K70" s="149">
+      <c r="K70" s="148">
         <v>59066005</v>
       </c>
       <c r="L70" s="57" t="s">
@@ -11760,7 +11754,7 @@
       <c r="J71" s="14">
         <v>52874</v>
       </c>
-      <c r="K71" s="149">
+      <c r="K71" s="148">
         <v>59066005</v>
       </c>
       <c r="L71" s="57" t="s">
@@ -11803,7 +11797,7 @@
       <c r="J72" s="14">
         <v>52873</v>
       </c>
-      <c r="K72" s="149">
+      <c r="K72" s="148">
         <v>59066005</v>
       </c>
       <c r="L72" s="57" t="s">
@@ -11844,7 +11838,7 @@
       <c r="J73" s="18">
         <v>52745</v>
       </c>
-      <c r="K73" s="149">
+      <c r="K73" s="148">
         <v>74386004</v>
       </c>
       <c r="L73" s="57" t="s">
@@ -11885,7 +11879,7 @@
       <c r="J74" s="18">
         <v>53648</v>
       </c>
-      <c r="K74" s="149">
+      <c r="K74" s="148">
         <v>74386004</v>
       </c>
       <c r="L74" s="57" t="s">
@@ -11928,7 +11922,7 @@
       <c r="J75" s="18">
         <v>53647</v>
       </c>
-      <c r="K75" s="149">
+      <c r="K75" s="148">
         <v>74386004</v>
       </c>
       <c r="L75" s="57" t="s">
@@ -11969,7 +11963,7 @@
       <c r="J76" s="18">
         <v>52735</v>
       </c>
-      <c r="K76" s="149">
+      <c r="K76" s="148">
         <v>31640002</v>
       </c>
       <c r="L76" s="57" t="s">
@@ -12008,7 +12002,7 @@
       <c r="J77" s="18">
         <v>52746</v>
       </c>
-      <c r="K77" s="149">
+      <c r="K77" s="148">
         <v>51283005</v>
       </c>
       <c r="L77" s="57" t="s">
@@ -12049,7 +12043,7 @@
       <c r="J78" s="18">
         <v>53656</v>
       </c>
-      <c r="K78" s="149">
+      <c r="K78" s="148">
         <v>51283005</v>
       </c>
       <c r="L78" s="57" t="s">
@@ -12092,7 +12086,7 @@
       <c r="J79" s="18">
         <v>53655</v>
       </c>
-      <c r="K79" s="149">
+      <c r="K79" s="148">
         <v>51283005</v>
       </c>
       <c r="L79" s="57" t="s">
@@ -12133,7 +12127,7 @@
       <c r="J80" s="18">
         <v>9613</v>
       </c>
-      <c r="K80" s="149">
+      <c r="K80" s="148">
         <v>24924006</v>
       </c>
       <c r="L80" s="57" t="s">
@@ -12174,7 +12168,7 @@
       <c r="J81" s="18">
         <v>52789</v>
       </c>
-      <c r="K81" s="149">
+      <c r="K81" s="148">
         <v>24924006</v>
       </c>
       <c r="L81" s="57" t="s">
@@ -12217,7 +12211,7 @@
       <c r="J82" s="18">
         <v>52788</v>
       </c>
-      <c r="K82" s="149">
+      <c r="K82" s="148">
         <v>24924006</v>
       </c>
       <c r="L82" s="57" t="s">
@@ -12258,7 +12252,7 @@
       <c r="J83" s="18">
         <v>16580</v>
       </c>
-      <c r="K83" s="149">
+      <c r="K83" s="148">
         <v>118645006</v>
       </c>
       <c r="L83" s="57" t="s">
@@ -12299,7 +12293,7 @@
       <c r="J84" s="18">
         <v>20227</v>
       </c>
-      <c r="K84" s="149">
+      <c r="K84" s="148">
         <v>118645006</v>
       </c>
       <c r="L84" s="57" t="s">
@@ -12342,7 +12336,7 @@
       <c r="J85" s="18">
         <v>20226</v>
       </c>
-      <c r="K85" s="149">
+      <c r="K85" s="148">
         <v>118645006</v>
       </c>
       <c r="L85" s="57" t="s">
@@ -12383,7 +12377,7 @@
       <c r="J86" s="18">
         <v>52736</v>
       </c>
-      <c r="K86" s="149">
+      <c r="K86" s="148">
         <v>73117003</v>
       </c>
       <c r="L86" s="57" t="s">
@@ -12422,7 +12416,7 @@
       <c r="J87" s="18">
         <v>52737</v>
       </c>
-      <c r="K87" s="149">
+      <c r="K87" s="148">
         <v>60911003</v>
       </c>
       <c r="L87" s="57" t="s">
@@ -12463,7 +12457,7 @@
       <c r="J88" s="18">
         <v>52739</v>
       </c>
-      <c r="K88" s="149">
+      <c r="K88" s="148">
         <v>60911003</v>
       </c>
       <c r="L88" s="57" t="s">
@@ -12506,7 +12500,7 @@
       <c r="J89" s="18">
         <v>52738</v>
       </c>
-      <c r="K89" s="149">
+      <c r="K89" s="148">
         <v>60911003</v>
       </c>
       <c r="L89" s="57" t="s">
@@ -12549,7 +12543,7 @@
       <c r="J90" s="18">
         <v>52893</v>
       </c>
-      <c r="K90" s="149">
+      <c r="K90" s="148">
         <v>13881006</v>
       </c>
       <c r="L90" s="57" t="s">
@@ -12592,7 +12586,7 @@
       <c r="J91" s="18">
         <v>52892</v>
       </c>
-      <c r="K91" s="149">
+      <c r="K91" s="148">
         <v>13881006</v>
       </c>
       <c r="L91" s="57" t="s">
@@ -12633,7 +12627,7 @@
       <c r="J92" s="18">
         <v>52747</v>
       </c>
-      <c r="K92" s="149">
+      <c r="K92" s="148">
         <v>13881006</v>
       </c>
       <c r="L92" s="57" t="s">
@@ -12672,7 +12666,7 @@
       <c r="J93" s="18">
         <v>9608</v>
       </c>
-      <c r="K93" s="149">
+      <c r="K93" s="148">
         <v>14016003</v>
       </c>
       <c r="L93" s="57" t="s">
@@ -12709,7 +12703,7 @@
       <c r="J94" s="18">
         <v>13295</v>
       </c>
-      <c r="K94" s="149">
+      <c r="K94" s="148">
         <v>5798000</v>
       </c>
       <c r="L94" s="57" t="s">
@@ -12744,7 +12738,7 @@
       <c r="J96" s="18">
         <v>7199</v>
       </c>
-      <c r="K96" s="149">
+      <c r="K96" s="148">
         <v>113276009</v>
       </c>
       <c r="L96" s="57" t="s">
@@ -12783,7 +12777,7 @@
       <c r="J97" s="18">
         <v>7201</v>
       </c>
-      <c r="K97" s="149">
+      <c r="K97" s="148">
         <v>14742008</v>
       </c>
       <c r="L97" s="57" t="s">
@@ -12820,7 +12814,7 @@
       <c r="J98" s="18">
         <v>7200</v>
       </c>
-      <c r="K98" s="149">
+      <c r="K98" s="148">
         <v>30315005</v>
       </c>
       <c r="L98" s="57" t="s">
@@ -12861,7 +12855,7 @@
       <c r="J99" s="18">
         <v>45245</v>
       </c>
-      <c r="K99" s="149">
+      <c r="K99" s="148">
         <v>36582005</v>
       </c>
       <c r="L99" s="57" t="s">
@@ -12904,7 +12898,7 @@
       <c r="J100" s="18">
         <v>45244</v>
       </c>
-      <c r="K100" s="149">
+      <c r="K100" s="148">
         <v>36582005</v>
       </c>
       <c r="L100" s="57" t="s">
@@ -12945,15 +12939,15 @@
       <c r="J101" s="18">
         <v>5906</v>
       </c>
-      <c r="K101" s="149">
+      <c r="K101" s="148">
         <v>36582005</v>
       </c>
       <c r="L101" s="57" t="s">
         <v>2216</v>
       </c>
       <c r="M101" s="10"/>
-      <c r="N101" s="128" t="s">
-        <v>2522</v>
+      <c r="N101" s="127" t="s">
+        <v>2519</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="1" customFormat="1" ht="17">
@@ -12986,7 +12980,7 @@
       <c r="J102" s="18">
         <v>50801</v>
       </c>
-      <c r="K102" s="149">
+      <c r="K102" s="148">
         <v>12738006</v>
       </c>
       <c r="L102" s="57" t="s">
@@ -13025,7 +13019,7 @@
       <c r="J103" s="18">
         <v>79876</v>
       </c>
-      <c r="K103" s="149">
+      <c r="K103" s="148">
         <v>15926001</v>
       </c>
       <c r="L103" s="57" t="s">
@@ -13062,7 +13056,7 @@
         <v>1433</v>
       </c>
       <c r="J104" s="26"/>
-      <c r="K104" s="154">
+      <c r="K104" s="153">
         <v>15926001</v>
       </c>
       <c r="L104" s="79" t="s">
@@ -13101,7 +13095,7 @@
         <v>1436</v>
       </c>
       <c r="J106" s="26"/>
-      <c r="K106" s="154">
+      <c r="K106" s="153">
         <v>15926001</v>
       </c>
       <c r="L106" s="79" t="s">
@@ -13142,7 +13136,7 @@
       <c r="J107" s="18">
         <v>321497</v>
       </c>
-      <c r="K107" s="151">
+      <c r="K107" s="150">
         <v>76752008</v>
       </c>
       <c r="L107" s="75" t="s">
@@ -13183,7 +13177,7 @@
       <c r="J108" s="18">
         <v>321496</v>
       </c>
-      <c r="K108" s="149">
+      <c r="K108" s="148">
         <v>76752008</v>
       </c>
       <c r="L108" s="57" t="s">
@@ -13224,7 +13218,7 @@
       <c r="J109" s="18">
         <v>268893</v>
       </c>
-      <c r="K109" s="149">
+      <c r="K109" s="148">
         <v>76752008</v>
       </c>
       <c r="L109" s="57" t="s">
@@ -13265,7 +13259,7 @@
       <c r="J110" s="18">
         <v>26660</v>
       </c>
-      <c r="K110" s="149">
+      <c r="K110" s="148">
         <v>955009</v>
       </c>
       <c r="L110" s="57" t="s">
@@ -13306,7 +13300,7 @@
       <c r="J111" s="18">
         <v>26662</v>
       </c>
-      <c r="K111" s="149">
+      <c r="K111" s="148">
         <v>955009</v>
       </c>
       <c r="L111" s="57" t="s">
@@ -13347,7 +13341,7 @@
       <c r="J112" s="18">
         <v>7405</v>
       </c>
-      <c r="K112" s="149">
+      <c r="K112" s="148">
         <v>102297006</v>
       </c>
       <c r="L112" s="57" t="s">
@@ -13388,7 +13382,7 @@
       <c r="J113" s="18">
         <v>7396</v>
       </c>
-      <c r="K113" s="149">
+      <c r="K113" s="148">
         <v>102297006</v>
       </c>
       <c r="L113" s="57" t="s">
@@ -13429,7 +13423,7 @@
       <c r="J114" s="18">
         <v>7395</v>
       </c>
-      <c r="K114" s="149">
+      <c r="K114" s="148">
         <v>102297006</v>
       </c>
       <c r="L114" s="57" t="s">
@@ -13470,7 +13464,7 @@
       <c r="J115" s="18">
         <v>26661</v>
       </c>
-      <c r="K115" s="149">
+      <c r="K115" s="148">
         <v>955009</v>
       </c>
       <c r="L115" s="57" t="s">
@@ -13511,7 +13505,7 @@
       <c r="J116" s="26">
         <v>15703</v>
       </c>
-      <c r="K116" s="149">
+      <c r="K116" s="148">
         <v>34381000</v>
       </c>
       <c r="L116" s="57" t="s">
@@ -13548,7 +13542,7 @@
       <c r="J117" s="18">
         <v>7465</v>
       </c>
-      <c r="K117" s="149">
+      <c r="K117" s="148">
         <v>28700002</v>
       </c>
       <c r="L117" s="57" t="s">
@@ -13585,7 +13579,7 @@
       <c r="J118" s="18">
         <v>7206</v>
       </c>
-      <c r="K118" s="149">
+      <c r="K118" s="148">
         <v>38848004</v>
       </c>
       <c r="L118" s="57" t="s">
@@ -13624,7 +13618,7 @@
       <c r="J119" s="18">
         <v>52590</v>
       </c>
-      <c r="K119" s="149">
+      <c r="K119" s="148">
         <v>7173007</v>
       </c>
       <c r="L119" s="57" t="s">
@@ -13661,7 +13655,7 @@
       <c r="J120" s="18">
         <v>75189</v>
       </c>
-      <c r="K120" s="149">
+      <c r="K120" s="148">
         <v>9284003</v>
       </c>
       <c r="L120" s="57" t="s">
@@ -13700,7 +13694,7 @@
       <c r="J121" s="18">
         <v>54378</v>
       </c>
-      <c r="K121" s="149">
+      <c r="K121" s="148">
         <v>279549004</v>
       </c>
       <c r="L121" s="57" t="s">
@@ -13739,7 +13733,7 @@
       <c r="J122" s="18">
         <v>20292</v>
       </c>
-      <c r="K122" s="149">
+      <c r="K122" s="148">
         <v>74262004</v>
       </c>
       <c r="L122" s="57" t="s">
@@ -13776,7 +13770,7 @@
       <c r="J123" s="18">
         <v>14541</v>
       </c>
-      <c r="K123" s="149">
+      <c r="K123" s="148">
         <v>32713005</v>
       </c>
       <c r="L123" s="57" t="s">
@@ -13815,7 +13809,7 @@
       <c r="J124" s="18">
         <v>67944</v>
       </c>
-      <c r="K124" s="149">
+      <c r="K124" s="148">
         <v>113305005</v>
       </c>
       <c r="L124" s="57" t="s">
@@ -13854,7 +13848,7 @@
       <c r="J125" s="26">
         <v>62000</v>
       </c>
-      <c r="K125" s="149">
+      <c r="K125" s="148">
         <v>83678007</v>
       </c>
       <c r="L125" s="57" t="s">
@@ -13893,7 +13887,7 @@
       <c r="J126" s="26">
         <v>61819</v>
       </c>
-      <c r="K126" s="149">
+      <c r="K126" s="148">
         <v>83678007</v>
       </c>
       <c r="L126" s="57" t="s">
@@ -13934,7 +13928,7 @@
       <c r="J127" s="26">
         <v>67292</v>
       </c>
-      <c r="K127" s="149">
+      <c r="K127" s="148">
         <v>83678007</v>
       </c>
       <c r="L127" s="57" t="s">
@@ -13973,7 +13967,7 @@
       <c r="J128" s="26">
         <v>17740</v>
       </c>
-      <c r="K128" s="149">
+      <c r="K128" s="148">
         <v>71252005</v>
       </c>
       <c r="L128" s="57" t="s">
@@ -14010,7 +14004,7 @@
       <c r="J129" s="18">
         <v>50060</v>
       </c>
-      <c r="K129" s="149">
+      <c r="K129" s="148">
         <v>78904004</v>
       </c>
       <c r="L129" s="57" t="s">
@@ -14049,7 +14043,7 @@
       <c r="J130" s="18">
         <v>25559</v>
       </c>
-      <c r="K130" s="149">
+      <c r="K130" s="148">
         <v>78904004</v>
       </c>
       <c r="L130" s="57" t="s">
@@ -14090,7 +14084,7 @@
       <c r="J131" s="18">
         <v>25558</v>
       </c>
-      <c r="K131" s="149">
+      <c r="K131" s="148">
         <v>78904004</v>
       </c>
       <c r="L131" s="57" t="s">
@@ -14129,7 +14123,7 @@
       <c r="J132" s="22">
         <v>83719</v>
       </c>
-      <c r="K132" s="149">
+      <c r="K132" s="148">
         <v>369387006</v>
       </c>
       <c r="L132" s="57" t="s">
@@ -14164,7 +14158,7 @@
         <v>450</v>
       </c>
       <c r="J133" s="18"/>
-      <c r="K133" s="149">
+      <c r="K133" s="148">
         <v>60075002</v>
       </c>
       <c r="L133" s="57" t="s">
@@ -14205,7 +14199,7 @@
       <c r="J134" s="18">
         <v>13323</v>
       </c>
-      <c r="K134" s="149">
+      <c r="K134" s="148">
         <v>51299004</v>
       </c>
       <c r="L134" s="57" t="s">
@@ -14248,7 +14242,7 @@
       <c r="J135" s="18">
         <v>13322</v>
       </c>
-      <c r="K135" s="149">
+      <c r="K135" s="148">
         <v>51299004</v>
       </c>
       <c r="L135" s="57" t="s">
@@ -14289,7 +14283,7 @@
       <c r="J136" s="18">
         <v>50864</v>
       </c>
-      <c r="K136" s="149">
+      <c r="K136" s="148">
         <v>56193007</v>
       </c>
       <c r="L136" s="57" t="s">
@@ -14330,7 +14324,7 @@
       <c r="J137" s="18">
         <v>50880</v>
       </c>
-      <c r="K137" s="149">
+      <c r="K137" s="148">
         <v>56193007</v>
       </c>
       <c r="L137" s="57" t="s">
@@ -14373,7 +14367,7 @@
       <c r="J138" s="18">
         <v>50879</v>
       </c>
-      <c r="K138" s="149">
+      <c r="K138" s="148">
         <v>56193007</v>
       </c>
       <c r="L138" s="57" t="s">
@@ -14414,7 +14408,7 @@
       <c r="J139" s="18">
         <v>50870</v>
       </c>
-      <c r="K139" s="149">
+      <c r="K139" s="148">
         <v>21161002</v>
       </c>
       <c r="L139" s="57" t="s">
@@ -14455,7 +14449,7 @@
       <c r="J140" s="18">
         <v>50892</v>
       </c>
-      <c r="K140" s="149">
+      <c r="K140" s="148">
         <v>21161002</v>
       </c>
       <c r="L140" s="57" t="s">
@@ -14498,7 +14492,7 @@
       <c r="J141" s="18">
         <v>50870</v>
       </c>
-      <c r="K141" s="149">
+      <c r="K141" s="148">
         <v>21161002</v>
       </c>
       <c r="L141" s="57" t="s">
@@ -14539,7 +14533,7 @@
       <c r="J142" s="18">
         <v>50866</v>
       </c>
-      <c r="K142" s="149">
+      <c r="K142" s="148">
         <v>27612005</v>
       </c>
       <c r="L142" s="57" t="s">
@@ -14580,7 +14574,7 @@
       <c r="J143" s="18">
         <v>50885</v>
       </c>
-      <c r="K143" s="149">
+      <c r="K143" s="148">
         <v>27612005</v>
       </c>
       <c r="L143" s="57" t="s">
@@ -14623,7 +14617,7 @@
       <c r="J144" s="18">
         <v>50884</v>
       </c>
-      <c r="K144" s="149">
+      <c r="K144" s="148">
         <v>27612005</v>
       </c>
       <c r="L144" s="57" t="s">
@@ -14664,7 +14658,7 @@
       <c r="J145" s="18">
         <v>50867</v>
       </c>
-      <c r="K145" s="149">
+      <c r="K145" s="148">
         <v>80622005</v>
       </c>
       <c r="L145" s="57" t="s">
@@ -14705,7 +14699,7 @@
       <c r="J146" s="18">
         <v>50887</v>
       </c>
-      <c r="K146" s="149">
+      <c r="K146" s="148">
         <v>80622005</v>
       </c>
       <c r="L146" s="57" t="s">
@@ -14748,7 +14742,7 @@
       <c r="J147" s="18">
         <v>50886</v>
       </c>
-      <c r="K147" s="149">
+      <c r="K147" s="148">
         <v>80622005</v>
       </c>
       <c r="L147" s="57" t="s">
@@ -14789,7 +14783,7 @@
       <c r="J148" s="18">
         <v>50868</v>
       </c>
-      <c r="K148" s="149">
+      <c r="K148" s="148">
         <v>56052001</v>
       </c>
       <c r="L148" s="57" t="s">
@@ -14830,7 +14824,7 @@
       <c r="J149" s="18">
         <v>50889</v>
       </c>
-      <c r="K149" s="149">
+      <c r="K149" s="148">
         <v>56052001</v>
       </c>
       <c r="L149" s="57" t="s">
@@ -14873,7 +14867,7 @@
       <c r="J150" s="18">
         <v>50888</v>
       </c>
-      <c r="K150" s="149">
+      <c r="K150" s="148">
         <v>56052001</v>
       </c>
       <c r="L150" s="57" t="s">
@@ -14914,7 +14908,7 @@
       <c r="J151" s="18">
         <v>50869</v>
       </c>
-      <c r="K151" s="149">
+      <c r="K151" s="148">
         <v>8598002</v>
       </c>
       <c r="L151" s="57" t="s">
@@ -14955,7 +14949,7 @@
       <c r="J152" s="18">
         <v>50891</v>
       </c>
-      <c r="K152" s="149">
+      <c r="K152" s="148">
         <v>8598002</v>
       </c>
       <c r="L152" s="57" t="s">
@@ -14998,7 +14992,7 @@
       <c r="J153" s="18">
         <v>50890</v>
       </c>
-      <c r="K153" s="149">
+      <c r="K153" s="148">
         <v>8598002</v>
       </c>
       <c r="L153" s="57" t="s">
@@ -15039,7 +15033,7 @@
       <c r="J154" s="18">
         <v>6720</v>
       </c>
-      <c r="K154" s="149">
+      <c r="K154" s="148">
         <v>15119000</v>
       </c>
       <c r="L154" s="57" t="s">
@@ -15080,7 +15074,7 @@
       <c r="J155" s="18">
         <v>50899</v>
       </c>
-      <c r="K155" s="149">
+      <c r="K155" s="148">
         <v>15119000</v>
       </c>
       <c r="L155" s="57" t="s">
@@ -15123,7 +15117,7 @@
       <c r="J156" s="18">
         <v>50897</v>
       </c>
-      <c r="K156" s="149">
+      <c r="K156" s="148">
         <v>15119000</v>
       </c>
       <c r="L156" s="57" t="s">
@@ -15164,7 +15158,7 @@
       <c r="J157" s="18">
         <v>50871</v>
       </c>
-      <c r="K157" s="149">
+      <c r="K157" s="148">
         <v>37899009</v>
       </c>
       <c r="L157" s="57" t="s">
@@ -15205,7 +15199,7 @@
       <c r="J158" s="18">
         <v>50903</v>
       </c>
-      <c r="K158" s="149">
+      <c r="K158" s="148">
         <v>37899009</v>
       </c>
       <c r="L158" s="57" t="s">
@@ -15248,7 +15242,7 @@
       <c r="J159" s="18">
         <v>50901</v>
       </c>
-      <c r="K159" s="149">
+      <c r="K159" s="148">
         <v>37899009</v>
       </c>
       <c r="L159" s="57" t="s">
@@ -15289,7 +15283,7 @@
       <c r="J160" s="18">
         <v>60201</v>
       </c>
-      <c r="K160" s="149">
+      <c r="K160" s="148">
         <v>80169004</v>
       </c>
       <c r="L160" s="57" t="s">
@@ -15330,7 +15324,7 @@
       <c r="J161" s="18">
         <v>60203</v>
       </c>
-      <c r="K161" s="149">
+      <c r="K161" s="148">
         <v>80169004</v>
       </c>
       <c r="L161" s="57" t="s">
@@ -15371,7 +15365,7 @@
       <c r="J162" s="18">
         <v>60202</v>
       </c>
-      <c r="K162" s="149">
+      <c r="K162" s="148">
         <v>80169004</v>
       </c>
       <c r="L162" s="57" t="s">
@@ -15410,7 +15404,7 @@
       <c r="J163" s="18">
         <v>14543</v>
       </c>
-      <c r="K163" s="149">
+      <c r="K163" s="148">
         <v>71854001</v>
       </c>
       <c r="L163" s="57" t="s">
@@ -15449,7 +15443,7 @@
       <c r="J164" s="18">
         <v>14545</v>
       </c>
-      <c r="K164" s="149">
+      <c r="K164" s="148">
         <v>9040008</v>
       </c>
       <c r="L164" s="57" t="s">
@@ -15488,7 +15482,7 @@
       <c r="J165" s="18">
         <v>14547</v>
       </c>
-      <c r="K165" s="149">
+      <c r="K165" s="148">
         <v>32622004</v>
       </c>
       <c r="L165" s="57" t="s">
@@ -15525,7 +15519,7 @@
       <c r="J166" s="18">
         <v>268861</v>
       </c>
-      <c r="K166" s="149">
+      <c r="K166" s="148">
         <v>81745001</v>
       </c>
       <c r="L166" s="57" t="s">
@@ -15566,7 +15560,7 @@
       <c r="J167" s="18">
         <v>14548</v>
       </c>
-      <c r="K167" s="149">
+      <c r="K167" s="148">
         <v>60184004</v>
       </c>
       <c r="L167" s="57" t="s">
@@ -15605,7 +15599,7 @@
       <c r="J168" s="18">
         <v>14546</v>
       </c>
-      <c r="K168" s="149">
+      <c r="K168" s="148">
         <v>485005</v>
       </c>
       <c r="L168" s="57" t="s">
@@ -15644,7 +15638,7 @@
       <c r="J169" s="18">
         <v>58238</v>
       </c>
-      <c r="K169" s="155">
+      <c r="K169" s="154">
         <v>28726007</v>
       </c>
       <c r="L169" s="80" t="s">
@@ -15685,7 +15679,7 @@
       <c r="J170" s="18">
         <v>58240</v>
       </c>
-      <c r="K170" s="155">
+      <c r="K170" s="154">
         <v>28726007</v>
       </c>
       <c r="L170" s="80" t="s">
@@ -15728,7 +15722,7 @@
       <c r="J171" s="18">
         <v>58239</v>
       </c>
-      <c r="K171" s="155">
+      <c r="K171" s="154">
         <v>28726007</v>
       </c>
       <c r="L171" s="80" t="s">
@@ -15769,7 +15763,7 @@
       <c r="J172" s="26">
         <v>52890</v>
       </c>
-      <c r="K172" s="149">
+      <c r="K172" s="148">
         <v>36743005</v>
       </c>
       <c r="L172" s="57" t="s">
@@ -15808,7 +15802,7 @@
       <c r="J173" s="18">
         <v>9615</v>
       </c>
-      <c r="K173" s="149">
+      <c r="K173" s="148">
         <v>8600008</v>
       </c>
       <c r="L173" s="57" t="s">
@@ -15847,7 +15841,7 @@
       <c r="J174" s="18">
         <v>46661</v>
       </c>
-      <c r="K174" s="149">
+      <c r="K174" s="148">
         <v>28276008</v>
       </c>
       <c r="L174" s="57" t="s">
@@ -15884,7 +15878,7 @@
       <c r="J175" s="26">
         <v>7202</v>
       </c>
-      <c r="K175" s="149">
+      <c r="K175" s="148">
         <v>28231008</v>
       </c>
       <c r="L175" s="57" t="s">
@@ -15921,7 +15915,7 @@
       <c r="J176" s="26">
         <v>45643</v>
       </c>
-      <c r="K176" s="149">
+      <c r="K176" s="148">
         <v>71934003</v>
       </c>
       <c r="L176" s="57" t="s">
@@ -15960,7 +15954,7 @@
       <c r="J177" s="26">
         <v>59101</v>
       </c>
-      <c r="K177" s="149">
+      <c r="K177" s="148">
         <v>13561001</v>
       </c>
       <c r="L177" s="57" t="s">
@@ -16001,7 +15995,7 @@
       <c r="J178" s="18">
         <v>53644</v>
       </c>
-      <c r="K178" s="149">
+      <c r="K178" s="148">
         <v>117590005</v>
       </c>
       <c r="L178" s="57" t="s">
@@ -16042,7 +16036,7 @@
       <c r="J179" s="18">
         <v>53643</v>
       </c>
-      <c r="K179" s="149">
+      <c r="K179" s="148">
         <v>117590005</v>
       </c>
       <c r="L179" s="57" t="s">
@@ -16085,7 +16079,7 @@
       <c r="J180" s="18">
         <v>52781</v>
       </c>
-      <c r="K180" s="149">
+      <c r="K180" s="148">
         <v>117590005</v>
       </c>
       <c r="L180" s="57" t="s">
@@ -16128,7 +16122,7 @@
       <c r="J181" s="18">
         <v>61021</v>
       </c>
-      <c r="K181" s="149">
+      <c r="K181" s="148">
         <v>117590005</v>
       </c>
       <c r="L181" s="57" t="s">
@@ -16171,7 +16165,7 @@
       <c r="J182" s="18">
         <v>61020</v>
       </c>
-      <c r="K182" s="149">
+      <c r="K182" s="148">
         <v>117590005</v>
       </c>
       <c r="L182" s="57" t="s">
@@ -16214,7 +16208,7 @@
       <c r="J183" s="18">
         <v>60909</v>
       </c>
-      <c r="K183" s="149">
+      <c r="K183" s="148">
         <v>117590005</v>
       </c>
       <c r="L183" s="57" t="s">
@@ -16257,7 +16251,7 @@
       <c r="J184" s="18">
         <v>56513</v>
       </c>
-      <c r="K184" s="149">
+      <c r="K184" s="148">
         <v>117590005</v>
       </c>
       <c r="L184" s="57" t="s">
@@ -16300,7 +16294,7 @@
       <c r="J185" s="18">
         <v>56515</v>
       </c>
-      <c r="K185" s="149">
+      <c r="K185" s="148">
         <v>117590005</v>
       </c>
       <c r="L185" s="57" t="s">
@@ -16343,7 +16337,7 @@
       <c r="J186" s="18">
         <v>56514</v>
       </c>
-      <c r="K186" s="149">
+      <c r="K186" s="148">
         <v>117590005</v>
       </c>
       <c r="L186" s="57" t="s">
@@ -16382,7 +16376,7 @@
       <c r="J187" s="26">
         <v>13890</v>
       </c>
-      <c r="K187" s="149">
+      <c r="K187" s="148">
         <v>111002</v>
       </c>
       <c r="L187" s="57" t="s">
@@ -16419,7 +16413,7 @@
       <c r="J188" s="26">
         <v>24901</v>
       </c>
-      <c r="K188" s="149">
+      <c r="K188" s="148">
         <v>127949000</v>
       </c>
       <c r="L188" s="57" t="s">
@@ -16458,7 +16452,7 @@
       <c r="J189" s="26">
         <v>24903</v>
       </c>
-      <c r="K189" s="149">
+      <c r="K189" s="148">
         <v>127949000</v>
       </c>
       <c r="L189" s="57" t="s">
@@ -16499,7 +16493,7 @@
       <c r="J190" s="26">
         <v>24902</v>
       </c>
-      <c r="K190" s="149">
+      <c r="K190" s="148">
         <v>127949000</v>
       </c>
       <c r="L190" s="57" t="s">
@@ -16538,7 +16532,7 @@
       <c r="J191" s="18">
         <v>7131</v>
       </c>
-      <c r="K191" s="149">
+      <c r="K191" s="148">
         <v>32849002</v>
       </c>
       <c r="L191" s="57" t="s">
@@ -16577,7 +16571,7 @@
       <c r="J192" s="18">
         <v>9397</v>
       </c>
-      <c r="K192" s="149">
+      <c r="K192" s="148">
         <v>32849002</v>
       </c>
       <c r="L192" s="57" t="s">
@@ -16618,7 +16612,7 @@
       <c r="J193" s="18">
         <v>9396</v>
       </c>
-      <c r="K193" s="149">
+      <c r="K193" s="148">
         <v>32849002</v>
       </c>
       <c r="L193" s="57" t="s">
@@ -16657,7 +16651,7 @@
         <v>1445</v>
       </c>
       <c r="J194" s="18"/>
-      <c r="K194" s="149">
+      <c r="K194" s="148">
         <v>32849002</v>
       </c>
       <c r="L194" s="57" t="s">
@@ -16698,7 +16692,7 @@
       <c r="J195" s="26">
         <v>320440</v>
       </c>
-      <c r="K195" s="149">
+      <c r="K195" s="148">
         <v>88481005</v>
       </c>
       <c r="L195" s="57" t="s">
@@ -16737,7 +16731,7 @@
       <c r="J196" s="26">
         <v>320442</v>
       </c>
-      <c r="K196" s="149">
+      <c r="K196" s="148">
         <v>385296007</v>
       </c>
       <c r="L196" s="57" t="s">
@@ -16778,7 +16772,7 @@
       <c r="J197" s="18">
         <v>12515</v>
       </c>
-      <c r="K197" s="149">
+      <c r="K197" s="148">
         <v>81745001</v>
       </c>
       <c r="L197" s="57" t="s">
@@ -16821,7 +16815,7 @@
       <c r="J198" s="18">
         <v>12514</v>
       </c>
-      <c r="K198" s="149">
+      <c r="K198" s="148">
         <v>81745001</v>
       </c>
       <c r="L198" s="57" t="s">
@@ -16862,7 +16856,7 @@
       <c r="J199" s="26">
         <v>9607</v>
       </c>
-      <c r="K199" s="149">
+      <c r="K199" s="148">
         <v>9875009</v>
       </c>
       <c r="L199" s="57" t="s">
@@ -16901,7 +16895,7 @@
       <c r="J200" s="26">
         <v>9603</v>
       </c>
-      <c r="K200" s="149">
+      <c r="K200" s="148">
         <v>69748006</v>
       </c>
       <c r="L200" s="57" t="s">
@@ -16936,23 +16930,23 @@
       <c r="H201" s="16" t="s">
         <v>824</v>
       </c>
-      <c r="I201" s="127" t="s">
+      <c r="I201" s="126" t="s">
         <v>458</v>
       </c>
       <c r="J201" s="18">
         <v>32843</v>
       </c>
-      <c r="K201" s="156">
+      <c r="K201" s="155">
         <v>2812003</v>
       </c>
       <c r="L201" s="105" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="M201" s="10" t="s">
         <v>2037</v>
       </c>
       <c r="N201" s="102" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="202" spans="1:14" s="1" customFormat="1" ht="34">
@@ -16981,23 +16975,23 @@
       <c r="H202" s="16" t="s">
         <v>826</v>
       </c>
-      <c r="I202" s="127" t="s">
+      <c r="I202" s="126" t="s">
         <v>459</v>
       </c>
       <c r="J202" s="18">
         <v>32842</v>
       </c>
-      <c r="K202" s="156">
+      <c r="K202" s="155">
         <v>2812003</v>
       </c>
       <c r="L202" s="105" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="M202" s="10" t="s">
         <v>2038</v>
       </c>
       <c r="N202" s="102" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="203" spans="1:14" s="1" customFormat="1" ht="34">
@@ -17032,7 +17026,7 @@
       <c r="J203" s="18">
         <v>35180</v>
       </c>
-      <c r="K203" s="149">
+      <c r="K203" s="148">
         <v>24136001</v>
       </c>
       <c r="L203" s="57" t="s">
@@ -17075,7 +17069,7 @@
       <c r="J204" s="18">
         <v>35179</v>
       </c>
-      <c r="K204" s="149">
+      <c r="K204" s="148">
         <v>24136001</v>
       </c>
       <c r="L204" s="57" t="s">
@@ -17116,7 +17110,7 @@
       <c r="J205" s="18">
         <v>24475</v>
       </c>
-      <c r="K205" s="149">
+      <c r="K205" s="148">
         <v>71341001</v>
       </c>
       <c r="L205" s="57" t="s">
@@ -17157,7 +17151,7 @@
       <c r="J206" s="18">
         <v>24475</v>
       </c>
-      <c r="K206" s="149">
+      <c r="K206" s="148">
         <v>71341001</v>
       </c>
       <c r="L206" s="57" t="s">
@@ -17198,7 +17192,7 @@
       <c r="J207" s="18">
         <v>42386</v>
       </c>
-      <c r="K207" s="149">
+      <c r="K207" s="148">
         <v>29627003</v>
       </c>
       <c r="L207" s="57" t="s">
@@ -17239,7 +17233,7 @@
       <c r="J208" s="18">
         <v>42386</v>
       </c>
-      <c r="K208" s="157">
+      <c r="K208" s="156">
         <v>29627003</v>
       </c>
       <c r="L208" s="121" t="s">
@@ -17248,8 +17242,8 @@
       <c r="M208" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N208" s="128" t="s">
-        <v>2524</v>
+      <c r="N208" s="127" t="s">
+        <v>2521</v>
       </c>
     </row>
     <row r="209" spans="1:14" s="1" customFormat="1" ht="17">
@@ -17284,7 +17278,7 @@
       <c r="J209" s="18">
         <v>42387</v>
       </c>
-      <c r="K209" s="149">
+      <c r="K209" s="148">
         <v>29627003</v>
       </c>
       <c r="L209" s="57" t="s">
@@ -17327,7 +17321,7 @@
       <c r="J210" s="18">
         <v>24474</v>
       </c>
-      <c r="K210" s="149">
+      <c r="K210" s="148">
         <v>71341001</v>
       </c>
       <c r="L210" s="57" t="s">
@@ -17370,7 +17364,7 @@
       <c r="J211" s="18">
         <v>32849</v>
       </c>
-      <c r="K211" s="149">
+      <c r="K211" s="148">
         <v>41111004</v>
       </c>
       <c r="L211" s="57" t="s">
@@ -17413,7 +17407,7 @@
       <c r="J212" s="18">
         <v>32848</v>
       </c>
-      <c r="K212" s="149">
+      <c r="K212" s="148">
         <v>41111004</v>
       </c>
       <c r="L212" s="57" t="s">
@@ -17454,7 +17448,7 @@
       <c r="J213" s="18">
         <v>9611</v>
       </c>
-      <c r="K213" s="149">
+      <c r="K213" s="148">
         <v>71341001</v>
       </c>
       <c r="L213" s="57" t="s">
@@ -17495,7 +17489,7 @@
       <c r="J214" s="18">
         <v>24479</v>
       </c>
-      <c r="K214" s="149">
+      <c r="K214" s="148">
         <v>87342007</v>
       </c>
       <c r="L214" s="57" t="s">
@@ -17536,7 +17530,7 @@
       <c r="J215" s="18">
         <v>24481</v>
       </c>
-      <c r="K215" s="149">
+      <c r="K215" s="148">
         <v>87342007</v>
       </c>
       <c r="L215" s="57" t="s">
@@ -17579,7 +17573,7 @@
       <c r="J216" s="18">
         <v>24480</v>
       </c>
-      <c r="K216" s="149">
+      <c r="K216" s="148">
         <v>87342007</v>
       </c>
       <c r="L216" s="57" t="s">
@@ -17618,7 +17612,7 @@
       <c r="J217" s="26">
         <v>55414</v>
       </c>
-      <c r="K217" s="149">
+      <c r="K217" s="148">
         <v>1307006</v>
       </c>
       <c r="L217" s="57" t="s">
@@ -17653,7 +17647,7 @@
         <v>1992</v>
       </c>
       <c r="J218" s="26"/>
-      <c r="K218" s="151">
+      <c r="K218" s="150">
         <v>3711007</v>
       </c>
       <c r="L218" s="75" t="s">
@@ -17688,7 +17682,7 @@
         <v>1450</v>
       </c>
       <c r="J219" s="26"/>
-      <c r="K219" s="151">
+      <c r="K219" s="150">
         <v>3711007</v>
       </c>
       <c r="L219" s="75" t="s">
@@ -17729,7 +17723,7 @@
       <c r="J220" s="26">
         <v>55023</v>
       </c>
-      <c r="K220" s="151">
+      <c r="K220" s="150">
         <v>90228003</v>
       </c>
       <c r="L220" s="57" t="s">
@@ -17766,15 +17760,15 @@
         <v>2011</v>
       </c>
       <c r="J221" s="26"/>
-      <c r="K221" s="149">
+      <c r="K221" s="148">
         <v>23451007</v>
       </c>
-      <c r="L221" s="141" t="s">
-        <v>2537</v>
+      <c r="L221" s="140" t="s">
+        <v>2534</v>
       </c>
       <c r="M221" s="10"/>
-      <c r="N221" s="128" t="s">
-        <v>2523</v>
+      <c r="N221" s="127" t="s">
+        <v>2520</v>
       </c>
     </row>
     <row r="222" spans="1:14" s="1" customFormat="1" ht="34">
@@ -17809,11 +17803,11 @@
       <c r="J222" s="26">
         <v>15629</v>
       </c>
-      <c r="K222" s="149">
+      <c r="K222" s="148">
         <v>23451007</v>
       </c>
-      <c r="L222" s="141" t="s">
-        <v>2537</v>
+      <c r="L222" s="140" t="s">
+        <v>2534</v>
       </c>
       <c r="M222" s="10" t="s">
         <v>2037</v>
@@ -17852,11 +17846,11 @@
       <c r="J223" s="26">
         <v>15630</v>
       </c>
-      <c r="K223" s="149">
+      <c r="K223" s="148">
         <v>23451007</v>
       </c>
-      <c r="L223" s="141" t="s">
-        <v>2537</v>
+      <c r="L223" s="140" t="s">
+        <v>2534</v>
       </c>
       <c r="M223" s="10" t="s">
         <v>2038</v>
@@ -17891,7 +17885,7 @@
       <c r="J224" s="26">
         <v>7088</v>
       </c>
-      <c r="K224" s="149">
+      <c r="K224" s="148">
         <v>80891009</v>
       </c>
       <c r="L224" s="57" t="s">
@@ -17932,7 +17926,7 @@
       <c r="J225" s="26">
         <v>59103</v>
       </c>
-      <c r="K225" s="149">
+      <c r="K225" s="148">
         <v>13561001</v>
       </c>
       <c r="L225" s="57" t="s">
@@ -17975,7 +17969,7 @@
       <c r="J226" s="26">
         <v>59102</v>
       </c>
-      <c r="K226" s="149">
+      <c r="K226" s="148">
         <v>13561001</v>
       </c>
       <c r="L226" s="57" t="s">
@@ -18006,27 +18000,27 @@
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="G227" s="126" t="s">
+      <c r="G227" s="125" t="s">
         <v>1831</v>
       </c>
       <c r="H227" s="24" t="s">
         <v>1831</v>
       </c>
-      <c r="I227" s="127" t="s">
+      <c r="I227" s="126" t="s">
         <v>1836</v>
       </c>
       <c r="J227" s="26"/>
-      <c r="K227" s="157">
+      <c r="K227" s="156">
         <v>372073000</v>
       </c>
       <c r="L227" s="121" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="M227" s="10" t="s">
         <v>2121</v>
       </c>
-      <c r="N227" s="128" t="s">
-        <v>2525</v>
+      <c r="N227" s="127" t="s">
+        <v>2522</v>
       </c>
     </row>
     <row r="228" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -18061,7 +18055,7 @@
       <c r="J228" s="26">
         <v>59805</v>
       </c>
-      <c r="K228" s="149">
+      <c r="K228" s="148">
         <v>88481005</v>
       </c>
       <c r="L228" s="57" t="s">
@@ -18104,7 +18098,7 @@
       <c r="J229" s="26">
         <v>59804</v>
       </c>
-      <c r="K229" s="149">
+      <c r="K229" s="148">
         <v>88481005</v>
       </c>
       <c r="L229" s="57" t="s">
@@ -18145,7 +18139,7 @@
       <c r="J230" s="26">
         <v>275020</v>
       </c>
-      <c r="K230" s="149">
+      <c r="K230" s="148">
         <v>5366008</v>
       </c>
       <c r="L230" s="57" t="s">
@@ -18186,7 +18180,7 @@
       <c r="J231" s="26">
         <v>59803</v>
       </c>
-      <c r="K231" s="149">
+      <c r="K231" s="148">
         <v>385296007</v>
       </c>
       <c r="L231" s="57" t="s">
@@ -18229,7 +18223,7 @@
       <c r="J232" s="26">
         <v>59802</v>
       </c>
-      <c r="K232" s="149">
+      <c r="K232" s="148">
         <v>385296007</v>
       </c>
       <c r="L232" s="57" t="s">
@@ -18270,7 +18264,7 @@
       <c r="J233" s="26">
         <v>62008</v>
       </c>
-      <c r="K233" s="149">
+      <c r="K233" s="148">
         <v>67923007</v>
       </c>
       <c r="L233" s="57" t="s">
@@ -18307,7 +18301,7 @@
       <c r="J234" s="26">
         <v>7208</v>
       </c>
-      <c r="K234" s="149">
+      <c r="K234" s="148">
         <v>34516001</v>
       </c>
       <c r="L234" s="57" t="s">
@@ -18346,7 +18340,7 @@
       <c r="J235" s="18">
         <v>7207</v>
       </c>
-      <c r="K235" s="149">
+      <c r="K235" s="148">
         <v>21306003</v>
       </c>
       <c r="L235" s="57" t="s">
@@ -18381,7 +18375,7 @@
         <v>1456</v>
       </c>
       <c r="J236" s="18"/>
-      <c r="K236" s="149">
+      <c r="K236" s="148">
         <v>90228003</v>
       </c>
       <c r="L236" s="57" t="s">
@@ -18418,7 +18412,7 @@
       <c r="J237" s="26">
         <v>35289</v>
       </c>
-      <c r="K237" s="149">
+      <c r="K237" s="148">
         <v>16953009</v>
       </c>
       <c r="L237" s="57" t="s">
@@ -18457,7 +18451,7 @@
       <c r="J238" s="18">
         <v>25912</v>
       </c>
-      <c r="K238" s="149">
+      <c r="K238" s="148">
         <v>85537004</v>
       </c>
       <c r="L238" s="57" t="s">
@@ -18492,7 +18486,7 @@
       </c>
       <c r="I239" s="25"/>
       <c r="J239" s="26"/>
-      <c r="K239" s="149">
+      <c r="K239" s="148">
         <v>711190000</v>
       </c>
       <c r="L239" s="57" t="s">
@@ -18529,7 +18523,7 @@
       </c>
       <c r="I240" s="25"/>
       <c r="J240" s="26"/>
-      <c r="K240" s="149">
+      <c r="K240" s="148">
         <v>711190000</v>
       </c>
       <c r="L240" s="57" t="s">
@@ -18566,7 +18560,7 @@
       </c>
       <c r="I241" s="116"/>
       <c r="J241" s="117"/>
-      <c r="K241" s="158">
+      <c r="K241" s="157">
         <v>39352004</v>
       </c>
       <c r="L241" s="118" t="s">
@@ -18607,7 +18601,7 @@
       <c r="J242" s="26">
         <v>54832</v>
       </c>
-      <c r="K242" s="149">
+      <c r="K242" s="148">
         <v>53620006</v>
       </c>
       <c r="L242" s="57" t="s">
@@ -18646,7 +18640,7 @@
       <c r="J243" s="26">
         <v>61819</v>
       </c>
-      <c r="K243" s="149">
+      <c r="K243" s="148">
         <v>6566002</v>
       </c>
       <c r="L243" s="57" t="s">
@@ -18655,8 +18649,8 @@
       <c r="M243" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N243" s="128" t="s">
-        <v>2525</v>
+      <c r="N243" s="127" t="s">
+        <v>2522</v>
       </c>
     </row>
     <row r="244" spans="1:14" s="1" customFormat="1" ht="34">
@@ -18689,7 +18683,7 @@
       <c r="J244" s="26">
         <v>67292</v>
       </c>
-      <c r="K244" s="149">
+      <c r="K244" s="148">
         <v>6566002</v>
       </c>
       <c r="L244" s="57" t="s">
@@ -18698,8 +18692,8 @@
       <c r="M244" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N244" s="128" t="s">
-        <v>2525</v>
+      <c r="N244" s="127" t="s">
+        <v>2522</v>
       </c>
     </row>
     <row r="245" spans="1:14" s="1" customFormat="1" ht="34">
@@ -18732,7 +18726,7 @@
       <c r="J245" s="18">
         <v>15581</v>
       </c>
-      <c r="K245" s="149">
+      <c r="K245" s="148">
         <v>50403003</v>
       </c>
       <c r="L245" s="57" t="s">
@@ -18773,7 +18767,7 @@
       <c r="J246" s="18">
         <v>15610</v>
       </c>
-      <c r="K246" s="149">
+      <c r="K246" s="148">
         <v>74033008</v>
       </c>
       <c r="L246" s="57" t="s">
@@ -18816,7 +18810,7 @@
       <c r="J247" s="26">
         <v>275024</v>
       </c>
-      <c r="K247" s="149">
+      <c r="K247" s="148">
         <v>5366008</v>
       </c>
       <c r="L247" s="57" t="s">
@@ -18859,7 +18853,7 @@
       <c r="J248" s="26">
         <v>275022</v>
       </c>
-      <c r="K248" s="149">
+      <c r="K248" s="148">
         <v>5366008</v>
       </c>
       <c r="L248" s="57" t="s">
@@ -18902,7 +18896,7 @@
       <c r="J249" s="26">
         <v>23131</v>
       </c>
-      <c r="K249" s="149">
+      <c r="K249" s="148">
         <v>85050009</v>
       </c>
       <c r="L249" s="57" t="s">
@@ -18945,7 +18939,7 @@
       <c r="J250" s="26">
         <v>23130</v>
       </c>
-      <c r="K250" s="149">
+      <c r="K250" s="148">
         <v>85050009</v>
       </c>
       <c r="L250" s="57" t="s">
@@ -18986,7 +18980,7 @@
       <c r="J251" s="18">
         <v>264815</v>
       </c>
-      <c r="K251" s="149">
+      <c r="K251" s="148">
         <v>64033007</v>
       </c>
       <c r="L251" s="57" t="s">
@@ -19025,7 +19019,7 @@
       <c r="J252" s="18">
         <v>24974</v>
       </c>
-      <c r="K252" s="149">
+      <c r="K252" s="148">
         <v>72696002</v>
       </c>
       <c r="L252" s="57" t="s">
@@ -19064,15 +19058,15 @@
       <c r="J253" s="18">
         <v>54880</v>
       </c>
-      <c r="K253" s="149">
+      <c r="K253" s="148">
         <v>81502006</v>
       </c>
-      <c r="L253" s="140" t="s">
-        <v>2551</v>
+      <c r="L253" s="139" t="s">
+        <v>2548</v>
       </c>
       <c r="M253" s="103"/>
-      <c r="N253" s="128" t="s">
-        <v>2552</v>
+      <c r="N253" s="127" t="s">
+        <v>2549</v>
       </c>
     </row>
     <row r="254" spans="1:14" s="1" customFormat="1" ht="17">
@@ -19103,7 +19097,7 @@
       <c r="J254" s="18">
         <v>55097</v>
       </c>
-      <c r="K254" s="149">
+      <c r="K254" s="148">
         <v>4596009</v>
       </c>
       <c r="L254" s="57" t="s">
@@ -19140,7 +19134,7 @@
       <c r="J255" s="18">
         <v>55476</v>
       </c>
-      <c r="K255" s="149">
+      <c r="K255" s="148">
         <v>86483002</v>
       </c>
       <c r="L255" s="57" t="s">
@@ -19179,7 +19173,7 @@
       <c r="J256" s="26">
         <v>35295</v>
       </c>
-      <c r="K256" s="149">
+      <c r="K256" s="148">
         <v>16953009</v>
       </c>
       <c r="L256" s="57" t="s">
@@ -19220,7 +19214,7 @@
       <c r="J257" s="26">
         <v>35294</v>
       </c>
-      <c r="K257" s="149">
+      <c r="K257" s="148">
         <v>16953009</v>
       </c>
       <c r="L257" s="57" t="s">
@@ -19261,7 +19255,7 @@
       <c r="J258" s="18">
         <v>58241</v>
       </c>
-      <c r="K258" s="149">
+      <c r="K258" s="148">
         <v>78076003</v>
       </c>
       <c r="L258" s="57" t="s">
@@ -19302,7 +19296,7 @@
       <c r="J259" s="18">
         <v>25929</v>
       </c>
-      <c r="K259" s="149">
+      <c r="K259" s="148">
         <v>85537004</v>
       </c>
       <c r="L259" s="57" t="s">
@@ -19345,7 +19339,7 @@
       <c r="J260" s="26">
         <v>25927</v>
       </c>
-      <c r="K260" s="149">
+      <c r="K260" s="148">
         <v>85537004</v>
       </c>
       <c r="L260" s="57" t="s">
@@ -19386,7 +19380,7 @@
       <c r="J261" s="18">
         <v>16520</v>
       </c>
-      <c r="K261" s="149">
+      <c r="K261" s="148">
         <v>6544009</v>
       </c>
       <c r="L261" s="57" t="s">
@@ -19423,7 +19417,7 @@
       <c r="J262" s="18">
         <v>59815</v>
       </c>
-      <c r="K262" s="149">
+      <c r="K262" s="148">
         <v>81083006</v>
       </c>
       <c r="L262" s="75" t="s">
@@ -19464,7 +19458,7 @@
       <c r="J263" s="26">
         <v>54834</v>
       </c>
-      <c r="K263" s="149">
+      <c r="K263" s="148">
         <v>53620006</v>
       </c>
       <c r="L263" s="57" t="s">
@@ -19507,7 +19501,7 @@
       <c r="J264" s="26">
         <v>54833</v>
       </c>
-      <c r="K264" s="149">
+      <c r="K264" s="148">
         <v>53620006</v>
       </c>
       <c r="L264" s="57" t="s">
@@ -19546,7 +19540,7 @@
       <c r="J265" s="18">
         <v>7197</v>
       </c>
-      <c r="K265" s="149">
+      <c r="K265" s="148">
         <v>10200004</v>
       </c>
       <c r="L265" s="57" t="s">
@@ -19587,7 +19581,7 @@
       <c r="J266" s="18">
         <v>15584</v>
       </c>
-      <c r="K266" s="149">
+      <c r="K266" s="148">
         <v>50403003</v>
       </c>
       <c r="L266" s="57" t="s">
@@ -19630,7 +19624,7 @@
       <c r="J267" s="18">
         <v>15583</v>
       </c>
-      <c r="K267" s="149">
+      <c r="K267" s="148">
         <v>50403003</v>
       </c>
       <c r="L267" s="57" t="s">
@@ -19673,7 +19667,7 @@
       <c r="J268" s="18">
         <v>15942</v>
       </c>
-      <c r="K268" s="149">
+      <c r="K268" s="148">
         <v>74033008</v>
       </c>
       <c r="L268" s="57" t="s">
@@ -19716,7 +19710,7 @@
       <c r="J269" s="18">
         <v>15941</v>
       </c>
-      <c r="K269" s="149">
+      <c r="K269" s="148">
         <v>74033008</v>
       </c>
       <c r="L269" s="57" t="s">
@@ -19757,7 +19751,7 @@
       <c r="J270" s="18">
         <v>61824</v>
       </c>
-      <c r="K270" s="149">
+      <c r="K270" s="148">
         <v>83251001</v>
       </c>
       <c r="L270" s="57" t="s">
@@ -19798,7 +19792,7 @@
       <c r="J271" s="18">
         <v>7205</v>
       </c>
-      <c r="K271" s="149">
+      <c r="K271" s="148">
         <v>64033007</v>
       </c>
       <c r="L271" s="57" t="s">
@@ -19841,7 +19835,7 @@
       <c r="J272" s="18">
         <v>15579</v>
       </c>
-      <c r="K272" s="149">
+      <c r="K272" s="148">
         <v>25990002</v>
       </c>
       <c r="L272" s="57" t="s">
@@ -19884,7 +19878,7 @@
       <c r="J273" s="18">
         <v>15578</v>
       </c>
-      <c r="K273" s="149">
+      <c r="K273" s="148">
         <v>25990002</v>
       </c>
       <c r="L273" s="57" t="s">
@@ -19927,7 +19921,7 @@
       <c r="J274" s="18">
         <v>7204</v>
       </c>
-      <c r="K274" s="149">
+      <c r="K274" s="148">
         <v>64033007</v>
       </c>
       <c r="L274" s="57" t="s">
@@ -19968,7 +19962,7 @@
       <c r="J275" s="18">
         <v>67325</v>
       </c>
-      <c r="K275" s="149">
+      <c r="K275" s="148">
         <v>31065004</v>
       </c>
       <c r="L275" s="57" t="s">
@@ -20007,7 +20001,7 @@
       <c r="J276" s="18">
         <v>61826</v>
       </c>
-      <c r="K276" s="149">
+      <c r="K276" s="148">
         <v>16630005</v>
       </c>
       <c r="L276" s="57" t="s">
@@ -20046,7 +20040,7 @@
       <c r="J277" s="18">
         <v>24978</v>
       </c>
-      <c r="K277" s="149">
+      <c r="K277" s="148">
         <v>72696002</v>
       </c>
       <c r="L277" s="57" t="s">
@@ -20087,7 +20081,7 @@
       <c r="J278" s="18">
         <v>24977</v>
       </c>
-      <c r="K278" s="149">
+      <c r="K278" s="148">
         <v>72696002</v>
       </c>
       <c r="L278" s="57" t="s">
@@ -20128,7 +20122,7 @@
       <c r="J279" s="18">
         <v>61825</v>
       </c>
-      <c r="K279" s="149">
+      <c r="K279" s="148">
         <v>78277001</v>
       </c>
       <c r="L279" s="57" t="s">
@@ -20165,7 +20159,7 @@
       <c r="J280" s="18">
         <v>9826</v>
       </c>
-      <c r="K280" s="149">
+      <c r="K280" s="148">
         <v>72410000</v>
       </c>
       <c r="L280" s="57" t="s">
@@ -20202,7 +20196,7 @@
       <c r="J281" s="18">
         <v>30316</v>
       </c>
-      <c r="K281" s="149">
+      <c r="K281" s="148">
         <v>71616004</v>
       </c>
       <c r="L281" s="57" t="s">
@@ -20241,7 +20235,7 @@
       <c r="J282" s="18">
         <v>46620</v>
       </c>
-      <c r="K282" s="149">
+      <c r="K282" s="148">
         <v>4866005</v>
       </c>
       <c r="L282" s="57" t="s">
@@ -20282,7 +20276,7 @@
       <c r="J283" s="18">
         <v>58243</v>
       </c>
-      <c r="K283" s="149">
+      <c r="K283" s="148">
         <v>78076003</v>
       </c>
       <c r="L283" s="57" t="s">
@@ -20325,7 +20319,7 @@
       <c r="J284" s="18">
         <v>58242</v>
       </c>
-      <c r="K284" s="149">
+      <c r="K284" s="148">
         <v>78076003</v>
       </c>
       <c r="L284" s="57" t="s">
@@ -20366,7 +20360,7 @@
       <c r="J285" s="18">
         <v>48996</v>
       </c>
-      <c r="K285" s="149">
+      <c r="K285" s="148">
         <v>79368004</v>
       </c>
       <c r="L285" s="57" t="s">
@@ -20405,7 +20399,7 @@
       <c r="J286" s="18">
         <v>49007</v>
       </c>
-      <c r="K286" s="149">
+      <c r="K286" s="148">
         <v>52927003</v>
       </c>
       <c r="L286" s="57" t="s">
@@ -20446,7 +20440,7 @@
       <c r="J287" s="26">
         <v>54878</v>
       </c>
-      <c r="K287" s="149">
+      <c r="K287" s="148">
         <v>71836000</v>
       </c>
       <c r="L287" s="57" t="s">
@@ -20483,7 +20477,7 @@
       <c r="J288" s="18">
         <v>5034</v>
       </c>
-      <c r="K288" s="150">
+      <c r="K288" s="149">
         <v>59441001</v>
       </c>
       <c r="L288" s="80" t="s">
@@ -20522,7 +20516,7 @@
       <c r="J289" s="18">
         <v>23394</v>
       </c>
-      <c r="K289" s="149">
+      <c r="K289" s="148">
         <v>16051009</v>
       </c>
       <c r="L289" s="76" t="s">
@@ -20563,7 +20557,7 @@
       <c r="J290" s="18">
         <v>73265</v>
       </c>
-      <c r="K290" s="149">
+      <c r="K290" s="148">
         <v>16051009</v>
       </c>
       <c r="L290" s="76" t="s">
@@ -20606,7 +20600,7 @@
       <c r="J291" s="18">
         <v>73264</v>
       </c>
-      <c r="K291" s="149">
+      <c r="K291" s="148">
         <v>16051009</v>
       </c>
       <c r="L291" s="76" t="s">
@@ -20649,7 +20643,7 @@
       <c r="J292" s="18">
         <v>73263</v>
       </c>
-      <c r="K292" s="149">
+      <c r="K292" s="148">
         <v>16051009</v>
       </c>
       <c r="L292" s="76" t="s">
@@ -20692,7 +20686,7 @@
       <c r="J293" s="18">
         <v>73262</v>
       </c>
-      <c r="K293" s="149">
+      <c r="K293" s="148">
         <v>16051009</v>
       </c>
       <c r="L293" s="76" t="s">
@@ -20733,7 +20727,7 @@
       <c r="J294" s="18">
         <v>233482</v>
       </c>
-      <c r="K294" s="149">
+      <c r="K294" s="148">
         <v>283001</v>
       </c>
       <c r="L294" s="76" t="s">
@@ -20772,7 +20766,7 @@
       <c r="J295" s="18">
         <v>73250</v>
       </c>
-      <c r="K295" s="150">
+      <c r="K295" s="149">
         <v>68171009</v>
       </c>
       <c r="L295" s="80" t="s">
@@ -20815,7 +20809,7 @@
       <c r="J296" s="18">
         <v>276001</v>
       </c>
-      <c r="K296" s="150">
+      <c r="K296" s="149">
         <v>68171009</v>
       </c>
       <c r="L296" s="57" t="s">
@@ -20858,7 +20852,7 @@
       <c r="J297" s="18">
         <v>275999</v>
       </c>
-      <c r="K297" s="149">
+      <c r="K297" s="148">
         <v>68171009</v>
       </c>
       <c r="L297" s="57" t="s">
@@ -20901,7 +20895,7 @@
       <c r="J298" s="18">
         <v>276005</v>
       </c>
-      <c r="K298" s="149">
+      <c r="K298" s="148">
         <v>68171009</v>
       </c>
       <c r="L298" s="57" t="s">
@@ -20944,7 +20938,7 @@
       <c r="J299" s="18">
         <v>276003</v>
       </c>
-      <c r="K299" s="149">
+      <c r="K299" s="148">
         <v>68171009</v>
       </c>
       <c r="L299" s="57" t="s">
@@ -20987,7 +20981,7 @@
       <c r="J300" s="18">
         <v>276009</v>
       </c>
-      <c r="K300" s="149">
+      <c r="K300" s="148">
         <v>68171009</v>
       </c>
       <c r="L300" s="57" t="s">
@@ -21030,7 +21024,7 @@
       <c r="J301" s="18">
         <v>276007</v>
       </c>
-      <c r="K301" s="149">
+      <c r="K301" s="148">
         <v>68171009</v>
       </c>
       <c r="L301" s="57" t="s">
@@ -21073,7 +21067,7 @@
       <c r="J302" s="18">
         <v>73256</v>
       </c>
-      <c r="K302" s="149">
+      <c r="K302" s="148">
         <v>33770006</v>
       </c>
       <c r="L302" s="76" t="s">
@@ -21116,7 +21110,7 @@
       <c r="J303" s="18">
         <v>73255</v>
       </c>
-      <c r="K303" s="149">
+      <c r="K303" s="148">
         <v>33770006</v>
       </c>
       <c r="L303" s="76" t="s">
@@ -21152,12 +21146,12 @@
         <v>940</v>
       </c>
       <c r="I304" s="25" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="J304" s="18">
         <v>233458</v>
       </c>
-      <c r="K304" s="149">
+      <c r="K304" s="148">
         <v>33770006</v>
       </c>
       <c r="L304" s="76" t="s">
@@ -21198,7 +21192,7 @@
       <c r="J305" s="18">
         <v>73253</v>
       </c>
-      <c r="K305" s="149">
+      <c r="K305" s="148">
         <v>69691007</v>
       </c>
       <c r="L305" s="57" t="s">
@@ -21241,7 +21235,7 @@
       <c r="J306" s="18">
         <v>73252</v>
       </c>
-      <c r="K306" s="149">
+      <c r="K306" s="148">
         <v>69691007</v>
       </c>
       <c r="L306" s="57" t="s">
@@ -21282,7 +21276,7 @@
       <c r="J307" s="18">
         <v>233446</v>
       </c>
-      <c r="K307" s="150">
+      <c r="K307" s="149">
         <v>69691007</v>
       </c>
       <c r="L307" s="80" t="s">
@@ -21323,7 +21317,7 @@
       <c r="J308" s="18">
         <v>73249</v>
       </c>
-      <c r="K308" s="150">
+      <c r="K308" s="149">
         <v>68171009</v>
       </c>
       <c r="L308" s="80" t="s">
@@ -21366,7 +21360,7 @@
       <c r="J309" s="18">
         <v>73259</v>
       </c>
-      <c r="K309" s="149">
+      <c r="K309" s="148">
         <v>12196003</v>
       </c>
       <c r="L309" s="57" t="s">
@@ -21409,7 +21403,7 @@
       <c r="J310" s="18">
         <v>73258</v>
       </c>
-      <c r="K310" s="149">
+      <c r="K310" s="148">
         <v>12196003</v>
       </c>
       <c r="L310" s="57" t="s">
@@ -21450,7 +21444,7 @@
       <c r="J311" s="18">
         <v>233470</v>
       </c>
-      <c r="K311" s="150">
+      <c r="K311" s="149">
         <v>12196003</v>
       </c>
       <c r="L311" s="80" t="s">
@@ -21489,7 +21483,7 @@
       <c r="J312" s="18">
         <v>5946</v>
       </c>
-      <c r="K312" s="149">
+      <c r="K312" s="148">
         <v>196821008</v>
       </c>
       <c r="L312" s="57" t="s">
@@ -21530,7 +21524,7 @@
       <c r="J313" s="18">
         <v>5945</v>
       </c>
-      <c r="K313" s="149">
+      <c r="K313" s="148">
         <v>196821008</v>
       </c>
       <c r="L313" s="57" t="s">
@@ -21569,7 +21563,7 @@
       <c r="J314" s="18">
         <v>5944</v>
       </c>
-      <c r="K314" s="150">
+      <c r="K314" s="149">
         <v>196821008</v>
       </c>
       <c r="L314" s="80" t="s">
@@ -21608,7 +21602,7 @@
       <c r="J315" s="18">
         <v>5967</v>
       </c>
-      <c r="K315" s="150">
+      <c r="K315" s="149">
         <v>279816002</v>
       </c>
       <c r="L315" s="80" t="s">
@@ -21649,7 +21643,7 @@
       <c r="J316" s="18">
         <v>5966</v>
       </c>
-      <c r="K316" s="150">
+      <c r="K316" s="149">
         <v>279816002</v>
       </c>
       <c r="L316" s="80" t="s">
@@ -21688,7 +21682,7 @@
       <c r="J317" s="18">
         <v>5965</v>
       </c>
-      <c r="K317" s="150">
+      <c r="K317" s="149">
         <v>279816002</v>
       </c>
       <c r="L317" s="80" t="s">
@@ -21725,7 +21719,7 @@
       <c r="J318" s="18">
         <v>12773</v>
       </c>
-      <c r="K318" s="150">
+      <c r="K318" s="149">
         <v>196751009</v>
       </c>
       <c r="L318" s="80" t="s">
@@ -21760,15 +21754,15 @@
         <v>2039</v>
       </c>
       <c r="J319" s="43"/>
-      <c r="K319" s="150">
+      <c r="K319" s="149">
         <v>65349008</v>
       </c>
       <c r="L319" s="80" t="s">
         <v>2042</v>
       </c>
       <c r="M319" s="10"/>
-      <c r="N319" s="133" t="s">
-        <v>2526</v>
+      <c r="N319" s="132" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="320" spans="1:14" s="1" customFormat="1" ht="51">
@@ -21797,15 +21791,15 @@
         <v>2040</v>
       </c>
       <c r="J320" s="43"/>
-      <c r="K320" s="150">
+      <c r="K320" s="149">
         <v>245357003</v>
       </c>
       <c r="L320" s="80" t="s">
         <v>2043</v>
       </c>
       <c r="M320" s="10"/>
-      <c r="N320" s="133" t="s">
-        <v>2526</v>
+      <c r="N320" s="132" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="321" spans="1:14" s="1" customFormat="1" ht="51">
@@ -21834,15 +21828,15 @@
         <v>2041</v>
       </c>
       <c r="J321" s="43"/>
-      <c r="K321" s="155">
+      <c r="K321" s="154">
         <v>84219008</v>
       </c>
       <c r="L321" s="80" t="s">
         <v>2036</v>
       </c>
       <c r="M321" s="10"/>
-      <c r="N321" s="133" t="s">
-        <v>2526</v>
+      <c r="N321" s="132" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="322" spans="1:14" s="1" customFormat="1" ht="51">
@@ -21875,7 +21869,7 @@
       <c r="J322" s="18">
         <v>229177</v>
       </c>
-      <c r="K322" s="149">
+      <c r="K322" s="148">
         <v>65349008</v>
       </c>
       <c r="L322" s="57" t="s">
@@ -21916,7 +21910,7 @@
       <c r="J323" s="18">
         <v>229177</v>
       </c>
-      <c r="K323" s="149">
+      <c r="K323" s="148">
         <v>65349008</v>
       </c>
       <c r="L323" s="57" t="s">
@@ -21957,7 +21951,7 @@
       <c r="J324" s="18">
         <v>224275</v>
       </c>
-      <c r="K324" s="149">
+      <c r="K324" s="148">
         <v>245299000</v>
       </c>
       <c r="L324" s="57" t="s">
@@ -21966,7 +21960,7 @@
       <c r="M324" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N324" s="131"/>
+      <c r="N324" s="130"/>
     </row>
     <row r="325" spans="1:14" s="1" customFormat="1" ht="51">
       <c r="A325" s="56" t="s">
@@ -21998,16 +21992,16 @@
       <c r="J325" s="18">
         <v>224269</v>
       </c>
-      <c r="K325" s="157">
+      <c r="K325" s="156">
         <v>245295006</v>
       </c>
-      <c r="L325" s="141" t="s">
-        <v>2553</v>
-      </c>
-      <c r="M325" s="145" t="s">
+      <c r="L325" s="140" t="s">
+        <v>2550</v>
+      </c>
+      <c r="M325" s="144" t="s">
         <v>2453</v>
       </c>
-      <c r="N325" s="131"/>
+      <c r="N325" s="130"/>
     </row>
     <row r="326" spans="1:14" s="1" customFormat="1" ht="51">
       <c r="A326" s="56" t="s">
@@ -22039,17 +22033,17 @@
       <c r="J326" s="18">
         <v>224269</v>
       </c>
-      <c r="K326" s="157">
+      <c r="K326" s="156">
         <v>245295006</v>
       </c>
       <c r="L326" s="121" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="M326" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N326" s="128" t="s">
-        <v>2527</v>
+      <c r="N326" s="127" t="s">
+        <v>2524</v>
       </c>
     </row>
     <row r="327" spans="1:14" s="1" customFormat="1" ht="17">
@@ -22078,11 +22072,11 @@
       <c r="H327" s="16" t="s">
         <v>1598</v>
       </c>
-      <c r="I327" s="127"/>
+      <c r="I327" s="126"/>
       <c r="J327" s="18">
         <v>5934</v>
       </c>
-      <c r="K327" s="150">
+      <c r="K327" s="149">
         <v>245282001</v>
       </c>
       <c r="L327" s="80" t="s">
@@ -22091,8 +22085,8 @@
       <c r="M327" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N327" s="128" t="s">
-        <v>2528</v>
+      <c r="N327" s="127" t="s">
+        <v>2525</v>
       </c>
     </row>
     <row r="328" spans="1:14" s="1" customFormat="1">
@@ -22121,11 +22115,11 @@
       <c r="H328" s="16" t="s">
         <v>1595</v>
       </c>
-      <c r="I328" s="134"/>
+      <c r="I328" s="133"/>
       <c r="J328" s="18">
         <v>5933</v>
       </c>
-      <c r="K328" s="150">
+      <c r="K328" s="149">
         <v>245282001</v>
       </c>
       <c r="L328" s="80" t="s">
@@ -22166,7 +22160,7 @@
       <c r="J329" s="18">
         <v>5849</v>
       </c>
-      <c r="K329" s="150">
+      <c r="K329" s="149">
         <v>245282001</v>
       </c>
       <c r="L329" s="80" t="s">
@@ -22203,7 +22197,7 @@
       <c r="J330" s="18">
         <v>236337</v>
       </c>
-      <c r="K330" s="150">
+      <c r="K330" s="149">
         <v>279763008</v>
       </c>
       <c r="L330" s="80" t="s">
@@ -22242,7 +22236,7 @@
       <c r="J331" s="18">
         <v>236341</v>
       </c>
-      <c r="K331" s="150">
+      <c r="K331" s="149">
         <v>279763008</v>
       </c>
       <c r="L331" s="80" t="s">
@@ -22283,7 +22277,7 @@
       <c r="J332" s="18">
         <v>236339</v>
       </c>
-      <c r="K332" s="150">
+      <c r="K332" s="149">
         <v>279763008</v>
       </c>
       <c r="L332" s="80" t="s">
@@ -22322,7 +22316,7 @@
       <c r="J333" s="18">
         <v>5932</v>
       </c>
-      <c r="K333" s="150">
+      <c r="K333" s="149">
         <v>64038003</v>
       </c>
       <c r="L333" s="80" t="s">
@@ -22361,7 +22355,7 @@
         <v>1592</v>
       </c>
       <c r="J334" s="18"/>
-      <c r="K334" s="149">
+      <c r="K334" s="148">
         <v>59441001</v>
       </c>
       <c r="L334" s="57" t="s">
@@ -22400,15 +22394,15 @@
       <c r="J335" s="18">
         <v>74033</v>
       </c>
-      <c r="K335" s="157">
+      <c r="K335" s="156">
         <v>127938006</v>
       </c>
-      <c r="L335" s="142" t="s">
+      <c r="L335" s="141" t="s">
         <v>2465</v>
       </c>
       <c r="M335" s="81"/>
-      <c r="N335" s="129" t="s">
-        <v>2529</v>
+      <c r="N335" s="128" t="s">
+        <v>2526</v>
       </c>
     </row>
     <row r="336" spans="1:14" s="1" customFormat="1" ht="51">
@@ -22441,7 +22435,7 @@
       <c r="J336" s="18">
         <v>224275</v>
       </c>
-      <c r="K336" s="149">
+      <c r="K336" s="148">
         <v>245299000</v>
       </c>
       <c r="L336" s="57" t="s">
@@ -22480,7 +22474,7 @@
       <c r="J337" s="18">
         <v>12774</v>
       </c>
-      <c r="K337" s="150">
+      <c r="K337" s="149">
         <v>62683002</v>
       </c>
       <c r="L337" s="80" t="s">
@@ -22517,7 +22511,7 @@
         <v>2051</v>
       </c>
       <c r="J338" s="47"/>
-      <c r="K338" s="155">
+      <c r="K338" s="154">
         <v>81105003</v>
       </c>
       <c r="L338" s="80" t="s">
@@ -22560,7 +22554,7 @@
       <c r="J339" s="18">
         <v>235616</v>
       </c>
-      <c r="K339" s="155">
+      <c r="K339" s="154">
         <v>81105003</v>
       </c>
       <c r="L339" s="80" t="s">
@@ -22603,7 +22597,7 @@
       <c r="J340" s="18">
         <v>235614</v>
       </c>
-      <c r="K340" s="155">
+      <c r="K340" s="154">
         <v>81105003</v>
       </c>
       <c r="L340" s="80" t="s">
@@ -22646,7 +22640,7 @@
       <c r="J341" s="18">
         <v>232676</v>
       </c>
-      <c r="K341" s="155">
+      <c r="K341" s="154">
         <v>81105003</v>
       </c>
       <c r="L341" s="80" t="s">
@@ -22689,7 +22683,7 @@
       <c r="J342" s="18">
         <v>232673</v>
       </c>
-      <c r="K342" s="155">
+      <c r="K342" s="154">
         <v>81105003</v>
       </c>
       <c r="L342" s="80" t="s">
@@ -22732,7 +22726,7 @@
       <c r="J343" s="18">
         <v>265660</v>
       </c>
-      <c r="K343" s="155">
+      <c r="K343" s="154">
         <v>81105003</v>
       </c>
       <c r="L343" s="80" t="s">
@@ -22775,7 +22769,7 @@
       <c r="J344" s="18">
         <v>265658</v>
       </c>
-      <c r="K344" s="155">
+      <c r="K344" s="154">
         <v>81105003</v>
       </c>
       <c r="L344" s="80" t="s">
@@ -22818,17 +22812,17 @@
       <c r="J345" s="18">
         <v>241975</v>
       </c>
-      <c r="K345" s="155">
+      <c r="K345" s="154">
         <v>81105003</v>
       </c>
       <c r="L345" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M345" s="143" t="s">
-        <v>2540</v>
-      </c>
-      <c r="N345" s="135" t="s">
-        <v>2530</v>
+      <c r="M345" s="142" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N345" s="134" t="s">
+        <v>2527</v>
       </c>
     </row>
     <row r="346" spans="1:14" s="1" customFormat="1" ht="34" customHeight="1">
@@ -22863,17 +22857,17 @@
       <c r="J346" s="18">
         <v>241973</v>
       </c>
-      <c r="K346" s="155">
+      <c r="K346" s="154">
         <v>81105003</v>
       </c>
       <c r="L346" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M346" s="143" t="s">
-        <v>2541</v>
-      </c>
-      <c r="N346" s="135" t="s">
-        <v>2530</v>
+      <c r="M346" s="142" t="s">
+        <v>2538</v>
+      </c>
+      <c r="N346" s="134" t="s">
+        <v>2527</v>
       </c>
     </row>
     <row r="347" spans="1:14" s="1" customFormat="1" ht="34" customHeight="1">
@@ -22908,17 +22902,17 @@
       <c r="J347" s="18">
         <v>241979</v>
       </c>
-      <c r="K347" s="155">
+      <c r="K347" s="154">
         <v>81105003</v>
       </c>
       <c r="L347" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M347" s="143" t="s">
-        <v>2542</v>
-      </c>
-      <c r="N347" s="135" t="s">
-        <v>2531</v>
+      <c r="M347" s="142" t="s">
+        <v>2539</v>
+      </c>
+      <c r="N347" s="134" t="s">
+        <v>2528</v>
       </c>
     </row>
     <row r="348" spans="1:14" s="1" customFormat="1" ht="34" customHeight="1">
@@ -22953,17 +22947,17 @@
       <c r="J348" s="18">
         <v>241977</v>
       </c>
-      <c r="K348" s="155">
+      <c r="K348" s="154">
         <v>81105003</v>
       </c>
       <c r="L348" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M348" s="143" t="s">
-        <v>2543</v>
-      </c>
-      <c r="N348" s="135" t="s">
-        <v>2531</v>
+      <c r="M348" s="142" t="s">
+        <v>2540</v>
+      </c>
+      <c r="N348" s="134" t="s">
+        <v>2528</v>
       </c>
     </row>
     <row r="349" spans="1:14" s="1" customFormat="1" ht="34" customHeight="1">
@@ -22998,7 +22992,7 @@
       <c r="J349" s="18">
         <v>241953</v>
       </c>
-      <c r="K349" s="155">
+      <c r="K349" s="154">
         <v>81105003</v>
       </c>
       <c r="L349" s="80" t="s">
@@ -23041,7 +23035,7 @@
       <c r="J350" s="18">
         <v>241951</v>
       </c>
-      <c r="K350" s="155">
+      <c r="K350" s="154">
         <v>81105003</v>
       </c>
       <c r="L350" s="80" t="s">
@@ -23084,7 +23078,7 @@
       <c r="J351" s="18">
         <v>241959</v>
       </c>
-      <c r="K351" s="155">
+      <c r="K351" s="154">
         <v>81105003</v>
       </c>
       <c r="L351" s="80" t="s">
@@ -23127,7 +23121,7 @@
       <c r="J352" s="18">
         <v>241957</v>
       </c>
-      <c r="K352" s="155">
+      <c r="K352" s="154">
         <v>81105003</v>
       </c>
       <c r="L352" s="80" t="s">
@@ -23170,7 +23164,7 @@
       <c r="J353" s="18">
         <v>241965</v>
       </c>
-      <c r="K353" s="155">
+      <c r="K353" s="154">
         <v>81105003</v>
       </c>
       <c r="L353" s="80" t="s">
@@ -23213,7 +23207,7 @@
       <c r="J354" s="18">
         <v>241963</v>
       </c>
-      <c r="K354" s="155">
+      <c r="K354" s="154">
         <v>81105003</v>
       </c>
       <c r="L354" s="80" t="s">
@@ -23256,7 +23250,7 @@
       <c r="J355" s="18">
         <v>265629</v>
       </c>
-      <c r="K355" s="155">
+      <c r="K355" s="154">
         <v>81105003</v>
       </c>
       <c r="L355" s="80" t="s">
@@ -23299,7 +23293,7 @@
       <c r="J356" s="18">
         <v>265626</v>
       </c>
-      <c r="K356" s="155">
+      <c r="K356" s="154">
         <v>81105003</v>
       </c>
       <c r="L356" s="80" t="s">
@@ -23340,7 +23334,7 @@
         <v>485</v>
       </c>
       <c r="J357" s="18"/>
-      <c r="K357" s="155">
+      <c r="K357" s="154">
         <v>81105003</v>
       </c>
       <c r="L357" s="80" t="s">
@@ -23381,7 +23375,7 @@
         <v>484</v>
       </c>
       <c r="J358" s="18"/>
-      <c r="K358" s="155">
+      <c r="K358" s="154">
         <v>81105003</v>
       </c>
       <c r="L358" s="80" t="s">
@@ -23424,7 +23418,7 @@
       <c r="J359" s="18">
         <v>232721</v>
       </c>
-      <c r="K359" s="155">
+      <c r="K359" s="154">
         <v>81105003</v>
       </c>
       <c r="L359" s="80" t="s">
@@ -23467,7 +23461,7 @@
       <c r="J360" s="18">
         <v>232719</v>
       </c>
-      <c r="K360" s="155">
+      <c r="K360" s="154">
         <v>81105003</v>
       </c>
       <c r="L360" s="80" t="s">
@@ -23510,7 +23504,7 @@
       <c r="J361" s="18">
         <v>241971</v>
       </c>
-      <c r="K361" s="155">
+      <c r="K361" s="154">
         <v>81105003</v>
       </c>
       <c r="L361" s="80" t="s">
@@ -23553,7 +23547,7 @@
       <c r="J362" s="18">
         <v>241969</v>
       </c>
-      <c r="K362" s="155">
+      <c r="K362" s="154">
         <v>81105003</v>
       </c>
       <c r="L362" s="80" t="s">
@@ -23594,7 +23588,7 @@
         <v>1970</v>
       </c>
       <c r="J363" s="18"/>
-      <c r="K363" s="155">
+      <c r="K363" s="154">
         <v>81105003</v>
       </c>
       <c r="L363" s="80" t="s">
@@ -23635,14 +23629,14 @@
         <v>479</v>
       </c>
       <c r="J364" s="18"/>
-      <c r="K364" s="155">
+      <c r="K364" s="154">
         <v>81105003</v>
       </c>
       <c r="L364" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M364" s="138" t="s">
-        <v>2544</v>
+      <c r="M364" s="137" t="s">
+        <v>2541</v>
       </c>
       <c r="N364" s="101"/>
     </row>
@@ -23672,14 +23666,14 @@
       <c r="H365" s="48"/>
       <c r="I365" s="49"/>
       <c r="J365" s="50"/>
-      <c r="K365" s="155">
+      <c r="K365" s="154">
         <v>81105003</v>
       </c>
       <c r="L365" s="80" t="s">
         <v>2048</v>
       </c>
-      <c r="M365" s="138" t="s">
-        <v>2545</v>
+      <c r="M365" s="137" t="s">
+        <v>2542</v>
       </c>
       <c r="N365" s="101"/>
     </row>
@@ -23709,7 +23703,7 @@
       <c r="H366" s="48"/>
       <c r="I366" s="49"/>
       <c r="J366" s="50"/>
-      <c r="K366" s="155">
+      <c r="K366" s="154">
         <v>81105003</v>
       </c>
       <c r="L366" s="80" t="s">
@@ -23745,7 +23739,7 @@
       <c r="H367" s="45"/>
       <c r="I367" s="46"/>
       <c r="J367" s="50"/>
-      <c r="K367" s="155">
+      <c r="K367" s="154">
         <v>81105003</v>
       </c>
       <c r="L367" s="80" t="s">
@@ -23779,7 +23773,7 @@
       <c r="H368" s="45"/>
       <c r="I368" s="46"/>
       <c r="J368" s="50"/>
-      <c r="K368" s="155">
+      <c r="K368" s="154">
         <v>81105003</v>
       </c>
       <c r="L368" s="80" t="s">
@@ -23813,7 +23807,7 @@
       <c r="H369" s="45"/>
       <c r="I369" s="46"/>
       <c r="J369" s="50"/>
-      <c r="K369" s="155">
+      <c r="K369" s="154">
         <v>81105003</v>
       </c>
       <c r="L369" s="80" t="s">
@@ -23847,7 +23841,7 @@
       <c r="H370" s="45"/>
       <c r="I370" s="46"/>
       <c r="J370" s="50"/>
-      <c r="K370" s="155">
+      <c r="K370" s="154">
         <v>81105003</v>
       </c>
       <c r="L370" s="80" t="s">
@@ -23881,7 +23875,7 @@
       <c r="H371" s="45"/>
       <c r="I371" s="46"/>
       <c r="J371" s="50"/>
-      <c r="K371" s="155">
+      <c r="K371" s="154">
         <v>81105003</v>
       </c>
       <c r="L371" s="80" t="s">
@@ -23915,7 +23909,7 @@
       <c r="H372" s="45"/>
       <c r="I372" s="46"/>
       <c r="J372" s="50"/>
-      <c r="K372" s="155">
+      <c r="K372" s="154">
         <v>81105003</v>
       </c>
       <c r="L372" s="80" t="s">
@@ -23949,7 +23943,7 @@
       <c r="H373" s="45"/>
       <c r="I373" s="46"/>
       <c r="J373" s="50"/>
-      <c r="K373" s="155">
+      <c r="K373" s="154">
         <v>81105003</v>
       </c>
       <c r="L373" s="80" t="s">
@@ -23983,7 +23977,7 @@
       <c r="H374" s="45"/>
       <c r="I374" s="46"/>
       <c r="J374" s="50"/>
-      <c r="K374" s="155">
+      <c r="K374" s="154">
         <v>81105003</v>
       </c>
       <c r="L374" s="80" t="s">
@@ -24017,7 +24011,7 @@
       <c r="H375" s="45"/>
       <c r="I375" s="46"/>
       <c r="J375" s="50"/>
-      <c r="K375" s="155">
+      <c r="K375" s="154">
         <v>81105003</v>
       </c>
       <c r="L375" s="80" t="s">
@@ -24051,7 +24045,7 @@
       <c r="H376" s="45"/>
       <c r="I376" s="46"/>
       <c r="J376" s="50"/>
-      <c r="K376" s="155">
+      <c r="K376" s="154">
         <v>81105003</v>
       </c>
       <c r="L376" s="80" t="s">
@@ -24092,7 +24086,7 @@
       <c r="J377" s="18">
         <v>16676</v>
       </c>
-      <c r="K377" s="150">
+      <c r="K377" s="149">
         <v>36086000</v>
       </c>
       <c r="L377" s="80" t="s">
@@ -24133,7 +24127,7 @@
       <c r="J378" s="18">
         <v>16676</v>
       </c>
-      <c r="K378" s="150">
+      <c r="K378" s="149">
         <v>36086000</v>
       </c>
       <c r="L378" s="80" t="s">
@@ -24172,7 +24166,7 @@
       <c r="J379" s="18">
         <v>223899</v>
       </c>
-      <c r="K379" s="150">
+      <c r="K379" s="149">
         <v>35783009</v>
       </c>
       <c r="L379" s="80" t="s">
@@ -24211,7 +24205,7 @@
       <c r="J380" s="18">
         <v>232600</v>
       </c>
-      <c r="K380" s="149">
+      <c r="K380" s="148">
         <v>368550005</v>
       </c>
       <c r="L380" s="57" t="s">
@@ -24252,7 +24246,7 @@
       <c r="J381" s="18">
         <v>232598</v>
       </c>
-      <c r="K381" s="149">
+      <c r="K381" s="148">
         <v>368550005</v>
       </c>
       <c r="L381" s="57" t="s">
@@ -24291,7 +24285,7 @@
       <c r="J382" s="18">
         <v>44313</v>
       </c>
-      <c r="K382" s="150">
+      <c r="K382" s="149">
         <v>368550005</v>
       </c>
       <c r="L382" s="80" t="s">
@@ -24330,7 +24324,7 @@
       <c r="J383" s="18">
         <v>5934</v>
       </c>
-      <c r="K383" s="150">
+      <c r="K383" s="149">
         <v>82365008</v>
       </c>
       <c r="L383" s="80" t="s">
@@ -24371,7 +24365,7 @@
       <c r="J384" s="18">
         <v>5933</v>
       </c>
-      <c r="K384" s="150">
+      <c r="K384" s="149">
         <v>82365008</v>
       </c>
       <c r="L384" s="80" t="s">
@@ -24410,7 +24404,7 @@
       <c r="J385" s="26">
         <v>5849</v>
       </c>
-      <c r="K385" s="150">
+      <c r="K385" s="149">
         <v>82365008</v>
       </c>
       <c r="L385" s="80" t="s">
@@ -24447,7 +24441,7 @@
         <v>1756</v>
       </c>
       <c r="J386" s="26"/>
-      <c r="K386" s="155">
+      <c r="K386" s="154">
         <v>245294005</v>
       </c>
       <c r="L386" s="80" t="s">
@@ -24486,7 +24480,7 @@
         <v>1757</v>
       </c>
       <c r="J387" s="26"/>
-      <c r="K387" s="155">
+      <c r="K387" s="154">
         <v>245294005</v>
       </c>
       <c r="L387" s="80" t="s">
@@ -24523,7 +24517,7 @@
         <v>1753</v>
       </c>
       <c r="J388" s="26"/>
-      <c r="K388" s="155">
+      <c r="K388" s="154">
         <v>245294005</v>
       </c>
       <c r="L388" s="80" t="s">
@@ -24562,7 +24556,7 @@
       <c r="J389" s="26">
         <v>15758</v>
       </c>
-      <c r="K389" s="150">
+      <c r="K389" s="149">
         <v>245288002</v>
       </c>
       <c r="L389" s="57" t="s">
@@ -24601,7 +24595,7 @@
       <c r="J390" s="26">
         <v>46472</v>
       </c>
-      <c r="K390" s="149">
+      <c r="K390" s="148">
         <v>45206002</v>
       </c>
       <c r="L390" s="57" t="s">
@@ -24640,18 +24634,16 @@
       <c r="J391" s="26">
         <v>234280</v>
       </c>
-      <c r="K391" s="149">
+      <c r="K391" s="148">
         <v>1187336003</v>
       </c>
       <c r="L391" s="57" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="M391" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N391" s="175" t="s">
-        <v>2478</v>
-      </c>
+      <c r="N391" s="11"/>
     </row>
     <row r="392" spans="1:14" s="1" customFormat="1" ht="51">
       <c r="A392" s="56" t="s">
@@ -24683,18 +24675,16 @@
       <c r="J392" s="26">
         <v>234280</v>
       </c>
-      <c r="K392" s="149">
+      <c r="K392" s="173">
         <v>1187336003</v>
       </c>
       <c r="L392" s="57" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="M392" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N392" s="175" t="s">
-        <v>2478</v>
-      </c>
+      <c r="N392" s="11"/>
     </row>
     <row r="393" spans="1:14" s="1" customFormat="1" ht="51">
       <c r="A393" s="56" t="s">
@@ -24726,7 +24716,7 @@
       <c r="J393" s="26">
         <v>5970</v>
       </c>
-      <c r="K393" s="150">
+      <c r="K393" s="149">
         <v>196662004</v>
       </c>
       <c r="L393" s="80" t="s">
@@ -24767,7 +24757,7 @@
       <c r="J394" s="26">
         <v>5969</v>
       </c>
-      <c r="K394" s="150">
+      <c r="K394" s="149">
         <v>196662004</v>
       </c>
       <c r="L394" s="80" t="s">
@@ -24806,7 +24796,7 @@
       <c r="J395" s="26">
         <v>5968</v>
       </c>
-      <c r="K395" s="150">
+      <c r="K395" s="149">
         <v>196662004</v>
       </c>
       <c r="L395" s="80" t="s">
@@ -24845,7 +24835,7 @@
         <v>1593</v>
       </c>
       <c r="J396" s="26"/>
-      <c r="K396" s="159">
+      <c r="K396" s="158">
         <v>59441001</v>
       </c>
       <c r="L396" s="83" t="s">
@@ -24888,7 +24878,7 @@
       <c r="J397" s="26">
         <v>232719</v>
       </c>
-      <c r="K397" s="155">
+      <c r="K397" s="154">
         <v>76838003</v>
       </c>
       <c r="L397" s="80" t="s">
@@ -24931,7 +24921,7 @@
       <c r="J398" s="26">
         <v>232721</v>
       </c>
-      <c r="K398" s="155">
+      <c r="K398" s="154">
         <v>76838003</v>
       </c>
       <c r="L398" s="80" t="s">
@@ -24970,7 +24960,7 @@
       <c r="J399" s="26">
         <v>5950</v>
       </c>
-      <c r="K399" s="150">
+      <c r="K399" s="149">
         <v>245283006</v>
       </c>
       <c r="L399" s="80" t="s">
@@ -25009,7 +24999,7 @@
       <c r="J400" s="18">
         <v>5952</v>
       </c>
-      <c r="K400" s="150">
+      <c r="K400" s="149">
         <v>245283006</v>
       </c>
       <c r="L400" s="80" t="s">
@@ -25050,7 +25040,7 @@
       <c r="J401" s="18">
         <v>5951</v>
       </c>
-      <c r="K401" s="150">
+      <c r="K401" s="149">
         <v>245283006</v>
       </c>
       <c r="L401" s="80" t="s">
@@ -25087,7 +25077,7 @@
         <v>1693</v>
       </c>
       <c r="J402" s="26"/>
-      <c r="K402" s="149">
+      <c r="K402" s="148">
         <v>84782009</v>
       </c>
       <c r="L402" s="57" t="s">
@@ -25128,7 +25118,7 @@
       <c r="J403" s="18">
         <v>72970</v>
       </c>
-      <c r="K403" s="149">
+      <c r="K403" s="148">
         <v>83251001</v>
       </c>
       <c r="L403" s="57" t="s">
@@ -25171,7 +25161,7 @@
       <c r="J404" s="18">
         <v>72969</v>
       </c>
-      <c r="K404" s="149">
+      <c r="K404" s="148">
         <v>83251001</v>
       </c>
       <c r="L404" s="57" t="s">
@@ -25210,7 +25200,7 @@
       <c r="J405" s="26">
         <v>5981</v>
       </c>
-      <c r="K405" s="149">
+      <c r="K405" s="148">
         <v>40958000</v>
       </c>
       <c r="L405" s="57" t="s">
@@ -25251,7 +25241,7 @@
       <c r="J406" s="18">
         <v>72976</v>
       </c>
-      <c r="K406" s="149">
+      <c r="K406" s="148">
         <v>31065004</v>
       </c>
       <c r="L406" s="57" t="s">
@@ -25294,7 +25284,7 @@
       <c r="J407" s="18">
         <v>72975</v>
       </c>
-      <c r="K407" s="149">
+      <c r="K407" s="148">
         <v>31065004</v>
       </c>
       <c r="L407" s="57" t="s">
@@ -25335,7 +25325,7 @@
       <c r="J408" s="26">
         <v>62045</v>
       </c>
-      <c r="K408" s="149">
+      <c r="K408" s="148">
         <v>244453006</v>
       </c>
       <c r="L408" s="57" t="s">
@@ -25376,7 +25366,7 @@
       <c r="J409" s="18">
         <v>72974</v>
       </c>
-      <c r="K409" s="149">
+      <c r="K409" s="148">
         <v>16630005</v>
       </c>
       <c r="L409" s="57" t="s">
@@ -25419,7 +25409,7 @@
       <c r="J410" s="18">
         <v>72973</v>
       </c>
-      <c r="K410" s="149">
+      <c r="K410" s="148">
         <v>16630005</v>
       </c>
       <c r="L410" s="57" t="s">
@@ -25460,7 +25450,7 @@
       <c r="J411" s="26">
         <v>50863</v>
       </c>
-      <c r="K411" s="149">
+      <c r="K411" s="148">
         <v>18234004</v>
       </c>
       <c r="L411" s="57" t="s">
@@ -25501,7 +25491,7 @@
       <c r="J412" s="18">
         <v>72972</v>
       </c>
-      <c r="K412" s="149">
+      <c r="K412" s="148">
         <v>78277001</v>
       </c>
       <c r="L412" s="57" t="s">
@@ -25544,7 +25534,7 @@
       <c r="J413" s="18">
         <v>72971</v>
       </c>
-      <c r="K413" s="149">
+      <c r="K413" s="148">
         <v>78277001</v>
       </c>
       <c r="L413" s="57" t="s">
@@ -25585,7 +25575,7 @@
       <c r="J414" s="18">
         <v>7310</v>
       </c>
-      <c r="K414" s="149">
+      <c r="K414" s="148">
         <v>39607008</v>
       </c>
       <c r="L414" s="57" t="s">
@@ -25626,7 +25616,7 @@
       <c r="J415" s="18">
         <v>7371</v>
       </c>
-      <c r="K415" s="149">
+      <c r="K415" s="148">
         <v>31094006</v>
       </c>
       <c r="L415" s="57" t="s">
@@ -25667,7 +25657,7 @@
       <c r="J416" s="18">
         <v>7370</v>
       </c>
-      <c r="K416" s="149">
+      <c r="K416" s="148">
         <v>31094006</v>
       </c>
       <c r="L416" s="57" t="s">
@@ -25708,7 +25698,7 @@
       <c r="J417" s="18">
         <v>7309</v>
       </c>
-      <c r="K417" s="149">
+      <c r="K417" s="148">
         <v>31094006</v>
       </c>
       <c r="L417" s="57" t="s">
@@ -25749,7 +25739,7 @@
       <c r="J418" s="18">
         <v>7337</v>
       </c>
-      <c r="K418" s="149">
+      <c r="K418" s="148">
         <v>31094006</v>
       </c>
       <c r="L418" s="57" t="s">
@@ -25790,7 +25780,7 @@
       <c r="J419" s="18">
         <v>7383</v>
       </c>
-      <c r="K419" s="149">
+      <c r="K419" s="148">
         <v>31094006</v>
       </c>
       <c r="L419" s="57" t="s">
@@ -25831,7 +25821,7 @@
       <c r="J420" s="18">
         <v>7333</v>
       </c>
-      <c r="K420" s="149">
+      <c r="K420" s="148">
         <v>31094006</v>
       </c>
       <c r="L420" s="57" t="s">
@@ -25872,7 +25862,7 @@
       <c r="J421" s="18">
         <v>68877</v>
       </c>
-      <c r="K421" s="149">
+      <c r="K421" s="148">
         <v>39607008</v>
       </c>
       <c r="L421" s="57" t="s">
@@ -25913,7 +25903,7 @@
       <c r="J422" s="14">
         <v>52753</v>
       </c>
-      <c r="K422" s="149">
+      <c r="K422" s="148">
         <v>34080009</v>
       </c>
       <c r="L422" s="57" t="s">
@@ -25954,7 +25944,7 @@
       <c r="J423" s="14">
         <v>74053</v>
       </c>
-      <c r="K423" s="149">
+      <c r="K423" s="148">
         <v>34080009</v>
       </c>
       <c r="L423" s="57" t="s">
@@ -25995,7 +25985,7 @@
       <c r="J424" s="14">
         <v>74052</v>
       </c>
-      <c r="K424" s="149">
+      <c r="K424" s="148">
         <v>34080009</v>
       </c>
       <c r="L424" s="57" t="s">
@@ -26034,7 +26024,7 @@
       <c r="J425" s="18">
         <v>9711</v>
       </c>
-      <c r="K425" s="149">
+      <c r="K425" s="148">
         <v>70925003</v>
       </c>
       <c r="L425" s="57" t="s">
@@ -26075,7 +26065,7 @@
       <c r="J426" s="18">
         <v>53650</v>
       </c>
-      <c r="K426" s="149">
+      <c r="K426" s="148">
         <v>70925003</v>
       </c>
       <c r="L426" s="57" t="s">
@@ -26116,7 +26106,7 @@
       <c r="J427" s="18">
         <v>53649</v>
       </c>
-      <c r="K427" s="149">
+      <c r="K427" s="148">
         <v>70925003</v>
       </c>
       <c r="L427" s="57" t="s">
@@ -26157,7 +26147,7 @@
       <c r="J428" s="26">
         <v>54668</v>
       </c>
-      <c r="K428" s="149">
+      <c r="K428" s="148">
         <v>363654007</v>
       </c>
       <c r="L428" s="57" t="s">
@@ -26198,7 +26188,7 @@
       <c r="J429" s="26">
         <v>54667</v>
       </c>
-      <c r="K429" s="149">
+      <c r="K429" s="148">
         <v>363654007</v>
       </c>
       <c r="L429" s="57" t="s">
@@ -26239,7 +26229,7 @@
       <c r="J430" s="26">
         <v>54879</v>
       </c>
-      <c r="K430" s="149">
+      <c r="K430" s="148">
         <v>31389004</v>
       </c>
       <c r="L430" s="57" t="s">
@@ -26280,7 +26270,7 @@
       <c r="J431" s="18">
         <v>46623</v>
       </c>
-      <c r="K431" s="149">
+      <c r="K431" s="148">
         <v>4866005</v>
       </c>
       <c r="L431" s="57" t="s">
@@ -26323,7 +26313,7 @@
       <c r="J432" s="18">
         <v>46622</v>
       </c>
-      <c r="K432" s="149">
+      <c r="K432" s="148">
         <v>4866005</v>
       </c>
       <c r="L432" s="57" t="s">
@@ -26366,7 +26356,7 @@
       <c r="J433" s="18">
         <v>46621</v>
       </c>
-      <c r="K433" s="149">
+      <c r="K433" s="148">
         <v>4866005</v>
       </c>
       <c r="L433" s="57" t="s">
@@ -26409,7 +26399,7 @@
       <c r="J434" s="18">
         <v>46293</v>
       </c>
-      <c r="K434" s="149">
+      <c r="K434" s="148">
         <v>52410001</v>
       </c>
       <c r="L434" s="57" t="s">
@@ -26452,7 +26442,7 @@
       <c r="J435" s="18">
         <v>46292</v>
       </c>
-      <c r="K435" s="149">
+      <c r="K435" s="148">
         <v>52410001</v>
       </c>
       <c r="L435" s="57" t="s">
@@ -26491,7 +26481,7 @@
       <c r="J436" s="26">
         <v>7409</v>
       </c>
-      <c r="K436" s="149">
+      <c r="K436" s="148">
         <v>15497006</v>
       </c>
       <c r="L436" s="57" t="s">
@@ -26534,7 +26524,7 @@
       <c r="J437" s="18">
         <v>48998</v>
       </c>
-      <c r="K437" s="149">
+      <c r="K437" s="148">
         <v>79368004</v>
       </c>
       <c r="L437" s="57" t="s">
@@ -26575,7 +26565,7 @@
       <c r="J438" s="18">
         <v>48997</v>
       </c>
-      <c r="K438" s="149">
+      <c r="K438" s="148">
         <v>79368004</v>
       </c>
       <c r="L438" s="57" t="s">
@@ -26616,7 +26606,7 @@
       <c r="J439" s="18">
         <v>45740</v>
       </c>
-      <c r="K439" s="149">
+      <c r="K439" s="148">
         <v>18252004</v>
       </c>
       <c r="L439" s="57" t="s">
@@ -26659,7 +26649,7 @@
       <c r="J440" s="18">
         <v>45739</v>
       </c>
-      <c r="K440" s="149">
+      <c r="K440" s="148">
         <v>18252004</v>
       </c>
       <c r="L440" s="57" t="s">
@@ -26700,7 +26690,7 @@
         <v>603</v>
       </c>
       <c r="J441" s="18"/>
-      <c r="K441" s="157">
+      <c r="K441" s="156">
         <v>76738006</v>
       </c>
       <c r="L441" s="121" t="s">
@@ -26709,8 +26699,8 @@
       <c r="M441" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N441" s="132" t="s">
-        <v>2532</v>
+      <c r="N441" s="131" t="s">
+        <v>2529</v>
       </c>
     </row>
     <row r="442" spans="1:14" s="1" customFormat="1" ht="34">
@@ -26743,7 +26733,7 @@
         <v>604</v>
       </c>
       <c r="J442" s="18"/>
-      <c r="K442" s="149">
+      <c r="K442" s="148">
         <v>76738006</v>
       </c>
       <c r="L442" s="57" t="s">
@@ -26786,7 +26776,7 @@
       <c r="J443" s="18">
         <v>13409</v>
       </c>
-      <c r="K443" s="149">
+      <c r="K443" s="148">
         <v>22823000</v>
       </c>
       <c r="L443" s="57" t="s">
@@ -26829,7 +26819,7 @@
       <c r="J444" s="18">
         <v>13408</v>
       </c>
-      <c r="K444" s="149">
+      <c r="K444" s="148">
         <v>22823000</v>
       </c>
       <c r="L444" s="57" t="s">
@@ -26872,7 +26862,7 @@
       <c r="J445" s="18">
         <v>49008</v>
       </c>
-      <c r="K445" s="150">
+      <c r="K445" s="149">
         <v>52927003</v>
       </c>
       <c r="L445" s="10" t="s">
@@ -26913,7 +26903,7 @@
       <c r="J446" s="26">
         <v>55021</v>
       </c>
-      <c r="K446" s="149">
+      <c r="K446" s="148">
         <v>49460000</v>
       </c>
       <c r="L446" s="57" t="s">
@@ -26954,7 +26944,7 @@
       <c r="J447" s="18">
         <v>54738</v>
       </c>
-      <c r="K447" s="149">
+      <c r="K447" s="148">
         <v>46607005</v>
       </c>
       <c r="L447" s="57" t="s">
@@ -26997,7 +26987,7 @@
       <c r="J448" s="18">
         <v>54737</v>
       </c>
-      <c r="K448" s="149">
+      <c r="K448" s="148">
         <v>46607005</v>
       </c>
       <c r="L448" s="57" t="s">
@@ -27038,7 +27028,7 @@
       <c r="J449" s="26">
         <v>7198</v>
       </c>
-      <c r="K449" s="149">
+      <c r="K449" s="148">
         <v>15776009</v>
       </c>
       <c r="L449" s="57" t="s">
@@ -27077,7 +27067,7 @@
       <c r="J450" s="26">
         <v>10468</v>
       </c>
-      <c r="K450" s="149">
+      <c r="K450" s="148">
         <v>64163001</v>
       </c>
       <c r="L450" s="57" t="s">
@@ -27116,7 +27106,7 @@
       <c r="J451" s="26">
         <v>14519</v>
       </c>
-      <c r="K451" s="149">
+      <c r="K451" s="148">
         <v>73239005</v>
       </c>
       <c r="L451" s="57" t="s">
@@ -27153,7 +27143,7 @@
       <c r="J452" s="26">
         <v>77061</v>
       </c>
-      <c r="K452" s="149">
+      <c r="K452" s="148">
         <v>45682005</v>
       </c>
       <c r="L452" s="57" t="s">
@@ -27192,7 +27182,7 @@
       <c r="J453" s="54">
         <v>320436</v>
       </c>
-      <c r="K453" s="149">
+      <c r="K453" s="148">
         <v>45289007</v>
       </c>
       <c r="L453" s="57" t="s">
@@ -27231,7 +27221,7 @@
       <c r="J454" s="26">
         <v>19614</v>
       </c>
-      <c r="K454" s="149">
+      <c r="K454" s="148">
         <v>52737000</v>
       </c>
       <c r="L454" s="57" t="s">
@@ -27272,7 +27262,7 @@
       <c r="J455" s="26">
         <v>50878</v>
       </c>
-      <c r="K455" s="149">
+      <c r="K455" s="148">
         <v>18234004</v>
       </c>
       <c r="L455" s="57" t="s">
@@ -27315,7 +27305,7 @@
       <c r="J456" s="26">
         <v>50875</v>
       </c>
-      <c r="K456" s="149">
+      <c r="K456" s="148">
         <v>18234004</v>
       </c>
       <c r="L456" s="57" t="s">
@@ -27354,7 +27344,7 @@
       <c r="J457" s="26">
         <v>9707</v>
       </c>
-      <c r="K457" s="149">
+      <c r="K457" s="148">
         <v>18911002</v>
       </c>
       <c r="L457" s="57" t="s">
@@ -27395,7 +27385,7 @@
       <c r="J458" s="18">
         <v>9869</v>
       </c>
-      <c r="K458" s="149">
+      <c r="K458" s="148">
         <v>76848001</v>
       </c>
       <c r="L458" s="57" t="s">
@@ -27432,7 +27422,7 @@
       <c r="J459" s="18">
         <v>9579</v>
       </c>
-      <c r="K459" s="149">
+      <c r="K459" s="148">
         <v>38864007</v>
       </c>
       <c r="L459" s="57" t="s">
@@ -27471,7 +27461,7 @@
       <c r="J460" s="18">
         <v>9908</v>
       </c>
-      <c r="K460" s="149">
+      <c r="K460" s="148">
         <v>118762006</v>
       </c>
       <c r="L460" s="57" t="s">
@@ -27510,7 +27500,7 @@
       <c r="J461" s="26">
         <v>7214</v>
       </c>
-      <c r="K461" s="149">
+      <c r="K461" s="148">
         <v>15497006</v>
       </c>
       <c r="L461" s="57" t="s">
@@ -27551,7 +27541,7 @@
       <c r="J462" s="26">
         <v>7213</v>
       </c>
-      <c r="K462" s="149">
+      <c r="K462" s="148">
         <v>15497006</v>
       </c>
       <c r="L462" s="57" t="s">
@@ -27588,7 +27578,7 @@
         <v>1348</v>
       </c>
       <c r="J463" s="55"/>
-      <c r="K463" s="149">
+      <c r="K463" s="148">
         <v>14106009</v>
       </c>
       <c r="L463" s="57" t="s">
@@ -27627,7 +27617,7 @@
       <c r="J464" s="18">
         <v>46688</v>
       </c>
-      <c r="K464" s="149">
+      <c r="K464" s="148">
         <v>54066008</v>
       </c>
       <c r="L464" s="57" t="s">
@@ -27658,19 +27648,19 @@
       <c r="H465" s="24" t="s">
         <v>1478</v>
       </c>
-      <c r="I465" s="136" t="s">
+      <c r="I465" s="135" t="s">
         <v>1503</v>
       </c>
       <c r="J465" s="26"/>
-      <c r="K465" s="149">
+      <c r="K465" s="148">
         <v>110822002</v>
       </c>
       <c r="L465" s="57" t="s">
         <v>2452</v>
       </c>
       <c r="M465" s="10"/>
-      <c r="N465" s="131" t="s">
-        <v>2522</v>
+      <c r="N465" s="130" t="s">
+        <v>2519</v>
       </c>
     </row>
     <row r="466" spans="1:14" s="1" customFormat="1" ht="13.5" customHeight="1">
@@ -27703,7 +27693,7 @@
       <c r="J466" s="18">
         <v>62033</v>
       </c>
-      <c r="K466" s="149">
+      <c r="K466" s="148">
         <v>45793000</v>
       </c>
       <c r="L466" s="57" t="s">
@@ -27721,7 +27711,7 @@
         <v>650</v>
       </c>
       <c r="D467" s="13" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="E467" s="13" t="s">
         <v>698</v>
@@ -27742,7 +27732,7 @@
       <c r="J467" s="18">
         <v>13889</v>
       </c>
-      <c r="K467" s="149">
+      <c r="K467" s="148">
         <v>56329008</v>
       </c>
       <c r="L467" s="57" t="s">
@@ -27781,15 +27771,15 @@
       <c r="J468" s="26">
         <v>67943</v>
       </c>
-      <c r="K468" s="149">
+      <c r="K468" s="148">
         <v>49557009</v>
       </c>
       <c r="L468" s="57" t="s">
         <v>2257</v>
       </c>
       <c r="M468" s="10"/>
-      <c r="N468" s="128" t="s">
-        <v>2519</v>
+      <c r="N468" s="127" t="s">
+        <v>2516</v>
       </c>
     </row>
     <row r="469" spans="1:14" s="1" customFormat="1" ht="17">
@@ -27822,7 +27812,7 @@
       <c r="J469" s="18">
         <v>9600</v>
       </c>
-      <c r="K469" s="149">
+      <c r="K469" s="148">
         <v>41216001</v>
       </c>
       <c r="L469" s="57" t="s">
@@ -27863,7 +27853,7 @@
       <c r="J470" s="26">
         <v>59798</v>
       </c>
-      <c r="K470" s="149">
+      <c r="K470" s="148">
         <v>45289007</v>
       </c>
       <c r="L470" s="57" t="s">
@@ -27906,7 +27896,7 @@
       <c r="J471" s="26">
         <v>59797</v>
       </c>
-      <c r="K471" s="149">
+      <c r="K471" s="148">
         <v>45289007</v>
       </c>
       <c r="L471" s="57" t="s">
@@ -27945,7 +27935,7 @@
         <v>1694</v>
       </c>
       <c r="J472" s="26"/>
-      <c r="K472" s="157">
+      <c r="K472" s="156">
         <v>1162492000</v>
       </c>
       <c r="L472" s="121" t="s">
@@ -27953,7 +27943,7 @@
       </c>
       <c r="M472" s="10"/>
       <c r="N472" s="119" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="473" spans="1:14" s="1" customFormat="1" ht="51">
@@ -27986,7 +27976,7 @@
       <c r="J473" s="18">
         <v>49017</v>
       </c>
-      <c r="K473" s="149">
+      <c r="K473" s="148">
         <v>88938001</v>
       </c>
       <c r="L473" s="57" t="s">
@@ -28027,7 +28017,7 @@
       <c r="J474" s="18">
         <v>49016</v>
       </c>
-      <c r="K474" s="149">
+      <c r="K474" s="148">
         <v>88938001</v>
       </c>
       <c r="L474" s="57" t="s">
@@ -28068,7 +28058,7 @@
       <c r="J475" s="18">
         <v>49013</v>
       </c>
-      <c r="K475" s="149">
+      <c r="K475" s="148">
         <v>85002005</v>
       </c>
       <c r="L475" s="57" t="s">
@@ -28109,7 +28099,7 @@
       <c r="J476" s="18">
         <v>49012</v>
       </c>
-      <c r="K476" s="149">
+      <c r="K476" s="148">
         <v>85002005</v>
       </c>
       <c r="L476" s="57" t="s">
@@ -28148,7 +28138,7 @@
       <c r="J477" s="18">
         <v>14626</v>
       </c>
-      <c r="K477" s="160">
+      <c r="K477" s="159">
         <v>511000202101</v>
       </c>
       <c r="L477" s="57" t="s">
@@ -28185,7 +28175,7 @@
       <c r="J478" s="18">
         <v>14544</v>
       </c>
-      <c r="K478" s="149">
+      <c r="K478" s="148">
         <v>34402009</v>
       </c>
       <c r="L478" s="57" t="s">
@@ -28224,7 +28214,7 @@
       <c r="J479" s="18">
         <v>5909</v>
       </c>
-      <c r="K479" s="149">
+      <c r="K479" s="148">
         <v>62397004</v>
       </c>
       <c r="L479" s="57" t="s">
@@ -28255,11 +28245,11 @@
       <c r="H480" s="24" t="s">
         <v>1609</v>
       </c>
-      <c r="I480" s="127"/>
+      <c r="I480" s="126"/>
       <c r="J480" s="26">
         <v>46494</v>
       </c>
-      <c r="K480" s="149">
+      <c r="K480" s="148">
         <v>41695006</v>
       </c>
       <c r="L480" s="57" t="s">
@@ -28300,7 +28290,7 @@
       <c r="J481" s="18">
         <v>52838</v>
       </c>
-      <c r="K481" s="149">
+      <c r="K481" s="148">
         <v>67183008</v>
       </c>
       <c r="L481" s="57" t="s">
@@ -28343,7 +28333,7 @@
       <c r="J482" s="18">
         <v>52840</v>
       </c>
-      <c r="K482" s="149">
+      <c r="K482" s="148">
         <v>67183008</v>
       </c>
       <c r="L482" s="57" t="s">
@@ -28386,7 +28376,7 @@
       <c r="J483" s="18">
         <v>52835</v>
       </c>
-      <c r="K483" s="149">
+      <c r="K483" s="148">
         <v>124002</v>
       </c>
       <c r="L483" s="57" t="s">
@@ -28429,7 +28419,7 @@
       <c r="J484" s="18">
         <v>52834</v>
       </c>
-      <c r="K484" s="149">
+      <c r="K484" s="148">
         <v>124002</v>
       </c>
       <c r="L484" s="57" t="s">
@@ -28466,7 +28456,7 @@
         <v>1601</v>
       </c>
       <c r="J485" s="58"/>
-      <c r="K485" s="149">
+      <c r="K485" s="148">
         <v>12402003</v>
       </c>
       <c r="L485" s="57" t="s">
@@ -28499,7 +28489,7 @@
       </c>
       <c r="I486" s="17"/>
       <c r="J486" s="18"/>
-      <c r="K486" s="157">
+      <c r="K486" s="156">
         <v>12402003</v>
       </c>
       <c r="L486" s="121" t="s">
@@ -28507,7 +28497,7 @@
       </c>
       <c r="M486" s="10"/>
       <c r="N486" s="119" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="487" spans="1:14" s="1" customFormat="1" ht="51">
@@ -28538,7 +28528,7 @@
       <c r="J487" s="18">
         <v>18252</v>
       </c>
-      <c r="K487" s="149">
+      <c r="K487" s="148">
         <v>20233005</v>
       </c>
       <c r="L487" s="57" t="s">
@@ -28575,7 +28565,7 @@
       <c r="J488" s="18">
         <v>19387</v>
       </c>
-      <c r="K488" s="149">
+      <c r="K488" s="148">
         <v>64739004</v>
       </c>
       <c r="L488" s="57" t="s">
@@ -28610,7 +28600,7 @@
         <v>1388</v>
       </c>
       <c r="J489" s="18"/>
-      <c r="K489" s="149">
+      <c r="K489" s="148">
         <v>64739004</v>
       </c>
       <c r="L489" s="57" t="s">
@@ -28647,7 +28637,7 @@
         <v>1966</v>
       </c>
       <c r="J490" s="18"/>
-      <c r="K490" s="149">
+      <c r="K490" s="148">
         <v>64739004</v>
       </c>
       <c r="L490" s="57" t="s">
@@ -28688,7 +28678,7 @@
       <c r="J491" s="59">
         <v>84115</v>
       </c>
-      <c r="K491" s="149">
+      <c r="K491" s="148">
         <v>54215007</v>
       </c>
       <c r="L491" s="57" t="s">
@@ -28727,7 +28717,7 @@
       <c r="J492" s="18">
         <v>16950</v>
       </c>
-      <c r="K492" s="149">
+      <c r="K492" s="148">
         <v>82561000</v>
       </c>
       <c r="L492" s="57" t="s">
@@ -28768,7 +28758,7 @@
       <c r="J493" s="18">
         <v>16597</v>
       </c>
-      <c r="K493" s="157">
+      <c r="K493" s="156">
         <v>82561000</v>
       </c>
       <c r="L493" s="121" t="s">
@@ -28811,7 +28801,7 @@
       <c r="J494" s="18">
         <v>16596</v>
       </c>
-      <c r="K494" s="161">
+      <c r="K494" s="160">
         <v>82561000</v>
       </c>
       <c r="L494" s="123" t="s">
@@ -28854,7 +28844,7 @@
       <c r="J495" s="18">
         <v>23465</v>
       </c>
-      <c r="K495" s="151">
+      <c r="K495" s="150">
         <v>62413002</v>
       </c>
       <c r="L495" s="75" t="s">
@@ -28897,7 +28887,7 @@
       <c r="J496" s="18">
         <v>23464</v>
       </c>
-      <c r="K496" s="151">
+      <c r="K496" s="150">
         <v>62413002</v>
       </c>
       <c r="L496" s="75" t="s">
@@ -28938,7 +28928,7 @@
       <c r="J497" s="18">
         <v>57417</v>
       </c>
-      <c r="K497" s="149">
+      <c r="K497" s="148">
         <v>55060009</v>
       </c>
       <c r="L497" s="57" t="s">
@@ -28977,7 +28967,7 @@
       <c r="J498" s="18">
         <v>57715</v>
       </c>
-      <c r="K498" s="149">
+      <c r="K498" s="148">
         <v>15924003</v>
       </c>
       <c r="L498" s="57" t="s">
@@ -29018,7 +29008,7 @@
       <c r="J499" s="18">
         <v>58303</v>
       </c>
-      <c r="K499" s="149">
+      <c r="K499" s="148">
         <v>5665001</v>
       </c>
       <c r="L499" s="57" t="s">
@@ -29061,7 +29051,7 @@
       <c r="J500" s="18">
         <v>58302</v>
       </c>
-      <c r="K500" s="149">
+      <c r="K500" s="148">
         <v>5665001</v>
       </c>
       <c r="L500" s="57" t="s">
@@ -29104,7 +29094,7 @@
       <c r="J501" s="18">
         <v>58301</v>
       </c>
-      <c r="K501" s="149">
+      <c r="K501" s="148">
         <v>5665001</v>
       </c>
       <c r="L501" s="121" t="s">
@@ -29113,8 +29103,8 @@
       <c r="M501" s="10" t="s">
         <v>2121</v>
       </c>
-      <c r="N501" s="132" t="s">
-        <v>2533</v>
+      <c r="N501" s="131" t="s">
+        <v>2530</v>
       </c>
     </row>
     <row r="502" spans="1:14" s="1" customFormat="1" ht="17">
@@ -29147,7 +29137,7 @@
       <c r="J502" s="18">
         <v>7574</v>
       </c>
-      <c r="K502" s="149">
+      <c r="K502" s="148">
         <v>113197003</v>
       </c>
       <c r="L502" s="57" t="s">
@@ -29188,7 +29178,7 @@
       <c r="J503" s="18">
         <v>7987</v>
       </c>
-      <c r="K503" s="149">
+      <c r="K503" s="148">
         <v>48535007</v>
       </c>
       <c r="L503" s="57" t="s">
@@ -29231,7 +29221,7 @@
       <c r="J504" s="18">
         <v>7857</v>
       </c>
-      <c r="K504" s="149">
+      <c r="K504" s="148">
         <v>48535007</v>
       </c>
       <c r="L504" s="57" t="s">
@@ -29274,7 +29264,7 @@
       <c r="J505" s="18">
         <v>8012</v>
       </c>
-      <c r="K505" s="149">
+      <c r="K505" s="148">
         <v>78247007</v>
       </c>
       <c r="L505" s="57" t="s">
@@ -29317,7 +29307,7 @@
       <c r="J506" s="18">
         <v>7882</v>
       </c>
-      <c r="K506" s="149">
+      <c r="K506" s="148">
         <v>78247007</v>
       </c>
       <c r="L506" s="57" t="s">
@@ -29360,7 +29350,7 @@
       <c r="J507" s="18">
         <v>8039</v>
       </c>
-      <c r="K507" s="149">
+      <c r="K507" s="148">
         <v>25888004</v>
       </c>
       <c r="L507" s="57" t="s">
@@ -29403,7 +29393,7 @@
       <c r="J508" s="18">
         <v>7909</v>
       </c>
-      <c r="K508" s="149">
+      <c r="K508" s="148">
         <v>25888004</v>
       </c>
       <c r="L508" s="57" t="s">
@@ -29446,7 +29436,7 @@
       <c r="J509" s="18">
         <v>8148</v>
       </c>
-      <c r="K509" s="149">
+      <c r="K509" s="148">
         <v>25523003</v>
       </c>
       <c r="L509" s="57" t="s">
@@ -29489,7 +29479,7 @@
       <c r="J510" s="18">
         <v>7957</v>
       </c>
-      <c r="K510" s="149">
+      <c r="K510" s="148">
         <v>25523003</v>
       </c>
       <c r="L510" s="57" t="s">
@@ -29532,7 +29522,7 @@
       <c r="J511" s="18">
         <v>8093</v>
       </c>
-      <c r="K511" s="155">
+      <c r="K511" s="154">
         <v>15339008</v>
       </c>
       <c r="L511" s="57" t="s">
@@ -29575,7 +29565,7 @@
       <c r="J512" s="18">
         <v>8066</v>
       </c>
-      <c r="K512" s="155">
+      <c r="K512" s="154">
         <v>15339008</v>
       </c>
       <c r="L512" s="57" t="s">
@@ -29618,7 +29608,7 @@
       <c r="J513" s="18">
         <v>8202</v>
       </c>
-      <c r="K513" s="155">
+      <c r="K513" s="154">
         <v>59558009</v>
       </c>
       <c r="L513" s="57" t="s">
@@ -29661,7 +29651,7 @@
       <c r="J514" s="18">
         <v>8175</v>
       </c>
-      <c r="K514" s="155">
+      <c r="K514" s="154">
         <v>59558009</v>
       </c>
       <c r="L514" s="57" t="s">
@@ -29704,7 +29694,7 @@
       <c r="J515" s="18">
         <v>8256</v>
       </c>
-      <c r="K515" s="155">
+      <c r="K515" s="154">
         <v>24915002</v>
       </c>
       <c r="L515" s="57" t="s">
@@ -29747,7 +29737,7 @@
       <c r="J516" s="18">
         <v>8229</v>
       </c>
-      <c r="K516" s="155">
+      <c r="K516" s="154">
         <v>24915002</v>
       </c>
       <c r="L516" s="57" t="s">
@@ -29790,7 +29780,7 @@
       <c r="J517" s="18">
         <v>8310</v>
       </c>
-      <c r="K517" s="155">
+      <c r="K517" s="154">
         <v>5953002</v>
       </c>
       <c r="L517" s="57" t="s">
@@ -29833,7 +29823,7 @@
       <c r="J518" s="18">
         <v>8283</v>
       </c>
-      <c r="K518" s="155">
+      <c r="K518" s="154">
         <v>5953002</v>
       </c>
       <c r="L518" s="57" t="s">
@@ -29876,7 +29866,7 @@
       <c r="J519" s="18">
         <v>8391</v>
       </c>
-      <c r="K519" s="155">
+      <c r="K519" s="154">
         <v>22565002</v>
       </c>
       <c r="L519" s="57" t="s">
@@ -29919,7 +29909,7 @@
       <c r="J520" s="18">
         <v>8364</v>
       </c>
-      <c r="K520" s="155">
+      <c r="K520" s="154">
         <v>22565002</v>
       </c>
       <c r="L520" s="57" t="s">
@@ -29962,7 +29952,7 @@
       <c r="J521" s="18">
         <v>8472</v>
       </c>
-      <c r="K521" s="155">
+      <c r="K521" s="154">
         <v>77644006</v>
       </c>
       <c r="L521" s="57" t="s">
@@ -30005,7 +29995,7 @@
       <c r="J522" s="18">
         <v>8445</v>
       </c>
-      <c r="K522" s="155">
+      <c r="K522" s="154">
         <v>77644006</v>
       </c>
       <c r="L522" s="57" t="s">
@@ -30048,7 +30038,7 @@
       <c r="J523" s="18">
         <v>8532</v>
       </c>
-      <c r="K523" s="155">
+      <c r="K523" s="154">
         <v>58830002</v>
       </c>
       <c r="L523" s="57" t="s">
@@ -30091,7 +30081,7 @@
       <c r="J524" s="18">
         <v>8531</v>
       </c>
-      <c r="K524" s="155">
+      <c r="K524" s="154">
         <v>58830002</v>
       </c>
       <c r="L524" s="57" t="s">
@@ -30134,7 +30124,7 @@
       <c r="J525" s="18">
         <v>8534</v>
       </c>
-      <c r="K525" s="155">
+      <c r="K525" s="154">
         <v>43993008</v>
       </c>
       <c r="L525" s="57" t="s">
@@ -30177,7 +30167,7 @@
       <c r="J526" s="18">
         <v>8533</v>
       </c>
-      <c r="K526" s="155">
+      <c r="K526" s="154">
         <v>43993008</v>
       </c>
       <c r="L526" s="57" t="s">
@@ -30216,7 +30206,7 @@
       <c r="J527" s="18">
         <v>7163</v>
       </c>
-      <c r="K527" s="149">
+      <c r="K527" s="148">
         <v>39937001</v>
       </c>
       <c r="L527" s="57" t="s">
@@ -30257,7 +30247,7 @@
       <c r="J528" s="18">
         <v>8534</v>
       </c>
-      <c r="K528" s="162">
+      <c r="K528" s="161">
         <v>1193560003</v>
       </c>
       <c r="L528" s="57" t="s">
@@ -30266,8 +30256,8 @@
       <c r="M528" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N528" s="174" t="s">
-        <v>2559</v>
+      <c r="N528" s="172" t="s">
+        <v>2556</v>
       </c>
     </row>
     <row r="529" spans="1:14" s="1" customFormat="1" ht="34">
@@ -30302,7 +30292,7 @@
       <c r="J529" s="18">
         <v>8533</v>
       </c>
-      <c r="K529" s="162">
+      <c r="K529" s="161">
         <v>1193560003</v>
       </c>
       <c r="L529" s="57" t="s">
@@ -30311,8 +30301,8 @@
       <c r="M529" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N529" s="174" t="s">
-        <v>2559</v>
+      <c r="N529" s="172" t="s">
+        <v>2556</v>
       </c>
     </row>
     <row r="530" spans="1:14" s="1" customFormat="1">
@@ -30341,14 +30331,14 @@
       <c r="J530" s="18">
         <v>20429</v>
       </c>
-      <c r="K530" s="149">
+      <c r="K530" s="148">
         <v>48014002</v>
       </c>
       <c r="L530" s="57" t="s">
         <v>2376</v>
       </c>
       <c r="M530" s="10"/>
-      <c r="N530" s="174"/>
+      <c r="N530" s="172"/>
     </row>
     <row r="531" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A531" s="85" t="s">
@@ -30382,7 +30372,7 @@
       <c r="J531" s="18">
         <v>13396</v>
       </c>
-      <c r="K531" s="149">
+      <c r="K531" s="148">
         <v>79601000</v>
       </c>
       <c r="L531" s="57" t="s">
@@ -30425,7 +30415,7 @@
       <c r="J532" s="18">
         <v>13395</v>
       </c>
-      <c r="K532" s="149">
+      <c r="K532" s="148">
         <v>79601000</v>
       </c>
       <c r="L532" s="57" t="s">
@@ -30460,16 +30450,16 @@
       </c>
       <c r="I533" s="17"/>
       <c r="J533" s="18"/>
-      <c r="K533" s="155">
+      <c r="K533" s="154">
         <v>75093004</v>
       </c>
       <c r="L533" s="57" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="M533" s="10"/>
       <c r="N533" s="11"/>
     </row>
-    <row r="534" spans="1:14" s="1" customFormat="1" ht="51">
+    <row r="534" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A534" s="56"/>
       <c r="B534" s="12" t="s">
         <v>701</v>
@@ -30497,15 +30487,15 @@
         <v>1427</v>
       </c>
       <c r="J534" s="18"/>
-      <c r="K534" s="163" t="s">
-        <v>2560</v>
+      <c r="K534" s="174" t="s">
+        <v>2559</v>
       </c>
       <c r="L534" s="57" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="M534" s="10"/>
-      <c r="N534" s="124" t="s">
-        <v>2512</v>
+      <c r="N534" s="175" t="s">
+        <v>2561</v>
       </c>
     </row>
     <row r="535" spans="1:14" s="1" customFormat="1" ht="34">
@@ -30531,18 +30521,18 @@
         <v>1642</v>
       </c>
       <c r="I535" s="17" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="J535" s="26"/>
-      <c r="K535" s="163" t="s">
+      <c r="K535" s="174" t="s">
+        <v>2560</v>
+      </c>
+      <c r="L535" s="57" t="s">
+        <v>2486</v>
+      </c>
+      <c r="M535" s="10"/>
+      <c r="N535" s="175" t="s">
         <v>2561</v>
-      </c>
-      <c r="L535" s="57" t="s">
-        <v>2487</v>
-      </c>
-      <c r="M535" s="10"/>
-      <c r="N535" s="124" t="s">
-        <v>2511</v>
       </c>
     </row>
     <row r="536" spans="1:14" s="1" customFormat="1" ht="34">
@@ -30573,7 +30563,7 @@
       <c r="J536" s="18">
         <v>286702</v>
       </c>
-      <c r="K536" s="149">
+      <c r="K536" s="148">
         <v>789564000</v>
       </c>
       <c r="L536" s="57" t="s">
@@ -30610,15 +30600,15 @@
         <v>1526</v>
       </c>
       <c r="J537" s="18"/>
-      <c r="K537" s="149">
+      <c r="K537" s="148">
         <v>1193554003</v>
       </c>
       <c r="L537" s="57" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="M537" s="10"/>
-      <c r="N537" s="169" t="s">
-        <v>2488</v>
+      <c r="N537" s="167" t="s">
+        <v>2487</v>
       </c>
     </row>
     <row r="538" spans="1:14" s="1" customFormat="1" ht="34">
@@ -30651,10 +30641,10 @@
       <c r="J538" s="18">
         <v>45797</v>
       </c>
-      <c r="K538" s="164">
+      <c r="K538" s="162">
         <v>76838003</v>
       </c>
-      <c r="L538" s="146" t="s">
+      <c r="L538" s="145" t="s">
         <v>2063</v>
       </c>
       <c r="M538" s="122" t="s">
@@ -30692,10 +30682,10 @@
       <c r="J539" s="18">
         <v>45796</v>
       </c>
-      <c r="K539" s="164">
+      <c r="K539" s="162">
         <v>76838003</v>
       </c>
-      <c r="L539" s="146" t="s">
+      <c r="L539" s="145" t="s">
         <v>2063</v>
       </c>
       <c r="M539" s="122" t="s">
@@ -30735,7 +30725,7 @@
       <c r="J540" s="18">
         <v>57419</v>
       </c>
-      <c r="K540" s="149">
+      <c r="K540" s="148">
         <v>55060009</v>
       </c>
       <c r="L540" s="57" t="s">
@@ -30778,7 +30768,7 @@
       <c r="J541" s="18">
         <v>57418</v>
       </c>
-      <c r="K541" s="149">
+      <c r="K541" s="148">
         <v>55060009</v>
       </c>
       <c r="L541" s="57" t="s">
@@ -30819,7 +30809,7 @@
       <c r="J542" s="26">
         <v>15710</v>
       </c>
-      <c r="K542" s="165">
+      <c r="K542" s="163">
         <v>41178004</v>
       </c>
       <c r="L542" s="57" t="s">
@@ -30860,7 +30850,7 @@
       <c r="J543" s="18">
         <v>57717</v>
       </c>
-      <c r="K543" s="149">
+      <c r="K543" s="148">
         <v>15924003</v>
       </c>
       <c r="L543" s="57" t="s">
@@ -30903,7 +30893,7 @@
       <c r="J544" s="18">
         <v>57716</v>
       </c>
-      <c r="K544" s="149">
+      <c r="K544" s="148">
         <v>15924003</v>
       </c>
       <c r="L544" s="57" t="s">
@@ -30944,7 +30934,7 @@
       <c r="J545" s="18">
         <v>9680</v>
       </c>
-      <c r="K545" s="149">
+      <c r="K545" s="148">
         <v>61853006</v>
       </c>
       <c r="L545" s="57" t="s">
@@ -30985,7 +30975,7 @@
       <c r="J546" s="18">
         <v>54708</v>
       </c>
-      <c r="K546" s="149">
+      <c r="K546" s="148">
         <v>24999009</v>
       </c>
       <c r="L546" s="57" t="s">
@@ -31028,7 +31018,7 @@
       <c r="J547" s="18">
         <v>54707</v>
       </c>
-      <c r="K547" s="149">
+      <c r="K547" s="148">
         <v>24999009</v>
       </c>
       <c r="L547" s="57" t="s">
@@ -31069,7 +31059,7 @@
       <c r="J548" s="18">
         <v>7647</v>
       </c>
-      <c r="K548" s="149">
+      <c r="K548" s="148">
         <v>2748008</v>
       </c>
       <c r="L548" s="57" t="s">
@@ -31108,7 +31098,7 @@
       <c r="J549" s="18">
         <v>71166</v>
       </c>
-      <c r="K549" s="149">
+      <c r="K549" s="148">
         <v>54785003</v>
       </c>
       <c r="L549" s="57" t="s">
@@ -31147,7 +31137,7 @@
       <c r="J550" s="18">
         <v>71168</v>
       </c>
-      <c r="K550" s="149">
+      <c r="K550" s="148">
         <v>60051002</v>
       </c>
       <c r="L550" s="57" t="s">
@@ -31186,7 +31176,7 @@
       <c r="J551" s="18">
         <v>46565</v>
       </c>
-      <c r="K551" s="149">
+      <c r="K551" s="148">
         <v>89546000</v>
       </c>
       <c r="L551" s="57" t="s">
@@ -31225,7 +31215,7 @@
       <c r="J552" s="18">
         <v>256623</v>
       </c>
-      <c r="K552" s="149">
+      <c r="K552" s="148">
         <v>11478001</v>
       </c>
       <c r="L552" s="57" t="s">
@@ -31264,7 +31254,7 @@
       <c r="J553" s="18">
         <v>71167</v>
       </c>
-      <c r="K553" s="149">
+      <c r="K553" s="148">
         <v>50800009</v>
       </c>
       <c r="L553" s="57" t="s">
@@ -31301,7 +31291,7 @@
       <c r="J554" s="18">
         <v>19617</v>
       </c>
-      <c r="K554" s="149">
+      <c r="K554" s="148">
         <v>25270003</v>
       </c>
       <c r="L554" s="57" t="s">
@@ -31340,7 +31330,7 @@
         <v>585</v>
       </c>
       <c r="J555" s="18"/>
-      <c r="K555" s="149">
+      <c r="K555" s="148">
         <v>789564000</v>
       </c>
       <c r="L555" s="57" t="s">
@@ -31349,8 +31339,8 @@
       <c r="M555" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N555" s="128" t="s">
-        <v>2534</v>
+      <c r="N555" s="127" t="s">
+        <v>2531</v>
       </c>
     </row>
     <row r="556" spans="1:14" s="1" customFormat="1" ht="34">
@@ -31383,7 +31373,7 @@
         <v>586</v>
       </c>
       <c r="J556" s="18"/>
-      <c r="K556" s="149">
+      <c r="K556" s="148">
         <v>789564000</v>
       </c>
       <c r="L556" s="57" t="s">
@@ -31392,8 +31382,8 @@
       <c r="M556" s="10" t="s">
         <v>2378</v>
       </c>
-      <c r="N556" s="128" t="s">
-        <v>2534</v>
+      <c r="N556" s="127" t="s">
+        <v>2531</v>
       </c>
     </row>
     <row r="557" spans="1:14" s="1" customFormat="1" ht="17">
@@ -31426,7 +31416,7 @@
       <c r="J557" s="18">
         <v>52751</v>
       </c>
-      <c r="K557" s="149">
+      <c r="K557" s="148">
         <v>22718006</v>
       </c>
       <c r="L557" s="57" t="s">
@@ -31463,7 +31453,7 @@
       <c r="J558" s="18">
         <v>7148</v>
       </c>
-      <c r="K558" s="149">
+      <c r="K558" s="148">
         <v>69695003</v>
       </c>
       <c r="L558" s="57" t="s">
@@ -31502,17 +31492,17 @@
         <v>607</v>
       </c>
       <c r="J559" s="18"/>
-      <c r="K559" s="172">
+      <c r="K559" s="170">
         <v>1193554003</v>
       </c>
       <c r="L559" s="57" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="M559" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N559" s="173" t="s">
-        <v>2488</v>
+      <c r="N559" s="171" t="s">
+        <v>2487</v>
       </c>
     </row>
     <row r="560" spans="1:14" s="1" customFormat="1" ht="34">
@@ -31545,17 +31535,17 @@
         <v>607</v>
       </c>
       <c r="J560" s="18"/>
-      <c r="K560" s="172">
+      <c r="K560" s="170">
         <v>1193554003</v>
       </c>
       <c r="L560" s="57" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="M560" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N560" s="173" t="s">
-        <v>2488</v>
+      <c r="N560" s="171" t="s">
+        <v>2487</v>
       </c>
     </row>
     <row r="561" spans="1:14" s="1" customFormat="1" ht="34">
@@ -31584,7 +31574,7 @@
         <v>1853</v>
       </c>
       <c r="J561" s="26"/>
-      <c r="K561" s="149">
+      <c r="K561" s="148">
         <v>75415000</v>
       </c>
       <c r="L561" s="57" t="s">
@@ -31607,22 +31597,22 @@
         <f t="shared" ref="F562:F563" si="17">LEN(G562)</f>
         <v>10</v>
       </c>
-      <c r="G562" s="126" t="s">
-        <v>2555</v>
+      <c r="G562" s="125" t="s">
+        <v>2552</v>
       </c>
       <c r="H562" s="24" t="s">
         <v>1873</v>
       </c>
       <c r="I562" s="37"/>
       <c r="J562" s="21"/>
-      <c r="K562" s="149">
+      <c r="K562" s="148">
         <v>67548002</v>
       </c>
       <c r="L562" s="57" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="M562" s="10"/>
-      <c r="N562" s="137"/>
+      <c r="N562" s="136"/>
     </row>
     <row r="563" spans="1:14" s="1" customFormat="1">
       <c r="A563" s="56"/>
@@ -31638,22 +31628,22 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
-      <c r="G563" s="126" t="s">
-        <v>2556</v>
+      <c r="G563" s="125" t="s">
+        <v>2553</v>
       </c>
       <c r="H563" s="24" t="s">
         <v>1873</v>
       </c>
       <c r="I563" s="37"/>
       <c r="J563" s="21"/>
-      <c r="K563" s="149">
+      <c r="K563" s="148">
         <v>13014005</v>
       </c>
-      <c r="L563" s="140" t="s">
-        <v>2558</v>
+      <c r="L563" s="139" t="s">
+        <v>2555</v>
       </c>
       <c r="M563" s="10"/>
-      <c r="N563" s="137"/>
+      <c r="N563" s="136"/>
     </row>
     <row r="564" spans="1:14" s="1" customFormat="1" ht="14.5" customHeight="1">
       <c r="A564" s="56"/>
@@ -31678,16 +31668,16 @@
         <v>1890</v>
       </c>
       <c r="I564" s="37" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="J564" s="14">
         <v>242787</v>
       </c>
-      <c r="K564" s="149">
+      <c r="K564" s="148">
         <v>8997002</v>
       </c>
       <c r="L564" s="100" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="M564" s="10"/>
       <c r="N564" s="11"/>
@@ -31718,7 +31708,7 @@
       <c r="J565" s="22">
         <v>9721</v>
       </c>
-      <c r="K565" s="149">
+      <c r="K565" s="148">
         <v>13024002</v>
       </c>
       <c r="L565" s="57" t="s">
@@ -31753,7 +31743,7 @@
       <c r="J566" s="22">
         <v>46900</v>
       </c>
-      <c r="K566" s="149">
+      <c r="K566" s="148">
         <v>70567001</v>
       </c>
       <c r="L566" s="57" t="s">
@@ -31792,7 +31782,7 @@
       <c r="J567" s="18">
         <v>7210</v>
       </c>
-      <c r="K567" s="149">
+      <c r="K567" s="148">
         <v>40689003</v>
       </c>
       <c r="L567" s="57" t="s">
@@ -31831,7 +31821,7 @@
       <c r="J570" s="18">
         <v>83720</v>
       </c>
-      <c r="K570" s="157">
+      <c r="K570" s="156">
         <v>37554007</v>
       </c>
       <c r="L570" s="121" t="s">
@@ -31870,7 +31860,7 @@
       <c r="J571" s="18">
         <v>5031</v>
       </c>
-      <c r="K571" s="149">
+      <c r="K571" s="148">
         <v>1732005</v>
       </c>
       <c r="L571" s="57" t="s">
@@ -31909,7 +31899,7 @@
       <c r="J572" s="18">
         <v>7196</v>
       </c>
-      <c r="K572" s="150">
+      <c r="K572" s="149">
         <v>78961009</v>
       </c>
       <c r="L572" s="80" t="s">
@@ -31948,7 +31938,7 @@
       <c r="J573" s="18">
         <v>15841</v>
       </c>
-      <c r="K573" s="150">
+      <c r="K573" s="149">
         <v>35378004</v>
       </c>
       <c r="L573" s="80" t="s">
@@ -31987,7 +31977,7 @@
       <c r="J574" s="18">
         <v>54640</v>
       </c>
-      <c r="K574" s="149">
+      <c r="K574" s="148">
         <v>21974007</v>
       </c>
       <c r="L574" s="57" t="s">
@@ -32022,11 +32012,11 @@
       </c>
       <c r="I575" s="63"/>
       <c r="J575" s="27"/>
-      <c r="K575" s="150">
+      <c r="K575" s="149">
         <v>181226008</v>
       </c>
       <c r="L575" s="57" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="M575" s="10"/>
       <c r="N575" s="11"/>
@@ -32063,7 +32053,7 @@
       <c r="J576" s="18">
         <v>74049</v>
       </c>
-      <c r="K576" s="149">
+      <c r="K576" s="148">
         <v>22718006</v>
       </c>
       <c r="L576" s="57" t="s">
@@ -32104,7 +32094,7 @@
       <c r="J577" s="18">
         <v>74048</v>
       </c>
-      <c r="K577" s="149">
+      <c r="K577" s="148">
         <v>22718006</v>
       </c>
       <c r="L577" s="57" t="s">
@@ -32141,15 +32131,15 @@
       <c r="J578" s="26">
         <v>54645</v>
       </c>
-      <c r="K578" s="149">
+      <c r="K578" s="148">
         <v>47975008</v>
       </c>
       <c r="L578" s="57" t="s">
         <v>2456</v>
       </c>
       <c r="M578" s="10"/>
-      <c r="N578" s="128" t="s">
-        <v>2503</v>
+      <c r="N578" s="127" t="s">
+        <v>2502</v>
       </c>
     </row>
     <row r="579" spans="1:14" s="1" customFormat="1" ht="17">
@@ -32180,15 +32170,15 @@
       <c r="J579" s="26">
         <v>54644</v>
       </c>
-      <c r="K579" s="157">
+      <c r="K579" s="156">
         <v>61344008</v>
       </c>
-      <c r="L579" s="141" t="s">
-        <v>2547</v>
+      <c r="L579" s="140" t="s">
+        <v>2544</v>
       </c>
       <c r="M579" s="10"/>
-      <c r="N579" s="131" t="s">
-        <v>2521</v>
+      <c r="N579" s="130" t="s">
+        <v>2518</v>
       </c>
     </row>
     <row r="580" spans="1:14" s="1" customFormat="1" ht="17">
@@ -32219,15 +32209,15 @@
       <c r="J580" s="26">
         <v>281502</v>
       </c>
-      <c r="K580" s="157">
+      <c r="K580" s="156">
         <v>61344008</v>
       </c>
-      <c r="L580" s="141" t="s">
-        <v>2547</v>
+      <c r="L580" s="140" t="s">
+        <v>2544</v>
       </c>
       <c r="M580" s="10"/>
-      <c r="N580" s="131" t="s">
-        <v>2521</v>
+      <c r="N580" s="130" t="s">
+        <v>2518</v>
       </c>
     </row>
     <row r="581" spans="1:14" s="1" customFormat="1" ht="17">
@@ -32260,14 +32250,14 @@
       <c r="J581" s="18">
         <v>7394</v>
       </c>
-      <c r="K581" s="149">
+      <c r="K581" s="148">
         <v>44567001</v>
       </c>
       <c r="L581" s="57" t="s">
         <v>2307</v>
       </c>
       <c r="M581" s="10"/>
-      <c r="N581" s="128"/>
+      <c r="N581" s="127"/>
     </row>
     <row r="582" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A582" s="56"/>
@@ -32297,7 +32287,7 @@
         <v>1509</v>
       </c>
       <c r="J582" s="18"/>
-      <c r="K582" s="149">
+      <c r="K582" s="148">
         <v>44567001</v>
       </c>
       <c r="L582" s="57" t="s">
@@ -32306,7 +32296,7 @@
       <c r="M582" s="10" t="s">
         <v>2183</v>
       </c>
-      <c r="N582" s="128"/>
+      <c r="N582" s="127"/>
     </row>
     <row r="583" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A583" s="56"/>
@@ -32337,7 +32327,7 @@
       <c r="J583" s="18">
         <v>264814</v>
       </c>
-      <c r="K583" s="149">
+      <c r="K583" s="148">
         <v>87953007</v>
       </c>
       <c r="L583" s="57" t="s">
@@ -32346,7 +32336,7 @@
       <c r="M583" s="10" t="s">
         <v>2196</v>
       </c>
-      <c r="N583" s="128"/>
+      <c r="N583" s="127"/>
     </row>
     <row r="584" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A584" s="56"/>
@@ -32378,14 +32368,14 @@
       <c r="J584" s="18">
         <v>19667</v>
       </c>
-      <c r="K584" s="149">
+      <c r="K584" s="148">
         <v>13648007</v>
       </c>
       <c r="L584" s="57" t="s">
         <v>2389</v>
       </c>
       <c r="M584" s="10"/>
-      <c r="N584" s="128"/>
+      <c r="N584" s="127"/>
     </row>
     <row r="585" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A585" s="56"/>
@@ -32415,14 +32405,14 @@
         <v>1996</v>
       </c>
       <c r="J585" s="18"/>
-      <c r="K585" s="149">
+      <c r="K585" s="148">
         <v>71553001</v>
       </c>
       <c r="L585" s="57" t="s">
         <v>2390</v>
       </c>
       <c r="M585" s="10"/>
-      <c r="N585" s="128"/>
+      <c r="N585" s="127"/>
     </row>
     <row r="586" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A586" s="56" t="s">
@@ -32456,7 +32446,7 @@
       <c r="J586" s="18">
         <v>7212</v>
       </c>
-      <c r="K586" s="149">
+      <c r="K586" s="148">
         <v>40689003</v>
       </c>
       <c r="L586" s="57" t="s">
@@ -32465,7 +32455,7 @@
       <c r="M586" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N586" s="128"/>
+      <c r="N586" s="127"/>
     </row>
     <row r="587" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A587" s="56" t="s">
@@ -32499,7 +32489,7 @@
       <c r="J587" s="18">
         <v>7211</v>
       </c>
-      <c r="K587" s="149">
+      <c r="K587" s="148">
         <v>40689003</v>
       </c>
       <c r="L587" s="57" t="s">
@@ -32508,7 +32498,7 @@
       <c r="M587" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N587" s="128"/>
+      <c r="N587" s="127"/>
     </row>
     <row r="588" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A588" s="56"/>
@@ -32540,14 +32530,14 @@
       <c r="J588" s="18">
         <v>17558</v>
       </c>
-      <c r="K588" s="149">
+      <c r="K588" s="148">
         <v>35039007</v>
       </c>
       <c r="L588" s="57" t="s">
         <v>2368</v>
       </c>
       <c r="M588" s="10"/>
-      <c r="N588" s="128"/>
+      <c r="N588" s="127"/>
     </row>
     <row r="589" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A589" s="56"/>
@@ -32579,14 +32569,14 @@
       <c r="J589" s="18">
         <v>4838</v>
       </c>
-      <c r="K589" s="149">
+      <c r="K589" s="148">
         <v>72107004</v>
       </c>
       <c r="L589" s="57" t="s">
         <v>2391</v>
       </c>
       <c r="M589" s="10"/>
-      <c r="N589" s="128"/>
+      <c r="N589" s="127"/>
     </row>
     <row r="590" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A590" s="56"/>
@@ -32618,7 +32608,7 @@
       <c r="J590" s="18">
         <v>4761</v>
       </c>
-      <c r="K590" s="149">
+      <c r="K590" s="148">
         <v>8887007</v>
       </c>
       <c r="L590" s="57" t="s">
@@ -32627,7 +32617,7 @@
       <c r="M590" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N590" s="128"/>
+      <c r="N590" s="127"/>
     </row>
     <row r="591" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A591" s="56"/>
@@ -32659,7 +32649,7 @@
       <c r="J591" s="18">
         <v>4751</v>
       </c>
-      <c r="K591" s="149">
+      <c r="K591" s="148">
         <v>8887007</v>
       </c>
       <c r="L591" s="57" t="s">
@@ -32668,7 +32658,7 @@
       <c r="M591" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N591" s="128"/>
+      <c r="N591" s="127"/>
     </row>
     <row r="592" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A592" s="56"/>
@@ -32700,7 +32690,7 @@
       <c r="J592" s="18">
         <v>18886</v>
       </c>
-      <c r="K592" s="149">
+      <c r="K592" s="148">
         <v>63507001</v>
       </c>
       <c r="L592" s="57" t="s">
@@ -32709,7 +32699,7 @@
       <c r="M592" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N592" s="128"/>
+      <c r="N592" s="127"/>
     </row>
     <row r="593" spans="1:14" s="1" customFormat="1">
       <c r="A593" s="56" t="s">
@@ -32739,7 +32729,7 @@
       </c>
       <c r="I593" s="25"/>
       <c r="J593" s="26"/>
-      <c r="K593" s="149">
+      <c r="K593" s="148">
         <v>47975008</v>
       </c>
       <c r="L593" s="57" t="s">
@@ -32748,7 +32738,7 @@
       <c r="M593" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N593" s="128"/>
+      <c r="N593" s="127"/>
     </row>
     <row r="594" spans="1:14" s="1" customFormat="1">
       <c r="A594" s="56" t="s">
@@ -32778,7 +32768,7 @@
       </c>
       <c r="I594" s="25"/>
       <c r="J594" s="26"/>
-      <c r="K594" s="149">
+      <c r="K594" s="148">
         <v>47975008</v>
       </c>
       <c r="L594" s="57" t="s">
@@ -32787,7 +32777,7 @@
       <c r="M594" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N594" s="128"/>
+      <c r="N594" s="127"/>
     </row>
     <row r="595" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A595" s="56"/>
@@ -32819,7 +32809,7 @@
       <c r="J595" s="18">
         <v>18885</v>
       </c>
-      <c r="K595" s="149">
+      <c r="K595" s="148">
         <v>63507001</v>
       </c>
       <c r="L595" s="57" t="s">
@@ -32828,7 +32818,7 @@
       <c r="M595" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N595" s="128"/>
+      <c r="N595" s="127"/>
     </row>
     <row r="596" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A596" s="56"/>
@@ -32860,7 +32850,7 @@
       <c r="J596" s="18">
         <v>18810</v>
       </c>
-      <c r="K596" s="149">
+      <c r="K596" s="148">
         <v>40300007</v>
       </c>
       <c r="L596" s="57" t="s">
@@ -32869,7 +32859,7 @@
       <c r="M596" s="10" t="s">
         <v>2037</v>
       </c>
-      <c r="N596" s="128"/>
+      <c r="N596" s="127"/>
     </row>
     <row r="597" spans="1:14" s="1" customFormat="1" ht="17">
       <c r="A597" s="56" t="s">
@@ -32901,17 +32891,17 @@
       <c r="J597" s="26">
         <v>281500</v>
       </c>
-      <c r="K597" s="157">
+      <c r="K597" s="156">
         <v>61344008</v>
       </c>
-      <c r="L597" s="141" t="s">
-        <v>2547</v>
-      </c>
-      <c r="M597" s="130" t="s">
+      <c r="L597" s="140" t="s">
+        <v>2544</v>
+      </c>
+      <c r="M597" s="129" t="s">
         <v>2038</v>
       </c>
-      <c r="N597" s="131" t="s">
-        <v>2521</v>
+      <c r="N597" s="130" t="s">
+        <v>2518</v>
       </c>
     </row>
     <row r="598" spans="1:14" s="1" customFormat="1">
@@ -32944,14 +32934,14 @@
       <c r="J598" s="26">
         <v>9609</v>
       </c>
-      <c r="K598" s="149">
+      <c r="K598" s="148">
         <v>75573002</v>
       </c>
       <c r="L598" s="57" t="s">
         <v>2437</v>
       </c>
       <c r="M598" s="10"/>
-      <c r="N598" s="128"/>
+      <c r="N598" s="127"/>
     </row>
     <row r="599" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A599" s="56"/>
@@ -32983,7 +32973,7 @@
       <c r="J599" s="18">
         <v>18809</v>
       </c>
-      <c r="K599" s="149">
+      <c r="K599" s="148">
         <v>40300007</v>
       </c>
       <c r="L599" s="57" t="s">
@@ -32992,7 +32982,7 @@
       <c r="M599" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N599" s="128"/>
+      <c r="N599" s="127"/>
     </row>
     <row r="600" spans="1:14" s="1" customFormat="1" ht="34">
       <c r="A600" s="56"/>
@@ -33024,7 +33014,7 @@
       <c r="J600" s="18">
         <v>21387</v>
       </c>
-      <c r="K600" s="149">
+      <c r="K600" s="148">
         <v>46027005</v>
       </c>
       <c r="L600" s="57" t="s">
@@ -33061,7 +33051,7 @@
         <v>1603</v>
       </c>
       <c r="J601" s="18"/>
-      <c r="K601" s="149">
+      <c r="K601" s="148">
         <v>1162492000</v>
       </c>
       <c r="L601" s="57" t="s">
@@ -33102,7 +33092,7 @@
       <c r="J602" s="18">
         <v>17888</v>
       </c>
-      <c r="K602" s="149">
+      <c r="K602" s="148">
         <v>87953007</v>
       </c>
       <c r="L602" s="57" t="s">
@@ -33145,7 +33135,7 @@
       <c r="J603" s="18">
         <v>17887</v>
       </c>
-      <c r="K603" s="149">
+      <c r="K603" s="148">
         <v>87953007</v>
       </c>
       <c r="L603" s="57" t="s">
@@ -33186,7 +33176,7 @@
       <c r="J604" s="18">
         <v>21388</v>
       </c>
-      <c r="K604" s="149">
+      <c r="K604" s="148">
         <v>46027005</v>
       </c>
       <c r="L604" s="57" t="s">
@@ -33227,7 +33217,7 @@
       <c r="J605" s="18">
         <v>13112</v>
       </c>
-      <c r="K605" s="150">
+      <c r="K605" s="149">
         <v>71585003</v>
       </c>
       <c r="L605" s="56" t="s">
@@ -33268,7 +33258,7 @@
       <c r="J606" s="18">
         <v>13111</v>
       </c>
-      <c r="K606" s="150">
+      <c r="K606" s="149">
         <v>71585003</v>
       </c>
       <c r="L606" s="56" t="s">
@@ -33309,7 +33299,7 @@
       <c r="J607" s="18">
         <v>4754</v>
       </c>
-      <c r="K607" s="149">
+      <c r="K607" s="148">
         <v>12123001</v>
       </c>
       <c r="L607" s="57" t="s">
@@ -33350,7 +33340,7 @@
       <c r="J608" s="18">
         <v>4762</v>
       </c>
-      <c r="K608" s="149">
+      <c r="K608" s="148">
         <v>12123001</v>
       </c>
       <c r="L608" s="57" t="s">
@@ -33391,7 +33381,7 @@
       <c r="J609" s="18">
         <v>66645</v>
       </c>
-      <c r="K609" s="149">
+      <c r="K609" s="148">
         <v>32764006</v>
       </c>
       <c r="L609" s="57" t="s">
@@ -33430,7 +33420,7 @@
       <c r="J610" s="18">
         <v>66643</v>
       </c>
-      <c r="K610" s="149">
+      <c r="K610" s="148">
         <v>430757002</v>
       </c>
       <c r="L610" s="57" t="s">
@@ -33469,7 +33459,7 @@
       <c r="J611" s="18">
         <v>4725</v>
       </c>
-      <c r="K611" s="149">
+      <c r="K611" s="148">
         <v>9454009</v>
       </c>
       <c r="L611" s="57" t="s">
@@ -33508,7 +33498,7 @@
       <c r="J612" s="18">
         <v>10951</v>
       </c>
-      <c r="K612" s="149">
+      <c r="K612" s="148">
         <v>35532006</v>
       </c>
       <c r="L612" s="57" t="s">
@@ -33549,7 +33539,7 @@
       <c r="J613" s="18">
         <v>4720</v>
       </c>
-      <c r="K613" s="149">
+      <c r="K613" s="148">
         <v>35532006</v>
       </c>
       <c r="L613" s="57" t="s">
@@ -33590,7 +33580,7 @@
       <c r="J614" s="18">
         <v>19949</v>
       </c>
-      <c r="K614" s="149">
+      <c r="K614" s="148">
         <v>76784001</v>
       </c>
       <c r="L614" s="57" t="s">
@@ -33625,7 +33615,7 @@
       </c>
       <c r="I615" s="17"/>
       <c r="J615" s="18"/>
-      <c r="K615" s="149">
+      <c r="K615" s="148">
         <v>279894000</v>
       </c>
       <c r="L615" s="57" t="s">
@@ -33662,7 +33652,7 @@
         <v>1610</v>
       </c>
       <c r="J616" s="18"/>
-      <c r="K616" s="149">
+      <c r="K616" s="148">
         <v>438074005</v>
       </c>
       <c r="L616" s="57" t="s">
@@ -33697,11 +33687,11 @@
         <v>1632</v>
       </c>
       <c r="J617" s="26"/>
-      <c r="K617" s="164">
+      <c r="K617" s="162">
         <v>17401000</v>
       </c>
       <c r="L617" s="121" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="M617" s="10"/>
       <c r="N617" s="11"/>
@@ -33734,7 +33724,7 @@
         <v>1515</v>
       </c>
       <c r="J618" s="18"/>
-      <c r="K618" s="149">
+      <c r="K618" s="148">
         <v>63190004</v>
       </c>
       <c r="L618" s="57" t="s">
@@ -33773,7 +33763,7 @@
       <c r="J619" s="26">
         <v>7235</v>
       </c>
-      <c r="K619" s="149">
+      <c r="K619" s="148">
         <v>91134007</v>
       </c>
       <c r="L619" s="57" t="s">
@@ -33810,7 +33800,7 @@
       <c r="J620" s="26">
         <v>7246</v>
       </c>
-      <c r="K620" s="149">
+      <c r="K620" s="148">
         <v>39057004</v>
       </c>
       <c r="L620" s="57" t="s">
@@ -33849,7 +33839,7 @@
       <c r="J621" s="26">
         <v>7234</v>
       </c>
-      <c r="K621" s="149">
+      <c r="K621" s="148">
         <v>46030003</v>
       </c>
       <c r="L621" s="57" t="s">
@@ -33888,7 +33878,7 @@
       <c r="J622" s="18">
         <v>7100</v>
       </c>
-      <c r="K622" s="149">
+      <c r="K622" s="148">
         <v>21814001</v>
       </c>
       <c r="L622" s="57" t="s">
@@ -33927,7 +33917,7 @@
       <c r="J623" s="18">
         <v>7101</v>
       </c>
-      <c r="K623" s="149">
+      <c r="K623" s="148">
         <v>21814001</v>
       </c>
       <c r="L623" s="57" t="s">
@@ -33968,7 +33958,7 @@
       <c r="J624" s="18">
         <v>7098</v>
       </c>
-      <c r="K624" s="149">
+      <c r="K624" s="148">
         <v>21814001</v>
       </c>
       <c r="L624" s="57" t="s">
@@ -34011,7 +34001,7 @@
       <c r="J625" s="18">
         <v>4763</v>
       </c>
-      <c r="K625" s="149">
+      <c r="K625" s="148">
         <v>9454009</v>
       </c>
       <c r="L625" s="57" t="s">
@@ -34054,7 +34044,7 @@
       <c r="J626" s="18">
         <v>4755</v>
       </c>
-      <c r="K626" s="149">
+      <c r="K626" s="148">
         <v>9454009</v>
       </c>
       <c r="L626" s="57" t="s">
@@ -34093,7 +34083,7 @@
       <c r="J627" s="18">
         <v>323919</v>
       </c>
-      <c r="K627" s="149">
+      <c r="K627" s="148">
         <v>46105003</v>
       </c>
       <c r="L627" s="57" t="s">
@@ -34134,7 +34124,7 @@
       <c r="J628" s="18">
         <v>20462</v>
       </c>
-      <c r="K628" s="149">
+      <c r="K628" s="148">
         <v>45292006</v>
       </c>
       <c r="L628" s="57" t="s">
@@ -34173,7 +34163,7 @@
       <c r="J629" s="22">
         <v>19971</v>
       </c>
-      <c r="K629" s="149">
+      <c r="K629" s="148">
         <v>263355003</v>
       </c>
       <c r="L629" s="57" t="s">
@@ -34210,11 +34200,11 @@
       <c r="J630" s="18">
         <v>256135</v>
       </c>
-      <c r="K630" s="166">
+      <c r="K630" s="164">
         <v>38266002</v>
       </c>
       <c r="L630" s="121" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="M630" s="10"/>
       <c r="N630" s="11"/>
@@ -34247,11 +34237,11 @@
         <v>1506</v>
       </c>
       <c r="J631" s="18"/>
-      <c r="K631" s="149">
+      <c r="K631" s="148">
         <v>75330005</v>
       </c>
       <c r="L631" s="100" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="M631" s="10"/>
       <c r="N631" s="29"/>
@@ -34286,7 +34276,7 @@
       <c r="J632" s="18">
         <v>55099</v>
       </c>
-      <c r="K632" s="165">
+      <c r="K632" s="163">
         <v>52940008</v>
       </c>
       <c r="L632" s="86" t="s">
@@ -34321,7 +34311,7 @@
         <v>2232</v>
       </c>
       <c r="J633" s="21"/>
-      <c r="K633" s="157">
+      <c r="K633" s="156">
         <v>15328005</v>
       </c>
       <c r="L633" s="121" t="s">
@@ -34360,7 +34350,7 @@
       <c r="J634" s="26">
         <v>7236</v>
       </c>
-      <c r="K634" s="149">
+      <c r="K634" s="148">
         <v>34202007</v>
       </c>
       <c r="L634" s="77" t="s">
@@ -34399,7 +34389,7 @@
       <c r="J635" s="18">
         <v>24043</v>
       </c>
-      <c r="K635" s="149">
+      <c r="K635" s="148">
         <v>1172006</v>
       </c>
       <c r="L635" s="57" t="s">
@@ -34434,7 +34424,7 @@
         <v>1446</v>
       </c>
       <c r="J636" s="18"/>
-      <c r="K636" s="149">
+      <c r="K636" s="148">
         <v>123037004</v>
       </c>
       <c r="L636" s="57" t="s">
@@ -34473,7 +34463,7 @@
         <v>651</v>
       </c>
       <c r="J637" s="18"/>
-      <c r="K637" s="149">
+      <c r="K637" s="148">
         <v>3572006</v>
       </c>
       <c r="L637" s="57" t="s">
@@ -34512,7 +34502,7 @@
       <c r="J638" s="18">
         <v>72063</v>
       </c>
-      <c r="K638" s="149">
+      <c r="K638" s="148">
         <v>3572006</v>
       </c>
       <c r="L638" s="57" t="s">
@@ -34551,7 +34541,7 @@
       <c r="J639" s="18">
         <v>12519</v>
       </c>
-      <c r="K639" s="149">
+      <c r="K639" s="148">
         <v>14806007</v>
       </c>
       <c r="L639" s="57" t="s">
@@ -34590,7 +34580,7 @@
       <c r="J640" s="18">
         <v>12520</v>
       </c>
-      <c r="K640" s="149">
+      <c r="K640" s="148">
         <v>39976000</v>
       </c>
       <c r="L640" s="57" t="s">
@@ -34629,7 +34619,7 @@
       <c r="J641" s="18">
         <v>12521</v>
       </c>
-      <c r="K641" s="149">
+      <c r="K641" s="148">
         <v>91116008</v>
       </c>
       <c r="L641" s="57" t="s">
@@ -34668,7 +34658,7 @@
       <c r="J642" s="18">
         <v>12522</v>
       </c>
-      <c r="K642" s="149">
+      <c r="K642" s="148">
         <v>14705001</v>
       </c>
       <c r="L642" s="57" t="s">
@@ -34707,7 +34697,7 @@
       <c r="J643" s="18">
         <v>12523</v>
       </c>
-      <c r="K643" s="149">
+      <c r="K643" s="148">
         <v>67479001</v>
       </c>
       <c r="L643" s="57" t="s">
@@ -34746,7 +34736,7 @@
       <c r="J644" s="18">
         <v>12524</v>
       </c>
-      <c r="K644" s="149">
+      <c r="K644" s="148">
         <v>88298007</v>
       </c>
       <c r="L644" s="57" t="s">
@@ -34785,7 +34775,7 @@
       <c r="J645" s="18">
         <v>12525</v>
       </c>
-      <c r="K645" s="149">
+      <c r="K645" s="148">
         <v>16126006</v>
       </c>
       <c r="L645" s="57" t="s">
@@ -34824,7 +34814,7 @@
       <c r="J646" s="18">
         <v>72065</v>
       </c>
-      <c r="K646" s="149">
+      <c r="K646" s="148">
         <v>73903008</v>
       </c>
       <c r="L646" s="57" t="s">
@@ -34863,7 +34853,7 @@
       <c r="J647" s="18">
         <v>13072</v>
       </c>
-      <c r="K647" s="149">
+      <c r="K647" s="148">
         <v>61032001</v>
       </c>
       <c r="L647" s="57" t="s">
@@ -34902,7 +34892,7 @@
       <c r="J648" s="18">
         <v>13073</v>
       </c>
-      <c r="K648" s="149">
+      <c r="K648" s="148">
         <v>53983007</v>
       </c>
       <c r="L648" s="57" t="s">
@@ -34941,7 +34931,7 @@
       <c r="J649" s="18">
         <v>13074</v>
       </c>
-      <c r="K649" s="149">
+      <c r="K649" s="148">
         <v>55492004</v>
       </c>
       <c r="L649" s="57" t="s">
@@ -34980,7 +34970,7 @@
       <c r="J650" s="18">
         <v>13075</v>
       </c>
-      <c r="K650" s="149">
+      <c r="K650" s="148">
         <v>71996003</v>
       </c>
       <c r="L650" s="57" t="s">
@@ -35019,7 +35009,7 @@
       <c r="J651" s="18">
         <v>13076</v>
       </c>
-      <c r="K651" s="149">
+      <c r="K651" s="148">
         <v>21799000</v>
       </c>
       <c r="L651" s="57" t="s">
@@ -35058,7 +35048,7 @@
       <c r="J652" s="18">
         <v>12526</v>
       </c>
-      <c r="K652" s="149">
+      <c r="K652" s="148">
         <v>87141009</v>
       </c>
       <c r="L652" s="57" t="s">
@@ -35097,7 +35087,7 @@
       <c r="J653" s="18">
         <v>13077</v>
       </c>
-      <c r="K653" s="149">
+      <c r="K653" s="148">
         <v>65985001</v>
       </c>
       <c r="L653" s="57" t="s">
@@ -35136,7 +35126,7 @@
       <c r="J654" s="18">
         <v>13078</v>
       </c>
-      <c r="K654" s="149">
+      <c r="K654" s="148">
         <v>11808007</v>
       </c>
       <c r="L654" s="57" t="s">
@@ -35175,7 +35165,7 @@
       <c r="J655" s="18">
         <v>13079</v>
       </c>
-      <c r="K655" s="149">
+      <c r="K655" s="148">
         <v>49967005</v>
       </c>
       <c r="L655" s="57" t="s">
@@ -35214,7 +35204,7 @@
       <c r="J656" s="18">
         <v>13080</v>
       </c>
-      <c r="K656" s="149">
+      <c r="K656" s="148">
         <v>69950008</v>
       </c>
       <c r="L656" s="57" t="s">
@@ -35253,7 +35243,7 @@
       <c r="J657" s="18">
         <v>13081</v>
       </c>
-      <c r="K657" s="149">
+      <c r="K657" s="148">
         <v>21452006</v>
       </c>
       <c r="L657" s="57" t="s">
@@ -35292,7 +35282,7 @@
       <c r="J658" s="18">
         <v>9139</v>
       </c>
-      <c r="K658" s="149">
+      <c r="K658" s="148">
         <v>35769007</v>
       </c>
       <c r="L658" s="57" t="s">
@@ -35331,7 +35321,7 @@
       <c r="J659" s="18">
         <v>9165</v>
       </c>
-      <c r="K659" s="149">
+      <c r="K659" s="148">
         <v>56094003</v>
       </c>
       <c r="L659" s="57" t="s">
@@ -35370,7 +35360,7 @@
       <c r="J660" s="18">
         <v>9187</v>
       </c>
-      <c r="K660" s="149">
+      <c r="K660" s="148">
         <v>50060007</v>
       </c>
       <c r="L660" s="57" t="s">
@@ -35409,7 +35399,7 @@
       <c r="J661" s="18">
         <v>9209</v>
       </c>
-      <c r="K661" s="149">
+      <c r="K661" s="148">
         <v>73138009</v>
       </c>
       <c r="L661" s="57" t="s">
@@ -35448,7 +35438,7 @@
       <c r="J662" s="18">
         <v>9248</v>
       </c>
-      <c r="K662" s="149">
+      <c r="K662" s="148">
         <v>86197001</v>
       </c>
       <c r="L662" s="57" t="s">
@@ -35487,7 +35477,7 @@
       <c r="J663" s="18">
         <v>9922</v>
       </c>
-      <c r="K663" s="149">
+      <c r="K663" s="148">
         <v>6105006</v>
       </c>
       <c r="L663" s="57" t="s">
@@ -35526,7 +35516,7 @@
       <c r="J664" s="18">
         <v>9945</v>
       </c>
-      <c r="K664" s="149">
+      <c r="K664" s="148">
         <v>32430008</v>
       </c>
       <c r="L664" s="57" t="s">
@@ -35565,7 +35555,7 @@
       <c r="J665" s="18">
         <v>9968</v>
       </c>
-      <c r="K665" s="149">
+      <c r="K665" s="148">
         <v>71737002</v>
       </c>
       <c r="L665" s="57" t="s">
@@ -35604,7 +35594,7 @@
       <c r="J666" s="18">
         <v>9991</v>
       </c>
-      <c r="K666" s="149">
+      <c r="K666" s="148">
         <v>77435000</v>
       </c>
       <c r="L666" s="57" t="s">
@@ -35643,7 +35633,7 @@
       <c r="J667" s="18">
         <v>10014</v>
       </c>
-      <c r="K667" s="149">
+      <c r="K667" s="148">
         <v>33766003</v>
       </c>
       <c r="L667" s="57" t="s">
@@ -35682,7 +35672,7 @@
       <c r="J668" s="18">
         <v>10037</v>
       </c>
-      <c r="K668" s="149">
+      <c r="K668" s="148">
         <v>48405002</v>
       </c>
       <c r="L668" s="57" t="s">
@@ -35721,7 +35711,7 @@
       <c r="J669" s="18">
         <v>10059</v>
       </c>
-      <c r="K669" s="149">
+      <c r="K669" s="148">
         <v>52120002</v>
       </c>
       <c r="L669" s="57" t="s">
@@ -35760,7 +35750,7 @@
       <c r="J670" s="18">
         <v>10081</v>
       </c>
-      <c r="K670" s="149">
+      <c r="K670" s="148">
         <v>280849005</v>
       </c>
       <c r="L670" s="57" t="s">
@@ -35799,15 +35789,15 @@
       <c r="J671" s="18" t="s">
         <v>2026</v>
       </c>
-      <c r="K671" s="172">
+      <c r="K671" s="170">
         <v>1186895000</v>
       </c>
       <c r="L671" s="57" t="s">
         <v>2179</v>
       </c>
       <c r="M671" s="10"/>
-      <c r="N671" s="173" t="s">
-        <v>2485</v>
+      <c r="N671" s="171" t="s">
+        <v>2484</v>
       </c>
     </row>
     <row r="672" spans="1:14" s="1" customFormat="1" ht="34">
@@ -35840,14 +35830,14 @@
       <c r="J672" s="26">
         <v>11945</v>
       </c>
-      <c r="K672" s="157">
+      <c r="K672" s="156">
         <v>3572006</v>
       </c>
       <c r="L672" s="121" t="s">
         <v>2145</v>
       </c>
-      <c r="M672" s="144" t="s">
-        <v>2546</v>
+      <c r="M672" s="143" t="s">
+        <v>2543</v>
       </c>
       <c r="N672" s="11" t="s">
         <v>2461</v>
@@ -35883,15 +35873,15 @@
       <c r="J673" s="26">
         <v>56429</v>
       </c>
-      <c r="K673" s="170">
+      <c r="K673" s="168">
         <v>1187337007</v>
       </c>
       <c r="L673" s="57" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="M673" s="10"/>
       <c r="N673" s="11" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="674" spans="1:14" s="1" customFormat="1" ht="17">
@@ -35924,7 +35914,7 @@
       <c r="J674" s="26">
         <v>54368</v>
       </c>
-      <c r="K674" s="149">
+      <c r="K674" s="148">
         <v>35763008</v>
       </c>
       <c r="L674" s="10" t="s">
@@ -35961,7 +35951,7 @@
       <c r="J675" s="18">
         <v>55459</v>
       </c>
-      <c r="K675" s="149">
+      <c r="K675" s="148">
         <v>46105003</v>
       </c>
       <c r="L675" s="57" t="s">
@@ -36000,7 +35990,7 @@
       <c r="J676" s="18">
         <v>55458</v>
       </c>
-      <c r="K676" s="149">
+      <c r="K676" s="148">
         <v>46105003</v>
       </c>
       <c r="L676" s="57" t="s">
@@ -36039,15 +36029,15 @@
       <c r="J677" s="67" t="s">
         <v>2026</v>
       </c>
-      <c r="K677" s="167">
+      <c r="K677" s="165">
         <v>1187336003</v>
       </c>
       <c r="L677" s="87" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="M677" s="88"/>
-      <c r="N677" s="171" t="s">
-        <v>2563</v>
+      <c r="N677" s="169" t="s">
+        <v>2558</v>
       </c>
     </row>
     <row r="678" spans="1:14" s="1" customFormat="1" ht="17">
@@ -36080,7 +36070,7 @@
       <c r="J678" s="59">
         <v>9710</v>
       </c>
-      <c r="K678" s="151">
+      <c r="K678" s="150">
         <v>87166008</v>
       </c>
       <c r="L678" s="75" t="s">
@@ -36119,7 +36109,7 @@
       <c r="J679" s="59">
         <v>54683</v>
       </c>
-      <c r="K679" s="151">
+      <c r="K679" s="150">
         <v>24999009</v>
       </c>
       <c r="L679" s="75" t="s">
@@ -36154,7 +36144,7 @@
         <v>1852</v>
       </c>
       <c r="J680" s="71"/>
-      <c r="K680" s="151">
+      <c r="K680" s="150">
         <v>123037004</v>
       </c>
       <c r="L680" s="75" t="s">
@@ -36174,7 +36164,7 @@
       <c r="H681" s="69"/>
       <c r="I681" s="72"/>
       <c r="J681" s="69"/>
-      <c r="K681" s="151"/>
+      <c r="K681" s="150"/>
       <c r="L681" s="75"/>
       <c r="M681" s="69"/>
       <c r="N681" s="89"/>
@@ -36190,7 +36180,7 @@
       <c r="H682" s="69"/>
       <c r="I682" s="72"/>
       <c r="J682" s="69"/>
-      <c r="K682" s="151"/>
+      <c r="K682" s="150"/>
       <c r="L682" s="56"/>
       <c r="M682" s="69"/>
       <c r="N682" s="89"/>
@@ -36206,7 +36196,7 @@
       <c r="H683" s="69"/>
       <c r="I683" s="72"/>
       <c r="J683" s="69"/>
-      <c r="K683" s="150"/>
+      <c r="K683" s="149"/>
       <c r="L683" s="75"/>
       <c r="M683" s="69"/>
       <c r="N683" s="89"/>
@@ -36222,7 +36212,7 @@
       <c r="H684" s="69"/>
       <c r="I684" s="72"/>
       <c r="J684" s="69"/>
-      <c r="K684" s="151"/>
+      <c r="K684" s="150"/>
       <c r="L684" s="75"/>
       <c r="M684" s="69"/>
       <c r="N684" s="89"/>
@@ -36238,7 +36228,7 @@
       <c r="H685" s="69"/>
       <c r="I685" s="72"/>
       <c r="J685" s="69"/>
-      <c r="K685" s="151"/>
+      <c r="K685" s="150"/>
       <c r="L685" s="75"/>
       <c r="M685" s="69"/>
       <c r="N685" s="89"/>
@@ -36254,7 +36244,7 @@
       <c r="H686" s="69"/>
       <c r="I686" s="72"/>
       <c r="J686" s="69"/>
-      <c r="K686" s="151"/>
+      <c r="K686" s="150"/>
       <c r="L686" s="75"/>
       <c r="M686" s="69"/>
       <c r="N686" s="89"/>
@@ -36270,7 +36260,7 @@
       <c r="H687" s="69"/>
       <c r="I687" s="72"/>
       <c r="J687" s="69"/>
-      <c r="K687" s="151"/>
+      <c r="K687" s="150"/>
       <c r="L687" s="75"/>
       <c r="M687" s="69"/>
       <c r="N687" s="89"/>
@@ -36286,7 +36276,7 @@
       <c r="H688" s="69"/>
       <c r="I688" s="72"/>
       <c r="J688" s="69"/>
-      <c r="K688" s="151"/>
+      <c r="K688" s="150"/>
       <c r="L688" s="75"/>
       <c r="M688" s="69"/>
       <c r="N688" s="89"/>
@@ -36302,7 +36292,7 @@
       <c r="H689" s="69"/>
       <c r="I689" s="72"/>
       <c r="J689" s="69"/>
-      <c r="K689" s="151"/>
+      <c r="K689" s="150"/>
       <c r="L689" s="75"/>
       <c r="M689" s="69"/>
       <c r="N689" s="89"/>
@@ -36318,7 +36308,7 @@
       <c r="H690" s="69"/>
       <c r="I690" s="72"/>
       <c r="J690" s="69"/>
-      <c r="K690" s="151"/>
+      <c r="K690" s="150"/>
       <c r="L690" s="75"/>
       <c r="M690" s="69"/>
       <c r="N690" s="89"/>
@@ -36334,7 +36324,7 @@
       <c r="H691" s="69"/>
       <c r="I691" s="72"/>
       <c r="J691" s="69"/>
-      <c r="K691" s="151"/>
+      <c r="K691" s="150"/>
       <c r="L691" s="75"/>
       <c r="M691" s="69"/>
       <c r="N691" s="89"/>
@@ -36350,7 +36340,7 @@
       <c r="H692" s="69"/>
       <c r="I692" s="72"/>
       <c r="J692" s="69"/>
-      <c r="K692" s="151"/>
+      <c r="K692" s="150"/>
       <c r="L692" s="75"/>
       <c r="M692" s="69"/>
       <c r="N692" s="89"/>
@@ -36366,7 +36356,7 @@
       <c r="H693" s="69"/>
       <c r="I693" s="72"/>
       <c r="J693" s="69"/>
-      <c r="K693" s="151"/>
+      <c r="K693" s="150"/>
       <c r="L693" s="75"/>
       <c r="M693" s="69"/>
       <c r="N693" s="89"/>
@@ -36382,7 +36372,7 @@
       <c r="H694" s="69"/>
       <c r="I694" s="72"/>
       <c r="J694" s="69"/>
-      <c r="K694" s="151"/>
+      <c r="K694" s="150"/>
       <c r="L694" s="75"/>
       <c r="M694" s="69"/>
       <c r="N694" s="89"/>
@@ -36398,7 +36388,7 @@
       <c r="H695" s="69"/>
       <c r="I695" s="72"/>
       <c r="J695" s="69"/>
-      <c r="K695" s="151"/>
+      <c r="K695" s="150"/>
       <c r="L695" s="75"/>
       <c r="M695" s="69"/>
       <c r="N695" s="89"/>
@@ -36414,7 +36404,7 @@
       <c r="H696" s="69"/>
       <c r="I696" s="72"/>
       <c r="J696" s="69"/>
-      <c r="K696" s="151"/>
+      <c r="K696" s="150"/>
       <c r="L696" s="75"/>
       <c r="M696" s="69"/>
       <c r="N696" s="89"/>
@@ -36430,7 +36420,7 @@
       <c r="H697" s="69"/>
       <c r="I697" s="72"/>
       <c r="J697" s="69"/>
-      <c r="K697" s="151"/>
+      <c r="K697" s="150"/>
       <c r="L697" s="75"/>
       <c r="M697" s="69"/>
       <c r="N697" s="89"/>
@@ -36446,7 +36436,7 @@
       <c r="H698" s="69"/>
       <c r="I698" s="72"/>
       <c r="J698" s="69"/>
-      <c r="K698" s="151"/>
+      <c r="K698" s="150"/>
       <c r="L698" s="75"/>
       <c r="M698" s="69"/>
       <c r="N698" s="89"/>
@@ -36462,7 +36452,7 @@
       <c r="H699" s="69"/>
       <c r="I699" s="72"/>
       <c r="J699" s="69"/>
-      <c r="K699" s="151"/>
+      <c r="K699" s="150"/>
       <c r="L699" s="75"/>
       <c r="M699" s="69"/>
       <c r="N699" s="89"/>
@@ -36478,7 +36468,7 @@
       <c r="H700" s="69"/>
       <c r="I700" s="72"/>
       <c r="J700" s="69"/>
-      <c r="K700" s="151"/>
+      <c r="K700" s="150"/>
       <c r="L700" s="75"/>
       <c r="M700" s="69"/>
       <c r="N700" s="89"/>
@@ -36494,7 +36484,7 @@
       <c r="H701" s="69"/>
       <c r="I701" s="72"/>
       <c r="J701" s="69"/>
-      <c r="K701" s="151"/>
+      <c r="K701" s="150"/>
       <c r="L701" s="75"/>
       <c r="M701" s="69"/>
       <c r="N701" s="89"/>
@@ -36510,7 +36500,7 @@
       <c r="H702" s="69"/>
       <c r="I702" s="72"/>
       <c r="J702" s="69"/>
-      <c r="K702" s="151"/>
+      <c r="K702" s="150"/>
       <c r="L702" s="75"/>
       <c r="M702" s="69"/>
       <c r="N702" s="89"/>
@@ -36526,7 +36516,7 @@
       <c r="H703" s="69"/>
       <c r="I703" s="72"/>
       <c r="J703" s="69"/>
-      <c r="K703" s="151"/>
+      <c r="K703" s="150"/>
       <c r="L703" s="75"/>
       <c r="M703" s="69"/>
       <c r="N703" s="89"/>
@@ -36542,7 +36532,7 @@
       <c r="H704" s="69"/>
       <c r="I704" s="72"/>
       <c r="J704" s="69"/>
-      <c r="K704" s="151"/>
+      <c r="K704" s="150"/>
       <c r="L704" s="75"/>
       <c r="M704" s="69"/>
       <c r="N704" s="89"/>
@@ -36558,7 +36548,7 @@
       <c r="H705" s="69"/>
       <c r="I705" s="72"/>
       <c r="J705" s="69"/>
-      <c r="K705" s="151"/>
+      <c r="K705" s="150"/>
       <c r="L705" s="75"/>
       <c r="M705" s="69"/>
       <c r="N705" s="89"/>
@@ -36574,7 +36564,7 @@
       <c r="H706" s="69"/>
       <c r="I706" s="72"/>
       <c r="J706" s="69"/>
-      <c r="K706" s="151"/>
+      <c r="K706" s="150"/>
       <c r="L706" s="75"/>
       <c r="M706" s="69"/>
       <c r="N706" s="89"/>
@@ -36590,7 +36580,7 @@
       <c r="H707" s="69"/>
       <c r="I707" s="72"/>
       <c r="J707" s="69"/>
-      <c r="K707" s="151"/>
+      <c r="K707" s="150"/>
       <c r="L707" s="75"/>
       <c r="M707" s="69"/>
       <c r="N707" s="89"/>
@@ -36606,7 +36596,7 @@
       <c r="H708" s="69"/>
       <c r="I708" s="72"/>
       <c r="J708" s="69"/>
-      <c r="K708" s="151"/>
+      <c r="K708" s="150"/>
       <c r="L708" s="75"/>
       <c r="M708" s="69"/>
       <c r="N708" s="89"/>
@@ -36622,7 +36612,7 @@
       <c r="H709" s="69"/>
       <c r="I709" s="72"/>
       <c r="J709" s="69"/>
-      <c r="K709" s="151"/>
+      <c r="K709" s="150"/>
       <c r="L709" s="75"/>
       <c r="M709" s="69"/>
       <c r="N709" s="89"/>
@@ -36638,7 +36628,7 @@
       <c r="H710" s="69"/>
       <c r="I710" s="72"/>
       <c r="J710" s="69"/>
-      <c r="K710" s="151"/>
+      <c r="K710" s="150"/>
       <c r="L710" s="75"/>
       <c r="M710" s="69"/>
       <c r="N710" s="89"/>
@@ -36654,7 +36644,7 @@
       <c r="H711" s="69"/>
       <c r="I711" s="72"/>
       <c r="J711" s="69"/>
-      <c r="K711" s="151"/>
+      <c r="K711" s="150"/>
       <c r="L711" s="75"/>
       <c r="M711" s="69"/>
       <c r="N711" s="89"/>
@@ -36670,7 +36660,7 @@
       <c r="H712" s="69"/>
       <c r="I712" s="72"/>
       <c r="J712" s="69"/>
-      <c r="K712" s="151"/>
+      <c r="K712" s="150"/>
       <c r="L712" s="75"/>
       <c r="M712" s="69"/>
       <c r="N712" s="89"/>
@@ -36686,7 +36676,7 @@
       <c r="H713" s="69"/>
       <c r="I713" s="72"/>
       <c r="J713" s="69"/>
-      <c r="K713" s="151"/>
+      <c r="K713" s="150"/>
       <c r="L713" s="75"/>
       <c r="M713" s="69"/>
       <c r="N713" s="89"/>
@@ -36702,7 +36692,7 @@
       <c r="H714" s="69"/>
       <c r="I714" s="72"/>
       <c r="J714" s="69"/>
-      <c r="K714" s="151"/>
+      <c r="K714" s="150"/>
       <c r="L714" s="75"/>
       <c r="M714" s="69"/>
       <c r="N714" s="89"/>
@@ -36718,7 +36708,7 @@
       <c r="H715" s="69"/>
       <c r="I715" s="72"/>
       <c r="J715" s="69"/>
-      <c r="K715" s="151"/>
+      <c r="K715" s="150"/>
       <c r="L715" s="75"/>
       <c r="M715" s="69"/>
       <c r="N715" s="89"/>
@@ -36734,7 +36724,7 @@
       <c r="H716" s="69"/>
       <c r="I716" s="72"/>
       <c r="J716" s="69"/>
-      <c r="K716" s="151"/>
+      <c r="K716" s="150"/>
       <c r="L716" s="75"/>
       <c r="M716" s="69"/>
       <c r="N716" s="89"/>
@@ -36750,7 +36740,7 @@
       <c r="H717" s="69"/>
       <c r="I717" s="72"/>
       <c r="J717" s="69"/>
-      <c r="K717" s="151"/>
+      <c r="K717" s="150"/>
       <c r="L717" s="75"/>
       <c r="M717" s="69"/>
       <c r="N717" s="89"/>
@@ -36766,7 +36756,7 @@
       <c r="H718" s="69"/>
       <c r="I718" s="72"/>
       <c r="J718" s="69"/>
-      <c r="K718" s="151"/>
+      <c r="K718" s="150"/>
       <c r="L718" s="75"/>
       <c r="M718" s="69"/>
       <c r="N718" s="89"/>
@@ -36782,7 +36772,7 @@
       <c r="H719" s="69"/>
       <c r="I719" s="72"/>
       <c r="J719" s="69"/>
-      <c r="K719" s="151"/>
+      <c r="K719" s="150"/>
       <c r="L719" s="75"/>
       <c r="M719" s="69"/>
       <c r="N719" s="89"/>
@@ -36798,7 +36788,7 @@
       <c r="H720" s="69"/>
       <c r="I720" s="72"/>
       <c r="J720" s="69"/>
-      <c r="K720" s="151"/>
+      <c r="K720" s="150"/>
       <c r="L720" s="75"/>
       <c r="M720" s="69"/>
       <c r="N720" s="89"/>
@@ -36814,7 +36804,7 @@
       <c r="H721" s="69"/>
       <c r="I721" s="72"/>
       <c r="J721" s="69"/>
-      <c r="K721" s="151"/>
+      <c r="K721" s="150"/>
       <c r="L721" s="75"/>
       <c r="M721" s="69"/>
       <c r="N721" s="89"/>
@@ -36830,7 +36820,7 @@
       <c r="H722" s="69"/>
       <c r="I722" s="72"/>
       <c r="J722" s="69"/>
-      <c r="K722" s="151"/>
+      <c r="K722" s="150"/>
       <c r="L722" s="75"/>
       <c r="M722" s="69"/>
       <c r="N722" s="89"/>
@@ -36846,7 +36836,7 @@
       <c r="H723" s="69"/>
       <c r="I723" s="72"/>
       <c r="J723" s="69"/>
-      <c r="K723" s="151"/>
+      <c r="K723" s="150"/>
       <c r="L723" s="75"/>
       <c r="M723" s="69"/>
       <c r="N723" s="89"/>
@@ -36862,7 +36852,7 @@
       <c r="H724" s="69"/>
       <c r="I724" s="72"/>
       <c r="J724" s="69"/>
-      <c r="K724" s="151"/>
+      <c r="K724" s="150"/>
       <c r="L724" s="75"/>
       <c r="M724" s="69"/>
       <c r="N724" s="89"/>
@@ -36878,7 +36868,7 @@
       <c r="H725" s="69"/>
       <c r="I725" s="72"/>
       <c r="J725" s="69"/>
-      <c r="K725" s="151"/>
+      <c r="K725" s="150"/>
       <c r="L725" s="75"/>
       <c r="M725" s="69"/>
       <c r="N725" s="89"/>
@@ -36894,7 +36884,7 @@
       <c r="H726" s="69"/>
       <c r="I726" s="72"/>
       <c r="J726" s="69"/>
-      <c r="K726" s="151"/>
+      <c r="K726" s="150"/>
       <c r="L726" s="75"/>
       <c r="M726" s="69"/>
       <c r="N726" s="89"/>
@@ -36910,7 +36900,7 @@
       <c r="H727" s="69"/>
       <c r="I727" s="72"/>
       <c r="J727" s="69"/>
-      <c r="K727" s="151"/>
+      <c r="K727" s="150"/>
       <c r="L727" s="75"/>
       <c r="M727" s="69"/>
       <c r="N727" s="89"/>
@@ -36926,7 +36916,7 @@
       <c r="H728" s="69"/>
       <c r="I728" s="72"/>
       <c r="J728" s="69"/>
-      <c r="K728" s="151"/>
+      <c r="K728" s="150"/>
       <c r="L728" s="75"/>
       <c r="M728" s="69"/>
       <c r="N728" s="89"/>
@@ -36942,7 +36932,7 @@
       <c r="H729" s="69"/>
       <c r="I729" s="72"/>
       <c r="J729" s="69"/>
-      <c r="K729" s="151"/>
+      <c r="K729" s="150"/>
       <c r="L729" s="75"/>
       <c r="M729" s="69"/>
       <c r="N729" s="89"/>
@@ -36958,7 +36948,7 @@
       <c r="H730" s="69"/>
       <c r="I730" s="72"/>
       <c r="J730" s="69"/>
-      <c r="K730" s="151"/>
+      <c r="K730" s="150"/>
       <c r="L730" s="75"/>
       <c r="M730" s="69"/>
       <c r="N730" s="89"/>
@@ -36974,7 +36964,7 @@
       <c r="H731" s="69"/>
       <c r="I731" s="72"/>
       <c r="J731" s="69"/>
-      <c r="K731" s="151"/>
+      <c r="K731" s="150"/>
       <c r="L731" s="75"/>
       <c r="M731" s="69"/>
       <c r="N731" s="89"/>
@@ -36990,7 +36980,7 @@
       <c r="H732" s="69"/>
       <c r="I732" s="72"/>
       <c r="J732" s="69"/>
-      <c r="K732" s="151"/>
+      <c r="K732" s="150"/>
       <c r="L732" s="75"/>
       <c r="M732" s="69"/>
       <c r="N732" s="89"/>
@@ -37006,7 +36996,7 @@
       <c r="H733" s="69"/>
       <c r="I733" s="72"/>
       <c r="J733" s="69"/>
-      <c r="K733" s="151"/>
+      <c r="K733" s="150"/>
       <c r="L733" s="75"/>
       <c r="M733" s="69"/>
       <c r="N733" s="89"/>
@@ -37022,7 +37012,7 @@
       <c r="H734" s="69"/>
       <c r="I734" s="72"/>
       <c r="J734" s="69"/>
-      <c r="K734" s="151"/>
+      <c r="K734" s="150"/>
       <c r="L734" s="75"/>
       <c r="M734" s="69"/>
       <c r="N734" s="89"/>
@@ -37038,7 +37028,7 @@
       <c r="H735" s="69"/>
       <c r="I735" s="72"/>
       <c r="J735" s="69"/>
-      <c r="K735" s="151"/>
+      <c r="K735" s="150"/>
       <c r="L735" s="75"/>
       <c r="M735" s="69"/>
       <c r="N735" s="89"/>
@@ -37054,7 +37044,7 @@
       <c r="H736" s="69"/>
       <c r="I736" s="72"/>
       <c r="J736" s="69"/>
-      <c r="K736" s="151"/>
+      <c r="K736" s="150"/>
       <c r="L736" s="75"/>
       <c r="M736" s="69"/>
       <c r="N736" s="89"/>
@@ -37070,7 +37060,7 @@
       <c r="H737" s="69"/>
       <c r="I737" s="72"/>
       <c r="J737" s="69"/>
-      <c r="K737" s="151"/>
+      <c r="K737" s="150"/>
       <c r="L737" s="75"/>
       <c r="M737" s="69"/>
       <c r="N737" s="89"/>
@@ -37086,7 +37076,7 @@
       <c r="H738" s="69"/>
       <c r="I738" s="72"/>
       <c r="J738" s="69"/>
-      <c r="K738" s="151"/>
+      <c r="K738" s="150"/>
       <c r="L738" s="75"/>
       <c r="M738" s="69"/>
       <c r="N738" s="89"/>
@@ -37102,7 +37092,7 @@
       <c r="H739" s="69"/>
       <c r="I739" s="72"/>
       <c r="J739" s="69"/>
-      <c r="K739" s="151"/>
+      <c r="K739" s="150"/>
       <c r="L739" s="75"/>
       <c r="M739" s="69"/>
       <c r="N739" s="89"/>
@@ -37118,7 +37108,7 @@
       <c r="H740" s="69"/>
       <c r="I740" s="72"/>
       <c r="J740" s="69"/>
-      <c r="K740" s="151"/>
+      <c r="K740" s="150"/>
       <c r="L740" s="75"/>
       <c r="M740" s="69"/>
       <c r="N740" s="89"/>
@@ -37134,7 +37124,7 @@
       <c r="H741" s="69"/>
       <c r="I741" s="72"/>
       <c r="J741" s="69"/>
-      <c r="K741" s="151"/>
+      <c r="K741" s="150"/>
       <c r="L741" s="75"/>
       <c r="M741" s="69"/>
       <c r="N741" s="89"/>
@@ -37150,7 +37140,7 @@
       <c r="H742" s="69"/>
       <c r="I742" s="72"/>
       <c r="J742" s="69"/>
-      <c r="K742" s="151"/>
+      <c r="K742" s="150"/>
       <c r="L742" s="75"/>
       <c r="M742" s="69"/>
       <c r="N742" s="89"/>
@@ -37166,7 +37156,7 @@
       <c r="H743" s="69"/>
       <c r="I743" s="72"/>
       <c r="J743" s="69"/>
-      <c r="K743" s="151"/>
+      <c r="K743" s="150"/>
       <c r="L743" s="75"/>
       <c r="M743" s="69"/>
       <c r="N743" s="89"/>
@@ -37182,7 +37172,7 @@
       <c r="H744" s="69"/>
       <c r="I744" s="72"/>
       <c r="J744" s="69"/>
-      <c r="K744" s="151"/>
+      <c r="K744" s="150"/>
       <c r="L744" s="75"/>
       <c r="M744" s="69"/>
       <c r="N744" s="89"/>
@@ -37198,7 +37188,7 @@
       <c r="H745" s="69"/>
       <c r="I745" s="72"/>
       <c r="J745" s="69"/>
-      <c r="K745" s="151"/>
+      <c r="K745" s="150"/>
       <c r="L745" s="75"/>
       <c r="M745" s="69"/>
       <c r="N745" s="89"/>
@@ -37214,7 +37204,7 @@
       <c r="H746" s="69"/>
       <c r="I746" s="72"/>
       <c r="J746" s="69"/>
-      <c r="K746" s="151"/>
+      <c r="K746" s="150"/>
       <c r="L746" s="75"/>
       <c r="M746" s="69"/>
       <c r="N746" s="89"/>
@@ -37230,7 +37220,7 @@
       <c r="H747" s="69"/>
       <c r="I747" s="72"/>
       <c r="J747" s="69"/>
-      <c r="K747" s="151"/>
+      <c r="K747" s="150"/>
       <c r="L747" s="75"/>
       <c r="M747" s="69"/>
       <c r="N747" s="89"/>
@@ -37246,7 +37236,7 @@
       <c r="H748" s="69"/>
       <c r="I748" s="72"/>
       <c r="J748" s="69"/>
-      <c r="K748" s="151"/>
+      <c r="K748" s="150"/>
       <c r="L748" s="75"/>
       <c r="M748" s="69"/>
       <c r="N748" s="89"/>
@@ -37262,7 +37252,7 @@
       <c r="H749" s="69"/>
       <c r="I749" s="72"/>
       <c r="J749" s="69"/>
-      <c r="K749" s="151"/>
+      <c r="K749" s="150"/>
       <c r="L749" s="75"/>
       <c r="M749" s="69"/>
       <c r="N749" s="89"/>
@@ -37278,7 +37268,7 @@
       <c r="H750" s="69"/>
       <c r="I750" s="72"/>
       <c r="J750" s="69"/>
-      <c r="K750" s="151"/>
+      <c r="K750" s="150"/>
       <c r="L750" s="75"/>
       <c r="M750" s="69"/>
       <c r="N750" s="89"/>
@@ -37294,7 +37284,7 @@
       <c r="H751" s="69"/>
       <c r="I751" s="72"/>
       <c r="J751" s="69"/>
-      <c r="K751" s="151"/>
+      <c r="K751" s="150"/>
       <c r="L751" s="75"/>
       <c r="M751" s="69"/>
       <c r="N751" s="89"/>
@@ -37310,7 +37300,7 @@
       <c r="H752" s="69"/>
       <c r="I752" s="72"/>
       <c r="J752" s="69"/>
-      <c r="K752" s="151"/>
+      <c r="K752" s="150"/>
       <c r="L752" s="75"/>
       <c r="M752" s="69"/>
       <c r="N752" s="89"/>
@@ -37326,7 +37316,7 @@
       <c r="H753" s="69"/>
       <c r="I753" s="72"/>
       <c r="J753" s="69"/>
-      <c r="K753" s="151"/>
+      <c r="K753" s="150"/>
       <c r="L753" s="75"/>
       <c r="M753" s="69"/>
       <c r="N753" s="89"/>
@@ -37342,7 +37332,7 @@
       <c r="H754" s="69"/>
       <c r="I754" s="72"/>
       <c r="J754" s="69"/>
-      <c r="K754" s="151"/>
+      <c r="K754" s="150"/>
       <c r="L754" s="75"/>
       <c r="M754" s="69"/>
       <c r="N754" s="89"/>
@@ -37358,7 +37348,7 @@
       <c r="H755" s="69"/>
       <c r="I755" s="72"/>
       <c r="J755" s="69"/>
-      <c r="K755" s="151"/>
+      <c r="K755" s="150"/>
       <c r="L755" s="75"/>
       <c r="M755" s="69"/>
       <c r="N755" s="89"/>
@@ -37374,7 +37364,7 @@
       <c r="H756" s="69"/>
       <c r="I756" s="72"/>
       <c r="J756" s="69"/>
-      <c r="K756" s="151"/>
+      <c r="K756" s="150"/>
       <c r="L756" s="75"/>
       <c r="M756" s="69"/>
       <c r="N756" s="89"/>
@@ -37390,7 +37380,7 @@
       <c r="H757" s="69"/>
       <c r="I757" s="72"/>
       <c r="J757" s="69"/>
-      <c r="K757" s="151"/>
+      <c r="K757" s="150"/>
       <c r="L757" s="75"/>
       <c r="M757" s="69"/>
       <c r="N757" s="89"/>
@@ -37406,7 +37396,7 @@
       <c r="H758" s="69"/>
       <c r="I758" s="72"/>
       <c r="J758" s="69"/>
-      <c r="K758" s="151"/>
+      <c r="K758" s="150"/>
       <c r="L758" s="75"/>
       <c r="M758" s="69"/>
       <c r="N758" s="89"/>
@@ -37422,7 +37412,7 @@
       <c r="H759" s="69"/>
       <c r="I759" s="72"/>
       <c r="J759" s="69"/>
-      <c r="K759" s="151"/>
+      <c r="K759" s="150"/>
       <c r="L759" s="75"/>
       <c r="M759" s="69"/>
       <c r="N759" s="89"/>
@@ -37438,7 +37428,7 @@
       <c r="H760" s="69"/>
       <c r="I760" s="72"/>
       <c r="J760" s="69"/>
-      <c r="K760" s="151"/>
+      <c r="K760" s="150"/>
       <c r="L760" s="75"/>
       <c r="M760" s="69"/>
       <c r="N760" s="89"/>
@@ -37454,7 +37444,7 @@
       <c r="H761" s="69"/>
       <c r="I761" s="72"/>
       <c r="J761" s="69"/>
-      <c r="K761" s="151"/>
+      <c r="K761" s="150"/>
       <c r="L761" s="75"/>
       <c r="M761" s="69"/>
       <c r="N761" s="89"/>
@@ -37470,7 +37460,7 @@
       <c r="H762" s="69"/>
       <c r="I762" s="72"/>
       <c r="J762" s="69"/>
-      <c r="K762" s="151"/>
+      <c r="K762" s="150"/>
       <c r="L762" s="75"/>
       <c r="M762" s="69"/>
       <c r="N762" s="89"/>
@@ -37486,7 +37476,7 @@
       <c r="H763" s="69"/>
       <c r="I763" s="72"/>
       <c r="J763" s="69"/>
-      <c r="K763" s="151"/>
+      <c r="K763" s="150"/>
       <c r="L763" s="75"/>
       <c r="M763" s="69"/>
       <c r="N763" s="89"/>
@@ -37502,7 +37492,7 @@
       <c r="H764" s="69"/>
       <c r="I764" s="72"/>
       <c r="J764" s="69"/>
-      <c r="K764" s="151"/>
+      <c r="K764" s="150"/>
       <c r="L764" s="75"/>
       <c r="M764" s="69"/>
       <c r="N764" s="89"/>
@@ -37518,7 +37508,7 @@
       <c r="H765" s="69"/>
       <c r="I765" s="72"/>
       <c r="J765" s="69"/>
-      <c r="K765" s="151"/>
+      <c r="K765" s="150"/>
       <c r="L765" s="75"/>
       <c r="M765" s="69"/>
       <c r="N765" s="89"/>
@@ -37534,7 +37524,7 @@
       <c r="H766" s="69"/>
       <c r="I766" s="72"/>
       <c r="J766" s="69"/>
-      <c r="K766" s="151"/>
+      <c r="K766" s="150"/>
       <c r="L766" s="75"/>
       <c r="M766" s="69"/>
       <c r="N766" s="89"/>
@@ -37550,7 +37540,7 @@
       <c r="H767" s="69"/>
       <c r="I767" s="72"/>
       <c r="J767" s="69"/>
-      <c r="K767" s="151"/>
+      <c r="K767" s="150"/>
       <c r="L767" s="75"/>
       <c r="M767" s="69"/>
       <c r="N767" s="89"/>
@@ -37566,7 +37556,7 @@
       <c r="H768" s="69"/>
       <c r="I768" s="72"/>
       <c r="J768" s="69"/>
-      <c r="K768" s="151"/>
+      <c r="K768" s="150"/>
       <c r="L768" s="75"/>
       <c r="M768" s="69"/>
       <c r="N768" s="89"/>
@@ -37582,7 +37572,7 @@
       <c r="H769" s="69"/>
       <c r="I769" s="72"/>
       <c r="J769" s="69"/>
-      <c r="K769" s="151"/>
+      <c r="K769" s="150"/>
       <c r="L769" s="75"/>
       <c r="M769" s="69"/>
       <c r="N769" s="89"/>
@@ -37598,7 +37588,7 @@
       <c r="H770" s="69"/>
       <c r="I770" s="72"/>
       <c r="J770" s="69"/>
-      <c r="K770" s="151"/>
+      <c r="K770" s="150"/>
       <c r="L770" s="75"/>
       <c r="M770" s="69"/>
       <c r="N770" s="89"/>
@@ -37614,7 +37604,7 @@
       <c r="H771" s="69"/>
       <c r="I771" s="72"/>
       <c r="J771" s="69"/>
-      <c r="K771" s="151"/>
+      <c r="K771" s="150"/>
       <c r="L771" s="75"/>
       <c r="M771" s="69"/>
       <c r="N771" s="89"/>
@@ -37630,7 +37620,7 @@
       <c r="H772" s="69"/>
       <c r="I772" s="72"/>
       <c r="J772" s="69"/>
-      <c r="K772" s="151"/>
+      <c r="K772" s="150"/>
       <c r="L772" s="75"/>
       <c r="M772" s="69"/>
       <c r="N772" s="89"/>
@@ -37646,7 +37636,7 @@
       <c r="H773" s="69"/>
       <c r="I773" s="72"/>
       <c r="J773" s="69"/>
-      <c r="K773" s="151"/>
+      <c r="K773" s="150"/>
       <c r="L773" s="75"/>
       <c r="M773" s="69"/>
       <c r="N773" s="89"/>
@@ -37662,7 +37652,7 @@
       <c r="H774" s="69"/>
       <c r="I774" s="72"/>
       <c r="J774" s="69"/>
-      <c r="K774" s="151"/>
+      <c r="K774" s="150"/>
       <c r="L774" s="75"/>
       <c r="M774" s="69"/>
       <c r="N774" s="89"/>
@@ -37678,7 +37668,7 @@
       <c r="H775" s="69"/>
       <c r="I775" s="72"/>
       <c r="J775" s="69"/>
-      <c r="K775" s="151"/>
+      <c r="K775" s="150"/>
       <c r="L775" s="75"/>
       <c r="M775" s="69"/>
       <c r="N775" s="89"/>
@@ -37694,7 +37684,7 @@
       <c r="H776" s="69"/>
       <c r="I776" s="72"/>
       <c r="J776" s="69"/>
-      <c r="K776" s="151"/>
+      <c r="K776" s="150"/>
       <c r="L776" s="75"/>
       <c r="M776" s="69"/>
       <c r="N776" s="89"/>
@@ -37710,7 +37700,7 @@
       <c r="H777" s="69"/>
       <c r="I777" s="72"/>
       <c r="J777" s="69"/>
-      <c r="K777" s="151"/>
+      <c r="K777" s="150"/>
       <c r="L777" s="75"/>
       <c r="M777" s="69"/>
       <c r="N777" s="89"/>
@@ -37726,7 +37716,7 @@
       <c r="H778" s="69"/>
       <c r="I778" s="72"/>
       <c r="J778" s="69"/>
-      <c r="K778" s="151"/>
+      <c r="K778" s="150"/>
       <c r="L778" s="75"/>
       <c r="M778" s="69"/>
       <c r="N778" s="89"/>
@@ -37742,7 +37732,7 @@
       <c r="H779" s="69"/>
       <c r="I779" s="72"/>
       <c r="J779" s="69"/>
-      <c r="K779" s="151"/>
+      <c r="K779" s="150"/>
       <c r="L779" s="75"/>
       <c r="M779" s="69"/>
       <c r="N779" s="89"/>
@@ -37758,7 +37748,7 @@
       <c r="H780" s="69"/>
       <c r="I780" s="72"/>
       <c r="J780" s="69"/>
-      <c r="K780" s="151"/>
+      <c r="K780" s="150"/>
       <c r="L780" s="75"/>
       <c r="M780" s="69"/>
       <c r="N780" s="89"/>
@@ -37774,7 +37764,7 @@
       <c r="H781" s="69"/>
       <c r="I781" s="72"/>
       <c r="J781" s="69"/>
-      <c r="K781" s="151"/>
+      <c r="K781" s="150"/>
       <c r="L781" s="75"/>
       <c r="M781" s="69"/>
       <c r="N781" s="89"/>
@@ -37790,7 +37780,7 @@
       <c r="H782" s="69"/>
       <c r="I782" s="72"/>
       <c r="J782" s="69"/>
-      <c r="K782" s="151"/>
+      <c r="K782" s="150"/>
       <c r="L782" s="75"/>
       <c r="M782" s="69"/>
       <c r="N782" s="89"/>
@@ -37806,7 +37796,7 @@
       <c r="H783" s="69"/>
       <c r="I783" s="72"/>
       <c r="J783" s="69"/>
-      <c r="K783" s="151"/>
+      <c r="K783" s="150"/>
       <c r="L783" s="75"/>
       <c r="M783" s="69"/>
       <c r="N783" s="89"/>
@@ -37822,7 +37812,7 @@
       <c r="H784" s="69"/>
       <c r="I784" s="72"/>
       <c r="J784" s="69"/>
-      <c r="K784" s="151"/>
+      <c r="K784" s="150"/>
       <c r="L784" s="75"/>
       <c r="M784" s="69"/>
       <c r="N784" s="89"/>
@@ -37838,7 +37828,7 @@
       <c r="H785" s="69"/>
       <c r="I785" s="72"/>
       <c r="J785" s="69"/>
-      <c r="K785" s="151"/>
+      <c r="K785" s="150"/>
       <c r="L785" s="75"/>
       <c r="M785" s="69"/>
       <c r="N785" s="89"/>
@@ -37854,7 +37844,7 @@
       <c r="H786" s="69"/>
       <c r="I786" s="72"/>
       <c r="J786" s="69"/>
-      <c r="K786" s="151"/>
+      <c r="K786" s="150"/>
       <c r="L786" s="75"/>
       <c r="M786" s="69"/>
       <c r="N786" s="89"/>
@@ -37870,7 +37860,7 @@
       <c r="H787" s="69"/>
       <c r="I787" s="72"/>
       <c r="J787" s="69"/>
-      <c r="K787" s="151"/>
+      <c r="K787" s="150"/>
       <c r="L787" s="75"/>
       <c r="M787" s="69"/>
       <c r="N787" s="89"/>
@@ -37886,7 +37876,7 @@
       <c r="H788" s="69"/>
       <c r="I788" s="72"/>
       <c r="J788" s="69"/>
-      <c r="K788" s="151"/>
+      <c r="K788" s="150"/>
       <c r="L788" s="75"/>
       <c r="M788" s="69"/>
       <c r="N788" s="89"/>
@@ -37902,7 +37892,7 @@
       <c r="H789" s="69"/>
       <c r="I789" s="72"/>
       <c r="J789" s="69"/>
-      <c r="K789" s="151"/>
+      <c r="K789" s="150"/>
       <c r="L789" s="75"/>
       <c r="M789" s="69"/>
       <c r="N789" s="89"/>
@@ -37918,7 +37908,7 @@
       <c r="H790" s="69"/>
       <c r="I790" s="72"/>
       <c r="J790" s="69"/>
-      <c r="K790" s="151"/>
+      <c r="K790" s="150"/>
       <c r="L790" s="75"/>
       <c r="M790" s="69"/>
       <c r="N790" s="89"/>
@@ -37934,7 +37924,7 @@
       <c r="H791" s="69"/>
       <c r="I791" s="72"/>
       <c r="J791" s="69"/>
-      <c r="K791" s="151"/>
+      <c r="K791" s="150"/>
       <c r="L791" s="75"/>
       <c r="M791" s="69"/>
       <c r="N791" s="89"/>
@@ -37950,7 +37940,7 @@
       <c r="H792" s="69"/>
       <c r="I792" s="72"/>
       <c r="J792" s="69"/>
-      <c r="K792" s="151"/>
+      <c r="K792" s="150"/>
       <c r="L792" s="75"/>
       <c r="M792" s="69"/>
       <c r="N792" s="89"/>
@@ -37966,7 +37956,7 @@
       <c r="H793" s="69"/>
       <c r="I793" s="72"/>
       <c r="J793" s="69"/>
-      <c r="K793" s="151"/>
+      <c r="K793" s="150"/>
       <c r="L793" s="75"/>
       <c r="M793" s="69"/>
       <c r="N793" s="89"/>
@@ -37982,7 +37972,7 @@
       <c r="H794" s="69"/>
       <c r="I794" s="72"/>
       <c r="J794" s="69"/>
-      <c r="K794" s="151"/>
+      <c r="K794" s="150"/>
       <c r="L794" s="75"/>
       <c r="M794" s="69"/>
       <c r="N794" s="89"/>
@@ -37998,7 +37988,7 @@
       <c r="H795" s="69"/>
       <c r="I795" s="72"/>
       <c r="J795" s="69"/>
-      <c r="K795" s="151"/>
+      <c r="K795" s="150"/>
       <c r="L795" s="75"/>
       <c r="M795" s="69"/>
       <c r="N795" s="89"/>
@@ -38014,7 +38004,7 @@
       <c r="H796" s="69"/>
       <c r="I796" s="72"/>
       <c r="J796" s="69"/>
-      <c r="K796" s="151"/>
+      <c r="K796" s="150"/>
       <c r="L796" s="75"/>
       <c r="M796" s="69"/>
       <c r="N796" s="89"/>
@@ -38030,7 +38020,7 @@
       <c r="H797" s="69"/>
       <c r="I797" s="72"/>
       <c r="J797" s="69"/>
-      <c r="K797" s="151"/>
+      <c r="K797" s="150"/>
       <c r="L797" s="75"/>
       <c r="M797" s="69"/>
       <c r="N797" s="89"/>
@@ -38046,7 +38036,7 @@
       <c r="H798" s="69"/>
       <c r="I798" s="72"/>
       <c r="J798" s="69"/>
-      <c r="K798" s="151"/>
+      <c r="K798" s="150"/>
       <c r="L798" s="75"/>
       <c r="M798" s="69"/>
       <c r="N798" s="89"/>
@@ -38062,7 +38052,7 @@
       <c r="H799" s="69"/>
       <c r="I799" s="72"/>
       <c r="J799" s="69"/>
-      <c r="K799" s="151"/>
+      <c r="K799" s="150"/>
       <c r="L799" s="75"/>
       <c r="M799" s="69"/>
       <c r="N799" s="89"/>
@@ -38078,7 +38068,7 @@
       <c r="H800" s="69"/>
       <c r="I800" s="72"/>
       <c r="J800" s="69"/>
-      <c r="K800" s="151"/>
+      <c r="K800" s="150"/>
       <c r="L800" s="75"/>
       <c r="M800" s="69"/>
       <c r="N800" s="89"/>
@@ -38094,7 +38084,7 @@
       <c r="H801" s="69"/>
       <c r="I801" s="72"/>
       <c r="J801" s="69"/>
-      <c r="K801" s="151"/>
+      <c r="K801" s="150"/>
       <c r="L801" s="75"/>
       <c r="M801" s="69"/>
       <c r="N801" s="89"/>
@@ -38110,7 +38100,7 @@
       <c r="H802" s="69"/>
       <c r="I802" s="72"/>
       <c r="J802" s="69"/>
-      <c r="K802" s="151"/>
+      <c r="K802" s="150"/>
       <c r="L802" s="75"/>
       <c r="M802" s="69"/>
       <c r="N802" s="89"/>
@@ -38126,7 +38116,7 @@
       <c r="H803" s="69"/>
       <c r="I803" s="72"/>
       <c r="J803" s="69"/>
-      <c r="K803" s="151"/>
+      <c r="K803" s="150"/>
       <c r="L803" s="75"/>
       <c r="M803" s="69"/>
       <c r="N803" s="89"/>
@@ -38142,7 +38132,7 @@
       <c r="H804" s="69"/>
       <c r="I804" s="72"/>
       <c r="J804" s="69"/>
-      <c r="K804" s="151"/>
+      <c r="K804" s="150"/>
       <c r="L804" s="75"/>
       <c r="M804" s="69"/>
       <c r="N804" s="89"/>
@@ -38158,7 +38148,7 @@
       <c r="H805" s="69"/>
       <c r="I805" s="72"/>
       <c r="J805" s="69"/>
-      <c r="K805" s="151"/>
+      <c r="K805" s="150"/>
       <c r="L805" s="75"/>
       <c r="M805" s="69"/>
       <c r="N805" s="89"/>
@@ -38174,7 +38164,7 @@
       <c r="H806" s="69"/>
       <c r="I806" s="72"/>
       <c r="J806" s="69"/>
-      <c r="K806" s="151"/>
+      <c r="K806" s="150"/>
       <c r="L806" s="75"/>
       <c r="M806" s="69"/>
       <c r="N806" s="89"/>
@@ -38190,7 +38180,7 @@
       <c r="H807" s="69"/>
       <c r="I807" s="72"/>
       <c r="J807" s="69"/>
-      <c r="K807" s="151"/>
+      <c r="K807" s="150"/>
       <c r="L807" s="75"/>
       <c r="M807" s="69"/>
       <c r="N807" s="89"/>
@@ -38206,7 +38196,7 @@
       <c r="H808" s="69"/>
       <c r="I808" s="72"/>
       <c r="J808" s="69"/>
-      <c r="K808" s="151"/>
+      <c r="K808" s="150"/>
       <c r="L808" s="75"/>
       <c r="M808" s="69"/>
       <c r="N808" s="89"/>
@@ -38222,7 +38212,7 @@
       <c r="H809" s="69"/>
       <c r="I809" s="72"/>
       <c r="J809" s="69"/>
-      <c r="K809" s="151"/>
+      <c r="K809" s="150"/>
       <c r="L809" s="75"/>
       <c r="M809" s="69"/>
       <c r="N809" s="89"/>
@@ -38238,7 +38228,7 @@
       <c r="H810" s="69"/>
       <c r="I810" s="72"/>
       <c r="J810" s="69"/>
-      <c r="K810" s="151"/>
+      <c r="K810" s="150"/>
       <c r="L810" s="75"/>
       <c r="M810" s="69"/>
       <c r="N810" s="89"/>
@@ -38254,7 +38244,7 @@
       <c r="H811" s="69"/>
       <c r="I811" s="72"/>
       <c r="J811" s="69"/>
-      <c r="K811" s="151"/>
+      <c r="K811" s="150"/>
       <c r="L811" s="75"/>
       <c r="M811" s="69"/>
       <c r="N811" s="89"/>
@@ -38270,7 +38260,7 @@
       <c r="H812" s="69"/>
       <c r="I812" s="72"/>
       <c r="J812" s="69"/>
-      <c r="K812" s="151"/>
+      <c r="K812" s="150"/>
       <c r="L812" s="75"/>
       <c r="M812" s="69"/>
       <c r="N812" s="89"/>
@@ -38286,7 +38276,7 @@
       <c r="H813" s="69"/>
       <c r="I813" s="72"/>
       <c r="J813" s="69"/>
-      <c r="K813" s="151"/>
+      <c r="K813" s="150"/>
       <c r="L813" s="75"/>
       <c r="M813" s="69"/>
       <c r="N813" s="89"/>
@@ -38302,7 +38292,7 @@
       <c r="H814" s="69"/>
       <c r="I814" s="72"/>
       <c r="J814" s="69"/>
-      <c r="K814" s="151"/>
+      <c r="K814" s="150"/>
       <c r="L814" s="75"/>
       <c r="M814" s="69"/>
       <c r="N814" s="89"/>
@@ -38318,7 +38308,7 @@
       <c r="H815" s="69"/>
       <c r="I815" s="72"/>
       <c r="J815" s="69"/>
-      <c r="K815" s="151"/>
+      <c r="K815" s="150"/>
       <c r="L815" s="75"/>
       <c r="M815" s="69"/>
       <c r="N815" s="89"/>
@@ -38334,7 +38324,7 @@
       <c r="H816" s="69"/>
       <c r="I816" s="72"/>
       <c r="J816" s="69"/>
-      <c r="K816" s="151"/>
+      <c r="K816" s="150"/>
       <c r="L816" s="75"/>
       <c r="M816" s="69"/>
       <c r="N816" s="89"/>
@@ -38350,7 +38340,7 @@
       <c r="H817" s="69"/>
       <c r="I817" s="72"/>
       <c r="J817" s="69"/>
-      <c r="K817" s="151"/>
+      <c r="K817" s="150"/>
       <c r="L817" s="75"/>
       <c r="M817" s="69"/>
       <c r="N817" s="89"/>
@@ -38366,7 +38356,7 @@
       <c r="H818" s="69"/>
       <c r="I818" s="72"/>
       <c r="J818" s="69"/>
-      <c r="K818" s="151"/>
+      <c r="K818" s="150"/>
       <c r="L818" s="75"/>
       <c r="M818" s="69"/>
       <c r="N818" s="89"/>
@@ -38382,7 +38372,7 @@
       <c r="H819" s="69"/>
       <c r="I819" s="72"/>
       <c r="J819" s="69"/>
-      <c r="K819" s="151"/>
+      <c r="K819" s="150"/>
       <c r="L819" s="75"/>
       <c r="M819" s="69"/>
       <c r="N819" s="89"/>
@@ -38398,7 +38388,7 @@
       <c r="H820" s="69"/>
       <c r="I820" s="72"/>
       <c r="J820" s="69"/>
-      <c r="K820" s="151"/>
+      <c r="K820" s="150"/>
       <c r="L820" s="75"/>
       <c r="M820" s="69"/>
       <c r="N820" s="89"/>
@@ -38414,7 +38404,7 @@
       <c r="H821" s="69"/>
       <c r="I821" s="72"/>
       <c r="J821" s="69"/>
-      <c r="K821" s="151"/>
+      <c r="K821" s="150"/>
       <c r="L821" s="75"/>
       <c r="M821" s="69"/>
       <c r="N821" s="89"/>
@@ -38430,7 +38420,7 @@
       <c r="H822" s="69"/>
       <c r="I822" s="72"/>
       <c r="J822" s="69"/>
-      <c r="K822" s="151"/>
+      <c r="K822" s="150"/>
       <c r="L822" s="75"/>
       <c r="M822" s="69"/>
       <c r="N822" s="89"/>
@@ -38446,7 +38436,7 @@
       <c r="H823" s="69"/>
       <c r="I823" s="72"/>
       <c r="J823" s="69"/>
-      <c r="K823" s="151"/>
+      <c r="K823" s="150"/>
       <c r="L823" s="75"/>
       <c r="M823" s="69"/>
       <c r="N823" s="89"/>
@@ -38462,7 +38452,7 @@
       <c r="H824" s="69"/>
       <c r="I824" s="72"/>
       <c r="J824" s="69"/>
-      <c r="K824" s="151"/>
+      <c r="K824" s="150"/>
       <c r="L824" s="75"/>
       <c r="M824" s="69"/>
       <c r="N824" s="89"/>
@@ -38478,7 +38468,7 @@
       <c r="H825" s="69"/>
       <c r="I825" s="72"/>
       <c r="J825" s="69"/>
-      <c r="K825" s="151"/>
+      <c r="K825" s="150"/>
       <c r="L825" s="75"/>
       <c r="M825" s="69"/>
       <c r="N825" s="89"/>
@@ -38494,7 +38484,7 @@
       <c r="H826" s="69"/>
       <c r="I826" s="72"/>
       <c r="J826" s="69"/>
-      <c r="K826" s="151"/>
+      <c r="K826" s="150"/>
       <c r="L826" s="75"/>
       <c r="M826" s="69"/>
       <c r="N826" s="89"/>
@@ -38510,7 +38500,7 @@
       <c r="H827" s="69"/>
       <c r="I827" s="72"/>
       <c r="J827" s="69"/>
-      <c r="K827" s="151"/>
+      <c r="K827" s="150"/>
       <c r="L827" s="75"/>
       <c r="M827" s="69"/>
       <c r="N827" s="89"/>
@@ -38526,7 +38516,7 @@
       <c r="H828" s="69"/>
       <c r="I828" s="72"/>
       <c r="J828" s="69"/>
-      <c r="K828" s="151"/>
+      <c r="K828" s="150"/>
       <c r="L828" s="75"/>
       <c r="M828" s="69"/>
       <c r="N828" s="89"/>
@@ -38542,7 +38532,7 @@
       <c r="H829" s="69"/>
       <c r="I829" s="72"/>
       <c r="J829" s="69"/>
-      <c r="K829" s="151"/>
+      <c r="K829" s="150"/>
       <c r="L829" s="75"/>
       <c r="M829" s="69"/>
       <c r="N829" s="89"/>
@@ -38558,7 +38548,7 @@
       <c r="H830" s="69"/>
       <c r="I830" s="72"/>
       <c r="J830" s="69"/>
-      <c r="K830" s="151"/>
+      <c r="K830" s="150"/>
       <c r="L830" s="75"/>
       <c r="M830" s="69"/>
       <c r="N830" s="89"/>
@@ -38574,7 +38564,7 @@
       <c r="H831" s="69"/>
       <c r="I831" s="72"/>
       <c r="J831" s="69"/>
-      <c r="K831" s="151"/>
+      <c r="K831" s="150"/>
       <c r="L831" s="75"/>
       <c r="M831" s="69"/>
       <c r="N831" s="89"/>
@@ -38590,7 +38580,7 @@
       <c r="H832" s="69"/>
       <c r="I832" s="72"/>
       <c r="J832" s="69"/>
-      <c r="K832" s="151"/>
+      <c r="K832" s="150"/>
       <c r="L832" s="75"/>
       <c r="M832" s="69"/>
       <c r="N832" s="89"/>
@@ -38606,7 +38596,7 @@
       <c r="H833" s="69"/>
       <c r="I833" s="72"/>
       <c r="J833" s="69"/>
-      <c r="K833" s="151"/>
+      <c r="K833" s="150"/>
       <c r="L833" s="75"/>
       <c r="M833" s="69"/>
       <c r="N833" s="89"/>
@@ -38622,7 +38612,7 @@
       <c r="H834" s="69"/>
       <c r="I834" s="72"/>
       <c r="J834" s="69"/>
-      <c r="K834" s="151"/>
+      <c r="K834" s="150"/>
       <c r="L834" s="75"/>
       <c r="M834" s="69"/>
       <c r="N834" s="89"/>
@@ -38638,7 +38628,7 @@
       <c r="H835" s="69"/>
       <c r="I835" s="72"/>
       <c r="J835" s="69"/>
-      <c r="K835" s="151"/>
+      <c r="K835" s="150"/>
       <c r="L835" s="75"/>
       <c r="M835" s="69"/>
       <c r="N835" s="89"/>
@@ -38654,7 +38644,7 @@
       <c r="H836" s="69"/>
       <c r="I836" s="72"/>
       <c r="J836" s="69"/>
-      <c r="K836" s="151"/>
+      <c r="K836" s="150"/>
       <c r="L836" s="75"/>
       <c r="M836" s="69"/>
       <c r="N836" s="89"/>
@@ -38670,7 +38660,7 @@
       <c r="H837" s="69"/>
       <c r="I837" s="72"/>
       <c r="J837" s="69"/>
-      <c r="K837" s="151"/>
+      <c r="K837" s="150"/>
       <c r="L837" s="75"/>
       <c r="M837" s="69"/>
       <c r="N837" s="89"/>
@@ -38686,7 +38676,7 @@
       <c r="H838" s="69"/>
       <c r="I838" s="72"/>
       <c r="J838" s="69"/>
-      <c r="K838" s="151"/>
+      <c r="K838" s="150"/>
       <c r="L838" s="75"/>
       <c r="M838" s="69"/>
       <c r="N838" s="89"/>
@@ -38702,7 +38692,7 @@
       <c r="H839" s="69"/>
       <c r="I839" s="72"/>
       <c r="J839" s="69"/>
-      <c r="K839" s="151"/>
+      <c r="K839" s="150"/>
       <c r="L839" s="75"/>
       <c r="M839" s="69"/>
       <c r="N839" s="89"/>
@@ -38718,7 +38708,7 @@
       <c r="H840" s="69"/>
       <c r="I840" s="72"/>
       <c r="J840" s="69"/>
-      <c r="K840" s="151"/>
+      <c r="K840" s="150"/>
       <c r="L840" s="75"/>
       <c r="M840" s="69"/>
       <c r="N840" s="89"/>
@@ -38734,7 +38724,7 @@
       <c r="H841" s="69"/>
       <c r="I841" s="72"/>
       <c r="J841" s="69"/>
-      <c r="K841" s="151"/>
+      <c r="K841" s="150"/>
       <c r="L841" s="75"/>
       <c r="M841" s="69"/>
       <c r="N841" s="89"/>
@@ -38750,7 +38740,7 @@
       <c r="H842" s="69"/>
       <c r="I842" s="72"/>
       <c r="J842" s="69"/>
-      <c r="K842" s="151"/>
+      <c r="K842" s="150"/>
       <c r="L842" s="75"/>
       <c r="M842" s="69"/>
       <c r="N842" s="89"/>
@@ -38766,7 +38756,7 @@
       <c r="H843" s="69"/>
       <c r="I843" s="72"/>
       <c r="J843" s="69"/>
-      <c r="K843" s="151"/>
+      <c r="K843" s="150"/>
       <c r="L843" s="75"/>
       <c r="M843" s="69"/>
       <c r="N843" s="89"/>
@@ -38782,7 +38772,7 @@
       <c r="H844" s="69"/>
       <c r="I844" s="72"/>
       <c r="J844" s="69"/>
-      <c r="K844" s="151"/>
+      <c r="K844" s="150"/>
       <c r="L844" s="75"/>
       <c r="M844" s="69"/>
       <c r="N844" s="89"/>
@@ -38798,7 +38788,7 @@
       <c r="H845" s="69"/>
       <c r="I845" s="72"/>
       <c r="J845" s="69"/>
-      <c r="K845" s="151"/>
+      <c r="K845" s="150"/>
       <c r="L845" s="75"/>
       <c r="M845" s="69"/>
       <c r="N845" s="89"/>
@@ -38814,7 +38804,7 @@
       <c r="H846" s="69"/>
       <c r="I846" s="72"/>
       <c r="J846" s="69"/>
-      <c r="K846" s="151"/>
+      <c r="K846" s="150"/>
       <c r="L846" s="75"/>
       <c r="M846" s="69"/>
       <c r="N846" s="89"/>
@@ -38830,7 +38820,7 @@
       <c r="H847" s="69"/>
       <c r="I847" s="72"/>
       <c r="J847" s="69"/>
-      <c r="K847" s="151"/>
+      <c r="K847" s="150"/>
       <c r="L847" s="75"/>
       <c r="M847" s="69"/>
       <c r="N847" s="89"/>
@@ -38846,7 +38836,7 @@
       <c r="H848" s="69"/>
       <c r="I848" s="72"/>
       <c r="J848" s="69"/>
-      <c r="K848" s="151"/>
+      <c r="K848" s="150"/>
       <c r="L848" s="75"/>
       <c r="M848" s="69"/>
       <c r="N848" s="89"/>
@@ -38862,7 +38852,7 @@
       <c r="H849" s="69"/>
       <c r="I849" s="72"/>
       <c r="J849" s="69"/>
-      <c r="K849" s="151"/>
+      <c r="K849" s="150"/>
       <c r="L849" s="75"/>
       <c r="M849" s="69"/>
       <c r="N849" s="89"/>
@@ -38878,7 +38868,7 @@
       <c r="H850" s="69"/>
       <c r="I850" s="72"/>
       <c r="J850" s="69"/>
-      <c r="K850" s="151"/>
+      <c r="K850" s="150"/>
       <c r="L850" s="75"/>
       <c r="M850" s="69"/>
       <c r="N850" s="89"/>
@@ -38894,7 +38884,7 @@
       <c r="H851" s="69"/>
       <c r="I851" s="72"/>
       <c r="J851" s="69"/>
-      <c r="K851" s="151"/>
+      <c r="K851" s="150"/>
       <c r="L851" s="75"/>
       <c r="M851" s="69"/>
       <c r="N851" s="89"/>
@@ -38910,7 +38900,7 @@
       <c r="H852" s="69"/>
       <c r="I852" s="72"/>
       <c r="J852" s="69"/>
-      <c r="K852" s="151"/>
+      <c r="K852" s="150"/>
       <c r="L852" s="75"/>
       <c r="M852" s="69"/>
       <c r="N852" s="89"/>
@@ -38926,7 +38916,7 @@
       <c r="H853" s="69"/>
       <c r="I853" s="72"/>
       <c r="J853" s="69"/>
-      <c r="K853" s="151"/>
+      <c r="K853" s="150"/>
       <c r="L853" s="75"/>
       <c r="M853" s="69"/>
       <c r="N853" s="89"/>
@@ -38942,7 +38932,7 @@
       <c r="H854" s="69"/>
       <c r="I854" s="72"/>
       <c r="J854" s="69"/>
-      <c r="K854" s="151"/>
+      <c r="K854" s="150"/>
       <c r="L854" s="75"/>
       <c r="M854" s="69"/>
       <c r="N854" s="89"/>
@@ -38958,7 +38948,7 @@
       <c r="H855" s="69"/>
       <c r="I855" s="72"/>
       <c r="J855" s="69"/>
-      <c r="K855" s="151"/>
+      <c r="K855" s="150"/>
       <c r="L855" s="75"/>
       <c r="M855" s="69"/>
       <c r="N855" s="89"/>
@@ -38974,7 +38964,7 @@
       <c r="H856" s="69"/>
       <c r="I856" s="72"/>
       <c r="J856" s="69"/>
-      <c r="K856" s="151"/>
+      <c r="K856" s="150"/>
       <c r="L856" s="75"/>
       <c r="M856" s="69"/>
       <c r="N856" s="89"/>
@@ -38990,7 +38980,7 @@
       <c r="H857" s="69"/>
       <c r="I857" s="72"/>
       <c r="J857" s="69"/>
-      <c r="K857" s="151"/>
+      <c r="K857" s="150"/>
       <c r="L857" s="75"/>
       <c r="M857" s="69"/>
       <c r="N857" s="89"/>
@@ -39006,7 +38996,7 @@
       <c r="H858" s="69"/>
       <c r="I858" s="72"/>
       <c r="J858" s="69"/>
-      <c r="K858" s="151"/>
+      <c r="K858" s="150"/>
       <c r="L858" s="75"/>
       <c r="M858" s="69"/>
       <c r="N858" s="89"/>
@@ -39022,7 +39012,7 @@
       <c r="H859" s="69"/>
       <c r="I859" s="72"/>
       <c r="J859" s="69"/>
-      <c r="K859" s="151"/>
+      <c r="K859" s="150"/>
       <c r="L859" s="75"/>
       <c r="M859" s="69"/>
       <c r="N859" s="89"/>
@@ -39038,7 +39028,7 @@
       <c r="H860" s="69"/>
       <c r="I860" s="72"/>
       <c r="J860" s="69"/>
-      <c r="K860" s="151"/>
+      <c r="K860" s="150"/>
       <c r="L860" s="75"/>
       <c r="M860" s="69"/>
       <c r="N860" s="89"/>
@@ -39054,7 +39044,7 @@
       <c r="H861" s="69"/>
       <c r="I861" s="72"/>
       <c r="J861" s="69"/>
-      <c r="K861" s="151"/>
+      <c r="K861" s="150"/>
       <c r="L861" s="75"/>
       <c r="M861" s="69"/>
       <c r="N861" s="89"/>
@@ -39070,7 +39060,7 @@
       <c r="H862" s="69"/>
       <c r="I862" s="72"/>
       <c r="J862" s="69"/>
-      <c r="K862" s="151"/>
+      <c r="K862" s="150"/>
       <c r="L862" s="75"/>
       <c r="M862" s="69"/>
       <c r="N862" s="89"/>
@@ -39086,7 +39076,7 @@
       <c r="H863" s="69"/>
       <c r="I863" s="72"/>
       <c r="J863" s="69"/>
-      <c r="K863" s="151"/>
+      <c r="K863" s="150"/>
       <c r="L863" s="75"/>
       <c r="M863" s="69"/>
       <c r="N863" s="89"/>
@@ -39102,7 +39092,7 @@
       <c r="H864" s="69"/>
       <c r="I864" s="72"/>
       <c r="J864" s="69"/>
-      <c r="K864" s="151"/>
+      <c r="K864" s="150"/>
       <c r="L864" s="75"/>
       <c r="M864" s="69"/>
       <c r="N864" s="89"/>
@@ -39118,7 +39108,7 @@
       <c r="H865" s="69"/>
       <c r="I865" s="72"/>
       <c r="J865" s="69"/>
-      <c r="K865" s="151"/>
+      <c r="K865" s="150"/>
       <c r="L865" s="75"/>
       <c r="M865" s="69"/>
       <c r="N865" s="89"/>
@@ -39134,7 +39124,7 @@
       <c r="H866" s="69"/>
       <c r="I866" s="72"/>
       <c r="J866" s="69"/>
-      <c r="K866" s="151"/>
+      <c r="K866" s="150"/>
       <c r="L866" s="75"/>
       <c r="M866" s="69"/>
       <c r="N866" s="89"/>
@@ -39150,7 +39140,7 @@
       <c r="H867" s="69"/>
       <c r="I867" s="72"/>
       <c r="J867" s="69"/>
-      <c r="K867" s="151"/>
+      <c r="K867" s="150"/>
       <c r="L867" s="75"/>
       <c r="M867" s="69"/>
       <c r="N867" s="89"/>
@@ -39166,7 +39156,7 @@
       <c r="H868" s="69"/>
       <c r="I868" s="72"/>
       <c r="J868" s="69"/>
-      <c r="K868" s="151"/>
+      <c r="K868" s="150"/>
       <c r="L868" s="75"/>
       <c r="M868" s="69"/>
       <c r="N868" s="89"/>
@@ -39182,7 +39172,7 @@
       <c r="H869" s="69"/>
       <c r="I869" s="72"/>
       <c r="J869" s="69"/>
-      <c r="K869" s="151"/>
+      <c r="K869" s="150"/>
       <c r="L869" s="75"/>
       <c r="M869" s="69"/>
       <c r="N869" s="89"/>
@@ -39198,7 +39188,7 @@
       <c r="H870" s="69"/>
       <c r="I870" s="72"/>
       <c r="J870" s="69"/>
-      <c r="K870" s="151"/>
+      <c r="K870" s="150"/>
       <c r="L870" s="75"/>
       <c r="M870" s="69"/>
       <c r="N870" s="89"/>
@@ -39214,7 +39204,7 @@
       <c r="H871" s="69"/>
       <c r="I871" s="72"/>
       <c r="J871" s="69"/>
-      <c r="K871" s="151"/>
+      <c r="K871" s="150"/>
       <c r="L871" s="75"/>
       <c r="M871" s="69"/>
       <c r="N871" s="89"/>
@@ -39230,7 +39220,7 @@
       <c r="H872" s="69"/>
       <c r="I872" s="72"/>
       <c r="J872" s="69"/>
-      <c r="K872" s="151"/>
+      <c r="K872" s="150"/>
       <c r="L872" s="75"/>
       <c r="M872" s="69"/>
       <c r="N872" s="89"/>
@@ -39246,7 +39236,7 @@
       <c r="H873" s="69"/>
       <c r="I873" s="72"/>
       <c r="J873" s="69"/>
-      <c r="K873" s="151"/>
+      <c r="K873" s="150"/>
       <c r="L873" s="75"/>
       <c r="M873" s="69"/>
       <c r="N873" s="89"/>
@@ -39262,7 +39252,7 @@
       <c r="H874" s="69"/>
       <c r="I874" s="72"/>
       <c r="J874" s="69"/>
-      <c r="K874" s="151"/>
+      <c r="K874" s="150"/>
       <c r="L874" s="75"/>
       <c r="M874" s="69"/>
       <c r="N874" s="89"/>
@@ -39278,7 +39268,7 @@
       <c r="H875" s="69"/>
       <c r="I875" s="72"/>
       <c r="J875" s="69"/>
-      <c r="K875" s="151"/>
+      <c r="K875" s="150"/>
       <c r="L875" s="75"/>
       <c r="M875" s="69"/>
       <c r="N875" s="89"/>
@@ -39294,7 +39284,7 @@
       <c r="H876" s="69"/>
       <c r="I876" s="72"/>
       <c r="J876" s="69"/>
-      <c r="K876" s="151"/>
+      <c r="K876" s="150"/>
       <c r="L876" s="75"/>
       <c r="M876" s="69"/>
       <c r="N876" s="89"/>
@@ -39310,7 +39300,7 @@
       <c r="H877" s="69"/>
       <c r="I877" s="72"/>
       <c r="J877" s="69"/>
-      <c r="K877" s="151"/>
+      <c r="K877" s="150"/>
       <c r="L877" s="75"/>
       <c r="M877" s="69"/>
       <c r="N877" s="89"/>
@@ -39326,7 +39316,7 @@
       <c r="H878" s="69"/>
       <c r="I878" s="72"/>
       <c r="J878" s="69"/>
-      <c r="K878" s="151"/>
+      <c r="K878" s="150"/>
       <c r="L878" s="75"/>
       <c r="M878" s="69"/>
       <c r="N878" s="89"/>
@@ -39342,7 +39332,7 @@
       <c r="H879" s="69"/>
       <c r="I879" s="72"/>
       <c r="J879" s="69"/>
-      <c r="K879" s="151"/>
+      <c r="K879" s="150"/>
       <c r="L879" s="75"/>
       <c r="M879" s="69"/>
       <c r="N879" s="89"/>
@@ -39358,7 +39348,7 @@
       <c r="H880" s="69"/>
       <c r="I880" s="72"/>
       <c r="J880" s="69"/>
-      <c r="K880" s="151"/>
+      <c r="K880" s="150"/>
       <c r="L880" s="75"/>
       <c r="M880" s="69"/>
       <c r="N880" s="89"/>
@@ -39374,7 +39364,7 @@
       <c r="H881" s="69"/>
       <c r="I881" s="72"/>
       <c r="J881" s="69"/>
-      <c r="K881" s="151"/>
+      <c r="K881" s="150"/>
       <c r="L881" s="75"/>
       <c r="M881" s="69"/>
       <c r="N881" s="89"/>
@@ -39390,7 +39380,7 @@
       <c r="H882" s="69"/>
       <c r="I882" s="72"/>
       <c r="J882" s="69"/>
-      <c r="K882" s="151"/>
+      <c r="K882" s="150"/>
       <c r="L882" s="75"/>
       <c r="M882" s="69"/>
       <c r="N882" s="89"/>
@@ -39406,7 +39396,7 @@
       <c r="H883" s="69"/>
       <c r="I883" s="72"/>
       <c r="J883" s="69"/>
-      <c r="K883" s="151"/>
+      <c r="K883" s="150"/>
       <c r="L883" s="75"/>
       <c r="M883" s="69"/>
       <c r="N883" s="89"/>
@@ -39422,7 +39412,7 @@
       <c r="H884" s="69"/>
       <c r="I884" s="72"/>
       <c r="J884" s="69"/>
-      <c r="K884" s="151"/>
+      <c r="K884" s="150"/>
       <c r="L884" s="75"/>
       <c r="M884" s="69"/>
       <c r="N884" s="89"/>
@@ -39438,7 +39428,7 @@
       <c r="H885" s="69"/>
       <c r="I885" s="72"/>
       <c r="J885" s="69"/>
-      <c r="K885" s="151"/>
+      <c r="K885" s="150"/>
       <c r="L885" s="75"/>
       <c r="M885" s="69"/>
       <c r="N885" s="89"/>
@@ -39454,7 +39444,7 @@
       <c r="H886" s="69"/>
       <c r="I886" s="72"/>
       <c r="J886" s="69"/>
-      <c r="K886" s="151"/>
+      <c r="K886" s="150"/>
       <c r="L886" s="75"/>
       <c r="M886" s="69"/>
       <c r="N886" s="89"/>
@@ -39470,7 +39460,7 @@
       <c r="H887" s="69"/>
       <c r="I887" s="72"/>
       <c r="J887" s="69"/>
-      <c r="K887" s="151"/>
+      <c r="K887" s="150"/>
       <c r="L887" s="75"/>
       <c r="M887" s="69"/>
       <c r="N887" s="89"/>
@@ -39486,7 +39476,7 @@
       <c r="H888" s="69"/>
       <c r="I888" s="72"/>
       <c r="J888" s="69"/>
-      <c r="K888" s="151"/>
+      <c r="K888" s="150"/>
       <c r="L888" s="75"/>
       <c r="M888" s="69"/>
       <c r="N888" s="89"/>
@@ -39502,7 +39492,7 @@
       <c r="H889" s="69"/>
       <c r="I889" s="72"/>
       <c r="J889" s="69"/>
-      <c r="K889" s="151"/>
+      <c r="K889" s="150"/>
       <c r="L889" s="75"/>
       <c r="M889" s="69"/>
       <c r="N889" s="89"/>
@@ -39518,7 +39508,7 @@
       <c r="H890" s="69"/>
       <c r="I890" s="72"/>
       <c r="J890" s="69"/>
-      <c r="K890" s="151"/>
+      <c r="K890" s="150"/>
       <c r="L890" s="75"/>
       <c r="M890" s="69"/>
       <c r="N890" s="89"/>
@@ -39534,7 +39524,7 @@
       <c r="H891" s="69"/>
       <c r="I891" s="72"/>
       <c r="J891" s="69"/>
-      <c r="K891" s="151"/>
+      <c r="K891" s="150"/>
       <c r="L891" s="75"/>
       <c r="M891" s="69"/>
       <c r="N891" s="89"/>
@@ -39550,7 +39540,7 @@
       <c r="H892" s="69"/>
       <c r="I892" s="72"/>
       <c r="J892" s="69"/>
-      <c r="K892" s="151"/>
+      <c r="K892" s="150"/>
       <c r="L892" s="75"/>
       <c r="M892" s="69"/>
       <c r="N892" s="89"/>
@@ -39566,7 +39556,7 @@
       <c r="H893" s="69"/>
       <c r="I893" s="72"/>
       <c r="J893" s="69"/>
-      <c r="K893" s="151"/>
+      <c r="K893" s="150"/>
       <c r="L893" s="75"/>
       <c r="M893" s="69"/>
       <c r="N893" s="89"/>
@@ -39582,7 +39572,7 @@
       <c r="H894" s="69"/>
       <c r="I894" s="72"/>
       <c r="J894" s="69"/>
-      <c r="K894" s="151"/>
+      <c r="K894" s="150"/>
       <c r="L894" s="75"/>
       <c r="M894" s="69"/>
       <c r="N894" s="89"/>
@@ -39598,7 +39588,7 @@
       <c r="H895" s="69"/>
       <c r="I895" s="72"/>
       <c r="J895" s="69"/>
-      <c r="K895" s="151"/>
+      <c r="K895" s="150"/>
       <c r="L895" s="75"/>
       <c r="M895" s="69"/>
       <c r="N895" s="89"/>
@@ -39614,7 +39604,7 @@
       <c r="H896" s="69"/>
       <c r="I896" s="72"/>
       <c r="J896" s="69"/>
-      <c r="K896" s="151"/>
+      <c r="K896" s="150"/>
       <c r="L896" s="75"/>
       <c r="M896" s="69"/>
       <c r="N896" s="89"/>
@@ -39630,7 +39620,7 @@
       <c r="H897" s="69"/>
       <c r="I897" s="72"/>
       <c r="J897" s="69"/>
-      <c r="K897" s="151"/>
+      <c r="K897" s="150"/>
       <c r="L897" s="75"/>
       <c r="M897" s="69"/>
       <c r="N897" s="89"/>
@@ -39646,7 +39636,7 @@
       <c r="H898" s="69"/>
       <c r="I898" s="72"/>
       <c r="J898" s="69"/>
-      <c r="K898" s="151"/>
+      <c r="K898" s="150"/>
       <c r="L898" s="75"/>
       <c r="M898" s="69"/>
       <c r="N898" s="89"/>
@@ -39662,7 +39652,7 @@
       <c r="H899" s="69"/>
       <c r="I899" s="72"/>
       <c r="J899" s="69"/>
-      <c r="K899" s="151"/>
+      <c r="K899" s="150"/>
       <c r="L899" s="75"/>
       <c r="M899" s="69"/>
       <c r="N899" s="89"/>
@@ -39678,7 +39668,7 @@
       <c r="H900" s="69"/>
       <c r="I900" s="72"/>
       <c r="J900" s="69"/>
-      <c r="K900" s="151"/>
+      <c r="K900" s="150"/>
       <c r="L900" s="75"/>
       <c r="M900" s="69"/>
       <c r="N900" s="89"/>
@@ -39694,7 +39684,7 @@
       <c r="H901" s="69"/>
       <c r="I901" s="72"/>
       <c r="J901" s="69"/>
-      <c r="K901" s="151"/>
+      <c r="K901" s="150"/>
       <c r="L901" s="75"/>
       <c r="M901" s="69"/>
       <c r="N901" s="89"/>
@@ -39710,7 +39700,7 @@
       <c r="H902" s="69"/>
       <c r="I902" s="72"/>
       <c r="J902" s="69"/>
-      <c r="K902" s="151"/>
+      <c r="K902" s="150"/>
       <c r="L902" s="75"/>
       <c r="M902" s="69"/>
       <c r="N902" s="89"/>
@@ -39726,7 +39716,7 @@
       <c r="H903" s="69"/>
       <c r="I903" s="72"/>
       <c r="J903" s="69"/>
-      <c r="K903" s="151"/>
+      <c r="K903" s="150"/>
       <c r="L903" s="75"/>
       <c r="M903" s="69"/>
       <c r="N903" s="89"/>
@@ -39800,10 +39790,10 @@
         <v>2473</v>
       </c>
       <c r="N1" s="96" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="84" customHeight="1">
@@ -39842,7 +39832,7 @@
         <v>2037</v>
       </c>
       <c r="N2" s="104" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="O2" s="103"/>
     </row>
@@ -39882,7 +39872,7 @@
         <v>2038</v>
       </c>
       <c r="N3" s="104" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="O3" s="103"/>
     </row>
@@ -39916,7 +39906,7 @@
       <c r="L4" s="108"/>
       <c r="M4" s="10"/>
       <c r="N4" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O4" s="3"/>
     </row>
@@ -39949,7 +39939,7 @@
       <c r="L5" s="110"/>
       <c r="M5" s="10"/>
       <c r="N5" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O5" s="3"/>
     </row>
@@ -39981,7 +39971,7 @@
       <c r="L6" s="108"/>
       <c r="M6" s="10"/>
       <c r="N6" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O6" s="3"/>
     </row>
@@ -40015,7 +40005,7 @@
       <c r="L7" s="108"/>
       <c r="M7" s="10"/>
       <c r="N7" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O7" s="3"/>
     </row>
@@ -40047,7 +40037,7 @@
       <c r="L8" s="57"/>
       <c r="M8" s="10"/>
       <c r="N8" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O8" s="3"/>
     </row>
@@ -40082,14 +40072,14 @@
         <v>232604</v>
       </c>
       <c r="K9" s="99"/>
-      <c r="L9" s="125" t="s">
-        <v>2497</v>
+      <c r="L9" s="124" t="s">
+        <v>2496</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -40125,13 +40115,13 @@
       </c>
       <c r="K10" s="99"/>
       <c r="L10" s="56" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="N10" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -40165,13 +40155,13 @@
       </c>
       <c r="K11" s="99"/>
       <c r="L11" s="111" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="N11" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -40201,11 +40191,11 @@
       <c r="J12" s="21"/>
       <c r="K12" s="98"/>
       <c r="L12" s="118" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -40236,12 +40226,12 @@
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="140" t="s">
-        <v>2516</v>
+      <c r="L13" s="139" t="s">
+        <v>2513</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="109" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="O13" s="3"/>
     </row>
@@ -40275,7 +40265,7 @@
       <c r="L14" s="57"/>
       <c r="M14" s="10"/>
       <c r="N14" s="104" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="O14" s="103"/>
     </row>
@@ -40311,7 +40301,7 @@
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="104" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="O15" s="3"/>
     </row>
@@ -40344,11 +40334,11 @@
       <c r="J16" s="26"/>
       <c r="K16" s="98"/>
       <c r="L16" s="118" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="103" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="1" customFormat="1" ht="17">
@@ -40379,7 +40369,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="98"/>
       <c r="L17" s="108" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="19"/>
@@ -40416,14 +40406,14 @@
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="98"/>
-      <c r="L18" s="140" t="s">
-        <v>2548</v>
+      <c r="L18" s="139" t="s">
+        <v>2545</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>2004</v>
       </c>
-      <c r="N18" s="138" t="s">
-        <v>2549</v>
+      <c r="N18" s="137" t="s">
+        <v>2546</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="1" customFormat="1" ht="17">
@@ -40457,14 +40447,14 @@
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="98"/>
-      <c r="L19" s="140" t="s">
-        <v>2548</v>
+      <c r="L19" s="139" t="s">
+        <v>2545</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="N19" s="138" t="s">
-        <v>2549</v>
+      <c r="N19" s="137" t="s">
+        <v>2546</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="16">
@@ -40491,8 +40481,8 @@
       <c r="K20" s="98"/>
       <c r="L20" s="57"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="145" t="s">
-        <v>2554</v>
+      <c r="N20" s="144" t="s">
+        <v>2551</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -40531,17 +40521,17 @@
       <c r="J21" s="26">
         <v>32846</v>
       </c>
-      <c r="K21" s="168" t="s">
-        <v>2538</v>
-      </c>
-      <c r="L21" s="140" t="s">
-        <v>2539</v>
+      <c r="K21" s="166" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L21" s="139" t="s">
+        <v>2536</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>2037</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="1" customFormat="1" ht="17">
@@ -40576,17 +40566,17 @@
       <c r="J22" s="26">
         <v>32845</v>
       </c>
-      <c r="K22" s="168" t="s">
-        <v>2538</v>
-      </c>
-      <c r="L22" s="140" t="s">
-        <v>2539</v>
+      <c r="K22" s="166" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L22" s="139" t="s">
+        <v>2536</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>2038</v>
       </c>
-      <c r="O22" s="139" t="s">
-        <v>2536</v>
+      <c r="O22" s="138" t="s">
+        <v>2533</v>
       </c>
     </row>
   </sheetData>

--- a/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
+++ b/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/fhir-mCODE-ig/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21583D92-1230-1243-9756-6A97CBA49525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB743F70-A9D8-8E43-BAAC-E15D81D9FE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="500" windowWidth="56400" windowHeight="26080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8877,7 +8877,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M339" sqref="M339"/>
+      <selection pane="bottomLeft" activeCell="G339" sqref="G339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>

--- a/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
+++ b/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/fhir-mCODE-ig/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FC66DF-A096-224B-9CBD-2E11F85D9136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FC1293-F13A-514E-897F-AD3ADA5E9109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="500" windowWidth="56400" windowHeight="26080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6059,9 +6059,6 @@
     <t>Bone structure of acetabulum (body structure)</t>
   </si>
   <si>
-    <t xml:space="preserve"> |Bone marrow structure (body structure)|</t>
-  </si>
-  <si>
     <t>Glnd_Adrenal</t>
   </si>
   <si>
@@ -6071,9 +6068,6 @@
     <t xml:space="preserve">Adrenal glands </t>
   </si>
   <si>
-    <t>Anal canal structure (body structure) |</t>
-  </si>
-  <si>
     <t>Anus part (body structure)</t>
   </si>
   <si>
@@ -6107,9 +6101,6 @@
     <t> Structure of apical axillary lymph node (body structure)</t>
   </si>
   <si>
-    <t>Structure of central axillary lymph node (body structure) |</t>
-  </si>
-  <si>
     <t>Structure of lateral axillary lymph node (body structure)</t>
   </si>
   <si>
@@ -6143,9 +6134,6 @@
     <t>Iliac_LN</t>
   </si>
   <si>
-    <t>Structure of iliac lymph node (body structure) |</t>
-  </si>
-  <si>
     <t>left</t>
   </si>
   <si>
@@ -6164,9 +6152,6 @@
     <t>Structure of external iliac lymph node (body structure)</t>
   </si>
   <si>
-    <t>Structure of internal iliac lymph node (body structure) |</t>
-  </si>
-  <si>
     <t>int_Iliac_LN</t>
   </si>
   <si>
@@ -7349,9 +7334,6 @@
     <t>Structure of inferior hypophyseal artery (body structure)</t>
   </si>
   <si>
-    <t>Structure of superior hypophyseal artery (body structure) |</t>
-  </si>
-  <si>
     <t>Structure of inferior mesenteric artery (body structure)</t>
   </si>
   <si>
@@ -7377,9 +7359,6 @@
   </si>
   <si>
     <t>Inferior surface of vaginal cervix (body structure)</t>
-  </si>
-  <si>
-    <t>438074005 | Vaginal cuff (morphologic abnormality)</t>
   </si>
   <si>
     <t>Structure of odontoid process of axis (body structure)</t>
@@ -7551,9 +7530,6 @@
   </si>
   <si>
     <t>DO NOT INCLUDE  245860003 Urinary conduit site (morphologic abnormality)</t>
-  </si>
-  <si>
-    <t>Entire body as a whole (body structure) |</t>
   </si>
   <si>
     <t>This is not quite correct. The brainstem contains the pons, midbrain, and medulla.  For radiation oncology, typically the target is the brainstem rather than the subunits. We need a brainstem structure name</t>
@@ -7842,6 +7818,30 @@
   </si>
   <si>
     <t>Anterior interventricular branch of LCA (left anterior descending artery)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vaginal cuff (morphologic abnormality)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entire body as a whole (body structure) </t>
+  </si>
+  <si>
+    <t>Structure of superior hypophyseal artery (body structure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bone marrow structure (body structure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anal canal structure (body structure) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure of central axillary lymph node (body structure) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure of internal iliac lymph node (body structure) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure of iliac lymph node (body structure) </t>
   </si>
 </sst>
 </file>
@@ -8269,7 +8269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -8567,6 +8567,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8934,8 +8935,8 @@
   <dimension ref="A1:R897"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N666" sqref="N666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8986,16 +8987,16 @@
         <v>736</v>
       </c>
       <c r="K1" s="110" t="s">
-        <v>2457</v>
+        <v>2450</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>2458</v>
+        <v>2451</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>2456</v>
+        <v>2449</v>
       </c>
       <c r="N1" s="66" t="s">
-        <v>2455</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17">
@@ -9031,7 +9032,7 @@
         <v>15825003</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
@@ -9069,7 +9070,7 @@
         <v>54247002</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="10"/>
@@ -9107,7 +9108,7 @@
         <v>425444002</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="10"/>
@@ -9145,7 +9146,7 @@
         <v>69105007</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="10"/>
@@ -9186,10 +9187,10 @@
         <v>69105007</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N6" s="10"/>
     </row>
@@ -9229,10 +9230,10 @@
         <v>69105007</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N7" s="10"/>
     </row>
@@ -9269,7 +9270,7 @@
         <v>57850000</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10"/>
@@ -9307,7 +9308,7 @@
         <v>41801008</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
@@ -9348,10 +9349,10 @@
         <v>41801008</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N10" s="10"/>
     </row>
@@ -9391,10 +9392,10 @@
         <v>41801008</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N11" s="10"/>
     </row>
@@ -9434,10 +9435,10 @@
         <v>7657000</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N12" s="10"/>
     </row>
@@ -9477,10 +9478,10 @@
         <v>7657000</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N13" s="10"/>
     </row>
@@ -9518,7 +9519,7 @@
         <v>244314003</v>
       </c>
       <c r="L14" s="44" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>2003</v>
@@ -9560,10 +9561,10 @@
         <v>244314003</v>
       </c>
       <c r="L15" s="44" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N15" s="10"/>
     </row>
@@ -9591,7 +9592,7 @@
         <v>1976</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>2475</v>
+        <v>2468</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>391</v>
@@ -9603,7 +9604,7 @@
         <v>74200005</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="M16" s="9"/>
     </row>
@@ -9642,8 +9643,8 @@
       <c r="K17" s="111">
         <v>55601007</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>2437</v>
+      <c r="L17" s="136" t="s">
+        <v>2578</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -9681,7 +9682,7 @@
         <v>244327004</v>
       </c>
       <c r="L18" s="44" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>2003</v>
@@ -9722,10 +9723,10 @@
         <v>244327004</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N19" s="10"/>
     </row>
@@ -9765,7 +9766,7 @@
         <v>113269004</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>2321</v>
+        <v>2316</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>2003</v>
@@ -9808,10 +9809,10 @@
         <v>113269004</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>2321</v>
+        <v>2316</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N21" s="10"/>
     </row>
@@ -9851,7 +9852,7 @@
         <v>90024005</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>2003</v>
@@ -9894,10 +9895,10 @@
         <v>90024005</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N23" s="10"/>
     </row>
@@ -9937,7 +9938,7 @@
         <v>73634005</v>
       </c>
       <c r="L24" s="44" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>2003</v>
@@ -9980,10 +9981,10 @@
         <v>73634005</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N25" s="10"/>
     </row>
@@ -10011,7 +10012,7 @@
         <v>1360</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="J26" s="17">
         <v>3862</v>
@@ -10020,7 +10021,7 @@
         <v>33795007</v>
       </c>
       <c r="L26" s="109" t="s">
-        <v>2540</v>
+        <v>2532</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10"/>
@@ -10061,7 +10062,7 @@
         <v>33795007</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>2438</v>
+        <v>2432</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -10101,7 +10102,7 @@
         <v>42258001</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>2439</v>
+        <v>2433</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10"/>
@@ -10139,7 +10140,7 @@
         <v>81040000</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10"/>
@@ -10177,7 +10178,7 @@
         <v>36765005</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10"/>
@@ -10218,10 +10219,10 @@
         <v>36765005</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -10261,10 +10262,10 @@
         <v>36765005</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N32" s="10"/>
     </row>
@@ -10301,7 +10302,7 @@
         <v>85234005</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10"/>
@@ -10342,10 +10343,10 @@
         <v>85234005</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N34" s="10"/>
     </row>
@@ -10385,10 +10386,10 @@
         <v>85234005</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N35" s="10"/>
     </row>
@@ -10474,7 +10475,7 @@
         <v>2006</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="N37" s="10"/>
     </row>
@@ -10548,10 +10549,10 @@
         <v>89187006</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>2200</v>
+        <v>2195</v>
       </c>
       <c r="N39" s="10"/>
     </row>
@@ -10587,10 +10588,10 @@
         <v>89187006</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>2201</v>
+        <v>2196</v>
       </c>
       <c r="N40" s="10"/>
     </row>
@@ -10627,7 +10628,7 @@
         <v>123956007</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10"/>
@@ -10665,7 +10666,7 @@
         <v>66754008</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10"/>
@@ -10703,7 +10704,7 @@
         <v>77578007</v>
       </c>
       <c r="L43" s="54" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10"/>
@@ -10744,10 +10745,10 @@
         <v>77578007</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N44" s="10"/>
     </row>
@@ -10787,10 +10788,10 @@
         <v>77578007</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N45" s="10"/>
     </row>
@@ -10827,7 +10828,7 @@
         <v>59652004</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10"/>
@@ -10868,10 +10869,10 @@
         <v>59652004</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N47" s="10"/>
     </row>
@@ -10911,10 +10912,10 @@
         <v>59652004</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N48" s="10"/>
     </row>
@@ -10951,7 +10952,7 @@
         <v>79741001</v>
       </c>
       <c r="L49" s="44" t="s">
-        <v>2202</v>
+        <v>2197</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10"/>
@@ -10987,7 +10988,7 @@
         <v>89837001</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10"/>
@@ -11023,7 +11024,7 @@
         <v>393006</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10"/>
@@ -11059,7 +11060,7 @@
         <v>119186007</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10"/>
@@ -11097,7 +11098,7 @@
         <v>52374004</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10"/>
@@ -11135,7 +11136,7 @@
         <v>74872008</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10"/>
@@ -11173,7 +11174,7 @@
         <v>21387005</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10"/>
@@ -11211,7 +11212,7 @@
         <v>22356005</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10"/>
@@ -11252,10 +11253,10 @@
         <v>22356005</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N57" s="10"/>
     </row>
@@ -11295,10 +11296,10 @@
         <v>22356005</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N58" s="10"/>
     </row>
@@ -11335,7 +11336,7 @@
         <v>421793000</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10"/>
@@ -11376,10 +11377,10 @@
         <v>421793000</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N60" s="10"/>
     </row>
@@ -11419,10 +11420,10 @@
         <v>421793000</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N61" s="10"/>
     </row>
@@ -11462,10 +11463,10 @@
         <v>85710004</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N62" s="10"/>
     </row>
@@ -11505,10 +11506,10 @@
         <v>85710004</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N63" s="10"/>
     </row>
@@ -11545,7 +11546,7 @@
         <v>6229007</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10"/>
@@ -11586,10 +11587,10 @@
         <v>6229007</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N65" s="10"/>
     </row>
@@ -11629,10 +11630,10 @@
         <v>6229007</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N66" s="10"/>
     </row>
@@ -11669,7 +11670,7 @@
         <v>91609006</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10"/>
@@ -11707,7 +11708,7 @@
         <v>59066005</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10"/>
@@ -11748,10 +11749,10 @@
         <v>59066005</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N69" s="10"/>
     </row>
@@ -11791,10 +11792,10 @@
         <v>59066005</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N70" s="10"/>
     </row>
@@ -11831,7 +11832,7 @@
         <v>74386004</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10"/>
@@ -11872,10 +11873,10 @@
         <v>74386004</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N72" s="10"/>
     </row>
@@ -11915,10 +11916,10 @@
         <v>74386004</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N73" s="10"/>
     </row>
@@ -11955,7 +11956,7 @@
         <v>31640002</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10"/>
@@ -11993,7 +11994,7 @@
         <v>51283005</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10"/>
@@ -12034,10 +12035,10 @@
         <v>51283005</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N76" s="10"/>
     </row>
@@ -12077,10 +12078,10 @@
         <v>51283005</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N77" s="10"/>
     </row>
@@ -12117,7 +12118,7 @@
         <v>24924006</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10"/>
@@ -12158,10 +12159,10 @@
         <v>24924006</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N79" s="10"/>
     </row>
@@ -12201,10 +12202,10 @@
         <v>24924006</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N80" s="10"/>
     </row>
@@ -12241,7 +12242,7 @@
         <v>118645006</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10"/>
@@ -12282,10 +12283,10 @@
         <v>118645006</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N82" s="10"/>
     </row>
@@ -12325,10 +12326,10 @@
         <v>118645006</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N83" s="10"/>
     </row>
@@ -12365,7 +12366,7 @@
         <v>73117003</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10"/>
@@ -12403,7 +12404,7 @@
         <v>60911003</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10"/>
@@ -12444,7 +12445,7 @@
         <v>60911003</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="M86" s="9" t="s">
         <v>2003</v>
@@ -12487,10 +12488,10 @@
         <v>60911003</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="N87" s="10"/>
     </row>
@@ -12530,10 +12531,10 @@
         <v>13881006</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N88" s="10"/>
     </row>
@@ -12573,10 +12574,10 @@
         <v>13881006</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N89" s="10"/>
     </row>
@@ -12613,7 +12614,7 @@
         <v>13881006</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10"/>
@@ -12650,8 +12651,8 @@
       <c r="K91" s="111">
         <v>14016003</v>
       </c>
-      <c r="L91" s="9" t="s">
-        <v>2007</v>
+      <c r="L91" s="136" t="s">
+        <v>2579</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10"/>
@@ -12687,7 +12688,7 @@
         <v>5798000</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>2254</v>
+        <v>2249</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10"/>
@@ -12714,7 +12715,7 @@
         <v>868</v>
       </c>
       <c r="I93" s="16" t="s">
-        <v>2545</v>
+        <v>2537</v>
       </c>
       <c r="J93" s="17">
         <v>7199</v>
@@ -12723,7 +12724,7 @@
         <v>113276009</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>2204</v>
+        <v>2199</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10"/>
@@ -12761,7 +12762,7 @@
         <v>14742008</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>2205</v>
+        <v>2200</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10"/>
@@ -12797,7 +12798,7 @@
         <v>30315005</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>2206</v>
+        <v>2201</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10"/>
@@ -12838,10 +12839,10 @@
         <v>36582005</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>2207</v>
+        <v>2202</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N96" s="10"/>
     </row>
@@ -12881,10 +12882,10 @@
         <v>36582005</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>2207</v>
+        <v>2202</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N97" s="10"/>
     </row>
@@ -12921,11 +12922,11 @@
         <v>36582005</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>2207</v>
+        <v>2202</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="94" t="s">
-        <v>2502</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="17">
@@ -12961,7 +12962,7 @@
         <v>12738006</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>2208</v>
+        <v>2203</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10"/>
@@ -12999,7 +13000,7 @@
         <v>15926001</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10"/>
@@ -13035,10 +13036,10 @@
         <v>15926001</v>
       </c>
       <c r="L101" s="55" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="34">
@@ -13072,10 +13073,10 @@
         <v>15926001</v>
       </c>
       <c r="L102" s="55" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="17">
@@ -13112,10 +13113,10 @@
         <v>76752008</v>
       </c>
       <c r="L103" s="44" t="s">
-        <v>2251</v>
+        <v>2246</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N103" s="10"/>
     </row>
@@ -13153,10 +13154,10 @@
         <v>76752008</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>2251</v>
+        <v>2246</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N104" s="10"/>
     </row>
@@ -13194,10 +13195,10 @@
         <v>76752008</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>2251</v>
+        <v>2246</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N105" s="10"/>
     </row>
@@ -13234,7 +13235,7 @@
         <v>955009</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>2211</v>
+        <v>2206</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10"/>
@@ -13275,10 +13276,10 @@
         <v>955009</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>2211</v>
+        <v>2206</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N107" s="10"/>
     </row>
@@ -13315,7 +13316,7 @@
         <v>102297006</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>2210</v>
+        <v>2205</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10"/>
@@ -13356,7 +13357,7 @@
         <v>102297006</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>2210</v>
+        <v>2205</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10"/>
@@ -13397,7 +13398,7 @@
         <v>102297006</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>2210</v>
+        <v>2205</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10"/>
@@ -13438,10 +13439,10 @@
         <v>955009</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>2211</v>
+        <v>2206</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N111" s="10"/>
     </row>
@@ -13477,8 +13478,8 @@
       <c r="K112" s="111">
         <v>34381000</v>
       </c>
-      <c r="L112" s="9" t="s">
-        <v>2011</v>
+      <c r="L112" s="136" t="s">
+        <v>2580</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10"/>
@@ -13514,7 +13515,7 @@
         <v>28700002</v>
       </c>
       <c r="L113" s="9" t="s">
-        <v>2212</v>
+        <v>2207</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10"/>
@@ -13550,7 +13551,7 @@
         <v>38848004</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10"/>
@@ -13588,7 +13589,7 @@
         <v>7173007</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>2213</v>
+        <v>2208</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10"/>
@@ -13624,7 +13625,7 @@
         <v>9284003</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>2214</v>
+        <v>2209</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10"/>
@@ -13662,7 +13663,7 @@
         <v>279549004</v>
       </c>
       <c r="L117" s="9" t="s">
-        <v>2215</v>
+        <v>2210</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10"/>
@@ -13700,7 +13701,7 @@
         <v>74262004</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>2216</v>
+        <v>2211</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10"/>
@@ -13736,7 +13737,7 @@
         <v>32713005</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>2217</v>
+        <v>2212</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10"/>
@@ -13774,7 +13775,7 @@
         <v>113305005</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>2219</v>
+        <v>2214</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10"/>
@@ -13812,7 +13813,7 @@
         <v>83678007</v>
       </c>
       <c r="L121" s="9" t="s">
-        <v>2218</v>
+        <v>2213</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10"/>
@@ -13844,7 +13845,7 @@
         <v>1643</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>2546</v>
+        <v>2538</v>
       </c>
       <c r="J122" s="17">
         <v>61819</v>
@@ -13853,10 +13854,10 @@
         <v>83678007</v>
       </c>
       <c r="L122" s="9" t="s">
-        <v>2218</v>
+        <v>2213</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N122" s="10"/>
     </row>
@@ -13887,7 +13888,7 @@
         <v>1645</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="J123" s="17">
         <v>67292</v>
@@ -13896,10 +13897,10 @@
         <v>83678007</v>
       </c>
       <c r="L123" s="9" t="s">
-        <v>2218</v>
+        <v>2213</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N123" s="10"/>
     </row>
@@ -13934,7 +13935,7 @@
         <v>71252005</v>
       </c>
       <c r="L124" s="9" t="s">
-        <v>2220</v>
+        <v>2215</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10"/>
@@ -13970,7 +13971,7 @@
         <v>78904004</v>
       </c>
       <c r="L125" s="9" t="s">
-        <v>2221</v>
+        <v>2216</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10"/>
@@ -14009,10 +14010,10 @@
         <v>78904004</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>2221</v>
+        <v>2216</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N126" s="10"/>
     </row>
@@ -14050,10 +14051,10 @@
         <v>78904004</v>
       </c>
       <c r="L127" s="9" t="s">
-        <v>2221</v>
+        <v>2216</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N127" s="10"/>
     </row>
@@ -14088,7 +14089,7 @@
         <v>369387006</v>
       </c>
       <c r="L128" s="9" t="s">
-        <v>2222</v>
+        <v>2217</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10"/>
@@ -14122,7 +14123,7 @@
         <v>60075002</v>
       </c>
       <c r="L129" s="9" t="s">
-        <v>2396</v>
+        <v>2391</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10"/>
@@ -14163,10 +14164,10 @@
         <v>51299004</v>
       </c>
       <c r="L130" s="9" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N130" s="10"/>
     </row>
@@ -14206,10 +14207,10 @@
         <v>51299004</v>
       </c>
       <c r="L131" s="9" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N131" s="10"/>
     </row>
@@ -14246,7 +14247,7 @@
         <v>56193007</v>
       </c>
       <c r="L132" s="9" t="s">
-        <v>2224</v>
+        <v>2219</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10"/>
@@ -14287,10 +14288,10 @@
         <v>56193007</v>
       </c>
       <c r="L133" s="9" t="s">
-        <v>2224</v>
+        <v>2219</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N133" s="10"/>
     </row>
@@ -14330,10 +14331,10 @@
         <v>56193007</v>
       </c>
       <c r="L134" s="9" t="s">
-        <v>2224</v>
+        <v>2219</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N134" s="10"/>
     </row>
@@ -14370,7 +14371,7 @@
         <v>21161002</v>
       </c>
       <c r="L135" s="9" t="s">
-        <v>2225</v>
+        <v>2220</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="10"/>
@@ -14411,10 +14412,10 @@
         <v>21161002</v>
       </c>
       <c r="L136" s="9" t="s">
-        <v>2225</v>
+        <v>2220</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N136" s="10"/>
     </row>
@@ -14454,10 +14455,10 @@
         <v>21161002</v>
       </c>
       <c r="L137" s="9" t="s">
-        <v>2225</v>
+        <v>2220</v>
       </c>
       <c r="M137" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N137" s="10"/>
     </row>
@@ -14494,7 +14495,7 @@
         <v>27612005</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="10"/>
@@ -14535,10 +14536,10 @@
         <v>27612005</v>
       </c>
       <c r="L139" s="9" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N139" s="10"/>
     </row>
@@ -14578,10 +14579,10 @@
         <v>27612005</v>
       </c>
       <c r="L140" s="9" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
       <c r="M140" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N140" s="10"/>
     </row>
@@ -14618,7 +14619,7 @@
         <v>80622005</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
       <c r="M141" s="9"/>
       <c r="N141" s="10"/>
@@ -14659,10 +14660,10 @@
         <v>80622005</v>
       </c>
       <c r="L142" s="9" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
       <c r="M142" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N142" s="10"/>
     </row>
@@ -14702,10 +14703,10 @@
         <v>80622005</v>
       </c>
       <c r="L143" s="9" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N143" s="10"/>
     </row>
@@ -14742,7 +14743,7 @@
         <v>56052001</v>
       </c>
       <c r="L144" s="9" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="10"/>
@@ -14783,10 +14784,10 @@
         <v>56052001</v>
       </c>
       <c r="L145" s="9" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="M145" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N145" s="10"/>
     </row>
@@ -14826,10 +14827,10 @@
         <v>56052001</v>
       </c>
       <c r="L146" s="9" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="M146" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N146" s="10"/>
     </row>
@@ -14866,7 +14867,7 @@
         <v>8598002</v>
       </c>
       <c r="L147" s="9" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
       <c r="M147" s="9"/>
       <c r="N147" s="10"/>
@@ -14907,10 +14908,10 @@
         <v>8598002</v>
       </c>
       <c r="L148" s="9" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
       <c r="M148" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N148" s="10"/>
     </row>
@@ -14950,10 +14951,10 @@
         <v>8598002</v>
       </c>
       <c r="L149" s="9" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
       <c r="M149" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N149" s="10"/>
     </row>
@@ -14990,7 +14991,7 @@
         <v>15119000</v>
       </c>
       <c r="L150" s="9" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
       <c r="M150" s="9"/>
       <c r="N150" s="10"/>
@@ -15031,10 +15032,10 @@
         <v>15119000</v>
       </c>
       <c r="L151" s="9" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
       <c r="M151" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N151" s="10"/>
     </row>
@@ -15074,10 +15075,10 @@
         <v>15119000</v>
       </c>
       <c r="L152" s="9" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N152" s="10"/>
     </row>
@@ -15114,7 +15115,7 @@
         <v>37899009</v>
       </c>
       <c r="L153" s="9" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
       <c r="M153" s="9"/>
       <c r="N153" s="10"/>
@@ -15155,10 +15156,10 @@
         <v>37899009</v>
       </c>
       <c r="L154" s="9" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
       <c r="M154" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N154" s="10"/>
     </row>
@@ -15198,10 +15199,10 @@
         <v>37899009</v>
       </c>
       <c r="L155" s="9" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
       <c r="M155" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N155" s="10"/>
     </row>
@@ -15238,7 +15239,7 @@
         <v>80169004</v>
       </c>
       <c r="L156" s="9" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
       <c r="M156" s="9"/>
       <c r="N156" s="10"/>
@@ -15279,7 +15280,7 @@
         <v>80169004</v>
       </c>
       <c r="L157" s="9" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
       <c r="M157" s="9"/>
       <c r="N157" s="10"/>
@@ -15320,7 +15321,7 @@
         <v>80169004</v>
       </c>
       <c r="L158" s="9" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
       <c r="M158" s="9"/>
       <c r="N158" s="10"/>
@@ -15358,7 +15359,7 @@
         <v>71854001</v>
       </c>
       <c r="L159" s="9" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
       <c r="M159" s="9"/>
       <c r="N159" s="10"/>
@@ -15396,7 +15397,7 @@
         <v>9040008</v>
       </c>
       <c r="L160" s="9" t="s">
-        <v>2234</v>
+        <v>2229</v>
       </c>
       <c r="M160" s="9"/>
       <c r="N160" s="10"/>
@@ -15434,7 +15435,7 @@
         <v>32622004</v>
       </c>
       <c r="L161" s="9" t="s">
-        <v>2235</v>
+        <v>2230</v>
       </c>
       <c r="M161" s="9"/>
       <c r="N161" s="10"/>
@@ -15470,10 +15471,10 @@
         <v>81745001</v>
       </c>
       <c r="L162" s="9" t="s">
-        <v>2188</v>
+        <v>2183</v>
       </c>
       <c r="M162" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N162" s="10"/>
     </row>
@@ -15510,7 +15511,7 @@
         <v>60184004</v>
       </c>
       <c r="L163" s="9" t="s">
-        <v>2236</v>
+        <v>2231</v>
       </c>
       <c r="M163" s="9"/>
       <c r="N163" s="10"/>
@@ -15548,7 +15549,7 @@
         <v>485005</v>
       </c>
       <c r="L164" s="9" t="s">
-        <v>2237</v>
+        <v>2232</v>
       </c>
       <c r="M164" s="9"/>
       <c r="N164" s="10"/>
@@ -15586,7 +15587,7 @@
         <v>28726007</v>
       </c>
       <c r="L165" s="44" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="M165" s="9"/>
       <c r="N165" s="10"/>
@@ -15627,10 +15628,10 @@
         <v>28726007</v>
       </c>
       <c r="L166" s="44" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="M166" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N166" s="10"/>
     </row>
@@ -15670,10 +15671,10 @@
         <v>28726007</v>
       </c>
       <c r="L167" s="44" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="M167" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N167" s="10"/>
     </row>
@@ -15710,7 +15711,7 @@
         <v>36743005</v>
       </c>
       <c r="L168" s="9" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="M168" s="9"/>
       <c r="N168" s="10"/>
@@ -15748,7 +15749,7 @@
         <v>8600008</v>
       </c>
       <c r="L169" s="9" t="s">
-        <v>2238</v>
+        <v>2233</v>
       </c>
       <c r="M169" s="9"/>
       <c r="N169" s="10"/>
@@ -15786,7 +15787,7 @@
         <v>28276008</v>
       </c>
       <c r="L170" s="9" t="s">
-        <v>2239</v>
+        <v>2234</v>
       </c>
       <c r="M170" s="9"/>
       <c r="N170" s="10"/>
@@ -15822,7 +15823,7 @@
         <v>28231008</v>
       </c>
       <c r="L171" s="9" t="s">
-        <v>2261</v>
+        <v>2256</v>
       </c>
       <c r="M171" s="9"/>
       <c r="N171" s="10"/>
@@ -15858,7 +15859,7 @@
         <v>71934003</v>
       </c>
       <c r="L172" s="9" t="s">
-        <v>2346</v>
+        <v>2341</v>
       </c>
       <c r="M172" s="9"/>
       <c r="N172" s="10"/>
@@ -15896,7 +15897,7 @@
         <v>13561001</v>
       </c>
       <c r="L173" s="9" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
       <c r="M173" s="9"/>
       <c r="N173" s="10"/>
@@ -15937,7 +15938,7 @@
         <v>117590005</v>
       </c>
       <c r="L174" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="M174" s="9"/>
       <c r="N174" s="10"/>
@@ -15978,10 +15979,10 @@
         <v>117590005</v>
       </c>
       <c r="L175" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="M175" s="136" t="s">
-        <v>2571</v>
+        <v>2563</v>
       </c>
       <c r="N175" s="10"/>
     </row>
@@ -16021,10 +16022,10 @@
         <v>117590005</v>
       </c>
       <c r="L176" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="M176" s="9" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="N176" s="10"/>
     </row>
@@ -16064,10 +16065,10 @@
         <v>117590005</v>
       </c>
       <c r="L177" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="M177" s="136" t="s">
-        <v>2572</v>
+        <v>2564</v>
       </c>
       <c r="N177" s="10"/>
     </row>
@@ -16107,10 +16108,10 @@
         <v>117590005</v>
       </c>
       <c r="L178" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="M178" s="136" t="s">
-        <v>2581</v>
+        <v>2573</v>
       </c>
       <c r="N178" s="10"/>
     </row>
@@ -16150,10 +16151,10 @@
         <v>117590005</v>
       </c>
       <c r="L179" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="M179" s="9" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="N179" s="10"/>
     </row>
@@ -16193,10 +16194,10 @@
         <v>117590005</v>
       </c>
       <c r="L180" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="M180" s="9" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="N180" s="10"/>
     </row>
@@ -16236,10 +16237,10 @@
         <v>117590005</v>
       </c>
       <c r="L181" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="M181" s="136" t="s">
-        <v>2573</v>
+        <v>2565</v>
       </c>
       <c r="N181" s="10"/>
     </row>
@@ -16279,10 +16280,10 @@
         <v>117590005</v>
       </c>
       <c r="L182" s="9" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="M182" s="136" t="s">
-        <v>2194</v>
+        <v>2189</v>
       </c>
       <c r="N182" s="10"/>
     </row>
@@ -16317,7 +16318,7 @@
         <v>111002</v>
       </c>
       <c r="L183" s="9" t="s">
-        <v>2263</v>
+        <v>2258</v>
       </c>
       <c r="M183" s="9"/>
       <c r="N183" s="10"/>
@@ -16353,7 +16354,7 @@
         <v>127949000</v>
       </c>
       <c r="L184" s="9" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="M184" s="9"/>
       <c r="N184" s="10"/>
@@ -16392,7 +16393,7 @@
         <v>127949000</v>
       </c>
       <c r="L185" s="9" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="M185" s="9" t="s">
         <v>2003</v>
@@ -16433,10 +16434,10 @@
         <v>127949000</v>
       </c>
       <c r="L186" s="9" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="M186" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N186" s="10"/>
     </row>
@@ -16471,7 +16472,7 @@
         <v>32849002</v>
       </c>
       <c r="L187" s="9" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="M187" s="9"/>
       <c r="N187" s="10"/>
@@ -16510,10 +16511,10 @@
         <v>32849002</v>
       </c>
       <c r="L188" s="9" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="M188" s="9" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="N188" s="10"/>
     </row>
@@ -16551,10 +16552,10 @@
         <v>32849002</v>
       </c>
       <c r="L189" s="9" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="M189" s="9" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="N189" s="10"/>
     </row>
@@ -16590,10 +16591,10 @@
         <v>32849002</v>
       </c>
       <c r="L190" s="9" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="M190" s="9" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="N190" s="10"/>
     </row>
@@ -16630,7 +16631,7 @@
         <v>88481005</v>
       </c>
       <c r="L191" s="9" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
       <c r="M191" s="9"/>
       <c r="N191" s="10"/>
@@ -16668,7 +16669,7 @@
         <v>385296007</v>
       </c>
       <c r="L192" s="9" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
       <c r="M192" s="9"/>
       <c r="N192" s="10"/>
@@ -16709,10 +16710,10 @@
         <v>81745001</v>
       </c>
       <c r="L193" s="9" t="s">
-        <v>2188</v>
+        <v>2183</v>
       </c>
       <c r="M193" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N193" s="10"/>
     </row>
@@ -16752,10 +16753,10 @@
         <v>81745001</v>
       </c>
       <c r="L194" s="9" t="s">
-        <v>2188</v>
+        <v>2183</v>
       </c>
       <c r="M194" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N194" s="10"/>
     </row>
@@ -16792,7 +16793,7 @@
         <v>9875009</v>
       </c>
       <c r="L195" s="9" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
       <c r="M195" s="9"/>
       <c r="N195" s="10"/>
@@ -16830,7 +16831,7 @@
         <v>69748006</v>
       </c>
       <c r="L196" s="9" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="M196" s="9"/>
       <c r="N196" s="10"/>
@@ -16871,13 +16872,13 @@
         <v>2812003</v>
       </c>
       <c r="L197" s="76" t="s">
-        <v>2487</v>
+        <v>2480</v>
       </c>
       <c r="M197" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N197" s="73" t="s">
-        <v>2486</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="34">
@@ -16916,13 +16917,13 @@
         <v>2812003</v>
       </c>
       <c r="L198" s="76" t="s">
-        <v>2487</v>
+        <v>2480</v>
       </c>
       <c r="M198" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N198" s="73" t="s">
-        <v>2486</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="34">
@@ -16961,10 +16962,10 @@
         <v>24136001</v>
       </c>
       <c r="L199" s="9" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
       <c r="M199" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N199" s="10"/>
     </row>
@@ -17004,10 +17005,10 @@
         <v>24136001</v>
       </c>
       <c r="L200" s="9" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
       <c r="M200" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N200" s="10"/>
     </row>
@@ -17035,7 +17036,7 @@
         <v>92</v>
       </c>
       <c r="I201" s="16" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="J201" s="17">
         <v>24475</v>
@@ -17044,7 +17045,7 @@
         <v>71341001</v>
       </c>
       <c r="L201" s="9" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="M201" s="9"/>
       <c r="N201" s="10"/>
@@ -17076,7 +17077,7 @@
         <v>815</v>
       </c>
       <c r="I202" s="16" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
       <c r="J202" s="17">
         <v>24475</v>
@@ -17085,10 +17086,10 @@
         <v>71341001</v>
       </c>
       <c r="L202" s="9" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="M202" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N202" s="10"/>
     </row>
@@ -17110,13 +17111,13 @@
         <v>10</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="H203" s="15" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="I203" s="16" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="J203" s="17">
         <v>42386</v>
@@ -17125,7 +17126,7 @@
         <v>29627003</v>
       </c>
       <c r="L203" s="9" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="M203" s="9"/>
       <c r="N203" s="10"/>
@@ -17166,13 +17167,13 @@
         <v>29627003</v>
       </c>
       <c r="L204" s="89" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="M204" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N204" s="94" t="s">
-        <v>2504</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="205" spans="1:14" ht="17">
@@ -17211,10 +17212,10 @@
         <v>29627003</v>
       </c>
       <c r="L205" s="9" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="M205" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N205" s="10"/>
     </row>
@@ -17254,10 +17255,10 @@
         <v>71341001</v>
       </c>
       <c r="L206" s="9" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="M206" s="9" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="N206" s="10"/>
     </row>
@@ -17297,10 +17298,10 @@
         <v>41111004</v>
       </c>
       <c r="L207" s="9" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="M207" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N207" s="10"/>
     </row>
@@ -17340,10 +17341,10 @@
         <v>41111004</v>
       </c>
       <c r="L208" s="9" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="M208" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N208" s="10"/>
     </row>
@@ -17380,10 +17381,10 @@
         <v>71341001</v>
       </c>
       <c r="L209" s="9" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="M209" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N209" s="10"/>
     </row>
@@ -17420,7 +17421,7 @@
         <v>87342007</v>
       </c>
       <c r="L210" s="9" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="M210" s="9"/>
       <c r="N210" s="10"/>
@@ -17461,10 +17462,10 @@
         <v>87342007</v>
       </c>
       <c r="L211" s="9" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="M211" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N211" s="10"/>
     </row>
@@ -17504,10 +17505,10 @@
         <v>87342007</v>
       </c>
       <c r="L212" s="9" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="M212" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N212" s="10"/>
     </row>
@@ -17542,7 +17543,7 @@
         <v>1307006</v>
       </c>
       <c r="L213" s="9" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="M213" s="9"/>
       <c r="N213" s="10"/>
@@ -17576,7 +17577,7 @@
         <v>3711007</v>
       </c>
       <c r="L214" s="44" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="M214" s="9"/>
       <c r="N214" s="10"/>
@@ -17610,10 +17611,10 @@
         <v>3711007</v>
       </c>
       <c r="L215" s="44" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="M215" s="9" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="N215" s="10"/>
     </row>
@@ -17650,7 +17651,7 @@
         <v>90228003</v>
       </c>
       <c r="L216" s="9" t="s">
-        <v>2281</v>
+        <v>2276</v>
       </c>
       <c r="M216" s="9"/>
       <c r="N216" s="10"/>
@@ -17673,24 +17674,24 @@
         <v>12</v>
       </c>
       <c r="G217" s="14" t="s">
+        <v>2007</v>
+      </c>
+      <c r="H217" s="15" t="s">
         <v>2008</v>
       </c>
-      <c r="H217" s="15" t="s">
+      <c r="I217" s="16" t="s">
         <v>2009</v>
-      </c>
-      <c r="I217" s="16" t="s">
-        <v>2010</v>
       </c>
       <c r="J217" s="17"/>
       <c r="K217" s="111">
         <v>23451007</v>
       </c>
       <c r="L217" s="105" t="s">
-        <v>2517</v>
+        <v>2509</v>
       </c>
       <c r="M217" s="9"/>
       <c r="N217" s="94" t="s">
-        <v>2503</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="218" spans="1:14" ht="34">
@@ -17729,10 +17730,10 @@
         <v>23451007</v>
       </c>
       <c r="L218" s="105" t="s">
-        <v>2517</v>
+        <v>2509</v>
       </c>
       <c r="M218" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N218" s="10"/>
     </row>
@@ -17772,10 +17773,10 @@
         <v>23451007</v>
       </c>
       <c r="L219" s="105" t="s">
-        <v>2517</v>
+        <v>2509</v>
       </c>
       <c r="M219" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N219" s="10"/>
     </row>
@@ -17810,7 +17811,7 @@
         <v>80891009</v>
       </c>
       <c r="L220" s="9" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
       <c r="M220" s="9"/>
       <c r="N220" s="10"/>
@@ -17851,10 +17852,10 @@
         <v>13561001</v>
       </c>
       <c r="L221" s="9" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
       <c r="M221" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N221" s="10"/>
     </row>
@@ -17894,10 +17895,10 @@
         <v>13561001</v>
       </c>
       <c r="L222" s="9" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
       <c r="M222" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N222" s="10"/>
     </row>
@@ -17935,13 +17936,13 @@
         <v>372073000</v>
       </c>
       <c r="L223" s="89" t="s">
-        <v>2530</v>
+        <v>2522</v>
       </c>
       <c r="M223" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N223" s="94" t="s">
-        <v>2505</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="224" spans="1:14" ht="16.5" customHeight="1">
@@ -17980,10 +17981,10 @@
         <v>88481005</v>
       </c>
       <c r="L224" s="9" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
       <c r="M224" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N224" s="10"/>
     </row>
@@ -18023,10 +18024,10 @@
         <v>88481005</v>
       </c>
       <c r="L225" s="9" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
       <c r="M225" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N225" s="10"/>
     </row>
@@ -18063,7 +18064,7 @@
         <v>5366008</v>
       </c>
       <c r="L226" s="9" t="s">
-        <v>2241</v>
+        <v>2236</v>
       </c>
       <c r="M226" s="9"/>
       <c r="N226" s="10"/>
@@ -18104,10 +18105,10 @@
         <v>385296007</v>
       </c>
       <c r="L227" s="9" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
       <c r="M227" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N227" s="10"/>
     </row>
@@ -18147,10 +18148,10 @@
         <v>385296007</v>
       </c>
       <c r="L228" s="9" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
       <c r="M228" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N228" s="10"/>
     </row>
@@ -18187,7 +18188,7 @@
         <v>67923007</v>
       </c>
       <c r="L229" s="9" t="s">
-        <v>2242</v>
+        <v>2237</v>
       </c>
       <c r="M229" s="9"/>
       <c r="N229" s="10"/>
@@ -18223,7 +18224,7 @@
         <v>34516001</v>
       </c>
       <c r="L230" s="9" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="M230" s="9"/>
       <c r="N230" s="10"/>
@@ -18261,7 +18262,7 @@
         <v>21306003</v>
       </c>
       <c r="L231" s="9" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="M231" s="9"/>
       <c r="N231" s="10"/>
@@ -18295,7 +18296,7 @@
         <v>90228003</v>
       </c>
       <c r="L232" s="9" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
       <c r="M232" s="9"/>
       <c r="N232" s="10"/>
@@ -18331,7 +18332,7 @@
         <v>16953009</v>
       </c>
       <c r="L233" s="9" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
       <c r="M233" s="9"/>
       <c r="N233" s="10"/>
@@ -18369,7 +18370,7 @@
         <v>85537004</v>
       </c>
       <c r="L234" s="9" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="M234" s="9"/>
       <c r="N234" s="10"/>
@@ -18399,17 +18400,17 @@
         <v>1674</v>
       </c>
       <c r="I235" s="16" t="s">
-        <v>2563</v>
+        <v>2555</v>
       </c>
       <c r="J235" s="17"/>
       <c r="K235" s="111">
         <v>711190000</v>
       </c>
       <c r="L235" s="9" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="M235" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N235" s="10"/>
     </row>
@@ -18438,17 +18439,17 @@
         <v>1676</v>
       </c>
       <c r="I236" s="16" t="s">
-        <v>2564</v>
+        <v>2556</v>
       </c>
       <c r="J236" s="17"/>
       <c r="K236" s="111">
         <v>711190000</v>
       </c>
       <c r="L236" s="9" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="M236" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N236" s="10"/>
     </row>
@@ -18477,17 +18478,17 @@
         <v>1695</v>
       </c>
       <c r="I237" s="135" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="J237" s="87"/>
       <c r="K237" s="116">
         <v>39352004</v>
       </c>
       <c r="L237" s="74" t="s">
-        <v>2453</v>
+        <v>2446</v>
       </c>
       <c r="M237" s="74" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="N237" s="88"/>
     </row>
@@ -18524,7 +18525,7 @@
         <v>53620006</v>
       </c>
       <c r="L238" s="9" t="s">
-        <v>2290</v>
+        <v>2285</v>
       </c>
       <c r="M238" s="9"/>
       <c r="N238" s="10"/>
@@ -18556,7 +18557,7 @@
         <v>1834</v>
       </c>
       <c r="I239" s="16" t="s">
-        <v>2566</v>
+        <v>2558</v>
       </c>
       <c r="J239" s="17">
         <v>61819</v>
@@ -18565,13 +18566,13 @@
         <v>6566002</v>
       </c>
       <c r="L239" s="9" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
       <c r="M239" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N239" s="94" t="s">
-        <v>2505</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="240" spans="1:14" ht="34">
@@ -18601,7 +18602,7 @@
         <v>1833</v>
       </c>
       <c r="I240" s="16" t="s">
-        <v>2567</v>
+        <v>2559</v>
       </c>
       <c r="J240" s="17">
         <v>67292</v>
@@ -18610,13 +18611,13 @@
         <v>6566002</v>
       </c>
       <c r="L240" s="9" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
       <c r="M240" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N240" s="94" t="s">
-        <v>2505</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="241" spans="1:14" ht="34">
@@ -18652,10 +18653,10 @@
         <v>50403003</v>
       </c>
       <c r="L241" s="9" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="M241" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N241" s="10"/>
     </row>
@@ -18692,10 +18693,10 @@
         <v>74033008</v>
       </c>
       <c r="L242" s="9" t="s">
-        <v>2372</v>
+        <v>2367</v>
       </c>
       <c r="M242" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N242" s="10"/>
     </row>
@@ -18735,10 +18736,10 @@
         <v>5366008</v>
       </c>
       <c r="L243" s="9" t="s">
-        <v>2241</v>
+        <v>2236</v>
       </c>
       <c r="M243" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N243" s="10"/>
     </row>
@@ -18778,10 +18779,10 @@
         <v>5366008</v>
       </c>
       <c r="L244" s="9" t="s">
-        <v>2241</v>
+        <v>2236</v>
       </c>
       <c r="M244" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N244" s="10"/>
     </row>
@@ -18821,10 +18822,10 @@
         <v>85050009</v>
       </c>
       <c r="L245" s="9" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="M245" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N245" s="10"/>
     </row>
@@ -18864,10 +18865,10 @@
         <v>85050009</v>
       </c>
       <c r="L246" s="9" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="M246" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N246" s="10"/>
     </row>
@@ -18904,10 +18905,10 @@
         <v>64033007</v>
       </c>
       <c r="L247" s="9" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="M247" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N247" s="10"/>
     </row>
@@ -18942,7 +18943,7 @@
         <v>72696002</v>
       </c>
       <c r="L248" s="9" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
       <c r="M248" s="9"/>
       <c r="N248" s="10"/>
@@ -18980,11 +18981,11 @@
         <v>81502006</v>
       </c>
       <c r="L249" s="103" t="s">
-        <v>2531</v>
+        <v>2523</v>
       </c>
       <c r="M249" s="74"/>
       <c r="N249" s="94" t="s">
-        <v>2532</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="250" spans="1:14" ht="17">
@@ -19018,7 +19019,7 @@
         <v>4596009</v>
       </c>
       <c r="L250" s="9" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
       <c r="M250" s="9"/>
       <c r="N250" s="10"/>
@@ -19054,7 +19055,7 @@
         <v>86483002</v>
       </c>
       <c r="L251" s="9" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
       <c r="M251" s="9"/>
       <c r="N251" s="10"/>
@@ -19093,10 +19094,10 @@
         <v>16953009</v>
       </c>
       <c r="L252" s="9" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
       <c r="M252" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N252" s="10"/>
     </row>
@@ -19134,10 +19135,10 @@
         <v>16953009</v>
       </c>
       <c r="L253" s="9" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
       <c r="M253" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N253" s="10"/>
     </row>
@@ -19174,7 +19175,7 @@
         <v>78076003</v>
       </c>
       <c r="L254" s="9" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="M254" s="9"/>
       <c r="N254" s="10"/>
@@ -19215,10 +19216,10 @@
         <v>85537004</v>
       </c>
       <c r="L255" s="9" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="M255" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N255" s="10"/>
     </row>
@@ -19258,10 +19259,10 @@
         <v>85537004</v>
       </c>
       <c r="L256" s="9" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="M256" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N256" s="10"/>
     </row>
@@ -19298,7 +19299,7 @@
         <v>6544009</v>
       </c>
       <c r="L257" s="9" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="M257" s="9"/>
       <c r="N257" s="10"/>
@@ -19334,7 +19335,7 @@
         <v>81083006</v>
       </c>
       <c r="L258" s="44" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="M258" s="9"/>
       <c r="N258" s="10"/>
@@ -19375,10 +19376,10 @@
         <v>53620006</v>
       </c>
       <c r="L259" s="9" t="s">
-        <v>2290</v>
+        <v>2285</v>
       </c>
       <c r="M259" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N259" s="10"/>
     </row>
@@ -19418,10 +19419,10 @@
         <v>53620006</v>
       </c>
       <c r="L260" s="9" t="s">
-        <v>2290</v>
+        <v>2285</v>
       </c>
       <c r="M260" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N260" s="10"/>
     </row>
@@ -19456,7 +19457,7 @@
         <v>10200004</v>
       </c>
       <c r="L261" s="9" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="M261" s="9"/>
       <c r="N261" s="10"/>
@@ -19497,10 +19498,10 @@
         <v>50403003</v>
       </c>
       <c r="L262" s="9" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="M262" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N262" s="10"/>
     </row>
@@ -19540,10 +19541,10 @@
         <v>50403003</v>
       </c>
       <c r="L263" s="9" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="M263" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N263" s="10"/>
     </row>
@@ -19583,10 +19584,10 @@
         <v>74033008</v>
       </c>
       <c r="L264" s="9" t="s">
-        <v>2372</v>
+        <v>2367</v>
       </c>
       <c r="M264" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N264" s="10"/>
     </row>
@@ -19626,10 +19627,10 @@
         <v>74033008</v>
       </c>
       <c r="L265" s="9" t="s">
-        <v>2372</v>
+        <v>2367</v>
       </c>
       <c r="M265" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N265" s="10"/>
     </row>
@@ -19666,7 +19667,7 @@
         <v>83251001</v>
       </c>
       <c r="L266" s="9" t="s">
-        <v>2244</v>
+        <v>2239</v>
       </c>
       <c r="M266" s="9"/>
       <c r="N266" s="10"/>
@@ -19707,10 +19708,10 @@
         <v>64033007</v>
       </c>
       <c r="L267" s="9" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="M267" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N267" s="10"/>
     </row>
@@ -19750,10 +19751,10 @@
         <v>25990002</v>
       </c>
       <c r="L268" s="9" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="M268" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N268" s="10"/>
     </row>
@@ -19793,10 +19794,10 @@
         <v>25990002</v>
       </c>
       <c r="L269" s="9" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="M269" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N269" s="10"/>
     </row>
@@ -19836,10 +19837,10 @@
         <v>64033007</v>
       </c>
       <c r="L270" s="9" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
       <c r="M270" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N270" s="10"/>
     </row>
@@ -19876,7 +19877,7 @@
         <v>31065004</v>
       </c>
       <c r="L271" s="9" t="s">
-        <v>2245</v>
+        <v>2240</v>
       </c>
       <c r="M271" s="9"/>
       <c r="N271" s="10"/>
@@ -19914,7 +19915,7 @@
         <v>16630005</v>
       </c>
       <c r="L272" s="9" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
       <c r="M272" s="9"/>
       <c r="N272" s="10"/>
@@ -19953,10 +19954,10 @@
         <v>72696002</v>
       </c>
       <c r="L273" s="9" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
       <c r="M273" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N273" s="10"/>
     </row>
@@ -19994,10 +19995,10 @@
         <v>72696002</v>
       </c>
       <c r="L274" s="9" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
       <c r="M274" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N274" s="10"/>
     </row>
@@ -20034,7 +20035,7 @@
         <v>78277001</v>
       </c>
       <c r="L275" s="9" t="s">
-        <v>2247</v>
+        <v>2242</v>
       </c>
       <c r="M275" s="9"/>
       <c r="N275" s="10"/>
@@ -20070,7 +20071,7 @@
         <v>72410000</v>
       </c>
       <c r="L276" s="9" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="M276" s="9"/>
       <c r="N276" s="10"/>
@@ -20106,7 +20107,7 @@
         <v>71616004</v>
       </c>
       <c r="L277" s="9" t="s">
-        <v>2397</v>
+        <v>2392</v>
       </c>
       <c r="M277" s="9"/>
       <c r="N277" s="10"/>
@@ -20144,7 +20145,7 @@
         <v>4866005</v>
       </c>
       <c r="L278" s="9" t="s">
-        <v>2398</v>
+        <v>2393</v>
       </c>
       <c r="M278" s="9"/>
       <c r="N278" s="10"/>
@@ -20185,10 +20186,10 @@
         <v>78076003</v>
       </c>
       <c r="L279" s="9" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="M279" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N279" s="10"/>
     </row>
@@ -20228,10 +20229,10 @@
         <v>78076003</v>
       </c>
       <c r="L280" s="9" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="M280" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N280" s="10"/>
     </row>
@@ -20268,7 +20269,7 @@
         <v>79368004</v>
       </c>
       <c r="L281" s="9" t="s">
-        <v>2399</v>
+        <v>2394</v>
       </c>
       <c r="M281" s="9"/>
       <c r="N281" s="10"/>
@@ -20306,10 +20307,10 @@
         <v>52927003</v>
       </c>
       <c r="L282" s="9" t="s">
-        <v>2400</v>
+        <v>2395</v>
       </c>
       <c r="M282" s="7" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N282" s="10"/>
     </row>
@@ -20346,7 +20347,7 @@
         <v>71836000</v>
       </c>
       <c r="L283" s="9" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="M283" s="9"/>
       <c r="N283" s="10"/>
@@ -20382,7 +20383,7 @@
         <v>59441001</v>
       </c>
       <c r="L284" s="44" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="M284" s="9"/>
       <c r="N284" s="10"/>
@@ -20420,7 +20421,7 @@
         <v>16051009</v>
       </c>
       <c r="L285" s="9" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M285" s="9"/>
       <c r="N285" s="10"/>
@@ -20461,7 +20462,7 @@
         <v>16051009</v>
       </c>
       <c r="L286" s="9" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M286" s="9" t="s">
         <v>2003</v>
@@ -20503,10 +20504,10 @@
         <v>16051009</v>
       </c>
       <c r="L287" s="9" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M287" s="9" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="288" spans="1:14" ht="51">
@@ -20545,10 +20546,10 @@
         <v>16051009</v>
       </c>
       <c r="L288" s="9" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M288" s="136" t="s">
-        <v>2574</v>
+        <v>2566</v>
       </c>
       <c r="N288" s="10"/>
     </row>
@@ -20579,7 +20580,7 @@
         <v>947</v>
       </c>
       <c r="I289" s="16" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
       <c r="J289" s="17">
         <v>73262</v>
@@ -20588,10 +20589,10 @@
         <v>16051009</v>
       </c>
       <c r="L289" s="9" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="M289" s="136" t="s">
-        <v>2575</v>
+        <v>2567</v>
       </c>
       <c r="N289" s="10"/>
     </row>
@@ -20628,7 +20629,7 @@
         <v>283001</v>
       </c>
       <c r="L290" s="9" t="s">
-        <v>2023</v>
+        <v>2581</v>
       </c>
       <c r="M290" s="9"/>
       <c r="N290" s="10"/>
@@ -20667,7 +20668,7 @@
         <v>68171009</v>
       </c>
       <c r="L291" s="44" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="M291" s="9" t="s">
         <v>2003</v>
@@ -20710,10 +20711,10 @@
         <v>68171009</v>
       </c>
       <c r="L292" s="9" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="M292" s="136" t="s">
-        <v>2576</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="293" spans="1:14" ht="51">
@@ -20752,10 +20753,10 @@
         <v>68171009</v>
       </c>
       <c r="L293" s="9" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="M293" s="136" t="s">
-        <v>2577</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="294" spans="1:14" ht="34">
@@ -20794,10 +20795,10 @@
         <v>68171009</v>
       </c>
       <c r="L294" s="9" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="M294" s="136" t="s">
-        <v>2578</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="295" spans="1:14" ht="51">
@@ -20836,10 +20837,10 @@
         <v>68171009</v>
       </c>
       <c r="L295" s="9" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="M295" s="136" t="s">
-        <v>2579</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="296" spans="1:14" ht="34">
@@ -20878,10 +20879,10 @@
         <v>68171009</v>
       </c>
       <c r="L296" s="9" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="M296" s="136" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="297" spans="1:14" ht="51">
@@ -20920,10 +20921,10 @@
         <v>68171009</v>
       </c>
       <c r="L297" s="9" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="M297" s="136" t="s">
-        <v>2580</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="298" spans="1:14" ht="51">
@@ -20962,10 +20963,10 @@
         <v>33770006</v>
       </c>
       <c r="L298" s="9" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="M298" s="136" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="299" spans="1:14" ht="51">
@@ -21004,10 +21005,10 @@
         <v>33770006</v>
       </c>
       <c r="L299" s="9" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="M299" s="136" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="300" spans="1:14" ht="34">
@@ -21034,7 +21035,7 @@
         <v>939</v>
       </c>
       <c r="I300" s="16" t="s">
-        <v>2490</v>
+        <v>2483</v>
       </c>
       <c r="J300" s="17">
         <v>233458</v>
@@ -21043,7 +21044,7 @@
         <v>33770006</v>
       </c>
       <c r="L300" s="9" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="M300" s="9"/>
       <c r="N300" s="10"/>
@@ -21084,7 +21085,7 @@
         <v>69691007</v>
       </c>
       <c r="L301" s="9" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="M301" s="9" t="s">
         <v>2003</v>
@@ -21127,10 +21128,10 @@
         <v>69691007</v>
       </c>
       <c r="L302" s="9" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="M302" s="9" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="N302" s="10"/>
     </row>
@@ -21167,7 +21168,7 @@
         <v>69691007</v>
       </c>
       <c r="L303" s="44" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="M303" s="9"/>
       <c r="N303" s="10"/>
@@ -21208,10 +21209,10 @@
         <v>68171009</v>
       </c>
       <c r="L304" s="44" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="M304" s="9" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="N304" s="10"/>
     </row>
@@ -21251,10 +21252,10 @@
         <v>12196003</v>
       </c>
       <c r="L305" s="9" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="M305" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N305" s="10"/>
     </row>
@@ -21294,10 +21295,10 @@
         <v>12196003</v>
       </c>
       <c r="L306" s="9" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="M306" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N306" s="10"/>
     </row>
@@ -21334,7 +21335,7 @@
         <v>12196003</v>
       </c>
       <c r="L307" s="44" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="M307" s="9"/>
       <c r="N307" s="10"/>
@@ -21373,10 +21374,10 @@
         <v>196821008</v>
       </c>
       <c r="L308" s="9" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="M308" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N308" s="10"/>
     </row>
@@ -21414,10 +21415,10 @@
         <v>196821008</v>
       </c>
       <c r="L309" s="9" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="M309" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N309" s="10"/>
     </row>
@@ -21452,7 +21453,7 @@
         <v>196821008</v>
       </c>
       <c r="L310" s="44" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="M310" s="9"/>
       <c r="N310" s="10"/>
@@ -21491,10 +21492,10 @@
         <v>279816002</v>
       </c>
       <c r="L311" s="44" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="M311" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N311" s="10"/>
     </row>
@@ -21532,10 +21533,10 @@
         <v>279816002</v>
       </c>
       <c r="L312" s="44" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="M312" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N312" s="10"/>
     </row>
@@ -21570,7 +21571,7 @@
         <v>279816002</v>
       </c>
       <c r="L313" s="44" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="M313" s="9"/>
       <c r="N313" s="10"/>
@@ -21606,7 +21607,7 @@
         <v>196751009</v>
       </c>
       <c r="L314" s="44" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="M314" s="9"/>
       <c r="N314" s="10"/>
@@ -21627,24 +21628,24 @@
         <v>12</v>
       </c>
       <c r="G315" s="30" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="H315" s="31" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="I315" s="32" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="J315" s="33"/>
       <c r="K315" s="112">
         <v>65349008</v>
       </c>
       <c r="L315" s="44" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="M315" s="9"/>
       <c r="N315" s="99" t="s">
-        <v>2506</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="316" spans="1:14" ht="51">
@@ -21663,24 +21664,24 @@
         <v>12</v>
       </c>
       <c r="G316" s="30" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="H316" s="31" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="I316" s="32" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="J316" s="33"/>
       <c r="K316" s="112">
         <v>245357003</v>
       </c>
       <c r="L316" s="44" t="s">
-        <v>2042</v>
+        <v>2582</v>
       </c>
       <c r="M316" s="9"/>
       <c r="N316" s="99" t="s">
-        <v>2506</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="317" spans="1:14" ht="51">
@@ -21699,24 +21700,24 @@
         <v>8</v>
       </c>
       <c r="G317" s="30" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="H317" s="31" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="I317" s="32" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="J317" s="33"/>
       <c r="K317" s="112">
         <v>84219008</v>
       </c>
       <c r="L317" s="44" t="s">
-        <v>2035</v>
+        <v>2583</v>
       </c>
       <c r="M317" s="9"/>
       <c r="N317" s="99" t="s">
-        <v>2506</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="318" spans="1:14" ht="51">
@@ -21753,10 +21754,10 @@
         <v>65349008</v>
       </c>
       <c r="L318" s="9" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="M318" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="319" spans="1:14" ht="51">
@@ -21793,10 +21794,10 @@
         <v>65349008</v>
       </c>
       <c r="L319" s="9" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="M319" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="320" spans="1:14" ht="51">
@@ -21833,10 +21834,10 @@
         <v>245299000</v>
       </c>
       <c r="L320" s="9" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="M320" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N320" s="97"/>
     </row>
@@ -21874,10 +21875,10 @@
         <v>245295006</v>
       </c>
       <c r="L321" s="105" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="M321" s="108" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
       <c r="N321" s="97"/>
     </row>
@@ -21915,13 +21916,13 @@
         <v>245295006</v>
       </c>
       <c r="L322" s="89" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="M322" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N322" s="94" t="s">
-        <v>2507</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="323" spans="1:14" ht="51">
@@ -21951,7 +21952,7 @@
         <v>1597</v>
       </c>
       <c r="I323" s="93" t="s">
-        <v>2568</v>
+        <v>2560</v>
       </c>
       <c r="J323" s="17">
         <v>5934</v>
@@ -21960,13 +21961,13 @@
         <v>245282001</v>
       </c>
       <c r="L323" s="44" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="M323" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N323" s="94" t="s">
-        <v>2508</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="324" spans="1:14" ht="51">
@@ -21996,7 +21997,7 @@
         <v>1594</v>
       </c>
       <c r="I324" s="93" t="s">
-        <v>2569</v>
+        <v>2561</v>
       </c>
       <c r="J324" s="17">
         <v>5933</v>
@@ -22005,10 +22006,10 @@
         <v>245282001</v>
       </c>
       <c r="L324" s="44" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="M324" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N324" s="10"/>
     </row>
@@ -22045,7 +22046,7 @@
         <v>245282001</v>
       </c>
       <c r="L325" s="44" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="M325" s="9"/>
       <c r="N325" s="10"/>
@@ -22081,7 +22082,7 @@
         <v>279763008</v>
       </c>
       <c r="L326" s="44" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="M326" s="9"/>
       <c r="N326" s="10"/>
@@ -22111,7 +22112,7 @@
         <v>910</v>
       </c>
       <c r="I327" s="16" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
       <c r="J327" s="17">
         <v>236341</v>
@@ -22120,10 +22121,10 @@
         <v>279763008</v>
       </c>
       <c r="L327" s="44" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="M327" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N327" s="10"/>
     </row>
@@ -22152,7 +22153,7 @@
         <v>909</v>
       </c>
       <c r="I328" s="16" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
       <c r="J328" s="17">
         <v>236339</v>
@@ -22161,10 +22162,10 @@
         <v>279763008</v>
       </c>
       <c r="L328" s="44" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="M328" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N328" s="10"/>
     </row>
@@ -22199,7 +22200,7 @@
         <v>64038003</v>
       </c>
       <c r="L329" s="44" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="M329" s="9"/>
       <c r="N329" s="10"/>
@@ -22238,10 +22239,10 @@
         <v>59441001</v>
       </c>
       <c r="L330" s="9" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="M330" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N330" s="10"/>
     </row>
@@ -22276,11 +22277,11 @@
         <v>127938006</v>
       </c>
       <c r="L331" s="106" t="s">
-        <v>2454</v>
+        <v>2447</v>
       </c>
       <c r="M331" s="56"/>
       <c r="N331" s="95" t="s">
-        <v>2509</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="332" spans="1:14" ht="51">
@@ -22317,10 +22318,10 @@
         <v>245299000</v>
       </c>
       <c r="L332" s="9" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="M332" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N332" s="10"/>
     </row>
@@ -22355,7 +22356,7 @@
         <v>62683002</v>
       </c>
       <c r="L333" s="44" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="M333" s="9"/>
       <c r="N333" s="10"/>
@@ -22378,23 +22379,23 @@
         <v>7</v>
       </c>
       <c r="G334" s="34" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="H334" s="35" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="I334" s="36" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="J334" s="37"/>
       <c r="K334" s="112">
         <v>81105003</v>
       </c>
       <c r="L334" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="N334" s="9" t="s">
-        <v>2460</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="335" spans="1:14" ht="34" customHeight="1">
@@ -22433,10 +22434,10 @@
         <v>81105003</v>
       </c>
       <c r="L335" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M335" s="9" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="336" spans="1:14" ht="34" customHeight="1">
@@ -22475,10 +22476,10 @@
         <v>81105003</v>
       </c>
       <c r="L336" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M336" s="9" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="337" spans="1:14" ht="51" customHeight="1">
@@ -22517,10 +22518,10 @@
         <v>81105003</v>
       </c>
       <c r="L337" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M337" s="134" t="s">
-        <v>2548</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="338" spans="1:14" ht="51" customHeight="1">
@@ -22559,10 +22560,10 @@
         <v>81105003</v>
       </c>
       <c r="L338" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M338" s="9" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="339" spans="1:14" ht="34" customHeight="1">
@@ -22601,10 +22602,10 @@
         <v>81105003</v>
       </c>
       <c r="L339" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M339" s="9" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
       <c r="N339" s="57"/>
     </row>
@@ -22644,10 +22645,10 @@
         <v>81105003</v>
       </c>
       <c r="L340" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M340" s="9" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="N340" s="72"/>
     </row>
@@ -22687,13 +22688,13 @@
         <v>81105003</v>
       </c>
       <c r="L341" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M341" s="105" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="N341" s="100" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="342" spans="1:14" ht="34" customHeight="1">
@@ -22732,13 +22733,13 @@
         <v>81105003</v>
       </c>
       <c r="L342" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M342" s="105" t="s">
-        <v>2521</v>
+        <v>2513</v>
       </c>
       <c r="N342" s="100" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="343" spans="1:14" ht="34" customHeight="1">
@@ -22777,13 +22778,13 @@
         <v>81105003</v>
       </c>
       <c r="L343" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M343" s="105" t="s">
-        <v>2522</v>
+        <v>2514</v>
       </c>
       <c r="N343" s="100" t="s">
-        <v>2511</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="344" spans="1:14" ht="34" customHeight="1">
@@ -22822,13 +22823,13 @@
         <v>81105003</v>
       </c>
       <c r="L344" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M344" s="105" t="s">
-        <v>2523</v>
+        <v>2515</v>
       </c>
       <c r="N344" s="100" t="s">
-        <v>2511</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="345" spans="1:14" ht="34" customHeight="1">
@@ -22867,10 +22868,10 @@
         <v>81105003</v>
       </c>
       <c r="L345" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M345" s="9" t="s">
-        <v>2305</v>
+        <v>2300</v>
       </c>
       <c r="N345" s="72"/>
     </row>
@@ -22910,10 +22911,10 @@
         <v>81105003</v>
       </c>
       <c r="L346" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M346" s="9" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
       <c r="N346" s="72"/>
     </row>
@@ -22953,10 +22954,10 @@
         <v>81105003</v>
       </c>
       <c r="L347" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M347" s="9" t="s">
-        <v>2307</v>
+        <v>2302</v>
       </c>
       <c r="N347" s="72"/>
     </row>
@@ -22996,10 +22997,10 @@
         <v>81105003</v>
       </c>
       <c r="L348" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M348" s="9" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
       <c r="N348" s="72"/>
     </row>
@@ -23039,10 +23040,10 @@
         <v>81105003</v>
       </c>
       <c r="L349" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M349" s="9" t="s">
-        <v>2310</v>
+        <v>2305</v>
       </c>
       <c r="N349" s="72"/>
     </row>
@@ -23082,10 +23083,10 @@
         <v>81105003</v>
       </c>
       <c r="L350" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M350" s="9" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
       <c r="N350" s="72"/>
     </row>
@@ -23125,10 +23126,10 @@
         <v>81105003</v>
       </c>
       <c r="L351" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M351" s="9" t="s">
-        <v>2311</v>
+        <v>2306</v>
       </c>
       <c r="N351" s="72"/>
     </row>
@@ -23168,10 +23169,10 @@
         <v>81105003</v>
       </c>
       <c r="L352" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M352" s="9" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
       <c r="N352" s="72"/>
     </row>
@@ -23209,10 +23210,10 @@
         <v>81105003</v>
       </c>
       <c r="L353" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M353" s="9" t="s">
-        <v>2313</v>
+        <v>2308</v>
       </c>
       <c r="N353" s="72"/>
     </row>
@@ -23250,10 +23251,10 @@
         <v>81105003</v>
       </c>
       <c r="L354" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M354" s="9" t="s">
-        <v>2314</v>
+        <v>2309</v>
       </c>
       <c r="N354" s="72"/>
     </row>
@@ -23293,10 +23294,10 @@
         <v>81105003</v>
       </c>
       <c r="L355" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M355" s="9" t="s">
-        <v>2315</v>
+        <v>2310</v>
       </c>
       <c r="N355" s="72"/>
     </row>
@@ -23336,10 +23337,10 @@
         <v>81105003</v>
       </c>
       <c r="L356" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M356" s="9" t="s">
-        <v>2316</v>
+        <v>2311</v>
       </c>
       <c r="N356" s="72"/>
     </row>
@@ -23379,10 +23380,10 @@
         <v>81105003</v>
       </c>
       <c r="L357" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M357" s="9" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="N357" s="72"/>
     </row>
@@ -23422,10 +23423,10 @@
         <v>81105003</v>
       </c>
       <c r="L358" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M358" s="9" t="s">
-        <v>2318</v>
+        <v>2313</v>
       </c>
       <c r="N358" s="72"/>
     </row>
@@ -23463,10 +23464,10 @@
         <v>81105003</v>
       </c>
       <c r="L359" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M359" s="9" t="s">
-        <v>2319</v>
+        <v>2314</v>
       </c>
       <c r="N359" s="72"/>
     </row>
@@ -23504,10 +23505,10 @@
         <v>81105003</v>
       </c>
       <c r="L360" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M360" s="103" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
       <c r="N360" s="72"/>
     </row>
@@ -23532,21 +23533,21 @@
         <v>14</v>
       </c>
       <c r="G361" s="12" t="s">
-        <v>2421</v>
+        <v>2416</v>
       </c>
       <c r="H361" s="38"/>
       <c r="I361" s="12" t="s">
-        <v>2421</v>
+        <v>2416</v>
       </c>
       <c r="J361" s="39"/>
       <c r="K361" s="112">
         <v>81105003</v>
       </c>
       <c r="L361" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M361" s="103" t="s">
-        <v>2525</v>
+        <v>2517</v>
       </c>
       <c r="N361" s="72"/>
     </row>
@@ -23571,24 +23572,24 @@
         <v>14</v>
       </c>
       <c r="G362" s="12" t="s">
-        <v>2422</v>
+        <v>2417</v>
       </c>
       <c r="H362" s="38"/>
       <c r="I362" s="12" t="s">
-        <v>2422</v>
+        <v>2417</v>
       </c>
       <c r="J362" s="39"/>
       <c r="K362" s="112">
         <v>81105003</v>
       </c>
       <c r="L362" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M362" s="9" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
       <c r="N362" s="40" t="s">
-        <v>2459</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="363" spans="1:14" ht="18" customHeight="1">
@@ -23609,21 +23610,21 @@
       </c>
       <c r="F363" s="13"/>
       <c r="G363" s="12" t="s">
-        <v>2401</v>
+        <v>2396</v>
       </c>
       <c r="H363" s="35"/>
       <c r="I363" s="12" t="s">
-        <v>2401</v>
+        <v>2396</v>
       </c>
       <c r="J363" s="39"/>
       <c r="K363" s="112">
         <v>81105003</v>
       </c>
       <c r="L363" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M363" s="9" t="s">
-        <v>2403</v>
+        <v>2398</v>
       </c>
       <c r="N363" s="40"/>
     </row>
@@ -23645,21 +23646,21 @@
       </c>
       <c r="F364" s="13"/>
       <c r="G364" s="12" t="s">
-        <v>2402</v>
+        <v>2397</v>
       </c>
       <c r="H364" s="35"/>
       <c r="I364" s="12" t="s">
-        <v>2402</v>
+        <v>2397</v>
       </c>
       <c r="J364" s="39"/>
       <c r="K364" s="112">
         <v>81105003</v>
       </c>
       <c r="L364" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M364" s="9" t="s">
-        <v>2404</v>
+        <v>2399</v>
       </c>
       <c r="N364" s="40"/>
     </row>
@@ -23681,21 +23682,21 @@
       </c>
       <c r="F365" s="13"/>
       <c r="G365" s="12" t="s">
-        <v>2405</v>
+        <v>2400</v>
       </c>
       <c r="H365" s="35"/>
       <c r="I365" s="12" t="s">
-        <v>2405</v>
+        <v>2400</v>
       </c>
       <c r="J365" s="39"/>
       <c r="K365" s="112">
         <v>81105003</v>
       </c>
       <c r="L365" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M365" s="9" t="s">
-        <v>2407</v>
+        <v>2402</v>
       </c>
       <c r="N365" s="40"/>
     </row>
@@ -23717,21 +23718,21 @@
       </c>
       <c r="F366" s="13"/>
       <c r="G366" s="12" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="H366" s="35"/>
       <c r="I366" s="12" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
       <c r="J366" s="39"/>
       <c r="K366" s="112">
         <v>81105003</v>
       </c>
       <c r="L366" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M366" s="9" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="N366" s="40"/>
     </row>
@@ -23753,21 +23754,21 @@
       </c>
       <c r="F367" s="13"/>
       <c r="G367" s="12" t="s">
-        <v>2414</v>
+        <v>2409</v>
       </c>
       <c r="H367" s="35"/>
       <c r="I367" s="12" t="s">
-        <v>2414</v>
+        <v>2409</v>
       </c>
       <c r="J367" s="39"/>
       <c r="K367" s="112">
         <v>81105003</v>
       </c>
       <c r="L367" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M367" s="9" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="N367" s="40"/>
     </row>
@@ -23789,21 +23790,21 @@
       </c>
       <c r="F368" s="13"/>
       <c r="G368" s="12" t="s">
-        <v>2415</v>
+        <v>2410</v>
       </c>
       <c r="H368" s="35"/>
       <c r="I368" s="12" t="s">
-        <v>2415</v>
+        <v>2410</v>
       </c>
       <c r="J368" s="39"/>
       <c r="K368" s="112">
         <v>81105003</v>
       </c>
       <c r="L368" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M368" s="9" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="N368" s="40"/>
     </row>
@@ -23825,21 +23826,21 @@
       </c>
       <c r="F369" s="13"/>
       <c r="G369" s="12" t="s">
-        <v>2416</v>
+        <v>2411</v>
       </c>
       <c r="H369" s="35"/>
       <c r="I369" s="12" t="s">
-        <v>2416</v>
+        <v>2411</v>
       </c>
       <c r="J369" s="39"/>
       <c r="K369" s="112">
         <v>81105003</v>
       </c>
       <c r="L369" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M369" s="9" t="s">
-        <v>2411</v>
+        <v>2406</v>
       </c>
       <c r="N369" s="40"/>
     </row>
@@ -23861,21 +23862,21 @@
       </c>
       <c r="F370" s="13"/>
       <c r="G370" s="12" t="s">
-        <v>2417</v>
+        <v>2412</v>
       </c>
       <c r="H370" s="35"/>
       <c r="I370" s="12" t="s">
-        <v>2417</v>
+        <v>2412</v>
       </c>
       <c r="J370" s="39"/>
       <c r="K370" s="112">
         <v>81105003</v>
       </c>
       <c r="L370" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M370" s="9" t="s">
-        <v>2413</v>
+        <v>2408</v>
       </c>
       <c r="N370" s="40"/>
     </row>
@@ -23897,21 +23898,21 @@
       </c>
       <c r="F371" s="13"/>
       <c r="G371" s="12" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="H371" s="35"/>
       <c r="I371" s="12" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="J371" s="39"/>
       <c r="K371" s="112">
         <v>81105003</v>
       </c>
       <c r="L371" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M371" s="9" t="s">
-        <v>2420</v>
+        <v>2415</v>
       </c>
       <c r="N371" s="40"/>
     </row>
@@ -23933,21 +23934,21 @@
       </c>
       <c r="F372" s="13"/>
       <c r="G372" s="12" t="s">
-        <v>2419</v>
+        <v>2414</v>
       </c>
       <c r="H372" s="35"/>
       <c r="I372" s="12" t="s">
-        <v>2419</v>
+        <v>2414</v>
       </c>
       <c r="J372" s="39"/>
       <c r="K372" s="112">
         <v>81105003</v>
       </c>
       <c r="L372" s="44" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="M372" s="9" t="s">
-        <v>2412</v>
+        <v>2407</v>
       </c>
       <c r="N372" s="40"/>
     </row>
@@ -23985,10 +23986,10 @@
         <v>36086000</v>
       </c>
       <c r="L373" s="44" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="M373" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N373" s="10"/>
     </row>
@@ -24026,10 +24027,10 @@
         <v>36086000</v>
       </c>
       <c r="L374" s="44" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="M374" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N374" s="10"/>
     </row>
@@ -24064,7 +24065,7 @@
         <v>35783009</v>
       </c>
       <c r="L375" s="44" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="M375" s="9"/>
       <c r="N375" s="10"/>
@@ -24103,10 +24104,10 @@
         <v>368550005</v>
       </c>
       <c r="L376" s="9" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="M376" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N376" s="10"/>
     </row>
@@ -24144,10 +24145,10 @@
         <v>368550005</v>
       </c>
       <c r="L377" s="9" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="M377" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N377" s="10"/>
     </row>
@@ -24182,7 +24183,7 @@
         <v>368550005</v>
       </c>
       <c r="L378" s="44" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="M378" s="9"/>
       <c r="N378" s="10"/>
@@ -24221,10 +24222,10 @@
         <v>82365008</v>
       </c>
       <c r="L379" s="44" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="M379" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N379" s="10"/>
     </row>
@@ -24262,10 +24263,10 @@
         <v>82365008</v>
       </c>
       <c r="L380" s="44" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="M380" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N380" s="10"/>
     </row>
@@ -24300,7 +24301,7 @@
         <v>82365008</v>
       </c>
       <c r="L381" s="44" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="M381" s="9"/>
       <c r="N381" s="10"/>
@@ -24337,10 +24338,10 @@
         <v>245294005</v>
       </c>
       <c r="L382" s="44" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="M382" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N382" s="10"/>
     </row>
@@ -24376,10 +24377,10 @@
         <v>245294005</v>
       </c>
       <c r="L383" s="44" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="M383" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N383" s="10"/>
     </row>
@@ -24412,7 +24413,7 @@
         <v>245294005</v>
       </c>
       <c r="L384" s="44" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="M384" s="9"/>
       <c r="N384" s="10"/>
@@ -24450,7 +24451,7 @@
         <v>245288002</v>
       </c>
       <c r="L385" s="9" t="s">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="M385" s="9"/>
       <c r="N385" s="10"/>
@@ -24488,7 +24489,7 @@
         <v>45206002</v>
       </c>
       <c r="L386" s="9" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
       <c r="M386" s="9"/>
       <c r="N386" s="10"/>
@@ -24527,10 +24528,10 @@
         <v>1187336003</v>
       </c>
       <c r="L387" s="9" t="s">
-        <v>2461</v>
+        <v>2454</v>
       </c>
       <c r="M387" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N387" s="10"/>
     </row>
@@ -24568,10 +24569,10 @@
         <v>1187336003</v>
       </c>
       <c r="L388" s="9" t="s">
-        <v>2461</v>
+        <v>2454</v>
       </c>
       <c r="M388" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N388" s="10"/>
     </row>
@@ -24609,10 +24610,10 @@
         <v>196662004</v>
       </c>
       <c r="L389" s="44" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="M389" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N389" s="10"/>
     </row>
@@ -24650,10 +24651,10 @@
         <v>196662004</v>
       </c>
       <c r="L390" s="44" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="M390" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N390" s="10"/>
     </row>
@@ -24688,7 +24689,7 @@
         <v>196662004</v>
       </c>
       <c r="L391" s="44" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="M391" s="9"/>
       <c r="N391" s="10"/>
@@ -24727,10 +24728,10 @@
         <v>59441001</v>
       </c>
       <c r="L392" s="58" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="M392" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N392" s="10"/>
     </row>
@@ -24770,10 +24771,10 @@
         <v>76838003</v>
       </c>
       <c r="L393" s="44" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="M393" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N393" s="10"/>
     </row>
@@ -24813,10 +24814,10 @@
         <v>76838003</v>
       </c>
       <c r="L394" s="44" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="M394" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N394" s="10"/>
     </row>
@@ -24851,7 +24852,7 @@
         <v>245283006</v>
       </c>
       <c r="L395" s="44" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="M395" s="9"/>
       <c r="N395" s="10"/>
@@ -24890,10 +24891,10 @@
         <v>245283006</v>
       </c>
       <c r="L396" s="44" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="M396" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N396" s="10"/>
     </row>
@@ -24931,10 +24932,10 @@
         <v>245283006</v>
       </c>
       <c r="L397" s="44" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="M397" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N397" s="10"/>
     </row>
@@ -24967,7 +24968,7 @@
         <v>84782009</v>
       </c>
       <c r="L398" s="9" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
       <c r="M398" s="9"/>
       <c r="N398" s="10"/>
@@ -25008,10 +25009,10 @@
         <v>83251001</v>
       </c>
       <c r="L399" s="9" t="s">
-        <v>2244</v>
+        <v>2239</v>
       </c>
       <c r="M399" s="5" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N399" s="10"/>
     </row>
@@ -25042,7 +25043,7 @@
         <v>844</v>
       </c>
       <c r="I400" s="16" t="s">
-        <v>2240</v>
+        <v>2235</v>
       </c>
       <c r="J400" s="17">
         <v>72969</v>
@@ -25051,10 +25052,10 @@
         <v>83251001</v>
       </c>
       <c r="L400" s="9" t="s">
-        <v>2244</v>
+        <v>2239</v>
       </c>
       <c r="M400" s="6" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N400" s="10"/>
     </row>
@@ -25089,7 +25090,7 @@
         <v>40958000</v>
       </c>
       <c r="L401" s="9" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
       <c r="M401" s="9"/>
       <c r="N401" s="10"/>
@@ -25130,10 +25131,10 @@
         <v>31065004</v>
       </c>
       <c r="L402" s="9" t="s">
-        <v>2245</v>
+        <v>2240</v>
       </c>
       <c r="M402" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N402" s="10"/>
     </row>
@@ -25173,10 +25174,10 @@
         <v>31065004</v>
       </c>
       <c r="L403" s="9" t="s">
-        <v>2245</v>
+        <v>2240</v>
       </c>
       <c r="M403" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N403" s="10"/>
     </row>
@@ -25213,7 +25214,7 @@
         <v>244453006</v>
       </c>
       <c r="L404" s="9" t="s">
-        <v>2330</v>
+        <v>2325</v>
       </c>
       <c r="M404" s="9"/>
       <c r="N404" s="10"/>
@@ -25254,10 +25255,10 @@
         <v>16630005</v>
       </c>
       <c r="L405" s="9" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
       <c r="M405" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N405" s="10"/>
     </row>
@@ -25297,10 +25298,10 @@
         <v>16630005</v>
       </c>
       <c r="L406" s="9" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
       <c r="M406" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N406" s="10"/>
     </row>
@@ -25337,7 +25338,7 @@
         <v>18234004</v>
       </c>
       <c r="L407" s="9" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
       <c r="M407" s="9"/>
       <c r="N407" s="10"/>
@@ -25378,10 +25379,10 @@
         <v>78277001</v>
       </c>
       <c r="L408" s="9" t="s">
-        <v>2247</v>
+        <v>2242</v>
       </c>
       <c r="M408" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N408" s="10"/>
     </row>
@@ -25421,10 +25422,10 @@
         <v>78277001</v>
       </c>
       <c r="L409" s="9" t="s">
-        <v>2247</v>
+        <v>2242</v>
       </c>
       <c r="M409" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N409" s="10"/>
     </row>
@@ -25462,10 +25463,10 @@
         <v>39607008</v>
       </c>
       <c r="L410" s="9" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
       <c r="M410" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N410" s="10"/>
     </row>
@@ -25503,10 +25504,10 @@
         <v>31094006</v>
       </c>
       <c r="L411" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="M411" s="9" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="N411" s="10"/>
     </row>
@@ -25544,10 +25545,10 @@
         <v>31094006</v>
       </c>
       <c r="L412" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="M412" s="9" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="N412" s="10"/>
     </row>
@@ -25585,10 +25586,10 @@
         <v>31094006</v>
       </c>
       <c r="L413" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="M413" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N413" s="10"/>
     </row>
@@ -25626,10 +25627,10 @@
         <v>31094006</v>
       </c>
       <c r="L414" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="M414" s="9" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="N414" s="10"/>
     </row>
@@ -25667,10 +25668,10 @@
         <v>31094006</v>
       </c>
       <c r="L415" s="9" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="M415" s="9" t="s">
-        <v>2194</v>
+        <v>2189</v>
       </c>
       <c r="N415" s="10"/>
     </row>
@@ -25708,10 +25709,10 @@
         <v>31094006</v>
       </c>
       <c r="L416" s="9" t="s">
+        <v>2185</v>
+      </c>
+      <c r="M416" s="9" t="s">
         <v>2190</v>
-      </c>
-      <c r="M416" s="9" t="s">
-        <v>2195</v>
       </c>
       <c r="N416" s="10"/>
     </row>
@@ -25749,10 +25750,10 @@
         <v>39607008</v>
       </c>
       <c r="L417" s="9" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
       <c r="M417" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N417" s="10"/>
     </row>
@@ -25789,7 +25790,7 @@
         <v>34080009</v>
       </c>
       <c r="L418" s="9" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="M418" s="9"/>
       <c r="N418" s="10"/>
@@ -25830,7 +25831,7 @@
         <v>34080009</v>
       </c>
       <c r="L419" s="9" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="M419" s="9"/>
       <c r="N419" s="10"/>
@@ -25871,7 +25872,7 @@
         <v>34080009</v>
       </c>
       <c r="L420" s="9" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="M420" s="9"/>
       <c r="N420" s="10"/>
@@ -25909,7 +25910,7 @@
         <v>70925003</v>
       </c>
       <c r="L421" s="9" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="M421" s="9"/>
       <c r="N421" s="10"/>
@@ -25950,7 +25951,7 @@
         <v>70925003</v>
       </c>
       <c r="L422" s="9" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="M422" s="9"/>
       <c r="N422" s="10"/>
@@ -25991,10 +25992,10 @@
         <v>70925003</v>
       </c>
       <c r="L423" s="9" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="M423" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N423" s="10"/>
     </row>
@@ -26031,10 +26032,10 @@
         <v>363654007</v>
       </c>
       <c r="L424" s="9" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
       <c r="M424" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N424" s="10"/>
     </row>
@@ -26071,10 +26072,10 @@
         <v>363654007</v>
       </c>
       <c r="L425" s="9" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
       <c r="M425" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N425" s="10"/>
     </row>
@@ -26111,7 +26112,7 @@
         <v>31389004</v>
       </c>
       <c r="L426" s="9" t="s">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="M426" s="9"/>
     </row>
@@ -26151,10 +26152,10 @@
         <v>4866005</v>
       </c>
       <c r="L427" s="9" t="s">
-        <v>2398</v>
+        <v>2393</v>
       </c>
       <c r="M427" s="9" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="N427" s="10"/>
     </row>
@@ -26194,10 +26195,10 @@
         <v>4866005</v>
       </c>
       <c r="L428" s="9" t="s">
-        <v>2398</v>
+        <v>2393</v>
       </c>
       <c r="M428" s="9" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="N428" s="10"/>
     </row>
@@ -26237,10 +26238,10 @@
         <v>4866005</v>
       </c>
       <c r="L429" s="9" t="s">
-        <v>2398</v>
+        <v>2393</v>
       </c>
       <c r="M429" s="9" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="N429" s="10"/>
     </row>
@@ -26280,10 +26281,10 @@
         <v>52410001</v>
       </c>
       <c r="L430" s="9" t="s">
-        <v>2427</v>
+        <v>2422</v>
       </c>
       <c r="M430" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N430" s="10"/>
     </row>
@@ -26323,10 +26324,10 @@
         <v>52410001</v>
       </c>
       <c r="L431" s="9" t="s">
-        <v>2427</v>
+        <v>2422</v>
       </c>
       <c r="M431" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N431" s="10"/>
     </row>
@@ -26361,10 +26362,10 @@
         <v>15497006</v>
       </c>
       <c r="L432" s="9" t="s">
-        <v>2347</v>
+        <v>2342</v>
       </c>
       <c r="M432" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N432" s="10"/>
     </row>
@@ -26404,7 +26405,7 @@
         <v>79368004</v>
       </c>
       <c r="L433" s="9" t="s">
-        <v>2399</v>
+        <v>2394</v>
       </c>
       <c r="M433" s="9"/>
       <c r="N433" s="10"/>
@@ -26445,7 +26446,7 @@
         <v>79368004</v>
       </c>
       <c r="L434" s="9" t="s">
-        <v>2399</v>
+        <v>2394</v>
       </c>
       <c r="M434" s="9"/>
       <c r="N434" s="10"/>
@@ -26486,10 +26487,10 @@
         <v>18252004</v>
       </c>
       <c r="L435" s="9" t="s">
-        <v>2428</v>
+        <v>2423</v>
       </c>
       <c r="M435" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N435" s="10"/>
     </row>
@@ -26529,10 +26530,10 @@
         <v>18252004</v>
       </c>
       <c r="L436" s="9" t="s">
-        <v>2428</v>
+        <v>2423</v>
       </c>
       <c r="M436" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N436" s="10"/>
     </row>
@@ -26570,13 +26571,13 @@
         <v>76738006</v>
       </c>
       <c r="L437" s="89" t="s">
-        <v>2429</v>
+        <v>2424</v>
       </c>
       <c r="M437" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N437" s="98" t="s">
-        <v>2512</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="438" spans="1:14" ht="34">
@@ -26613,10 +26614,10 @@
         <v>76738006</v>
       </c>
       <c r="L438" s="9" t="s">
-        <v>2429</v>
+        <v>2424</v>
       </c>
       <c r="M438" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N438" s="10"/>
     </row>
@@ -26656,10 +26657,10 @@
         <v>22823000</v>
       </c>
       <c r="L439" s="9" t="s">
-        <v>2430</v>
+        <v>2425</v>
       </c>
       <c r="M439" s="5" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N439" s="10"/>
     </row>
@@ -26690,7 +26691,7 @@
         <v>1578</v>
       </c>
       <c r="I440" s="16" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
       <c r="J440" s="17">
         <v>13408</v>
@@ -26699,10 +26700,10 @@
         <v>22823000</v>
       </c>
       <c r="L440" s="9" t="s">
-        <v>2430</v>
+        <v>2425</v>
       </c>
       <c r="M440" s="6" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N440" s="10"/>
     </row>
@@ -26742,10 +26743,10 @@
         <v>52927003</v>
       </c>
       <c r="L441" s="9" t="s">
-        <v>2400</v>
+        <v>2395</v>
       </c>
       <c r="M441" s="5" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N441" s="10"/>
     </row>
@@ -26782,7 +26783,7 @@
         <v>49460000</v>
       </c>
       <c r="L442" s="9" t="s">
-        <v>2431</v>
+        <v>2426</v>
       </c>
       <c r="M442" s="41"/>
       <c r="N442" s="10"/>
@@ -26823,10 +26824,10 @@
         <v>46607005</v>
       </c>
       <c r="L443" s="9" t="s">
-        <v>2344</v>
+        <v>2339</v>
       </c>
       <c r="M443" s="5" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="N443" s="10"/>
     </row>
@@ -26866,10 +26867,10 @@
         <v>46607005</v>
       </c>
       <c r="L444" s="9" t="s">
-        <v>2344</v>
+        <v>2339</v>
       </c>
       <c r="M444" s="6" t="s">
-        <v>2343</v>
+        <v>2338</v>
       </c>
       <c r="N444" s="10"/>
     </row>
@@ -26906,7 +26907,7 @@
         <v>15776009</v>
       </c>
       <c r="L445" s="9" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
       <c r="M445" s="9"/>
       <c r="N445" s="10"/>
@@ -26944,7 +26945,7 @@
         <v>64163001</v>
       </c>
       <c r="L446" s="9" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="M446" s="9"/>
       <c r="N446" s="10"/>
@@ -26982,7 +26983,7 @@
         <v>73239005</v>
       </c>
       <c r="L447" s="9" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
       <c r="M447" s="9"/>
       <c r="N447" s="10"/>
@@ -27018,7 +27019,7 @@
         <v>45682005</v>
       </c>
       <c r="L448" s="9" t="s">
-        <v>2348</v>
+        <v>2343</v>
       </c>
       <c r="M448" s="9"/>
       <c r="N448" s="10"/>
@@ -27056,10 +27057,10 @@
         <v>45289007</v>
       </c>
       <c r="L449" s="9" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="M449" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N449" s="10"/>
     </row>
@@ -27094,7 +27095,7 @@
         <v>52737000</v>
       </c>
       <c r="L450" s="9" t="s">
-        <v>2349</v>
+        <v>2344</v>
       </c>
       <c r="M450" s="9"/>
       <c r="N450" s="10"/>
@@ -27126,7 +27127,7 @@
         <v>1579</v>
       </c>
       <c r="I451" s="16" t="s">
-        <v>2331</v>
+        <v>2326</v>
       </c>
       <c r="J451" s="17">
         <v>50878</v>
@@ -27135,10 +27136,10 @@
         <v>18234004</v>
       </c>
       <c r="L451" s="9" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
       <c r="M451" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N451" s="10"/>
     </row>
@@ -27169,7 +27170,7 @@
         <v>1555</v>
       </c>
       <c r="I452" s="16" t="s">
-        <v>2332</v>
+        <v>2327</v>
       </c>
       <c r="J452" s="17">
         <v>50875</v>
@@ -27178,10 +27179,10 @@
         <v>18234004</v>
       </c>
       <c r="L452" s="9" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
       <c r="M452" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N452" s="10"/>
     </row>
@@ -27216,10 +27217,10 @@
         <v>18911002</v>
       </c>
       <c r="L453" s="9" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="M453" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N453" s="10"/>
     </row>
@@ -27256,7 +27257,7 @@
         <v>76848001</v>
       </c>
       <c r="L454" s="9" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
       <c r="M454" s="9"/>
       <c r="N454" s="10"/>
@@ -27292,7 +27293,7 @@
         <v>38864007</v>
       </c>
       <c r="L455" s="9" t="s">
-        <v>2345</v>
+        <v>2340</v>
       </c>
       <c r="M455" s="9"/>
       <c r="N455" s="10"/>
@@ -27330,7 +27331,7 @@
         <v>118762006</v>
       </c>
       <c r="L456" s="9" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
       <c r="M456" s="9"/>
       <c r="N456" s="10"/>
@@ -27369,10 +27370,10 @@
         <v>15497006</v>
       </c>
       <c r="L457" s="9" t="s">
-        <v>2347</v>
+        <v>2342</v>
       </c>
       <c r="M457" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N457" s="10"/>
     </row>
@@ -27410,10 +27411,10 @@
         <v>15497006</v>
       </c>
       <c r="L458" s="9" t="s">
-        <v>2347</v>
+        <v>2342</v>
       </c>
       <c r="M458" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N458" s="10"/>
     </row>
@@ -27446,7 +27447,7 @@
         <v>14106009</v>
       </c>
       <c r="L459" s="9" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="M459" s="9"/>
       <c r="N459" s="10"/>
@@ -27484,7 +27485,7 @@
         <v>54066008</v>
       </c>
       <c r="L460" s="9" t="s">
-        <v>2370</v>
+        <v>2365</v>
       </c>
       <c r="M460" s="9"/>
       <c r="N460" s="10"/>
@@ -27519,11 +27520,11 @@
         <v>110822002</v>
       </c>
       <c r="L461" s="9" t="s">
-        <v>2441</v>
+        <v>2435</v>
       </c>
       <c r="M461" s="9"/>
       <c r="N461" s="97" t="s">
-        <v>2502</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="462" spans="1:14" ht="13.5" customHeight="1">
@@ -27559,7 +27560,7 @@
         <v>45793000</v>
       </c>
       <c r="L462" s="9" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="M462" s="9"/>
       <c r="N462" s="10"/>
@@ -27572,7 +27573,7 @@
         <v>649</v>
       </c>
       <c r="D463" s="12" t="s">
-        <v>2500</v>
+        <v>2492</v>
       </c>
       <c r="E463" s="12" t="s">
         <v>697</v>
@@ -27597,7 +27598,7 @@
         <v>56329008</v>
       </c>
       <c r="L463" s="9" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
       <c r="M463" s="9"/>
       <c r="N463" s="10"/>
@@ -27635,11 +27636,11 @@
         <v>49557009</v>
       </c>
       <c r="L464" s="9" t="s">
-        <v>2248</v>
+        <v>2243</v>
       </c>
       <c r="M464" s="9"/>
       <c r="N464" s="94" t="s">
-        <v>2499</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="465" spans="1:14" ht="17">
@@ -27675,7 +27676,7 @@
         <v>41216001</v>
       </c>
       <c r="L465" s="9" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="M465" s="9"/>
       <c r="N465" s="10"/>
@@ -27716,10 +27717,10 @@
         <v>45289007</v>
       </c>
       <c r="L466" s="9" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="M466" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N466" s="10"/>
     </row>
@@ -27759,10 +27760,10 @@
         <v>45289007</v>
       </c>
       <c r="L467" s="9" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="M467" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N467" s="10"/>
     </row>
@@ -27797,11 +27798,11 @@
         <v>1162492000</v>
       </c>
       <c r="L468" s="89" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="M468" s="9"/>
       <c r="N468" s="88" t="s">
-        <v>2483</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="469" spans="1:14" ht="51">
@@ -27837,10 +27838,10 @@
         <v>88938001</v>
       </c>
       <c r="L469" s="9" t="s">
-        <v>2423</v>
+        <v>2418</v>
       </c>
       <c r="M469" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N469" s="10"/>
     </row>
@@ -27877,10 +27878,10 @@
         <v>88938001</v>
       </c>
       <c r="L470" s="9" t="s">
-        <v>2423</v>
+        <v>2418</v>
       </c>
       <c r="M470" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N470" s="10"/>
     </row>
@@ -27917,10 +27918,10 @@
         <v>85002005</v>
       </c>
       <c r="L471" s="9" t="s">
-        <v>2424</v>
+        <v>2419</v>
       </c>
       <c r="M471" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N471" s="10"/>
     </row>
@@ -27957,10 +27958,10 @@
         <v>85002005</v>
       </c>
       <c r="L472" s="9" t="s">
-        <v>2424</v>
+        <v>2419</v>
       </c>
       <c r="M472" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N472" s="10"/>
     </row>
@@ -27995,7 +27996,7 @@
         <v>511000202101</v>
       </c>
       <c r="L473" s="9" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
       <c r="M473" s="9"/>
       <c r="N473" s="10"/>
@@ -28031,7 +28032,7 @@
         <v>34402009</v>
       </c>
       <c r="L474" s="9" t="s">
-        <v>2352</v>
+        <v>2347</v>
       </c>
       <c r="M474" s="9"/>
       <c r="N474" s="10"/>
@@ -28069,7 +28070,7 @@
         <v>62397004</v>
       </c>
       <c r="L475" s="9" t="s">
-        <v>2334</v>
+        <v>2329</v>
       </c>
       <c r="M475" s="9"/>
       <c r="N475" s="10"/>
@@ -28105,7 +28106,7 @@
         <v>41695006</v>
       </c>
       <c r="L476" s="9" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="M476" s="9"/>
       <c r="N476" s="10"/>
@@ -28146,10 +28147,10 @@
         <v>67183008</v>
       </c>
       <c r="L477" s="9" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="M477" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N477" s="10"/>
     </row>
@@ -28189,10 +28190,10 @@
         <v>67183008</v>
       </c>
       <c r="L478" s="9" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="M478" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N478" s="10"/>
     </row>
@@ -28232,10 +28233,10 @@
         <v>124002</v>
       </c>
       <c r="L479" s="9" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="M479" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N479" s="10"/>
     </row>
@@ -28275,10 +28276,10 @@
         <v>124002</v>
       </c>
       <c r="L480" s="9" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="M480" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N480" s="10"/>
     </row>
@@ -28311,7 +28312,7 @@
         <v>12402003</v>
       </c>
       <c r="L481" s="9" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="M481" s="9"/>
       <c r="N481" s="10"/>
@@ -28338,18 +28339,18 @@
         <v>1684</v>
       </c>
       <c r="I482" s="16" t="s">
-        <v>2549</v>
+        <v>2541</v>
       </c>
       <c r="J482" s="17"/>
       <c r="K482" s="115">
         <v>12402003</v>
       </c>
       <c r="L482" s="89" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="M482" s="9"/>
       <c r="N482" s="88" t="s">
-        <v>2484</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="483" spans="1:14" ht="51">
@@ -28383,7 +28384,7 @@
         <v>20233005</v>
       </c>
       <c r="L483" s="9" t="s">
-        <v>2363</v>
+        <v>2358</v>
       </c>
       <c r="M483" s="9"/>
       <c r="N483" s="10"/>
@@ -28419,7 +28420,7 @@
         <v>64739004</v>
       </c>
       <c r="L484" s="9" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="M484" s="9"/>
       <c r="N484" s="10"/>
@@ -28453,10 +28454,10 @@
         <v>64739004</v>
       </c>
       <c r="L485" s="9" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="M485" s="9" t="s">
-        <v>2200</v>
+        <v>2195</v>
       </c>
       <c r="N485" s="10"/>
     </row>
@@ -28489,10 +28490,10 @@
         <v>64739004</v>
       </c>
       <c r="L486" s="9" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="M486" s="9" t="s">
-        <v>2201</v>
+        <v>2196</v>
       </c>
       <c r="N486" s="10"/>
     </row>
@@ -28529,7 +28530,7 @@
         <v>54215007</v>
       </c>
       <c r="L487" s="9" t="s">
-        <v>2353</v>
+        <v>2348</v>
       </c>
       <c r="M487" s="9"/>
       <c r="N487" s="10"/>
@@ -28567,7 +28568,7 @@
         <v>82561000</v>
       </c>
       <c r="L488" s="9" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="M488" s="9"/>
       <c r="N488" s="10"/>
@@ -28608,10 +28609,10 @@
         <v>82561000</v>
       </c>
       <c r="L489" s="89" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="M489" s="89" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N489" s="10"/>
     </row>
@@ -28651,10 +28652,10 @@
         <v>82561000</v>
       </c>
       <c r="L490" s="90" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="M490" s="89" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N490" s="10"/>
     </row>
@@ -28694,10 +28695,10 @@
         <v>62413002</v>
       </c>
       <c r="L491" s="44" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="M491" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N491" s="10"/>
     </row>
@@ -28737,10 +28738,10 @@
         <v>62413002</v>
       </c>
       <c r="L492" s="44" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="M492" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N492" s="10"/>
     </row>
@@ -28777,7 +28778,7 @@
         <v>55060009</v>
       </c>
       <c r="L493" s="9" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
       <c r="M493" s="9"/>
       <c r="N493" s="10"/>
@@ -28815,7 +28816,7 @@
         <v>15924003</v>
       </c>
       <c r="L494" s="9" t="s">
-        <v>2354</v>
+        <v>2349</v>
       </c>
       <c r="M494" s="9"/>
       <c r="N494" s="10"/>
@@ -28856,10 +28857,10 @@
         <v>5665001</v>
       </c>
       <c r="L495" s="9" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
       <c r="M495" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N495" s="10"/>
     </row>
@@ -28899,10 +28900,10 @@
         <v>5665001</v>
       </c>
       <c r="L496" s="9" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
       <c r="M496" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N496" s="10"/>
     </row>
@@ -28942,13 +28943,13 @@
         <v>5665001</v>
       </c>
       <c r="L497" s="89" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
       <c r="M497" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N497" s="98" t="s">
-        <v>2513</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="498" spans="1:14" ht="17">
@@ -28984,7 +28985,7 @@
         <v>113197003</v>
       </c>
       <c r="L498" s="9" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="M498" s="9"/>
       <c r="N498" s="10"/>
@@ -29025,10 +29026,10 @@
         <v>48535007</v>
       </c>
       <c r="L499" s="9" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="M499" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N499" s="10"/>
     </row>
@@ -29068,10 +29069,10 @@
         <v>48535007</v>
       </c>
       <c r="L500" s="9" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="M500" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N500" s="10"/>
     </row>
@@ -29111,10 +29112,10 @@
         <v>78247007</v>
       </c>
       <c r="L501" s="9" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
       <c r="M501" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N501" s="10"/>
     </row>
@@ -29154,10 +29155,10 @@
         <v>78247007</v>
       </c>
       <c r="L502" s="9" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
       <c r="M502" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N502" s="10"/>
     </row>
@@ -29197,10 +29198,10 @@
         <v>25888004</v>
       </c>
       <c r="L503" s="9" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="M503" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N503" s="10"/>
     </row>
@@ -29240,10 +29241,10 @@
         <v>25888004</v>
       </c>
       <c r="L504" s="9" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="M504" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N504" s="10"/>
     </row>
@@ -29283,10 +29284,10 @@
         <v>25523003</v>
       </c>
       <c r="L505" s="9" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
       <c r="M505" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N505" s="10"/>
     </row>
@@ -29326,10 +29327,10 @@
         <v>25523003</v>
       </c>
       <c r="L506" s="9" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
       <c r="M506" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N506" s="10"/>
     </row>
@@ -29369,10 +29370,10 @@
         <v>15339008</v>
       </c>
       <c r="L507" s="9" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
       <c r="M507" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N507" s="10"/>
     </row>
@@ -29412,10 +29413,10 @@
         <v>15339008</v>
       </c>
       <c r="L508" s="9" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
       <c r="M508" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N508" s="10"/>
     </row>
@@ -29455,10 +29456,10 @@
         <v>59558009</v>
       </c>
       <c r="L509" s="9" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="M509" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N509" s="10"/>
     </row>
@@ -29498,10 +29499,10 @@
         <v>59558009</v>
       </c>
       <c r="L510" s="9" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="M510" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N510" s="10"/>
     </row>
@@ -29541,10 +29542,10 @@
         <v>24915002</v>
       </c>
       <c r="L511" s="9" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="M511" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N511" s="10"/>
     </row>
@@ -29584,10 +29585,10 @@
         <v>24915002</v>
       </c>
       <c r="L512" s="9" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="M512" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N512" s="10"/>
     </row>
@@ -29627,10 +29628,10 @@
         <v>5953002</v>
       </c>
       <c r="L513" s="9" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
       <c r="M513" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N513" s="10"/>
     </row>
@@ -29670,10 +29671,10 @@
         <v>5953002</v>
       </c>
       <c r="L514" s="9" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
       <c r="M514" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N514" s="10"/>
     </row>
@@ -29713,10 +29714,10 @@
         <v>22565002</v>
       </c>
       <c r="L515" s="9" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
       <c r="M515" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N515" s="10"/>
     </row>
@@ -29756,10 +29757,10 @@
         <v>22565002</v>
       </c>
       <c r="L516" s="9" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
       <c r="M516" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N516" s="10"/>
     </row>
@@ -29799,10 +29800,10 @@
         <v>77644006</v>
       </c>
       <c r="L517" s="9" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="M517" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N517" s="10"/>
     </row>
@@ -29842,10 +29843,10 @@
         <v>77644006</v>
       </c>
       <c r="L518" s="9" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="M518" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N518" s="10"/>
     </row>
@@ -29885,10 +29886,10 @@
         <v>58830002</v>
       </c>
       <c r="L519" s="9" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="M519" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N519" s="10"/>
     </row>
@@ -29928,10 +29929,10 @@
         <v>58830002</v>
       </c>
       <c r="L520" s="9" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="M520" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N520" s="10"/>
     </row>
@@ -29971,10 +29972,10 @@
         <v>43993008</v>
       </c>
       <c r="L521" s="9" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="M521" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N521" s="10"/>
     </row>
@@ -30014,10 +30015,10 @@
         <v>43993008</v>
       </c>
       <c r="L522" s="9" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="M522" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N522" s="10"/>
     </row>
@@ -30052,14 +30053,14 @@
         <v>39937001</v>
       </c>
       <c r="L523" s="9" t="s">
-        <v>2364</v>
+        <v>2359</v>
       </c>
       <c r="M523" s="9"/>
       <c r="N523" s="10"/>
     </row>
     <row r="524" spans="1:14" ht="34">
       <c r="A524" s="59" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="B524" s="11" t="s">
         <v>700</v>
@@ -30078,13 +30079,13 @@
         <v>7</v>
       </c>
       <c r="G524" s="12" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="H524" s="15" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="I524" s="16" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="J524" s="17">
         <v>8534</v>
@@ -30093,18 +30094,18 @@
         <v>1193560003</v>
       </c>
       <c r="L524" s="9" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="M524" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N524" s="130" t="s">
-        <v>2539</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="525" spans="1:14" ht="34">
       <c r="A525" s="59" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="B525" s="11" t="s">
         <v>700</v>
@@ -30123,13 +30124,13 @@
         <v>7</v>
       </c>
       <c r="G525" s="12" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="H525" s="15" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="I525" s="16" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="J525" s="17">
         <v>8533</v>
@@ -30138,13 +30139,13 @@
         <v>1193560003</v>
       </c>
       <c r="L525" s="9" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="M525" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N525" s="130" t="s">
-        <v>2539</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="526" spans="1:14" ht="17">
@@ -30169,7 +30170,7 @@
         <v>1868</v>
       </c>
       <c r="I526" s="16" t="s">
-        <v>2550</v>
+        <v>2542</v>
       </c>
       <c r="J526" s="17">
         <v>20429</v>
@@ -30178,7 +30179,7 @@
         <v>48014002</v>
       </c>
       <c r="L526" s="9" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="M526" s="9"/>
       <c r="N526" s="130"/>
@@ -30219,10 +30220,10 @@
         <v>79601000</v>
       </c>
       <c r="L527" s="9" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="M527" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N527" s="10"/>
     </row>
@@ -30262,10 +30263,10 @@
         <v>79601000</v>
       </c>
       <c r="L528" s="9" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="M528" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N528" s="10"/>
     </row>
@@ -30291,14 +30292,14 @@
         <v>1870</v>
       </c>
       <c r="I529" s="16" t="s">
-        <v>2551</v>
+        <v>2543</v>
       </c>
       <c r="J529" s="17"/>
       <c r="K529" s="112">
         <v>75093004</v>
       </c>
       <c r="L529" s="9" t="s">
-        <v>2473</v>
+        <v>2466</v>
       </c>
       <c r="M529" s="9"/>
       <c r="N529" s="10"/>
@@ -30331,14 +30332,14 @@
       </c>
       <c r="J530" s="17"/>
       <c r="K530" s="132" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
       <c r="L530" s="9" t="s">
-        <v>2468</v>
+        <v>2461</v>
       </c>
       <c r="M530" s="9"/>
       <c r="N530" s="133" t="s">
-        <v>2544</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="531" spans="1:14" ht="34">
@@ -30363,18 +30364,18 @@
         <v>1641</v>
       </c>
       <c r="I531" s="16" t="s">
-        <v>2493</v>
+        <v>2486</v>
       </c>
       <c r="J531" s="17"/>
       <c r="K531" s="132" t="s">
-        <v>2543</v>
+        <v>2535</v>
       </c>
       <c r="L531" s="9" t="s">
-        <v>2469</v>
+        <v>2462</v>
       </c>
       <c r="M531" s="9"/>
       <c r="N531" s="133" t="s">
-        <v>2544</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="532" spans="1:14" ht="34">
@@ -30408,7 +30409,7 @@
         <v>789564000</v>
       </c>
       <c r="L532" s="9" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
       <c r="M532" s="9"/>
       <c r="N532" s="46"/>
@@ -30444,11 +30445,11 @@
         <v>1193554003</v>
       </c>
       <c r="L533" s="9" t="s">
-        <v>2471</v>
+        <v>2464</v>
       </c>
       <c r="M533" s="9"/>
       <c r="N533" s="125" t="s">
-        <v>2470</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="534" spans="1:14" ht="34">
@@ -30484,10 +30485,10 @@
         <v>76838003</v>
       </c>
       <c r="L534" s="90" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="M534" s="89" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N534" s="46"/>
     </row>
@@ -30524,10 +30525,10 @@
         <v>76838003</v>
       </c>
       <c r="L535" s="90" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="M535" s="89" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N535" s="47"/>
     </row>
@@ -30567,10 +30568,10 @@
         <v>55060009</v>
       </c>
       <c r="L536" s="9" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
       <c r="M536" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N536" s="10"/>
     </row>
@@ -30610,10 +30611,10 @@
         <v>55060009</v>
       </c>
       <c r="L537" s="9" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
       <c r="M537" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N537" s="10"/>
     </row>
@@ -30650,7 +30651,7 @@
         <v>41178004</v>
       </c>
       <c r="L538" s="9" t="s">
-        <v>2326</v>
+        <v>2321</v>
       </c>
       <c r="M538" s="9"/>
       <c r="N538" s="10"/>
@@ -30691,10 +30692,10 @@
         <v>15924003</v>
       </c>
       <c r="L539" s="9" t="s">
-        <v>2354</v>
+        <v>2349</v>
       </c>
       <c r="M539" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N539" s="10"/>
     </row>
@@ -30734,10 +30735,10 @@
         <v>15924003</v>
       </c>
       <c r="L540" s="9" t="s">
-        <v>2354</v>
+        <v>2349</v>
       </c>
       <c r="M540" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N540" s="10"/>
     </row>
@@ -30774,7 +30775,7 @@
         <v>61853006</v>
       </c>
       <c r="L541" s="9" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
       <c r="M541" s="9"/>
       <c r="N541" s="10"/>
@@ -30815,10 +30816,10 @@
         <v>24999009</v>
       </c>
       <c r="L542" s="9" t="s">
-        <v>2443</v>
+        <v>2437</v>
       </c>
       <c r="M542" s="9" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="543" spans="1:14" ht="34">
@@ -30857,10 +30858,10 @@
         <v>24999009</v>
       </c>
       <c r="L543" s="9" t="s">
-        <v>2443</v>
+        <v>2437</v>
       </c>
       <c r="M543" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="544" spans="1:14" ht="17">
@@ -30896,7 +30897,7 @@
         <v>2748008</v>
       </c>
       <c r="L544" s="9" t="s">
-        <v>2335</v>
+        <v>2330</v>
       </c>
       <c r="M544" s="9"/>
       <c r="N544" s="10"/>
@@ -30934,7 +30935,7 @@
         <v>54785003</v>
       </c>
       <c r="L545" s="9" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
       <c r="M545" s="9"/>
       <c r="N545" s="10"/>
@@ -30972,7 +30973,7 @@
         <v>60051002</v>
       </c>
       <c r="L546" s="9" t="s">
-        <v>2338</v>
+        <v>2333</v>
       </c>
       <c r="M546" s="9"/>
       <c r="N546" s="10"/>
@@ -31010,7 +31011,7 @@
         <v>89546000</v>
       </c>
       <c r="L547" s="9" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="M547" s="9"/>
       <c r="N547" s="10"/>
@@ -31048,7 +31049,7 @@
         <v>11478001</v>
       </c>
       <c r="L548" s="9" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
       <c r="M548" s="9"/>
       <c r="N548" s="10"/>
@@ -31086,7 +31087,7 @@
         <v>50800009</v>
       </c>
       <c r="L549" s="9" t="s">
-        <v>2339</v>
+        <v>2334</v>
       </c>
       <c r="M549" s="9"/>
       <c r="N549" s="10"/>
@@ -31122,7 +31123,7 @@
         <v>25270003</v>
       </c>
       <c r="L550" s="9" t="s">
-        <v>2355</v>
+        <v>2350</v>
       </c>
       <c r="M550" s="9"/>
       <c r="N550" s="10"/>
@@ -31161,13 +31162,13 @@
         <v>789564000</v>
       </c>
       <c r="L551" s="9" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
       <c r="M551" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N551" s="94" t="s">
-        <v>2514</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="552" spans="1:14" ht="34">
@@ -31204,13 +31205,13 @@
         <v>789564000</v>
       </c>
       <c r="L552" s="9" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
       <c r="M552" s="9" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
       <c r="N552" s="94" t="s">
-        <v>2514</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="553" spans="1:14" ht="17">
@@ -31246,7 +31247,7 @@
         <v>22718006</v>
       </c>
       <c r="L553" s="9" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
       <c r="M553" s="9"/>
       <c r="N553" s="10"/>
@@ -31282,7 +31283,7 @@
         <v>69695003</v>
       </c>
       <c r="L554" s="9" t="s">
-        <v>2368</v>
+        <v>2363</v>
       </c>
       <c r="M554" s="9"/>
       <c r="N554" s="10"/>
@@ -31321,13 +31322,13 @@
         <v>1193554003</v>
       </c>
       <c r="L555" s="9" t="s">
-        <v>2471</v>
+        <v>2464</v>
       </c>
       <c r="M555" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N555" s="129" t="s">
-        <v>2470</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="556" spans="1:14" ht="34">
@@ -31364,13 +31365,13 @@
         <v>1193554003</v>
       </c>
       <c r="L556" s="9" t="s">
-        <v>2471</v>
+        <v>2464</v>
       </c>
       <c r="M556" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N556" s="129" t="s">
-        <v>2470</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="557" spans="1:14" ht="34">
@@ -31402,7 +31403,7 @@
         <v>75415000</v>
       </c>
       <c r="L557" s="9" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="M557" s="9"/>
       <c r="N557" s="10"/>
@@ -31421,20 +31422,20 @@
         <v>10</v>
       </c>
       <c r="G558" s="92" t="s">
-        <v>2535</v>
+        <v>2527</v>
       </c>
       <c r="H558" s="15" t="s">
         <v>1872</v>
       </c>
       <c r="I558" s="27" t="s">
-        <v>2552</v>
+        <v>2544</v>
       </c>
       <c r="J558" s="12"/>
       <c r="K558" s="111">
         <v>67548002</v>
       </c>
       <c r="L558" s="9" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="M558" s="9"/>
       <c r="N558" s="102"/>
@@ -31453,20 +31454,20 @@
         <v>10</v>
       </c>
       <c r="G559" s="92" t="s">
-        <v>2536</v>
+        <v>2528</v>
       </c>
       <c r="H559" s="15" t="s">
         <v>1872</v>
       </c>
       <c r="I559" s="27" t="s">
-        <v>2553</v>
+        <v>2545</v>
       </c>
       <c r="J559" s="12"/>
       <c r="K559" s="111">
         <v>13014005</v>
       </c>
       <c r="L559" s="103" t="s">
-        <v>2538</v>
+        <v>2530</v>
       </c>
       <c r="M559" s="9"/>
       <c r="N559" s="102"/>
@@ -31493,7 +31494,7 @@
         <v>1889</v>
       </c>
       <c r="I560" s="27" t="s">
-        <v>2477</v>
+        <v>2470</v>
       </c>
       <c r="J560" s="13">
         <v>242787</v>
@@ -31502,7 +31503,7 @@
         <v>8997002</v>
       </c>
       <c r="L560" s="71" t="s">
-        <v>2476</v>
+        <v>2469</v>
       </c>
       <c r="M560" s="9"/>
       <c r="N560" s="10"/>
@@ -31538,7 +31539,7 @@
         <v>13024002</v>
       </c>
       <c r="L561" s="9" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="M561" s="9"/>
       <c r="N561" s="10"/>
@@ -31565,7 +31566,7 @@
         <v>1849</v>
       </c>
       <c r="I562" s="27" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="J562" s="13">
         <v>46900</v>
@@ -31574,7 +31575,7 @@
         <v>70567001</v>
       </c>
       <c r="L562" s="9" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
       <c r="M562" s="9"/>
       <c r="N562" s="10"/>
@@ -31612,10 +31613,10 @@
         <v>40689003</v>
       </c>
       <c r="L563" s="9" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
       <c r="M563" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N563" s="10"/>
     </row>
@@ -31652,7 +31653,7 @@
         <v>37554007</v>
       </c>
       <c r="L564" s="89" t="s">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="M564" s="9"/>
     </row>
@@ -31689,7 +31690,7 @@
         <v>1732005</v>
       </c>
       <c r="L565" s="9" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
       <c r="M565" s="9"/>
       <c r="N565" s="10"/>
@@ -31727,7 +31728,7 @@
         <v>78961009</v>
       </c>
       <c r="L566" s="44" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="M566" s="9"/>
       <c r="N566" s="10"/>
@@ -31765,7 +31766,7 @@
         <v>35378004</v>
       </c>
       <c r="L567" s="44" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="M567" s="9"/>
       <c r="N567" s="10"/>
@@ -31803,7 +31804,7 @@
         <v>21974007</v>
       </c>
       <c r="L568" s="9" t="s">
-        <v>2425</v>
+        <v>2420</v>
       </c>
       <c r="M568" s="9"/>
       <c r="N568" s="10"/>
@@ -31832,14 +31833,14 @@
         <v>1717</v>
       </c>
       <c r="I569" s="16" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="J569" s="19"/>
       <c r="K569" s="112">
         <v>181226008</v>
       </c>
       <c r="L569" s="9" t="s">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="M569" s="9"/>
       <c r="N569" s="10"/>
@@ -31880,7 +31881,7 @@
         <v>22718006</v>
       </c>
       <c r="L570" s="9" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
       <c r="M570" s="9"/>
       <c r="N570" s="10"/>
@@ -31921,7 +31922,7 @@
         <v>22718006</v>
       </c>
       <c r="L571" s="9" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
       <c r="M571" s="9"/>
       <c r="N571" s="10"/>
@@ -31950,7 +31951,7 @@
         <v>1719</v>
       </c>
       <c r="I572" s="16" t="s">
-        <v>2556</v>
+        <v>2548</v>
       </c>
       <c r="J572" s="17">
         <v>54645</v>
@@ -31959,11 +31960,11 @@
         <v>47975008</v>
       </c>
       <c r="L572" s="9" t="s">
-        <v>2445</v>
+        <v>2439</v>
       </c>
       <c r="M572" s="9"/>
       <c r="N572" s="94" t="s">
-        <v>2485</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="573" spans="1:14" ht="17">
@@ -31990,7 +31991,7 @@
         <v>1725</v>
       </c>
       <c r="I573" s="16" t="s">
-        <v>2557</v>
+        <v>2549</v>
       </c>
       <c r="J573" s="17">
         <v>54644</v>
@@ -31999,11 +32000,11 @@
         <v>61344008</v>
       </c>
       <c r="L573" s="105" t="s">
-        <v>2527</v>
+        <v>2519</v>
       </c>
       <c r="M573" s="9"/>
       <c r="N573" s="97" t="s">
-        <v>2501</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="574" spans="1:14" ht="17">
@@ -32030,7 +32031,7 @@
         <v>1721</v>
       </c>
       <c r="I574" s="16" t="s">
-        <v>2558</v>
+        <v>2550</v>
       </c>
       <c r="J574" s="17">
         <v>281502</v>
@@ -32039,13 +32040,13 @@
         <v>61344008</v>
       </c>
       <c r="L574" s="105" t="s">
-        <v>2527</v>
+        <v>2519</v>
       </c>
       <c r="M574" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N574" s="97" t="s">
-        <v>2501</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="575" spans="1:14" ht="17">
@@ -32081,7 +32082,7 @@
         <v>44567001</v>
       </c>
       <c r="L575" s="9" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="M575" s="9"/>
       <c r="N575" s="94"/>
@@ -32117,10 +32118,10 @@
         <v>44567001</v>
       </c>
       <c r="L576" s="9" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="M576" s="9" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="N576" s="94"/>
     </row>
@@ -32156,10 +32157,10 @@
         <v>87953007</v>
       </c>
       <c r="L577" s="9" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="M577" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N577" s="94"/>
     </row>
@@ -32196,7 +32197,7 @@
         <v>13648007</v>
       </c>
       <c r="L578" s="9" t="s">
-        <v>2378</v>
+        <v>2373</v>
       </c>
       <c r="M578" s="9"/>
       <c r="N578" s="94"/>
@@ -32232,7 +32233,7 @@
         <v>71553001</v>
       </c>
       <c r="L579" s="9" t="s">
-        <v>2379</v>
+        <v>2374</v>
       </c>
       <c r="M579" s="9"/>
       <c r="N579" s="94"/>
@@ -32273,10 +32274,10 @@
         <v>40689003</v>
       </c>
       <c r="L580" s="9" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
       <c r="M580" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N580" s="94"/>
     </row>
@@ -32316,10 +32317,10 @@
         <v>40689003</v>
       </c>
       <c r="L581" s="9" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
       <c r="M581" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N581" s="94"/>
     </row>
@@ -32356,7 +32357,7 @@
         <v>35039007</v>
       </c>
       <c r="L582" s="9" t="s">
-        <v>2357</v>
+        <v>2352</v>
       </c>
       <c r="M582" s="9"/>
       <c r="N582" s="94"/>
@@ -32394,7 +32395,7 @@
         <v>72107004</v>
       </c>
       <c r="L583" s="9" t="s">
-        <v>2380</v>
+        <v>2375</v>
       </c>
       <c r="M583" s="9"/>
       <c r="N583" s="94"/>
@@ -32432,10 +32433,10 @@
         <v>8887007</v>
       </c>
       <c r="L584" s="9" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="M584" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N584" s="94"/>
     </row>
@@ -32472,10 +32473,10 @@
         <v>8887007</v>
       </c>
       <c r="L585" s="9" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="M585" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N585" s="94"/>
     </row>
@@ -32512,10 +32513,10 @@
         <v>63507001</v>
       </c>
       <c r="L586" s="9" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
       <c r="M586" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N586" s="94"/>
     </row>
@@ -32546,17 +32547,17 @@
         <v>1727</v>
       </c>
       <c r="I587" s="16" t="s">
-        <v>2556</v>
+        <v>2548</v>
       </c>
       <c r="J587" s="17"/>
       <c r="K587" s="111">
         <v>47975008</v>
       </c>
       <c r="L587" s="9" t="s">
-        <v>2445</v>
+        <v>2439</v>
       </c>
       <c r="M587" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N587" s="94"/>
     </row>
@@ -32587,17 +32588,17 @@
         <v>1729</v>
       </c>
       <c r="I588" s="16" t="s">
-        <v>2556</v>
+        <v>2548</v>
       </c>
       <c r="J588" s="17"/>
       <c r="K588" s="111">
         <v>47975008</v>
       </c>
       <c r="L588" s="9" t="s">
-        <v>2445</v>
+        <v>2439</v>
       </c>
       <c r="M588" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N588" s="94"/>
     </row>
@@ -32634,10 +32635,10 @@
         <v>63507001</v>
       </c>
       <c r="L589" s="9" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
       <c r="M589" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N589" s="94"/>
     </row>
@@ -32674,10 +32675,10 @@
         <v>40300007</v>
       </c>
       <c r="L590" s="9" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
       <c r="M590" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N590" s="94"/>
     </row>
@@ -32708,7 +32709,7 @@
         <v>1723</v>
       </c>
       <c r="I591" s="16" t="s">
-        <v>2559</v>
+        <v>2551</v>
       </c>
       <c r="J591" s="17">
         <v>281500</v>
@@ -32717,13 +32718,13 @@
         <v>61344008</v>
       </c>
       <c r="L591" s="105" t="s">
-        <v>2527</v>
+        <v>2519</v>
       </c>
       <c r="M591" s="96" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N591" s="97" t="s">
-        <v>2501</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="592" spans="1:14" ht="17">
@@ -32762,7 +32763,7 @@
         <v>75573002</v>
       </c>
       <c r="L592" s="9" t="s">
-        <v>2426</v>
+        <v>2421</v>
       </c>
       <c r="M592" s="9"/>
       <c r="N592" s="94"/>
@@ -32800,10 +32801,10 @@
         <v>40300007</v>
       </c>
       <c r="L593" s="9" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
       <c r="M593" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N593" s="94"/>
     </row>
@@ -32840,10 +32841,10 @@
         <v>46027005</v>
       </c>
       <c r="L594" s="9" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="M594" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N594" s="10"/>
     </row>
@@ -32876,7 +32877,7 @@
         <v>1162492000</v>
       </c>
       <c r="L595" s="9" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="M595" s="9"/>
       <c r="N595" s="10"/>
@@ -32917,10 +32918,10 @@
         <v>87953007</v>
       </c>
       <c r="L596" s="9" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="M596" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N596" s="10"/>
     </row>
@@ -32960,10 +32961,10 @@
         <v>87953007</v>
       </c>
       <c r="L597" s="9" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="M597" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N597" s="10"/>
     </row>
@@ -33000,10 +33001,10 @@
         <v>46027005</v>
       </c>
       <c r="L598" s="9" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="M598" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N598" s="10"/>
     </row>
@@ -33031,7 +33032,7 @@
         <v>1516</v>
       </c>
       <c r="I599" s="16" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
       <c r="J599" s="17">
         <v>13112</v>
@@ -33040,10 +33041,10 @@
         <v>71585003</v>
       </c>
       <c r="L599" s="44" t="s">
-        <v>2388</v>
+        <v>2383</v>
       </c>
       <c r="M599" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N599" s="10"/>
     </row>
@@ -33071,7 +33072,7 @@
         <v>1518</v>
       </c>
       <c r="I600" s="16" t="s">
-        <v>2387</v>
+        <v>2382</v>
       </c>
       <c r="J600" s="17">
         <v>13111</v>
@@ -33080,10 +33081,10 @@
         <v>71585003</v>
       </c>
       <c r="L600" s="44" t="s">
-        <v>2388</v>
+        <v>2383</v>
       </c>
       <c r="M600" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N600" s="10"/>
     </row>
@@ -33111,7 +33112,7 @@
         <v>1899</v>
       </c>
       <c r="I601" s="16" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
       <c r="J601" s="17">
         <v>4754</v>
@@ -33120,10 +33121,10 @@
         <v>12123001</v>
       </c>
       <c r="L601" s="9" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="M601" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N601" s="10"/>
     </row>
@@ -33151,7 +33152,7 @@
         <v>1202</v>
       </c>
       <c r="I602" s="16" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
       <c r="J602" s="17">
         <v>4762</v>
@@ -33160,10 +33161,10 @@
         <v>12123001</v>
       </c>
       <c r="L602" s="9" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="M602" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N602" s="10"/>
     </row>
@@ -33200,7 +33201,7 @@
         <v>32764006</v>
       </c>
       <c r="L603" s="9" t="s">
-        <v>2389</v>
+        <v>2384</v>
       </c>
       <c r="M603" s="9"/>
       <c r="N603" s="10"/>
@@ -33238,7 +33239,7 @@
         <v>430757002</v>
       </c>
       <c r="L604" s="9" t="s">
-        <v>2390</v>
+        <v>2385</v>
       </c>
       <c r="M604" s="9"/>
       <c r="N604" s="10"/>
@@ -33276,7 +33277,7 @@
         <v>9454009</v>
       </c>
       <c r="L605" s="9" t="s">
-        <v>2391</v>
+        <v>2386</v>
       </c>
       <c r="M605" s="9"/>
       <c r="N605" s="10"/>
@@ -33314,10 +33315,10 @@
         <v>35532006</v>
       </c>
       <c r="L606" s="9" t="s">
-        <v>2392</v>
+        <v>2387</v>
       </c>
       <c r="M606" s="9" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="N606" s="10"/>
     </row>
@@ -33354,10 +33355,10 @@
         <v>35532006</v>
       </c>
       <c r="L607" s="9" t="s">
-        <v>2392</v>
+        <v>2387</v>
       </c>
       <c r="M607" s="9" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="N607" s="10"/>
     </row>
@@ -33394,7 +33395,7 @@
         <v>76784001</v>
       </c>
       <c r="L608" s="9" t="s">
-        <v>2358</v>
+        <v>2353</v>
       </c>
       <c r="M608" s="9"/>
       <c r="N608" s="10"/>
@@ -33423,14 +33424,14 @@
         <v>1873</v>
       </c>
       <c r="I609" s="16" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="J609" s="17"/>
       <c r="K609" s="111">
         <v>279894000</v>
       </c>
       <c r="L609" s="9" t="s">
-        <v>2446</v>
+        <v>2440</v>
       </c>
       <c r="M609" s="9"/>
     </row>
@@ -33464,8 +33465,8 @@
       <c r="K610" s="111">
         <v>438074005</v>
       </c>
-      <c r="L610" s="9" t="s">
-        <v>2447</v>
+      <c r="L610" s="136" t="s">
+        <v>2576</v>
       </c>
       <c r="M610" s="9"/>
     </row>
@@ -33498,7 +33499,7 @@
         <v>17401000</v>
       </c>
       <c r="L611" s="89" t="s">
-        <v>2474</v>
+        <v>2467</v>
       </c>
       <c r="M611" s="9"/>
       <c r="N611" s="10"/>
@@ -33534,7 +33535,7 @@
         <v>63190004</v>
       </c>
       <c r="L612" s="9" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="M612" s="9"/>
       <c r="N612" s="10"/>
@@ -33572,7 +33573,7 @@
         <v>91134007</v>
       </c>
       <c r="L613" s="9" t="s">
-        <v>2393</v>
+        <v>2388</v>
       </c>
       <c r="M613" s="9"/>
       <c r="N613" s="10"/>
@@ -33608,7 +33609,7 @@
         <v>39057004</v>
       </c>
       <c r="L614" s="9" t="s">
-        <v>2394</v>
+        <v>2389</v>
       </c>
       <c r="M614" s="9"/>
       <c r="N614" s="10"/>
@@ -33646,7 +33647,7 @@
         <v>46030003</v>
       </c>
       <c r="L615" s="9" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="M615" s="9"/>
       <c r="N615" s="10"/>
@@ -33684,7 +33685,7 @@
         <v>21814001</v>
       </c>
       <c r="L616" s="9" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
       <c r="M616" s="9"/>
       <c r="N616" s="10"/>
@@ -33722,10 +33723,10 @@
         <v>21814001</v>
       </c>
       <c r="L617" s="9" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
       <c r="M617" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N617" s="10"/>
     </row>
@@ -33762,10 +33763,10 @@
         <v>21814001</v>
       </c>
       <c r="L618" s="9" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
       <c r="M618" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N618" s="10"/>
     </row>
@@ -33805,10 +33806,10 @@
         <v>9454009</v>
       </c>
       <c r="L619" s="9" t="s">
-        <v>2391</v>
+        <v>2386</v>
       </c>
       <c r="M619" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N619" s="10"/>
     </row>
@@ -33848,10 +33849,10 @@
         <v>9454009</v>
       </c>
       <c r="L620" s="9" t="s">
-        <v>2391</v>
+        <v>2386</v>
       </c>
       <c r="M620" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N620" s="10"/>
     </row>
@@ -33886,10 +33887,10 @@
         <v>46105003</v>
       </c>
       <c r="L621" s="9" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="M621" s="9" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="N621" s="10"/>
     </row>
@@ -33926,7 +33927,7 @@
         <v>45292006</v>
       </c>
       <c r="L622" s="9" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
       <c r="M622" s="9"/>
       <c r="N622" s="10"/>
@@ -33964,7 +33965,7 @@
         <v>263355003</v>
       </c>
       <c r="L623" s="9" t="s">
-        <v>2360</v>
+        <v>2355</v>
       </c>
       <c r="M623" s="9"/>
       <c r="N623" s="10"/>
@@ -33999,8 +34000,8 @@
       <c r="K624" s="122">
         <v>38266002</v>
       </c>
-      <c r="L624" s="89" t="s">
-        <v>2498</v>
+      <c r="L624" s="137" t="s">
+        <v>2577</v>
       </c>
       <c r="M624" s="9"/>
       <c r="N624" s="10"/>
@@ -34036,7 +34037,7 @@
         <v>75330005</v>
       </c>
       <c r="L625" s="71" t="s">
-        <v>2478</v>
+        <v>2471</v>
       </c>
       <c r="M625" s="9"/>
     </row>
@@ -34073,7 +34074,7 @@
         <v>52940008</v>
       </c>
       <c r="L626" s="60" t="s">
-        <v>2253</v>
+        <v>2248</v>
       </c>
       <c r="M626" s="9"/>
       <c r="N626" s="10"/>
@@ -34100,14 +34101,14 @@
         <v>1887</v>
       </c>
       <c r="I627" s="27" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="J627" s="12"/>
       <c r="K627" s="115">
         <v>15328005</v>
       </c>
       <c r="L627" s="89" t="s">
-        <v>2250</v>
+        <v>2245</v>
       </c>
       <c r="M627" s="9"/>
       <c r="N627" s="10"/>
@@ -34145,7 +34146,7 @@
         <v>34202007</v>
       </c>
       <c r="L628" s="9" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="M628" s="9"/>
       <c r="N628" s="10"/>
@@ -34183,7 +34184,7 @@
         <v>1172006</v>
       </c>
       <c r="L629" s="9" t="s">
-        <v>2448</v>
+        <v>2441</v>
       </c>
       <c r="M629" s="9"/>
     </row>
@@ -34216,10 +34217,10 @@
         <v>123037004</v>
       </c>
       <c r="L630" s="9" t="s">
-        <v>2449</v>
+        <v>2442</v>
       </c>
       <c r="M630" s="74" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="631" spans="2:14" ht="17">
@@ -34253,7 +34254,7 @@
         <v>3572006</v>
       </c>
       <c r="L631" s="9" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="M631" s="9"/>
       <c r="N631" s="10"/>
@@ -34291,7 +34292,7 @@
         <v>3572006</v>
       </c>
       <c r="L632" s="9" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="M632" s="9"/>
       <c r="N632" s="10"/>
@@ -34329,7 +34330,7 @@
         <v>14806007</v>
       </c>
       <c r="L633" s="9" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="M633" s="9"/>
       <c r="N633" s="10"/>
@@ -34367,7 +34368,7 @@
         <v>39976000</v>
       </c>
       <c r="L634" s="9" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
       <c r="M634" s="9"/>
       <c r="N634" s="10"/>
@@ -34405,7 +34406,7 @@
         <v>91116008</v>
       </c>
       <c r="L635" s="9" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="M635" s="9"/>
       <c r="N635" s="10"/>
@@ -34443,7 +34444,7 @@
         <v>14705001</v>
       </c>
       <c r="L636" s="9" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
       <c r="M636" s="9"/>
       <c r="N636" s="10"/>
@@ -34481,7 +34482,7 @@
         <v>67479001</v>
       </c>
       <c r="L637" s="9" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="M637" s="9"/>
       <c r="N637" s="10"/>
@@ -34519,7 +34520,7 @@
         <v>88298007</v>
       </c>
       <c r="L638" s="9" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="M638" s="9"/>
       <c r="N638" s="10"/>
@@ -34557,7 +34558,7 @@
         <v>16126006</v>
       </c>
       <c r="L639" s="9" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
       <c r="M639" s="9"/>
       <c r="N639" s="10"/>
@@ -34595,7 +34596,7 @@
         <v>73903008</v>
       </c>
       <c r="L640" s="9" t="s">
-        <v>2150</v>
+        <v>2145</v>
       </c>
       <c r="M640" s="9"/>
       <c r="N640" s="10"/>
@@ -34633,7 +34634,7 @@
         <v>61032001</v>
       </c>
       <c r="L641" s="9" t="s">
-        <v>2153</v>
+        <v>2148</v>
       </c>
       <c r="M641" s="9"/>
       <c r="N641" s="10"/>
@@ -34671,7 +34672,7 @@
         <v>53983007</v>
       </c>
       <c r="L642" s="9" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
       <c r="M642" s="9"/>
       <c r="N642" s="10"/>
@@ -34709,7 +34710,7 @@
         <v>55492004</v>
       </c>
       <c r="L643" s="9" t="s">
-        <v>2155</v>
+        <v>2150</v>
       </c>
       <c r="M643" s="9"/>
       <c r="N643" s="10"/>
@@ -34747,7 +34748,7 @@
         <v>71996003</v>
       </c>
       <c r="L644" s="9" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
       <c r="M644" s="9"/>
       <c r="N644" s="10"/>
@@ -34785,7 +34786,7 @@
         <v>21799000</v>
       </c>
       <c r="L645" s="9" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="M645" s="9"/>
       <c r="N645" s="10"/>
@@ -34823,7 +34824,7 @@
         <v>87141009</v>
       </c>
       <c r="L646" s="9" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
       <c r="M646" s="9"/>
       <c r="N646" s="10"/>
@@ -34861,7 +34862,7 @@
         <v>65985001</v>
       </c>
       <c r="L647" s="9" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="M647" s="9"/>
       <c r="N647" s="10"/>
@@ -34899,7 +34900,7 @@
         <v>11808007</v>
       </c>
       <c r="L648" s="9" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
       <c r="M648" s="9"/>
       <c r="N648" s="10"/>
@@ -34937,7 +34938,7 @@
         <v>49967005</v>
       </c>
       <c r="L649" s="9" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
       <c r="M649" s="9"/>
       <c r="N649" s="10"/>
@@ -34975,7 +34976,7 @@
         <v>69950008</v>
       </c>
       <c r="L650" s="9" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="M650" s="9"/>
       <c r="N650" s="10"/>
@@ -35013,7 +35014,7 @@
         <v>21452006</v>
       </c>
       <c r="L651" s="9" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
       <c r="M651" s="9"/>
       <c r="N651" s="10"/>
@@ -35051,7 +35052,7 @@
         <v>35769007</v>
       </c>
       <c r="L652" s="9" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="M652" s="9"/>
       <c r="N652" s="10"/>
@@ -35089,7 +35090,7 @@
         <v>56094003</v>
       </c>
       <c r="L653" s="9" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="M653" s="9"/>
       <c r="N653" s="10"/>
@@ -35127,7 +35128,7 @@
         <v>50060007</v>
       </c>
       <c r="L654" s="9" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="M654" s="9"/>
       <c r="N654" s="10"/>
@@ -35165,7 +35166,7 @@
         <v>73138009</v>
       </c>
       <c r="L655" s="9" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="M655" s="9"/>
       <c r="N655" s="10"/>
@@ -35203,7 +35204,7 @@
         <v>86197001</v>
       </c>
       <c r="L656" s="9" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="M656" s="9"/>
       <c r="N656" s="10"/>
@@ -35241,7 +35242,7 @@
         <v>6105006</v>
       </c>
       <c r="L657" s="9" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="M657" s="9"/>
       <c r="N657" s="10"/>
@@ -35279,7 +35280,7 @@
         <v>32430008</v>
       </c>
       <c r="L658" s="9" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="M658" s="9"/>
       <c r="N658" s="10"/>
@@ -35317,7 +35318,7 @@
         <v>71737002</v>
       </c>
       <c r="L659" s="9" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="M659" s="9"/>
       <c r="N659" s="10"/>
@@ -35355,7 +35356,7 @@
         <v>77435000</v>
       </c>
       <c r="L660" s="9" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="M660" s="9"/>
       <c r="N660" s="10"/>
@@ -35393,7 +35394,7 @@
         <v>33766003</v>
       </c>
       <c r="L661" s="9" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="M661" s="9"/>
       <c r="N661" s="10"/>
@@ -35431,7 +35432,7 @@
         <v>48405002</v>
       </c>
       <c r="L662" s="9" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="M662" s="9"/>
       <c r="N662" s="10"/>
@@ -35469,7 +35470,7 @@
         <v>52120002</v>
       </c>
       <c r="L663" s="9" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="M663" s="9"/>
       <c r="N663" s="10"/>
@@ -35507,7 +35508,7 @@
         <v>280849005</v>
       </c>
       <c r="L664" s="9" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="M664" s="9"/>
       <c r="N664" s="10"/>
@@ -35536,20 +35537,20 @@
         <v>1237</v>
       </c>
       <c r="I665" s="16" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="J665" s="17" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="K665" s="128">
         <v>1186895000</v>
       </c>
       <c r="L665" s="9" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="M665" s="9"/>
       <c r="N665" s="129" t="s">
-        <v>2467</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="666" spans="1:14" ht="34">
@@ -35585,13 +35586,13 @@
         <v>3572006</v>
       </c>
       <c r="L666" s="89" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="M666" s="107" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="N666" s="10" t="s">
-        <v>2450</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="667" spans="1:14" ht="17">
@@ -35627,11 +35628,11 @@
         <v>1187337007</v>
       </c>
       <c r="L667" s="9" t="s">
-        <v>2466</v>
+        <v>2459</v>
       </c>
       <c r="M667" s="9"/>
       <c r="N667" s="10" t="s">
-        <v>2465</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="668" spans="1:14" ht="17">
@@ -35667,7 +35668,7 @@
         <v>35763008</v>
       </c>
       <c r="L668" s="9" t="s">
-        <v>2451</v>
+        <v>2444</v>
       </c>
       <c r="M668" s="9"/>
     </row>
@@ -35696,7 +35697,7 @@
         <v>1743</v>
       </c>
       <c r="I669" s="16" t="s">
-        <v>2561</v>
+        <v>2553</v>
       </c>
       <c r="J669" s="17">
         <v>55459</v>
@@ -35705,10 +35706,10 @@
         <v>46105003</v>
       </c>
       <c r="L669" s="9" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="M669" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N669" s="10"/>
     </row>
@@ -35737,7 +35738,7 @@
         <v>1745</v>
       </c>
       <c r="I670" s="16" t="s">
-        <v>2562</v>
+        <v>2554</v>
       </c>
       <c r="J670" s="17">
         <v>55458</v>
@@ -35746,10 +35747,10 @@
         <v>46105003</v>
       </c>
       <c r="L670" s="9" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="M670" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N670" s="10"/>
     </row>
@@ -35769,26 +35770,26 @@
         <v>12</v>
       </c>
       <c r="G671" s="48" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="H671" s="49" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="I671" s="50" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="J671" s="51" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="K671" s="123">
         <v>1187336003</v>
       </c>
       <c r="L671" s="61" t="s">
-        <v>2461</v>
+        <v>2454</v>
       </c>
       <c r="M671" s="62"/>
       <c r="N671" s="127" t="s">
-        <v>2541</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="672" spans="1:14" ht="17">
@@ -35824,7 +35825,7 @@
         <v>87166008</v>
       </c>
       <c r="L672" s="44" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="673" spans="2:12" ht="17">
@@ -35860,7 +35861,7 @@
         <v>24999009</v>
       </c>
       <c r="L673" s="44" t="s">
-        <v>2452</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="674" spans="2:12" ht="17">
@@ -35892,7 +35893,7 @@
         <v>123037004</v>
       </c>
       <c r="L674" s="44" t="s">
-        <v>2449</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="675" spans="2:12">
@@ -36624,19 +36625,19 @@
         <v>736</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>2457</v>
+        <v>2450</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>2458</v>
+        <v>2451</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>2456</v>
+        <v>2449</v>
       </c>
       <c r="N1" s="67" t="s">
-        <v>2488</v>
+        <v>2481</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2482</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="84" customHeight="1">
@@ -36672,10 +36673,10 @@
       <c r="K2" s="77"/>
       <c r="L2" s="78"/>
       <c r="M2" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="N2" s="75" t="s">
-        <v>2492</v>
+        <v>2485</v>
       </c>
       <c r="O2" s="74"/>
     </row>
@@ -36712,10 +36713,10 @@
       <c r="K3" s="77"/>
       <c r="L3" s="78"/>
       <c r="M3" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N3" s="75" t="s">
-        <v>2489</v>
+        <v>2482</v>
       </c>
       <c r="O3" s="74"/>
     </row>
@@ -36749,7 +36750,7 @@
       <c r="L4" s="79"/>
       <c r="M4" s="9"/>
       <c r="N4" s="80" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -36782,7 +36783,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="9"/>
       <c r="N5" s="80" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
       <c r="O5" s="2"/>
     </row>
@@ -36814,7 +36815,7 @@
       <c r="L6" s="79"/>
       <c r="M6" s="9"/>
       <c r="N6" s="80" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
       <c r="O6" s="2"/>
     </row>
@@ -36848,7 +36849,7 @@
       <c r="L7" s="79"/>
       <c r="M7" s="9"/>
       <c r="N7" s="80" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -36880,7 +36881,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="80" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
       <c r="O8" s="2"/>
     </row>
@@ -36916,13 +36917,13 @@
       </c>
       <c r="K9" s="70"/>
       <c r="L9" s="91" t="s">
-        <v>2479</v>
+        <v>2472</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>2463</v>
+        <v>2456</v>
       </c>
       <c r="N9" s="80" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
       <c r="O9" s="2"/>
     </row>
@@ -36958,13 +36959,13 @@
       </c>
       <c r="K10" s="70"/>
       <c r="L10" s="44" t="s">
-        <v>2479</v>
+        <v>2472</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>2462</v>
+        <v>2455</v>
       </c>
       <c r="N10" s="80" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -36998,13 +36999,13 @@
       </c>
       <c r="K11" s="70"/>
       <c r="L11" s="82" t="s">
-        <v>2479</v>
+        <v>2472</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>2464</v>
+        <v>2457</v>
       </c>
       <c r="N11" s="80" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -37034,11 +37035,11 @@
       <c r="J12" s="12"/>
       <c r="K12" s="69"/>
       <c r="L12" s="74" t="s">
-        <v>2495</v>
+        <v>2488</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="80" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -37070,11 +37071,11 @@
       <c r="J13" s="19"/>
       <c r="K13" s="69"/>
       <c r="L13" s="103" t="s">
-        <v>2496</v>
+        <v>2489</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="80" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
       <c r="O13" s="2"/>
     </row>
@@ -37108,7 +37109,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="75" t="s">
-        <v>2491</v>
+        <v>2484</v>
       </c>
       <c r="O14" s="74"/>
     </row>
@@ -37137,14 +37138,14 @@
       <c r="I15" s="27"/>
       <c r="J15" s="12"/>
       <c r="K15" s="69" t="s">
-        <v>2369</v>
+        <v>2364</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>2369</v>
+        <v>2364</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="75" t="s">
-        <v>2494</v>
+        <v>2487</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -37177,11 +37178,11 @@
       <c r="J16" s="17"/>
       <c r="K16" s="69"/>
       <c r="L16" s="74" t="s">
-        <v>2497</v>
+        <v>2490</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="74" t="s">
-        <v>2491</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="17">
@@ -37212,7 +37213,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="69"/>
       <c r="L17" s="79" t="s">
-        <v>2480</v>
+        <v>2473</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="18"/>
@@ -37250,13 +37251,13 @@
       <c r="J18" s="17"/>
       <c r="K18" s="69"/>
       <c r="L18" s="103" t="s">
-        <v>2528</v>
+        <v>2520</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>2003</v>
       </c>
       <c r="N18" s="103" t="s">
-        <v>2529</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17">
@@ -37291,13 +37292,13 @@
       <c r="J19" s="17"/>
       <c r="K19" s="69"/>
       <c r="L19" s="103" t="s">
-        <v>2528</v>
+        <v>2520</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="N19" s="103" t="s">
-        <v>2529</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16">
@@ -37324,7 +37325,7 @@
       <c r="K20" s="69"/>
       <c r="L20" s="9"/>
       <c r="N20" s="108" t="s">
-        <v>2534</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17">
@@ -37360,16 +37361,16 @@
         <v>32846</v>
       </c>
       <c r="K21" s="124" t="s">
-        <v>2518</v>
+        <v>2510</v>
       </c>
       <c r="L21" s="103" t="s">
-        <v>2519</v>
+        <v>2511</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>2515</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17">
@@ -37405,16 +37406,16 @@
         <v>32845</v>
       </c>
       <c r="K22" s="124" t="s">
-        <v>2518</v>
+        <v>2510</v>
       </c>
       <c r="L22" s="103" t="s">
-        <v>2519</v>
+        <v>2511</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="O22" s="104" t="s">
-        <v>2516</v>
+        <v>2508</v>
       </c>
     </row>
   </sheetData>

--- a/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
+++ b/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/fhir-mCODE-ig/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FC1293-F13A-514E-897F-AD3ADA5E9109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861CFA67-8B1F-C741-9703-D1264B590109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="500" windowWidth="56400" windowHeight="26080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6098,9 +6098,6 @@
     <t>Atrial structure (body structure)</t>
   </si>
   <si>
-    <t> Structure of apical axillary lymph node (body structure)</t>
-  </si>
-  <si>
     <t>Structure of lateral axillary lymph node (body structure)</t>
   </si>
   <si>
@@ -7419,12 +7416,6 @@
   </si>
   <si>
     <t>USCRS-33147</t>
-  </si>
-  <si>
-    <t>Bowel space (body structure)</t>
-  </si>
-  <si>
-    <t>Small bowel space (body structure)</t>
   </si>
   <si>
     <t>USCRS-33350</t>
@@ -7842,6 +7833,15 @@
   </si>
   <si>
     <t xml:space="preserve">Structure of iliac lymph node (body structure) </t>
+  </si>
+  <si>
+    <t>Bowel space (observable entity)</t>
+  </si>
+  <si>
+    <t>Small bowel space (observable entity)</t>
+  </si>
+  <si>
+    <t>Structure of apical axillary lymph node (body structure)</t>
   </si>
 </sst>
 </file>
@@ -8935,8 +8935,8 @@
   <dimension ref="A1:R897"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N666" sqref="N666"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L289" sqref="L289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8987,16 +8987,16 @@
         <v>736</v>
       </c>
       <c r="K1" s="110" t="s">
+        <v>2449</v>
+      </c>
+      <c r="L1" s="53" t="s">
         <v>2450</v>
       </c>
-      <c r="L1" s="53" t="s">
-        <v>2451</v>
-      </c>
       <c r="M1" s="53" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="N1" s="66" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17">
@@ -9108,7 +9108,7 @@
         <v>425444002</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="10"/>
@@ -9146,7 +9146,7 @@
         <v>69105007</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="10"/>
@@ -9187,10 +9187,10 @@
         <v>69105007</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N6" s="10"/>
     </row>
@@ -9230,10 +9230,10 @@
         <v>69105007</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N7" s="10"/>
     </row>
@@ -9270,7 +9270,7 @@
         <v>57850000</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10"/>
@@ -9308,7 +9308,7 @@
         <v>41801008</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
@@ -9349,10 +9349,10 @@
         <v>41801008</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N10" s="10"/>
     </row>
@@ -9392,10 +9392,10 @@
         <v>41801008</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N11" s="10"/>
     </row>
@@ -9435,10 +9435,10 @@
         <v>7657000</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N12" s="10"/>
     </row>
@@ -9478,10 +9478,10 @@
         <v>7657000</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N13" s="10"/>
     </row>
@@ -9519,7 +9519,7 @@
         <v>244314003</v>
       </c>
       <c r="L14" s="44" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>2003</v>
@@ -9561,10 +9561,10 @@
         <v>244314003</v>
       </c>
       <c r="L15" s="44" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N15" s="10"/>
     </row>
@@ -9592,7 +9592,7 @@
         <v>1976</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>391</v>
@@ -9604,7 +9604,7 @@
         <v>74200005</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="M16" s="9"/>
     </row>
@@ -9644,7 +9644,7 @@
         <v>55601007</v>
       </c>
       <c r="L17" s="136" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -9682,7 +9682,7 @@
         <v>244327004</v>
       </c>
       <c r="L18" s="44" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>2003</v>
@@ -9723,10 +9723,10 @@
         <v>244327004</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N19" s="10"/>
     </row>
@@ -9766,7 +9766,7 @@
         <v>113269004</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>2003</v>
@@ -9809,10 +9809,10 @@
         <v>113269004</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N21" s="10"/>
     </row>
@@ -9852,7 +9852,7 @@
         <v>90024005</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>2003</v>
@@ -9895,10 +9895,10 @@
         <v>90024005</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N23" s="10"/>
     </row>
@@ -9938,7 +9938,7 @@
         <v>73634005</v>
       </c>
       <c r="L24" s="44" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>2003</v>
@@ -9981,10 +9981,10 @@
         <v>73634005</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N25" s="10"/>
     </row>
@@ -10012,7 +10012,7 @@
         <v>1360</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="J26" s="17">
         <v>3862</v>
@@ -10021,7 +10021,7 @@
         <v>33795007</v>
       </c>
       <c r="L26" s="109" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10"/>
@@ -10062,7 +10062,7 @@
         <v>33795007</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -10102,7 +10102,7 @@
         <v>42258001</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10"/>
@@ -10140,7 +10140,7 @@
         <v>81040000</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10"/>
@@ -10178,7 +10178,7 @@
         <v>36765005</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10"/>
@@ -10219,10 +10219,10 @@
         <v>36765005</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -10262,10 +10262,10 @@
         <v>36765005</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N32" s="10"/>
     </row>
@@ -10302,7 +10302,7 @@
         <v>85234005</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10"/>
@@ -10343,10 +10343,10 @@
         <v>85234005</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N34" s="10"/>
     </row>
@@ -10386,10 +10386,10 @@
         <v>85234005</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N35" s="10"/>
     </row>
@@ -10475,7 +10475,7 @@
         <v>2006</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="N37" s="10"/>
     </row>
@@ -10549,10 +10549,10 @@
         <v>89187006</v>
       </c>
       <c r="L39" s="9" t="s">
+        <v>2193</v>
+      </c>
+      <c r="M39" s="9" t="s">
         <v>2194</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>2195</v>
       </c>
       <c r="N39" s="10"/>
     </row>
@@ -10588,10 +10588,10 @@
         <v>89187006</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="N40" s="10"/>
     </row>
@@ -10748,7 +10748,7 @@
         <v>2016</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N44" s="10"/>
     </row>
@@ -10791,7 +10791,7 @@
         <v>2016</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N45" s="10"/>
     </row>
@@ -10872,7 +10872,7 @@
         <v>2019</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N47" s="10"/>
     </row>
@@ -10915,7 +10915,7 @@
         <v>2019</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N48" s="10"/>
     </row>
@@ -10952,7 +10952,7 @@
         <v>79741001</v>
       </c>
       <c r="L49" s="44" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10"/>
@@ -10988,7 +10988,7 @@
         <v>89837001</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10"/>
@@ -11024,7 +11024,7 @@
         <v>393006</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10"/>
@@ -11060,7 +11060,7 @@
         <v>119186007</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10"/>
@@ -11098,7 +11098,7 @@
         <v>52374004</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10"/>
@@ -11136,7 +11136,7 @@
         <v>74872008</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10"/>
@@ -11174,7 +11174,7 @@
         <v>21387005</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10"/>
@@ -11212,7 +11212,7 @@
         <v>22356005</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10"/>
@@ -11253,10 +11253,10 @@
         <v>22356005</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N57" s="10"/>
     </row>
@@ -11296,10 +11296,10 @@
         <v>22356005</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N58" s="10"/>
     </row>
@@ -11336,7 +11336,7 @@
         <v>421793000</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10"/>
@@ -11377,10 +11377,10 @@
         <v>421793000</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N60" s="10"/>
     </row>
@@ -11420,10 +11420,10 @@
         <v>421793000</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N61" s="10"/>
     </row>
@@ -11463,10 +11463,10 @@
         <v>85710004</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N62" s="10"/>
     </row>
@@ -11506,10 +11506,10 @@
         <v>85710004</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N63" s="10"/>
     </row>
@@ -11546,7 +11546,7 @@
         <v>6229007</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10"/>
@@ -11587,10 +11587,10 @@
         <v>6229007</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N65" s="10"/>
     </row>
@@ -11630,10 +11630,10 @@
         <v>6229007</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N66" s="10"/>
     </row>
@@ -11670,7 +11670,7 @@
         <v>91609006</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10"/>
@@ -11708,7 +11708,7 @@
         <v>59066005</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10"/>
@@ -11749,10 +11749,10 @@
         <v>59066005</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N69" s="10"/>
     </row>
@@ -11792,10 +11792,10 @@
         <v>59066005</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N70" s="10"/>
     </row>
@@ -11832,7 +11832,7 @@
         <v>74386004</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10"/>
@@ -11873,10 +11873,10 @@
         <v>74386004</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N72" s="10"/>
     </row>
@@ -11916,10 +11916,10 @@
         <v>74386004</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N73" s="10"/>
     </row>
@@ -11956,7 +11956,7 @@
         <v>31640002</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10"/>
@@ -11994,7 +11994,7 @@
         <v>51283005</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10"/>
@@ -12035,10 +12035,10 @@
         <v>51283005</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N76" s="10"/>
     </row>
@@ -12078,10 +12078,10 @@
         <v>51283005</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N77" s="10"/>
     </row>
@@ -12118,7 +12118,7 @@
         <v>24924006</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10"/>
@@ -12159,10 +12159,10 @@
         <v>24924006</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N79" s="10"/>
     </row>
@@ -12202,10 +12202,10 @@
         <v>24924006</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N80" s="10"/>
     </row>
@@ -12242,7 +12242,7 @@
         <v>118645006</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10"/>
@@ -12283,10 +12283,10 @@
         <v>118645006</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N82" s="10"/>
     </row>
@@ -12326,10 +12326,10 @@
         <v>118645006</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N83" s="10"/>
     </row>
@@ -12366,7 +12366,7 @@
         <v>73117003</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10"/>
@@ -12404,7 +12404,7 @@
         <v>60911003</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10"/>
@@ -12445,7 +12445,7 @@
         <v>60911003</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="M86" s="9" t="s">
         <v>2003</v>
@@ -12488,10 +12488,10 @@
         <v>60911003</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="N87" s="10"/>
     </row>
@@ -12531,10 +12531,10 @@
         <v>13881006</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N88" s="10"/>
     </row>
@@ -12574,10 +12574,10 @@
         <v>13881006</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N89" s="10"/>
     </row>
@@ -12614,7 +12614,7 @@
         <v>13881006</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10"/>
@@ -12652,7 +12652,7 @@
         <v>14016003</v>
       </c>
       <c r="L91" s="136" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10"/>
@@ -12688,7 +12688,7 @@
         <v>5798000</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10"/>
@@ -12715,7 +12715,7 @@
         <v>868</v>
       </c>
       <c r="I93" s="16" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="J93" s="17">
         <v>7199</v>
@@ -12724,7 +12724,7 @@
         <v>113276009</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10"/>
@@ -12762,7 +12762,7 @@
         <v>14742008</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10"/>
@@ -12798,7 +12798,7 @@
         <v>30315005</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10"/>
@@ -12839,10 +12839,10 @@
         <v>36582005</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N96" s="10"/>
     </row>
@@ -12882,10 +12882,10 @@
         <v>36582005</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N97" s="10"/>
     </row>
@@ -12922,11 +12922,11 @@
         <v>36582005</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="94" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="17">
@@ -12962,7 +12962,7 @@
         <v>12738006</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10"/>
@@ -13000,7 +13000,7 @@
         <v>15926001</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10"/>
@@ -13036,10 +13036,10 @@
         <v>15926001</v>
       </c>
       <c r="L101" s="55" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="34">
@@ -13073,10 +13073,10 @@
         <v>15926001</v>
       </c>
       <c r="L102" s="55" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="17">
@@ -13113,10 +13113,10 @@
         <v>76752008</v>
       </c>
       <c r="L103" s="44" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N103" s="10"/>
     </row>
@@ -13154,10 +13154,10 @@
         <v>76752008</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N104" s="10"/>
     </row>
@@ -13195,10 +13195,10 @@
         <v>76752008</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N105" s="10"/>
     </row>
@@ -13235,7 +13235,7 @@
         <v>955009</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10"/>
@@ -13276,10 +13276,10 @@
         <v>955009</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N107" s="10"/>
     </row>
@@ -13316,7 +13316,7 @@
         <v>102297006</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10"/>
@@ -13357,7 +13357,7 @@
         <v>102297006</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10"/>
@@ -13398,7 +13398,7 @@
         <v>102297006</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10"/>
@@ -13439,10 +13439,10 @@
         <v>955009</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N111" s="10"/>
     </row>
@@ -13479,7 +13479,7 @@
         <v>34381000</v>
       </c>
       <c r="L112" s="136" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10"/>
@@ -13515,7 +13515,7 @@
         <v>28700002</v>
       </c>
       <c r="L113" s="9" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10"/>
@@ -13551,7 +13551,7 @@
         <v>38848004</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10"/>
@@ -13589,7 +13589,7 @@
         <v>7173007</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10"/>
@@ -13625,7 +13625,7 @@
         <v>9284003</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10"/>
@@ -13663,7 +13663,7 @@
         <v>279549004</v>
       </c>
       <c r="L117" s="9" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10"/>
@@ -13701,7 +13701,7 @@
         <v>74262004</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10"/>
@@ -13737,7 +13737,7 @@
         <v>32713005</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10"/>
@@ -13775,7 +13775,7 @@
         <v>113305005</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10"/>
@@ -13813,7 +13813,7 @@
         <v>83678007</v>
       </c>
       <c r="L121" s="9" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10"/>
@@ -13845,7 +13845,7 @@
         <v>1643</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="J122" s="17">
         <v>61819</v>
@@ -13854,10 +13854,10 @@
         <v>83678007</v>
       </c>
       <c r="L122" s="9" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N122" s="10"/>
     </row>
@@ -13888,7 +13888,7 @@
         <v>1645</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="J123" s="17">
         <v>67292</v>
@@ -13897,10 +13897,10 @@
         <v>83678007</v>
       </c>
       <c r="L123" s="9" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N123" s="10"/>
     </row>
@@ -13935,7 +13935,7 @@
         <v>71252005</v>
       </c>
       <c r="L124" s="9" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10"/>
@@ -13971,7 +13971,7 @@
         <v>78904004</v>
       </c>
       <c r="L125" s="9" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10"/>
@@ -14010,10 +14010,10 @@
         <v>78904004</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N126" s="10"/>
     </row>
@@ -14051,10 +14051,10 @@
         <v>78904004</v>
       </c>
       <c r="L127" s="9" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N127" s="10"/>
     </row>
@@ -14089,7 +14089,7 @@
         <v>369387006</v>
       </c>
       <c r="L128" s="9" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10"/>
@@ -14123,7 +14123,7 @@
         <v>60075002</v>
       </c>
       <c r="L129" s="9" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10"/>
@@ -14164,10 +14164,10 @@
         <v>51299004</v>
       </c>
       <c r="L130" s="9" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N130" s="10"/>
     </row>
@@ -14207,10 +14207,10 @@
         <v>51299004</v>
       </c>
       <c r="L131" s="9" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N131" s="10"/>
     </row>
@@ -14247,7 +14247,7 @@
         <v>56193007</v>
       </c>
       <c r="L132" s="9" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10"/>
@@ -14288,10 +14288,10 @@
         <v>56193007</v>
       </c>
       <c r="L133" s="9" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N133" s="10"/>
     </row>
@@ -14331,10 +14331,10 @@
         <v>56193007</v>
       </c>
       <c r="L134" s="9" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N134" s="10"/>
     </row>
@@ -14371,7 +14371,7 @@
         <v>21161002</v>
       </c>
       <c r="L135" s="9" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="10"/>
@@ -14412,10 +14412,10 @@
         <v>21161002</v>
       </c>
       <c r="L136" s="9" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N136" s="10"/>
     </row>
@@ -14455,10 +14455,10 @@
         <v>21161002</v>
       </c>
       <c r="L137" s="9" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="M137" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N137" s="10"/>
     </row>
@@ -14495,7 +14495,7 @@
         <v>27612005</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="10"/>
@@ -14536,10 +14536,10 @@
         <v>27612005</v>
       </c>
       <c r="L139" s="9" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N139" s="10"/>
     </row>
@@ -14579,10 +14579,10 @@
         <v>27612005</v>
       </c>
       <c r="L140" s="9" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="M140" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N140" s="10"/>
     </row>
@@ -14619,7 +14619,7 @@
         <v>80622005</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="M141" s="9"/>
       <c r="N141" s="10"/>
@@ -14660,10 +14660,10 @@
         <v>80622005</v>
       </c>
       <c r="L142" s="9" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="M142" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N142" s="10"/>
     </row>
@@ -14703,10 +14703,10 @@
         <v>80622005</v>
       </c>
       <c r="L143" s="9" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N143" s="10"/>
     </row>
@@ -14743,7 +14743,7 @@
         <v>56052001</v>
       </c>
       <c r="L144" s="9" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="10"/>
@@ -14784,10 +14784,10 @@
         <v>56052001</v>
       </c>
       <c r="L145" s="9" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="M145" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N145" s="10"/>
     </row>
@@ -14827,10 +14827,10 @@
         <v>56052001</v>
       </c>
       <c r="L146" s="9" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="M146" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N146" s="10"/>
     </row>
@@ -14867,7 +14867,7 @@
         <v>8598002</v>
       </c>
       <c r="L147" s="9" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="M147" s="9"/>
       <c r="N147" s="10"/>
@@ -14908,10 +14908,10 @@
         <v>8598002</v>
       </c>
       <c r="L148" s="9" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="M148" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N148" s="10"/>
     </row>
@@ -14951,10 +14951,10 @@
         <v>8598002</v>
       </c>
       <c r="L149" s="9" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="M149" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N149" s="10"/>
     </row>
@@ -14991,7 +14991,7 @@
         <v>15119000</v>
       </c>
       <c r="L150" s="9" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="M150" s="9"/>
       <c r="N150" s="10"/>
@@ -15032,10 +15032,10 @@
         <v>15119000</v>
       </c>
       <c r="L151" s="9" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="M151" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N151" s="10"/>
     </row>
@@ -15075,10 +15075,10 @@
         <v>15119000</v>
       </c>
       <c r="L152" s="9" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N152" s="10"/>
     </row>
@@ -15115,7 +15115,7 @@
         <v>37899009</v>
       </c>
       <c r="L153" s="9" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="M153" s="9"/>
       <c r="N153" s="10"/>
@@ -15156,10 +15156,10 @@
         <v>37899009</v>
       </c>
       <c r="L154" s="9" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="M154" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N154" s="10"/>
     </row>
@@ -15199,10 +15199,10 @@
         <v>37899009</v>
       </c>
       <c r="L155" s="9" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="M155" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N155" s="10"/>
     </row>
@@ -15239,7 +15239,7 @@
         <v>80169004</v>
       </c>
       <c r="L156" s="9" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="M156" s="9"/>
       <c r="N156" s="10"/>
@@ -15280,7 +15280,7 @@
         <v>80169004</v>
       </c>
       <c r="L157" s="9" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="M157" s="9"/>
       <c r="N157" s="10"/>
@@ -15321,7 +15321,7 @@
         <v>80169004</v>
       </c>
       <c r="L158" s="9" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="M158" s="9"/>
       <c r="N158" s="10"/>
@@ -15359,7 +15359,7 @@
         <v>71854001</v>
       </c>
       <c r="L159" s="9" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="M159" s="9"/>
       <c r="N159" s="10"/>
@@ -15397,7 +15397,7 @@
         <v>9040008</v>
       </c>
       <c r="L160" s="9" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="M160" s="9"/>
       <c r="N160" s="10"/>
@@ -15435,7 +15435,7 @@
         <v>32622004</v>
       </c>
       <c r="L161" s="9" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="M161" s="9"/>
       <c r="N161" s="10"/>
@@ -15471,10 +15471,10 @@
         <v>81745001</v>
       </c>
       <c r="L162" s="9" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="M162" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N162" s="10"/>
     </row>
@@ -15511,7 +15511,7 @@
         <v>60184004</v>
       </c>
       <c r="L163" s="9" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="M163" s="9"/>
       <c r="N163" s="10"/>
@@ -15549,7 +15549,7 @@
         <v>485005</v>
       </c>
       <c r="L164" s="9" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="M164" s="9"/>
       <c r="N164" s="10"/>
@@ -15587,7 +15587,7 @@
         <v>28726007</v>
       </c>
       <c r="L165" s="44" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="M165" s="9"/>
       <c r="N165" s="10"/>
@@ -15628,10 +15628,10 @@
         <v>28726007</v>
       </c>
       <c r="L166" s="44" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="M166" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N166" s="10"/>
     </row>
@@ -15671,10 +15671,10 @@
         <v>28726007</v>
       </c>
       <c r="L167" s="44" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="M167" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N167" s="10"/>
     </row>
@@ -15711,7 +15711,7 @@
         <v>36743005</v>
       </c>
       <c r="L168" s="9" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="M168" s="9"/>
       <c r="N168" s="10"/>
@@ -15749,7 +15749,7 @@
         <v>8600008</v>
       </c>
       <c r="L169" s="9" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="M169" s="9"/>
       <c r="N169" s="10"/>
@@ -15787,7 +15787,7 @@
         <v>28276008</v>
       </c>
       <c r="L170" s="9" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="M170" s="9"/>
       <c r="N170" s="10"/>
@@ -15823,7 +15823,7 @@
         <v>28231008</v>
       </c>
       <c r="L171" s="9" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="M171" s="9"/>
       <c r="N171" s="10"/>
@@ -15859,7 +15859,7 @@
         <v>71934003</v>
       </c>
       <c r="L172" s="9" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="M172" s="9"/>
       <c r="N172" s="10"/>
@@ -15897,7 +15897,7 @@
         <v>13561001</v>
       </c>
       <c r="L173" s="9" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="M173" s="9"/>
       <c r="N173" s="10"/>
@@ -15938,7 +15938,7 @@
         <v>117590005</v>
       </c>
       <c r="L174" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M174" s="9"/>
       <c r="N174" s="10"/>
@@ -15979,10 +15979,10 @@
         <v>117590005</v>
       </c>
       <c r="L175" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M175" s="136" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="N175" s="10"/>
     </row>
@@ -16022,10 +16022,10 @@
         <v>117590005</v>
       </c>
       <c r="L176" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M176" s="9" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="N176" s="10"/>
     </row>
@@ -16065,10 +16065,10 @@
         <v>117590005</v>
       </c>
       <c r="L177" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M177" s="136" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="N177" s="10"/>
     </row>
@@ -16108,10 +16108,10 @@
         <v>117590005</v>
       </c>
       <c r="L178" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M178" s="136" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="N178" s="10"/>
     </row>
@@ -16151,10 +16151,10 @@
         <v>117590005</v>
       </c>
       <c r="L179" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M179" s="9" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="N179" s="10"/>
     </row>
@@ -16194,10 +16194,10 @@
         <v>117590005</v>
       </c>
       <c r="L180" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M180" s="9" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="N180" s="10"/>
     </row>
@@ -16237,10 +16237,10 @@
         <v>117590005</v>
       </c>
       <c r="L181" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M181" s="136" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="N181" s="10"/>
     </row>
@@ -16280,10 +16280,10 @@
         <v>117590005</v>
       </c>
       <c r="L182" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M182" s="136" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="N182" s="10"/>
     </row>
@@ -16318,7 +16318,7 @@
         <v>111002</v>
       </c>
       <c r="L183" s="9" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="M183" s="9"/>
       <c r="N183" s="10"/>
@@ -16354,7 +16354,7 @@
         <v>127949000</v>
       </c>
       <c r="L184" s="9" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="M184" s="9"/>
       <c r="N184" s="10"/>
@@ -16393,7 +16393,7 @@
         <v>127949000</v>
       </c>
       <c r="L185" s="9" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="M185" s="9" t="s">
         <v>2003</v>
@@ -16434,10 +16434,10 @@
         <v>127949000</v>
       </c>
       <c r="L186" s="9" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="M186" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N186" s="10"/>
     </row>
@@ -16472,7 +16472,7 @@
         <v>32849002</v>
       </c>
       <c r="L187" s="9" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="M187" s="9"/>
       <c r="N187" s="10"/>
@@ -16511,10 +16511,10 @@
         <v>32849002</v>
       </c>
       <c r="L188" s="9" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="M188" s="9" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="N188" s="10"/>
     </row>
@@ -16552,10 +16552,10 @@
         <v>32849002</v>
       </c>
       <c r="L189" s="9" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="M189" s="9" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="N189" s="10"/>
     </row>
@@ -16591,10 +16591,10 @@
         <v>32849002</v>
       </c>
       <c r="L190" s="9" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="M190" s="9" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="N190" s="10"/>
     </row>
@@ -16631,7 +16631,7 @@
         <v>88481005</v>
       </c>
       <c r="L191" s="9" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="M191" s="9"/>
       <c r="N191" s="10"/>
@@ -16669,7 +16669,7 @@
         <v>385296007</v>
       </c>
       <c r="L192" s="9" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="M192" s="9"/>
       <c r="N192" s="10"/>
@@ -16710,10 +16710,10 @@
         <v>81745001</v>
       </c>
       <c r="L193" s="9" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="M193" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N193" s="10"/>
     </row>
@@ -16753,10 +16753,10 @@
         <v>81745001</v>
       </c>
       <c r="L194" s="9" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="M194" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N194" s="10"/>
     </row>
@@ -16793,7 +16793,7 @@
         <v>9875009</v>
       </c>
       <c r="L195" s="9" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="M195" s="9"/>
       <c r="N195" s="10"/>
@@ -16831,7 +16831,7 @@
         <v>69748006</v>
       </c>
       <c r="L196" s="9" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="M196" s="9"/>
       <c r="N196" s="10"/>
@@ -16872,13 +16872,13 @@
         <v>2812003</v>
       </c>
       <c r="L197" s="76" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="M197" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N197" s="73" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="34">
@@ -16917,13 +16917,13 @@
         <v>2812003</v>
       </c>
       <c r="L198" s="76" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="M198" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N198" s="73" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="34">
@@ -16962,10 +16962,10 @@
         <v>24136001</v>
       </c>
       <c r="L199" s="9" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="M199" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N199" s="10"/>
     </row>
@@ -17005,10 +17005,10 @@
         <v>24136001</v>
       </c>
       <c r="L200" s="9" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="M200" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N200" s="10"/>
     </row>
@@ -17036,7 +17036,7 @@
         <v>92</v>
       </c>
       <c r="I201" s="16" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="J201" s="17">
         <v>24475</v>
@@ -17045,7 +17045,7 @@
         <v>71341001</v>
       </c>
       <c r="L201" s="9" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="M201" s="9"/>
       <c r="N201" s="10"/>
@@ -17077,7 +17077,7 @@
         <v>815</v>
       </c>
       <c r="I202" s="16" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="J202" s="17">
         <v>24475</v>
@@ -17086,10 +17086,10 @@
         <v>71341001</v>
       </c>
       <c r="L202" s="9" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="M202" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N202" s="10"/>
     </row>
@@ -17111,13 +17111,13 @@
         <v>10</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H203" s="15" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="I203" s="16" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="J203" s="17">
         <v>42386</v>
@@ -17126,7 +17126,7 @@
         <v>29627003</v>
       </c>
       <c r="L203" s="9" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="M203" s="9"/>
       <c r="N203" s="10"/>
@@ -17167,13 +17167,13 @@
         <v>29627003</v>
       </c>
       <c r="L204" s="89" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="M204" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N204" s="94" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="205" spans="1:14" ht="17">
@@ -17212,10 +17212,10 @@
         <v>29627003</v>
       </c>
       <c r="L205" s="9" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="M205" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N205" s="10"/>
     </row>
@@ -17255,10 +17255,10 @@
         <v>71341001</v>
       </c>
       <c r="L206" s="9" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="M206" s="9" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="N206" s="10"/>
     </row>
@@ -17298,10 +17298,10 @@
         <v>41111004</v>
       </c>
       <c r="L207" s="9" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="M207" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N207" s="10"/>
     </row>
@@ -17341,10 +17341,10 @@
         <v>41111004</v>
       </c>
       <c r="L208" s="9" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="M208" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N208" s="10"/>
     </row>
@@ -17381,10 +17381,10 @@
         <v>71341001</v>
       </c>
       <c r="L209" s="9" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="M209" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N209" s="10"/>
     </row>
@@ -17421,7 +17421,7 @@
         <v>87342007</v>
       </c>
       <c r="L210" s="9" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="M210" s="9"/>
       <c r="N210" s="10"/>
@@ -17462,10 +17462,10 @@
         <v>87342007</v>
       </c>
       <c r="L211" s="9" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="M211" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N211" s="10"/>
     </row>
@@ -17505,10 +17505,10 @@
         <v>87342007</v>
       </c>
       <c r="L212" s="9" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="M212" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N212" s="10"/>
     </row>
@@ -17543,7 +17543,7 @@
         <v>1307006</v>
       </c>
       <c r="L213" s="9" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="M213" s="9"/>
       <c r="N213" s="10"/>
@@ -17577,7 +17577,7 @@
         <v>3711007</v>
       </c>
       <c r="L214" s="44" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="M214" s="9"/>
       <c r="N214" s="10"/>
@@ -17611,10 +17611,10 @@
         <v>3711007</v>
       </c>
       <c r="L215" s="44" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="M215" s="9" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="N215" s="10"/>
     </row>
@@ -17651,7 +17651,7 @@
         <v>90228003</v>
       </c>
       <c r="L216" s="9" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="M216" s="9"/>
       <c r="N216" s="10"/>
@@ -17687,11 +17687,11 @@
         <v>23451007</v>
       </c>
       <c r="L217" s="105" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="M217" s="9"/>
       <c r="N217" s="94" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="218" spans="1:14" ht="34">
@@ -17730,10 +17730,10 @@
         <v>23451007</v>
       </c>
       <c r="L218" s="105" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="M218" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N218" s="10"/>
     </row>
@@ -17773,10 +17773,10 @@
         <v>23451007</v>
       </c>
       <c r="L219" s="105" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="M219" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N219" s="10"/>
     </row>
@@ -17811,7 +17811,7 @@
         <v>80891009</v>
       </c>
       <c r="L220" s="9" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="M220" s="9"/>
       <c r="N220" s="10"/>
@@ -17852,10 +17852,10 @@
         <v>13561001</v>
       </c>
       <c r="L221" s="9" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="M221" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N221" s="10"/>
     </row>
@@ -17895,10 +17895,10 @@
         <v>13561001</v>
       </c>
       <c r="L222" s="9" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="M222" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N222" s="10"/>
     </row>
@@ -17936,13 +17936,13 @@
         <v>372073000</v>
       </c>
       <c r="L223" s="89" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="M223" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N223" s="94" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="224" spans="1:14" ht="16.5" customHeight="1">
@@ -17981,10 +17981,10 @@
         <v>88481005</v>
       </c>
       <c r="L224" s="9" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="M224" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N224" s="10"/>
     </row>
@@ -18024,10 +18024,10 @@
         <v>88481005</v>
       </c>
       <c r="L225" s="9" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="M225" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N225" s="10"/>
     </row>
@@ -18064,7 +18064,7 @@
         <v>5366008</v>
       </c>
       <c r="L226" s="9" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="M226" s="9"/>
       <c r="N226" s="10"/>
@@ -18105,10 +18105,10 @@
         <v>385296007</v>
       </c>
       <c r="L227" s="9" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="M227" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N227" s="10"/>
     </row>
@@ -18148,10 +18148,10 @@
         <v>385296007</v>
       </c>
       <c r="L228" s="9" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="M228" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N228" s="10"/>
     </row>
@@ -18188,7 +18188,7 @@
         <v>67923007</v>
       </c>
       <c r="L229" s="9" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="M229" s="9"/>
       <c r="N229" s="10"/>
@@ -18224,7 +18224,7 @@
         <v>34516001</v>
       </c>
       <c r="L230" s="9" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="M230" s="9"/>
       <c r="N230" s="10"/>
@@ -18262,7 +18262,7 @@
         <v>21306003</v>
       </c>
       <c r="L231" s="9" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="M231" s="9"/>
       <c r="N231" s="10"/>
@@ -18296,7 +18296,7 @@
         <v>90228003</v>
       </c>
       <c r="L232" s="9" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="M232" s="9"/>
       <c r="N232" s="10"/>
@@ -18332,7 +18332,7 @@
         <v>16953009</v>
       </c>
       <c r="L233" s="9" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="M233" s="9"/>
       <c r="N233" s="10"/>
@@ -18370,7 +18370,7 @@
         <v>85537004</v>
       </c>
       <c r="L234" s="9" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="M234" s="9"/>
       <c r="N234" s="10"/>
@@ -18400,17 +18400,17 @@
         <v>1674</v>
       </c>
       <c r="I235" s="16" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="J235" s="17"/>
       <c r="K235" s="111">
         <v>711190000</v>
       </c>
       <c r="L235" s="9" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="M235" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N235" s="10"/>
     </row>
@@ -18439,17 +18439,17 @@
         <v>1676</v>
       </c>
       <c r="I236" s="16" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="J236" s="17"/>
       <c r="K236" s="111">
         <v>711190000</v>
       </c>
       <c r="L236" s="9" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="M236" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N236" s="10"/>
     </row>
@@ -18478,17 +18478,17 @@
         <v>1695</v>
       </c>
       <c r="I237" s="135" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="J237" s="87"/>
       <c r="K237" s="116">
         <v>39352004</v>
       </c>
       <c r="L237" s="74" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="M237" s="74" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="N237" s="88"/>
     </row>
@@ -18525,7 +18525,7 @@
         <v>53620006</v>
       </c>
       <c r="L238" s="9" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="M238" s="9"/>
       <c r="N238" s="10"/>
@@ -18557,7 +18557,7 @@
         <v>1834</v>
       </c>
       <c r="I239" s="16" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="J239" s="17">
         <v>61819</v>
@@ -18566,13 +18566,13 @@
         <v>6566002</v>
       </c>
       <c r="L239" s="9" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="M239" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N239" s="94" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="240" spans="1:14" ht="34">
@@ -18602,7 +18602,7 @@
         <v>1833</v>
       </c>
       <c r="I240" s="16" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="J240" s="17">
         <v>67292</v>
@@ -18611,13 +18611,13 @@
         <v>6566002</v>
       </c>
       <c r="L240" s="9" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="M240" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N240" s="94" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="241" spans="1:14" ht="34">
@@ -18653,10 +18653,10 @@
         <v>50403003</v>
       </c>
       <c r="L241" s="9" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="M241" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N241" s="10"/>
     </row>
@@ -18693,10 +18693,10 @@
         <v>74033008</v>
       </c>
       <c r="L242" s="9" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="M242" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N242" s="10"/>
     </row>
@@ -18736,10 +18736,10 @@
         <v>5366008</v>
       </c>
       <c r="L243" s="9" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="M243" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N243" s="10"/>
     </row>
@@ -18779,10 +18779,10 @@
         <v>5366008</v>
       </c>
       <c r="L244" s="9" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="M244" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N244" s="10"/>
     </row>
@@ -18822,10 +18822,10 @@
         <v>85050009</v>
       </c>
       <c r="L245" s="9" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="M245" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N245" s="10"/>
     </row>
@@ -18865,10 +18865,10 @@
         <v>85050009</v>
       </c>
       <c r="L246" s="9" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="M246" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N246" s="10"/>
     </row>
@@ -18905,10 +18905,10 @@
         <v>64033007</v>
       </c>
       <c r="L247" s="9" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="M247" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N247" s="10"/>
     </row>
@@ -18943,7 +18943,7 @@
         <v>72696002</v>
       </c>
       <c r="L248" s="9" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="M248" s="9"/>
       <c r="N248" s="10"/>
@@ -18981,11 +18981,11 @@
         <v>81502006</v>
       </c>
       <c r="L249" s="103" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="M249" s="74"/>
       <c r="N249" s="94" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="250" spans="1:14" ht="17">
@@ -19019,7 +19019,7 @@
         <v>4596009</v>
       </c>
       <c r="L250" s="9" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="M250" s="9"/>
       <c r="N250" s="10"/>
@@ -19055,7 +19055,7 @@
         <v>86483002</v>
       </c>
       <c r="L251" s="9" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="M251" s="9"/>
       <c r="N251" s="10"/>
@@ -19094,10 +19094,10 @@
         <v>16953009</v>
       </c>
       <c r="L252" s="9" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="M252" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N252" s="10"/>
     </row>
@@ -19135,10 +19135,10 @@
         <v>16953009</v>
       </c>
       <c r="L253" s="9" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="M253" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N253" s="10"/>
     </row>
@@ -19175,7 +19175,7 @@
         <v>78076003</v>
       </c>
       <c r="L254" s="9" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="M254" s="9"/>
       <c r="N254" s="10"/>
@@ -19216,10 +19216,10 @@
         <v>85537004</v>
       </c>
       <c r="L255" s="9" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="M255" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N255" s="10"/>
     </row>
@@ -19259,10 +19259,10 @@
         <v>85537004</v>
       </c>
       <c r="L256" s="9" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="M256" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N256" s="10"/>
     </row>
@@ -19299,7 +19299,7 @@
         <v>6544009</v>
       </c>
       <c r="L257" s="9" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="M257" s="9"/>
       <c r="N257" s="10"/>
@@ -19335,7 +19335,7 @@
         <v>81083006</v>
       </c>
       <c r="L258" s="44" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="M258" s="9"/>
       <c r="N258" s="10"/>
@@ -19376,10 +19376,10 @@
         <v>53620006</v>
       </c>
       <c r="L259" s="9" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="M259" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N259" s="10"/>
     </row>
@@ -19419,10 +19419,10 @@
         <v>53620006</v>
       </c>
       <c r="L260" s="9" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="M260" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N260" s="10"/>
     </row>
@@ -19457,7 +19457,7 @@
         <v>10200004</v>
       </c>
       <c r="L261" s="9" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="M261" s="9"/>
       <c r="N261" s="10"/>
@@ -19498,10 +19498,10 @@
         <v>50403003</v>
       </c>
       <c r="L262" s="9" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="M262" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N262" s="10"/>
     </row>
@@ -19541,10 +19541,10 @@
         <v>50403003</v>
       </c>
       <c r="L263" s="9" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="M263" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N263" s="10"/>
     </row>
@@ -19584,10 +19584,10 @@
         <v>74033008</v>
       </c>
       <c r="L264" s="9" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="M264" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N264" s="10"/>
     </row>
@@ -19627,10 +19627,10 @@
         <v>74033008</v>
       </c>
       <c r="L265" s="9" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="M265" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N265" s="10"/>
     </row>
@@ -19667,7 +19667,7 @@
         <v>83251001</v>
       </c>
       <c r="L266" s="9" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="M266" s="9"/>
       <c r="N266" s="10"/>
@@ -19708,10 +19708,10 @@
         <v>64033007</v>
       </c>
       <c r="L267" s="9" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="M267" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N267" s="10"/>
     </row>
@@ -19751,10 +19751,10 @@
         <v>25990002</v>
       </c>
       <c r="L268" s="9" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="M268" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N268" s="10"/>
     </row>
@@ -19794,10 +19794,10 @@
         <v>25990002</v>
       </c>
       <c r="L269" s="9" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="M269" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N269" s="10"/>
     </row>
@@ -19837,10 +19837,10 @@
         <v>64033007</v>
       </c>
       <c r="L270" s="9" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="M270" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N270" s="10"/>
     </row>
@@ -19877,7 +19877,7 @@
         <v>31065004</v>
       </c>
       <c r="L271" s="9" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="M271" s="9"/>
       <c r="N271" s="10"/>
@@ -19915,7 +19915,7 @@
         <v>16630005</v>
       </c>
       <c r="L272" s="9" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="M272" s="9"/>
       <c r="N272" s="10"/>
@@ -19954,10 +19954,10 @@
         <v>72696002</v>
       </c>
       <c r="L273" s="9" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="M273" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N273" s="10"/>
     </row>
@@ -19995,10 +19995,10 @@
         <v>72696002</v>
       </c>
       <c r="L274" s="9" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="M274" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N274" s="10"/>
     </row>
@@ -20035,7 +20035,7 @@
         <v>78277001</v>
       </c>
       <c r="L275" s="9" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="M275" s="9"/>
       <c r="N275" s="10"/>
@@ -20071,7 +20071,7 @@
         <v>72410000</v>
       </c>
       <c r="L276" s="9" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="M276" s="9"/>
       <c r="N276" s="10"/>
@@ -20107,7 +20107,7 @@
         <v>71616004</v>
       </c>
       <c r="L277" s="9" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M277" s="9"/>
       <c r="N277" s="10"/>
@@ -20145,7 +20145,7 @@
         <v>4866005</v>
       </c>
       <c r="L278" s="9" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M278" s="9"/>
       <c r="N278" s="10"/>
@@ -20186,10 +20186,10 @@
         <v>78076003</v>
       </c>
       <c r="L279" s="9" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="M279" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N279" s="10"/>
     </row>
@@ -20229,10 +20229,10 @@
         <v>78076003</v>
       </c>
       <c r="L280" s="9" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="M280" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N280" s="10"/>
     </row>
@@ -20269,7 +20269,7 @@
         <v>79368004</v>
       </c>
       <c r="L281" s="9" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="M281" s="9"/>
       <c r="N281" s="10"/>
@@ -20307,10 +20307,10 @@
         <v>52927003</v>
       </c>
       <c r="L282" s="9" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="M282" s="7" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N282" s="10"/>
     </row>
@@ -20347,7 +20347,7 @@
         <v>71836000</v>
       </c>
       <c r="L283" s="9" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="M283" s="9"/>
       <c r="N283" s="10"/>
@@ -20383,7 +20383,7 @@
         <v>59441001</v>
       </c>
       <c r="L284" s="44" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="M284" s="9"/>
       <c r="N284" s="10"/>
@@ -20420,8 +20420,8 @@
       <c r="K285" s="111">
         <v>16051009</v>
       </c>
-      <c r="L285" s="9" t="s">
-        <v>2020</v>
+      <c r="L285" s="136" t="s">
+        <v>2583</v>
       </c>
       <c r="M285" s="9"/>
       <c r="N285" s="10"/>
@@ -20461,8 +20461,8 @@
       <c r="K286" s="111">
         <v>16051009</v>
       </c>
-      <c r="L286" s="9" t="s">
-        <v>2020</v>
+      <c r="L286" s="136" t="s">
+        <v>2583</v>
       </c>
       <c r="M286" s="9" t="s">
         <v>2003</v>
@@ -20503,11 +20503,11 @@
       <c r="K287" s="111">
         <v>16051009</v>
       </c>
-      <c r="L287" s="9" t="s">
-        <v>2020</v>
+      <c r="L287" s="136" t="s">
+        <v>2583</v>
       </c>
       <c r="M287" s="9" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="288" spans="1:14" ht="51">
@@ -20545,11 +20545,11 @@
       <c r="K288" s="111">
         <v>16051009</v>
       </c>
-      <c r="L288" s="9" t="s">
-        <v>2020</v>
+      <c r="L288" s="136" t="s">
+        <v>2583</v>
       </c>
       <c r="M288" s="136" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="N288" s="10"/>
     </row>
@@ -20580,7 +20580,7 @@
         <v>947</v>
       </c>
       <c r="I289" s="16" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="J289" s="17">
         <v>73262</v>
@@ -20588,11 +20588,11 @@
       <c r="K289" s="111">
         <v>16051009</v>
       </c>
-      <c r="L289" s="9" t="s">
-        <v>2020</v>
+      <c r="L289" s="136" t="s">
+        <v>2583</v>
       </c>
       <c r="M289" s="136" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="N289" s="10"/>
     </row>
@@ -20629,7 +20629,7 @@
         <v>283001</v>
       </c>
       <c r="L290" s="9" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="M290" s="9"/>
       <c r="N290" s="10"/>
@@ -20668,7 +20668,7 @@
         <v>68171009</v>
       </c>
       <c r="L291" s="44" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="M291" s="9" t="s">
         <v>2003</v>
@@ -20711,10 +20711,10 @@
         <v>68171009</v>
       </c>
       <c r="L292" s="9" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="M292" s="136" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="293" spans="1:14" ht="51">
@@ -20753,10 +20753,10 @@
         <v>68171009</v>
       </c>
       <c r="L293" s="9" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="M293" s="136" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="294" spans="1:14" ht="34">
@@ -20795,10 +20795,10 @@
         <v>68171009</v>
       </c>
       <c r="L294" s="9" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="M294" s="136" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="295" spans="1:14" ht="51">
@@ -20837,10 +20837,10 @@
         <v>68171009</v>
       </c>
       <c r="L295" s="9" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="M295" s="136" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="296" spans="1:14" ht="34">
@@ -20879,10 +20879,10 @@
         <v>68171009</v>
       </c>
       <c r="L296" s="9" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="M296" s="136" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="297" spans="1:14" ht="51">
@@ -20921,10 +20921,10 @@
         <v>68171009</v>
       </c>
       <c r="L297" s="9" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="M297" s="136" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="298" spans="1:14" ht="51">
@@ -20963,10 +20963,10 @@
         <v>33770006</v>
       </c>
       <c r="L298" s="9" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M298" s="136" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="299" spans="1:14" ht="51">
@@ -21005,10 +21005,10 @@
         <v>33770006</v>
       </c>
       <c r="L299" s="9" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M299" s="136" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="300" spans="1:14" ht="34">
@@ -21035,7 +21035,7 @@
         <v>939</v>
       </c>
       <c r="I300" s="16" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="J300" s="17">
         <v>233458</v>
@@ -21044,7 +21044,7 @@
         <v>33770006</v>
       </c>
       <c r="L300" s="9" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M300" s="9"/>
       <c r="N300" s="10"/>
@@ -21085,7 +21085,7 @@
         <v>69691007</v>
       </c>
       <c r="L301" s="9" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M301" s="9" t="s">
         <v>2003</v>
@@ -21128,10 +21128,10 @@
         <v>69691007</v>
       </c>
       <c r="L302" s="9" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M302" s="9" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="N302" s="10"/>
     </row>
@@ -21168,7 +21168,7 @@
         <v>69691007</v>
       </c>
       <c r="L303" s="44" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M303" s="9"/>
       <c r="N303" s="10"/>
@@ -21209,10 +21209,10 @@
         <v>68171009</v>
       </c>
       <c r="L304" s="44" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="M304" s="9" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="N304" s="10"/>
     </row>
@@ -21252,10 +21252,10 @@
         <v>12196003</v>
       </c>
       <c r="L305" s="9" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M305" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N305" s="10"/>
     </row>
@@ -21295,10 +21295,10 @@
         <v>12196003</v>
       </c>
       <c r="L306" s="9" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M306" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N306" s="10"/>
     </row>
@@ -21335,7 +21335,7 @@
         <v>12196003</v>
       </c>
       <c r="L307" s="44" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M307" s="9"/>
       <c r="N307" s="10"/>
@@ -21374,10 +21374,10 @@
         <v>196821008</v>
       </c>
       <c r="L308" s="9" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="M308" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N308" s="10"/>
     </row>
@@ -21415,10 +21415,10 @@
         <v>196821008</v>
       </c>
       <c r="L309" s="9" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="M309" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N309" s="10"/>
     </row>
@@ -21453,7 +21453,7 @@
         <v>196821008</v>
       </c>
       <c r="L310" s="44" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="M310" s="9"/>
       <c r="N310" s="10"/>
@@ -21492,10 +21492,10 @@
         <v>279816002</v>
       </c>
       <c r="L311" s="44" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="M311" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N311" s="10"/>
     </row>
@@ -21533,10 +21533,10 @@
         <v>279816002</v>
       </c>
       <c r="L312" s="44" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="M312" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N312" s="10"/>
     </row>
@@ -21571,7 +21571,7 @@
         <v>279816002</v>
       </c>
       <c r="L313" s="44" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="M313" s="9"/>
       <c r="N313" s="10"/>
@@ -21607,7 +21607,7 @@
         <v>196751009</v>
       </c>
       <c r="L314" s="44" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="M314" s="9"/>
       <c r="N314" s="10"/>
@@ -21628,24 +21628,24 @@
         <v>12</v>
       </c>
       <c r="G315" s="30" t="s">
+        <v>2027</v>
+      </c>
+      <c r="H315" s="31" t="s">
         <v>2028</v>
       </c>
-      <c r="H315" s="31" t="s">
-        <v>2029</v>
-      </c>
       <c r="I315" s="32" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="J315" s="33"/>
       <c r="K315" s="112">
         <v>65349008</v>
       </c>
       <c r="L315" s="44" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="M315" s="9"/>
       <c r="N315" s="99" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="316" spans="1:14" ht="51">
@@ -21664,24 +21664,24 @@
         <v>12</v>
       </c>
       <c r="G316" s="30" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="H316" s="31" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="I316" s="32" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="J316" s="33"/>
       <c r="K316" s="112">
         <v>245357003</v>
       </c>
       <c r="L316" s="44" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="M316" s="9"/>
       <c r="N316" s="99" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="317" spans="1:14" ht="51">
@@ -21700,24 +21700,24 @@
         <v>8</v>
       </c>
       <c r="G317" s="30" t="s">
+        <v>2029</v>
+      </c>
+      <c r="H317" s="31" t="s">
         <v>2030</v>
       </c>
-      <c r="H317" s="31" t="s">
-        <v>2031</v>
-      </c>
       <c r="I317" s="32" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="J317" s="33"/>
       <c r="K317" s="112">
         <v>84219008</v>
       </c>
       <c r="L317" s="44" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="M317" s="9"/>
       <c r="N317" s="99" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="318" spans="1:14" ht="51">
@@ -21754,10 +21754,10 @@
         <v>65349008</v>
       </c>
       <c r="L318" s="9" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="M318" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="319" spans="1:14" ht="51">
@@ -21794,10 +21794,10 @@
         <v>65349008</v>
       </c>
       <c r="L319" s="9" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="M319" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="320" spans="1:14" ht="51">
@@ -21834,10 +21834,10 @@
         <v>245299000</v>
       </c>
       <c r="L320" s="9" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="M320" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N320" s="97"/>
     </row>
@@ -21875,10 +21875,10 @@
         <v>245295006</v>
       </c>
       <c r="L321" s="105" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="M321" s="108" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="N321" s="97"/>
     </row>
@@ -21916,13 +21916,13 @@
         <v>245295006</v>
       </c>
       <c r="L322" s="89" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="M322" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N322" s="94" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="323" spans="1:14" ht="51">
@@ -21952,7 +21952,7 @@
         <v>1597</v>
       </c>
       <c r="I323" s="93" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="J323" s="17">
         <v>5934</v>
@@ -21961,13 +21961,13 @@
         <v>245282001</v>
       </c>
       <c r="L323" s="44" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="M323" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N323" s="94" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="324" spans="1:14" ht="51">
@@ -21997,7 +21997,7 @@
         <v>1594</v>
       </c>
       <c r="I324" s="93" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="J324" s="17">
         <v>5933</v>
@@ -22006,10 +22006,10 @@
         <v>245282001</v>
       </c>
       <c r="L324" s="44" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="M324" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N324" s="10"/>
     </row>
@@ -22046,7 +22046,7 @@
         <v>245282001</v>
       </c>
       <c r="L325" s="44" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="M325" s="9"/>
       <c r="N325" s="10"/>
@@ -22082,7 +22082,7 @@
         <v>279763008</v>
       </c>
       <c r="L326" s="44" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="M326" s="9"/>
       <c r="N326" s="10"/>
@@ -22112,7 +22112,7 @@
         <v>910</v>
       </c>
       <c r="I327" s="16" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="J327" s="17">
         <v>236341</v>
@@ -22121,10 +22121,10 @@
         <v>279763008</v>
       </c>
       <c r="L327" s="44" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="M327" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N327" s="10"/>
     </row>
@@ -22153,7 +22153,7 @@
         <v>909</v>
       </c>
       <c r="I328" s="16" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="J328" s="17">
         <v>236339</v>
@@ -22162,10 +22162,10 @@
         <v>279763008</v>
       </c>
       <c r="L328" s="44" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="M328" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N328" s="10"/>
     </row>
@@ -22200,7 +22200,7 @@
         <v>64038003</v>
       </c>
       <c r="L329" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M329" s="9"/>
       <c r="N329" s="10"/>
@@ -22239,10 +22239,10 @@
         <v>59441001</v>
       </c>
       <c r="L330" s="9" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="M330" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N330" s="10"/>
     </row>
@@ -22277,11 +22277,11 @@
         <v>127938006</v>
       </c>
       <c r="L331" s="106" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="M331" s="56"/>
       <c r="N331" s="95" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="332" spans="1:14" ht="51">
@@ -22318,10 +22318,10 @@
         <v>245299000</v>
       </c>
       <c r="L332" s="9" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="M332" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N332" s="10"/>
     </row>
@@ -22356,7 +22356,7 @@
         <v>62683002</v>
       </c>
       <c r="L333" s="44" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="M333" s="9"/>
       <c r="N333" s="10"/>
@@ -22379,23 +22379,23 @@
         <v>7</v>
       </c>
       <c r="G334" s="34" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H334" s="35" t="s">
         <v>2043</v>
       </c>
-      <c r="H334" s="35" t="s">
+      <c r="I334" s="36" t="s">
         <v>2044</v>
-      </c>
-      <c r="I334" s="36" t="s">
-        <v>2045</v>
       </c>
       <c r="J334" s="37"/>
       <c r="K334" s="112">
         <v>81105003</v>
       </c>
       <c r="L334" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="N334" s="9" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="335" spans="1:14" ht="34" customHeight="1">
@@ -22434,10 +22434,10 @@
         <v>81105003</v>
       </c>
       <c r="L335" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M335" s="9" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="336" spans="1:14" ht="34" customHeight="1">
@@ -22476,10 +22476,10 @@
         <v>81105003</v>
       </c>
       <c r="L336" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M336" s="9" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="337" spans="1:14" ht="51" customHeight="1">
@@ -22518,10 +22518,10 @@
         <v>81105003</v>
       </c>
       <c r="L337" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M337" s="134" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="338" spans="1:14" ht="51" customHeight="1">
@@ -22560,10 +22560,10 @@
         <v>81105003</v>
       </c>
       <c r="L338" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M338" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="339" spans="1:14" ht="34" customHeight="1">
@@ -22602,10 +22602,10 @@
         <v>81105003</v>
       </c>
       <c r="L339" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M339" s="9" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="N339" s="57"/>
     </row>
@@ -22645,10 +22645,10 @@
         <v>81105003</v>
       </c>
       <c r="L340" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M340" s="9" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="N340" s="72"/>
     </row>
@@ -22688,13 +22688,13 @@
         <v>81105003</v>
       </c>
       <c r="L341" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M341" s="105" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
       <c r="N341" s="100" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="342" spans="1:14" ht="34" customHeight="1">
@@ -22733,13 +22733,13 @@
         <v>81105003</v>
       </c>
       <c r="L342" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M342" s="105" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="N342" s="100" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="343" spans="1:14" ht="34" customHeight="1">
@@ -22778,13 +22778,13 @@
         <v>81105003</v>
       </c>
       <c r="L343" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M343" s="105" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="N343" s="100" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="344" spans="1:14" ht="34" customHeight="1">
@@ -22823,13 +22823,13 @@
         <v>81105003</v>
       </c>
       <c r="L344" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M344" s="105" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="N344" s="100" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="345" spans="1:14" ht="34" customHeight="1">
@@ -22868,10 +22868,10 @@
         <v>81105003</v>
       </c>
       <c r="L345" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M345" s="9" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="N345" s="72"/>
     </row>
@@ -22911,10 +22911,10 @@
         <v>81105003</v>
       </c>
       <c r="L346" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M346" s="9" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="N346" s="72"/>
     </row>
@@ -22954,10 +22954,10 @@
         <v>81105003</v>
       </c>
       <c r="L347" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M347" s="9" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="N347" s="72"/>
     </row>
@@ -22997,10 +22997,10 @@
         <v>81105003</v>
       </c>
       <c r="L348" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M348" s="9" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="N348" s="72"/>
     </row>
@@ -23040,10 +23040,10 @@
         <v>81105003</v>
       </c>
       <c r="L349" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M349" s="9" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="N349" s="72"/>
     </row>
@@ -23083,10 +23083,10 @@
         <v>81105003</v>
       </c>
       <c r="L350" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M350" s="9" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="N350" s="72"/>
     </row>
@@ -23126,10 +23126,10 @@
         <v>81105003</v>
       </c>
       <c r="L351" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M351" s="9" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="N351" s="72"/>
     </row>
@@ -23169,10 +23169,10 @@
         <v>81105003</v>
       </c>
       <c r="L352" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M352" s="9" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="N352" s="72"/>
     </row>
@@ -23210,10 +23210,10 @@
         <v>81105003</v>
       </c>
       <c r="L353" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M353" s="9" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="N353" s="72"/>
     </row>
@@ -23251,10 +23251,10 @@
         <v>81105003</v>
       </c>
       <c r="L354" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M354" s="9" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="N354" s="72"/>
     </row>
@@ -23294,10 +23294,10 @@
         <v>81105003</v>
       </c>
       <c r="L355" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M355" s="9" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N355" s="72"/>
     </row>
@@ -23337,10 +23337,10 @@
         <v>81105003</v>
       </c>
       <c r="L356" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M356" s="9" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="N356" s="72"/>
     </row>
@@ -23380,10 +23380,10 @@
         <v>81105003</v>
       </c>
       <c r="L357" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M357" s="9" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="N357" s="72"/>
     </row>
@@ -23423,10 +23423,10 @@
         <v>81105003</v>
       </c>
       <c r="L358" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M358" s="9" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="N358" s="72"/>
     </row>
@@ -23464,10 +23464,10 @@
         <v>81105003</v>
       </c>
       <c r="L359" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M359" s="9" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="N359" s="72"/>
     </row>
@@ -23505,10 +23505,10 @@
         <v>81105003</v>
       </c>
       <c r="L360" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M360" s="103" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="N360" s="72"/>
     </row>
@@ -23533,21 +23533,21 @@
         <v>14</v>
       </c>
       <c r="G361" s="12" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="H361" s="38"/>
       <c r="I361" s="12" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="J361" s="39"/>
       <c r="K361" s="112">
         <v>81105003</v>
       </c>
       <c r="L361" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M361" s="103" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="N361" s="72"/>
     </row>
@@ -23572,24 +23572,24 @@
         <v>14</v>
       </c>
       <c r="G362" s="12" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="H362" s="38"/>
       <c r="I362" s="12" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="J362" s="39"/>
       <c r="K362" s="112">
         <v>81105003</v>
       </c>
       <c r="L362" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M362" s="9" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="N362" s="40" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="363" spans="1:14" ht="18" customHeight="1">
@@ -23610,21 +23610,21 @@
       </c>
       <c r="F363" s="13"/>
       <c r="G363" s="12" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="H363" s="35"/>
       <c r="I363" s="12" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="J363" s="39"/>
       <c r="K363" s="112">
         <v>81105003</v>
       </c>
       <c r="L363" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M363" s="9" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="N363" s="40"/>
     </row>
@@ -23646,21 +23646,21 @@
       </c>
       <c r="F364" s="13"/>
       <c r="G364" s="12" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="H364" s="35"/>
       <c r="I364" s="12" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="J364" s="39"/>
       <c r="K364" s="112">
         <v>81105003</v>
       </c>
       <c r="L364" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M364" s="9" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="N364" s="40"/>
     </row>
@@ -23682,21 +23682,21 @@
       </c>
       <c r="F365" s="13"/>
       <c r="G365" s="12" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="H365" s="35"/>
       <c r="I365" s="12" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="J365" s="39"/>
       <c r="K365" s="112">
         <v>81105003</v>
       </c>
       <c r="L365" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M365" s="9" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="N365" s="40"/>
     </row>
@@ -23718,21 +23718,21 @@
       </c>
       <c r="F366" s="13"/>
       <c r="G366" s="12" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="H366" s="35"/>
       <c r="I366" s="12" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="J366" s="39"/>
       <c r="K366" s="112">
         <v>81105003</v>
       </c>
       <c r="L366" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M366" s="9" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="N366" s="40"/>
     </row>
@@ -23754,21 +23754,21 @@
       </c>
       <c r="F367" s="13"/>
       <c r="G367" s="12" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="H367" s="35"/>
       <c r="I367" s="12" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="J367" s="39"/>
       <c r="K367" s="112">
         <v>81105003</v>
       </c>
       <c r="L367" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M367" s="9" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="N367" s="40"/>
     </row>
@@ -23790,21 +23790,21 @@
       </c>
       <c r="F368" s="13"/>
       <c r="G368" s="12" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="H368" s="35"/>
       <c r="I368" s="12" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="J368" s="39"/>
       <c r="K368" s="112">
         <v>81105003</v>
       </c>
       <c r="L368" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M368" s="9" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="N368" s="40"/>
     </row>
@@ -23826,21 +23826,21 @@
       </c>
       <c r="F369" s="13"/>
       <c r="G369" s="12" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="H369" s="35"/>
       <c r="I369" s="12" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="J369" s="39"/>
       <c r="K369" s="112">
         <v>81105003</v>
       </c>
       <c r="L369" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M369" s="9" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="N369" s="40"/>
     </row>
@@ -23862,21 +23862,21 @@
       </c>
       <c r="F370" s="13"/>
       <c r="G370" s="12" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="H370" s="35"/>
       <c r="I370" s="12" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="J370" s="39"/>
       <c r="K370" s="112">
         <v>81105003</v>
       </c>
       <c r="L370" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M370" s="9" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="N370" s="40"/>
     </row>
@@ -23898,21 +23898,21 @@
       </c>
       <c r="F371" s="13"/>
       <c r="G371" s="12" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="H371" s="35"/>
       <c r="I371" s="12" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="J371" s="39"/>
       <c r="K371" s="112">
         <v>81105003</v>
       </c>
       <c r="L371" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M371" s="9" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="N371" s="40"/>
     </row>
@@ -23934,21 +23934,21 @@
       </c>
       <c r="F372" s="13"/>
       <c r="G372" s="12" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="H372" s="35"/>
       <c r="I372" s="12" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="J372" s="39"/>
       <c r="K372" s="112">
         <v>81105003</v>
       </c>
       <c r="L372" s="44" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="M372" s="9" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="N372" s="40"/>
     </row>
@@ -23986,10 +23986,10 @@
         <v>36086000</v>
       </c>
       <c r="L373" s="44" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="M373" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N373" s="10"/>
     </row>
@@ -24027,10 +24027,10 @@
         <v>36086000</v>
       </c>
       <c r="L374" s="44" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="M374" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N374" s="10"/>
     </row>
@@ -24065,7 +24065,7 @@
         <v>35783009</v>
       </c>
       <c r="L375" s="44" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="M375" s="9"/>
       <c r="N375" s="10"/>
@@ -24104,10 +24104,10 @@
         <v>368550005</v>
       </c>
       <c r="L376" s="9" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="M376" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N376" s="10"/>
     </row>
@@ -24145,10 +24145,10 @@
         <v>368550005</v>
       </c>
       <c r="L377" s="9" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="M377" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N377" s="10"/>
     </row>
@@ -24183,7 +24183,7 @@
         <v>368550005</v>
       </c>
       <c r="L378" s="44" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="M378" s="9"/>
       <c r="N378" s="10"/>
@@ -24222,10 +24222,10 @@
         <v>82365008</v>
       </c>
       <c r="L379" s="44" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="M379" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N379" s="10"/>
     </row>
@@ -24263,10 +24263,10 @@
         <v>82365008</v>
       </c>
       <c r="L380" s="44" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="M380" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N380" s="10"/>
     </row>
@@ -24301,7 +24301,7 @@
         <v>82365008</v>
       </c>
       <c r="L381" s="44" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="M381" s="9"/>
       <c r="N381" s="10"/>
@@ -24338,10 +24338,10 @@
         <v>245294005</v>
       </c>
       <c r="L382" s="44" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="M382" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N382" s="10"/>
     </row>
@@ -24377,10 +24377,10 @@
         <v>245294005</v>
       </c>
       <c r="L383" s="44" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="M383" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N383" s="10"/>
     </row>
@@ -24413,7 +24413,7 @@
         <v>245294005</v>
       </c>
       <c r="L384" s="44" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="M384" s="9"/>
       <c r="N384" s="10"/>
@@ -24451,7 +24451,7 @@
         <v>245288002</v>
       </c>
       <c r="L385" s="9" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="M385" s="9"/>
       <c r="N385" s="10"/>
@@ -24489,7 +24489,7 @@
         <v>45206002</v>
       </c>
       <c r="L386" s="9" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="M386" s="9"/>
       <c r="N386" s="10"/>
@@ -24528,10 +24528,10 @@
         <v>1187336003</v>
       </c>
       <c r="L387" s="9" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="M387" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N387" s="10"/>
     </row>
@@ -24569,10 +24569,10 @@
         <v>1187336003</v>
       </c>
       <c r="L388" s="9" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="M388" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N388" s="10"/>
     </row>
@@ -24610,10 +24610,10 @@
         <v>196662004</v>
       </c>
       <c r="L389" s="44" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="M389" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N389" s="10"/>
     </row>
@@ -24651,10 +24651,10 @@
         <v>196662004</v>
       </c>
       <c r="L390" s="44" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="M390" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N390" s="10"/>
     </row>
@@ -24689,7 +24689,7 @@
         <v>196662004</v>
       </c>
       <c r="L391" s="44" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="M391" s="9"/>
       <c r="N391" s="10"/>
@@ -24728,10 +24728,10 @@
         <v>59441001</v>
       </c>
       <c r="L392" s="58" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="M392" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N392" s="10"/>
     </row>
@@ -24771,10 +24771,10 @@
         <v>76838003</v>
       </c>
       <c r="L393" s="44" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="M393" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N393" s="10"/>
     </row>
@@ -24814,10 +24814,10 @@
         <v>76838003</v>
       </c>
       <c r="L394" s="44" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="M394" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N394" s="10"/>
     </row>
@@ -24852,7 +24852,7 @@
         <v>245283006</v>
       </c>
       <c r="L395" s="44" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="M395" s="9"/>
       <c r="N395" s="10"/>
@@ -24891,10 +24891,10 @@
         <v>245283006</v>
       </c>
       <c r="L396" s="44" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="M396" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N396" s="10"/>
     </row>
@@ -24932,10 +24932,10 @@
         <v>245283006</v>
       </c>
       <c r="L397" s="44" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="M397" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N397" s="10"/>
     </row>
@@ -24968,7 +24968,7 @@
         <v>84782009</v>
       </c>
       <c r="L398" s="9" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="M398" s="9"/>
       <c r="N398" s="10"/>
@@ -25009,10 +25009,10 @@
         <v>83251001</v>
       </c>
       <c r="L399" s="9" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="M399" s="5" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N399" s="10"/>
     </row>
@@ -25043,7 +25043,7 @@
         <v>844</v>
       </c>
       <c r="I400" s="16" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="J400" s="17">
         <v>72969</v>
@@ -25052,10 +25052,10 @@
         <v>83251001</v>
       </c>
       <c r="L400" s="9" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="M400" s="6" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N400" s="10"/>
     </row>
@@ -25090,7 +25090,7 @@
         <v>40958000</v>
       </c>
       <c r="L401" s="9" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="M401" s="9"/>
       <c r="N401" s="10"/>
@@ -25131,10 +25131,10 @@
         <v>31065004</v>
       </c>
       <c r="L402" s="9" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="M402" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N402" s="10"/>
     </row>
@@ -25174,10 +25174,10 @@
         <v>31065004</v>
       </c>
       <c r="L403" s="9" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="M403" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N403" s="10"/>
     </row>
@@ -25214,7 +25214,7 @@
         <v>244453006</v>
       </c>
       <c r="L404" s="9" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="M404" s="9"/>
       <c r="N404" s="10"/>
@@ -25255,10 +25255,10 @@
         <v>16630005</v>
       </c>
       <c r="L405" s="9" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="M405" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N405" s="10"/>
     </row>
@@ -25298,10 +25298,10 @@
         <v>16630005</v>
       </c>
       <c r="L406" s="9" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="M406" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N406" s="10"/>
     </row>
@@ -25338,7 +25338,7 @@
         <v>18234004</v>
       </c>
       <c r="L407" s="9" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="M407" s="9"/>
       <c r="N407" s="10"/>
@@ -25379,10 +25379,10 @@
         <v>78277001</v>
       </c>
       <c r="L408" s="9" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="M408" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N408" s="10"/>
     </row>
@@ -25422,10 +25422,10 @@
         <v>78277001</v>
       </c>
       <c r="L409" s="9" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="M409" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N409" s="10"/>
     </row>
@@ -25463,10 +25463,10 @@
         <v>39607008</v>
       </c>
       <c r="L410" s="9" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="M410" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N410" s="10"/>
     </row>
@@ -25504,10 +25504,10 @@
         <v>31094006</v>
       </c>
       <c r="L411" s="9" t="s">
+        <v>2184</v>
+      </c>
+      <c r="M411" s="9" t="s">
         <v>2185</v>
-      </c>
-      <c r="M411" s="9" t="s">
-        <v>2186</v>
       </c>
       <c r="N411" s="10"/>
     </row>
@@ -25545,10 +25545,10 @@
         <v>31094006</v>
       </c>
       <c r="L412" s="9" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="M412" s="9" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="N412" s="10"/>
     </row>
@@ -25586,10 +25586,10 @@
         <v>31094006</v>
       </c>
       <c r="L413" s="9" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="M413" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N413" s="10"/>
     </row>
@@ -25627,10 +25627,10 @@
         <v>31094006</v>
       </c>
       <c r="L414" s="9" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="M414" s="9" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="N414" s="10"/>
     </row>
@@ -25668,10 +25668,10 @@
         <v>31094006</v>
       </c>
       <c r="L415" s="9" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="M415" s="9" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="N415" s="10"/>
     </row>
@@ -25709,10 +25709,10 @@
         <v>31094006</v>
       </c>
       <c r="L416" s="9" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="M416" s="9" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="N416" s="10"/>
     </row>
@@ -25750,10 +25750,10 @@
         <v>39607008</v>
       </c>
       <c r="L417" s="9" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="M417" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N417" s="10"/>
     </row>
@@ -25790,7 +25790,7 @@
         <v>34080009</v>
       </c>
       <c r="L418" s="9" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="M418" s="9"/>
       <c r="N418" s="10"/>
@@ -25831,7 +25831,7 @@
         <v>34080009</v>
       </c>
       <c r="L419" s="9" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="M419" s="9"/>
       <c r="N419" s="10"/>
@@ -25872,7 +25872,7 @@
         <v>34080009</v>
       </c>
       <c r="L420" s="9" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="M420" s="9"/>
       <c r="N420" s="10"/>
@@ -25910,7 +25910,7 @@
         <v>70925003</v>
       </c>
       <c r="L421" s="9" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="M421" s="9"/>
       <c r="N421" s="10"/>
@@ -25951,7 +25951,7 @@
         <v>70925003</v>
       </c>
       <c r="L422" s="9" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="M422" s="9"/>
       <c r="N422" s="10"/>
@@ -25992,10 +25992,10 @@
         <v>70925003</v>
       </c>
       <c r="L423" s="9" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="M423" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N423" s="10"/>
     </row>
@@ -26032,10 +26032,10 @@
         <v>363654007</v>
       </c>
       <c r="L424" s="9" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="M424" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N424" s="10"/>
     </row>
@@ -26072,10 +26072,10 @@
         <v>363654007</v>
       </c>
       <c r="L425" s="9" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="M425" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N425" s="10"/>
     </row>
@@ -26112,7 +26112,7 @@
         <v>31389004</v>
       </c>
       <c r="L426" s="9" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="M426" s="9"/>
     </row>
@@ -26152,10 +26152,10 @@
         <v>4866005</v>
       </c>
       <c r="L427" s="9" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M427" s="9" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="N427" s="10"/>
     </row>
@@ -26195,10 +26195,10 @@
         <v>4866005</v>
       </c>
       <c r="L428" s="9" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M428" s="9" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="N428" s="10"/>
     </row>
@@ -26238,10 +26238,10 @@
         <v>4866005</v>
       </c>
       <c r="L429" s="9" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M429" s="9" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="N429" s="10"/>
     </row>
@@ -26281,10 +26281,10 @@
         <v>52410001</v>
       </c>
       <c r="L430" s="9" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="M430" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N430" s="10"/>
     </row>
@@ -26324,10 +26324,10 @@
         <v>52410001</v>
       </c>
       <c r="L431" s="9" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="M431" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N431" s="10"/>
     </row>
@@ -26362,10 +26362,10 @@
         <v>15497006</v>
       </c>
       <c r="L432" s="9" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="M432" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N432" s="10"/>
     </row>
@@ -26405,7 +26405,7 @@
         <v>79368004</v>
       </c>
       <c r="L433" s="9" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="M433" s="9"/>
       <c r="N433" s="10"/>
@@ -26446,7 +26446,7 @@
         <v>79368004</v>
       </c>
       <c r="L434" s="9" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="M434" s="9"/>
       <c r="N434" s="10"/>
@@ -26487,10 +26487,10 @@
         <v>18252004</v>
       </c>
       <c r="L435" s="9" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="M435" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N435" s="10"/>
     </row>
@@ -26530,10 +26530,10 @@
         <v>18252004</v>
       </c>
       <c r="L436" s="9" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="M436" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N436" s="10"/>
     </row>
@@ -26571,13 +26571,13 @@
         <v>76738006</v>
       </c>
       <c r="L437" s="89" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="M437" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N437" s="98" t="s">
-        <v>2504</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="438" spans="1:14" ht="34">
@@ -26614,10 +26614,10 @@
         <v>76738006</v>
       </c>
       <c r="L438" s="9" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="M438" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N438" s="10"/>
     </row>
@@ -26657,10 +26657,10 @@
         <v>22823000</v>
       </c>
       <c r="L439" s="9" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="M439" s="5" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N439" s="10"/>
     </row>
@@ -26691,7 +26691,7 @@
         <v>1578</v>
       </c>
       <c r="I440" s="16" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="J440" s="17">
         <v>13408</v>
@@ -26700,10 +26700,10 @@
         <v>22823000</v>
       </c>
       <c r="L440" s="9" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="M440" s="6" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N440" s="10"/>
     </row>
@@ -26743,10 +26743,10 @@
         <v>52927003</v>
       </c>
       <c r="L441" s="9" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="M441" s="5" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N441" s="10"/>
     </row>
@@ -26783,7 +26783,7 @@
         <v>49460000</v>
       </c>
       <c r="L442" s="9" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="M442" s="41"/>
       <c r="N442" s="10"/>
@@ -26824,10 +26824,10 @@
         <v>46607005</v>
       </c>
       <c r="L443" s="9" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="M443" s="5" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="N443" s="10"/>
     </row>
@@ -26867,10 +26867,10 @@
         <v>46607005</v>
       </c>
       <c r="L444" s="9" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="M444" s="6" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="N444" s="10"/>
     </row>
@@ -26907,7 +26907,7 @@
         <v>15776009</v>
       </c>
       <c r="L445" s="9" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="M445" s="9"/>
       <c r="N445" s="10"/>
@@ -26945,7 +26945,7 @@
         <v>64163001</v>
       </c>
       <c r="L446" s="9" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="M446" s="9"/>
       <c r="N446" s="10"/>
@@ -26983,7 +26983,7 @@
         <v>73239005</v>
       </c>
       <c r="L447" s="9" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="M447" s="9"/>
       <c r="N447" s="10"/>
@@ -27019,7 +27019,7 @@
         <v>45682005</v>
       </c>
       <c r="L448" s="9" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="M448" s="9"/>
       <c r="N448" s="10"/>
@@ -27057,10 +27057,10 @@
         <v>45289007</v>
       </c>
       <c r="L449" s="9" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="M449" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N449" s="10"/>
     </row>
@@ -27095,7 +27095,7 @@
         <v>52737000</v>
       </c>
       <c r="L450" s="9" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="M450" s="9"/>
       <c r="N450" s="10"/>
@@ -27127,7 +27127,7 @@
         <v>1579</v>
       </c>
       <c r="I451" s="16" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="J451" s="17">
         <v>50878</v>
@@ -27136,10 +27136,10 @@
         <v>18234004</v>
       </c>
       <c r="L451" s="9" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="M451" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N451" s="10"/>
     </row>
@@ -27170,7 +27170,7 @@
         <v>1555</v>
       </c>
       <c r="I452" s="16" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="J452" s="17">
         <v>50875</v>
@@ -27179,10 +27179,10 @@
         <v>18234004</v>
       </c>
       <c r="L452" s="9" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="M452" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N452" s="10"/>
     </row>
@@ -27217,10 +27217,10 @@
         <v>18911002</v>
       </c>
       <c r="L453" s="9" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="M453" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N453" s="10"/>
     </row>
@@ -27257,7 +27257,7 @@
         <v>76848001</v>
       </c>
       <c r="L454" s="9" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="M454" s="9"/>
       <c r="N454" s="10"/>
@@ -27293,7 +27293,7 @@
         <v>38864007</v>
       </c>
       <c r="L455" s="9" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="M455" s="9"/>
       <c r="N455" s="10"/>
@@ -27331,7 +27331,7 @@
         <v>118762006</v>
       </c>
       <c r="L456" s="9" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="M456" s="9"/>
       <c r="N456" s="10"/>
@@ -27370,10 +27370,10 @@
         <v>15497006</v>
       </c>
       <c r="L457" s="9" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="M457" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N457" s="10"/>
     </row>
@@ -27411,10 +27411,10 @@
         <v>15497006</v>
       </c>
       <c r="L458" s="9" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="M458" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N458" s="10"/>
     </row>
@@ -27447,7 +27447,7 @@
         <v>14106009</v>
       </c>
       <c r="L459" s="9" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="M459" s="9"/>
       <c r="N459" s="10"/>
@@ -27485,7 +27485,7 @@
         <v>54066008</v>
       </c>
       <c r="L460" s="9" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="M460" s="9"/>
       <c r="N460" s="10"/>
@@ -27520,11 +27520,11 @@
         <v>110822002</v>
       </c>
       <c r="L461" s="9" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="M461" s="9"/>
       <c r="N461" s="97" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="462" spans="1:14" ht="13.5" customHeight="1">
@@ -27560,7 +27560,7 @@
         <v>45793000</v>
       </c>
       <c r="L462" s="9" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="M462" s="9"/>
       <c r="N462" s="10"/>
@@ -27573,7 +27573,7 @@
         <v>649</v>
       </c>
       <c r="D463" s="12" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="E463" s="12" t="s">
         <v>697</v>
@@ -27598,7 +27598,7 @@
         <v>56329008</v>
       </c>
       <c r="L463" s="9" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="M463" s="9"/>
       <c r="N463" s="10"/>
@@ -27636,11 +27636,11 @@
         <v>49557009</v>
       </c>
       <c r="L464" s="9" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="M464" s="9"/>
       <c r="N464" s="94" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="465" spans="1:14" ht="17">
@@ -27676,7 +27676,7 @@
         <v>41216001</v>
       </c>
       <c r="L465" s="9" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="M465" s="9"/>
       <c r="N465" s="10"/>
@@ -27717,10 +27717,10 @@
         <v>45289007</v>
       </c>
       <c r="L466" s="9" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="M466" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N466" s="10"/>
     </row>
@@ -27760,10 +27760,10 @@
         <v>45289007</v>
       </c>
       <c r="L467" s="9" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="M467" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N467" s="10"/>
     </row>
@@ -27798,11 +27798,11 @@
         <v>1162492000</v>
       </c>
       <c r="L468" s="89" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="M468" s="9"/>
       <c r="N468" s="88" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="469" spans="1:14" ht="51">
@@ -27838,10 +27838,10 @@
         <v>88938001</v>
       </c>
       <c r="L469" s="9" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="M469" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N469" s="10"/>
     </row>
@@ -27878,10 +27878,10 @@
         <v>88938001</v>
       </c>
       <c r="L470" s="9" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="M470" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N470" s="10"/>
     </row>
@@ -27918,10 +27918,10 @@
         <v>85002005</v>
       </c>
       <c r="L471" s="9" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="M471" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N471" s="10"/>
     </row>
@@ -27958,10 +27958,10 @@
         <v>85002005</v>
       </c>
       <c r="L472" s="9" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="M472" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N472" s="10"/>
     </row>
@@ -27996,7 +27996,7 @@
         <v>511000202101</v>
       </c>
       <c r="L473" s="9" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="M473" s="9"/>
       <c r="N473" s="10"/>
@@ -28032,7 +28032,7 @@
         <v>34402009</v>
       </c>
       <c r="L474" s="9" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M474" s="9"/>
       <c r="N474" s="10"/>
@@ -28070,7 +28070,7 @@
         <v>62397004</v>
       </c>
       <c r="L475" s="9" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="M475" s="9"/>
       <c r="N475" s="10"/>
@@ -28106,7 +28106,7 @@
         <v>41695006</v>
       </c>
       <c r="L476" s="9" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="M476" s="9"/>
       <c r="N476" s="10"/>
@@ -28147,10 +28147,10 @@
         <v>67183008</v>
       </c>
       <c r="L477" s="9" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="M477" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N477" s="10"/>
     </row>
@@ -28190,10 +28190,10 @@
         <v>67183008</v>
       </c>
       <c r="L478" s="9" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="M478" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N478" s="10"/>
     </row>
@@ -28233,10 +28233,10 @@
         <v>124002</v>
       </c>
       <c r="L479" s="9" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="M479" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N479" s="10"/>
     </row>
@@ -28276,10 +28276,10 @@
         <v>124002</v>
       </c>
       <c r="L480" s="9" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="M480" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N480" s="10"/>
     </row>
@@ -28312,7 +28312,7 @@
         <v>12402003</v>
       </c>
       <c r="L481" s="9" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="M481" s="9"/>
       <c r="N481" s="10"/>
@@ -28339,18 +28339,18 @@
         <v>1684</v>
       </c>
       <c r="I482" s="16" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="J482" s="17"/>
       <c r="K482" s="115">
         <v>12402003</v>
       </c>
       <c r="L482" s="89" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="M482" s="9"/>
       <c r="N482" s="88" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="483" spans="1:14" ht="51">
@@ -28384,7 +28384,7 @@
         <v>20233005</v>
       </c>
       <c r="L483" s="9" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="M483" s="9"/>
       <c r="N483" s="10"/>
@@ -28420,7 +28420,7 @@
         <v>64739004</v>
       </c>
       <c r="L484" s="9" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="M484" s="9"/>
       <c r="N484" s="10"/>
@@ -28454,10 +28454,10 @@
         <v>64739004</v>
       </c>
       <c r="L485" s="9" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="M485" s="9" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="N485" s="10"/>
     </row>
@@ -28490,10 +28490,10 @@
         <v>64739004</v>
       </c>
       <c r="L486" s="9" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="M486" s="9" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="N486" s="10"/>
     </row>
@@ -28530,7 +28530,7 @@
         <v>54215007</v>
       </c>
       <c r="L487" s="9" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="M487" s="9"/>
       <c r="N487" s="10"/>
@@ -28568,7 +28568,7 @@
         <v>82561000</v>
       </c>
       <c r="L488" s="9" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="M488" s="9"/>
       <c r="N488" s="10"/>
@@ -28609,10 +28609,10 @@
         <v>82561000</v>
       </c>
       <c r="L489" s="89" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="M489" s="89" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N489" s="10"/>
     </row>
@@ -28652,10 +28652,10 @@
         <v>82561000</v>
       </c>
       <c r="L490" s="90" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="M490" s="89" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N490" s="10"/>
     </row>
@@ -28695,10 +28695,10 @@
         <v>62413002</v>
       </c>
       <c r="L491" s="44" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="M491" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N491" s="10"/>
     </row>
@@ -28738,10 +28738,10 @@
         <v>62413002</v>
       </c>
       <c r="L492" s="44" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="M492" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N492" s="10"/>
     </row>
@@ -28778,7 +28778,7 @@
         <v>55060009</v>
       </c>
       <c r="L493" s="9" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="M493" s="9"/>
       <c r="N493" s="10"/>
@@ -28816,7 +28816,7 @@
         <v>15924003</v>
       </c>
       <c r="L494" s="9" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="M494" s="9"/>
       <c r="N494" s="10"/>
@@ -28857,10 +28857,10 @@
         <v>5665001</v>
       </c>
       <c r="L495" s="9" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M495" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N495" s="10"/>
     </row>
@@ -28900,10 +28900,10 @@
         <v>5665001</v>
       </c>
       <c r="L496" s="9" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M496" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N496" s="10"/>
     </row>
@@ -28943,13 +28943,13 @@
         <v>5665001</v>
       </c>
       <c r="L497" s="89" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M497" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N497" s="98" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="498" spans="1:14" ht="17">
@@ -29026,10 +29026,10 @@
         <v>48535007</v>
       </c>
       <c r="L499" s="9" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="M499" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N499" s="10"/>
     </row>
@@ -29069,10 +29069,10 @@
         <v>48535007</v>
       </c>
       <c r="L500" s="9" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="M500" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N500" s="10"/>
     </row>
@@ -29112,10 +29112,10 @@
         <v>78247007</v>
       </c>
       <c r="L501" s="9" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="M501" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N501" s="10"/>
     </row>
@@ -29155,10 +29155,10 @@
         <v>78247007</v>
       </c>
       <c r="L502" s="9" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="M502" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N502" s="10"/>
     </row>
@@ -29198,10 +29198,10 @@
         <v>25888004</v>
       </c>
       <c r="L503" s="9" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="M503" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N503" s="10"/>
     </row>
@@ -29241,10 +29241,10 @@
         <v>25888004</v>
       </c>
       <c r="L504" s="9" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="M504" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N504" s="10"/>
     </row>
@@ -29284,10 +29284,10 @@
         <v>25523003</v>
       </c>
       <c r="L505" s="9" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="M505" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N505" s="10"/>
     </row>
@@ -29327,10 +29327,10 @@
         <v>25523003</v>
       </c>
       <c r="L506" s="9" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="M506" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N506" s="10"/>
     </row>
@@ -29370,10 +29370,10 @@
         <v>15339008</v>
       </c>
       <c r="L507" s="9" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="M507" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N507" s="10"/>
     </row>
@@ -29413,10 +29413,10 @@
         <v>15339008</v>
       </c>
       <c r="L508" s="9" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="M508" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N508" s="10"/>
     </row>
@@ -29456,10 +29456,10 @@
         <v>59558009</v>
       </c>
       <c r="L509" s="9" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="M509" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N509" s="10"/>
     </row>
@@ -29499,10 +29499,10 @@
         <v>59558009</v>
       </c>
       <c r="L510" s="9" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="M510" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N510" s="10"/>
     </row>
@@ -29542,10 +29542,10 @@
         <v>24915002</v>
       </c>
       <c r="L511" s="9" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="M511" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N511" s="10"/>
     </row>
@@ -29585,10 +29585,10 @@
         <v>24915002</v>
       </c>
       <c r="L512" s="9" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="M512" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N512" s="10"/>
     </row>
@@ -29628,10 +29628,10 @@
         <v>5953002</v>
       </c>
       <c r="L513" s="9" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="M513" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N513" s="10"/>
     </row>
@@ -29671,10 +29671,10 @@
         <v>5953002</v>
       </c>
       <c r="L514" s="9" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="M514" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N514" s="10"/>
     </row>
@@ -29714,10 +29714,10 @@
         <v>22565002</v>
       </c>
       <c r="L515" s="9" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="M515" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N515" s="10"/>
     </row>
@@ -29757,10 +29757,10 @@
         <v>22565002</v>
       </c>
       <c r="L516" s="9" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="M516" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N516" s="10"/>
     </row>
@@ -29800,10 +29800,10 @@
         <v>77644006</v>
       </c>
       <c r="L517" s="9" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="M517" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N517" s="10"/>
     </row>
@@ -29843,10 +29843,10 @@
         <v>77644006</v>
       </c>
       <c r="L518" s="9" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="M518" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N518" s="10"/>
     </row>
@@ -29886,10 +29886,10 @@
         <v>58830002</v>
       </c>
       <c r="L519" s="9" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="M519" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N519" s="10"/>
     </row>
@@ -29929,10 +29929,10 @@
         <v>58830002</v>
       </c>
       <c r="L520" s="9" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="M520" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N520" s="10"/>
     </row>
@@ -29972,10 +29972,10 @@
         <v>43993008</v>
       </c>
       <c r="L521" s="9" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="M521" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N521" s="10"/>
     </row>
@@ -30015,10 +30015,10 @@
         <v>43993008</v>
       </c>
       <c r="L522" s="9" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="M522" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N522" s="10"/>
     </row>
@@ -30053,14 +30053,14 @@
         <v>39937001</v>
       </c>
       <c r="L523" s="9" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="M523" s="9"/>
       <c r="N523" s="10"/>
     </row>
     <row r="524" spans="1:14" ht="34">
       <c r="A524" s="59" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B524" s="11" t="s">
         <v>700</v>
@@ -30079,13 +30079,13 @@
         <v>7</v>
       </c>
       <c r="G524" s="12" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="H524" s="15" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="I524" s="16" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="J524" s="17">
         <v>8534</v>
@@ -30094,18 +30094,18 @@
         <v>1193560003</v>
       </c>
       <c r="L524" s="9" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="M524" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N524" s="130" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="525" spans="1:14" ht="34">
       <c r="A525" s="59" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B525" s="11" t="s">
         <v>700</v>
@@ -30124,13 +30124,13 @@
         <v>7</v>
       </c>
       <c r="G525" s="12" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="H525" s="15" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="I525" s="16" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="J525" s="17">
         <v>8533</v>
@@ -30139,13 +30139,13 @@
         <v>1193560003</v>
       </c>
       <c r="L525" s="9" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="M525" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N525" s="130" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="526" spans="1:14" ht="17">
@@ -30170,7 +30170,7 @@
         <v>1868</v>
       </c>
       <c r="I526" s="16" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="J526" s="17">
         <v>20429</v>
@@ -30179,7 +30179,7 @@
         <v>48014002</v>
       </c>
       <c r="L526" s="9" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="M526" s="9"/>
       <c r="N526" s="130"/>
@@ -30220,10 +30220,10 @@
         <v>79601000</v>
       </c>
       <c r="L527" s="9" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="M527" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N527" s="10"/>
     </row>
@@ -30263,10 +30263,10 @@
         <v>79601000</v>
       </c>
       <c r="L528" s="9" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="M528" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N528" s="10"/>
     </row>
@@ -30292,14 +30292,14 @@
         <v>1870</v>
       </c>
       <c r="I529" s="16" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="J529" s="17"/>
       <c r="K529" s="112">
         <v>75093004</v>
       </c>
       <c r="L529" s="9" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="M529" s="9"/>
       <c r="N529" s="10"/>
@@ -30332,14 +30332,14 @@
       </c>
       <c r="J530" s="17"/>
       <c r="K530" s="132" t="s">
-        <v>2534</v>
-      </c>
-      <c r="L530" s="9" t="s">
-        <v>2461</v>
+        <v>2531</v>
+      </c>
+      <c r="L530" s="136" t="s">
+        <v>2581</v>
       </c>
       <c r="M530" s="9"/>
       <c r="N530" s="133" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="531" spans="1:14" ht="34">
@@ -30364,18 +30364,18 @@
         <v>1641</v>
       </c>
       <c r="I531" s="16" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="J531" s="17"/>
       <c r="K531" s="132" t="s">
-        <v>2535</v>
-      </c>
-      <c r="L531" s="9" t="s">
-        <v>2462</v>
+        <v>2532</v>
+      </c>
+      <c r="L531" s="136" t="s">
+        <v>2582</v>
       </c>
       <c r="M531" s="9"/>
       <c r="N531" s="133" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="532" spans="1:14" ht="34">
@@ -30409,7 +30409,7 @@
         <v>789564000</v>
       </c>
       <c r="L532" s="9" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="M532" s="9"/>
       <c r="N532" s="46"/>
@@ -30445,11 +30445,11 @@
         <v>1193554003</v>
       </c>
       <c r="L533" s="9" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="M533" s="9"/>
       <c r="N533" s="125" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="534" spans="1:14" ht="34">
@@ -30485,10 +30485,10 @@
         <v>76838003</v>
       </c>
       <c r="L534" s="90" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="M534" s="89" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N534" s="46"/>
     </row>
@@ -30525,10 +30525,10 @@
         <v>76838003</v>
       </c>
       <c r="L535" s="90" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="M535" s="89" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N535" s="47"/>
     </row>
@@ -30568,10 +30568,10 @@
         <v>55060009</v>
       </c>
       <c r="L536" s="9" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="M536" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N536" s="10"/>
     </row>
@@ -30611,10 +30611,10 @@
         <v>55060009</v>
       </c>
       <c r="L537" s="9" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="M537" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N537" s="10"/>
     </row>
@@ -30651,7 +30651,7 @@
         <v>41178004</v>
       </c>
       <c r="L538" s="9" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="M538" s="9"/>
       <c r="N538" s="10"/>
@@ -30692,10 +30692,10 @@
         <v>15924003</v>
       </c>
       <c r="L539" s="9" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="M539" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N539" s="10"/>
     </row>
@@ -30735,10 +30735,10 @@
         <v>15924003</v>
       </c>
       <c r="L540" s="9" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="M540" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N540" s="10"/>
     </row>
@@ -30775,7 +30775,7 @@
         <v>61853006</v>
       </c>
       <c r="L541" s="9" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="M541" s="9"/>
       <c r="N541" s="10"/>
@@ -30816,10 +30816,10 @@
         <v>24999009</v>
       </c>
       <c r="L542" s="9" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="M542" s="9" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="543" spans="1:14" ht="34">
@@ -30858,10 +30858,10 @@
         <v>24999009</v>
       </c>
       <c r="L543" s="9" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="M543" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="544" spans="1:14" ht="17">
@@ -30897,7 +30897,7 @@
         <v>2748008</v>
       </c>
       <c r="L544" s="9" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="M544" s="9"/>
       <c r="N544" s="10"/>
@@ -30935,7 +30935,7 @@
         <v>54785003</v>
       </c>
       <c r="L545" s="9" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="M545" s="9"/>
       <c r="N545" s="10"/>
@@ -30973,7 +30973,7 @@
         <v>60051002</v>
       </c>
       <c r="L546" s="9" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="M546" s="9"/>
       <c r="N546" s="10"/>
@@ -31011,7 +31011,7 @@
         <v>89546000</v>
       </c>
       <c r="L547" s="9" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="M547" s="9"/>
       <c r="N547" s="10"/>
@@ -31049,7 +31049,7 @@
         <v>11478001</v>
       </c>
       <c r="L548" s="9" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="M548" s="9"/>
       <c r="N548" s="10"/>
@@ -31087,7 +31087,7 @@
         <v>50800009</v>
       </c>
       <c r="L549" s="9" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="M549" s="9"/>
       <c r="N549" s="10"/>
@@ -31123,7 +31123,7 @@
         <v>25270003</v>
       </c>
       <c r="L550" s="9" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="M550" s="9"/>
       <c r="N550" s="10"/>
@@ -31162,13 +31162,13 @@
         <v>789564000</v>
       </c>
       <c r="L551" s="9" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="M551" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N551" s="94" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="552" spans="1:14" ht="34">
@@ -31205,13 +31205,13 @@
         <v>789564000</v>
       </c>
       <c r="L552" s="9" t="s">
+        <v>2360</v>
+      </c>
+      <c r="M552" s="9" t="s">
         <v>2361</v>
       </c>
-      <c r="M552" s="9" t="s">
-        <v>2362</v>
-      </c>
       <c r="N552" s="94" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="553" spans="1:14" ht="17">
@@ -31247,7 +31247,7 @@
         <v>22718006</v>
       </c>
       <c r="L553" s="9" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="M553" s="9"/>
       <c r="N553" s="10"/>
@@ -31283,7 +31283,7 @@
         <v>69695003</v>
       </c>
       <c r="L554" s="9" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="M554" s="9"/>
       <c r="N554" s="10"/>
@@ -31322,13 +31322,13 @@
         <v>1193554003</v>
       </c>
       <c r="L555" s="9" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="M555" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N555" s="129" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="556" spans="1:14" ht="34">
@@ -31365,13 +31365,13 @@
         <v>1193554003</v>
       </c>
       <c r="L556" s="9" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="M556" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N556" s="129" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="557" spans="1:14" ht="34">
@@ -31403,7 +31403,7 @@
         <v>75415000</v>
       </c>
       <c r="L557" s="9" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="M557" s="9"/>
       <c r="N557" s="10"/>
@@ -31422,20 +31422,20 @@
         <v>10</v>
       </c>
       <c r="G558" s="92" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="H558" s="15" t="s">
         <v>1872</v>
       </c>
       <c r="I558" s="27" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="J558" s="12"/>
       <c r="K558" s="111">
         <v>67548002</v>
       </c>
       <c r="L558" s="9" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
       <c r="M558" s="9"/>
       <c r="N558" s="102"/>
@@ -31454,20 +31454,20 @@
         <v>10</v>
       </c>
       <c r="G559" s="92" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="H559" s="15" t="s">
         <v>1872</v>
       </c>
       <c r="I559" s="27" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="J559" s="12"/>
       <c r="K559" s="111">
         <v>13014005</v>
       </c>
       <c r="L559" s="103" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="M559" s="9"/>
       <c r="N559" s="102"/>
@@ -31494,7 +31494,7 @@
         <v>1889</v>
       </c>
       <c r="I560" s="27" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="J560" s="13">
         <v>242787</v>
@@ -31503,7 +31503,7 @@
         <v>8997002</v>
       </c>
       <c r="L560" s="71" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="M560" s="9"/>
       <c r="N560" s="10"/>
@@ -31539,7 +31539,7 @@
         <v>13024002</v>
       </c>
       <c r="L561" s="9" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="M561" s="9"/>
       <c r="N561" s="10"/>
@@ -31566,7 +31566,7 @@
         <v>1849</v>
       </c>
       <c r="I562" s="27" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="J562" s="13">
         <v>46900</v>
@@ -31575,7 +31575,7 @@
         <v>70567001</v>
       </c>
       <c r="L562" s="9" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="M562" s="9"/>
       <c r="N562" s="10"/>
@@ -31613,10 +31613,10 @@
         <v>40689003</v>
       </c>
       <c r="L563" s="9" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="M563" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N563" s="10"/>
     </row>
@@ -31653,7 +31653,7 @@
         <v>37554007</v>
       </c>
       <c r="L564" s="89" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="M564" s="9"/>
     </row>
@@ -31690,7 +31690,7 @@
         <v>1732005</v>
       </c>
       <c r="L565" s="9" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="M565" s="9"/>
       <c r="N565" s="10"/>
@@ -31728,7 +31728,7 @@
         <v>78961009</v>
       </c>
       <c r="L566" s="44" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="M566" s="9"/>
       <c r="N566" s="10"/>
@@ -31766,7 +31766,7 @@
         <v>35378004</v>
       </c>
       <c r="L567" s="44" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="M567" s="9"/>
       <c r="N567" s="10"/>
@@ -31804,7 +31804,7 @@
         <v>21974007</v>
       </c>
       <c r="L568" s="9" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="M568" s="9"/>
       <c r="N568" s="10"/>
@@ -31833,14 +31833,14 @@
         <v>1717</v>
       </c>
       <c r="I569" s="16" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="J569" s="19"/>
       <c r="K569" s="112">
         <v>181226008</v>
       </c>
       <c r="L569" s="9" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="M569" s="9"/>
       <c r="N569" s="10"/>
@@ -31881,7 +31881,7 @@
         <v>22718006</v>
       </c>
       <c r="L570" s="9" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="M570" s="9"/>
       <c r="N570" s="10"/>
@@ -31922,7 +31922,7 @@
         <v>22718006</v>
       </c>
       <c r="L571" s="9" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="M571" s="9"/>
       <c r="N571" s="10"/>
@@ -31951,7 +31951,7 @@
         <v>1719</v>
       </c>
       <c r="I572" s="16" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="J572" s="17">
         <v>54645</v>
@@ -31960,11 +31960,11 @@
         <v>47975008</v>
       </c>
       <c r="L572" s="9" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="M572" s="9"/>
       <c r="N572" s="94" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="573" spans="1:14" ht="17">
@@ -31991,7 +31991,7 @@
         <v>1725</v>
       </c>
       <c r="I573" s="16" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
       <c r="J573" s="17">
         <v>54644</v>
@@ -32000,11 +32000,11 @@
         <v>61344008</v>
       </c>
       <c r="L573" s="105" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="M573" s="9"/>
       <c r="N573" s="97" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="574" spans="1:14" ht="17">
@@ -32031,7 +32031,7 @@
         <v>1721</v>
       </c>
       <c r="I574" s="16" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="J574" s="17">
         <v>281502</v>
@@ -32040,13 +32040,13 @@
         <v>61344008</v>
       </c>
       <c r="L574" s="105" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="M574" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N574" s="97" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="575" spans="1:14" ht="17">
@@ -32082,7 +32082,7 @@
         <v>44567001</v>
       </c>
       <c r="L575" s="9" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="M575" s="9"/>
       <c r="N575" s="94"/>
@@ -32118,10 +32118,10 @@
         <v>44567001</v>
       </c>
       <c r="L576" s="9" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="M576" s="9" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="N576" s="94"/>
     </row>
@@ -32157,10 +32157,10 @@
         <v>87953007</v>
       </c>
       <c r="L577" s="9" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="M577" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N577" s="94"/>
     </row>
@@ -32197,7 +32197,7 @@
         <v>13648007</v>
       </c>
       <c r="L578" s="9" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="M578" s="9"/>
       <c r="N578" s="94"/>
@@ -32233,7 +32233,7 @@
         <v>71553001</v>
       </c>
       <c r="L579" s="9" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="M579" s="9"/>
       <c r="N579" s="94"/>
@@ -32274,10 +32274,10 @@
         <v>40689003</v>
       </c>
       <c r="L580" s="9" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="M580" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N580" s="94"/>
     </row>
@@ -32317,10 +32317,10 @@
         <v>40689003</v>
       </c>
       <c r="L581" s="9" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="M581" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N581" s="94"/>
     </row>
@@ -32357,7 +32357,7 @@
         <v>35039007</v>
       </c>
       <c r="L582" s="9" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="M582" s="9"/>
       <c r="N582" s="94"/>
@@ -32395,7 +32395,7 @@
         <v>72107004</v>
       </c>
       <c r="L583" s="9" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="M583" s="9"/>
       <c r="N583" s="94"/>
@@ -32433,10 +32433,10 @@
         <v>8887007</v>
       </c>
       <c r="L584" s="9" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="M584" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N584" s="94"/>
     </row>
@@ -32473,10 +32473,10 @@
         <v>8887007</v>
       </c>
       <c r="L585" s="9" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="M585" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N585" s="94"/>
     </row>
@@ -32513,10 +32513,10 @@
         <v>63507001</v>
       </c>
       <c r="L586" s="9" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="M586" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N586" s="94"/>
     </row>
@@ -32547,17 +32547,17 @@
         <v>1727</v>
       </c>
       <c r="I587" s="16" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="J587" s="17"/>
       <c r="K587" s="111">
         <v>47975008</v>
       </c>
       <c r="L587" s="9" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="M587" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N587" s="94"/>
     </row>
@@ -32588,17 +32588,17 @@
         <v>1729</v>
       </c>
       <c r="I588" s="16" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="J588" s="17"/>
       <c r="K588" s="111">
         <v>47975008</v>
       </c>
       <c r="L588" s="9" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="M588" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N588" s="94"/>
     </row>
@@ -32635,10 +32635,10 @@
         <v>63507001</v>
       </c>
       <c r="L589" s="9" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="M589" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N589" s="94"/>
     </row>
@@ -32675,10 +32675,10 @@
         <v>40300007</v>
       </c>
       <c r="L590" s="9" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="M590" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N590" s="94"/>
     </row>
@@ -32709,7 +32709,7 @@
         <v>1723</v>
       </c>
       <c r="I591" s="16" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="J591" s="17">
         <v>281500</v>
@@ -32718,13 +32718,13 @@
         <v>61344008</v>
       </c>
       <c r="L591" s="105" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="M591" s="96" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N591" s="97" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="592" spans="1:14" ht="17">
@@ -32763,7 +32763,7 @@
         <v>75573002</v>
       </c>
       <c r="L592" s="9" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="M592" s="9"/>
       <c r="N592" s="94"/>
@@ -32801,10 +32801,10 @@
         <v>40300007</v>
       </c>
       <c r="L593" s="9" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="M593" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N593" s="94"/>
     </row>
@@ -32841,10 +32841,10 @@
         <v>46027005</v>
       </c>
       <c r="L594" s="9" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="M594" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N594" s="10"/>
     </row>
@@ -32877,7 +32877,7 @@
         <v>1162492000</v>
       </c>
       <c r="L595" s="9" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="M595" s="9"/>
       <c r="N595" s="10"/>
@@ -32918,10 +32918,10 @@
         <v>87953007</v>
       </c>
       <c r="L596" s="9" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="M596" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N596" s="10"/>
     </row>
@@ -32961,10 +32961,10 @@
         <v>87953007</v>
       </c>
       <c r="L597" s="9" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="M597" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N597" s="10"/>
     </row>
@@ -33001,10 +33001,10 @@
         <v>46027005</v>
       </c>
       <c r="L598" s="9" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="M598" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N598" s="10"/>
     </row>
@@ -33032,7 +33032,7 @@
         <v>1516</v>
       </c>
       <c r="I599" s="16" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="J599" s="17">
         <v>13112</v>
@@ -33041,10 +33041,10 @@
         <v>71585003</v>
       </c>
       <c r="L599" s="44" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="M599" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N599" s="10"/>
     </row>
@@ -33072,7 +33072,7 @@
         <v>1518</v>
       </c>
       <c r="I600" s="16" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="J600" s="17">
         <v>13111</v>
@@ -33081,10 +33081,10 @@
         <v>71585003</v>
       </c>
       <c r="L600" s="44" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="M600" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N600" s="10"/>
     </row>
@@ -33112,7 +33112,7 @@
         <v>1899</v>
       </c>
       <c r="I601" s="16" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="J601" s="17">
         <v>4754</v>
@@ -33121,10 +33121,10 @@
         <v>12123001</v>
       </c>
       <c r="L601" s="9" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="M601" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N601" s="10"/>
     </row>
@@ -33152,7 +33152,7 @@
         <v>1202</v>
       </c>
       <c r="I602" s="16" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="J602" s="17">
         <v>4762</v>
@@ -33161,10 +33161,10 @@
         <v>12123001</v>
       </c>
       <c r="L602" s="9" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="M602" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N602" s="10"/>
     </row>
@@ -33201,7 +33201,7 @@
         <v>32764006</v>
       </c>
       <c r="L603" s="9" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="M603" s="9"/>
       <c r="N603" s="10"/>
@@ -33239,7 +33239,7 @@
         <v>430757002</v>
       </c>
       <c r="L604" s="9" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="M604" s="9"/>
       <c r="N604" s="10"/>
@@ -33277,7 +33277,7 @@
         <v>9454009</v>
       </c>
       <c r="L605" s="9" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="M605" s="9"/>
       <c r="N605" s="10"/>
@@ -33315,10 +33315,10 @@
         <v>35532006</v>
       </c>
       <c r="L606" s="9" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="M606" s="9" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="N606" s="10"/>
     </row>
@@ -33355,10 +33355,10 @@
         <v>35532006</v>
       </c>
       <c r="L607" s="9" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="M607" s="9" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="N607" s="10"/>
     </row>
@@ -33395,7 +33395,7 @@
         <v>76784001</v>
       </c>
       <c r="L608" s="9" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="M608" s="9"/>
       <c r="N608" s="10"/>
@@ -33424,14 +33424,14 @@
         <v>1873</v>
       </c>
       <c r="I609" s="16" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="J609" s="17"/>
       <c r="K609" s="111">
         <v>279894000</v>
       </c>
       <c r="L609" s="9" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="M609" s="9"/>
     </row>
@@ -33466,7 +33466,7 @@
         <v>438074005</v>
       </c>
       <c r="L610" s="136" t="s">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="M610" s="9"/>
     </row>
@@ -33499,7 +33499,7 @@
         <v>17401000</v>
       </c>
       <c r="L611" s="89" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="M611" s="9"/>
       <c r="N611" s="10"/>
@@ -33573,7 +33573,7 @@
         <v>91134007</v>
       </c>
       <c r="L613" s="9" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M613" s="9"/>
       <c r="N613" s="10"/>
@@ -33609,7 +33609,7 @@
         <v>39057004</v>
       </c>
       <c r="L614" s="9" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="M614" s="9"/>
       <c r="N614" s="10"/>
@@ -33647,7 +33647,7 @@
         <v>46030003</v>
       </c>
       <c r="L615" s="9" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="M615" s="9"/>
       <c r="N615" s="10"/>
@@ -33685,7 +33685,7 @@
         <v>21814001</v>
       </c>
       <c r="L616" s="9" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="M616" s="9"/>
       <c r="N616" s="10"/>
@@ -33723,10 +33723,10 @@
         <v>21814001</v>
       </c>
       <c r="L617" s="9" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="M617" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N617" s="10"/>
     </row>
@@ -33763,10 +33763,10 @@
         <v>21814001</v>
       </c>
       <c r="L618" s="9" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="M618" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N618" s="10"/>
     </row>
@@ -33806,10 +33806,10 @@
         <v>9454009</v>
       </c>
       <c r="L619" s="9" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="M619" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N619" s="10"/>
     </row>
@@ -33849,10 +33849,10 @@
         <v>9454009</v>
       </c>
       <c r="L620" s="9" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="M620" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N620" s="10"/>
     </row>
@@ -33887,10 +33887,10 @@
         <v>46105003</v>
       </c>
       <c r="L621" s="9" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="M621" s="9" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="N621" s="10"/>
     </row>
@@ -33927,7 +33927,7 @@
         <v>45292006</v>
       </c>
       <c r="L622" s="9" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="M622" s="9"/>
       <c r="N622" s="10"/>
@@ -33965,7 +33965,7 @@
         <v>263355003</v>
       </c>
       <c r="L623" s="9" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="M623" s="9"/>
       <c r="N623" s="10"/>
@@ -34001,7 +34001,7 @@
         <v>38266002</v>
       </c>
       <c r="L624" s="137" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="M624" s="9"/>
       <c r="N624" s="10"/>
@@ -34037,7 +34037,7 @@
         <v>75330005</v>
       </c>
       <c r="L625" s="71" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="M625" s="9"/>
     </row>
@@ -34074,7 +34074,7 @@
         <v>52940008</v>
       </c>
       <c r="L626" s="60" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="M626" s="9"/>
       <c r="N626" s="10"/>
@@ -34101,14 +34101,14 @@
         <v>1887</v>
       </c>
       <c r="I627" s="27" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="J627" s="12"/>
       <c r="K627" s="115">
         <v>15328005</v>
       </c>
       <c r="L627" s="89" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="M627" s="9"/>
       <c r="N627" s="10"/>
@@ -34184,7 +34184,7 @@
         <v>1172006</v>
       </c>
       <c r="L629" s="9" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="M629" s="9"/>
     </row>
@@ -34217,10 +34217,10 @@
         <v>123037004</v>
       </c>
       <c r="L630" s="9" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="M630" s="74" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="631" spans="2:14" ht="17">
@@ -34254,7 +34254,7 @@
         <v>3572006</v>
       </c>
       <c r="L631" s="9" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="M631" s="9"/>
       <c r="N631" s="10"/>
@@ -34292,7 +34292,7 @@
         <v>3572006</v>
       </c>
       <c r="L632" s="9" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="M632" s="9"/>
       <c r="N632" s="10"/>
@@ -34368,7 +34368,7 @@
         <v>39976000</v>
       </c>
       <c r="L634" s="9" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="M634" s="9"/>
       <c r="N634" s="10"/>
@@ -34406,7 +34406,7 @@
         <v>91116008</v>
       </c>
       <c r="L635" s="9" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="M635" s="9"/>
       <c r="N635" s="10"/>
@@ -34444,7 +34444,7 @@
         <v>14705001</v>
       </c>
       <c r="L636" s="9" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="M636" s="9"/>
       <c r="N636" s="10"/>
@@ -34482,7 +34482,7 @@
         <v>67479001</v>
       </c>
       <c r="L637" s="9" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="M637" s="9"/>
       <c r="N637" s="10"/>
@@ -34520,7 +34520,7 @@
         <v>88298007</v>
       </c>
       <c r="L638" s="9" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="M638" s="9"/>
       <c r="N638" s="10"/>
@@ -34558,7 +34558,7 @@
         <v>16126006</v>
       </c>
       <c r="L639" s="9" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="M639" s="9"/>
       <c r="N639" s="10"/>
@@ -34596,7 +34596,7 @@
         <v>73903008</v>
       </c>
       <c r="L640" s="9" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="M640" s="9"/>
       <c r="N640" s="10"/>
@@ -34634,7 +34634,7 @@
         <v>61032001</v>
       </c>
       <c r="L641" s="9" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="M641" s="9"/>
       <c r="N641" s="10"/>
@@ -34672,7 +34672,7 @@
         <v>53983007</v>
       </c>
       <c r="L642" s="9" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="M642" s="9"/>
       <c r="N642" s="10"/>
@@ -34710,7 +34710,7 @@
         <v>55492004</v>
       </c>
       <c r="L643" s="9" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="M643" s="9"/>
       <c r="N643" s="10"/>
@@ -34748,7 +34748,7 @@
         <v>71996003</v>
       </c>
       <c r="L644" s="9" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="M644" s="9"/>
       <c r="N644" s="10"/>
@@ -34786,7 +34786,7 @@
         <v>21799000</v>
       </c>
       <c r="L645" s="9" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="M645" s="9"/>
       <c r="N645" s="10"/>
@@ -34824,7 +34824,7 @@
         <v>87141009</v>
       </c>
       <c r="L646" s="9" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="M646" s="9"/>
       <c r="N646" s="10"/>
@@ -34862,7 +34862,7 @@
         <v>65985001</v>
       </c>
       <c r="L647" s="9" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="M647" s="9"/>
       <c r="N647" s="10"/>
@@ -34900,7 +34900,7 @@
         <v>11808007</v>
       </c>
       <c r="L648" s="9" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="M648" s="9"/>
       <c r="N648" s="10"/>
@@ -34938,7 +34938,7 @@
         <v>49967005</v>
       </c>
       <c r="L649" s="9" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="M649" s="9"/>
       <c r="N649" s="10"/>
@@ -34976,7 +34976,7 @@
         <v>69950008</v>
       </c>
       <c r="L650" s="9" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="M650" s="9"/>
       <c r="N650" s="10"/>
@@ -35014,7 +35014,7 @@
         <v>21452006</v>
       </c>
       <c r="L651" s="9" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="M651" s="9"/>
       <c r="N651" s="10"/>
@@ -35052,7 +35052,7 @@
         <v>35769007</v>
       </c>
       <c r="L652" s="9" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="M652" s="9"/>
       <c r="N652" s="10"/>
@@ -35090,7 +35090,7 @@
         <v>56094003</v>
       </c>
       <c r="L653" s="9" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="M653" s="9"/>
       <c r="N653" s="10"/>
@@ -35128,7 +35128,7 @@
         <v>50060007</v>
       </c>
       <c r="L654" s="9" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="M654" s="9"/>
       <c r="N654" s="10"/>
@@ -35166,7 +35166,7 @@
         <v>73138009</v>
       </c>
       <c r="L655" s="9" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="M655" s="9"/>
       <c r="N655" s="10"/>
@@ -35204,7 +35204,7 @@
         <v>86197001</v>
       </c>
       <c r="L656" s="9" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="M656" s="9"/>
       <c r="N656" s="10"/>
@@ -35242,7 +35242,7 @@
         <v>6105006</v>
       </c>
       <c r="L657" s="9" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="M657" s="9"/>
       <c r="N657" s="10"/>
@@ -35280,7 +35280,7 @@
         <v>32430008</v>
       </c>
       <c r="L658" s="9" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="M658" s="9"/>
       <c r="N658" s="10"/>
@@ -35318,7 +35318,7 @@
         <v>71737002</v>
       </c>
       <c r="L659" s="9" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="M659" s="9"/>
       <c r="N659" s="10"/>
@@ -35356,7 +35356,7 @@
         <v>77435000</v>
       </c>
       <c r="L660" s="9" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M660" s="9"/>
       <c r="N660" s="10"/>
@@ -35394,7 +35394,7 @@
         <v>33766003</v>
       </c>
       <c r="L661" s="9" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="M661" s="9"/>
       <c r="N661" s="10"/>
@@ -35432,7 +35432,7 @@
         <v>48405002</v>
       </c>
       <c r="L662" s="9" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="M662" s="9"/>
       <c r="N662" s="10"/>
@@ -35470,7 +35470,7 @@
         <v>52120002</v>
       </c>
       <c r="L663" s="9" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="M663" s="9"/>
       <c r="N663" s="10"/>
@@ -35508,7 +35508,7 @@
         <v>280849005</v>
       </c>
       <c r="L664" s="9" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="M664" s="9"/>
       <c r="N664" s="10"/>
@@ -35537,20 +35537,20 @@
         <v>1237</v>
       </c>
       <c r="I665" s="16" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="J665" s="17" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="K665" s="128">
         <v>1186895000</v>
       </c>
       <c r="L665" s="9" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="M665" s="9"/>
       <c r="N665" s="129" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="666" spans="1:14" ht="34">
@@ -35586,13 +35586,13 @@
         <v>3572006</v>
       </c>
       <c r="L666" s="89" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="M666" s="107" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="N666" s="10" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="667" spans="1:14" ht="17">
@@ -35628,11 +35628,11 @@
         <v>1187337007</v>
       </c>
       <c r="L667" s="9" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="M667" s="9"/>
       <c r="N667" s="10" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="668" spans="1:14" ht="17">
@@ -35668,7 +35668,7 @@
         <v>35763008</v>
       </c>
       <c r="L668" s="9" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="M668" s="9"/>
     </row>
@@ -35697,7 +35697,7 @@
         <v>1743</v>
       </c>
       <c r="I669" s="16" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="J669" s="17">
         <v>55459</v>
@@ -35706,10 +35706,10 @@
         <v>46105003</v>
       </c>
       <c r="L669" s="9" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="M669" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N669" s="10"/>
     </row>
@@ -35738,7 +35738,7 @@
         <v>1745</v>
       </c>
       <c r="I670" s="16" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
       <c r="J670" s="17">
         <v>55458</v>
@@ -35747,10 +35747,10 @@
         <v>46105003</v>
       </c>
       <c r="L670" s="9" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="M670" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N670" s="10"/>
     </row>
@@ -35770,26 +35770,26 @@
         <v>12</v>
       </c>
       <c r="G671" s="48" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H671" s="49" t="s">
         <v>2052</v>
       </c>
-      <c r="H671" s="49" t="s">
+      <c r="I671" s="50" t="s">
         <v>2053</v>
       </c>
-      <c r="I671" s="50" t="s">
-        <v>2054</v>
-      </c>
       <c r="J671" s="51" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="K671" s="123">
         <v>1187336003</v>
       </c>
       <c r="L671" s="61" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="M671" s="62"/>
       <c r="N671" s="127" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="672" spans="1:14" ht="17">
@@ -35825,7 +35825,7 @@
         <v>87166008</v>
       </c>
       <c r="L672" s="44" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="673" spans="2:12" ht="17">
@@ -35861,7 +35861,7 @@
         <v>24999009</v>
       </c>
       <c r="L673" s="44" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="674" spans="2:12" ht="17">
@@ -35893,7 +35893,7 @@
         <v>123037004</v>
       </c>
       <c r="L674" s="44" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="675" spans="2:12">
@@ -36625,19 +36625,19 @@
         <v>736</v>
       </c>
       <c r="K1" s="68" t="s">
+        <v>2449</v>
+      </c>
+      <c r="L1" s="53" t="s">
         <v>2450</v>
       </c>
-      <c r="L1" s="53" t="s">
-        <v>2451</v>
-      </c>
       <c r="M1" s="53" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="N1" s="67" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="84" customHeight="1">
@@ -36673,10 +36673,10 @@
       <c r="K2" s="77"/>
       <c r="L2" s="78"/>
       <c r="M2" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N2" s="75" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="O2" s="74"/>
     </row>
@@ -36713,10 +36713,10 @@
       <c r="K3" s="77"/>
       <c r="L3" s="78"/>
       <c r="M3" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N3" s="75" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="O3" s="74"/>
     </row>
@@ -36750,7 +36750,7 @@
       <c r="L4" s="79"/>
       <c r="M4" s="9"/>
       <c r="N4" s="80" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -36783,7 +36783,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="9"/>
       <c r="N5" s="80" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="O5" s="2"/>
     </row>
@@ -36815,7 +36815,7 @@
       <c r="L6" s="79"/>
       <c r="M6" s="9"/>
       <c r="N6" s="80" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="O6" s="2"/>
     </row>
@@ -36849,7 +36849,7 @@
       <c r="L7" s="79"/>
       <c r="M7" s="9"/>
       <c r="N7" s="80" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -36881,7 +36881,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="80" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="O8" s="2"/>
     </row>
@@ -36917,13 +36917,13 @@
       </c>
       <c r="K9" s="70"/>
       <c r="L9" s="91" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="N9" s="80" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="O9" s="2"/>
     </row>
@@ -36959,13 +36959,13 @@
       </c>
       <c r="K10" s="70"/>
       <c r="L10" s="44" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="N10" s="80" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -36999,13 +36999,13 @@
       </c>
       <c r="K11" s="70"/>
       <c r="L11" s="82" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="N11" s="80" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -37035,11 +37035,11 @@
       <c r="J12" s="12"/>
       <c r="K12" s="69"/>
       <c r="L12" s="74" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="80" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -37071,11 +37071,11 @@
       <c r="J13" s="19"/>
       <c r="K13" s="69"/>
       <c r="L13" s="103" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="80" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="O13" s="2"/>
     </row>
@@ -37109,7 +37109,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="75" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="O14" s="74"/>
     </row>
@@ -37138,14 +37138,14 @@
       <c r="I15" s="27"/>
       <c r="J15" s="12"/>
       <c r="K15" s="69" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="75" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -37178,11 +37178,11 @@
       <c r="J16" s="17"/>
       <c r="K16" s="69"/>
       <c r="L16" s="74" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="74" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="17">
@@ -37213,7 +37213,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="69"/>
       <c r="L17" s="79" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="18"/>
@@ -37251,13 +37251,13 @@
       <c r="J18" s="17"/>
       <c r="K18" s="69"/>
       <c r="L18" s="103" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>2003</v>
       </c>
       <c r="N18" s="103" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17">
@@ -37292,13 +37292,13 @@
       <c r="J19" s="17"/>
       <c r="K19" s="69"/>
       <c r="L19" s="103" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="N19" s="103" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16">
@@ -37325,7 +37325,7 @@
       <c r="K20" s="69"/>
       <c r="L20" s="9"/>
       <c r="N20" s="108" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17">
@@ -37361,16 +37361,16 @@
         <v>32846</v>
       </c>
       <c r="K21" s="124" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="L21" s="103" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17">
@@ -37406,16 +37406,16 @@
         <v>32845</v>
       </c>
       <c r="K22" s="124" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="L22" s="103" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="O22" s="104" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
     </row>
   </sheetData>

--- a/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
+++ b/input/images/TG263_Nomenclature_to_SNOMEDCT_Codes_and_Qualifiers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/fhir-mCODE-ig/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861CFA67-8B1F-C741-9703-D1264B590109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74703923-FE11-A24A-89E4-748A26636303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="500" windowWidth="56400" windowHeight="26080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6506" uniqueCount="2584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6504" uniqueCount="2583">
   <si>
     <t>Description</t>
   </si>
@@ -6081,9 +6081,6 @@
   </si>
   <si>
     <t>Aortic valve structure (body structure)</t>
-  </si>
-  <si>
-    <t>Appendix structure (body structure) </t>
   </si>
   <si>
     <t>Arytenoid cartilage structure (body structure)</t>
@@ -7685,15 +7682,6 @@
     <t>USCRS-33446</t>
   </si>
   <si>
-    <t>USCRS-34356</t>
-  </si>
-  <si>
-    <t>USCRS-34358</t>
-  </si>
-  <si>
-    <t>Resubmitted as observable entity July 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bowel </t>
   </si>
   <si>
@@ -7835,22 +7823,38 @@
     <t xml:space="preserve">Structure of iliac lymph node (body structure) </t>
   </si>
   <si>
-    <t>Bowel space (observable entity)</t>
-  </si>
-  <si>
-    <t>Small bowel space (observable entity)</t>
-  </si>
-  <si>
     <t>Structure of apical axillary lymph node (body structure)</t>
+  </si>
+  <si>
+    <t>Estimated contoured volume of bowel in peritoneal cavity using radiographic imaging (observable entity)</t>
+  </si>
+  <si>
+    <t>Estimated contoured volume of small bowel in peritoneal cavity using imaging (observable entity)</t>
+  </si>
+  <si>
+    <t>Resubmitted as observable entity July 2022 -  USCRS-34356</t>
+  </si>
+  <si>
+    <t>Resubmitted as observable entity July 2022 - USCRS-34358</t>
+  </si>
+  <si>
+    <t>Appendix structure (body structure)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8267,329 +8271,317 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="19" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -8935,8 +8927,8 @@
   <dimension ref="A1:R897"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L289" sqref="L289"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8987,16 +8979,16 @@
         <v>736</v>
       </c>
       <c r="K1" s="110" t="s">
+        <v>2448</v>
+      </c>
+      <c r="L1" s="53" t="s">
         <v>2449</v>
       </c>
-      <c r="L1" s="53" t="s">
-        <v>2450</v>
-      </c>
       <c r="M1" s="53" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="N1" s="66" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17">
@@ -9070,7 +9062,7 @@
         <v>54247002</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="10"/>
@@ -9108,7 +9100,7 @@
         <v>425444002</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="10"/>
@@ -9146,7 +9138,7 @@
         <v>69105007</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="10"/>
@@ -9187,10 +9179,10 @@
         <v>69105007</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N6" s="10"/>
     </row>
@@ -9230,10 +9222,10 @@
         <v>69105007</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N7" s="10"/>
     </row>
@@ -9270,7 +9262,7 @@
         <v>57850000</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10"/>
@@ -9308,7 +9300,7 @@
         <v>41801008</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
@@ -9349,10 +9341,10 @@
         <v>41801008</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N10" s="10"/>
     </row>
@@ -9392,10 +9384,10 @@
         <v>41801008</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N11" s="10"/>
     </row>
@@ -9435,10 +9427,10 @@
         <v>7657000</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N12" s="10"/>
     </row>
@@ -9478,10 +9470,10 @@
         <v>7657000</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N13" s="10"/>
     </row>
@@ -9519,7 +9511,7 @@
         <v>244314003</v>
       </c>
       <c r="L14" s="44" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>2003</v>
@@ -9561,10 +9553,10 @@
         <v>244314003</v>
       </c>
       <c r="L15" s="44" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N15" s="10"/>
     </row>
@@ -9592,7 +9584,7 @@
         <v>1976</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>391</v>
@@ -9604,7 +9596,7 @@
         <v>74200005</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="M16" s="9"/>
     </row>
@@ -9643,8 +9635,8 @@
       <c r="K17" s="111">
         <v>55601007</v>
       </c>
-      <c r="L17" s="136" t="s">
-        <v>2575</v>
+      <c r="L17" s="135" t="s">
+        <v>2571</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -9682,7 +9674,7 @@
         <v>244327004</v>
       </c>
       <c r="L18" s="44" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>2003</v>
@@ -9723,10 +9715,10 @@
         <v>244327004</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N19" s="10"/>
     </row>
@@ -9766,7 +9758,7 @@
         <v>113269004</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>2003</v>
@@ -9809,10 +9801,10 @@
         <v>113269004</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N21" s="10"/>
     </row>
@@ -9852,7 +9844,7 @@
         <v>90024005</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>2003</v>
@@ -9895,10 +9887,10 @@
         <v>90024005</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N23" s="10"/>
     </row>
@@ -9938,7 +9930,7 @@
         <v>73634005</v>
       </c>
       <c r="L24" s="44" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>2003</v>
@@ -9981,10 +9973,10 @@
         <v>73634005</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N25" s="10"/>
     </row>
@@ -10012,7 +10004,7 @@
         <v>1360</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="J26" s="17">
         <v>3862</v>
@@ -10021,7 +10013,7 @@
         <v>33795007</v>
       </c>
       <c r="L26" s="109" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10"/>
@@ -10062,7 +10054,7 @@
         <v>33795007</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -10102,7 +10094,7 @@
         <v>42258001</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10"/>
@@ -10140,7 +10132,7 @@
         <v>81040000</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10"/>
@@ -10178,7 +10170,7 @@
         <v>36765005</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10"/>
@@ -10219,10 +10211,10 @@
         <v>36765005</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -10262,10 +10254,10 @@
         <v>36765005</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N32" s="10"/>
     </row>
@@ -10302,7 +10294,7 @@
         <v>85234005</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10"/>
@@ -10343,10 +10335,10 @@
         <v>85234005</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N34" s="10"/>
     </row>
@@ -10386,10 +10378,10 @@
         <v>85234005</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N35" s="10"/>
     </row>
@@ -10475,7 +10467,7 @@
         <v>2006</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="N37" s="10"/>
     </row>
@@ -10549,10 +10541,10 @@
         <v>89187006</v>
       </c>
       <c r="L39" s="9" t="s">
+        <v>2192</v>
+      </c>
+      <c r="M39" s="9" t="s">
         <v>2193</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>2194</v>
       </c>
       <c r="N39" s="10"/>
     </row>
@@ -10588,10 +10580,10 @@
         <v>89187006</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="N40" s="10"/>
     </row>
@@ -10665,8 +10657,8 @@
       <c r="K42" s="111">
         <v>66754008</v>
       </c>
-      <c r="L42" s="9" t="s">
-        <v>2015</v>
+      <c r="L42" s="138" t="s">
+        <v>2582</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10"/>
@@ -10704,7 +10696,7 @@
         <v>77578007</v>
       </c>
       <c r="L43" s="54" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10"/>
@@ -10745,10 +10737,10 @@
         <v>77578007</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N44" s="10"/>
     </row>
@@ -10788,10 +10780,10 @@
         <v>77578007</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N45" s="10"/>
     </row>
@@ -10828,7 +10820,7 @@
         <v>59652004</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10"/>
@@ -10869,10 +10861,10 @@
         <v>59652004</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N47" s="10"/>
     </row>
@@ -10912,10 +10904,10 @@
         <v>59652004</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N48" s="10"/>
     </row>
@@ -10952,7 +10944,7 @@
         <v>79741001</v>
       </c>
       <c r="L49" s="44" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10"/>
@@ -10988,7 +10980,7 @@
         <v>89837001</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10"/>
@@ -11024,7 +11016,7 @@
         <v>393006</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10"/>
@@ -11060,7 +11052,7 @@
         <v>119186007</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10"/>
@@ -11098,7 +11090,7 @@
         <v>52374004</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10"/>
@@ -11136,7 +11128,7 @@
         <v>74872008</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10"/>
@@ -11174,7 +11166,7 @@
         <v>21387005</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10"/>
@@ -11212,7 +11204,7 @@
         <v>22356005</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10"/>
@@ -11253,10 +11245,10 @@
         <v>22356005</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N57" s="10"/>
     </row>
@@ -11296,10 +11288,10 @@
         <v>22356005</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N58" s="10"/>
     </row>
@@ -11336,7 +11328,7 @@
         <v>421793000</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10"/>
@@ -11377,10 +11369,10 @@
         <v>421793000</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N60" s="10"/>
     </row>
@@ -11420,10 +11412,10 @@
         <v>421793000</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N61" s="10"/>
     </row>
@@ -11463,10 +11455,10 @@
         <v>85710004</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N62" s="10"/>
     </row>
@@ -11506,10 +11498,10 @@
         <v>85710004</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N63" s="10"/>
     </row>
@@ -11546,7 +11538,7 @@
         <v>6229007</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10"/>
@@ -11587,10 +11579,10 @@
         <v>6229007</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N65" s="10"/>
     </row>
@@ -11630,10 +11622,10 @@
         <v>6229007</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N66" s="10"/>
     </row>
@@ -11670,7 +11662,7 @@
         <v>91609006</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10"/>
@@ -11708,7 +11700,7 @@
         <v>59066005</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10"/>
@@ -11749,10 +11741,10 @@
         <v>59066005</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N69" s="10"/>
     </row>
@@ -11792,10 +11784,10 @@
         <v>59066005</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N70" s="10"/>
     </row>
@@ -11832,7 +11824,7 @@
         <v>74386004</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10"/>
@@ -11873,10 +11865,10 @@
         <v>74386004</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N72" s="10"/>
     </row>
@@ -11916,10 +11908,10 @@
         <v>74386004</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N73" s="10"/>
     </row>
@@ -11956,7 +11948,7 @@
         <v>31640002</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10"/>
@@ -11994,7 +11986,7 @@
         <v>51283005</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10"/>
@@ -12035,10 +12027,10 @@
         <v>51283005</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N76" s="10"/>
     </row>
@@ -12078,10 +12070,10 @@
         <v>51283005</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N77" s="10"/>
     </row>
@@ -12118,7 +12110,7 @@
         <v>24924006</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10"/>
@@ -12159,10 +12151,10 @@
         <v>24924006</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N79" s="10"/>
     </row>
@@ -12202,10 +12194,10 @@
         <v>24924006</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N80" s="10"/>
     </row>
@@ -12242,7 +12234,7 @@
         <v>118645006</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10"/>
@@ -12283,10 +12275,10 @@
         <v>118645006</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N82" s="10"/>
     </row>
@@ -12326,10 +12318,10 @@
         <v>118645006</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N83" s="10"/>
     </row>
@@ -12366,7 +12358,7 @@
         <v>73117003</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10"/>
@@ -12404,7 +12396,7 @@
         <v>60911003</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10"/>
@@ -12445,7 +12437,7 @@
         <v>60911003</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="M86" s="9" t="s">
         <v>2003</v>
@@ -12488,10 +12480,10 @@
         <v>60911003</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="N87" s="10"/>
     </row>
@@ -12531,10 +12523,10 @@
         <v>13881006</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N88" s="10"/>
     </row>
@@ -12574,10 +12566,10 @@
         <v>13881006</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N89" s="10"/>
     </row>
@@ -12614,7 +12606,7 @@
         <v>13881006</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10"/>
@@ -12651,8 +12643,8 @@
       <c r="K91" s="111">
         <v>14016003</v>
       </c>
-      <c r="L91" s="136" t="s">
-        <v>2576</v>
+      <c r="L91" s="135" t="s">
+        <v>2572</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10"/>
@@ -12688,7 +12680,7 @@
         <v>5798000</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10"/>
@@ -12715,7 +12707,7 @@
         <v>868</v>
       </c>
       <c r="I93" s="16" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="J93" s="17">
         <v>7199</v>
@@ -12724,7 +12716,7 @@
         <v>113276009</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10"/>
@@ -12762,7 +12754,7 @@
         <v>14742008</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10"/>
@@ -12798,7 +12790,7 @@
         <v>30315005</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10"/>
@@ -12839,10 +12831,10 @@
         <v>36582005</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N96" s="10"/>
     </row>
@@ -12882,10 +12874,10 @@
         <v>36582005</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N97" s="10"/>
     </row>
@@ -12922,11 +12914,11 @@
         <v>36582005</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="94" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="17">
@@ -12962,7 +12954,7 @@
         <v>12738006</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10"/>
@@ -13000,7 +12992,7 @@
         <v>15926001</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10"/>
@@ -13036,10 +13028,10 @@
         <v>15926001</v>
       </c>
       <c r="L101" s="55" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="34">
@@ -13073,10 +13065,10 @@
         <v>15926001</v>
       </c>
       <c r="L102" s="55" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="17">
@@ -13113,10 +13105,10 @@
         <v>76752008</v>
       </c>
       <c r="L103" s="44" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N103" s="10"/>
     </row>
@@ -13154,10 +13146,10 @@
         <v>76752008</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N104" s="10"/>
     </row>
@@ -13195,10 +13187,10 @@
         <v>76752008</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N105" s="10"/>
     </row>
@@ -13235,7 +13227,7 @@
         <v>955009</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10"/>
@@ -13276,10 +13268,10 @@
         <v>955009</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N107" s="10"/>
     </row>
@@ -13316,7 +13308,7 @@
         <v>102297006</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10"/>
@@ -13357,7 +13349,7 @@
         <v>102297006</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10"/>
@@ -13398,7 +13390,7 @@
         <v>102297006</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10"/>
@@ -13439,10 +13431,10 @@
         <v>955009</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N111" s="10"/>
     </row>
@@ -13478,8 +13470,8 @@
       <c r="K112" s="111">
         <v>34381000</v>
       </c>
-      <c r="L112" s="136" t="s">
-        <v>2577</v>
+      <c r="L112" s="135" t="s">
+        <v>2573</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10"/>
@@ -13515,7 +13507,7 @@
         <v>28700002</v>
       </c>
       <c r="L113" s="9" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10"/>
@@ -13551,7 +13543,7 @@
         <v>38848004</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10"/>
@@ -13589,7 +13581,7 @@
         <v>7173007</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10"/>
@@ -13625,7 +13617,7 @@
         <v>9284003</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10"/>
@@ -13663,7 +13655,7 @@
         <v>279549004</v>
       </c>
       <c r="L117" s="9" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10"/>
@@ -13701,7 +13693,7 @@
         <v>74262004</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10"/>
@@ -13737,7 +13729,7 @@
         <v>32713005</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10"/>
@@ -13775,7 +13767,7 @@
         <v>113305005</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10"/>
@@ -13813,7 +13805,7 @@
         <v>83678007</v>
       </c>
       <c r="L121" s="9" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10"/>
@@ -13845,7 +13837,7 @@
         <v>1643</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
       <c r="J122" s="17">
         <v>61819</v>
@@ -13854,10 +13846,10 @@
         <v>83678007</v>
       </c>
       <c r="L122" s="9" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N122" s="10"/>
     </row>
@@ -13888,7 +13880,7 @@
         <v>1645</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="J123" s="17">
         <v>67292</v>
@@ -13897,10 +13889,10 @@
         <v>83678007</v>
       </c>
       <c r="L123" s="9" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N123" s="10"/>
     </row>
@@ -13935,7 +13927,7 @@
         <v>71252005</v>
       </c>
       <c r="L124" s="9" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10"/>
@@ -13971,7 +13963,7 @@
         <v>78904004</v>
       </c>
       <c r="L125" s="9" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10"/>
@@ -14010,10 +14002,10 @@
         <v>78904004</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N126" s="10"/>
     </row>
@@ -14051,10 +14043,10 @@
         <v>78904004</v>
       </c>
       <c r="L127" s="9" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N127" s="10"/>
     </row>
@@ -14089,7 +14081,7 @@
         <v>369387006</v>
       </c>
       <c r="L128" s="9" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10"/>
@@ -14123,7 +14115,7 @@
         <v>60075002</v>
       </c>
       <c r="L129" s="9" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10"/>
@@ -14164,10 +14156,10 @@
         <v>51299004</v>
       </c>
       <c r="L130" s="9" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N130" s="10"/>
     </row>
@@ -14207,10 +14199,10 @@
         <v>51299004</v>
       </c>
       <c r="L131" s="9" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N131" s="10"/>
     </row>
@@ -14247,7 +14239,7 @@
         <v>56193007</v>
       </c>
       <c r="L132" s="9" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10"/>
@@ -14288,10 +14280,10 @@
         <v>56193007</v>
       </c>
       <c r="L133" s="9" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N133" s="10"/>
     </row>
@@ -14331,10 +14323,10 @@
         <v>56193007</v>
       </c>
       <c r="L134" s="9" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N134" s="10"/>
     </row>
@@ -14371,7 +14363,7 @@
         <v>21161002</v>
       </c>
       <c r="L135" s="9" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="10"/>
@@ -14412,10 +14404,10 @@
         <v>21161002</v>
       </c>
       <c r="L136" s="9" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N136" s="10"/>
     </row>
@@ -14455,10 +14447,10 @@
         <v>21161002</v>
       </c>
       <c r="L137" s="9" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="M137" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N137" s="10"/>
     </row>
@@ -14495,7 +14487,7 @@
         <v>27612005</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="10"/>
@@ -14536,10 +14528,10 @@
         <v>27612005</v>
       </c>
       <c r="L139" s="9" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N139" s="10"/>
     </row>
@@ -14579,10 +14571,10 @@
         <v>27612005</v>
       </c>
       <c r="L140" s="9" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="M140" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N140" s="10"/>
     </row>
@@ -14619,7 +14611,7 @@
         <v>80622005</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="M141" s="9"/>
       <c r="N141" s="10"/>
@@ -14660,10 +14652,10 @@
         <v>80622005</v>
       </c>
       <c r="L142" s="9" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="M142" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N142" s="10"/>
     </row>
@@ -14703,10 +14695,10 @@
         <v>80622005</v>
       </c>
       <c r="L143" s="9" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N143" s="10"/>
     </row>
@@ -14743,7 +14735,7 @@
         <v>56052001</v>
       </c>
       <c r="L144" s="9" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="10"/>
@@ -14784,10 +14776,10 @@
         <v>56052001</v>
       </c>
       <c r="L145" s="9" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="M145" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N145" s="10"/>
     </row>
@@ -14827,10 +14819,10 @@
         <v>56052001</v>
       </c>
       <c r="L146" s="9" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="M146" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N146" s="10"/>
     </row>
@@ -14867,7 +14859,7 @@
         <v>8598002</v>
       </c>
       <c r="L147" s="9" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="M147" s="9"/>
       <c r="N147" s="10"/>
@@ -14908,10 +14900,10 @@
         <v>8598002</v>
       </c>
       <c r="L148" s="9" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="M148" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N148" s="10"/>
     </row>
@@ -14951,10 +14943,10 @@
         <v>8598002</v>
       </c>
       <c r="L149" s="9" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="M149" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N149" s="10"/>
     </row>
@@ -14991,7 +14983,7 @@
         <v>15119000</v>
       </c>
       <c r="L150" s="9" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="M150" s="9"/>
       <c r="N150" s="10"/>
@@ -15032,10 +15024,10 @@
         <v>15119000</v>
       </c>
       <c r="L151" s="9" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="M151" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N151" s="10"/>
     </row>
@@ -15075,10 +15067,10 @@
         <v>15119000</v>
       </c>
       <c r="L152" s="9" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N152" s="10"/>
     </row>
@@ -15115,7 +15107,7 @@
         <v>37899009</v>
       </c>
       <c r="L153" s="9" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="M153" s="9"/>
       <c r="N153" s="10"/>
@@ -15156,10 +15148,10 @@
         <v>37899009</v>
       </c>
       <c r="L154" s="9" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="M154" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N154" s="10"/>
     </row>
@@ -15199,10 +15191,10 @@
         <v>37899009</v>
       </c>
       <c r="L155" s="9" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="M155" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N155" s="10"/>
     </row>
@@ -15239,7 +15231,7 @@
         <v>80169004</v>
       </c>
       <c r="L156" s="9" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="M156" s="9"/>
       <c r="N156" s="10"/>
@@ -15280,7 +15272,7 @@
         <v>80169004</v>
       </c>
       <c r="L157" s="9" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="M157" s="9"/>
       <c r="N157" s="10"/>
@@ -15321,7 +15313,7 @@
         <v>80169004</v>
       </c>
       <c r="L158" s="9" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="M158" s="9"/>
       <c r="N158" s="10"/>
@@ -15359,7 +15351,7 @@
         <v>71854001</v>
       </c>
       <c r="L159" s="9" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="M159" s="9"/>
       <c r="N159" s="10"/>
@@ -15397,7 +15389,7 @@
         <v>9040008</v>
       </c>
       <c r="L160" s="9" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="M160" s="9"/>
       <c r="N160" s="10"/>
@@ -15435,7 +15427,7 @@
         <v>32622004</v>
       </c>
       <c r="L161" s="9" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="M161" s="9"/>
       <c r="N161" s="10"/>
@@ -15471,10 +15463,10 @@
         <v>81745001</v>
       </c>
       <c r="L162" s="9" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="M162" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N162" s="10"/>
     </row>
@@ -15511,7 +15503,7 @@
         <v>60184004</v>
       </c>
       <c r="L163" s="9" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="M163" s="9"/>
       <c r="N163" s="10"/>
@@ -15549,7 +15541,7 @@
         <v>485005</v>
       </c>
       <c r="L164" s="9" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="M164" s="9"/>
       <c r="N164" s="10"/>
@@ -15587,7 +15579,7 @@
         <v>28726007</v>
       </c>
       <c r="L165" s="44" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="M165" s="9"/>
       <c r="N165" s="10"/>
@@ -15628,10 +15620,10 @@
         <v>28726007</v>
       </c>
       <c r="L166" s="44" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="M166" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N166" s="10"/>
     </row>
@@ -15671,10 +15663,10 @@
         <v>28726007</v>
       </c>
       <c r="L167" s="44" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="M167" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N167" s="10"/>
     </row>
@@ -15711,7 +15703,7 @@
         <v>36743005</v>
       </c>
       <c r="L168" s="9" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="M168" s="9"/>
       <c r="N168" s="10"/>
@@ -15749,7 +15741,7 @@
         <v>8600008</v>
       </c>
       <c r="L169" s="9" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="M169" s="9"/>
       <c r="N169" s="10"/>
@@ -15787,7 +15779,7 @@
         <v>28276008</v>
       </c>
       <c r="L170" s="9" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="M170" s="9"/>
       <c r="N170" s="10"/>
@@ -15823,7 +15815,7 @@
         <v>28231008</v>
       </c>
       <c r="L171" s="9" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="M171" s="9"/>
       <c r="N171" s="10"/>
@@ -15859,7 +15851,7 @@
         <v>71934003</v>
       </c>
       <c r="L172" s="9" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="M172" s="9"/>
       <c r="N172" s="10"/>
@@ -15897,7 +15889,7 @@
         <v>13561001</v>
       </c>
       <c r="L173" s="9" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="M173" s="9"/>
       <c r="N173" s="10"/>
@@ -15938,7 +15930,7 @@
         <v>117590005</v>
       </c>
       <c r="L174" s="9" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="M174" s="9"/>
       <c r="N174" s="10"/>
@@ -15979,10 +15971,10 @@
         <v>117590005</v>
       </c>
       <c r="L175" s="9" t="s">
-        <v>2180</v>
-      </c>
-      <c r="M175" s="136" t="s">
-        <v>2560</v>
+        <v>2179</v>
+      </c>
+      <c r="M175" s="135" t="s">
+        <v>2556</v>
       </c>
       <c r="N175" s="10"/>
     </row>
@@ -16022,10 +16014,10 @@
         <v>117590005</v>
       </c>
       <c r="L176" s="9" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="M176" s="9" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="N176" s="10"/>
     </row>
@@ -16065,10 +16057,10 @@
         <v>117590005</v>
       </c>
       <c r="L177" s="9" t="s">
-        <v>2180</v>
-      </c>
-      <c r="M177" s="136" t="s">
-        <v>2561</v>
+        <v>2179</v>
+      </c>
+      <c r="M177" s="135" t="s">
+        <v>2557</v>
       </c>
       <c r="N177" s="10"/>
     </row>
@@ -16108,10 +16100,10 @@
         <v>117590005</v>
       </c>
       <c r="L178" s="9" t="s">
-        <v>2180</v>
-      </c>
-      <c r="M178" s="136" t="s">
-        <v>2570</v>
+        <v>2179</v>
+      </c>
+      <c r="M178" s="135" t="s">
+        <v>2566</v>
       </c>
       <c r="N178" s="10"/>
     </row>
@@ -16151,10 +16143,10 @@
         <v>117590005</v>
       </c>
       <c r="L179" s="9" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="M179" s="9" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="N179" s="10"/>
     </row>
@@ -16194,10 +16186,10 @@
         <v>117590005</v>
       </c>
       <c r="L180" s="9" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="M180" s="9" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="N180" s="10"/>
     </row>
@@ -16237,10 +16229,10 @@
         <v>117590005</v>
       </c>
       <c r="L181" s="9" t="s">
-        <v>2180</v>
-      </c>
-      <c r="M181" s="136" t="s">
-        <v>2562</v>
+        <v>2179</v>
+      </c>
+      <c r="M181" s="135" t="s">
+        <v>2558</v>
       </c>
       <c r="N181" s="10"/>
     </row>
@@ -16280,10 +16272,10 @@
         <v>117590005</v>
       </c>
       <c r="L182" s="9" t="s">
-        <v>2180</v>
-      </c>
-      <c r="M182" s="136" t="s">
-        <v>2188</v>
+        <v>2179</v>
+      </c>
+      <c r="M182" s="135" t="s">
+        <v>2187</v>
       </c>
       <c r="N182" s="10"/>
     </row>
@@ -16318,7 +16310,7 @@
         <v>111002</v>
       </c>
       <c r="L183" s="9" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="M183" s="9"/>
       <c r="N183" s="10"/>
@@ -16354,7 +16346,7 @@
         <v>127949000</v>
       </c>
       <c r="L184" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M184" s="9"/>
       <c r="N184" s="10"/>
@@ -16393,7 +16385,7 @@
         <v>127949000</v>
       </c>
       <c r="L185" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M185" s="9" t="s">
         <v>2003</v>
@@ -16434,10 +16426,10 @@
         <v>127949000</v>
       </c>
       <c r="L186" s="9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M186" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N186" s="10"/>
     </row>
@@ -16472,7 +16464,7 @@
         <v>32849002</v>
       </c>
       <c r="L187" s="9" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="M187" s="9"/>
       <c r="N187" s="10"/>
@@ -16511,10 +16503,10 @@
         <v>32849002</v>
       </c>
       <c r="L188" s="9" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="M188" s="9" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="N188" s="10"/>
     </row>
@@ -16552,10 +16544,10 @@
         <v>32849002</v>
       </c>
       <c r="L189" s="9" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="M189" s="9" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="N189" s="10"/>
     </row>
@@ -16591,10 +16583,10 @@
         <v>32849002</v>
       </c>
       <c r="L190" s="9" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="M190" s="9" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="N190" s="10"/>
     </row>
@@ -16631,7 +16623,7 @@
         <v>88481005</v>
       </c>
       <c r="L191" s="9" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="M191" s="9"/>
       <c r="N191" s="10"/>
@@ -16669,7 +16661,7 @@
         <v>385296007</v>
       </c>
       <c r="L192" s="9" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="M192" s="9"/>
       <c r="N192" s="10"/>
@@ -16710,10 +16702,10 @@
         <v>81745001</v>
       </c>
       <c r="L193" s="9" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="M193" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N193" s="10"/>
     </row>
@@ -16753,10 +16745,10 @@
         <v>81745001</v>
       </c>
       <c r="L194" s="9" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="M194" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N194" s="10"/>
     </row>
@@ -16793,7 +16785,7 @@
         <v>9875009</v>
       </c>
       <c r="L195" s="9" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="M195" s="9"/>
       <c r="N195" s="10"/>
@@ -16831,7 +16823,7 @@
         <v>69748006</v>
       </c>
       <c r="L196" s="9" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="M196" s="9"/>
       <c r="N196" s="10"/>
@@ -16872,13 +16864,13 @@
         <v>2812003</v>
       </c>
       <c r="L197" s="76" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="M197" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N197" s="73" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="34">
@@ -16917,13 +16909,13 @@
         <v>2812003</v>
       </c>
       <c r="L198" s="76" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="M198" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N198" s="73" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="34">
@@ -16962,10 +16954,10 @@
         <v>24136001</v>
       </c>
       <c r="L199" s="9" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="M199" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N199" s="10"/>
     </row>
@@ -17005,10 +16997,10 @@
         <v>24136001</v>
       </c>
       <c r="L200" s="9" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="M200" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N200" s="10"/>
     </row>
@@ -17036,7 +17028,7 @@
         <v>92</v>
       </c>
       <c r="I201" s="16" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="J201" s="17">
         <v>24475</v>
@@ -17045,7 +17037,7 @@
         <v>71341001</v>
       </c>
       <c r="L201" s="9" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="M201" s="9"/>
       <c r="N201" s="10"/>
@@ -17077,7 +17069,7 @@
         <v>815</v>
       </c>
       <c r="I202" s="16" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="J202" s="17">
         <v>24475</v>
@@ -17086,10 +17078,10 @@
         <v>71341001</v>
       </c>
       <c r="L202" s="9" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="M202" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N202" s="10"/>
     </row>
@@ -17111,13 +17103,13 @@
         <v>10</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H203" s="15" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="I203" s="16" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="J203" s="17">
         <v>42386</v>
@@ -17126,7 +17118,7 @@
         <v>29627003</v>
       </c>
       <c r="L203" s="9" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="M203" s="9"/>
       <c r="N203" s="10"/>
@@ -17167,13 +17159,13 @@
         <v>29627003</v>
       </c>
       <c r="L204" s="89" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="M204" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N204" s="94" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="205" spans="1:14" ht="17">
@@ -17212,10 +17204,10 @@
         <v>29627003</v>
       </c>
       <c r="L205" s="9" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="M205" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N205" s="10"/>
     </row>
@@ -17255,10 +17247,10 @@
         <v>71341001</v>
       </c>
       <c r="L206" s="9" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="M206" s="9" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="N206" s="10"/>
     </row>
@@ -17298,10 +17290,10 @@
         <v>41111004</v>
       </c>
       <c r="L207" s="9" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="M207" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N207" s="10"/>
     </row>
@@ -17341,10 +17333,10 @@
         <v>41111004</v>
       </c>
       <c r="L208" s="9" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="M208" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N208" s="10"/>
     </row>
@@ -17381,10 +17373,10 @@
         <v>71341001</v>
       </c>
       <c r="L209" s="9" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="M209" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N209" s="10"/>
     </row>
@@ -17421,7 +17413,7 @@
         <v>87342007</v>
       </c>
       <c r="L210" s="9" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="M210" s="9"/>
       <c r="N210" s="10"/>
@@ -17462,10 +17454,10 @@
         <v>87342007</v>
       </c>
       <c r="L211" s="9" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="M211" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N211" s="10"/>
     </row>
@@ -17505,10 +17497,10 @@
         <v>87342007</v>
       </c>
       <c r="L212" s="9" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="M212" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N212" s="10"/>
     </row>
@@ -17543,7 +17535,7 @@
         <v>1307006</v>
       </c>
       <c r="L213" s="9" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="M213" s="9"/>
       <c r="N213" s="10"/>
@@ -17577,7 +17569,7 @@
         <v>3711007</v>
       </c>
       <c r="L214" s="44" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="M214" s="9"/>
       <c r="N214" s="10"/>
@@ -17611,10 +17603,10 @@
         <v>3711007</v>
       </c>
       <c r="L215" s="44" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="M215" s="9" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="N215" s="10"/>
     </row>
@@ -17651,7 +17643,7 @@
         <v>90228003</v>
       </c>
       <c r="L216" s="9" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="M216" s="9"/>
       <c r="N216" s="10"/>
@@ -17687,11 +17679,11 @@
         <v>23451007</v>
       </c>
       <c r="L217" s="105" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="M217" s="9"/>
       <c r="N217" s="94" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="218" spans="1:14" ht="34">
@@ -17730,10 +17722,10 @@
         <v>23451007</v>
       </c>
       <c r="L218" s="105" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="M218" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N218" s="10"/>
     </row>
@@ -17773,10 +17765,10 @@
         <v>23451007</v>
       </c>
       <c r="L219" s="105" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="M219" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N219" s="10"/>
     </row>
@@ -17811,7 +17803,7 @@
         <v>80891009</v>
       </c>
       <c r="L220" s="9" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="M220" s="9"/>
       <c r="N220" s="10"/>
@@ -17852,10 +17844,10 @@
         <v>13561001</v>
       </c>
       <c r="L221" s="9" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="M221" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N221" s="10"/>
     </row>
@@ -17895,10 +17887,10 @@
         <v>13561001</v>
       </c>
       <c r="L222" s="9" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="M222" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N222" s="10"/>
     </row>
@@ -17936,13 +17928,13 @@
         <v>372073000</v>
       </c>
       <c r="L223" s="89" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="M223" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N223" s="94" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="224" spans="1:14" ht="16.5" customHeight="1">
@@ -17981,10 +17973,10 @@
         <v>88481005</v>
       </c>
       <c r="L224" s="9" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="M224" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N224" s="10"/>
     </row>
@@ -18024,10 +18016,10 @@
         <v>88481005</v>
       </c>
       <c r="L225" s="9" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="M225" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N225" s="10"/>
     </row>
@@ -18064,7 +18056,7 @@
         <v>5366008</v>
       </c>
       <c r="L226" s="9" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="M226" s="9"/>
       <c r="N226" s="10"/>
@@ -18105,10 +18097,10 @@
         <v>385296007</v>
       </c>
       <c r="L227" s="9" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="M227" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N227" s="10"/>
     </row>
@@ -18148,10 +18140,10 @@
         <v>385296007</v>
       </c>
       <c r="L228" s="9" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="M228" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N228" s="10"/>
     </row>
@@ -18188,7 +18180,7 @@
         <v>67923007</v>
       </c>
       <c r="L229" s="9" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="M229" s="9"/>
       <c r="N229" s="10"/>
@@ -18224,7 +18216,7 @@
         <v>34516001</v>
       </c>
       <c r="L230" s="9" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="M230" s="9"/>
       <c r="N230" s="10"/>
@@ -18262,7 +18254,7 @@
         <v>21306003</v>
       </c>
       <c r="L231" s="9" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="M231" s="9"/>
       <c r="N231" s="10"/>
@@ -18296,7 +18288,7 @@
         <v>90228003</v>
       </c>
       <c r="L232" s="9" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="M232" s="9"/>
       <c r="N232" s="10"/>
@@ -18332,7 +18324,7 @@
         <v>16953009</v>
       </c>
       <c r="L233" s="9" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="M233" s="9"/>
       <c r="N233" s="10"/>
@@ -18370,7 +18362,7 @@
         <v>85537004</v>
       </c>
       <c r="L234" s="9" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="M234" s="9"/>
       <c r="N234" s="10"/>
@@ -18400,17 +18392,17 @@
         <v>1674</v>
       </c>
       <c r="I235" s="16" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
       <c r="J235" s="17"/>
       <c r="K235" s="111">
         <v>711190000</v>
       </c>
       <c r="L235" s="9" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="M235" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N235" s="10"/>
     </row>
@@ -18439,17 +18431,17 @@
         <v>1676</v>
       </c>
       <c r="I236" s="16" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="J236" s="17"/>
       <c r="K236" s="111">
         <v>711190000</v>
       </c>
       <c r="L236" s="9" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="M236" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N236" s="10"/>
     </row>
@@ -18477,18 +18469,18 @@
       <c r="H237" s="86" t="s">
         <v>1695</v>
       </c>
-      <c r="I237" s="135" t="s">
-        <v>2554</v>
+      <c r="I237" s="134" t="s">
+        <v>2550</v>
       </c>
       <c r="J237" s="87"/>
       <c r="K237" s="116">
         <v>39352004</v>
       </c>
       <c r="L237" s="74" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="M237" s="74" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="N237" s="88"/>
     </row>
@@ -18525,7 +18517,7 @@
         <v>53620006</v>
       </c>
       <c r="L238" s="9" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="M238" s="9"/>
       <c r="N238" s="10"/>
@@ -18557,7 +18549,7 @@
         <v>1834</v>
       </c>
       <c r="I239" s="16" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
       <c r="J239" s="17">
         <v>61819</v>
@@ -18566,13 +18558,13 @@
         <v>6566002</v>
       </c>
       <c r="L239" s="9" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="M239" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N239" s="94" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="240" spans="1:14" ht="34">
@@ -18602,7 +18594,7 @@
         <v>1833</v>
       </c>
       <c r="I240" s="16" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="J240" s="17">
         <v>67292</v>
@@ -18611,13 +18603,13 @@
         <v>6566002</v>
       </c>
       <c r="L240" s="9" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="M240" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N240" s="94" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="241" spans="1:14" ht="34">
@@ -18653,10 +18645,10 @@
         <v>50403003</v>
       </c>
       <c r="L241" s="9" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="M241" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N241" s="10"/>
     </row>
@@ -18693,10 +18685,10 @@
         <v>74033008</v>
       </c>
       <c r="L242" s="9" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="M242" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N242" s="10"/>
     </row>
@@ -18736,10 +18728,10 @@
         <v>5366008</v>
       </c>
       <c r="L243" s="9" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="M243" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N243" s="10"/>
     </row>
@@ -18779,10 +18771,10 @@
         <v>5366008</v>
       </c>
       <c r="L244" s="9" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="M244" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N244" s="10"/>
     </row>
@@ -18822,10 +18814,10 @@
         <v>85050009</v>
       </c>
       <c r="L245" s="9" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="M245" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N245" s="10"/>
     </row>
@@ -18865,10 +18857,10 @@
         <v>85050009</v>
       </c>
       <c r="L246" s="9" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="M246" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N246" s="10"/>
     </row>
@@ -18905,10 +18897,10 @@
         <v>64033007</v>
       </c>
       <c r="L247" s="9" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="M247" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N247" s="10"/>
     </row>
@@ -18943,7 +18935,7 @@
         <v>72696002</v>
       </c>
       <c r="L248" s="9" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="M248" s="9"/>
       <c r="N248" s="10"/>
@@ -18981,11 +18973,11 @@
         <v>81502006</v>
       </c>
       <c r="L249" s="103" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="M249" s="74"/>
       <c r="N249" s="94" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="250" spans="1:14" ht="17">
@@ -19019,7 +19011,7 @@
         <v>4596009</v>
       </c>
       <c r="L250" s="9" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="M250" s="9"/>
       <c r="N250" s="10"/>
@@ -19055,7 +19047,7 @@
         <v>86483002</v>
       </c>
       <c r="L251" s="9" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="M251" s="9"/>
       <c r="N251" s="10"/>
@@ -19094,10 +19086,10 @@
         <v>16953009</v>
       </c>
       <c r="L252" s="9" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="M252" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N252" s="10"/>
     </row>
@@ -19135,10 +19127,10 @@
         <v>16953009</v>
       </c>
       <c r="L253" s="9" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="M253" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N253" s="10"/>
     </row>
@@ -19175,7 +19167,7 @@
         <v>78076003</v>
       </c>
       <c r="L254" s="9" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="M254" s="9"/>
       <c r="N254" s="10"/>
@@ -19216,10 +19208,10 @@
         <v>85537004</v>
       </c>
       <c r="L255" s="9" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="M255" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N255" s="10"/>
     </row>
@@ -19259,10 +19251,10 @@
         <v>85537004</v>
       </c>
       <c r="L256" s="9" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="M256" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N256" s="10"/>
     </row>
@@ -19299,7 +19291,7 @@
         <v>6544009</v>
       </c>
       <c r="L257" s="9" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="M257" s="9"/>
       <c r="N257" s="10"/>
@@ -19335,7 +19327,7 @@
         <v>81083006</v>
       </c>
       <c r="L258" s="44" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M258" s="9"/>
       <c r="N258" s="10"/>
@@ -19376,10 +19368,10 @@
         <v>53620006</v>
       </c>
       <c r="L259" s="9" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="M259" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N259" s="10"/>
     </row>
@@ -19419,10 +19411,10 @@
         <v>53620006</v>
       </c>
       <c r="L260" s="9" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="M260" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N260" s="10"/>
     </row>
@@ -19457,7 +19449,7 @@
         <v>10200004</v>
       </c>
       <c r="L261" s="9" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="M261" s="9"/>
       <c r="N261" s="10"/>
@@ -19498,10 +19490,10 @@
         <v>50403003</v>
       </c>
       <c r="L262" s="9" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="M262" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N262" s="10"/>
     </row>
@@ -19541,10 +19533,10 @@
         <v>50403003</v>
       </c>
       <c r="L263" s="9" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="M263" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N263" s="10"/>
     </row>
@@ -19584,10 +19576,10 @@
         <v>74033008</v>
       </c>
       <c r="L264" s="9" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="M264" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N264" s="10"/>
     </row>
@@ -19627,10 +19619,10 @@
         <v>74033008</v>
       </c>
       <c r="L265" s="9" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="M265" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N265" s="10"/>
     </row>
@@ -19667,7 +19659,7 @@
         <v>83251001</v>
       </c>
       <c r="L266" s="9" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="M266" s="9"/>
       <c r="N266" s="10"/>
@@ -19708,10 +19700,10 @@
         <v>64033007</v>
       </c>
       <c r="L267" s="9" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="M267" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N267" s="10"/>
     </row>
@@ -19751,10 +19743,10 @@
         <v>25990002</v>
       </c>
       <c r="L268" s="9" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="M268" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N268" s="10"/>
     </row>
@@ -19794,10 +19786,10 @@
         <v>25990002</v>
       </c>
       <c r="L269" s="9" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="M269" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N269" s="10"/>
     </row>
@@ -19837,10 +19829,10 @@
         <v>64033007</v>
       </c>
       <c r="L270" s="9" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="M270" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N270" s="10"/>
     </row>
@@ -19877,7 +19869,7 @@
         <v>31065004</v>
       </c>
       <c r="L271" s="9" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="M271" s="9"/>
       <c r="N271" s="10"/>
@@ -19915,7 +19907,7 @@
         <v>16630005</v>
       </c>
       <c r="L272" s="9" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="M272" s="9"/>
       <c r="N272" s="10"/>
@@ -19954,10 +19946,10 @@
         <v>72696002</v>
       </c>
       <c r="L273" s="9" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="M273" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N273" s="10"/>
     </row>
@@ -19995,10 +19987,10 @@
         <v>72696002</v>
       </c>
       <c r="L274" s="9" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="M274" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N274" s="10"/>
     </row>
@@ -20035,7 +20027,7 @@
         <v>78277001</v>
       </c>
       <c r="L275" s="9" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="M275" s="9"/>
       <c r="N275" s="10"/>
@@ -20071,7 +20063,7 @@
         <v>72410000</v>
       </c>
       <c r="L276" s="9" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="M276" s="9"/>
       <c r="N276" s="10"/>
@@ -20107,7 +20099,7 @@
         <v>71616004</v>
       </c>
       <c r="L277" s="9" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="M277" s="9"/>
       <c r="N277" s="10"/>
@@ -20145,7 +20137,7 @@
         <v>4866005</v>
       </c>
       <c r="L278" s="9" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M278" s="9"/>
       <c r="N278" s="10"/>
@@ -20186,10 +20178,10 @@
         <v>78076003</v>
       </c>
       <c r="L279" s="9" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="M279" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N279" s="10"/>
     </row>
@@ -20229,10 +20221,10 @@
         <v>78076003</v>
       </c>
       <c r="L280" s="9" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="M280" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N280" s="10"/>
     </row>
@@ -20269,7 +20261,7 @@
         <v>79368004</v>
       </c>
       <c r="L281" s="9" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M281" s="9"/>
       <c r="N281" s="10"/>
@@ -20307,10 +20299,10 @@
         <v>52927003</v>
       </c>
       <c r="L282" s="9" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="M282" s="7" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N282" s="10"/>
     </row>
@@ -20347,7 +20339,7 @@
         <v>71836000</v>
       </c>
       <c r="L283" s="9" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="M283" s="9"/>
       <c r="N283" s="10"/>
@@ -20383,7 +20375,7 @@
         <v>59441001</v>
       </c>
       <c r="L284" s="44" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="M284" s="9"/>
       <c r="N284" s="10"/>
@@ -20420,8 +20412,8 @@
       <c r="K285" s="111">
         <v>16051009</v>
       </c>
-      <c r="L285" s="136" t="s">
-        <v>2583</v>
+      <c r="L285" s="135" t="s">
+        <v>2577</v>
       </c>
       <c r="M285" s="9"/>
       <c r="N285" s="10"/>
@@ -20461,8 +20453,8 @@
       <c r="K286" s="111">
         <v>16051009</v>
       </c>
-      <c r="L286" s="136" t="s">
-        <v>2583</v>
+      <c r="L286" s="135" t="s">
+        <v>2577</v>
       </c>
       <c r="M286" s="9" t="s">
         <v>2003</v>
@@ -20503,11 +20495,11 @@
       <c r="K287" s="111">
         <v>16051009</v>
       </c>
-      <c r="L287" s="136" t="s">
-        <v>2583</v>
+      <c r="L287" s="135" t="s">
+        <v>2577</v>
       </c>
       <c r="M287" s="9" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="288" spans="1:14" ht="51">
@@ -20545,11 +20537,11 @@
       <c r="K288" s="111">
         <v>16051009</v>
       </c>
-      <c r="L288" s="136" t="s">
-        <v>2583</v>
-      </c>
-      <c r="M288" s="136" t="s">
-        <v>2563</v>
+      <c r="L288" s="135" t="s">
+        <v>2577</v>
+      </c>
+      <c r="M288" s="135" t="s">
+        <v>2559</v>
       </c>
       <c r="N288" s="10"/>
     </row>
@@ -20580,7 +20572,7 @@
         <v>947</v>
       </c>
       <c r="I289" s="16" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="J289" s="17">
         <v>73262</v>
@@ -20588,11 +20580,11 @@
       <c r="K289" s="111">
         <v>16051009</v>
       </c>
-      <c r="L289" s="136" t="s">
-        <v>2583</v>
-      </c>
-      <c r="M289" s="136" t="s">
-        <v>2564</v>
+      <c r="L289" s="135" t="s">
+        <v>2577</v>
+      </c>
+      <c r="M289" s="135" t="s">
+        <v>2560</v>
       </c>
       <c r="N289" s="10"/>
     </row>
@@ -20629,7 +20621,7 @@
         <v>283001</v>
       </c>
       <c r="L290" s="9" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="M290" s="9"/>
       <c r="N290" s="10"/>
@@ -20668,7 +20660,7 @@
         <v>68171009</v>
       </c>
       <c r="L291" s="44" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="M291" s="9" t="s">
         <v>2003</v>
@@ -20711,10 +20703,10 @@
         <v>68171009</v>
       </c>
       <c r="L292" s="9" t="s">
-        <v>2058</v>
-      </c>
-      <c r="M292" s="136" t="s">
-        <v>2565</v>
+        <v>2057</v>
+      </c>
+      <c r="M292" s="135" t="s">
+        <v>2561</v>
       </c>
     </row>
     <row r="293" spans="1:14" ht="51">
@@ -20753,10 +20745,10 @@
         <v>68171009</v>
       </c>
       <c r="L293" s="9" t="s">
-        <v>2058</v>
-      </c>
-      <c r="M293" s="136" t="s">
-        <v>2566</v>
+        <v>2057</v>
+      </c>
+      <c r="M293" s="135" t="s">
+        <v>2562</v>
       </c>
     </row>
     <row r="294" spans="1:14" ht="34">
@@ -20795,10 +20787,10 @@
         <v>68171009</v>
       </c>
       <c r="L294" s="9" t="s">
-        <v>2058</v>
-      </c>
-      <c r="M294" s="136" t="s">
-        <v>2567</v>
+        <v>2057</v>
+      </c>
+      <c r="M294" s="135" t="s">
+        <v>2563</v>
       </c>
     </row>
     <row r="295" spans="1:14" ht="51">
@@ -20837,10 +20829,10 @@
         <v>68171009</v>
       </c>
       <c r="L295" s="9" t="s">
-        <v>2058</v>
-      </c>
-      <c r="M295" s="136" t="s">
-        <v>2568</v>
+        <v>2057</v>
+      </c>
+      <c r="M295" s="135" t="s">
+        <v>2564</v>
       </c>
     </row>
     <row r="296" spans="1:14" ht="34">
@@ -20879,10 +20871,10 @@
         <v>68171009</v>
       </c>
       <c r="L296" s="9" t="s">
-        <v>2058</v>
-      </c>
-      <c r="M296" s="136" t="s">
-        <v>2571</v>
+        <v>2057</v>
+      </c>
+      <c r="M296" s="135" t="s">
+        <v>2567</v>
       </c>
     </row>
     <row r="297" spans="1:14" ht="51">
@@ -20921,10 +20913,10 @@
         <v>68171009</v>
       </c>
       <c r="L297" s="9" t="s">
-        <v>2058</v>
-      </c>
-      <c r="M297" s="136" t="s">
-        <v>2569</v>
+        <v>2057</v>
+      </c>
+      <c r="M297" s="135" t="s">
+        <v>2565</v>
       </c>
     </row>
     <row r="298" spans="1:14" ht="51">
@@ -20963,10 +20955,10 @@
         <v>33770006</v>
       </c>
       <c r="L298" s="9" t="s">
-        <v>2020</v>
-      </c>
-      <c r="M298" s="136" t="s">
-        <v>2031</v>
+        <v>2019</v>
+      </c>
+      <c r="M298" s="135" t="s">
+        <v>2030</v>
       </c>
     </row>
     <row r="299" spans="1:14" ht="51">
@@ -21005,10 +20997,10 @@
         <v>33770006</v>
       </c>
       <c r="L299" s="9" t="s">
-        <v>2020</v>
-      </c>
-      <c r="M299" s="136" t="s">
-        <v>2032</v>
+        <v>2019</v>
+      </c>
+      <c r="M299" s="135" t="s">
+        <v>2031</v>
       </c>
     </row>
     <row r="300" spans="1:14" ht="34">
@@ -21035,7 +21027,7 @@
         <v>939</v>
       </c>
       <c r="I300" s="16" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="J300" s="17">
         <v>233458</v>
@@ -21044,7 +21036,7 @@
         <v>33770006</v>
       </c>
       <c r="L300" s="9" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M300" s="9"/>
       <c r="N300" s="10"/>
@@ -21085,7 +21077,7 @@
         <v>69691007</v>
       </c>
       <c r="L301" s="9" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M301" s="9" t="s">
         <v>2003</v>
@@ -21128,10 +21120,10 @@
         <v>69691007</v>
       </c>
       <c r="L302" s="9" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M302" s="9" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="N302" s="10"/>
     </row>
@@ -21168,7 +21160,7 @@
         <v>69691007</v>
       </c>
       <c r="L303" s="44" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M303" s="9"/>
       <c r="N303" s="10"/>
@@ -21209,10 +21201,10 @@
         <v>68171009</v>
       </c>
       <c r="L304" s="44" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="M304" s="9" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="N304" s="10"/>
     </row>
@@ -21252,10 +21244,10 @@
         <v>12196003</v>
       </c>
       <c r="L305" s="9" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M305" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N305" s="10"/>
     </row>
@@ -21295,10 +21287,10 @@
         <v>12196003</v>
       </c>
       <c r="L306" s="9" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M306" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N306" s="10"/>
     </row>
@@ -21335,7 +21327,7 @@
         <v>12196003</v>
       </c>
       <c r="L307" s="44" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M307" s="9"/>
       <c r="N307" s="10"/>
@@ -21374,10 +21366,10 @@
         <v>196821008</v>
       </c>
       <c r="L308" s="9" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M308" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N308" s="10"/>
     </row>
@@ -21415,10 +21407,10 @@
         <v>196821008</v>
       </c>
       <c r="L309" s="9" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M309" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N309" s="10"/>
     </row>
@@ -21453,7 +21445,7 @@
         <v>196821008</v>
       </c>
       <c r="L310" s="44" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M310" s="9"/>
       <c r="N310" s="10"/>
@@ -21492,10 +21484,10 @@
         <v>279816002</v>
       </c>
       <c r="L311" s="44" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="M311" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N311" s="10"/>
     </row>
@@ -21533,10 +21525,10 @@
         <v>279816002</v>
       </c>
       <c r="L312" s="44" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="M312" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N312" s="10"/>
     </row>
@@ -21571,7 +21563,7 @@
         <v>279816002</v>
       </c>
       <c r="L313" s="44" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="M313" s="9"/>
       <c r="N313" s="10"/>
@@ -21607,7 +21599,7 @@
         <v>196751009</v>
       </c>
       <c r="L314" s="44" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="M314" s="9"/>
       <c r="N314" s="10"/>
@@ -21628,24 +21620,24 @@
         <v>12</v>
       </c>
       <c r="G315" s="30" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H315" s="31" t="s">
         <v>2027</v>
       </c>
-      <c r="H315" s="31" t="s">
-        <v>2028</v>
-      </c>
       <c r="I315" s="32" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="J315" s="33"/>
       <c r="K315" s="112">
         <v>65349008</v>
       </c>
       <c r="L315" s="44" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="M315" s="9"/>
       <c r="N315" s="99" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="316" spans="1:14" ht="51">
@@ -21664,24 +21656,24 @@
         <v>12</v>
       </c>
       <c r="G316" s="30" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="H316" s="31" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="I316" s="32" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="J316" s="33"/>
       <c r="K316" s="112">
         <v>245357003</v>
       </c>
       <c r="L316" s="44" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="M316" s="9"/>
       <c r="N316" s="99" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="317" spans="1:14" ht="51">
@@ -21700,24 +21692,24 @@
         <v>8</v>
       </c>
       <c r="G317" s="30" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H317" s="31" t="s">
         <v>2029</v>
       </c>
-      <c r="H317" s="31" t="s">
-        <v>2030</v>
-      </c>
       <c r="I317" s="32" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="J317" s="33"/>
       <c r="K317" s="112">
         <v>84219008</v>
       </c>
       <c r="L317" s="44" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="M317" s="9"/>
       <c r="N317" s="99" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="318" spans="1:14" ht="51">
@@ -21754,10 +21746,10 @@
         <v>65349008</v>
       </c>
       <c r="L318" s="9" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="M318" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="319" spans="1:14" ht="51">
@@ -21794,10 +21786,10 @@
         <v>65349008</v>
       </c>
       <c r="L319" s="9" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="M319" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="320" spans="1:14" ht="51">
@@ -21834,10 +21826,10 @@
         <v>245299000</v>
       </c>
       <c r="L320" s="9" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="M320" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N320" s="97"/>
     </row>
@@ -21875,10 +21867,10 @@
         <v>245295006</v>
       </c>
       <c r="L321" s="105" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="M321" s="108" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="N321" s="97"/>
     </row>
@@ -21916,13 +21908,13 @@
         <v>245295006</v>
       </c>
       <c r="L322" s="89" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="M322" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N322" s="94" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="323" spans="1:14" ht="51">
@@ -21952,7 +21944,7 @@
         <v>1597</v>
       </c>
       <c r="I323" s="93" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
       <c r="J323" s="17">
         <v>5934</v>
@@ -21961,13 +21953,13 @@
         <v>245282001</v>
       </c>
       <c r="L323" s="44" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="M323" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N323" s="94" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="324" spans="1:14" ht="51">
@@ -21997,7 +21989,7 @@
         <v>1594</v>
       </c>
       <c r="I324" s="93" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
       <c r="J324" s="17">
         <v>5933</v>
@@ -22006,10 +21998,10 @@
         <v>245282001</v>
       </c>
       <c r="L324" s="44" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="M324" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N324" s="10"/>
     </row>
@@ -22046,7 +22038,7 @@
         <v>245282001</v>
       </c>
       <c r="L325" s="44" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="M325" s="9"/>
       <c r="N325" s="10"/>
@@ -22082,7 +22074,7 @@
         <v>279763008</v>
       </c>
       <c r="L326" s="44" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="M326" s="9"/>
       <c r="N326" s="10"/>
@@ -22112,7 +22104,7 @@
         <v>910</v>
       </c>
       <c r="I327" s="16" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="J327" s="17">
         <v>236341</v>
@@ -22121,10 +22113,10 @@
         <v>279763008</v>
       </c>
       <c r="L327" s="44" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="M327" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N327" s="10"/>
     </row>
@@ -22153,7 +22145,7 @@
         <v>909</v>
       </c>
       <c r="I328" s="16" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="J328" s="17">
         <v>236339</v>
@@ -22162,10 +22154,10 @@
         <v>279763008</v>
       </c>
       <c r="L328" s="44" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="M328" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N328" s="10"/>
     </row>
@@ -22200,7 +22192,7 @@
         <v>64038003</v>
       </c>
       <c r="L329" s="44" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="M329" s="9"/>
       <c r="N329" s="10"/>
@@ -22239,10 +22231,10 @@
         <v>59441001</v>
       </c>
       <c r="L330" s="9" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="M330" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N330" s="10"/>
     </row>
@@ -22277,11 +22269,11 @@
         <v>127938006</v>
       </c>
       <c r="L331" s="106" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="M331" s="56"/>
       <c r="N331" s="95" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="332" spans="1:14" ht="51">
@@ -22318,10 +22310,10 @@
         <v>245299000</v>
       </c>
       <c r="L332" s="9" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="M332" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N332" s="10"/>
     </row>
@@ -22356,7 +22348,7 @@
         <v>62683002</v>
       </c>
       <c r="L333" s="44" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="M333" s="9"/>
       <c r="N333" s="10"/>
@@ -22379,23 +22371,23 @@
         <v>7</v>
       </c>
       <c r="G334" s="34" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H334" s="35" t="s">
         <v>2042</v>
       </c>
-      <c r="H334" s="35" t="s">
+      <c r="I334" s="36" t="s">
         <v>2043</v>
-      </c>
-      <c r="I334" s="36" t="s">
-        <v>2044</v>
       </c>
       <c r="J334" s="37"/>
       <c r="K334" s="112">
         <v>81105003</v>
       </c>
       <c r="L334" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="N334" s="9" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="335" spans="1:14" ht="34" customHeight="1">
@@ -22434,10 +22426,10 @@
         <v>81105003</v>
       </c>
       <c r="L335" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M335" s="9" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="336" spans="1:14" ht="34" customHeight="1">
@@ -22476,10 +22468,10 @@
         <v>81105003</v>
       </c>
       <c r="L336" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M336" s="9" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="337" spans="1:14" ht="51" customHeight="1">
@@ -22518,10 +22510,10 @@
         <v>81105003</v>
       </c>
       <c r="L337" s="44" t="s">
-        <v>2041</v>
-      </c>
-      <c r="M337" s="134" t="s">
-        <v>2537</v>
+        <v>2040</v>
+      </c>
+      <c r="M337" s="133" t="s">
+        <v>2533</v>
       </c>
     </row>
     <row r="338" spans="1:14" ht="51" customHeight="1">
@@ -22560,10 +22552,10 @@
         <v>81105003</v>
       </c>
       <c r="L338" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M338" s="9" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="339" spans="1:14" ht="34" customHeight="1">
@@ -22602,10 +22594,10 @@
         <v>81105003</v>
       </c>
       <c r="L339" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M339" s="9" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="N339" s="57"/>
     </row>
@@ -22645,10 +22637,10 @@
         <v>81105003</v>
       </c>
       <c r="L340" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M340" s="9" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="N340" s="72"/>
     </row>
@@ -22688,13 +22680,13 @@
         <v>81105003</v>
       </c>
       <c r="L341" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M341" s="105" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="N341" s="100" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="342" spans="1:14" ht="34" customHeight="1">
@@ -22733,13 +22725,13 @@
         <v>81105003</v>
       </c>
       <c r="L342" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M342" s="105" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="N342" s="100" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="343" spans="1:14" ht="34" customHeight="1">
@@ -22778,13 +22770,13 @@
         <v>81105003</v>
       </c>
       <c r="L343" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M343" s="105" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="N343" s="100" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="344" spans="1:14" ht="34" customHeight="1">
@@ -22823,13 +22815,13 @@
         <v>81105003</v>
       </c>
       <c r="L344" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M344" s="105" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="N344" s="100" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="345" spans="1:14" ht="34" customHeight="1">
@@ -22868,10 +22860,10 @@
         <v>81105003</v>
       </c>
       <c r="L345" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M345" s="9" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="N345" s="72"/>
     </row>
@@ -22911,10 +22903,10 @@
         <v>81105003</v>
       </c>
       <c r="L346" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M346" s="9" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="N346" s="72"/>
     </row>
@@ -22954,10 +22946,10 @@
         <v>81105003</v>
       </c>
       <c r="L347" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M347" s="9" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="N347" s="72"/>
     </row>
@@ -22997,10 +22989,10 @@
         <v>81105003</v>
       </c>
       <c r="L348" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M348" s="9" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="N348" s="72"/>
     </row>
@@ -23040,10 +23032,10 @@
         <v>81105003</v>
       </c>
       <c r="L349" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M349" s="9" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="N349" s="72"/>
     </row>
@@ -23083,10 +23075,10 @@
         <v>81105003</v>
       </c>
       <c r="L350" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M350" s="9" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="N350" s="72"/>
     </row>
@@ -23126,10 +23118,10 @@
         <v>81105003</v>
       </c>
       <c r="L351" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M351" s="9" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="N351" s="72"/>
     </row>
@@ -23169,10 +23161,10 @@
         <v>81105003</v>
       </c>
       <c r="L352" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M352" s="9" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="N352" s="72"/>
     </row>
@@ -23210,10 +23202,10 @@
         <v>81105003</v>
       </c>
       <c r="L353" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M353" s="9" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="N353" s="72"/>
     </row>
@@ -23251,10 +23243,10 @@
         <v>81105003</v>
       </c>
       <c r="L354" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M354" s="9" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="N354" s="72"/>
     </row>
@@ -23294,10 +23286,10 @@
         <v>81105003</v>
       </c>
       <c r="L355" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M355" s="9" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="N355" s="72"/>
     </row>
@@ -23337,10 +23329,10 @@
         <v>81105003</v>
       </c>
       <c r="L356" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M356" s="9" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N356" s="72"/>
     </row>
@@ -23380,10 +23372,10 @@
         <v>81105003</v>
       </c>
       <c r="L357" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M357" s="9" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="N357" s="72"/>
     </row>
@@ -23423,10 +23415,10 @@
         <v>81105003</v>
       </c>
       <c r="L358" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M358" s="9" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="N358" s="72"/>
     </row>
@@ -23464,10 +23456,10 @@
         <v>81105003</v>
       </c>
       <c r="L359" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M359" s="9" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="N359" s="72"/>
     </row>
@@ -23505,10 +23497,10 @@
         <v>81105003</v>
       </c>
       <c r="L360" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M360" s="103" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="N360" s="72"/>
     </row>
@@ -23533,21 +23525,21 @@
         <v>14</v>
       </c>
       <c r="G361" s="12" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="H361" s="38"/>
       <c r="I361" s="12" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="J361" s="39"/>
       <c r="K361" s="112">
         <v>81105003</v>
       </c>
       <c r="L361" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M361" s="103" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="N361" s="72"/>
     </row>
@@ -23572,24 +23564,24 @@
         <v>14</v>
       </c>
       <c r="G362" s="12" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="H362" s="38"/>
       <c r="I362" s="12" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="J362" s="39"/>
       <c r="K362" s="112">
         <v>81105003</v>
       </c>
       <c r="L362" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M362" s="9" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="N362" s="40" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="363" spans="1:14" ht="18" customHeight="1">
@@ -23610,21 +23602,21 @@
       </c>
       <c r="F363" s="13"/>
       <c r="G363" s="12" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="H363" s="35"/>
       <c r="I363" s="12" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="J363" s="39"/>
       <c r="K363" s="112">
         <v>81105003</v>
       </c>
       <c r="L363" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M363" s="9" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="N363" s="40"/>
     </row>
@@ -23646,21 +23638,21 @@
       </c>
       <c r="F364" s="13"/>
       <c r="G364" s="12" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="H364" s="35"/>
       <c r="I364" s="12" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="J364" s="39"/>
       <c r="K364" s="112">
         <v>81105003</v>
       </c>
       <c r="L364" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M364" s="9" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="N364" s="40"/>
     </row>
@@ -23682,21 +23674,21 @@
       </c>
       <c r="F365" s="13"/>
       <c r="G365" s="12" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="H365" s="35"/>
       <c r="I365" s="12" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="J365" s="39"/>
       <c r="K365" s="112">
         <v>81105003</v>
       </c>
       <c r="L365" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M365" s="9" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="N365" s="40"/>
     </row>
@@ -23718,21 +23710,21 @@
       </c>
       <c r="F366" s="13"/>
       <c r="G366" s="12" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="H366" s="35"/>
       <c r="I366" s="12" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="J366" s="39"/>
       <c r="K366" s="112">
         <v>81105003</v>
       </c>
       <c r="L366" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M366" s="9" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="N366" s="40"/>
     </row>
@@ -23754,21 +23746,21 @@
       </c>
       <c r="F367" s="13"/>
       <c r="G367" s="12" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="H367" s="35"/>
       <c r="I367" s="12" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="J367" s="39"/>
       <c r="K367" s="112">
         <v>81105003</v>
       </c>
       <c r="L367" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M367" s="9" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="N367" s="40"/>
     </row>
@@ -23790,21 +23782,21 @@
       </c>
       <c r="F368" s="13"/>
       <c r="G368" s="12" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="H368" s="35"/>
       <c r="I368" s="12" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="J368" s="39"/>
       <c r="K368" s="112">
         <v>81105003</v>
       </c>
       <c r="L368" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M368" s="9" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="N368" s="40"/>
     </row>
@@ -23826,21 +23818,21 @@
       </c>
       <c r="F369" s="13"/>
       <c r="G369" s="12" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="H369" s="35"/>
       <c r="I369" s="12" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="J369" s="39"/>
       <c r="K369" s="112">
         <v>81105003</v>
       </c>
       <c r="L369" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M369" s="9" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="N369" s="40"/>
     </row>
@@ -23862,21 +23854,21 @@
       </c>
       <c r="F370" s="13"/>
       <c r="G370" s="12" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="H370" s="35"/>
       <c r="I370" s="12" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="J370" s="39"/>
       <c r="K370" s="112">
         <v>81105003</v>
       </c>
       <c r="L370" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M370" s="9" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="N370" s="40"/>
     </row>
@@ -23898,21 +23890,21 @@
       </c>
       <c r="F371" s="13"/>
       <c r="G371" s="12" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="H371" s="35"/>
       <c r="I371" s="12" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="J371" s="39"/>
       <c r="K371" s="112">
         <v>81105003</v>
       </c>
       <c r="L371" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M371" s="9" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="N371" s="40"/>
     </row>
@@ -23934,21 +23926,21 @@
       </c>
       <c r="F372" s="13"/>
       <c r="G372" s="12" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="H372" s="35"/>
       <c r="I372" s="12" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="J372" s="39"/>
       <c r="K372" s="112">
         <v>81105003</v>
       </c>
       <c r="L372" s="44" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="M372" s="9" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="N372" s="40"/>
     </row>
@@ -23986,10 +23978,10 @@
         <v>36086000</v>
       </c>
       <c r="L373" s="44" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="M373" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N373" s="10"/>
     </row>
@@ -24027,10 +24019,10 @@
         <v>36086000</v>
       </c>
       <c r="L374" s="44" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="M374" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N374" s="10"/>
     </row>
@@ -24065,7 +24057,7 @@
         <v>35783009</v>
       </c>
       <c r="L375" s="44" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="M375" s="9"/>
       <c r="N375" s="10"/>
@@ -24104,10 +24096,10 @@
         <v>368550005</v>
       </c>
       <c r="L376" s="9" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="M376" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N376" s="10"/>
     </row>
@@ -24145,10 +24137,10 @@
         <v>368550005</v>
       </c>
       <c r="L377" s="9" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="M377" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N377" s="10"/>
     </row>
@@ -24183,7 +24175,7 @@
         <v>368550005</v>
       </c>
       <c r="L378" s="44" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="M378" s="9"/>
       <c r="N378" s="10"/>
@@ -24222,10 +24214,10 @@
         <v>82365008</v>
       </c>
       <c r="L379" s="44" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="M379" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N379" s="10"/>
     </row>
@@ -24263,10 +24255,10 @@
         <v>82365008</v>
       </c>
       <c r="L380" s="44" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="M380" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N380" s="10"/>
     </row>
@@ -24301,7 +24293,7 @@
         <v>82365008</v>
       </c>
       <c r="L381" s="44" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="M381" s="9"/>
       <c r="N381" s="10"/>
@@ -24338,10 +24330,10 @@
         <v>245294005</v>
       </c>
       <c r="L382" s="44" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="M382" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N382" s="10"/>
     </row>
@@ -24377,10 +24369,10 @@
         <v>245294005</v>
       </c>
       <c r="L383" s="44" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="M383" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N383" s="10"/>
     </row>
@@ -24413,7 +24405,7 @@
         <v>245294005</v>
       </c>
       <c r="L384" s="44" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="M384" s="9"/>
       <c r="N384" s="10"/>
@@ -24451,7 +24443,7 @@
         <v>245288002</v>
       </c>
       <c r="L385" s="9" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="M385" s="9"/>
       <c r="N385" s="10"/>
@@ -24489,7 +24481,7 @@
         <v>45206002</v>
       </c>
       <c r="L386" s="9" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="M386" s="9"/>
       <c r="N386" s="10"/>
@@ -24528,10 +24520,10 @@
         <v>1187336003</v>
       </c>
       <c r="L387" s="9" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="M387" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N387" s="10"/>
     </row>
@@ -24569,10 +24561,10 @@
         <v>1187336003</v>
       </c>
       <c r="L388" s="9" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="M388" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N388" s="10"/>
     </row>
@@ -24610,10 +24602,10 @@
         <v>196662004</v>
       </c>
       <c r="L389" s="44" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="M389" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N389" s="10"/>
     </row>
@@ -24651,10 +24643,10 @@
         <v>196662004</v>
       </c>
       <c r="L390" s="44" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="M390" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N390" s="10"/>
     </row>
@@ -24689,7 +24681,7 @@
         <v>196662004</v>
       </c>
       <c r="L391" s="44" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="M391" s="9"/>
       <c r="N391" s="10"/>
@@ -24728,10 +24720,10 @@
         <v>59441001</v>
       </c>
       <c r="L392" s="58" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="M392" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N392" s="10"/>
     </row>
@@ -24771,10 +24763,10 @@
         <v>76838003</v>
       </c>
       <c r="L393" s="44" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="M393" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N393" s="10"/>
     </row>
@@ -24814,10 +24806,10 @@
         <v>76838003</v>
       </c>
       <c r="L394" s="44" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="M394" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N394" s="10"/>
     </row>
@@ -24852,7 +24844,7 @@
         <v>245283006</v>
       </c>
       <c r="L395" s="44" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="M395" s="9"/>
       <c r="N395" s="10"/>
@@ -24891,10 +24883,10 @@
         <v>245283006</v>
       </c>
       <c r="L396" s="44" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="M396" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N396" s="10"/>
     </row>
@@ -24932,10 +24924,10 @@
         <v>245283006</v>
       </c>
       <c r="L397" s="44" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="M397" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N397" s="10"/>
     </row>
@@ -24968,7 +24960,7 @@
         <v>84782009</v>
       </c>
       <c r="L398" s="9" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="M398" s="9"/>
       <c r="N398" s="10"/>
@@ -25009,10 +25001,10 @@
         <v>83251001</v>
       </c>
       <c r="L399" s="9" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="M399" s="5" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N399" s="10"/>
     </row>
@@ -25043,7 +25035,7 @@
         <v>844</v>
       </c>
       <c r="I400" s="16" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="J400" s="17">
         <v>72969</v>
@@ -25052,10 +25044,10 @@
         <v>83251001</v>
       </c>
       <c r="L400" s="9" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="M400" s="6" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N400" s="10"/>
     </row>
@@ -25090,7 +25082,7 @@
         <v>40958000</v>
       </c>
       <c r="L401" s="9" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="M401" s="9"/>
       <c r="N401" s="10"/>
@@ -25131,10 +25123,10 @@
         <v>31065004</v>
       </c>
       <c r="L402" s="9" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="M402" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N402" s="10"/>
     </row>
@@ -25174,10 +25166,10 @@
         <v>31065004</v>
       </c>
       <c r="L403" s="9" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="M403" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N403" s="10"/>
     </row>
@@ -25214,7 +25206,7 @@
         <v>244453006</v>
       </c>
       <c r="L404" s="9" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="M404" s="9"/>
       <c r="N404" s="10"/>
@@ -25255,10 +25247,10 @@
         <v>16630005</v>
       </c>
       <c r="L405" s="9" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="M405" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N405" s="10"/>
     </row>
@@ -25298,10 +25290,10 @@
         <v>16630005</v>
       </c>
       <c r="L406" s="9" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="M406" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N406" s="10"/>
     </row>
@@ -25338,7 +25330,7 @@
         <v>18234004</v>
       </c>
       <c r="L407" s="9" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="M407" s="9"/>
       <c r="N407" s="10"/>
@@ -25379,10 +25371,10 @@
         <v>78277001</v>
       </c>
       <c r="L408" s="9" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="M408" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N408" s="10"/>
     </row>
@@ -25422,10 +25414,10 @@
         <v>78277001</v>
       </c>
       <c r="L409" s="9" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="M409" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N409" s="10"/>
     </row>
@@ -25463,10 +25455,10 @@
         <v>39607008</v>
       </c>
       <c r="L410" s="9" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="M410" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N410" s="10"/>
     </row>
@@ -25504,10 +25496,10 @@
         <v>31094006</v>
       </c>
       <c r="L411" s="9" t="s">
+        <v>2183</v>
+      </c>
+      <c r="M411" s="9" t="s">
         <v>2184</v>
-      </c>
-      <c r="M411" s="9" t="s">
-        <v>2185</v>
       </c>
       <c r="N411" s="10"/>
     </row>
@@ -25545,10 +25537,10 @@
         <v>31094006</v>
       </c>
       <c r="L412" s="9" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="M412" s="9" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="N412" s="10"/>
     </row>
@@ -25586,10 +25578,10 @@
         <v>31094006</v>
       </c>
       <c r="L413" s="9" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="M413" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N413" s="10"/>
     </row>
@@ -25627,10 +25619,10 @@
         <v>31094006</v>
       </c>
       <c r="L414" s="9" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="M414" s="9" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="N414" s="10"/>
     </row>
@@ -25668,10 +25660,10 @@
         <v>31094006</v>
       </c>
       <c r="L415" s="9" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="M415" s="9" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="N415" s="10"/>
     </row>
@@ -25709,10 +25701,10 @@
         <v>31094006</v>
       </c>
       <c r="L416" s="9" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="M416" s="9" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="N416" s="10"/>
     </row>
@@ -25750,10 +25742,10 @@
         <v>39607008</v>
       </c>
       <c r="L417" s="9" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="M417" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N417" s="10"/>
     </row>
@@ -25790,7 +25782,7 @@
         <v>34080009</v>
       </c>
       <c r="L418" s="9" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="M418" s="9"/>
       <c r="N418" s="10"/>
@@ -25831,7 +25823,7 @@
         <v>34080009</v>
       </c>
       <c r="L419" s="9" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="M419" s="9"/>
       <c r="N419" s="10"/>
@@ -25872,7 +25864,7 @@
         <v>34080009</v>
       </c>
       <c r="L420" s="9" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="M420" s="9"/>
       <c r="N420" s="10"/>
@@ -25910,7 +25902,7 @@
         <v>70925003</v>
       </c>
       <c r="L421" s="9" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="M421" s="9"/>
       <c r="N421" s="10"/>
@@ -25951,7 +25943,7 @@
         <v>70925003</v>
       </c>
       <c r="L422" s="9" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="M422" s="9"/>
       <c r="N422" s="10"/>
@@ -25992,10 +25984,10 @@
         <v>70925003</v>
       </c>
       <c r="L423" s="9" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="M423" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N423" s="10"/>
     </row>
@@ -26032,10 +26024,10 @@
         <v>363654007</v>
       </c>
       <c r="L424" s="9" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="M424" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N424" s="10"/>
     </row>
@@ -26072,10 +26064,10 @@
         <v>363654007</v>
       </c>
       <c r="L425" s="9" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="M425" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N425" s="10"/>
     </row>
@@ -26112,7 +26104,7 @@
         <v>31389004</v>
       </c>
       <c r="L426" s="9" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="M426" s="9"/>
     </row>
@@ -26152,10 +26144,10 @@
         <v>4866005</v>
       </c>
       <c r="L427" s="9" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M427" s="9" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="N427" s="10"/>
     </row>
@@ -26195,10 +26187,10 @@
         <v>4866005</v>
       </c>
       <c r="L428" s="9" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M428" s="9" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="N428" s="10"/>
     </row>
@@ -26238,10 +26230,10 @@
         <v>4866005</v>
       </c>
       <c r="L429" s="9" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="M429" s="9" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="N429" s="10"/>
     </row>
@@ -26281,10 +26273,10 @@
         <v>52410001</v>
       </c>
       <c r="L430" s="9" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="M430" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N430" s="10"/>
     </row>
@@ -26324,10 +26316,10 @@
         <v>52410001</v>
       </c>
       <c r="L431" s="9" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="M431" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N431" s="10"/>
     </row>
@@ -26362,10 +26354,10 @@
         <v>15497006</v>
       </c>
       <c r="L432" s="9" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="M432" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N432" s="10"/>
     </row>
@@ -26405,7 +26397,7 @@
         <v>79368004</v>
       </c>
       <c r="L433" s="9" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M433" s="9"/>
       <c r="N433" s="10"/>
@@ -26446,7 +26438,7 @@
         <v>79368004</v>
       </c>
       <c r="L434" s="9" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="M434" s="9"/>
       <c r="N434" s="10"/>
@@ -26487,10 +26479,10 @@
         <v>18252004</v>
       </c>
       <c r="L435" s="9" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="M435" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N435" s="10"/>
     </row>
@@ -26530,10 +26522,10 @@
         <v>18252004</v>
       </c>
       <c r="L436" s="9" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="M436" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N436" s="10"/>
     </row>
@@ -26571,13 +26563,13 @@
         <v>76738006</v>
       </c>
       <c r="L437" s="89" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="M437" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N437" s="98" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="438" spans="1:14" ht="34">
@@ -26614,10 +26606,10 @@
         <v>76738006</v>
       </c>
       <c r="L438" s="9" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="M438" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N438" s="10"/>
     </row>
@@ -26657,10 +26649,10 @@
         <v>22823000</v>
       </c>
       <c r="L439" s="9" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="M439" s="5" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N439" s="10"/>
     </row>
@@ -26691,7 +26683,7 @@
         <v>1578</v>
       </c>
       <c r="I440" s="16" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="J440" s="17">
         <v>13408</v>
@@ -26700,10 +26692,10 @@
         <v>22823000</v>
       </c>
       <c r="L440" s="9" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="M440" s="6" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N440" s="10"/>
     </row>
@@ -26743,10 +26735,10 @@
         <v>52927003</v>
       </c>
       <c r="L441" s="9" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="M441" s="5" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N441" s="10"/>
     </row>
@@ -26783,7 +26775,7 @@
         <v>49460000</v>
       </c>
       <c r="L442" s="9" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="M442" s="41"/>
       <c r="N442" s="10"/>
@@ -26824,10 +26816,10 @@
         <v>46607005</v>
       </c>
       <c r="L443" s="9" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="M443" s="5" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="N443" s="10"/>
     </row>
@@ -26867,10 +26859,10 @@
         <v>46607005</v>
       </c>
       <c r="L444" s="9" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="M444" s="6" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="N444" s="10"/>
     </row>
@@ -26907,7 +26899,7 @@
         <v>15776009</v>
       </c>
       <c r="L445" s="9" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="M445" s="9"/>
       <c r="N445" s="10"/>
@@ -26945,7 +26937,7 @@
         <v>64163001</v>
       </c>
       <c r="L446" s="9" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="M446" s="9"/>
       <c r="N446" s="10"/>
@@ -26983,7 +26975,7 @@
         <v>73239005</v>
       </c>
       <c r="L447" s="9" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="M447" s="9"/>
       <c r="N447" s="10"/>
@@ -27019,7 +27011,7 @@
         <v>45682005</v>
       </c>
       <c r="L448" s="9" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="M448" s="9"/>
       <c r="N448" s="10"/>
@@ -27057,10 +27049,10 @@
         <v>45289007</v>
       </c>
       <c r="L449" s="9" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="M449" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N449" s="10"/>
     </row>
@@ -27095,7 +27087,7 @@
         <v>52737000</v>
       </c>
       <c r="L450" s="9" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="M450" s="9"/>
       <c r="N450" s="10"/>
@@ -27127,7 +27119,7 @@
         <v>1579</v>
       </c>
       <c r="I451" s="16" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="J451" s="17">
         <v>50878</v>
@@ -27136,10 +27128,10 @@
         <v>18234004</v>
       </c>
       <c r="L451" s="9" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="M451" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N451" s="10"/>
     </row>
@@ -27170,7 +27162,7 @@
         <v>1555</v>
       </c>
       <c r="I452" s="16" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="J452" s="17">
         <v>50875</v>
@@ -27179,10 +27171,10 @@
         <v>18234004</v>
       </c>
       <c r="L452" s="9" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="M452" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N452" s="10"/>
     </row>
@@ -27217,10 +27209,10 @@
         <v>18911002</v>
       </c>
       <c r="L453" s="9" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="M453" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N453" s="10"/>
     </row>
@@ -27257,7 +27249,7 @@
         <v>76848001</v>
       </c>
       <c r="L454" s="9" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="M454" s="9"/>
       <c r="N454" s="10"/>
@@ -27293,7 +27285,7 @@
         <v>38864007</v>
       </c>
       <c r="L455" s="9" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="M455" s="9"/>
       <c r="N455" s="10"/>
@@ -27331,7 +27323,7 @@
         <v>118762006</v>
       </c>
       <c r="L456" s="9" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="M456" s="9"/>
       <c r="N456" s="10"/>
@@ -27370,10 +27362,10 @@
         <v>15497006</v>
       </c>
       <c r="L457" s="9" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="M457" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N457" s="10"/>
     </row>
@@ -27411,10 +27403,10 @@
         <v>15497006</v>
       </c>
       <c r="L458" s="9" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="M458" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N458" s="10"/>
     </row>
@@ -27447,7 +27439,7 @@
         <v>14106009</v>
       </c>
       <c r="L459" s="9" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="M459" s="9"/>
       <c r="N459" s="10"/>
@@ -27485,7 +27477,7 @@
         <v>54066008</v>
       </c>
       <c r="L460" s="9" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="M460" s="9"/>
       <c r="N460" s="10"/>
@@ -27520,11 +27512,11 @@
         <v>110822002</v>
       </c>
       <c r="L461" s="9" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="M461" s="9"/>
       <c r="N461" s="97" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="462" spans="1:14" ht="13.5" customHeight="1">
@@ -27560,7 +27552,7 @@
         <v>45793000</v>
       </c>
       <c r="L462" s="9" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="M462" s="9"/>
       <c r="N462" s="10"/>
@@ -27573,7 +27565,7 @@
         <v>649</v>
       </c>
       <c r="D463" s="12" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E463" s="12" t="s">
         <v>697</v>
@@ -27598,7 +27590,7 @@
         <v>56329008</v>
       </c>
       <c r="L463" s="9" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="M463" s="9"/>
       <c r="N463" s="10"/>
@@ -27636,11 +27628,11 @@
         <v>49557009</v>
       </c>
       <c r="L464" s="9" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="M464" s="9"/>
       <c r="N464" s="94" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="465" spans="1:14" ht="17">
@@ -27676,7 +27668,7 @@
         <v>41216001</v>
       </c>
       <c r="L465" s="9" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="M465" s="9"/>
       <c r="N465" s="10"/>
@@ -27717,10 +27709,10 @@
         <v>45289007</v>
       </c>
       <c r="L466" s="9" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="M466" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N466" s="10"/>
     </row>
@@ -27760,10 +27752,10 @@
         <v>45289007</v>
       </c>
       <c r="L467" s="9" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="M467" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N467" s="10"/>
     </row>
@@ -27798,11 +27790,11 @@
         <v>1162492000</v>
       </c>
       <c r="L468" s="89" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="M468" s="9"/>
       <c r="N468" s="88" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="469" spans="1:14" ht="51">
@@ -27838,10 +27830,10 @@
         <v>88938001</v>
       </c>
       <c r="L469" s="9" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="M469" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N469" s="10"/>
     </row>
@@ -27878,10 +27870,10 @@
         <v>88938001</v>
       </c>
       <c r="L470" s="9" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="M470" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N470" s="10"/>
     </row>
@@ -27918,10 +27910,10 @@
         <v>85002005</v>
       </c>
       <c r="L471" s="9" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="M471" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N471" s="10"/>
     </row>
@@ -27958,10 +27950,10 @@
         <v>85002005</v>
       </c>
       <c r="L472" s="9" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="M472" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N472" s="10"/>
     </row>
@@ -27996,7 +27988,7 @@
         <v>511000202101</v>
       </c>
       <c r="L473" s="9" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="M473" s="9"/>
       <c r="N473" s="10"/>
@@ -28032,7 +28024,7 @@
         <v>34402009</v>
       </c>
       <c r="L474" s="9" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="M474" s="9"/>
       <c r="N474" s="10"/>
@@ -28070,7 +28062,7 @@
         <v>62397004</v>
       </c>
       <c r="L475" s="9" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="M475" s="9"/>
       <c r="N475" s="10"/>
@@ -28106,7 +28098,7 @@
         <v>41695006</v>
       </c>
       <c r="L476" s="9" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="M476" s="9"/>
       <c r="N476" s="10"/>
@@ -28147,10 +28139,10 @@
         <v>67183008</v>
       </c>
       <c r="L477" s="9" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="M477" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N477" s="10"/>
     </row>
@@ -28190,10 +28182,10 @@
         <v>67183008</v>
       </c>
       <c r="L478" s="9" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="M478" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N478" s="10"/>
     </row>
@@ -28233,10 +28225,10 @@
         <v>124002</v>
       </c>
       <c r="L479" s="9" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="M479" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N479" s="10"/>
     </row>
@@ -28276,10 +28268,10 @@
         <v>124002</v>
       </c>
       <c r="L480" s="9" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="M480" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N480" s="10"/>
     </row>
@@ -28312,7 +28304,7 @@
         <v>12402003</v>
       </c>
       <c r="L481" s="9" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="M481" s="9"/>
       <c r="N481" s="10"/>
@@ -28339,18 +28331,18 @@
         <v>1684</v>
       </c>
       <c r="I482" s="16" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="J482" s="17"/>
       <c r="K482" s="115">
         <v>12402003</v>
       </c>
       <c r="L482" s="89" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="M482" s="9"/>
       <c r="N482" s="88" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="483" spans="1:14" ht="51">
@@ -28384,7 +28376,7 @@
         <v>20233005</v>
       </c>
       <c r="L483" s="9" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="M483" s="9"/>
       <c r="N483" s="10"/>
@@ -28420,7 +28412,7 @@
         <v>64739004</v>
       </c>
       <c r="L484" s="9" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="M484" s="9"/>
       <c r="N484" s="10"/>
@@ -28454,10 +28446,10 @@
         <v>64739004</v>
       </c>
       <c r="L485" s="9" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="M485" s="9" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="N485" s="10"/>
     </row>
@@ -28490,10 +28482,10 @@
         <v>64739004</v>
       </c>
       <c r="L486" s="9" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="M486" s="9" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="N486" s="10"/>
     </row>
@@ -28530,7 +28522,7 @@
         <v>54215007</v>
       </c>
       <c r="L487" s="9" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="M487" s="9"/>
       <c r="N487" s="10"/>
@@ -28568,7 +28560,7 @@
         <v>82561000</v>
       </c>
       <c r="L488" s="9" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="M488" s="9"/>
       <c r="N488" s="10"/>
@@ -28609,10 +28601,10 @@
         <v>82561000</v>
       </c>
       <c r="L489" s="89" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="M489" s="89" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N489" s="10"/>
     </row>
@@ -28652,10 +28644,10 @@
         <v>82561000</v>
       </c>
       <c r="L490" s="90" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="M490" s="89" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N490" s="10"/>
     </row>
@@ -28695,10 +28687,10 @@
         <v>62413002</v>
       </c>
       <c r="L491" s="44" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="M491" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N491" s="10"/>
     </row>
@@ -28738,10 +28730,10 @@
         <v>62413002</v>
       </c>
       <c r="L492" s="44" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="M492" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N492" s="10"/>
     </row>
@@ -28778,7 +28770,7 @@
         <v>55060009</v>
       </c>
       <c r="L493" s="9" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="M493" s="9"/>
       <c r="N493" s="10"/>
@@ -28816,7 +28808,7 @@
         <v>15924003</v>
       </c>
       <c r="L494" s="9" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="M494" s="9"/>
       <c r="N494" s="10"/>
@@ -28857,10 +28849,10 @@
         <v>5665001</v>
       </c>
       <c r="L495" s="9" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="M495" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N495" s="10"/>
     </row>
@@ -28900,10 +28892,10 @@
         <v>5665001</v>
       </c>
       <c r="L496" s="9" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="M496" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N496" s="10"/>
     </row>
@@ -28943,13 +28935,13 @@
         <v>5665001</v>
       </c>
       <c r="L497" s="89" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="M497" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N497" s="98" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="498" spans="1:14" ht="17">
@@ -29026,10 +29018,10 @@
         <v>48535007</v>
       </c>
       <c r="L499" s="9" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="M499" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N499" s="10"/>
     </row>
@@ -29069,10 +29061,10 @@
         <v>48535007</v>
       </c>
       <c r="L500" s="9" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="M500" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N500" s="10"/>
     </row>
@@ -29112,10 +29104,10 @@
         <v>78247007</v>
       </c>
       <c r="L501" s="9" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="M501" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N501" s="10"/>
     </row>
@@ -29155,10 +29147,10 @@
         <v>78247007</v>
       </c>
       <c r="L502" s="9" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="M502" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N502" s="10"/>
     </row>
@@ -29198,10 +29190,10 @@
         <v>25888004</v>
       </c>
       <c r="L503" s="9" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="M503" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N503" s="10"/>
     </row>
@@ -29241,10 +29233,10 @@
         <v>25888004</v>
       </c>
       <c r="L504" s="9" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="M504" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N504" s="10"/>
     </row>
@@ -29284,10 +29276,10 @@
         <v>25523003</v>
       </c>
       <c r="L505" s="9" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="M505" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N505" s="10"/>
     </row>
@@ -29327,10 +29319,10 @@
         <v>25523003</v>
       </c>
       <c r="L506" s="9" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="M506" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N506" s="10"/>
     </row>
@@ -29370,10 +29362,10 @@
         <v>15339008</v>
       </c>
       <c r="L507" s="9" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="M507" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N507" s="10"/>
     </row>
@@ -29413,10 +29405,10 @@
         <v>15339008</v>
       </c>
       <c r="L508" s="9" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="M508" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N508" s="10"/>
     </row>
@@ -29456,10 +29448,10 @@
         <v>59558009</v>
       </c>
       <c r="L509" s="9" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="M509" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N509" s="10"/>
     </row>
@@ -29499,10 +29491,10 @@
         <v>59558009</v>
       </c>
       <c r="L510" s="9" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="M510" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N510" s="10"/>
     </row>
@@ -29542,10 +29534,10 @@
         <v>24915002</v>
       </c>
       <c r="L511" s="9" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="M511" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N511" s="10"/>
     </row>
@@ -29585,10 +29577,10 @@
         <v>24915002</v>
       </c>
       <c r="L512" s="9" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="M512" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N512" s="10"/>
     </row>
@@ -29628,10 +29620,10 @@
         <v>5953002</v>
       </c>
       <c r="L513" s="9" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="M513" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N513" s="10"/>
     </row>
@@ -29671,10 +29663,10 @@
         <v>5953002</v>
       </c>
       <c r="L514" s="9" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="M514" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N514" s="10"/>
     </row>
@@ -29714,10 +29706,10 @@
         <v>22565002</v>
       </c>
       <c r="L515" s="9" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="M515" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N515" s="10"/>
     </row>
@@ -29757,10 +29749,10 @@
         <v>22565002</v>
       </c>
       <c r="L516" s="9" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="M516" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N516" s="10"/>
     </row>
@@ -29800,10 +29792,10 @@
         <v>77644006</v>
       </c>
       <c r="L517" s="9" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="M517" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N517" s="10"/>
     </row>
@@ -29843,10 +29835,10 @@
         <v>77644006</v>
       </c>
       <c r="L518" s="9" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="M518" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N518" s="10"/>
     </row>
@@ -29886,10 +29878,10 @@
         <v>58830002</v>
       </c>
       <c r="L519" s="9" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="M519" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N519" s="10"/>
     </row>
@@ -29929,10 +29921,10 @@
         <v>58830002</v>
       </c>
       <c r="L520" s="9" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="M520" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N520" s="10"/>
     </row>
@@ -29972,10 +29964,10 @@
         <v>43993008</v>
       </c>
       <c r="L521" s="9" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="M521" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N521" s="10"/>
     </row>
@@ -30015,10 +30007,10 @@
         <v>43993008</v>
       </c>
       <c r="L522" s="9" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="M522" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N522" s="10"/>
     </row>
@@ -30053,14 +30045,14 @@
         <v>39937001</v>
       </c>
       <c r="L523" s="9" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="M523" s="9"/>
       <c r="N523" s="10"/>
     </row>
     <row r="524" spans="1:14" ht="34">
       <c r="A524" s="59" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B524" s="11" t="s">
         <v>700</v>
@@ -30079,13 +30071,13 @@
         <v>7</v>
       </c>
       <c r="G524" s="12" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="H524" s="15" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="I524" s="16" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="J524" s="17">
         <v>8534</v>
@@ -30094,18 +30086,18 @@
         <v>1193560003</v>
       </c>
       <c r="L524" s="9" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="M524" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N524" s="130" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="525" spans="1:14" ht="34">
       <c r="A525" s="59" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B525" s="11" t="s">
         <v>700</v>
@@ -30124,13 +30116,13 @@
         <v>7</v>
       </c>
       <c r="G525" s="12" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="H525" s="15" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="I525" s="16" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="J525" s="17">
         <v>8533</v>
@@ -30139,13 +30131,13 @@
         <v>1193560003</v>
       </c>
       <c r="L525" s="9" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="M525" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N525" s="130" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="526" spans="1:14" ht="17">
@@ -30170,7 +30162,7 @@
         <v>1868</v>
       </c>
       <c r="I526" s="16" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="J526" s="17">
         <v>20429</v>
@@ -30179,7 +30171,7 @@
         <v>48014002</v>
       </c>
       <c r="L526" s="9" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="M526" s="9"/>
       <c r="N526" s="130"/>
@@ -30220,10 +30212,10 @@
         <v>79601000</v>
       </c>
       <c r="L527" s="9" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="M527" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N527" s="10"/>
     </row>
@@ -30263,10 +30255,10 @@
         <v>79601000</v>
       </c>
       <c r="L528" s="9" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="M528" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N528" s="10"/>
     </row>
@@ -30292,14 +30284,14 @@
         <v>1870</v>
       </c>
       <c r="I529" s="16" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="J529" s="17"/>
       <c r="K529" s="112">
         <v>75093004</v>
       </c>
       <c r="L529" s="9" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="M529" s="9"/>
       <c r="N529" s="10"/>
@@ -30331,15 +30323,15 @@
         <v>1426</v>
       </c>
       <c r="J530" s="17"/>
-      <c r="K530" s="132" t="s">
-        <v>2531</v>
-      </c>
-      <c r="L530" s="136" t="s">
-        <v>2581</v>
+      <c r="K530" s="137">
+        <v>1285442003</v>
+      </c>
+      <c r="L530" s="138" t="s">
+        <v>2578</v>
       </c>
       <c r="M530" s="9"/>
-      <c r="N530" s="133" t="s">
-        <v>2533</v>
+      <c r="N530" s="139" t="s">
+        <v>2580</v>
       </c>
     </row>
     <row r="531" spans="1:14" ht="34">
@@ -30364,18 +30356,18 @@
         <v>1641</v>
       </c>
       <c r="I531" s="16" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="J531" s="17"/>
-      <c r="K531" s="132" t="s">
-        <v>2532</v>
-      </c>
-      <c r="L531" s="136" t="s">
-        <v>2582</v>
+      <c r="K531" s="132">
+        <v>1285443008</v>
+      </c>
+      <c r="L531" s="138" t="s">
+        <v>2579</v>
       </c>
       <c r="M531" s="9"/>
-      <c r="N531" s="133" t="s">
-        <v>2533</v>
+      <c r="N531" s="139" t="s">
+        <v>2581</v>
       </c>
     </row>
     <row r="532" spans="1:14" ht="34">
@@ -30409,7 +30401,7 @@
         <v>789564000</v>
       </c>
       <c r="L532" s="9" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="M532" s="9"/>
       <c r="N532" s="46"/>
@@ -30445,11 +30437,11 @@
         <v>1193554003</v>
       </c>
       <c r="L533" s="9" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="M533" s="9"/>
       <c r="N533" s="125" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="534" spans="1:14" ht="34">
@@ -30485,10 +30477,10 @@
         <v>76838003</v>
       </c>
       <c r="L534" s="90" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="M534" s="89" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N534" s="46"/>
     </row>
@@ -30525,10 +30517,10 @@
         <v>76838003</v>
       </c>
       <c r="L535" s="90" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="M535" s="89" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N535" s="47"/>
     </row>
@@ -30568,10 +30560,10 @@
         <v>55060009</v>
       </c>
       <c r="L536" s="9" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="M536" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N536" s="10"/>
     </row>
@@ -30611,10 +30603,10 @@
         <v>55060009</v>
       </c>
       <c r="L537" s="9" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="M537" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N537" s="10"/>
     </row>
@@ -30651,7 +30643,7 @@
         <v>41178004</v>
       </c>
       <c r="L538" s="9" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="M538" s="9"/>
       <c r="N538" s="10"/>
@@ -30692,10 +30684,10 @@
         <v>15924003</v>
       </c>
       <c r="L539" s="9" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="M539" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N539" s="10"/>
     </row>
@@ -30735,10 +30727,10 @@
         <v>15924003</v>
       </c>
       <c r="L540" s="9" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="M540" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N540" s="10"/>
     </row>
@@ -30775,7 +30767,7 @@
         <v>61853006</v>
       </c>
       <c r="L541" s="9" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="M541" s="9"/>
       <c r="N541" s="10"/>
@@ -30816,10 +30808,10 @@
         <v>24999009</v>
       </c>
       <c r="L542" s="9" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="M542" s="9" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="543" spans="1:14" ht="34">
@@ -30858,10 +30850,10 @@
         <v>24999009</v>
       </c>
       <c r="L543" s="9" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="M543" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="544" spans="1:14" ht="17">
@@ -30897,7 +30889,7 @@
         <v>2748008</v>
       </c>
       <c r="L544" s="9" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="M544" s="9"/>
       <c r="N544" s="10"/>
@@ -30935,7 +30927,7 @@
         <v>54785003</v>
       </c>
       <c r="L545" s="9" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="M545" s="9"/>
       <c r="N545" s="10"/>
@@ -30973,7 +30965,7 @@
         <v>60051002</v>
       </c>
       <c r="L546" s="9" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="M546" s="9"/>
       <c r="N546" s="10"/>
@@ -31011,7 +31003,7 @@
         <v>89546000</v>
       </c>
       <c r="L547" s="9" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="M547" s="9"/>
       <c r="N547" s="10"/>
@@ -31049,7 +31041,7 @@
         <v>11478001</v>
       </c>
       <c r="L548" s="9" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="M548" s="9"/>
       <c r="N548" s="10"/>
@@ -31087,7 +31079,7 @@
         <v>50800009</v>
       </c>
       <c r="L549" s="9" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="M549" s="9"/>
       <c r="N549" s="10"/>
@@ -31123,7 +31115,7 @@
         <v>25270003</v>
       </c>
       <c r="L550" s="9" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="M550" s="9"/>
       <c r="N550" s="10"/>
@@ -31162,13 +31154,13 @@
         <v>789564000</v>
       </c>
       <c r="L551" s="9" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="M551" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N551" s="94" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="552" spans="1:14" ht="34">
@@ -31205,13 +31197,13 @@
         <v>789564000</v>
       </c>
       <c r="L552" s="9" t="s">
+        <v>2359</v>
+      </c>
+      <c r="M552" s="9" t="s">
         <v>2360</v>
       </c>
-      <c r="M552" s="9" t="s">
-        <v>2361</v>
-      </c>
       <c r="N552" s="94" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="553" spans="1:14" ht="17">
@@ -31247,7 +31239,7 @@
         <v>22718006</v>
       </c>
       <c r="L553" s="9" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="M553" s="9"/>
       <c r="N553" s="10"/>
@@ -31283,7 +31275,7 @@
         <v>69695003</v>
       </c>
       <c r="L554" s="9" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="M554" s="9"/>
       <c r="N554" s="10"/>
@@ -31322,13 +31314,13 @@
         <v>1193554003</v>
       </c>
       <c r="L555" s="9" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="M555" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N555" s="129" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="556" spans="1:14" ht="34">
@@ -31365,13 +31357,13 @@
         <v>1193554003</v>
       </c>
       <c r="L556" s="9" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="M556" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N556" s="129" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="557" spans="1:14" ht="34">
@@ -31403,7 +31395,7 @@
         <v>75415000</v>
       </c>
       <c r="L557" s="9" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="M557" s="9"/>
       <c r="N557" s="10"/>
@@ -31422,20 +31414,20 @@
         <v>10</v>
       </c>
       <c r="G558" s="92" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="H558" s="15" t="s">
         <v>1872</v>
       </c>
       <c r="I558" s="27" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="J558" s="12"/>
       <c r="K558" s="111">
         <v>67548002</v>
       </c>
       <c r="L558" s="9" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="M558" s="9"/>
       <c r="N558" s="102"/>
@@ -31454,20 +31446,20 @@
         <v>10</v>
       </c>
       <c r="G559" s="92" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="H559" s="15" t="s">
         <v>1872</v>
       </c>
       <c r="I559" s="27" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="J559" s="12"/>
       <c r="K559" s="111">
         <v>13014005</v>
       </c>
       <c r="L559" s="103" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="M559" s="9"/>
       <c r="N559" s="102"/>
@@ -31494,7 +31486,7 @@
         <v>1889</v>
       </c>
       <c r="I560" s="27" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="J560" s="13">
         <v>242787</v>
@@ -31503,7 +31495,7 @@
         <v>8997002</v>
       </c>
       <c r="L560" s="71" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="M560" s="9"/>
       <c r="N560" s="10"/>
@@ -31539,7 +31531,7 @@
         <v>13024002</v>
       </c>
       <c r="L561" s="9" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="M561" s="9"/>
       <c r="N561" s="10"/>
@@ -31566,7 +31558,7 @@
         <v>1849</v>
       </c>
       <c r="I562" s="27" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
       <c r="J562" s="13">
         <v>46900</v>
@@ -31575,7 +31567,7 @@
         <v>70567001</v>
       </c>
       <c r="L562" s="9" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="M562" s="9"/>
       <c r="N562" s="10"/>
@@ -31613,10 +31605,10 @@
         <v>40689003</v>
       </c>
       <c r="L563" s="9" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="M563" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N563" s="10"/>
     </row>
@@ -31653,7 +31645,7 @@
         <v>37554007</v>
       </c>
       <c r="L564" s="89" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="M564" s="9"/>
     </row>
@@ -31690,7 +31682,7 @@
         <v>1732005</v>
       </c>
       <c r="L565" s="9" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M565" s="9"/>
       <c r="N565" s="10"/>
@@ -31728,7 +31720,7 @@
         <v>78961009</v>
       </c>
       <c r="L566" s="44" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="M566" s="9"/>
       <c r="N566" s="10"/>
@@ -31766,7 +31758,7 @@
         <v>35378004</v>
       </c>
       <c r="L567" s="44" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="M567" s="9"/>
       <c r="N567" s="10"/>
@@ -31804,7 +31796,7 @@
         <v>21974007</v>
       </c>
       <c r="L568" s="9" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="M568" s="9"/>
       <c r="N568" s="10"/>
@@ -31833,14 +31825,14 @@
         <v>1717</v>
       </c>
       <c r="I569" s="16" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
       <c r="J569" s="19"/>
       <c r="K569" s="112">
         <v>181226008</v>
       </c>
       <c r="L569" s="9" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="M569" s="9"/>
       <c r="N569" s="10"/>
@@ -31881,7 +31873,7 @@
         <v>22718006</v>
       </c>
       <c r="L570" s="9" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="M570" s="9"/>
       <c r="N570" s="10"/>
@@ -31922,7 +31914,7 @@
         <v>22718006</v>
       </c>
       <c r="L571" s="9" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="M571" s="9"/>
       <c r="N571" s="10"/>
@@ -31951,7 +31943,7 @@
         <v>1719</v>
       </c>
       <c r="I572" s="16" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="J572" s="17">
         <v>54645</v>
@@ -31960,11 +31952,11 @@
         <v>47975008</v>
       </c>
       <c r="L572" s="9" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="M572" s="9"/>
       <c r="N572" s="94" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="573" spans="1:14" ht="17">
@@ -31991,7 +31983,7 @@
         <v>1725</v>
       </c>
       <c r="I573" s="16" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
       <c r="J573" s="17">
         <v>54644</v>
@@ -32000,11 +31992,11 @@
         <v>61344008</v>
       </c>
       <c r="L573" s="105" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="M573" s="9"/>
       <c r="N573" s="97" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="574" spans="1:14" ht="17">
@@ -32031,7 +32023,7 @@
         <v>1721</v>
       </c>
       <c r="I574" s="16" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
       <c r="J574" s="17">
         <v>281502</v>
@@ -32040,13 +32032,13 @@
         <v>61344008</v>
       </c>
       <c r="L574" s="105" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="M574" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N574" s="97" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="575" spans="1:14" ht="17">
@@ -32082,7 +32074,7 @@
         <v>44567001</v>
       </c>
       <c r="L575" s="9" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="M575" s="9"/>
       <c r="N575" s="94"/>
@@ -32118,10 +32110,10 @@
         <v>44567001</v>
       </c>
       <c r="L576" s="9" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="M576" s="9" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="N576" s="94"/>
     </row>
@@ -32157,10 +32149,10 @@
         <v>87953007</v>
       </c>
       <c r="L577" s="9" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="M577" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N577" s="94"/>
     </row>
@@ -32197,7 +32189,7 @@
         <v>13648007</v>
       </c>
       <c r="L578" s="9" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="M578" s="9"/>
       <c r="N578" s="94"/>
@@ -32233,7 +32225,7 @@
         <v>71553001</v>
       </c>
       <c r="L579" s="9" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="M579" s="9"/>
       <c r="N579" s="94"/>
@@ -32274,10 +32266,10 @@
         <v>40689003</v>
       </c>
       <c r="L580" s="9" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="M580" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N580" s="94"/>
     </row>
@@ -32317,10 +32309,10 @@
         <v>40689003</v>
       </c>
       <c r="L581" s="9" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="M581" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N581" s="94"/>
     </row>
@@ -32357,7 +32349,7 @@
         <v>35039007</v>
       </c>
       <c r="L582" s="9" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="M582" s="9"/>
       <c r="N582" s="94"/>
@@ -32395,7 +32387,7 @@
         <v>72107004</v>
       </c>
       <c r="L583" s="9" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="M583" s="9"/>
       <c r="N583" s="94"/>
@@ -32433,10 +32425,10 @@
         <v>8887007</v>
       </c>
       <c r="L584" s="9" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="M584" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N584" s="94"/>
     </row>
@@ -32473,10 +32465,10 @@
         <v>8887007</v>
       </c>
       <c r="L585" s="9" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="M585" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N585" s="94"/>
     </row>
@@ -32513,10 +32505,10 @@
         <v>63507001</v>
       </c>
       <c r="L586" s="9" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="M586" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N586" s="94"/>
     </row>
@@ -32547,17 +32539,17 @@
         <v>1727</v>
       </c>
       <c r="I587" s="16" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="J587" s="17"/>
       <c r="K587" s="111">
         <v>47975008</v>
       </c>
       <c r="L587" s="9" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="M587" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N587" s="94"/>
     </row>
@@ -32588,17 +32580,17 @@
         <v>1729</v>
       </c>
       <c r="I588" s="16" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="J588" s="17"/>
       <c r="K588" s="111">
         <v>47975008</v>
       </c>
       <c r="L588" s="9" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="M588" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N588" s="94"/>
     </row>
@@ -32635,10 +32627,10 @@
         <v>63507001</v>
       </c>
       <c r="L589" s="9" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="M589" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N589" s="94"/>
     </row>
@@ -32675,10 +32667,10 @@
         <v>40300007</v>
       </c>
       <c r="L590" s="9" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="M590" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N590" s="94"/>
     </row>
@@ -32709,7 +32701,7 @@
         <v>1723</v>
       </c>
       <c r="I591" s="16" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
       <c r="J591" s="17">
         <v>281500</v>
@@ -32718,13 +32710,13 @@
         <v>61344008</v>
       </c>
       <c r="L591" s="105" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="M591" s="96" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N591" s="97" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="592" spans="1:14" ht="17">
@@ -32763,7 +32755,7 @@
         <v>75573002</v>
       </c>
       <c r="L592" s="9" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="M592" s="9"/>
       <c r="N592" s="94"/>
@@ -32801,10 +32793,10 @@
         <v>40300007</v>
       </c>
       <c r="L593" s="9" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="M593" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N593" s="94"/>
     </row>
@@ -32841,10 +32833,10 @@
         <v>46027005</v>
       </c>
       <c r="L594" s="9" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="M594" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N594" s="10"/>
     </row>
@@ -32877,7 +32869,7 @@
         <v>1162492000</v>
       </c>
       <c r="L595" s="9" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="M595" s="9"/>
       <c r="N595" s="10"/>
@@ -32918,10 +32910,10 @@
         <v>87953007</v>
       </c>
       <c r="L596" s="9" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="M596" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N596" s="10"/>
     </row>
@@ -32961,10 +32953,10 @@
         <v>87953007</v>
       </c>
       <c r="L597" s="9" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="M597" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N597" s="10"/>
     </row>
@@ -33001,10 +32993,10 @@
         <v>46027005</v>
       </c>
       <c r="L598" s="9" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="M598" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N598" s="10"/>
     </row>
@@ -33032,7 +33024,7 @@
         <v>1516</v>
       </c>
       <c r="I599" s="16" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="J599" s="17">
         <v>13112</v>
@@ -33041,10 +33033,10 @@
         <v>71585003</v>
       </c>
       <c r="L599" s="44" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="M599" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N599" s="10"/>
     </row>
@@ -33072,7 +33064,7 @@
         <v>1518</v>
       </c>
       <c r="I600" s="16" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="J600" s="17">
         <v>13111</v>
@@ -33081,10 +33073,10 @@
         <v>71585003</v>
       </c>
       <c r="L600" s="44" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="M600" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N600" s="10"/>
     </row>
@@ -33112,7 +33104,7 @@
         <v>1899</v>
       </c>
       <c r="I601" s="16" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="J601" s="17">
         <v>4754</v>
@@ -33121,10 +33113,10 @@
         <v>12123001</v>
       </c>
       <c r="L601" s="9" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="M601" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N601" s="10"/>
     </row>
@@ -33152,7 +33144,7 @@
         <v>1202</v>
       </c>
       <c r="I602" s="16" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="J602" s="17">
         <v>4762</v>
@@ -33161,10 +33153,10 @@
         <v>12123001</v>
       </c>
       <c r="L602" s="9" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="M602" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N602" s="10"/>
     </row>
@@ -33201,7 +33193,7 @@
         <v>32764006</v>
       </c>
       <c r="L603" s="9" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="M603" s="9"/>
       <c r="N603" s="10"/>
@@ -33239,7 +33231,7 @@
         <v>430757002</v>
       </c>
       <c r="L604" s="9" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="M604" s="9"/>
       <c r="N604" s="10"/>
@@ -33277,7 +33269,7 @@
         <v>9454009</v>
       </c>
       <c r="L605" s="9" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="M605" s="9"/>
       <c r="N605" s="10"/>
@@ -33315,10 +33307,10 @@
         <v>35532006</v>
       </c>
       <c r="L606" s="9" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="M606" s="9" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="N606" s="10"/>
     </row>
@@ -33355,10 +33347,10 @@
         <v>35532006</v>
       </c>
       <c r="L607" s="9" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="M607" s="9" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="N607" s="10"/>
     </row>
@@ -33395,7 +33387,7 @@
         <v>76784001</v>
       </c>
       <c r="L608" s="9" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="M608" s="9"/>
       <c r="N608" s="10"/>
@@ -33424,14 +33416,14 @@
         <v>1873</v>
       </c>
       <c r="I609" s="16" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="J609" s="17"/>
       <c r="K609" s="111">
         <v>279894000</v>
       </c>
       <c r="L609" s="9" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="M609" s="9"/>
     </row>
@@ -33465,8 +33457,8 @@
       <c r="K610" s="111">
         <v>438074005</v>
       </c>
-      <c r="L610" s="136" t="s">
-        <v>2573</v>
+      <c r="L610" s="135" t="s">
+        <v>2569</v>
       </c>
       <c r="M610" s="9"/>
     </row>
@@ -33499,7 +33491,7 @@
         <v>17401000</v>
       </c>
       <c r="L611" s="89" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="M611" s="9"/>
       <c r="N611" s="10"/>
@@ -33573,7 +33565,7 @@
         <v>91134007</v>
       </c>
       <c r="L613" s="9" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="M613" s="9"/>
       <c r="N613" s="10"/>
@@ -33609,7 +33601,7 @@
         <v>39057004</v>
       </c>
       <c r="L614" s="9" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="M614" s="9"/>
       <c r="N614" s="10"/>
@@ -33647,7 +33639,7 @@
         <v>46030003</v>
       </c>
       <c r="L615" s="9" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="M615" s="9"/>
       <c r="N615" s="10"/>
@@ -33685,7 +33677,7 @@
         <v>21814001</v>
       </c>
       <c r="L616" s="9" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="M616" s="9"/>
       <c r="N616" s="10"/>
@@ -33723,10 +33715,10 @@
         <v>21814001</v>
       </c>
       <c r="L617" s="9" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="M617" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N617" s="10"/>
     </row>
@@ -33763,10 +33755,10 @@
         <v>21814001</v>
       </c>
       <c r="L618" s="9" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="M618" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N618" s="10"/>
     </row>
@@ -33806,10 +33798,10 @@
         <v>9454009</v>
       </c>
       <c r="L619" s="9" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="M619" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N619" s="10"/>
     </row>
@@ -33849,10 +33841,10 @@
         <v>9454009</v>
       </c>
       <c r="L620" s="9" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="M620" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N620" s="10"/>
     </row>
@@ -33887,10 +33879,10 @@
         <v>46105003</v>
       </c>
       <c r="L621" s="9" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="M621" s="9" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="N621" s="10"/>
     </row>
@@ -33927,7 +33919,7 @@
         <v>45292006</v>
       </c>
       <c r="L622" s="9" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="M622" s="9"/>
       <c r="N622" s="10"/>
@@ -33965,7 +33957,7 @@
         <v>263355003</v>
       </c>
       <c r="L623" s="9" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="M623" s="9"/>
       <c r="N623" s="10"/>
@@ -34000,8 +33992,8 @@
       <c r="K624" s="122">
         <v>38266002</v>
       </c>
-      <c r="L624" s="137" t="s">
-        <v>2574</v>
+      <c r="L624" s="136" t="s">
+        <v>2570</v>
       </c>
       <c r="M624" s="9"/>
       <c r="N624" s="10"/>
@@ -34037,7 +34029,7 @@
         <v>75330005</v>
       </c>
       <c r="L625" s="71" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="M625" s="9"/>
     </row>
@@ -34074,7 +34066,7 @@
         <v>52940008</v>
       </c>
       <c r="L626" s="60" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="M626" s="9"/>
       <c r="N626" s="10"/>
@@ -34101,14 +34093,14 @@
         <v>1887</v>
       </c>
       <c r="I627" s="27" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="J627" s="12"/>
       <c r="K627" s="115">
         <v>15328005</v>
       </c>
       <c r="L627" s="89" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="M627" s="9"/>
       <c r="N627" s="10"/>
@@ -34184,7 +34176,7 @@
         <v>1172006</v>
       </c>
       <c r="L629" s="9" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="M629" s="9"/>
     </row>
@@ -34217,10 +34209,10 @@
         <v>123037004</v>
       </c>
       <c r="L630" s="9" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="M630" s="74" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="631" spans="2:14" ht="17">
@@ -34254,7 +34246,7 @@
         <v>3572006</v>
       </c>
       <c r="L631" s="9" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="M631" s="9"/>
       <c r="N631" s="10"/>
@@ -34292,7 +34284,7 @@
         <v>3572006</v>
       </c>
       <c r="L632" s="9" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="M632" s="9"/>
       <c r="N632" s="10"/>
@@ -34330,7 +34322,7 @@
         <v>14806007</v>
       </c>
       <c r="L633" s="9" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="M633" s="9"/>
       <c r="N633" s="10"/>
@@ -34368,7 +34360,7 @@
         <v>39976000</v>
       </c>
       <c r="L634" s="9" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="M634" s="9"/>
       <c r="N634" s="10"/>
@@ -34406,7 +34398,7 @@
         <v>91116008</v>
       </c>
       <c r="L635" s="9" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="M635" s="9"/>
       <c r="N635" s="10"/>
@@ -34444,7 +34436,7 @@
         <v>14705001</v>
       </c>
       <c r="L636" s="9" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="M636" s="9"/>
       <c r="N636" s="10"/>
@@ -34482,7 +34474,7 @@
         <v>67479001</v>
       </c>
       <c r="L637" s="9" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="M637" s="9"/>
       <c r="N637" s="10"/>
@@ -34520,7 +34512,7 @@
         <v>88298007</v>
       </c>
       <c r="L638" s="9" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="M638" s="9"/>
       <c r="N638" s="10"/>
@@ -34558,7 +34550,7 @@
         <v>16126006</v>
       </c>
       <c r="L639" s="9" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="M639" s="9"/>
       <c r="N639" s="10"/>
@@ -34596,7 +34588,7 @@
         <v>73903008</v>
       </c>
       <c r="L640" s="9" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="M640" s="9"/>
       <c r="N640" s="10"/>
@@ -34634,7 +34626,7 @@
         <v>61032001</v>
       </c>
       <c r="L641" s="9" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="M641" s="9"/>
       <c r="N641" s="10"/>
@@ -34672,7 +34664,7 @@
         <v>53983007</v>
       </c>
       <c r="L642" s="9" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="M642" s="9"/>
       <c r="N642" s="10"/>
@@ -34710,7 +34702,7 @@
         <v>55492004</v>
       </c>
       <c r="L643" s="9" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="M643" s="9"/>
       <c r="N643" s="10"/>
@@ -34748,7 +34740,7 @@
         <v>71996003</v>
       </c>
       <c r="L644" s="9" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="M644" s="9"/>
       <c r="N644" s="10"/>
@@ -34786,7 +34778,7 @@
         <v>21799000</v>
       </c>
       <c r="L645" s="9" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="M645" s="9"/>
       <c r="N645" s="10"/>
@@ -34824,7 +34816,7 @@
         <v>87141009</v>
       </c>
       <c r="L646" s="9" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="M646" s="9"/>
       <c r="N646" s="10"/>
@@ -34862,7 +34854,7 @@
         <v>65985001</v>
       </c>
       <c r="L647" s="9" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="M647" s="9"/>
       <c r="N647" s="10"/>
@@ -34900,7 +34892,7 @@
         <v>11808007</v>
       </c>
       <c r="L648" s="9" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="M648" s="9"/>
       <c r="N648" s="10"/>
@@ -34938,7 +34930,7 @@
         <v>49967005</v>
       </c>
       <c r="L649" s="9" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="M649" s="9"/>
       <c r="N649" s="10"/>
@@ -34976,7 +34968,7 @@
         <v>69950008</v>
       </c>
       <c r="L650" s="9" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="M650" s="9"/>
       <c r="N650" s="10"/>
@@ -35014,7 +35006,7 @@
         <v>21452006</v>
       </c>
       <c r="L651" s="9" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="M651" s="9"/>
       <c r="N651" s="10"/>
@@ -35052,7 +35044,7 @@
         <v>35769007</v>
       </c>
       <c r="L652" s="9" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="M652" s="9"/>
       <c r="N652" s="10"/>
@@ -35090,7 +35082,7 @@
         <v>56094003</v>
       </c>
       <c r="L653" s="9" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="M653" s="9"/>
       <c r="N653" s="10"/>
@@ -35128,7 +35120,7 @@
         <v>50060007</v>
       </c>
       <c r="L654" s="9" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="M654" s="9"/>
       <c r="N654" s="10"/>
@@ -35166,7 +35158,7 @@
         <v>73138009</v>
       </c>
       <c r="L655" s="9" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="M655" s="9"/>
       <c r="N655" s="10"/>
@@ -35204,7 +35196,7 @@
         <v>86197001</v>
       </c>
       <c r="L656" s="9" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="M656" s="9"/>
       <c r="N656" s="10"/>
@@ -35242,7 +35234,7 @@
         <v>6105006</v>
       </c>
       <c r="L657" s="9" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="M657" s="9"/>
       <c r="N657" s="10"/>
@@ -35280,7 +35272,7 @@
         <v>32430008</v>
       </c>
       <c r="L658" s="9" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="M658" s="9"/>
       <c r="N658" s="10"/>
@@ -35318,7 +35310,7 @@
         <v>71737002</v>
       </c>
       <c r="L659" s="9" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="M659" s="9"/>
       <c r="N659" s="10"/>
@@ -35356,7 +35348,7 @@
         <v>77435000</v>
       </c>
       <c r="L660" s="9" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="M660" s="9"/>
       <c r="N660" s="10"/>
@@ -35394,7 +35386,7 @@
         <v>33766003</v>
       </c>
       <c r="L661" s="9" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M661" s="9"/>
       <c r="N661" s="10"/>
@@ -35432,7 +35424,7 @@
         <v>48405002</v>
       </c>
       <c r="L662" s="9" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="M662" s="9"/>
       <c r="N662" s="10"/>
@@ -35470,7 +35462,7 @@
         <v>52120002</v>
       </c>
       <c r="L663" s="9" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="M663" s="9"/>
       <c r="N663" s="10"/>
@@ -35508,7 +35500,7 @@
         <v>280849005</v>
       </c>
       <c r="L664" s="9" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="M664" s="9"/>
       <c r="N664" s="10"/>
@@ -35537,20 +35529,20 @@
         <v>1237</v>
       </c>
       <c r="I665" s="16" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="J665" s="17" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K665" s="128">
         <v>1186895000</v>
       </c>
       <c r="L665" s="9" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="M665" s="9"/>
       <c r="N665" s="129" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="666" spans="1:14" ht="34">
@@ -35586,13 +35578,13 @@
         <v>3572006</v>
       </c>
       <c r="L666" s="89" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="M666" s="107" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="N666" s="10" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="667" spans="1:14" ht="17">
@@ -35628,11 +35620,11 @@
         <v>1187337007</v>
       </c>
       <c r="L667" s="9" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="M667" s="9"/>
       <c r="N667" s="10" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="668" spans="1:14" ht="17">
@@ -35668,7 +35660,7 @@
         <v>35763008</v>
       </c>
       <c r="L668" s="9" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="M668" s="9"/>
     </row>
@@ -35697,7 +35689,7 @@
         <v>1743</v>
       </c>
       <c r="I669" s="16" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="J669" s="17">
         <v>55459</v>
@@ -35706,10 +35698,10 @@
         <v>46105003</v>
       </c>
       <c r="L669" s="9" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="M669" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N669" s="10"/>
     </row>
@@ -35738,7 +35730,7 @@
         <v>1745</v>
       </c>
       <c r="I670" s="16" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="J670" s="17">
         <v>55458</v>
@@ -35747,10 +35739,10 @@
         <v>46105003</v>
       </c>
       <c r="L670" s="9" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="M670" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N670" s="10"/>
     </row>
@@ -35770,26 +35762,26 @@
         <v>12</v>
       </c>
       <c r="G671" s="48" t="s">
+        <v>2050</v>
+      </c>
+      <c r="H671" s="49" t="s">
         <v>2051</v>
       </c>
-      <c r="H671" s="49" t="s">
+      <c r="I671" s="50" t="s">
         <v>2052</v>
       </c>
-      <c r="I671" s="50" t="s">
-        <v>2053</v>
-      </c>
       <c r="J671" s="51" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K671" s="123">
         <v>1187336003</v>
       </c>
       <c r="L671" s="61" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="M671" s="62"/>
       <c r="N671" s="127" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="672" spans="1:14" ht="17">
@@ -35825,7 +35817,7 @@
         <v>87166008</v>
       </c>
       <c r="L672" s="44" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="673" spans="2:12" ht="17">
@@ -35861,7 +35853,7 @@
         <v>24999009</v>
       </c>
       <c r="L673" s="44" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="674" spans="2:12" ht="17">
@@ -35893,7 +35885,7 @@
         <v>123037004</v>
       </c>
       <c r="L674" s="44" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="675" spans="2:12">
@@ -36568,7 +36560,7 @@
   </sheetData>
   <autoFilter ref="A1:N674" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:N674">
-      <sortCondition sortBy="cellColor" ref="K1:K674" dxfId="2"/>
+      <sortCondition sortBy="cellColor" ref="K1:K674" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36625,19 +36617,19 @@
         <v>736</v>
       </c>
       <c r="K1" s="68" t="s">
+        <v>2448</v>
+      </c>
+      <c r="L1" s="53" t="s">
         <v>2449</v>
       </c>
-      <c r="L1" s="53" t="s">
-        <v>2450</v>
-      </c>
       <c r="M1" s="53" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="N1" s="67" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="84" customHeight="1">
@@ -36673,10 +36665,10 @@
       <c r="K2" s="77"/>
       <c r="L2" s="78"/>
       <c r="M2" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N2" s="75" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="O2" s="74"/>
     </row>
@@ -36713,10 +36705,10 @@
       <c r="K3" s="77"/>
       <c r="L3" s="78"/>
       <c r="M3" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N3" s="75" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="O3" s="74"/>
     </row>
@@ -36750,7 +36742,7 @@
       <c r="L4" s="79"/>
       <c r="M4" s="9"/>
       <c r="N4" s="80" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -36783,7 +36775,7 @@
       <c r="L5" s="81"/>
       <c r="M5" s="9"/>
       <c r="N5" s="80" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="O5" s="2"/>
     </row>
@@ -36815,7 +36807,7 @@
       <c r="L6" s="79"/>
       <c r="M6" s="9"/>
       <c r="N6" s="80" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="O6" s="2"/>
     </row>
@@ -36849,7 +36841,7 @@
       <c r="L7" s="79"/>
       <c r="M7" s="9"/>
       <c r="N7" s="80" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -36881,7 +36873,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="80" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="O8" s="2"/>
     </row>
@@ -36917,13 +36909,13 @@
       </c>
       <c r="K9" s="70"/>
       <c r="L9" s="91" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="N9" s="80" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="O9" s="2"/>
     </row>
@@ -36959,13 +36951,13 @@
       </c>
       <c r="K10" s="70"/>
       <c r="L10" s="44" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="N10" s="80" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -36999,13 +36991,13 @@
       </c>
       <c r="K11" s="70"/>
       <c r="L11" s="82" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="N11" s="80" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="O11" s="2"/>
     </row>
@@ -37035,11 +37027,11 @@
       <c r="J12" s="12"/>
       <c r="K12" s="69"/>
       <c r="L12" s="74" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="80" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -37071,11 +37063,11 @@
       <c r="J13" s="19"/>
       <c r="K13" s="69"/>
       <c r="L13" s="103" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="80" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="O13" s="2"/>
     </row>
@@ -37109,7 +37101,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="75" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="O14" s="74"/>
     </row>
@@ -37138,14 +37130,14 @@
       <c r="I15" s="27"/>
       <c r="J15" s="12"/>
       <c r="K15" s="69" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="75" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -37178,11 +37170,11 @@
       <c r="J16" s="17"/>
       <c r="K16" s="69"/>
       <c r="L16" s="74" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="74" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="17">
@@ -37213,7 +37205,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="69"/>
       <c r="L17" s="79" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="18"/>
@@ -37251,13 +37243,13 @@
       <c r="J18" s="17"/>
       <c r="K18" s="69"/>
       <c r="L18" s="103" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>2003</v>
       </c>
       <c r="N18" s="103" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17">
@@ -37292,13 +37284,13 @@
       <c r="J19" s="17"/>
       <c r="K19" s="69"/>
       <c r="L19" s="103" t="s">
+        <v>2516</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>2031</v>
+      </c>
+      <c r="N19" s="103" t="s">
         <v>2517</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>2032</v>
-      </c>
-      <c r="N19" s="103" t="s">
-        <v>2518</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16">
@@ -37325,7 +37317,7 @@
       <c r="K20" s="69"/>
       <c r="L20" s="9"/>
       <c r="N20" s="108" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17">
@@ -37361,16 +37353,16 @@
         <v>32846</v>
       </c>
       <c r="K21" s="124" t="s">
+        <v>2506</v>
+      </c>
+      <c r="L21" s="103" t="s">
         <v>2507</v>
       </c>
-      <c r="L21" s="103" t="s">
-        <v>2508</v>
-      </c>
       <c r="M21" s="9" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17">
@@ -37406,16 +37398,16 @@
         <v>32845</v>
       </c>
       <c r="K22" s="124" t="s">
+        <v>2506</v>
+      </c>
+      <c r="L22" s="103" t="s">
         <v>2507</v>
       </c>
-      <c r="L22" s="103" t="s">
-        <v>2508</v>
-      </c>
       <c r="M22" s="9" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="O22" s="104" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
   </sheetData>
